--- a/RGGI PnL Output.xlsx
+++ b/RGGI PnL Output.xlsx
@@ -483,16 +483,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-418029.4450736127</v>
+        <v>-536164.3626365234</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>235183.6674646175</v>
+        <v>246716.3003867028</v>
       </c>
       <c r="E2" t="n">
-        <v>-182845.7776089952</v>
+        <v>-289448.0622498207</v>
       </c>
     </row>
     <row r="3">
@@ -500,16 +500,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-390849.3771234428</v>
+        <v>-505613.6867028183</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>233703.1268082395</v>
+        <v>245282.5310595101</v>
       </c>
       <c r="E3" t="n">
-        <v>-157146.2503152033</v>
+        <v>-260331.1556433082</v>
       </c>
     </row>
     <row r="4">
@@ -517,16 +517,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-363669.3091732729</v>
+        <v>-475063.0107691133</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>230364.8383358014</v>
+        <v>242084.8583412586</v>
       </c>
       <c r="E4" t="n">
-        <v>-133304.4708374714</v>
+        <v>-232978.1524278547</v>
       </c>
     </row>
     <row r="5">
@@ -534,16 +534,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-336489.241223103</v>
+        <v>-444512.3348354083</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>224087.2434605188</v>
+        <v>236131.5203311555</v>
       </c>
       <c r="E5" t="n">
-        <v>-112401.9977625842</v>
+        <v>-208380.8145042527</v>
       </c>
     </row>
     <row r="6">
@@ -551,16 +551,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>-309309.1732729331</v>
+        <v>-413961.6589017033</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>213898.2001470559</v>
+        <v>226547.5471940791</v>
       </c>
       <c r="E6" t="n">
-        <v>-95410.97312587721</v>
+        <v>-187414.1117076242</v>
       </c>
     </row>
     <row r="7">
@@ -568,16 +568,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-282129.1053227633</v>
+        <v>-383410.9829679982</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>199247.5380291459</v>
+        <v>212844.4482869169</v>
       </c>
       <c r="E7" t="n">
-        <v>-82881.56729361738</v>
+        <v>-170566.5346810813</v>
       </c>
     </row>
     <row r="8">
@@ -585,16 +585,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-254949.0373725934</v>
+        <v>-352860.3070342932</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>180204.7766957902</v>
+        <v>195078.7007086064</v>
       </c>
       <c r="E8" t="n">
-        <v>-74744.26067680321</v>
+        <v>-157781.6063256868</v>
       </c>
     </row>
     <row r="9">
@@ -602,16 +602,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-227768.9694224235</v>
+        <v>-322309.6311005881</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>157471.1106208323</v>
+        <v>173850.2531735288</v>
       </c>
       <c r="E9" t="n">
-        <v>-70297.85880159124</v>
+        <v>-148459.3779270593</v>
       </c>
     </row>
     <row r="10">
@@ -619,16 +619,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-200588.9014722536</v>
+        <v>-291758.9551668831</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>132223.1431716962</v>
+        <v>150165.7022930586</v>
       </c>
       <c r="E10" t="n">
-        <v>-68365.75830055741</v>
+        <v>-141593.2528738244</v>
       </c>
     </row>
     <row r="11">
@@ -636,16 +636,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>-173408.8335220838</v>
+        <v>-261208.2792331781</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>105864.7955088558</v>
+        <v>125232.5759539015</v>
       </c>
       <c r="E11" t="n">
-        <v>-67544.03801322795</v>
+        <v>-135975.7032792765</v>
       </c>
     </row>
     <row r="12">
@@ -653,16 +653,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>-146228.7655719139</v>
+        <v>-230657.603299473</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>79775.21925896633</v>
+        <v>100254.0566909572</v>
       </c>
       <c r="E12" t="n">
-        <v>-66453.54631294758</v>
+        <v>-130403.5466085158</v>
       </c>
     </row>
     <row r="13">
@@ -670,16 +670,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>-119048.697621744</v>
+        <v>-200106.927365768</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>55116.37343152899</v>
+        <v>76271.56175812396</v>
       </c>
       <c r="E13" t="n">
-        <v>-63932.32419021503</v>
+        <v>-123835.365607644</v>
       </c>
     </row>
     <row r="14">
@@ -687,16 +687,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>-91868.62967157415</v>
+        <v>-169556.251432063</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>32727.07705503395</v>
+        <v>54074.14525843225</v>
       </c>
       <c r="E14" t="n">
-        <v>-59141.5526165402</v>
+        <v>-115482.1061736307</v>
       </c>
     </row>
     <row r="15">
@@ -704,16 +704,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>-64688.56172140428</v>
+        <v>-139005.5754983579</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>13099.04072570964</v>
+        <v>34171.02784976931</v>
       </c>
       <c r="E15" t="n">
-        <v>-51589.52099569463</v>
+        <v>-104834.5476485886</v>
       </c>
     </row>
     <row r="16">
@@ -721,16 +721,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>-37508.4937712344</v>
+        <v>-108454.8995646529</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-3587.417188419004</v>
+        <v>16811.09708165169</v>
       </c>
       <c r="E16" t="n">
-        <v>-41095.91095965341</v>
+        <v>-91643.8024830012</v>
       </c>
     </row>
     <row r="17">
@@ -738,16 +738,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>-10328.42582106453</v>
+        <v>-77904.22363094786</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-17394.99449624414</v>
+        <v>2029.885781627336</v>
       </c>
       <c r="E17" t="n">
-        <v>-27723.42031730866</v>
+        <v>-75874.33784932052</v>
       </c>
     </row>
     <row r="18">
@@ -755,16 +755,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>16851.64212910535</v>
+        <v>-47353.54769724283</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-28551.55299189274</v>
+        <v>-10292.98920264284</v>
       </c>
       <c r="E18" t="n">
-        <v>-11699.91086278739</v>
+        <v>-57646.53689988567</v>
       </c>
     </row>
     <row r="19">
@@ -772,16 +772,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>44031.71007927522</v>
+        <v>-16802.87176353779</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-37378.49704848979</v>
+        <v>-20377.9725713012</v>
       </c>
       <c r="E19" t="n">
-        <v>6653.213030785439</v>
+        <v>-37180.84433483898</v>
       </c>
     </row>
     <row r="20">
@@ -789,16 +789,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>71211.77802944509</v>
+        <v>13747.80417016724</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-44233.52986028397</v>
+        <v>-28498.18933195449</v>
       </c>
       <c r="E20" t="n">
-        <v>26978.24816916112</v>
+        <v>-14750.38516178724</v>
       </c>
     </row>
     <row r="21">
@@ -806,16 +806,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>98391.84597961497</v>
+        <v>44298.48010387228</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-49470.10059574052</v>
+        <v>-34943.28357207144</v>
       </c>
       <c r="E21" t="n">
-        <v>48921.74538387445</v>
+        <v>9355.196531800844</v>
       </c>
     </row>
     <row r="22">
@@ -823,16 +823,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>125571.9139297848</v>
+        <v>74849.15603757731</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-53412.21340707999</v>
+        <v>-39994.45253779492</v>
       </c>
       <c r="E22" t="n">
-        <v>72159.70052270486</v>
+        <v>34854.70349978239</v>
       </c>
     </row>
     <row r="23">
@@ -840,16 +840,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>152751.9818799547</v>
+        <v>105399.8319712824</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-56341.52414492344</v>
+        <v>-43909.12584004744</v>
       </c>
       <c r="E23" t="n">
-        <v>96410.45773503129</v>
+        <v>61490.70613123492</v>
       </c>
     </row>
     <row r="24">
@@ -857,16 +857,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>179932.0498301246</v>
+        <v>135950.5079049874</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-58493.22874882883</v>
+        <v>-46913.14002237187</v>
       </c>
       <c r="E24" t="n">
-        <v>121438.8210812958</v>
+        <v>89037.36788261551</v>
       </c>
     </row>
     <row r="25">
@@ -874,16 +874,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>207112.1177802945</v>
+        <v>166501.1838386924</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-60057.58355173325</v>
+        <v>-49198.24464008049</v>
       </c>
       <c r="E25" t="n">
-        <v>147054.5342285612</v>
+        <v>117302.9391986119</v>
       </c>
     </row>
     <row r="26">
@@ -891,16 +891,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>234292.1857304644</v>
+        <v>197051.8597723975</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-61184.56170645876</v>
+        <v>-50923.06959504671</v>
       </c>
       <c r="E26" t="n">
-        <v>173107.6240240056</v>
+        <v>146128.7901773507</v>
       </c>
     </row>
     <row r="27">
@@ -908,16 +908,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>261472.2536806343</v>
+        <v>227602.5357061025</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-61989.86833269217</v>
+        <v>-52216.09229684211</v>
       </c>
       <c r="E27" t="n">
-        <v>199482.3853479421</v>
+        <v>175386.4434092604</v>
       </c>
     </row>
     <row r="28">
@@ -925,16 +925,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>288652.3216308041</v>
+        <v>258153.2116398076</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-62561.16677276221</v>
+        <v>-53179.55207153016</v>
       </c>
       <c r="E28" t="n">
-        <v>226091.1548580419</v>
+        <v>204973.6595682774</v>
       </c>
     </row>
     <row r="29">
@@ -942,16 +942,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>315832.389580974</v>
+        <v>288703.8875735126</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-62963.85566400563</v>
+        <v>-53893.61063287999</v>
       </c>
       <c r="E29" t="n">
-        <v>252868.5339169684</v>
+        <v>234810.2769406326</v>
       </c>
     </row>
     <row r="30">
@@ -959,16 +959,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>343012.4575311439</v>
+        <v>319254.5635072176</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-63246.07929941128</v>
+        <v>-54420.33144994485</v>
       </c>
       <c r="E30" t="n">
-        <v>279766.3782317326</v>
+        <v>264834.2320572728</v>
       </c>
     </row>
     <row r="31">
@@ -976,16 +976,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>370192.5254813138</v>
+        <v>349805.2394409227</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-63442.87438863814</v>
+        <v>-54807.24889751156</v>
       </c>
       <c r="E31" t="n">
-        <v>306749.6510926756</v>
+        <v>294997.9905434111</v>
       </c>
     </row>
     <row r="32">
@@ -993,16 +993,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>397372.5934314835</v>
+        <v>380355.9153746277</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-63579.48479138329</v>
+        <v>-55090.43161166005</v>
       </c>
       <c r="E32" t="n">
-        <v>333793.1086401003</v>
+        <v>325265.4837629676</v>
       </c>
     </row>
   </sheetData>
@@ -1056,16 +1056,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-418029.4450736127</v>
+        <v>-536164.3626365234</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>236724.9761879557</v>
+        <v>248255.2201118461</v>
       </c>
       <c r="E2" t="n">
-        <v>-181304.468885657</v>
+        <v>-287909.1425246773</v>
       </c>
     </row>
     <row r="3">
@@ -1073,16 +1073,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-390849.3771234428</v>
+        <v>-505613.6867028183</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>236479.5314484251</v>
+        <v>248009.4415766113</v>
       </c>
       <c r="E3" t="n">
-        <v>-154369.8456750176</v>
+        <v>-257604.245126207</v>
       </c>
     </row>
     <row r="4">
@@ -1090,16 +1090,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-363669.3091732729</v>
+        <v>-475063.0107691133</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>235552.1546257964</v>
+        <v>247086.6749867558</v>
       </c>
       <c r="E4" t="n">
-        <v>-128117.1545474765</v>
+        <v>-227976.3357823575</v>
       </c>
     </row>
     <row r="5">
@@ -1107,16 +1107,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-336489.241223103</v>
+        <v>-444512.3348354083</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>232930.9455867118</v>
+        <v>244499.1963721236</v>
       </c>
       <c r="E5" t="n">
-        <v>-103558.2956363913</v>
+        <v>-200013.1384632847</v>
       </c>
     </row>
     <row r="6">
@@ -1124,16 +1124,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>-309309.1732729331</v>
+        <v>-413961.6589017033</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>227067.2783508822</v>
+        <v>238762.7650357248</v>
       </c>
       <c r="E6" t="n">
-        <v>-82241.89492205094</v>
+        <v>-175198.8938659785</v>
       </c>
     </row>
     <row r="7">
@@ -1141,16 +1141,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-282129.1053227633</v>
+        <v>-383410.9829679982</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>216236.2978759919</v>
+        <v>228262.1747101303</v>
       </c>
       <c r="E7" t="n">
-        <v>-65892.80744677139</v>
+        <v>-155148.8082578678</v>
       </c>
     </row>
     <row r="8">
@@ -1158,16 +1158,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-254949.0373725934</v>
+        <v>-352860.3070342932</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>199174.1285696656</v>
+        <v>211850.9424927209</v>
       </c>
       <c r="E8" t="n">
-        <v>-55774.90880292779</v>
+        <v>-141009.3645415723</v>
       </c>
     </row>
     <row r="9">
@@ -1175,16 +1175,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-227768.9694224235</v>
+        <v>-322309.6311005881</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>175670.2132684651</v>
+        <v>189369.3871232737</v>
       </c>
       <c r="E9" t="n">
-        <v>-52098.75615395844</v>
+        <v>-132940.2439773145</v>
       </c>
     </row>
     <row r="10">
@@ -1192,16 +1192,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-200588.9014722536</v>
+        <v>-291758.9551668831</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>146793.0545406216</v>
+        <v>161806.5968369959</v>
       </c>
       <c r="E10" t="n">
-        <v>-53795.846931632</v>
+        <v>-129952.3583298872</v>
       </c>
     </row>
     <row r="11">
@@ -1209,16 +1209,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>-173408.8335220838</v>
+        <v>-261208.2792331781</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>114644.7232718049</v>
+        <v>131051.9936175842</v>
       </c>
       <c r="E11" t="n">
-        <v>-58764.11025027891</v>
+        <v>-130156.2856155939</v>
       </c>
     </row>
     <row r="12">
@@ -1226,16 +1226,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>-146228.7655719139</v>
+        <v>-230657.603299473</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>81791.25020964674</v>
+        <v>99392.32542174916</v>
       </c>
       <c r="E12" t="n">
-        <v>-64437.51536226718</v>
+        <v>-131265.2778777239</v>
       </c>
     </row>
     <row r="13">
@@ -1243,16 +1243,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>-119048.697621744</v>
+        <v>-200106.927365768</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>50637.83072172874</v>
+        <v>68985.02920352967</v>
       </c>
       <c r="E13" t="n">
-        <v>-68410.86690001529</v>
+        <v>-131121.8981622383</v>
       </c>
     </row>
     <row r="14">
@@ -1260,16 +1260,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>-91868.62967157415</v>
+        <v>-169556.251432063</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>22975.84123610788</v>
+        <v>41483.00326119242</v>
       </c>
       <c r="E14" t="n">
-        <v>-68892.78843546627</v>
+        <v>-128073.2481708706</v>
       </c>
     </row>
     <row r="15">
@@ -1277,16 +1277,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>-64688.56172140428</v>
+        <v>-139005.5754983579</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-202.8191272518852</v>
+        <v>17875.36980528642</v>
       </c>
       <c r="E15" t="n">
-        <v>-64891.38084865616</v>
+        <v>-121130.2056930715</v>
       </c>
     </row>
     <row r="16">
@@ -1294,16 +1294,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>-37508.4937712344</v>
+        <v>-108454.8995646529</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-18654.16357202284</v>
+        <v>-1484.462030342576</v>
       </c>
       <c r="E16" t="n">
-        <v>-56162.65734325724</v>
+        <v>-109939.3615949955</v>
       </c>
     </row>
     <row r="17">
@@ -1311,16 +1311,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>-10328.42582106453</v>
+        <v>-77904.22363094786</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-32689.61111865829</v>
+        <v>-16737.17920974829</v>
       </c>
       <c r="E17" t="n">
-        <v>-43018.03693972282</v>
+        <v>-94641.40284069616</v>
       </c>
     </row>
     <row r="18">
@@ -1328,16 +1328,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>16851.64212910535</v>
+        <v>-47353.54769724283</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-42943.44580914786</v>
+        <v>-28337.67373613519</v>
       </c>
       <c r="E18" t="n">
-        <v>-26091.80368004251</v>
+        <v>-75691.22143337801</v>
       </c>
     </row>
     <row r="19">
@@ -1345,16 +1345,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>44031.71007927522</v>
+        <v>-16802.87176353779</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-50170.15075098431</v>
+        <v>-36890.0975490053</v>
       </c>
       <c r="E19" t="n">
-        <v>-6138.440671709082</v>
+        <v>-53692.96931254309</v>
       </c>
     </row>
     <row r="20">
@@ -1362,16 +1362,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>71211.77802944509</v>
+        <v>13747.80417016724</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-55102.90077368441</v>
+        <v>-43024.12660799881</v>
       </c>
       <c r="E20" t="n">
-        <v>16108.87725576069</v>
+        <v>-29276.32243783157</v>
       </c>
     </row>
     <row r="21">
@@ -1379,16 +1379,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>98391.84597961497</v>
+        <v>44298.48010387228</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-58375.06096941168</v>
+        <v>-47317.57272011421</v>
       </c>
       <c r="E21" t="n">
-        <v>40016.78501020329</v>
+        <v>-3019.092616241935</v>
       </c>
     </row>
     <row r="22">
@@ -1396,16 +1396,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>125571.9139297848</v>
+        <v>74849.15603757731</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-60491.01671644944</v>
+        <v>-50258.33376933806</v>
       </c>
       <c r="E22" t="n">
-        <v>65080.8972133354</v>
+        <v>24590.82226823925</v>
       </c>
     </row>
     <row r="23">
@@ -1413,16 +1413,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>152751.9818799547</v>
+        <v>105399.8319712824</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-61828.49179894299</v>
+        <v>-52234.17759687237</v>
       </c>
       <c r="E23" t="n">
-        <v>90923.49008101173</v>
+        <v>53165.65437440999</v>
       </c>
     </row>
     <row r="24">
@@ -1430,16 +1430,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>179932.0498301246</v>
+        <v>135950.5079049874</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-62656.85766576054</v>
+        <v>-53539.16641505697</v>
       </c>
       <c r="E24" t="n">
-        <v>117275.1921643641</v>
+        <v>82411.3414899304</v>
       </c>
     </row>
     <row r="25">
@@ -1447,16 +1447,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>207112.1177802945</v>
+        <v>166501.1838386924</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-63160.65101331781</v>
+        <v>-54388.0306054868</v>
       </c>
       <c r="E25" t="n">
-        <v>143951.4667669767</v>
+        <v>112113.1532332056</v>
       </c>
     </row>
     <row r="26">
@@ -1464,16 +1464,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>234292.1857304644</v>
+        <v>197051.8597723975</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-63462.0993091102</v>
+        <v>-54932.74776965529</v>
       </c>
       <c r="E26" t="n">
-        <v>170830.0864213542</v>
+        <v>142119.1120027422</v>
       </c>
     </row>
     <row r="27">
@@ -1481,16 +1481,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>261472.2536806343</v>
+        <v>227602.5357061025</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-63639.8666435352</v>
+        <v>-55278.09012993644</v>
       </c>
       <c r="E27" t="n">
-        <v>197832.387037099</v>
+        <v>172324.4455761661</v>
       </c>
     </row>
     <row r="28">
@@ -1498,16 +1498,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>288652.3216308041</v>
+        <v>258153.2116398076</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-63743.34294234175</v>
+        <v>-55494.68576045388</v>
       </c>
       <c r="E28" t="n">
-        <v>224908.9786884623</v>
+        <v>202658.5258793537</v>
       </c>
     </row>
     <row r="29">
@@ -1515,16 +1515,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>315832.389580974</v>
+        <v>288703.8875735126</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-63802.87929541605</v>
+        <v>-55629.23614630619</v>
       </c>
       <c r="E29" t="n">
-        <v>252029.5102855579</v>
+        <v>233074.6514272064</v>
       </c>
     </row>
     <row r="30">
@@ -1532,16 +1532,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>343012.4575311439</v>
+        <v>319254.5635072176</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-63836.78072256058</v>
+        <v>-55712.10983876108</v>
       </c>
       <c r="E30" t="n">
-        <v>279175.6768085833</v>
+        <v>263542.4536684565</v>
       </c>
     </row>
     <row r="31">
@@ -1549,16 +1549,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>370192.5254813138</v>
+        <v>349805.2394409227</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-63855.90725942652</v>
+        <v>-55762.76912235291</v>
       </c>
       <c r="E31" t="n">
-        <v>306336.6182218872</v>
+        <v>294042.4703185698</v>
       </c>
     </row>
     <row r="32">
@@ -1566,16 +1566,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>397372.5934314835</v>
+        <v>380355.9153746277</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-63866.60957294452</v>
+        <v>-55793.52900541547</v>
       </c>
       <c r="E32" t="n">
-        <v>333505.983858539</v>
+        <v>324562.3863692122</v>
       </c>
     </row>
   </sheetData>
@@ -1629,16 +1629,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-418029.4450736127</v>
+        <v>-536164.3626365234</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>237652.3030712309</v>
+        <v>249193.0404246387</v>
       </c>
       <c r="E2" t="n">
-        <v>-180377.1420023818</v>
+        <v>-286971.3222118848</v>
       </c>
     </row>
     <row r="3">
@@ -1646,16 +1646,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-390849.3771234428</v>
+        <v>-505613.6867028183</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>237652.1862537123</v>
+        <v>249192.9222518131</v>
       </c>
       <c r="E3" t="n">
-        <v>-153197.1908697304</v>
+        <v>-256420.7644510052</v>
       </c>
     </row>
     <row r="4">
@@ -1663,16 +1663,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-363669.3091732729</v>
+        <v>-475063.0107691133</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>237648.2230116233</v>
+        <v>249188.9131561333</v>
       </c>
       <c r="E4" t="n">
-        <v>-126021.0861616496</v>
+        <v>-225874.0976129801</v>
       </c>
     </row>
     <row r="5">
@@ -1680,16 +1680,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-336489.241223103</v>
+        <v>-444512.3348354083</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>237587.3490333717</v>
+        <v>249127.3429494674</v>
       </c>
       <c r="E5" t="n">
-        <v>-98901.8921897313</v>
+        <v>-195384.9918859408</v>
       </c>
     </row>
     <row r="6">
@@ -1697,16 +1697,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>-309309.1732729331</v>
+        <v>-413961.6589017033</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>237091.6101540367</v>
+        <v>248626.1551359377</v>
       </c>
       <c r="E6" t="n">
-        <v>-72217.56311889639</v>
+        <v>-165335.5037657655</v>
       </c>
     </row>
     <row r="7">
@@ -1714,16 +1714,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-282129.1053227633</v>
+        <v>-383410.9829679982</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>234672.8802381404</v>
+        <v>246183.8267019021</v>
       </c>
       <c r="E7" t="n">
-        <v>-47456.22508462289</v>
+        <v>-137227.156266096</v>
       </c>
     </row>
     <row r="8">
@@ -1731,16 +1731,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-254949.0373725934</v>
+        <v>-352860.3070342932</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>226881.6298265233</v>
+        <v>238338.5083119528</v>
       </c>
       <c r="E8" t="n">
-        <v>-28067.40754607006</v>
+        <v>-114521.7987223404</v>
       </c>
     </row>
     <row r="9">
@@ -1748,16 +1748,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-227768.9694224235</v>
+        <v>-322309.6311005881</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>208966.4701334093</v>
+        <v>220392.8412010662</v>
       </c>
       <c r="E9" t="n">
-        <v>-18802.49928901417</v>
+        <v>-101916.7898995219</v>
       </c>
     </row>
     <row r="10">
@@ -1765,16 +1765,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-200588.9014722536</v>
+        <v>-291758.9551668831</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>177684.204480105</v>
+        <v>189299.8872201792</v>
       </c>
       <c r="E10" t="n">
-        <v>-22904.69699214862</v>
+        <v>-102459.0679467039</v>
       </c>
     </row>
     <row r="11">
@@ -1782,16 +1782,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>-173408.8335220838</v>
+        <v>-261208.2792331781</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>134218.3361262256</v>
+        <v>146473.4133221235</v>
       </c>
       <c r="E11" t="n">
-        <v>-39190.4973958582</v>
+        <v>-114734.8659110545</v>
       </c>
     </row>
     <row r="12">
@@ -1799,16 +1799,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>-146228.7655719139</v>
+        <v>-230657.603299473</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>84549.37510400522</v>
+        <v>97828.97314172101</v>
       </c>
       <c r="E12" t="n">
-        <v>-61679.3904679087</v>
+        <v>-132828.630157752</v>
       </c>
     </row>
     <row r="13">
@@ -1816,16 +1816,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>-119048.697621744</v>
+        <v>-200106.927365768</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>36835.30013637678</v>
+        <v>51016.04108613532</v>
       </c>
       <c r="E13" t="n">
-        <v>-82213.39748536724</v>
+        <v>-149090.8862796327</v>
       </c>
     </row>
     <row r="14">
@@ -1833,16 +1833,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>-91868.62967157415</v>
+        <v>-169556.251432063</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-2275.414315964888</v>
+        <v>12081.4922338994</v>
       </c>
       <c r="E14" t="n">
-        <v>-94144.04398753904</v>
+        <v>-157474.7591981636</v>
       </c>
     </row>
     <row r="15">
@@ -1850,16 +1850,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>-64688.56172140428</v>
+        <v>-139005.5754983579</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-29943.6948662762</v>
+        <v>-16330.18008783189</v>
       </c>
       <c r="E15" t="n">
-        <v>-94632.25658768049</v>
+        <v>-155335.7555861898</v>
       </c>
     </row>
     <row r="16">
@@ -1867,16 +1867,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>-37508.4937712344</v>
+        <v>-108454.8995646529</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-47010.02122207268</v>
+        <v>-34744.78120384233</v>
       </c>
       <c r="E16" t="n">
-        <v>-84518.51499330708</v>
+        <v>-143199.6807684952</v>
       </c>
     </row>
     <row r="17">
@@ -1884,16 +1884,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>-10328.42582106453</v>
+        <v>-77904.22363094786</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-56280.94855469371</v>
+        <v>-45458.21195664926</v>
       </c>
       <c r="E17" t="n">
-        <v>-66609.37437575824</v>
+        <v>-123362.4355875971</v>
       </c>
     </row>
     <row r="18">
@@ -1901,16 +1901,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>16851.64212910535</v>
+        <v>-47353.54769724283</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-60761.06511278937</v>
+        <v>-51107.03974936268</v>
       </c>
       <c r="E18" t="n">
-        <v>-43909.42298368402</v>
+        <v>-98460.58744660551</v>
       </c>
     </row>
     <row r="19">
@@ -1918,16 +1918,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>44031.71007927522</v>
+        <v>-16802.87176353779</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-62706.14672694581</v>
+        <v>-53830.38284331711</v>
       </c>
       <c r="E19" t="n">
-        <v>-18674.43664767058</v>
+        <v>-70633.2546068549</v>
       </c>
     </row>
     <row r="20">
@@ -1935,16 +1935,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>71211.77802944509</v>
+        <v>13747.80417016724</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-63472.1281440878</v>
+        <v>-55040.81607202601</v>
       </c>
       <c r="E20" t="n">
-        <v>7739.649885357292</v>
+        <v>-41293.01190185876</v>
       </c>
     </row>
     <row r="21">
@@ -1952,16 +1952,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>98391.84597961497</v>
+        <v>44298.48010387228</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-63748.22221696034</v>
+        <v>-55540.61259977247</v>
       </c>
       <c r="E21" t="n">
-        <v>34643.62376265463</v>
+        <v>-11242.13249590019</v>
       </c>
     </row>
     <row r="22">
@@ -1969,16 +1969,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>125571.9139297848</v>
+        <v>74849.15603757731</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-63840.0795562561</v>
+        <v>-55733.68523094275</v>
       </c>
       <c r="E22" t="n">
-        <v>61731.83437352875</v>
+        <v>19115.47080663456</v>
       </c>
     </row>
     <row r="23">
@@ -1986,16 +1986,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>152751.9818799547</v>
+        <v>105399.8319712824</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-63868.50858485853</v>
+        <v>-55803.91654825249</v>
       </c>
       <c r="E23" t="n">
-        <v>88883.47329509619</v>
+        <v>49595.91542302987</v>
       </c>
     </row>
     <row r="24">
@@ -2003,16 +2003,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>179932.0498301246</v>
+        <v>135950.5079049874</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-63876.75163447328</v>
+        <v>-55828.11494816346</v>
       </c>
       <c r="E24" t="n">
-        <v>116055.2981956513</v>
+        <v>80122.39295682391</v>
       </c>
     </row>
     <row r="25">
@@ -2020,16 +2020,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>207112.1177802945</v>
+        <v>166501.1838386924</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-63879.00535999659</v>
+        <v>-55836.05494056897</v>
       </c>
       <c r="E25" t="n">
-        <v>143233.1124202979</v>
+        <v>110665.1288981235</v>
       </c>
     </row>
     <row r="26">
@@ -2037,16 +2037,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>234292.1857304644</v>
+        <v>197051.8597723975</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-63879.58981429366</v>
+        <v>-55838.54808518964</v>
       </c>
       <c r="E26" t="n">
-        <v>170412.5959161707</v>
+        <v>141213.3116872078</v>
       </c>
     </row>
     <row r="27">
@@ -2054,16 +2054,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>261472.2536806343</v>
+        <v>227602.5357061025</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-63879.7343400005</v>
+        <v>-55839.30055067016</v>
       </c>
       <c r="E27" t="n">
-        <v>197592.5193406338</v>
+        <v>171763.2351554324</v>
       </c>
     </row>
     <row r="28">
@@ -2071,16 +2071,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>288652.3216308041</v>
+        <v>258153.2116398076</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-63879.76858311305</v>
+        <v>-55839.51971697132</v>
       </c>
       <c r="E28" t="n">
-        <v>224772.5530476911</v>
+        <v>202313.6919228362</v>
       </c>
     </row>
     <row r="29">
@@ -2088,16 +2088,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>315832.389580974</v>
+        <v>288703.8875735126</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-63879.77639082519</v>
+        <v>-55839.58154432548</v>
       </c>
       <c r="E29" t="n">
-        <v>251952.6131901488</v>
+        <v>232864.3060291871</v>
       </c>
     </row>
     <row r="30">
@@ -2105,16 +2105,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>343012.4575311439</v>
+        <v>319254.5635072176</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-63879.77811073295</v>
+        <v>-55839.59849276837</v>
       </c>
       <c r="E30" t="n">
-        <v>279132.6794204109</v>
+        <v>263414.9650144493</v>
       </c>
     </row>
     <row r="31">
@@ -2122,16 +2122,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>370192.5254813138</v>
+        <v>349805.2394409227</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-63879.77847806861</v>
+        <v>-55839.60302079888</v>
       </c>
       <c r="E31" t="n">
-        <v>306312.7470032452</v>
+        <v>293965.6364201238</v>
       </c>
     </row>
     <row r="32">
@@ -2139,16 +2139,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>397372.5934314835</v>
+        <v>380355.9153746277</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-63879.77855438145</v>
+        <v>-55839.60420298659</v>
       </c>
       <c r="E32" t="n">
-        <v>333492.8148771021</v>
+        <v>324516.3111716411</v>
       </c>
     </row>
   </sheetData>
@@ -2202,16 +2202,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-418029.4450736127</v>
+        <v>-536164.3626365234</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>238091.6630927436</v>
+        <v>249637.5010894914</v>
       </c>
       <c r="E2" t="n">
-        <v>-179937.7819808691</v>
+        <v>-286526.861547032</v>
       </c>
     </row>
     <row r="3">
@@ -2219,16 +2219,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-390849.3771234428</v>
+        <v>-505613.6867028183</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>238091.6630927436</v>
+        <v>249637.5010894915</v>
       </c>
       <c r="E3" t="n">
-        <v>-152757.7140306992</v>
+        <v>-255976.1856133268</v>
       </c>
     </row>
     <row r="4">
@@ -2236,16 +2236,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-363669.3091732729</v>
+        <v>-475063.0107691133</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>238091.6630927436</v>
+        <v>249637.5010894915</v>
       </c>
       <c r="E4" t="n">
-        <v>-125577.6460805293</v>
+        <v>-225425.5096796218</v>
       </c>
     </row>
     <row r="5">
@@ -2253,16 +2253,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-336489.241223103</v>
+        <v>-444512.3348354083</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>238091.6630927437</v>
+        <v>249637.5010894915</v>
       </c>
       <c r="E5" t="n">
-        <v>-98397.5781303593</v>
+        <v>-194874.8337459167</v>
       </c>
     </row>
     <row r="6">
@@ -2270,16 +2270,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>-309309.1732729331</v>
+        <v>-413961.6589017033</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>238091.6630927437</v>
+        <v>249637.5010894916</v>
       </c>
       <c r="E6" t="n">
-        <v>-71217.51018018939</v>
+        <v>-164324.1578122117</v>
       </c>
     </row>
     <row r="7">
@@ -2287,16 +2287,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-282129.1053227633</v>
+        <v>-383410.9829679982</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>238091.6630926162</v>
+        <v>249637.5010893625</v>
       </c>
       <c r="E7" t="n">
-        <v>-44037.44223014708</v>
+        <v>-133773.4818786357</v>
       </c>
     </row>
     <row r="8">
@@ -2304,16 +2304,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-254949.0373725934</v>
+        <v>-352860.3070342932</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>238091.5786219965</v>
+        <v>249637.4156381018</v>
       </c>
       <c r="E8" t="n">
-        <v>-16857.45875059685</v>
+        <v>-103222.8913961914</v>
       </c>
     </row>
     <row r="9">
@@ -2321,16 +2321,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-227768.9694224235</v>
+        <v>-322309.6311005881</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>237824.9519143221</v>
+        <v>249367.6935924936</v>
       </c>
       <c r="E9" t="n">
-        <v>10055.98249189858</v>
+        <v>-72941.93750809453</v>
       </c>
     </row>
     <row r="10">
@@ -2338,16 +2338,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-200588.9014722536</v>
+        <v>-291758.9551668831</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>222986.4053929766</v>
+        <v>234356.8825732298</v>
       </c>
       <c r="E10" t="n">
-        <v>22397.50392072299</v>
+        <v>-57402.07259365323</v>
       </c>
     </row>
     <row r="11">
@@ -2355,16 +2355,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>-173408.8335220838</v>
+        <v>-261208.2792331781</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>162086.4078282841</v>
+        <v>172749.8814316897</v>
       </c>
       <c r="E11" t="n">
-        <v>-11322.42569379968</v>
+        <v>-88458.39780148841</v>
       </c>
     </row>
     <row r="12">
@@ -2372,16 +2372,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>-146228.7655719139</v>
+        <v>-230657.603299473</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>86959.19406307583</v>
+        <v>96751.91361960354</v>
       </c>
       <c r="E12" t="n">
-        <v>-59269.57150883808</v>
+        <v>-133905.6896798695</v>
       </c>
     </row>
     <row r="13">
@@ -2389,16 +2389,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>-119048.697621744</v>
+        <v>-200106.927365768</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>11915.53679006228</v>
+        <v>21102.16904613879</v>
       </c>
       <c r="E13" t="n">
-        <v>-107133.1608316817</v>
+        <v>-179004.7583196292</v>
       </c>
     </row>
     <row r="14">
@@ -2406,16 +2406,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>-91868.62967157415</v>
+        <v>-169556.251432063</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-47659.79134453838</v>
+        <v>-38028.02607814046</v>
       </c>
       <c r="E14" t="n">
-        <v>-139528.4210161125</v>
+        <v>-207584.2775102034</v>
       </c>
     </row>
     <row r="15">
@@ -2423,16 +2423,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>-64688.56172140428</v>
+        <v>-139005.5754983579</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-63299.50752945664</v>
+        <v>-54935.14390178785</v>
       </c>
       <c r="E15" t="n">
-        <v>-127988.0692508609</v>
+        <v>-193940.7194001458</v>
       </c>
     </row>
     <row r="16">
@@ -2440,16 +2440,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>-37508.4937712344</v>
+        <v>-108454.8995646529</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-63877.65892440893</v>
+        <v>-55832.75126551952</v>
       </c>
       <c r="E16" t="n">
-        <v>-101386.1526956433</v>
+        <v>-164287.6508301724</v>
       </c>
     </row>
     <row r="17">
@@ -2457,16 +2457,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>-10328.42582106453</v>
+        <v>-77904.22363094786</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-63879.77779270002</v>
+        <v>-55839.59698071695</v>
       </c>
       <c r="E17" t="n">
-        <v>-74208.20361376455</v>
+        <v>-133743.8206116648</v>
       </c>
     </row>
     <row r="18">
@@ -2474,16 +2474,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>16851.64212910535</v>
+        <v>-47353.54769724283</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-63879.77857361496</v>
+        <v>-55839.60460460716</v>
       </c>
       <c r="E18" t="n">
-        <v>-47028.13644450961</v>
+        <v>-103193.15230185</v>
       </c>
     </row>
     <row r="19">
@@ -2491,16 +2491,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>44031.71007927522</v>
+        <v>-16802.87176353779</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-63879.77857364913</v>
+        <v>-55839.60460602305</v>
       </c>
       <c r="E19" t="n">
-        <v>-19848.0684943739</v>
+        <v>-72642.47636956084</v>
       </c>
     </row>
     <row r="20">
@@ -2508,16 +2508,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>71211.77802944509</v>
+        <v>13747.80417016724</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-63879.77857364913</v>
+        <v>-55839.60460602311</v>
       </c>
       <c r="E20" t="n">
-        <v>7331.999455795965</v>
+        <v>-42091.80043585587</v>
       </c>
     </row>
     <row r="21">
@@ -2525,16 +2525,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>98391.84597961497</v>
+        <v>44298.48010387228</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-63879.77857364913</v>
+        <v>-55839.60460602311</v>
       </c>
       <c r="E21" t="n">
-        <v>34512.06740596584</v>
+        <v>-11541.12450215083</v>
       </c>
     </row>
     <row r="22">
@@ -2542,16 +2542,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>125571.9139297848</v>
+        <v>74849.15603757731</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-63879.77857364913</v>
+        <v>-55839.60460602311</v>
       </c>
       <c r="E22" t="n">
-        <v>61692.13535613572</v>
+        <v>19009.5514315542</v>
       </c>
     </row>
     <row r="23">
@@ -2559,16 +2559,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>152751.9818799547</v>
+        <v>105399.8319712824</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-63879.77857364913</v>
+        <v>-55839.60460602311</v>
       </c>
       <c r="E23" t="n">
-        <v>88872.2033063056</v>
+        <v>49560.22736525925</v>
       </c>
     </row>
     <row r="24">
@@ -2576,16 +2576,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>179932.0498301246</v>
+        <v>135950.5079049874</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-63879.77857364913</v>
+        <v>-55839.60460602311</v>
       </c>
       <c r="E24" t="n">
-        <v>116052.2712564755</v>
+        <v>80110.90329896426</v>
       </c>
     </row>
     <row r="25">
@@ -2593,16 +2593,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>207112.1177802945</v>
+        <v>166501.1838386924</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-63879.77857364913</v>
+        <v>-55839.60460602311</v>
       </c>
       <c r="E25" t="n">
-        <v>143232.3392066454</v>
+        <v>110661.5792326693</v>
       </c>
     </row>
     <row r="26">
@@ -2610,16 +2610,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>234292.1857304644</v>
+        <v>197051.8597723975</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-63879.77857364913</v>
+        <v>-55839.60460602311</v>
       </c>
       <c r="E26" t="n">
-        <v>170412.4071568153</v>
+        <v>141212.2551663744</v>
       </c>
     </row>
     <row r="27">
@@ -2627,16 +2627,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>261472.2536806343</v>
+        <v>227602.5357061025</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-63879.77857364913</v>
+        <v>-55839.60460602311</v>
       </c>
       <c r="E27" t="n">
-        <v>197592.4751069851</v>
+        <v>171762.9311000794</v>
       </c>
     </row>
     <row r="28">
@@ -2644,16 +2644,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>288652.3216308041</v>
+        <v>258153.2116398076</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-63879.77857364913</v>
+        <v>-55839.60460602311</v>
       </c>
       <c r="E28" t="n">
-        <v>224772.543057155</v>
+        <v>202313.6070337844</v>
       </c>
     </row>
     <row r="29">
@@ -2661,16 +2661,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>315832.389580974</v>
+        <v>288703.8875735126</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-63879.77857364913</v>
+        <v>-55839.60460602311</v>
       </c>
       <c r="E29" t="n">
-        <v>251952.6110073249</v>
+        <v>232864.2829674894</v>
       </c>
     </row>
     <row r="30">
@@ -2678,16 +2678,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>343012.4575311439</v>
+        <v>319254.5635072176</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-63879.77857364913</v>
+        <v>-55839.60460602311</v>
       </c>
       <c r="E30" t="n">
-        <v>279132.6789574947</v>
+        <v>263414.9589011945</v>
       </c>
     </row>
     <row r="31">
@@ -2695,16 +2695,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>370192.5254813138</v>
+        <v>349805.2394409227</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-63879.77857364913</v>
+        <v>-55839.60460602311</v>
       </c>
       <c r="E31" t="n">
-        <v>306312.7469076646</v>
+        <v>293965.6348348996</v>
       </c>
     </row>
     <row r="32">
@@ -2712,16 +2712,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>397372.5934314835</v>
+        <v>380355.9153746277</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-63879.77857364913</v>
+        <v>-55839.60460602311</v>
       </c>
       <c r="E32" t="n">
-        <v>333492.8148578344</v>
+        <v>324516.3107686046</v>
       </c>
     </row>
   </sheetData>
@@ -2775,16 +2775,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-418029.4450736127</v>
+        <v>-536164.3626365234</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>228530.0158088156</v>
+        <v>241217.7922675891</v>
       </c>
       <c r="E2" t="n">
-        <v>-189499.4292647971</v>
+        <v>-294946.5703689343</v>
       </c>
     </row>
     <row r="3">
@@ -2792,16 +2792,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-390849.3771234428</v>
+        <v>-505613.6867028183</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>223266.6541520143</v>
+        <v>236756.6220287571</v>
       </c>
       <c r="E3" t="n">
-        <v>-167582.7229714285</v>
+        <v>-268857.0646740613</v>
       </c>
     </row>
     <row r="4">
@@ -2809,16 +2809,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-363669.3091732729</v>
+        <v>-475063.0107691133</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>215272.2570580397</v>
+        <v>229867.026083402</v>
       </c>
       <c r="E4" t="n">
-        <v>-148397.0521152332</v>
+        <v>-245195.9846857113</v>
       </c>
     </row>
     <row r="5">
@@ -2826,16 +2826,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-336489.241223103</v>
+        <v>-444512.3348354083</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>204298.293106882</v>
+        <v>220267.4862448466</v>
       </c>
       <c r="E5" t="n">
-        <v>-132190.9481162211</v>
+        <v>-224244.8485905617</v>
       </c>
     </row>
     <row r="6">
@@ -2843,16 +2843,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>-309309.1732729331</v>
+        <v>-413961.6589017033</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>190416.9887576075</v>
+        <v>207951.8253688368</v>
       </c>
       <c r="E6" t="n">
-        <v>-118892.1845153256</v>
+        <v>-206009.8335328664</v>
       </c>
     </row>
     <row r="7">
@@ -2860,16 +2860,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-282129.1053227633</v>
+        <v>-383410.9829679982</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>173995.2415794199</v>
+        <v>193177.1168924362</v>
       </c>
       <c r="E7" t="n">
-        <v>-108133.8637433434</v>
+        <v>-190233.866075562</v>
       </c>
     </row>
     <row r="8">
@@ -2877,16 +2877,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-254949.0373725934</v>
+        <v>-352860.3070342932</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>155615.8633000161</v>
+        <v>176404.1269593896</v>
       </c>
       <c r="E8" t="n">
-        <v>-99333.17407257733</v>
+        <v>-176456.1800749036</v>
       </c>
     </row>
     <row r="9">
@@ -2894,16 +2894,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-227768.9694224235</v>
+        <v>-322309.6311005881</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>135977.1292114516</v>
+        <v>158215.7701802556</v>
       </c>
       <c r="E9" t="n">
-        <v>-91791.84021097189</v>
+        <v>-164093.8609203325</v>
       </c>
     </row>
     <row r="10">
@@ -2911,16 +2911,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-200588.9014722536</v>
+        <v>-291758.9551668831</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>115796.7343160642</v>
+        <v>139235.6795962311</v>
       </c>
       <c r="E10" t="n">
-        <v>-84792.16715618939</v>
+        <v>-152523.275570652</v>
       </c>
     </row>
     <row r="11">
@@ -2928,16 +2928,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>-173408.8335220838</v>
+        <v>-261208.2792331781</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>95736.19588023037</v>
+        <v>120061.0807206707</v>
       </c>
       <c r="E11" t="n">
-        <v>-77672.63764185342</v>
+        <v>-141147.1985125073</v>
       </c>
     </row>
     <row r="12">
@@ -2945,16 +2945,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>-146228.7655719139</v>
+        <v>-230657.603299473</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>76351.80235689956</v>
+        <v>101216.1220518367</v>
       </c>
       <c r="E12" t="n">
-        <v>-69876.96321501436</v>
+        <v>-129441.4812476363</v>
       </c>
     </row>
     <row r="13">
@@ -2962,16 +2962,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>-119048.697621744</v>
+        <v>-200106.927365768</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>58071.00063916889</v>
+        <v>83125.82021423815</v>
       </c>
       <c r="E13" t="n">
-        <v>-60977.69698257513</v>
+        <v>-116981.1071515299</v>
       </c>
     </row>
     <row r="14">
@@ -2979,16 +2979,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>-91868.62967157415</v>
+        <v>-169556.251432063</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>41189.15190413279</v>
+        <v>66107.30239311741</v>
       </c>
       <c r="E14" t="n">
-        <v>-50679.47776744136</v>
+        <v>-103448.9490389456</v>
       </c>
     </row>
     <row r="15">
@@ -2996,16 +2996,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>-64688.56172140428</v>
+        <v>-139005.5754983579</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>25880.26777228432</v>
+        <v>50373.65183368957</v>
       </c>
       <c r="E15" t="n">
-        <v>-38808.29394911996</v>
+        <v>-88631.92366466837</v>
       </c>
     </row>
     <row r="16">
@@ -3013,16 +3013,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>-37508.4937712344</v>
+        <v>-108454.8995646529</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>12215.71544584877</v>
+        <v>36045.67806402385</v>
       </c>
       <c r="E16" t="n">
-        <v>-25292.77832538564</v>
+        <v>-72409.22150062904</v>
       </c>
     </row>
     <row r="17">
@@ -3030,16 +3030,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>-10328.42582106453</v>
+        <v>-77904.22363094786</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>186.0937321327449</v>
+        <v>23167.68724764454</v>
       </c>
       <c r="E17" t="n">
-        <v>-10142.33208893178</v>
+        <v>-54736.53638330332</v>
       </c>
     </row>
     <row r="18">
@@ -3047,16 +3047,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>16851.64212910535</v>
+        <v>-47353.54769724283</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-10277.07691234221</v>
+        <v>11724.34349232926</v>
       </c>
       <c r="E18" t="n">
-        <v>6574.565216763142</v>
+        <v>-35629.20420491358</v>
       </c>
     </row>
     <row r="19">
@@ -3064,16 +3064,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>44031.71007927522</v>
+        <v>-16802.87176353779</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-19281.88974277805</v>
+        <v>1656.700964916768</v>
       </c>
       <c r="E19" t="n">
-        <v>24749.82033649717</v>
+        <v>-15146.17079862102</v>
       </c>
     </row>
     <row r="20">
@@ -3081,16 +3081,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>71211.77802944509</v>
+        <v>13747.80417016724</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-26959.81338229445</v>
+        <v>-7123.69107514695</v>
       </c>
       <c r="E20" t="n">
-        <v>44251.96464715064</v>
+        <v>6624.113095020295</v>
       </c>
     </row>
     <row r="21">
@@ -3098,16 +3098,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>98391.84597961497</v>
+        <v>44298.48010387228</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-33452.95108790357</v>
+        <v>-14723.09586846517</v>
       </c>
       <c r="E21" t="n">
-        <v>64938.8948917114</v>
+        <v>29575.38423540711</v>
       </c>
     </row>
     <row r="22">
@@ -3115,16 +3115,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>125571.9139297848</v>
+        <v>74849.15603757731</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-38904.61250284372</v>
+        <v>-21256.38122769716</v>
       </c>
       <c r="E22" t="n">
-        <v>86667.30142694112</v>
+        <v>53592.77480988015</v>
       </c>
     </row>
     <row r="23">
@@ -3132,16 +3132,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>152751.9818799547</v>
+        <v>105399.8319712824</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-43452.76810488224</v>
+        <v>-26840.11722617826</v>
       </c>
       <c r="E23" t="n">
-        <v>109299.2137750725</v>
+        <v>78559.71474510409</v>
       </c>
     </row>
     <row r="24">
@@ -3149,16 +3149,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>179932.0498301246</v>
+        <v>135950.5079049874</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-47225.8602294688</v>
+        <v>-31587.67110599545</v>
       </c>
       <c r="E24" t="n">
-        <v>132706.1896006558</v>
+        <v>104362.8367989919</v>
       </c>
     </row>
     <row r="25">
@@ -3166,16 +3166,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>207112.1177802945</v>
+        <v>166501.1838386924</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-50340.44234313692</v>
+        <v>-35605.94430224523</v>
       </c>
       <c r="E25" t="n">
-        <v>156771.6754371576</v>
+        <v>130895.2395364472</v>
       </c>
     </row>
     <row r="26">
@@ -3183,16 +3183,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>234292.1857304644</v>
+        <v>197051.8597723975</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-52900.16888607453</v>
+        <v>-38993.40160939099</v>
       </c>
       <c r="E26" t="n">
-        <v>181392.0168443898</v>
+        <v>158058.4581630065</v>
       </c>
     </row>
     <row r="27">
@@ -3200,16 +3200,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>261472.2536806343</v>
+        <v>227602.5357061025</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-54995.73275993075</v>
+        <v>-41839.07654322153</v>
       </c>
       <c r="E27" t="n">
-        <v>206476.5209207035</v>
+        <v>185763.459162881</v>
       </c>
     </row>
     <row r="28">
@@ -3217,16 +3217,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>288652.3216308041</v>
+        <v>258153.2116398076</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-56705.42805564311</v>
+        <v>-44222.28411328801</v>
       </c>
       <c r="E28" t="n">
-        <v>231946.893575161</v>
+        <v>213930.9275265195</v>
       </c>
     </row>
     <row r="29">
@@ -3234,16 +3234,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>315832.389580974</v>
+        <v>288703.8875735126</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-58096.09130979221</v>
+        <v>-46212.82245793314</v>
       </c>
       <c r="E29" t="n">
-        <v>257736.2982711818</v>
+        <v>242491.0651155794</v>
       </c>
     </row>
     <row r="30">
@@ -3251,16 +3251,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>343012.4575311439</v>
+        <v>319254.5635072176</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-59224.24022304453</v>
+        <v>-47871.49224602117</v>
       </c>
       <c r="E30" t="n">
-        <v>283788.2173080993</v>
+        <v>271383.0712611965</v>
       </c>
     </row>
     <row r="31">
@@ -3268,16 +3268,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>370192.5254813138</v>
+        <v>349805.2394409227</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-60137.28258049528</v>
+        <v>-49250.80444563406</v>
       </c>
       <c r="E31" t="n">
-        <v>310055.2429008185</v>
+        <v>300554.4349952886</v>
       </c>
     </row>
     <row r="32">
@@ -3285,16 +3285,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>397372.5934314835</v>
+        <v>380355.9153746277</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-60874.71030544561</v>
+        <v>-50395.78189669115</v>
       </c>
       <c r="E32" t="n">
-        <v>336497.883126038</v>
+        <v>329960.1334779366</v>
       </c>
     </row>
   </sheetData>
@@ -3348,16 +3348,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-418029.4450736127</v>
+        <v>-536164.3626365234</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>229371.4362069443</v>
+        <v>241217.7922675891</v>
       </c>
       <c r="E2" t="n">
-        <v>-188658.0088666684</v>
+        <v>-294946.5703689343</v>
       </c>
     </row>
     <row r="3">
@@ -3365,16 +3365,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-390849.3771234428</v>
+        <v>-505613.6867028183</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>224467.8855271848</v>
+        <v>236756.6220287571</v>
       </c>
       <c r="E3" t="n">
-        <v>-166381.491596258</v>
+        <v>-268857.0646740613</v>
       </c>
     </row>
     <row r="4">
@@ -3382,16 +3382,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-363669.3091732729</v>
+        <v>-475063.0107691133</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>216839.5440468613</v>
+        <v>229867.026083402</v>
       </c>
       <c r="E4" t="n">
-        <v>-146829.7651264116</v>
+        <v>-245195.9846857113</v>
       </c>
     </row>
     <row r="5">
@@ -3399,16 +3399,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-336489.241223103</v>
+        <v>-444512.3348354083</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>206166.5311216603</v>
+        <v>220267.4862448466</v>
       </c>
       <c r="E5" t="n">
-        <v>-130322.7101014427</v>
+        <v>-224244.8485905617</v>
       </c>
     </row>
     <row r="6">
@@ -3416,16 +3416,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>-309309.1732729331</v>
+        <v>-413961.6589017033</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>192460.8534118928</v>
+        <v>207951.8253688368</v>
       </c>
       <c r="E6" t="n">
-        <v>-116848.3198610403</v>
+        <v>-206009.8335328664</v>
       </c>
     </row>
     <row r="7">
@@ -3433,16 +3433,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-282129.1053227633</v>
+        <v>-383410.9829679982</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>176054.9747728219</v>
+        <v>193177.1168924362</v>
       </c>
       <c r="E7" t="n">
-        <v>-106074.1305499414</v>
+        <v>-190233.866075562</v>
       </c>
     </row>
     <row r="8">
@@ -3450,16 +3450,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-254949.0373725934</v>
+        <v>-352860.3070342932</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>157527.5364595624</v>
+        <v>176404.1269593896</v>
       </c>
       <c r="E8" t="n">
-        <v>-97421.50091303102</v>
+        <v>-176456.1800749036</v>
       </c>
     </row>
     <row r="9">
@@ -3467,16 +3467,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-227768.9694224235</v>
+        <v>-322309.6311005881</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>137598.7234720645</v>
+        <v>158215.7701802556</v>
       </c>
       <c r="E9" t="n">
-        <v>-90170.24595035904</v>
+        <v>-164093.8609203325</v>
       </c>
     </row>
     <row r="10">
@@ -3484,16 +3484,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-200588.9014722536</v>
+        <v>-291758.9551668831</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>117025.1753421535</v>
+        <v>139235.6795962311</v>
       </c>
       <c r="E10" t="n">
-        <v>-83563.72613010019</v>
+        <v>-152523.275570652</v>
       </c>
     </row>
     <row r="11">
@@ -3501,16 +3501,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>-173408.8335220838</v>
+        <v>-261208.2792331781</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>96514.29524531383</v>
+        <v>120061.0807206707</v>
       </c>
       <c r="E11" t="n">
-        <v>-76894.53827676996</v>
+        <v>-141147.1985125073</v>
       </c>
     </row>
     <row r="12">
@@ -3518,16 +3518,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>-146228.7655719139</v>
+        <v>-230657.603299473</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>76666.68987605986</v>
+        <v>101216.1220518367</v>
       </c>
       <c r="E12" t="n">
-        <v>-69562.07569585406</v>
+        <v>-129441.4812476363</v>
       </c>
     </row>
     <row r="13">
@@ -3535,16 +3535,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>-119048.697621744</v>
+        <v>-200106.927365768</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>57946.84587449639</v>
+        <v>83125.82021423815</v>
       </c>
       <c r="E13" t="n">
-        <v>-61101.85174724764</v>
+        <v>-116981.1071515299</v>
       </c>
     </row>
     <row r="14">
@@ -3552,16 +3552,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>-91868.62967157415</v>
+        <v>-169556.251432063</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>40677.07376051033</v>
+        <v>66107.30239311741</v>
       </c>
       <c r="E14" t="n">
-        <v>-51191.55591106381</v>
+        <v>-103448.9490389456</v>
       </c>
     </row>
     <row r="15">
@@ -3569,16 +3569,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>-64688.56172140428</v>
+        <v>-139005.5754983579</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>25047.78716650013</v>
+        <v>50373.65183368957</v>
       </c>
       <c r="E15" t="n">
-        <v>-39640.77455490414</v>
+        <v>-88631.92366466837</v>
       </c>
     </row>
     <row r="16">
@@ -3586,16 +3586,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>-37508.4937712344</v>
+        <v>-108454.8995646529</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>11137.32637767755</v>
+        <v>36045.67806402385</v>
       </c>
       <c r="E16" t="n">
-        <v>-26371.16739355685</v>
+        <v>-72409.22150062904</v>
       </c>
     </row>
     <row r="17">
@@ -3603,16 +3603,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>-10328.42582106453</v>
+        <v>-77904.22363094786</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-1064.218940086402</v>
+        <v>23167.68724764454</v>
       </c>
       <c r="E17" t="n">
-        <v>-11392.64476115093</v>
+        <v>-54736.53638330332</v>
       </c>
     </row>
     <row r="18">
@@ -3620,16 +3620,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>16851.64212910535</v>
+        <v>-47353.54769724283</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-11631.12723981962</v>
+        <v>11724.34349232926</v>
       </c>
       <c r="E18" t="n">
-        <v>5220.514889285727</v>
+        <v>-35629.20420491358</v>
       </c>
     </row>
     <row r="19">
@@ -3637,16 +3637,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>44031.71007927522</v>
+        <v>-16802.87176353779</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-20680.52636203877</v>
+        <v>1656.700964916768</v>
       </c>
       <c r="E19" t="n">
-        <v>23351.18371723646</v>
+        <v>-15146.17079862102</v>
       </c>
     </row>
     <row r="20">
@@ -3654,16 +3654,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>71211.77802944509</v>
+        <v>13747.80417016724</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-28354.44668468771</v>
+        <v>-7123.69107514695</v>
       </c>
       <c r="E20" t="n">
-        <v>42857.33134475738</v>
+        <v>6624.113095020295</v>
       </c>
     </row>
     <row r="21">
@@ -3671,16 +3671,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>98391.84597961497</v>
+        <v>44298.48010387228</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-34805.79210407218</v>
+        <v>-14723.09586846517</v>
       </c>
       <c r="E21" t="n">
-        <v>63586.05387554278</v>
+        <v>29575.38423540711</v>
       </c>
     </row>
     <row r="22">
@@ -3688,16 +3688,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>125571.9139297848</v>
+        <v>74849.15603757731</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-40188.03251512167</v>
+        <v>-21256.38122769716</v>
       </c>
       <c r="E22" t="n">
-        <v>85383.88141466316</v>
+        <v>53592.77480988015</v>
       </c>
     </row>
     <row r="23">
@@ -3705,16 +3705,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>152751.9818799547</v>
+        <v>105399.8319712824</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-44648.1300753081</v>
+        <v>-26840.11722617826</v>
       </c>
       <c r="E23" t="n">
-        <v>108103.8518046466</v>
+        <v>78559.71474510409</v>
       </c>
     </row>
     <row r="24">
@@ -3722,16 +3722,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>179932.0498301246</v>
+        <v>135950.5079049874</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-48322.0967704776</v>
+        <v>-31587.67110599545</v>
       </c>
       <c r="E24" t="n">
-        <v>131609.953059647</v>
+        <v>104362.8367989919</v>
       </c>
     </row>
     <row r="25">
@@ -3739,16 +3739,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>207112.1177802945</v>
+        <v>166501.1838386924</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-51332.57812917936</v>
+        <v>-35605.94430224523</v>
       </c>
       <c r="E25" t="n">
-        <v>155779.5396511151</v>
+        <v>130895.2395364472</v>
       </c>
     </row>
     <row r="26">
@@ -3756,16 +3756,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>234292.1857304644</v>
+        <v>197051.8597723975</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-53787.91789157416</v>
+        <v>-38993.40160939099</v>
       </c>
       <c r="E26" t="n">
-        <v>180504.2678388902</v>
+        <v>158058.4581630065</v>
       </c>
     </row>
     <row r="27">
@@ -3773,16 +3773,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>261472.2536806343</v>
+        <v>227602.5357061025</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-55782.24656925242</v>
+        <v>-41839.07654322153</v>
       </c>
       <c r="E27" t="n">
-        <v>205690.0071113818</v>
+        <v>185763.459162881</v>
       </c>
     </row>
     <row r="28">
@@ -3790,16 +3790,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>288652.3216308041</v>
+        <v>258153.2116398076</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-57396.23120894942</v>
+        <v>-44222.28411328801</v>
       </c>
       <c r="E28" t="n">
-        <v>231256.0904218547</v>
+        <v>213930.9275265195</v>
       </c>
     </row>
     <row r="29">
@@ -3807,16 +3807,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>315832.389580974</v>
+        <v>288703.8875735126</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-58698.2117708742</v>
+        <v>-46212.82245793314</v>
       </c>
       <c r="E29" t="n">
-        <v>257134.1778100998</v>
+        <v>242491.0651155794</v>
       </c>
     </row>
     <row r="30">
@@ -3824,16 +3824,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>343012.4575311439</v>
+        <v>319254.5635072176</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-59745.52530034079</v>
+        <v>-47871.49224602117</v>
       </c>
       <c r="E30" t="n">
-        <v>283266.9322308031</v>
+        <v>271383.0712611965</v>
       </c>
     </row>
     <row r="31">
@@ -3841,16 +3841,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>370192.5254813138</v>
+        <v>349805.2394409227</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-60585.88057366134</v>
+        <v>-49250.80444563406</v>
       </c>
       <c r="E31" t="n">
-        <v>309606.6449076524</v>
+        <v>300554.4349952886</v>
       </c>
     </row>
     <row r="32">
@@ -3858,16 +3858,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>397372.5934314835</v>
+        <v>380355.9153746277</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-61258.69358223945</v>
+        <v>-50395.78189669115</v>
       </c>
       <c r="E32" t="n">
-        <v>336113.8998492441</v>
+        <v>329960.1334779366</v>
       </c>
     </row>
   </sheetData>
@@ -3921,16 +3921,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-418029.4450736127</v>
+        <v>-536164.3626365234</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>221484.5461929673</v>
+        <v>234197.7251220896</v>
       </c>
       <c r="E2" t="n">
-        <v>-196544.8988806453</v>
+        <v>-301966.6375144338</v>
       </c>
     </row>
     <row r="3">
@@ -3938,16 +3938,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-390849.3771234428</v>
+        <v>-505613.6867028183</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>213915.5259819482</v>
+        <v>227589.4680993577</v>
       </c>
       <c r="E3" t="n">
-        <v>-176933.8511414945</v>
+        <v>-278024.2186034606</v>
       </c>
     </row>
     <row r="4">
@@ -3955,16 +3955,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-363669.3091732729</v>
+        <v>-475063.0107691133</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>203833.2506170963</v>
+        <v>218803.8231955926</v>
       </c>
       <c r="E4" t="n">
-        <v>-159836.0585561765</v>
+        <v>-256259.1875735207</v>
       </c>
     </row>
     <row r="5">
@@ -3972,16 +3972,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-336489.241223103</v>
+        <v>-444512.3348354083</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>191364.7151090596</v>
+        <v>207924.6210271257</v>
       </c>
       <c r="E5" t="n">
-        <v>-145124.5261140434</v>
+        <v>-236587.7138082826</v>
       </c>
     </row>
     <row r="6">
@@ -3989,16 +3989,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>-309309.1732729331</v>
+        <v>-413961.6589017033</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>176839.9936444148</v>
+        <v>195197.2649776474</v>
       </c>
       <c r="E6" t="n">
-        <v>-132469.1796285183</v>
+        <v>-218764.3939240559</v>
       </c>
     </row>
     <row r="7">
@@ -4006,16 +4006,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-282129.1053227633</v>
+        <v>-383410.9829679982</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>160725.1268680851</v>
+        <v>180978.2078059494</v>
       </c>
       <c r="E7" t="n">
-        <v>-121403.9784546782</v>
+        <v>-202432.7751620488</v>
       </c>
     </row>
     <row r="8">
@@ -4023,16 +4023,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-254949.0373725934</v>
+        <v>-352860.3070342932</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>143550.6031890746</v>
+        <v>165681.6102359573</v>
       </c>
       <c r="E8" t="n">
-        <v>-111398.4341835188</v>
+        <v>-187178.6967983359</v>
       </c>
     </row>
     <row r="9">
@@ -4040,16 +4040,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-227768.9694224235</v>
+        <v>-322309.6311005881</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>125849.3332506088</v>
+        <v>149732.8060071791</v>
       </c>
       <c r="E9" t="n">
-        <v>-101919.6361718147</v>
+        <v>-172576.825093409</v>
       </c>
     </row>
     <row r="10">
@@ -4057,16 +4057,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-200588.9014722536</v>
+        <v>-291758.9551668831</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>108110.7631545688</v>
+        <v>133533.088001939</v>
       </c>
       <c r="E10" t="n">
-        <v>-92478.13831768482</v>
+        <v>-158225.8671649441</v>
       </c>
     </row>
     <row r="11">
@@ -4074,16 +4074,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>-173408.8335220838</v>
+        <v>-261208.2792331781</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>90752.28340608894</v>
+        <v>117436.6223688099</v>
       </c>
       <c r="E11" t="n">
-        <v>-82656.55011599485</v>
+        <v>-143771.6568643682</v>
       </c>
     </row>
     <row r="12">
@@ -4091,16 +4091,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>-146228.7655719139</v>
+        <v>-230657.603299473</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>74105.80953648104</v>
+        <v>101738.1244537164</v>
       </c>
       <c r="E12" t="n">
-        <v>-72122.95603543287</v>
+        <v>-128919.4788457566</v>
       </c>
     </row>
     <row r="13">
@@ -4108,16 +4108,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>-119048.697621744</v>
+        <v>-200106.927365768</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>58415.97125361898</v>
+        <v>86668.97219441</v>
       </c>
       <c r="E13" t="n">
-        <v>-60632.72636812505</v>
+        <v>-113437.955171358</v>
       </c>
     </row>
     <row r="14">
@@ -4125,16 +4125,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>-91868.62967157415</v>
+        <v>-169556.251432063</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>43846.14201678485</v>
+        <v>72399.26909953609</v>
       </c>
       <c r="E14" t="n">
-        <v>-48022.4876547893</v>
+        <v>-97156.98233252688</v>
       </c>
     </row>
     <row r="15">
@@ -4142,16 +4142,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>-64688.56172140428</v>
+        <v>-139005.5754983579</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>30489.01239273871</v>
+        <v>59043.6397272927</v>
       </c>
       <c r="E15" t="n">
-        <v>-34199.54932866557</v>
+        <v>-79961.93577106524</v>
       </c>
     </row>
     <row r="16">
@@ -4159,16 +4159,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>-37508.4937712344</v>
+        <v>-108454.8995646529</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>18379.15378009497</v>
+        <v>46668.99208803372</v>
       </c>
       <c r="E16" t="n">
-        <v>-19129.33999113944</v>
+        <v>-61785.90747661917</v>
       </c>
     </row>
     <row r="17">
@@ -4176,16 +4176,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>-10328.42582106453</v>
+        <v>-77904.22363094786</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>7505.786203955508</v>
+        <v>35302.95956524332</v>
       </c>
       <c r="E17" t="n">
-        <v>-2822.639617109018</v>
+        <v>-42601.26406570454</v>
       </c>
     </row>
     <row r="18">
@@ -4193,16 +4193,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>16851.64212910535</v>
+        <v>-47353.54769724283</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-2175.371364293123</v>
+        <v>24942.1601119072</v>
       </c>
       <c r="E18" t="n">
-        <v>14676.27076481223</v>
+        <v>-22411.38758533563</v>
       </c>
     </row>
     <row r="19">
@@ -4210,16 +4210,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>44031.71007927522</v>
+        <v>-16802.87176353779</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-10731.77340904129</v>
+        <v>15559.75131972322</v>
       </c>
       <c r="E19" t="n">
-        <v>33299.93667023394</v>
+        <v>-1243.120443814569</v>
       </c>
     </row>
     <row r="20">
@@ -4227,16 +4227,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>71211.77802944509</v>
+        <v>13747.80417016724</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-18245.4807092019</v>
+        <v>7112.012952267034</v>
       </c>
       <c r="E20" t="n">
-        <v>52966.29732024319</v>
+        <v>20859.81712243428</v>
       </c>
     </row>
     <row r="21">
@@ -4244,16 +4244,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>98391.84597961497</v>
+        <v>44298.48010387228</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-24806.35105568436</v>
+        <v>-456.1361247804343</v>
       </c>
       <c r="E21" t="n">
-        <v>73585.49492393062</v>
+        <v>43842.34397909185</v>
       </c>
     </row>
     <row r="22">
@@ -4261,16 +4261,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>125571.9139297848</v>
+        <v>74849.15603757731</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-30506.84365971898</v>
+        <v>-7206.666714240752</v>
       </c>
       <c r="E22" t="n">
-        <v>95065.07027006587</v>
+        <v>67642.48932333656</v>
       </c>
     </row>
     <row r="23">
@@ -4278,16 +4278,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>152751.9818799547</v>
+        <v>105399.8319712824</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-35438.22227670366</v>
+        <v>-13204.92765034493</v>
       </c>
       <c r="E23" t="n">
-        <v>117313.7596032511</v>
+        <v>92194.90432093744</v>
       </c>
     </row>
     <row r="24">
@@ -4295,16 +4295,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>179932.0498301246</v>
+        <v>135950.5079049874</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-39687.91868194731</v>
+        <v>-18516.97451069603</v>
       </c>
       <c r="E24" t="n">
-        <v>140244.1311481773</v>
+        <v>117433.5333942913</v>
       </c>
     </row>
     <row r="25">
@@ -4312,16 +4312,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>207112.1177802945</v>
+        <v>166501.1838386924</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-43337.82405433044</v>
+        <v>-23207.60838194133</v>
       </c>
       <c r="E25" t="n">
-        <v>163774.2937259641</v>
+        <v>143293.5754567511</v>
       </c>
     </row>
     <row r="26">
@@ -4329,16 +4329,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>234292.1857304644</v>
+        <v>197051.8597723975</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-46463.29800466706</v>
+        <v>-27338.99712900523</v>
       </c>
       <c r="E26" t="n">
-        <v>187828.8877257973</v>
+        <v>169712.8626433922</v>
       </c>
     </row>
     <row r="27">
@@ -4346,16 +4346,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>261472.2536806343</v>
+        <v>227602.5357061025</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-49132.71457267728</v>
+        <v>-30969.76222534138</v>
       </c>
       <c r="E27" t="n">
-        <v>212339.539107957</v>
+        <v>196632.7734807612</v>
       </c>
     </row>
     <row r="28">
@@ -4363,16 +4363,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>288652.3216308041</v>
+        <v>258153.2116398076</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-51407.39587207034</v>
+        <v>-34154.42861891964</v>
       </c>
       <c r="E28" t="n">
-        <v>237244.9257587338</v>
+        <v>223998.7830208879</v>
       </c>
     </row>
     <row r="29">
@@ -4380,16 +4380,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>315832.389580974</v>
+        <v>288703.8875735126</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-53341.81387264107</v>
+        <v>-36943.15070637962</v>
       </c>
       <c r="E29" t="n">
-        <v>262490.5757083329</v>
+        <v>251760.7368671329</v>
       </c>
     </row>
     <row r="30">
@@ -4397,16 +4397,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>343012.4575311439</v>
+        <v>319254.5635072176</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-54983.96734811998</v>
+        <v>-39381.64266463935</v>
       </c>
       <c r="E30" t="n">
-        <v>288028.4901830239</v>
+        <v>279872.9208425783</v>
       </c>
     </row>
     <row r="31">
@@ -4414,16 +4414,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>370192.5254813138</v>
+        <v>349805.2394409227</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-56375.86359832623</v>
+        <v>-41511.25525686811</v>
       </c>
       <c r="E31" t="n">
-        <v>313816.6618829875</v>
+        <v>308293.9841840545</v>
       </c>
     </row>
     <row r="32">
@@ -4431,16 +4431,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>397372.5934314835</v>
+        <v>380355.9153746277</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-57554.0531132839</v>
+        <v>-43369.15337336444</v>
       </c>
       <c r="E32" t="n">
-        <v>339818.5403181997</v>
+        <v>336986.7620012633</v>
       </c>
     </row>
   </sheetData>
@@ -4494,16 +4494,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-418029.4450736127</v>
+        <v>-536164.3626365234</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>223506.6677218087</v>
+        <v>235963.8573665943</v>
       </c>
       <c r="E2" t="n">
-        <v>-194522.777351804</v>
+        <v>-300200.5052699292</v>
       </c>
     </row>
     <row r="3">
@@ -4511,16 +4511,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-390849.3771234428</v>
+        <v>-505613.6867028183</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>216495.1287633377</v>
+        <v>229789.4509016621</v>
       </c>
       <c r="E3" t="n">
-        <v>-174354.2483601051</v>
+        <v>-275824.2358011562</v>
       </c>
     </row>
     <row r="4">
@@ -4528,16 +4528,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-363669.3091732729</v>
+        <v>-475063.0107691133</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>206878.615487401</v>
+        <v>221347.6397473515</v>
       </c>
       <c r="E4" t="n">
-        <v>-156790.6936858718</v>
+        <v>-253715.3710217618</v>
       </c>
     </row>
     <row r="5">
@@ -4545,16 +4545,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-336489.241223103</v>
+        <v>-444512.3348354083</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>194707.0169328167</v>
+        <v>210661.4301938078</v>
       </c>
       <c r="E5" t="n">
-        <v>-141782.2242902864</v>
+        <v>-233850.9046416004</v>
       </c>
     </row>
     <row r="6">
@@ -4562,16 +4562,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>-309309.1732729331</v>
+        <v>-413961.6589017033</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>180266.5649693338</v>
+        <v>197942.8033888225</v>
       </c>
       <c r="E6" t="n">
-        <v>-129042.6083035993</v>
+        <v>-216018.8555128808</v>
       </c>
     </row>
     <row r="7">
@@ -4579,16 +4579,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-282129.1053227633</v>
+        <v>-383410.9829679982</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164015.6585122674</v>
+        <v>183543.5439217719</v>
       </c>
       <c r="E7" t="n">
-        <v>-118113.4468104959</v>
+        <v>-199867.4390462263</v>
       </c>
     </row>
     <row r="8">
@@ -4596,16 +4596,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-254949.0373725934</v>
+        <v>-352860.3070342932</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>146507.5123664996</v>
+        <v>167896.9688273016</v>
       </c>
       <c r="E8" t="n">
-        <v>-108441.5250060938</v>
+        <v>-184963.3382069916</v>
       </c>
     </row>
     <row r="9">
@@ -4613,16 +4613,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-227768.9694224235</v>
+        <v>-322309.6311005881</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>128317.967251249</v>
+        <v>151463.5269169107</v>
       </c>
       <c r="E9" t="n">
-        <v>-99451.00217117448</v>
+        <v>-170846.1041836774</v>
       </c>
     </row>
     <row r="10">
@@ -4630,16 +4630,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-200588.9014722536</v>
+        <v>-291758.9551668831</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>109988.8485207021</v>
+        <v>134687.4325677421</v>
       </c>
       <c r="E10" t="n">
-        <v>-90600.05295155151</v>
+        <v>-157071.5225991409</v>
       </c>
     </row>
     <row r="11">
@@ -4647,16 +4647,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>-173408.8335220838</v>
+        <v>-261208.2792331781</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>91990.3609417574</v>
+        <v>117966.732965629</v>
       </c>
       <c r="E11" t="n">
-        <v>-81418.47258032639</v>
+        <v>-143241.546267549</v>
       </c>
     </row>
     <row r="12">
@@ -4664,16 +4664,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>-146228.7655719139</v>
+        <v>-230657.603299473</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>74701.38213782567</v>
+        <v>101636.1016764027</v>
       </c>
       <c r="E12" t="n">
-        <v>-71527.38343408825</v>
+        <v>-129021.5016230704</v>
       </c>
     </row>
     <row r="13">
@@ -4681,16 +4681,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>-119048.697621744</v>
+        <v>-200106.927365768</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>58404.12979438313</v>
+        <v>85960.05724163371</v>
       </c>
       <c r="E13" t="n">
-        <v>-60644.56782736089</v>
+        <v>-114146.8701241343</v>
       </c>
     </row>
     <row r="14">
@@ -4698,16 +4698,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>-91868.62967157415</v>
+        <v>-169556.251432063</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>43288.95446911691</v>
+        <v>71133.79833677992</v>
       </c>
       <c r="E14" t="n">
-        <v>-48579.67520245724</v>
+        <v>-98422.45309528305</v>
       </c>
     </row>
     <row r="15">
@@ -4715,16 +4715,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>-64688.56172140428</v>
+        <v>-139005.5754983579</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>29465.29578809186</v>
+        <v>57288.99179549241</v>
       </c>
       <c r="E15" t="n">
-        <v>-35223.26593331242</v>
+        <v>-81716.58370286552</v>
       </c>
     </row>
     <row r="16">
@@ -4732,16 +4732,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>-37508.4937712344</v>
+        <v>-108454.8995646529</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>16975.60415649832</v>
+        <v>44502.30880447113</v>
       </c>
       <c r="E16" t="n">
-        <v>-20532.88961473609</v>
+        <v>-63952.59076018176</v>
       </c>
     </row>
     <row r="17">
@@ -4749,16 +4749,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>-10328.42582106453</v>
+        <v>-77904.22363094786</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>5809.919018094302</v>
+        <v>32805.0563201601</v>
       </c>
       <c r="E17" t="n">
-        <v>-4518.506802970223</v>
+        <v>-45099.16731078777</v>
       </c>
     </row>
     <row r="18">
@@ -4766,16 +4766,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>16851.64212910535</v>
+        <v>-47353.54769724283</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-4080.38969533509</v>
+        <v>22192.77067572937</v>
       </c>
       <c r="E18" t="n">
-        <v>12771.25243377026</v>
+        <v>-25160.77702151346</v>
       </c>
     </row>
     <row r="19">
@@ -4783,16 +4783,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>44031.71007927522</v>
+        <v>-16802.87176353779</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-12770.55425656439</v>
+        <v>12634.0716739714</v>
       </c>
       <c r="E19" t="n">
-        <v>31261.15582271083</v>
+        <v>-4168.800089566392</v>
       </c>
     </row>
     <row r="20">
@@ -4800,16 +4800,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>71211.77802944509</v>
+        <v>13747.80417016724</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-20352.37466418953</v>
+        <v>4078.403032187827</v>
       </c>
       <c r="E20" t="n">
-        <v>50859.40336525556</v>
+        <v>17826.20720235507</v>
       </c>
     </row>
     <row r="21">
@@ -4817,16 +4817,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>98391.84597961497</v>
+        <v>44298.48010387228</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-26926.25650122983</v>
+        <v>-3537.484096684467</v>
       </c>
       <c r="E21" t="n">
-        <v>71465.58947838514</v>
+        <v>40760.99600718782</v>
       </c>
     </row>
     <row r="22">
@@ -4834,16 +4834,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>125571.9139297848</v>
+        <v>74849.15603757731</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-32595.16876021291</v>
+        <v>-10284.29701946309</v>
       </c>
       <c r="E22" t="n">
-        <v>92976.74516957194</v>
+        <v>64564.85901811422</v>
       </c>
     </row>
     <row r="23">
@@ -4851,16 +4851,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>152751.9818799547</v>
+        <v>105399.8319712824</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-37460.27058706556</v>
+        <v>-16236.11971994965</v>
       </c>
       <c r="E23" t="n">
-        <v>115291.7112928892</v>
+        <v>89163.7122513327</v>
       </c>
     </row>
     <row r="24">
@@ -4868,16 +4868,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>179932.0498301246</v>
+        <v>135950.5079049874</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-41617.92043055411</v>
+        <v>-21467.34054542535</v>
       </c>
       <c r="E24" t="n">
-        <v>138314.1293995705</v>
+        <v>114483.167359562</v>
       </c>
     </row>
     <row r="25">
@@ -4885,16 +4885,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>207112.1177802945</v>
+        <v>166501.1838386924</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-45157.78511585455</v>
+        <v>-26050.43026554175</v>
       </c>
       <c r="E25" t="n">
-        <v>161954.3326644399</v>
+        <v>140450.7535731507</v>
       </c>
     </row>
     <row r="26">
@@ -4902,16 +4902,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>234292.1857304644</v>
+        <v>197051.8597723975</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-48161.79253155747</v>
+        <v>-30054.41370741094</v>
       </c>
       <c r="E26" t="n">
-        <v>186130.3931989069</v>
+        <v>166997.4460649865</v>
       </c>
     </row>
     <row r="27">
@@ -4919,16 +4919,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>261472.2536806343</v>
+        <v>227602.5357061025</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-50703.70804117934</v>
+        <v>-33543.89108281103</v>
       </c>
       <c r="E27" t="n">
-        <v>210768.5456394549</v>
+        <v>194058.6446232915</v>
       </c>
     </row>
     <row r="28">
@@ -4936,16 +4936,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>288652.3216308041</v>
+        <v>258153.2116398076</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-52849.15379641615</v>
+        <v>-36578.48320133283</v>
       </c>
       <c r="E28" t="n">
-        <v>235803.1678343879</v>
+        <v>221574.7284384747</v>
       </c>
     </row>
     <row r="29">
@@ -4953,16 +4953,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>315832.389580974</v>
+        <v>288703.8875735126</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-54655.92736003031</v>
+        <v>-39212.59446796964</v>
       </c>
       <c r="E29" t="n">
-        <v>261176.4622209437</v>
+        <v>249491.2931055429</v>
       </c>
     </row>
     <row r="30">
@@ -4970,16 +4970,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>343012.4575311439</v>
+        <v>319254.5635072176</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-56174.50911504214</v>
+        <v>-41495.40674383051</v>
       </c>
       <c r="E30" t="n">
-        <v>286837.9484161017</v>
+        <v>277759.1567633871</v>
       </c>
     </row>
     <row r="31">
@@ -4987,16 +4987,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>370192.5254813138</v>
+        <v>349805.2394409227</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-57448.67591664673</v>
+        <v>-43471.03461748298</v>
       </c>
       <c r="E31" t="n">
-        <v>312743.849564667</v>
+        <v>306334.2048234397</v>
       </c>
     </row>
     <row r="32">
@@ -5004,16 +5004,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>397372.5934314835</v>
+        <v>380355.9153746277</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-58516.16125785933</v>
+        <v>-45178.7878461683</v>
       </c>
       <c r="E32" t="n">
-        <v>338856.4321736242</v>
+        <v>335177.1275284594</v>
       </c>
     </row>
   </sheetData>
@@ -5067,16 +5067,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-418029.4450736127</v>
+        <v>-536164.3626365234</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>225229.1838162828</v>
+        <v>237484.9294271574</v>
       </c>
       <c r="E2" t="n">
-        <v>-192800.2612573299</v>
+        <v>-298679.433209366</v>
       </c>
     </row>
     <row r="3">
@@ -5084,16 +5084,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-390849.3771234428</v>
+        <v>-505613.6867028183</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>218751.4319995081</v>
+        <v>231733.7507534948</v>
       </c>
       <c r="E3" t="n">
-        <v>-172097.9451239347</v>
+        <v>-273879.9359493235</v>
       </c>
     </row>
     <row r="4">
@@ -5101,16 +5101,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-363669.3091732729</v>
+        <v>-475063.0107691133</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>209603.9265594931</v>
+        <v>223646.8363353015</v>
       </c>
       <c r="E4" t="n">
-        <v>-154065.3826137798</v>
+        <v>-251416.1744338119</v>
       </c>
     </row>
     <row r="5">
@@ -5118,16 +5118,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-336489.241223103</v>
+        <v>-444512.3348354083</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>197754.3022969132</v>
+        <v>213181.2439428723</v>
       </c>
       <c r="E5" t="n">
-        <v>-138734.9389261898</v>
+        <v>-231331.0908925359</v>
       </c>
     </row>
     <row r="6">
@@ -5135,16 +5135,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>-309309.1732729331</v>
+        <v>-413961.6589017033</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>183436.2482648718</v>
+        <v>200508.2259467664</v>
       </c>
       <c r="E6" t="n">
-        <v>-125872.9250080613</v>
+        <v>-213453.4329549368</v>
       </c>
     </row>
     <row r="7">
@@ -5152,16 +5152,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-282129.1053227633</v>
+        <v>-383410.9829679982</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>167091.8854274884</v>
+        <v>185968.1179622172</v>
       </c>
       <c r="E7" t="n">
-        <v>-115037.2198952749</v>
+        <v>-197442.8650057809</v>
       </c>
     </row>
     <row r="8">
@@ -5169,16 +5169,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-254949.0373725934</v>
+        <v>-352860.3070342932</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>149290.8122820474</v>
+        <v>170008.6534219268</v>
       </c>
       <c r="E8" t="n">
-        <v>-105658.225090546</v>
+        <v>-182851.6536123664</v>
       </c>
     </row>
     <row r="9">
@@ -5186,16 +5186,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-227768.9694224235</v>
+        <v>-322309.6311005881</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>130648.4469883873</v>
+        <v>153123.0600751567</v>
       </c>
       <c r="E9" t="n">
-        <v>-97120.52243403622</v>
+        <v>-169186.5710254314</v>
       </c>
     </row>
     <row r="10">
@@ -5203,16 +5203,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-200588.9014722536</v>
+        <v>-291758.9551668831</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>111758.2452453916</v>
+        <v>135798.1483596578</v>
       </c>
       <c r="E10" t="n">
-        <v>-88830.65622686199</v>
+        <v>-155960.8068072252</v>
       </c>
     </row>
     <row r="11">
@@ -5220,16 +5220,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>-173408.8335220838</v>
+        <v>-261208.2792331781</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>93144.19159088467</v>
+        <v>118476.8149756548</v>
       </c>
       <c r="E11" t="n">
-        <v>-80264.64193119912</v>
+        <v>-142731.4642575233</v>
       </c>
     </row>
     <row r="12">
@@ -5237,16 +5237,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>-146228.7655719139</v>
+        <v>-230657.603299473</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>75233.86688761799</v>
+        <v>101535.2296765972</v>
       </c>
       <c r="E12" t="n">
-        <v>-70994.89868429593</v>
+        <v>-129122.3736228758</v>
       </c>
     </row>
     <row r="13">
@@ -5254,16 +5254,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>-119048.697621744</v>
+        <v>-200106.927365768</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>58348.85908639623</v>
+        <v>85272.59659028582</v>
       </c>
       <c r="E13" t="n">
-        <v>-60699.83853534779</v>
+        <v>-114834.3307754822</v>
       </c>
     </row>
     <row r="14">
@@ -5271,16 +5271,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>-91868.62967157415</v>
+        <v>-169556.251432063</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>42707.87221582919</v>
+        <v>69910.41365991536</v>
       </c>
       <c r="E14" t="n">
-        <v>-49160.75745574496</v>
+        <v>-99645.83777214761</v>
       </c>
     </row>
     <row r="15">
@@ -5288,16 +5288,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>-64688.56172140428</v>
+        <v>-139005.5754983579</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>28437.88173806581</v>
+        <v>55598.10113992668</v>
       </c>
       <c r="E15" t="n">
-        <v>-36250.67998333847</v>
+        <v>-83407.47435843127</v>
       </c>
     </row>
     <row r="16">
@@ -5305,16 +5305,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>-37508.4937712344</v>
+        <v>-108454.8995646529</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>15589.42162622216</v>
+        <v>42422.30461479259</v>
       </c>
       <c r="E16" t="n">
-        <v>-21919.07214501224</v>
+        <v>-66032.5949498603</v>
       </c>
     </row>
     <row r="17">
@@ -5322,16 +5322,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>-10328.42582106453</v>
+        <v>-77904.22363094786</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>4153.091329230112</v>
+        <v>30417.79769819007</v>
       </c>
       <c r="E17" t="n">
-        <v>-6175.334491834414</v>
+        <v>-47486.42593275779</v>
       </c>
     </row>
     <row r="18">
@@ -5339,16 +5339,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>16851.64212910535</v>
+        <v>-47353.54769724283</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-5924.649303994831</v>
+        <v>19578.53258264617</v>
       </c>
       <c r="E18" t="n">
-        <v>10926.99282511052</v>
+        <v>-27775.01511459666</v>
       </c>
     </row>
     <row r="19">
@@ -5356,16 +5356,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>44031.71007927522</v>
+        <v>-16802.87176353779</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-14727.51250001911</v>
+        <v>9867.921893275086</v>
       </c>
       <c r="E19" t="n">
-        <v>29304.19757925612</v>
+        <v>-6934.949870262704</v>
       </c>
     </row>
     <row r="20">
@@ -5373,16 +5373,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>71211.77802944509</v>
+        <v>13747.80417016724</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-22357.7480237831</v>
+        <v>1227.850834588445</v>
       </c>
       <c r="E20" t="n">
-        <v>48854.03000566199</v>
+        <v>14975.65500475569</v>
       </c>
     </row>
     <row r="21">
@@ -5390,16 +5390,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>98391.84597961497</v>
+        <v>44298.48010387228</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-28926.93357042628</v>
+        <v>-6413.784137814123</v>
       </c>
       <c r="E21" t="n">
-        <v>69464.91240918869</v>
+        <v>37884.69596605816</v>
       </c>
     </row>
     <row r="22">
@@ -5407,16 +5407,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>125571.9139297848</v>
+        <v>74849.15603757731</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-34549.02958280128</v>
+        <v>-13137.01762397373</v>
       </c>
       <c r="E22" t="n">
-        <v>91022.88434698357</v>
+        <v>61712.13841360358</v>
       </c>
     </row>
     <row r="23">
@@ -5424,16 +5424,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>152751.9818799547</v>
+        <v>105399.8319712824</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-39335.40569512383</v>
+        <v>-19025.12837818059</v>
       </c>
       <c r="E23" t="n">
-        <v>113416.5761848309</v>
+        <v>86374.70359310176</v>
       </c>
     </row>
     <row r="24">
@@ -5441,16 +5441,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>179932.0498301246</v>
+        <v>135950.5079049874</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-43391.49612243974</v>
+        <v>-24161.15221903758</v>
       </c>
       <c r="E24" t="n">
-        <v>136540.5537076849</v>
+        <v>111789.3556859498</v>
       </c>
     </row>
     <row r="25">
@@ -5458,16 +5458,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>207112.1177802945</v>
+        <v>166501.1838386924</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-46814.7433088331</v>
+        <v>-28625.40152807564</v>
       </c>
       <c r="E25" t="n">
-        <v>160297.3744714614</v>
+        <v>137875.7823106168</v>
       </c>
     </row>
     <row r="26">
@@ -5475,16 +5475,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>234292.1857304644</v>
+        <v>197051.8597723975</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-49693.52036117138</v>
+        <v>-32493.80016001574</v>
       </c>
       <c r="E26" t="n">
-        <v>184598.665369293</v>
+        <v>164558.0596123817</v>
       </c>
     </row>
     <row r="27">
@@ -5492,16 +5492,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>261472.2536806343</v>
+        <v>227602.5357061025</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-52106.76760827636</v>
+        <v>-35836.85852400227</v>
       </c>
       <c r="E27" t="n">
-        <v>209365.4860723579</v>
+        <v>191765.6771821002</v>
       </c>
     </row>
     <row r="28">
@@ -5509,16 +5509,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>288652.3216308041</v>
+        <v>258153.2116398076</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-54124.12702011558</v>
+        <v>-38719.13626176344</v>
       </c>
       <c r="E28" t="n">
-        <v>234528.1946106885</v>
+        <v>219434.0753780441</v>
       </c>
     </row>
     <row r="29">
@@ -5526,16 +5526,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>315832.389580974</v>
+        <v>288703.8875735126</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-55806.40431062284</v>
+        <v>-41199.06469673285</v>
       </c>
       <c r="E29" t="n">
-        <v>260025.9852703512</v>
+        <v>247504.8228767797</v>
       </c>
     </row>
     <row r="30">
@@ -5543,16 +5543,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>343012.4575311439</v>
+        <v>319254.5635072176</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-57206.22929768902</v>
+        <v>-43329.02524618056</v>
       </c>
       <c r="E30" t="n">
-        <v>285806.2282334549</v>
+        <v>275925.5382610371</v>
       </c>
     </row>
     <row r="31">
@@ -5560,16 +5560,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>370192.5254813138</v>
+        <v>349805.2394409227</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-58368.81932333612</v>
+        <v>-45155.60174305965</v>
       </c>
       <c r="E31" t="n">
-        <v>311823.7061579776</v>
+        <v>304649.637697863</v>
       </c>
     </row>
     <row r="32">
@@ -5577,16 +5577,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>397372.5934314835</v>
+        <v>380355.9153746277</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-59332.77818323469</v>
+        <v>-46719.9434191231</v>
       </c>
       <c r="E32" t="n">
-        <v>338039.8152482489</v>
+        <v>333635.9719555046</v>
       </c>
     </row>
   </sheetData>
@@ -5640,16 +5640,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-418029.4450736127</v>
+        <v>-536164.3626365234</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>229371.4362069443</v>
+        <v>241217.7922675891</v>
       </c>
       <c r="E2" t="n">
-        <v>-188658.0088666684</v>
+        <v>-294946.5703689343</v>
       </c>
     </row>
     <row r="3">
@@ -5657,16 +5657,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-390849.3771234428</v>
+        <v>-505613.6867028183</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>224467.8855271848</v>
+        <v>236756.6220287571</v>
       </c>
       <c r="E3" t="n">
-        <v>-166381.491596258</v>
+        <v>-268857.0646740613</v>
       </c>
     </row>
     <row r="4">
@@ -5674,16 +5674,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-363669.3091732729</v>
+        <v>-475063.0107691133</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>216839.5440468613</v>
+        <v>229867.026083402</v>
       </c>
       <c r="E4" t="n">
-        <v>-146829.7651264116</v>
+        <v>-245195.9846857113</v>
       </c>
     </row>
     <row r="5">
@@ -5691,16 +5691,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-336489.241223103</v>
+        <v>-444512.3348354083</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>206166.5311216603</v>
+        <v>220267.4862448466</v>
       </c>
       <c r="E5" t="n">
-        <v>-130322.7101014427</v>
+        <v>-224244.8485905617</v>
       </c>
     </row>
     <row r="6">
@@ -5708,16 +5708,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>-309309.1732729331</v>
+        <v>-413961.6589017033</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>192460.8534118928</v>
+        <v>207951.8253688368</v>
       </c>
       <c r="E6" t="n">
-        <v>-116848.3198610403</v>
+        <v>-206009.8335328664</v>
       </c>
     </row>
     <row r="7">
@@ -5725,16 +5725,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-282129.1053227633</v>
+        <v>-383410.9829679982</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>176054.9747728219</v>
+        <v>193177.1168924362</v>
       </c>
       <c r="E7" t="n">
-        <v>-106074.1305499414</v>
+        <v>-190233.866075562</v>
       </c>
     </row>
     <row r="8">
@@ -5742,16 +5742,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-254949.0373725934</v>
+        <v>-352860.3070342932</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>157527.5364595624</v>
+        <v>176404.1269593896</v>
       </c>
       <c r="E8" t="n">
-        <v>-97421.50091303102</v>
+        <v>-176456.1800749036</v>
       </c>
     </row>
     <row r="9">
@@ -5759,16 +5759,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-227768.9694224235</v>
+        <v>-322309.6311005881</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>137598.7234720645</v>
+        <v>158215.7701802556</v>
       </c>
       <c r="E9" t="n">
-        <v>-90170.24595035904</v>
+        <v>-164093.8609203325</v>
       </c>
     </row>
     <row r="10">
@@ -5776,16 +5776,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-200588.9014722536</v>
+        <v>-291758.9551668831</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>117025.1753421535</v>
+        <v>139235.6795962311</v>
       </c>
       <c r="E10" t="n">
-        <v>-83563.72613010019</v>
+        <v>-152523.275570652</v>
       </c>
     </row>
     <row r="11">
@@ -5793,16 +5793,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>-173408.8335220838</v>
+        <v>-261208.2792331781</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>96514.29524531383</v>
+        <v>120061.0807206707</v>
       </c>
       <c r="E11" t="n">
-        <v>-76894.53827676996</v>
+        <v>-141147.1985125073</v>
       </c>
     </row>
     <row r="12">
@@ -5810,16 +5810,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>-146228.7655719139</v>
+        <v>-230657.603299473</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>76666.68987605986</v>
+        <v>101216.1220518367</v>
       </c>
       <c r="E12" t="n">
-        <v>-69562.07569585406</v>
+        <v>-129441.4812476363</v>
       </c>
     </row>
     <row r="13">
@@ -5827,16 +5827,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>-119048.697621744</v>
+        <v>-200106.927365768</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>57946.84587449639</v>
+        <v>83125.82021423815</v>
       </c>
       <c r="E13" t="n">
-        <v>-61101.85174724764</v>
+        <v>-116981.1071515299</v>
       </c>
     </row>
     <row r="14">
@@ -5844,16 +5844,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>-91868.62967157415</v>
+        <v>-169556.251432063</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>40677.07376051033</v>
+        <v>66107.30239311741</v>
       </c>
       <c r="E14" t="n">
-        <v>-51191.55591106381</v>
+        <v>-103448.9490389456</v>
       </c>
     </row>
     <row r="15">
@@ -5861,16 +5861,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>-64688.56172140428</v>
+        <v>-139005.5754983579</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>25047.78716650013</v>
+        <v>50373.65183368957</v>
       </c>
       <c r="E15" t="n">
-        <v>-39640.77455490414</v>
+        <v>-88631.92366466837</v>
       </c>
     </row>
     <row r="16">
@@ -5878,16 +5878,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>-37508.4937712344</v>
+        <v>-108454.8995646529</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>11137.32637767755</v>
+        <v>36045.67806402385</v>
       </c>
       <c r="E16" t="n">
-        <v>-26371.16739355685</v>
+        <v>-72409.22150062904</v>
       </c>
     </row>
     <row r="17">
@@ -5895,16 +5895,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>-10328.42582106453</v>
+        <v>-77904.22363094786</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-1064.218940086402</v>
+        <v>23167.68724764454</v>
       </c>
       <c r="E17" t="n">
-        <v>-11392.64476115093</v>
+        <v>-54736.53638330332</v>
       </c>
     </row>
     <row r="18">
@@ -5912,16 +5912,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>16851.64212910535</v>
+        <v>-47353.54769724283</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-11631.12723981962</v>
+        <v>11724.34349232926</v>
       </c>
       <c r="E18" t="n">
-        <v>5220.514889285727</v>
+        <v>-35629.20420491358</v>
       </c>
     </row>
     <row r="19">
@@ -5929,16 +5929,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>44031.71007927522</v>
+        <v>-16802.87176353779</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-20680.52636203877</v>
+        <v>1656.700964916768</v>
       </c>
       <c r="E19" t="n">
-        <v>23351.18371723646</v>
+        <v>-15146.17079862102</v>
       </c>
     </row>
     <row r="20">
@@ -5946,16 +5946,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>71211.77802944509</v>
+        <v>13747.80417016724</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-28354.44668468771</v>
+        <v>-7123.69107514695</v>
       </c>
       <c r="E20" t="n">
-        <v>42857.33134475738</v>
+        <v>6624.113095020295</v>
       </c>
     </row>
     <row r="21">
@@ -5963,16 +5963,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>98391.84597961497</v>
+        <v>44298.48010387228</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-34805.79210407218</v>
+        <v>-14723.09586846517</v>
       </c>
       <c r="E21" t="n">
-        <v>63586.05387554278</v>
+        <v>29575.38423540711</v>
       </c>
     </row>
     <row r="22">
@@ -5980,16 +5980,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>125571.9139297848</v>
+        <v>74849.15603757731</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-40188.03251512167</v>
+        <v>-21256.38122769716</v>
       </c>
       <c r="E22" t="n">
-        <v>85383.88141466316</v>
+        <v>53592.77480988015</v>
       </c>
     </row>
     <row r="23">
@@ -5997,16 +5997,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>152751.9818799547</v>
+        <v>105399.8319712824</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-44648.1300753081</v>
+        <v>-26840.11722617826</v>
       </c>
       <c r="E23" t="n">
-        <v>108103.8518046466</v>
+        <v>78559.71474510409</v>
       </c>
     </row>
     <row r="24">
@@ -6014,16 +6014,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>179932.0498301246</v>
+        <v>135950.5079049874</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-48322.0967704776</v>
+        <v>-31587.67110599545</v>
       </c>
       <c r="E24" t="n">
-        <v>131609.953059647</v>
+        <v>104362.8367989919</v>
       </c>
     </row>
     <row r="25">
@@ -6031,16 +6031,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>207112.1177802945</v>
+        <v>166501.1838386924</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-51332.57812917936</v>
+        <v>-35605.94430224523</v>
       </c>
       <c r="E25" t="n">
-        <v>155779.5396511151</v>
+        <v>130895.2395364472</v>
       </c>
     </row>
     <row r="26">
@@ -6048,16 +6048,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>234292.1857304644</v>
+        <v>197051.8597723975</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-53787.91789157416</v>
+        <v>-38993.40160939099</v>
       </c>
       <c r="E26" t="n">
-        <v>180504.2678388902</v>
+        <v>158058.4581630065</v>
       </c>
     </row>
     <row r="27">
@@ -6065,16 +6065,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>261472.2536806343</v>
+        <v>227602.5357061025</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-55782.24656925242</v>
+        <v>-41839.07654322153</v>
       </c>
       <c r="E27" t="n">
-        <v>205690.0071113818</v>
+        <v>185763.459162881</v>
       </c>
     </row>
     <row r="28">
@@ -6082,16 +6082,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>288652.3216308041</v>
+        <v>258153.2116398076</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-57396.23120894942</v>
+        <v>-44222.28411328801</v>
       </c>
       <c r="E28" t="n">
-        <v>231256.0904218547</v>
+        <v>213930.9275265195</v>
       </c>
     </row>
     <row r="29">
@@ -6099,16 +6099,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>315832.389580974</v>
+        <v>288703.8875735126</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-58698.2117708742</v>
+        <v>-46212.82245793314</v>
       </c>
       <c r="E29" t="n">
-        <v>257134.1778100998</v>
+        <v>242491.0651155794</v>
       </c>
     </row>
     <row r="30">
@@ -6116,16 +6116,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>343012.4575311439</v>
+        <v>319254.5635072176</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-59745.52530034079</v>
+        <v>-47871.49224602117</v>
       </c>
       <c r="E30" t="n">
-        <v>283266.9322308031</v>
+        <v>271383.0712611965</v>
       </c>
     </row>
     <row r="31">
@@ -6133,16 +6133,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>370192.5254813138</v>
+        <v>349805.2394409227</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-60585.88057366134</v>
+        <v>-49250.80444563406</v>
       </c>
       <c r="E31" t="n">
-        <v>309606.6449076524</v>
+        <v>300554.4349952886</v>
       </c>
     </row>
     <row r="32">
@@ -6150,16 +6150,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>397372.5934314835</v>
+        <v>380355.9153746277</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-61258.69358223945</v>
+        <v>-50395.78189669115</v>
       </c>
       <c r="E32" t="n">
-        <v>336113.8998492441</v>
+        <v>329960.1334779366</v>
       </c>
     </row>
   </sheetData>
@@ -6213,16 +6213,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-418029.4450736127</v>
+        <v>-536164.3626365234</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>232633.8343354893</v>
+        <v>244255.0519419636</v>
       </c>
       <c r="E2" t="n">
-        <v>-185395.6107381234</v>
+        <v>-291909.3106945598</v>
       </c>
     </row>
     <row r="3">
@@ -6230,16 +6230,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-390849.3771234428</v>
+        <v>-505613.6867028183</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>229398.5977192473</v>
+        <v>241228.6400477595</v>
       </c>
       <c r="E3" t="n">
-        <v>-161450.7794041954</v>
+        <v>-264385.0466550588</v>
       </c>
     </row>
     <row r="4">
@@ -6247,16 +6247,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-363669.3091732729</v>
+        <v>-475063.0107691133</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>223641.2236182712</v>
+        <v>235896.0445590686</v>
       </c>
       <c r="E4" t="n">
-        <v>-140028.0855550017</v>
+        <v>-239166.9662100447</v>
       </c>
     </row>
     <row r="5">
@@ -6264,16 +6264,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-336489.241223103</v>
+        <v>-444512.3348354083</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>214674.7216629988</v>
+        <v>227651.9234345158</v>
       </c>
       <c r="E5" t="n">
-        <v>-121814.5195601042</v>
+        <v>-216860.4114008925</v>
       </c>
     </row>
     <row r="6">
@@ -6281,16 +6281,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>-309309.1732729331</v>
+        <v>-413961.6589017033</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>202140.8518715063</v>
+        <v>216178.3483713251</v>
       </c>
       <c r="E6" t="n">
-        <v>-107168.3214014268</v>
+        <v>-197783.3105303782</v>
       </c>
     </row>
     <row r="7">
@@ -6298,16 +6298,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-282129.1053227633</v>
+        <v>-383410.9829679982</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>186108.8019341842</v>
+        <v>201520.3412615834</v>
       </c>
       <c r="E7" t="n">
-        <v>-96020.30338857902</v>
+        <v>-181890.6417064148</v>
       </c>
     </row>
     <row r="8">
@@ -6315,16 +6315,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-254949.0373725934</v>
+        <v>-352860.3070342932</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>167060.6959020437</v>
+        <v>184069.1299368712</v>
       </c>
       <c r="E8" t="n">
-        <v>-87888.34147054967</v>
+        <v>-168791.177097422</v>
       </c>
     </row>
     <row r="9">
@@ -6332,16 +6332,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-227768.9694224235</v>
+        <v>-322309.6311005881</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>145787.682119157</v>
+        <v>164476.2596617935</v>
       </c>
       <c r="E9" t="n">
-        <v>-81981.28730326652</v>
+        <v>-157833.3714387946</v>
       </c>
     </row>
     <row r="10">
@@ -6349,16 +6349,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-200588.9014722536</v>
+        <v>-291758.9551668831</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>123242.2246690147</v>
+        <v>143535.5309656574</v>
       </c>
       <c r="E10" t="n">
-        <v>-77346.67680323895</v>
+        <v>-148223.4242012257</v>
       </c>
     </row>
     <row r="11">
@@ -6366,16 +6366,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>-173408.8335220838</v>
+        <v>-261208.2792331781</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>100391.1939118501</v>
+        <v>122066.5420959016</v>
       </c>
       <c r="E11" t="n">
-        <v>-73017.63961023373</v>
+        <v>-139141.7371372765</v>
       </c>
     </row>
     <row r="12">
@@ -6383,16 +6383,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>-146228.7655719139</v>
+        <v>-230657.603299473</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>78099.97486481415</v>
+        <v>100821.8327730117</v>
       </c>
       <c r="E12" t="n">
-        <v>-68128.79070709976</v>
+        <v>-129835.7705264613</v>
       </c>
     </row>
     <row r="13">
@@ -6400,16 +6400,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>-119048.697621744</v>
+        <v>-200106.927365768</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>57060.39411718669</v>
+        <v>80426.73543344096</v>
       </c>
       <c r="E13" t="n">
-        <v>-61988.30350455733</v>
+        <v>-119680.191932327</v>
       </c>
     </row>
     <row r="14">
@@ -6417,16 +6417,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>-91868.62967157415</v>
+        <v>-169556.251432063</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>37761.374921604</v>
+        <v>61351.21291261752</v>
       </c>
       <c r="E14" t="n">
-        <v>-54107.25474997015</v>
+        <v>-108205.0385194455</v>
       </c>
     </row>
     <row r="15">
@@ -6434,16 +6434,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>-64688.56172140428</v>
+        <v>-139005.5754983579</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>20493.18343516943</v>
+        <v>43907.36889036372</v>
       </c>
       <c r="E15" t="n">
-        <v>-44195.37828623485</v>
+        <v>-95098.20660799422</v>
       </c>
     </row>
     <row r="16">
@@ -6451,16 +6451,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>-37508.4937712344</v>
+        <v>-108454.8995646529</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>5373.390523222336</v>
+        <v>28264.36023892204</v>
       </c>
       <c r="E16" t="n">
-        <v>-32135.10324801207</v>
+        <v>-80190.53932573086</v>
       </c>
     </row>
     <row r="17">
@@ -6468,16 +6468,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>-10328.42582106453</v>
+        <v>-77904.22363094786</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-7616.500315391193</v>
+        <v>14472.8759741848</v>
       </c>
       <c r="E17" t="n">
-        <v>-17944.92613645572</v>
+        <v>-63431.34765676306</v>
       </c>
     </row>
     <row r="18">
@@ -6485,16 +6485,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>16851.64212910535</v>
+        <v>-47353.54769724283</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-18592.22759708921</v>
+        <v>2492.977258853871</v>
       </c>
       <c r="E18" t="n">
-        <v>-1740.585467983863</v>
+        <v>-44860.57043838896</v>
       </c>
     </row>
     <row r="19">
@@ -6502,16 +6502,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>44031.71007927522</v>
+        <v>-16802.87176353779</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-27731.22698266264</v>
+        <v>-7778.952324730573</v>
       </c>
       <c r="E19" t="n">
-        <v>16300.48309661258</v>
+        <v>-24581.82408826836</v>
       </c>
     </row>
     <row r="20">
@@ -6519,16 +6519,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>71211.77802944509</v>
+        <v>13747.80417016724</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-35243.21954491812</v>
+        <v>-16486.62244904965</v>
       </c>
       <c r="E20" t="n">
-        <v>35968.55848452698</v>
+        <v>-2738.818278882409</v>
       </c>
     </row>
     <row r="21">
@@ -6536,16 +6536,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>98391.84597961497</v>
+        <v>44298.48010387228</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-41347.84180304337</v>
+        <v>-23794.71881319027</v>
       </c>
       <c r="E21" t="n">
-        <v>57044.0041765716</v>
+        <v>20503.76129068201</v>
       </c>
     </row>
     <row r="22">
@@ -6553,16 +6553,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>125571.9139297848</v>
+        <v>74849.15603757731</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-46258.98675386038</v>
+        <v>-29874.41545363248</v>
       </c>
       <c r="E22" t="n">
-        <v>79312.92717592447</v>
+        <v>44974.74058394483</v>
       </c>
     </row>
     <row r="23">
@@ -6570,16 +6570,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>152751.9818799547</v>
+        <v>105399.8319712824</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-50174.86849540546</v>
+        <v>-34893.11889663979</v>
       </c>
       <c r="E23" t="n">
-        <v>102577.1133845493</v>
+        <v>70506.71307464257</v>
       </c>
     </row>
     <row r="24">
@@ -6587,16 +6587,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>179932.0498301246</v>
+        <v>135950.5079049874</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-53272.58229845529</v>
+        <v>-39007.77244905847</v>
       </c>
       <c r="E24" t="n">
-        <v>126659.4675316693</v>
+        <v>96942.73545592891</v>
       </c>
     </row>
     <row r="25">
@@ -6604,16 +6604,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>207112.1177802945</v>
+        <v>166501.1838386924</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-55705.9509263031</v>
+        <v>-42360.96840234181</v>
       </c>
       <c r="E25" t="n">
-        <v>151406.1668539914</v>
+        <v>124140.2154363506</v>
       </c>
     </row>
     <row r="26">
@@ -6621,16 +6621,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>234292.1857304644</v>
+        <v>197051.8597723975</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-57605.60444122665</v>
+        <v>-45079.15193642125</v>
       </c>
       <c r="E26" t="n">
-        <v>176686.5812892377</v>
+        <v>151972.7078359762</v>
       </c>
     </row>
     <row r="27">
@@ -6638,16 +6638,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>261472.2536806343</v>
+        <v>227602.5357061025</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-59080.45056612463</v>
+        <v>-47272.29633386813</v>
       </c>
       <c r="E27" t="n">
-        <v>202391.8031145096</v>
+        <v>180330.2393722344</v>
       </c>
     </row>
     <row r="28">
@@ -6655,16 +6655,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>288652.3216308041</v>
+        <v>258153.2116398076</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-60219.90458449426</v>
+        <v>-49034.54685389246</v>
       </c>
       <c r="E28" t="n">
-        <v>228432.4170463099</v>
+        <v>209118.6647859151</v>
       </c>
     </row>
     <row r="29">
@@ -6672,16 +6672,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>315832.389580974</v>
+        <v>288703.8875735126</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-61096.43485514456</v>
+        <v>-50445.44739820362</v>
       </c>
       <c r="E29" t="n">
-        <v>254735.9547258294</v>
+        <v>238258.4401753089</v>
       </c>
     </row>
     <row r="30">
@@ -6689,16 +6689,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>343012.4575311439</v>
+        <v>319254.5635072176</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-61768.13161665471</v>
+        <v>-51571.46786946427</v>
       </c>
       <c r="E30" t="n">
-        <v>281244.3259144892</v>
+        <v>267683.0956377534</v>
       </c>
     </row>
     <row r="31">
@@ -6706,16 +6706,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>370192.5254813138</v>
+        <v>349805.2394409227</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-62281.12185799445</v>
+        <v>-52467.63595480069</v>
       </c>
       <c r="E31" t="n">
-        <v>307911.4036233193</v>
+        <v>297337.603486122</v>
       </c>
     </row>
     <row r="32">
@@ -6723,16 +6723,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>397372.5934314835</v>
+        <v>380355.9153746277</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-62671.73563150903</v>
+        <v>-53179.14433657435</v>
       </c>
       <c r="E32" t="n">
-        <v>334700.8577999745</v>
+        <v>327176.7710380533</v>
       </c>
     </row>
   </sheetData>
@@ -6786,16 +6786,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-418029.4450736127</v>
+        <v>-536164.3626365234</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>234840.6274767705</v>
+        <v>246379.4128592323</v>
       </c>
       <c r="E2" t="n">
-        <v>-183188.8175968421</v>
+        <v>-289784.9497772912</v>
       </c>
     </row>
     <row r="3">
@@ -6803,16 +6803,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-390849.3771234428</v>
+        <v>-505613.6867028183</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>233092.8063317385</v>
+        <v>244696.7177065088</v>
       </c>
       <c r="E3" t="n">
-        <v>-157756.5707917043</v>
+        <v>-260916.9689963095</v>
       </c>
     </row>
     <row r="4">
@@ -6820,16 +6820,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-363669.3091732729</v>
+        <v>-475063.0107691133</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>229340.8253293167</v>
+        <v>241124.1136819429</v>
       </c>
       <c r="E4" t="n">
-        <v>-134328.4838439562</v>
+        <v>-233938.8970871704</v>
       </c>
     </row>
     <row r="5">
@@ -6837,16 +6837,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-336489.241223103</v>
+        <v>-444512.3348354083</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>222555.7684701169</v>
+        <v>234725.9506849144</v>
       </c>
       <c r="E5" t="n">
-        <v>-113933.4727529861</v>
+        <v>-209786.3841504938</v>
       </c>
     </row>
     <row r="6">
@@ -6854,16 +6854,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>-309309.1732729331</v>
+        <v>-413961.6589017033</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>211878.8478533299</v>
+        <v>224734.3055189151</v>
       </c>
       <c r="E6" t="n">
-        <v>-97430.32541960321</v>
+        <v>-189227.3533827881</v>
       </c>
     </row>
     <row r="7">
@@ -6871,16 +6871,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-282129.1053227633</v>
+        <v>-383410.9829679982</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>196894.6947673818</v>
+        <v>210780.3036850743</v>
       </c>
       <c r="E7" t="n">
-        <v>-85234.41055538147</v>
+        <v>-172630.6792829239</v>
       </c>
     </row>
     <row r="8">
@@ -6888,16 +6888,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-254949.0373725934</v>
+        <v>-352860.3070342932</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>177778.2093272783</v>
+        <v>193008.4913075863</v>
       </c>
       <c r="E8" t="n">
-        <v>-77170.82804531514</v>
+        <v>-159851.8157267069</v>
       </c>
     </row>
     <row r="9">
@@ -6905,16 +6905,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-227768.9694224235</v>
+        <v>-322309.6311005881</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>155270.6928545282</v>
+        <v>172047.5188995704</v>
       </c>
       <c r="E9" t="n">
-        <v>-72498.27656789531</v>
+        <v>-150262.1122010177</v>
       </c>
     </row>
     <row r="10">
@@ -6922,16 +6922,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-200588.9014722536</v>
+        <v>-291758.9551668831</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>130516.3190347493</v>
+        <v>148870.4440591411</v>
       </c>
       <c r="E10" t="n">
-        <v>-70072.58243750437</v>
+        <v>-142888.511107742</v>
       </c>
     </row>
     <row r="11">
@@ -6939,16 +6939,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>-173408.8335220838</v>
+        <v>-261208.2792331781</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>104832.273741156</v>
+        <v>124606.2302042229</v>
       </c>
       <c r="E11" t="n">
-        <v>-68576.55978092777</v>
+        <v>-136602.0490289552</v>
       </c>
     </row>
     <row r="12">
@@ -6956,16 +6956,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>-146228.7655719139</v>
+        <v>-230657.603299473</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>79487.43855336297</v>
+        <v>100360.4674652782</v>
       </c>
       <c r="E12" t="n">
-        <v>-66741.32701855095</v>
+        <v>-130297.1358341948</v>
       </c>
     </row>
     <row r="13">
@@ -6973,16 +6973,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>-119048.697621744</v>
+        <v>-200106.927365768</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>55539.62393984092</v>
+        <v>77082.14146774737</v>
       </c>
       <c r="E13" t="n">
-        <v>-63509.07368190311</v>
+        <v>-123024.7858980206</v>
       </c>
     </row>
     <row r="14">
@@ -6990,16 +6990,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>-91868.62967157415</v>
+        <v>-169556.251432063</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>33749.58557143175</v>
+        <v>55489.25854755846</v>
       </c>
       <c r="E14" t="n">
-        <v>-58119.0441001424</v>
+        <v>-114066.9928845045</v>
       </c>
     </row>
     <row r="15">
@@ -7007,16 +7007,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>-64688.56172140428</v>
+        <v>-139005.5754983579</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>14565.01053990162</v>
+        <v>36048.19601827867</v>
       </c>
       <c r="E15" t="n">
-        <v>-50123.55118150266</v>
+        <v>-102957.3794800793</v>
       </c>
     </row>
     <row r="16">
@@ -7024,16 +7024,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>-37508.4937712344</v>
+        <v>-108454.8995646529</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-1845.656753214331</v>
+        <v>18992.34167559055</v>
       </c>
       <c r="E16" t="n">
-        <v>-39354.15052444873</v>
+        <v>-89462.55788906234</v>
       </c>
     </row>
     <row r="17">
@@ -7041,16 +7041,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>-10328.42582106453</v>
+        <v>-77904.22363094786</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-15532.52753665393</v>
+        <v>4363.521626219203</v>
       </c>
       <c r="E17" t="n">
-        <v>-25860.95335771846</v>
+        <v>-73540.70200472866</v>
       </c>
     </row>
     <row r="18">
@@ -7058,16 +7058,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>16851.64212910535</v>
+        <v>-47353.54769724283</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-26696.00374820322</v>
+        <v>-7937.922503007323</v>
       </c>
       <c r="E18" t="n">
-        <v>-9844.361619097868</v>
+        <v>-55291.47020025015</v>
       </c>
     </row>
     <row r="19">
@@ -7075,16 +7075,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>44031.71007927522</v>
+        <v>-16802.87176353779</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-35623.91026517724</v>
+        <v>-18104.37014956166</v>
       </c>
       <c r="E19" t="n">
-        <v>8407.799814097983</v>
+        <v>-34907.24191309945</v>
       </c>
     </row>
     <row r="20">
@@ -7092,16 +7092,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>71211.77802944509</v>
+        <v>13747.80417016724</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-42640.79261642377</v>
+        <v>-26379.21248842435</v>
       </c>
       <c r="E20" t="n">
-        <v>28570.98541302132</v>
+        <v>-12631.40831825711</v>
       </c>
     </row>
     <row r="21">
@@ -7109,16 +7109,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>98391.84597961497</v>
+        <v>44298.48010387228</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-48071.38559031639</v>
+        <v>-33024.55982082264</v>
       </c>
       <c r="E21" t="n">
-        <v>50320.46038929858</v>
+        <v>11273.92028304964</v>
       </c>
     </row>
     <row r="22">
@@ -7126,16 +7126,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>125571.9139297848</v>
+        <v>74849.15603757731</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-52217.26056881202</v>
+        <v>-38298.45146053639</v>
       </c>
       <c r="E22" t="n">
-        <v>73354.65336097282</v>
+        <v>36550.70457704092</v>
       </c>
     </row>
     <row r="23">
@@ -7143,16 +7143,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>152751.9818799547</v>
+        <v>105399.8319712824</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-55344.18298547566</v>
+        <v>-42440.37335897629</v>
       </c>
       <c r="E23" t="n">
-        <v>97407.79889447906</v>
+        <v>62959.45861230607</v>
       </c>
     </row>
     <row r="24">
@@ -7160,16 +7160,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>179932.0498301246</v>
+        <v>135950.5079049874</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-57677.30538237038</v>
+        <v>-45663.35414190192</v>
       </c>
       <c r="E24" t="n">
-        <v>122254.7444477542</v>
+        <v>90287.15376308546</v>
       </c>
     </row>
     <row r="25">
@@ -7177,16 +7177,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>207112.1177802945</v>
+        <v>166501.1838386924</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-59401.54342949954</v>
+        <v>-48150.85610881167</v>
       </c>
       <c r="E25" t="n">
-        <v>147710.574350795</v>
+        <v>118350.3277298808</v>
       </c>
     </row>
     <row r="26">
@@ -7194,16 +7194,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>234292.1857304644</v>
+        <v>197051.8597723975</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-60664.990999648</v>
+        <v>-50056.88531337636</v>
       </c>
       <c r="E26" t="n">
-        <v>173627.1947308164</v>
+        <v>146994.9744590211</v>
       </c>
     </row>
     <row r="27">
@@ -7211,16 +7211,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>261472.2536806343</v>
+        <v>227602.5357061025</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-61583.80460127713</v>
+        <v>-51508.05985566163</v>
       </c>
       <c r="E27" t="n">
-        <v>199888.4490793571</v>
+        <v>176094.4758504409</v>
       </c>
     </row>
     <row r="28">
@@ -7228,16 +7228,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>288652.3216308041</v>
+        <v>258153.2116398076</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-62247.50648759778</v>
+        <v>-52606.70294016972</v>
       </c>
       <c r="E28" t="n">
-        <v>226404.8151432063</v>
+        <v>205546.5086996378</v>
       </c>
     </row>
     <row r="29">
@@ -7245,16 +7245,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>315832.389580974</v>
+        <v>288703.8875735126</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-62724.06944903892</v>
+        <v>-53434.31716927694</v>
       </c>
       <c r="E29" t="n">
-        <v>253108.3201319351</v>
+        <v>235269.5704042356</v>
       </c>
     </row>
     <row r="30">
@@ -7262,16 +7262,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>343012.4575311439</v>
+        <v>319254.5635072176</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-63064.44699991181</v>
+        <v>-54055.02918053167</v>
       </c>
       <c r="E30" t="n">
-        <v>279948.0105312321</v>
+        <v>265199.5343266859</v>
       </c>
     </row>
     <row r="31">
@@ -7279,16 +7279,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>370192.5254813138</v>
+        <v>349805.2394409227</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-63306.41416130962</v>
+        <v>-54518.76713509495</v>
       </c>
       <c r="E31" t="n">
-        <v>306886.1113200042</v>
+        <v>295286.4723058277</v>
       </c>
     </row>
     <row r="32">
@@ -7296,16 +7296,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>397372.5934314835</v>
+        <v>380355.9153746277</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-63477.70794015629</v>
+        <v>-54864.05475155008</v>
       </c>
       <c r="E32" t="n">
-        <v>333894.8854913273</v>
+        <v>325491.8606230776</v>
       </c>
     </row>
   </sheetData>

--- a/RGGI PnL Output.xlsx
+++ b/RGGI PnL Output.xlsx
@@ -483,16 +483,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-536164.3626365234</v>
+        <v>-309190.3228222605</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>246716.3003867028</v>
+        <v>230437.2986423817</v>
       </c>
       <c r="E2" t="n">
-        <v>-289448.0622498207</v>
+        <v>-78753.02417987882</v>
       </c>
     </row>
     <row r="3">
@@ -500,16 +500,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-505613.6867028183</v>
+        <v>-291214.1412628267</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>245282.5310595101</v>
+        <v>226971.4793368695</v>
       </c>
       <c r="E3" t="n">
-        <v>-260331.1556433082</v>
+        <v>-64242.66192595725</v>
       </c>
     </row>
     <row r="4">
@@ -517,16 +517,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-475063.0107691133</v>
+        <v>-273237.959703393</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>242084.8583412586</v>
+        <v>221122.8675538281</v>
       </c>
       <c r="E4" t="n">
-        <v>-232978.1524278547</v>
+        <v>-52115.092149565</v>
       </c>
     </row>
     <row r="5">
@@ -534,16 +534,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-444512.3348354083</v>
+        <v>-255261.7781439593</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>236131.5203311555</v>
+        <v>212383.5694128159</v>
       </c>
       <c r="E5" t="n">
-        <v>-208380.8145042527</v>
+        <v>-42878.20873114342</v>
       </c>
     </row>
     <row r="6">
@@ -551,16 +551,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>-413961.6589017033</v>
+        <v>-237285.5965845255</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>226547.5471940791</v>
+        <v>200542.6989846703</v>
       </c>
       <c r="E6" t="n">
-        <v>-187414.1117076242</v>
+        <v>-36742.89759985518</v>
       </c>
     </row>
     <row r="7">
@@ -568,16 +568,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-383410.9829679982</v>
+        <v>-219309.4150250918</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>212844.4482869169</v>
+        <v>185730.7932690459</v>
       </c>
       <c r="E7" t="n">
-        <v>-170566.5346810813</v>
+        <v>-33578.62175604582</v>
       </c>
     </row>
     <row r="8">
@@ -585,16 +585,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-352860.3070342932</v>
+        <v>-201333.233465658</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>195078.7007086064</v>
+        <v>168383.7057224677</v>
       </c>
       <c r="E8" t="n">
-        <v>-157781.6063256868</v>
+        <v>-32949.52774319029</v>
       </c>
     </row>
     <row r="9">
@@ -602,16 +602,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-322309.6311005881</v>
+        <v>-183357.0519062243</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>173850.2531735288</v>
+        <v>149152.6200287241</v>
       </c>
       <c r="E9" t="n">
-        <v>-148459.3779270593</v>
+        <v>-34204.43187750017</v>
       </c>
     </row>
     <row r="10">
@@ -619,16 +619,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-291758.9551668831</v>
+        <v>-165380.8703467905</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>150165.7022930586</v>
+        <v>128793.932169801</v>
       </c>
       <c r="E10" t="n">
-        <v>-141593.2528738244</v>
+        <v>-36586.93817698948</v>
       </c>
     </row>
     <row r="11">
@@ -636,16 +636,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>-261208.2792331781</v>
+        <v>-147404.6887873567</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>125232.5759539015</v>
+        <v>108066.837466329</v>
       </c>
       <c r="E11" t="n">
-        <v>-135975.7032792765</v>
+        <v>-39337.85132102776</v>
       </c>
     </row>
     <row r="12">
@@ -653,16 +653,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>-230657.603299473</v>
+        <v>-129428.507227923</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>100254.0566909572</v>
+        <v>87655.15834650023</v>
       </c>
       <c r="E12" t="n">
-        <v>-130403.5466085158</v>
+        <v>-41773.34888142276</v>
       </c>
     </row>
     <row r="13">
@@ -670,16 +670,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>-200106.927365768</v>
+        <v>-111452.3256684892</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>76271.56175812396</v>
+        <v>68119.0306127567</v>
       </c>
       <c r="E13" t="n">
-        <v>-123835.365607644</v>
+        <v>-43333.29505573254</v>
       </c>
     </row>
     <row r="14">
@@ -687,16 +687,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>-169556.251432063</v>
+        <v>-93476.1441090555</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>54074.14525843225</v>
+        <v>49874.32982534475</v>
       </c>
       <c r="E14" t="n">
-        <v>-115482.1061736307</v>
+        <v>-43601.81428371075</v>
       </c>
     </row>
     <row r="15">
@@ -704,16 +704,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>-139005.5754983579</v>
+        <v>-75499.96254962175</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>34171.02784976931</v>
+        <v>33193.64597837919</v>
       </c>
       <c r="E15" t="n">
-        <v>-104834.5476485886</v>
+        <v>-42306.31657124255</v>
       </c>
     </row>
     <row r="16">
@@ -721,16 +721,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>-108454.8995646529</v>
+        <v>-57523.780990188</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>16811.09708165169</v>
+        <v>18221.4609091956</v>
       </c>
       <c r="E16" t="n">
-        <v>-91643.8024830012</v>
+        <v>-39302.3200809924</v>
       </c>
     </row>
     <row r="17">
@@ -738,16 +738,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>-77904.22363094786</v>
+        <v>-39547.59943075424</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>2029.885781627336</v>
+        <v>4996.849515501456</v>
       </c>
       <c r="E17" t="n">
-        <v>-75874.33784932052</v>
+        <v>-34550.74991525279</v>
       </c>
     </row>
     <row r="18">
@@ -755,16 +755,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>-47353.54769724283</v>
+        <v>-21571.41787132049</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-10292.98920264284</v>
+        <v>-6521.460488411652</v>
       </c>
       <c r="E18" t="n">
-        <v>-57646.53689988567</v>
+        <v>-28092.87835973214</v>
       </c>
     </row>
     <row r="19">
@@ -772,16 +772,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>-16802.87176353779</v>
+        <v>-3595.236311886737</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-20377.9725713012</v>
+        <v>-16431.14778995632</v>
       </c>
       <c r="E19" t="n">
-        <v>-37180.84433483898</v>
+        <v>-20026.38410184306</v>
       </c>
     </row>
     <row r="20">
@@ -789,16 +789,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>13747.80417016724</v>
+        <v>14380.94524754702</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-28498.18933195449</v>
+        <v>-24865.46641857059</v>
       </c>
       <c r="E20" t="n">
-        <v>-14750.38516178724</v>
+        <v>-10484.52117102358</v>
       </c>
     </row>
     <row r="21">
@@ -806,16 +806,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>44298.48010387228</v>
+        <v>32357.12680698076</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-34943.28357207144</v>
+        <v>-31976.38137479238</v>
       </c>
       <c r="E21" t="n">
-        <v>9355.196531800844</v>
+        <v>380.7454321883852</v>
       </c>
     </row>
     <row r="22">
@@ -823,16 +823,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>74849.15603757731</v>
+        <v>50333.30836641452</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-39994.45253779492</v>
+        <v>-37921.76129945726</v>
       </c>
       <c r="E22" t="n">
-        <v>34854.70349978239</v>
+        <v>12411.54706695726</v>
       </c>
     </row>
     <row r="23">
@@ -840,16 +840,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>105399.8319712824</v>
+        <v>68309.48992584826</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-43909.12584004744</v>
+        <v>-42856.26415438348</v>
       </c>
       <c r="E23" t="n">
-        <v>61490.70613123492</v>
+        <v>25453.22577146478</v>
       </c>
     </row>
     <row r="24">
@@ -857,16 +857,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>135950.5079049874</v>
+        <v>86285.67148528202</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-46913.14002237187</v>
+        <v>-46925.33133819926</v>
       </c>
       <c r="E24" t="n">
-        <v>89037.36788261551</v>
+        <v>39360.34014708275</v>
       </c>
     </row>
     <row r="25">
@@ -874,16 +874,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>166501.1838386924</v>
+        <v>104261.8530447158</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-49198.24464008049</v>
+        <v>-50261.6426830673</v>
       </c>
       <c r="E25" t="n">
-        <v>117302.9391986119</v>
+        <v>54000.21036164848</v>
       </c>
     </row>
     <row r="26">
@@ -891,16 +891,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>197051.8597723975</v>
+        <v>122238.0346041495</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-50923.06959504671</v>
+        <v>-52983.41675078983</v>
       </c>
       <c r="E26" t="n">
-        <v>146128.7901773507</v>
+        <v>69254.6178533597</v>
       </c>
     </row>
     <row r="27">
@@ -908,16 +908,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>227602.5357061025</v>
+        <v>140214.2161635833</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-52216.09229684211</v>
+        <v>-55194.02177113736</v>
       </c>
       <c r="E27" t="n">
-        <v>175386.4434092604</v>
+        <v>85020.1943924459</v>
       </c>
     </row>
     <row r="28">
@@ -925,16 +925,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>258153.2116398076</v>
+        <v>158190.397723017</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-53179.55207153016</v>
+        <v>-56982.46166155786</v>
       </c>
       <c r="E28" t="n">
-        <v>204973.6595682774</v>
+        <v>101207.9360614592</v>
       </c>
     </row>
     <row r="29">
@@ -942,16 +942,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>288703.8875735126</v>
+        <v>176166.5792824508</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-53893.61063287999</v>
+        <v>-58424.40014838028</v>
       </c>
       <c r="E29" t="n">
-        <v>234810.2769406326</v>
+        <v>117742.1791340705</v>
       </c>
     </row>
     <row r="30">
@@ -959,16 +959,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>319254.5635072176</v>
+        <v>194142.7608418845</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-54420.33144994485</v>
+        <v>-59583.47410380866</v>
       </c>
       <c r="E30" t="n">
-        <v>264834.2320572728</v>
+        <v>134559.2867380759</v>
       </c>
     </row>
     <row r="31">
@@ -976,16 +976,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>349805.2394409227</v>
+        <v>212118.9424013183</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-54807.24889751156</v>
+        <v>-60512.72063109764</v>
       </c>
       <c r="E31" t="n">
-        <v>294997.9905434111</v>
+        <v>151606.2217702206</v>
       </c>
     </row>
     <row r="32">
@@ -993,16 +993,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>380355.9153746277</v>
+        <v>230095.123960752</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-55090.43161166005</v>
+        <v>-61256.00050295543</v>
       </c>
       <c r="E32" t="n">
-        <v>325265.4837629676</v>
+        <v>168839.1234577966</v>
       </c>
     </row>
   </sheetData>
@@ -1056,16 +1056,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-536164.3626365234</v>
+        <v>-309190.3228222605</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>248255.2201118461</v>
+        <v>233685.6009905493</v>
       </c>
       <c r="E2" t="n">
-        <v>-287909.1425246773</v>
+        <v>-75504.72183171118</v>
       </c>
     </row>
     <row r="3">
@@ -1073,16 +1073,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-505613.6867028183</v>
+        <v>-291214.1412628267</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>248009.4415766113</v>
+        <v>232604.8551278175</v>
       </c>
       <c r="E3" t="n">
-        <v>-257604.245126207</v>
+        <v>-58609.28613500926</v>
       </c>
     </row>
     <row r="4">
@@ -1090,16 +1090,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-475063.0107691133</v>
+        <v>-273237.959703393</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>247086.6749867558</v>
+        <v>229984.6173343636</v>
       </c>
       <c r="E4" t="n">
-        <v>-227976.3357823575</v>
+        <v>-43253.34236902947</v>
       </c>
     </row>
     <row r="5">
@@ -1107,16 +1107,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-444512.3348354083</v>
+        <v>-255261.7781439593</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>244499.1963721236</v>
+        <v>224770.1428953439</v>
       </c>
       <c r="E5" t="n">
-        <v>-200013.1384632847</v>
+        <v>-30491.63524861532</v>
       </c>
     </row>
     <row r="6">
@@ -1124,16 +1124,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>-413961.6589017033</v>
+        <v>-237285.5965845255</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>238762.7650357248</v>
+        <v>215921.1366813255</v>
       </c>
       <c r="E6" t="n">
-        <v>-175198.8938659785</v>
+        <v>-21364.45990320001</v>
       </c>
     </row>
     <row r="7">
@@ -1141,16 +1141,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-383410.9829679982</v>
+        <v>-219309.4150250918</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>228262.1747101303</v>
+        <v>202738.9139221799</v>
       </c>
       <c r="E7" t="n">
-        <v>-155148.8082578678</v>
+        <v>-16570.50110291186</v>
       </c>
     </row>
     <row r="8">
@@ -1158,16 +1158,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-352860.3070342932</v>
+        <v>-201333.233465658</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>211850.9424927209</v>
+        <v>185109.144513992</v>
       </c>
       <c r="E8" t="n">
-        <v>-141009.3645415723</v>
+        <v>-16224.08895166602</v>
       </c>
     </row>
     <row r="9">
@@ -1175,16 +1175,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-322309.6311005881</v>
+        <v>-183357.0519062243</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>189369.3871232737</v>
+        <v>163564.3122566618</v>
       </c>
       <c r="E9" t="n">
-        <v>-132940.2439773145</v>
+        <v>-19792.73964956249</v>
       </c>
     </row>
     <row r="10">
@@ -1192,16 +1192,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-291758.9551668831</v>
+        <v>-165380.8703467905</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161806.5968369959</v>
+        <v>139163.5167428093</v>
       </c>
       <c r="E10" t="n">
-        <v>-129952.3583298872</v>
+        <v>-26217.35360398123</v>
       </c>
     </row>
     <row r="11">
@@ -1209,16 +1209,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>-261208.2792331781</v>
+        <v>-147404.6887873567</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>131051.9936175842</v>
+        <v>113258.6243971168</v>
       </c>
       <c r="E11" t="n">
-        <v>-130156.2856155939</v>
+        <v>-34146.06439023998</v>
       </c>
     </row>
     <row r="12">
@@ -1226,16 +1226,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>-230657.603299473</v>
+        <v>-129428.507227923</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>99392.32542174916</v>
+        <v>87237.47790923505</v>
       </c>
       <c r="E12" t="n">
-        <v>-131265.2778777239</v>
+        <v>-42191.02931868794</v>
       </c>
     </row>
     <row r="13">
@@ -1243,16 +1243,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>-200106.927365768</v>
+        <v>-111452.3256684892</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>68985.02920352967</v>
+        <v>62315.4412714001</v>
       </c>
       <c r="E13" t="n">
-        <v>-131121.8981622383</v>
+        <v>-49136.88439708914</v>
       </c>
     </row>
     <row r="14">
@@ -1260,16 +1260,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>-169556.251432063</v>
+        <v>-93476.1441090555</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>41483.00326119242</v>
+        <v>39409.8129928139</v>
       </c>
       <c r="E14" t="n">
-        <v>-128073.2481708706</v>
+        <v>-54066.33111624161</v>
       </c>
     </row>
     <row r="15">
@@ -1277,16 +1277,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>-139005.5754983579</v>
+        <v>-75499.96254962175</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>17875.36980528642</v>
+        <v>19098.09592497196</v>
       </c>
       <c r="E15" t="n">
-        <v>-121130.2056930715</v>
+        <v>-56401.86662464979</v>
       </c>
     </row>
     <row r="16">
@@ -1294,16 +1294,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>-108454.8995646529</v>
+        <v>-57523.780990188</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-1484.462030342576</v>
+        <v>1640.617914204351</v>
       </c>
       <c r="E16" t="n">
-        <v>-109939.3615949955</v>
+        <v>-55883.16307598364</v>
       </c>
     </row>
     <row r="17">
@@ -1311,16 +1311,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>-77904.22363094786</v>
+        <v>-39547.59943075424</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-16737.17920974829</v>
+        <v>-12958.89051533255</v>
       </c>
       <c r="E17" t="n">
-        <v>-94641.40284069616</v>
+        <v>-52506.48994608679</v>
       </c>
     </row>
     <row r="18">
@@ -1328,16 +1328,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>-47353.54769724283</v>
+        <v>-21571.41787132049</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-28337.67373613519</v>
+        <v>-24878.63485350726</v>
       </c>
       <c r="E18" t="n">
-        <v>-75691.22143337801</v>
+        <v>-46450.05272482775</v>
       </c>
     </row>
     <row r="19">
@@ -1345,16 +1345,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>-16802.87176353779</v>
+        <v>-3595.236311886737</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-36890.0975490053</v>
+        <v>-34406.98229539433</v>
       </c>
       <c r="E19" t="n">
-        <v>-53692.96931254309</v>
+        <v>-38002.21860728107</v>
       </c>
     </row>
     <row r="20">
@@ -1362,16 +1362,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>13747.80417016724</v>
+        <v>14380.94524754702</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-43024.12660799881</v>
+        <v>-41883.04452674647</v>
       </c>
       <c r="E20" t="n">
-        <v>-29276.32243783157</v>
+        <v>-27502.09927919946</v>
       </c>
     </row>
     <row r="21">
@@ -1379,16 +1379,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>44298.48010387228</v>
+        <v>32357.12680698076</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-47317.57272011421</v>
+        <v>-47653.0340423618</v>
       </c>
       <c r="E21" t="n">
-        <v>-3019.092616241935</v>
+        <v>-15295.90723538103</v>
       </c>
     </row>
     <row r="22">
@@ -1396,16 +1396,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>74849.15603757731</v>
+        <v>50333.30836641452</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-50258.33376933806</v>
+        <v>-52041.84693425484</v>
       </c>
       <c r="E22" t="n">
-        <v>24590.82226823925</v>
+        <v>-1708.538567840325</v>
       </c>
     </row>
     <row r="23">
@@ -1413,16 +1413,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>105399.8319712824</v>
+        <v>68309.48992584826</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-52234.17759687237</v>
+        <v>-55337.26816527722</v>
       </c>
       <c r="E23" t="n">
-        <v>53165.65437440999</v>
+        <v>12972.22176057105</v>
       </c>
     </row>
     <row r="24">
@@ -1430,16 +1430,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>135950.5079049874</v>
+        <v>86285.67148528202</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-53539.16641505697</v>
+        <v>-57783.52449723471</v>
       </c>
       <c r="E24" t="n">
-        <v>82411.3414899304</v>
+        <v>28502.1469880473</v>
       </c>
     </row>
     <row r="25">
@@ -1447,16 +1447,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>166501.1838386924</v>
+        <v>104261.8530447158</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-54388.0306054868</v>
+        <v>-59581.07496596714</v>
       </c>
       <c r="E25" t="n">
-        <v>112113.1532332056</v>
+        <v>44680.77807874864</v>
       </c>
     </row>
     <row r="26">
@@ -1464,16 +1464,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>197051.8597723975</v>
+        <v>122238.0346041495</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-54932.74776965529</v>
+        <v>-60890.09131424922</v>
       </c>
       <c r="E26" t="n">
-        <v>142119.1120027422</v>
+        <v>61347.94328990031</v>
       </c>
     </row>
     <row r="27">
@@ -1481,16 +1481,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>227602.5357061025</v>
+        <v>140214.2161635833</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-55278.09012993644</v>
+        <v>-61835.75128982507</v>
       </c>
       <c r="E27" t="n">
-        <v>172324.4455761661</v>
+        <v>78378.4648737582</v>
       </c>
     </row>
     <row r="28">
@@ -1498,16 +1498,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>258153.2116398076</v>
+        <v>158190.397723017</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-55494.68576045388</v>
+        <v>-62514.08534627636</v>
       </c>
       <c r="E28" t="n">
-        <v>202658.5258793537</v>
+        <v>95676.31237674068</v>
       </c>
     </row>
     <row r="29">
@@ -1515,16 +1515,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>288703.8875735126</v>
+        <v>176166.5792824508</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-55629.23614630619</v>
+        <v>-62997.61306660484</v>
       </c>
       <c r="E29" t="n">
-        <v>233074.6514272064</v>
+        <v>113168.9662158459</v>
       </c>
     </row>
     <row r="30">
@@ -1532,16 +1532,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>319254.5635072176</v>
+        <v>194142.7608418845</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-55712.10983876108</v>
+        <v>-63340.36643418703</v>
       </c>
       <c r="E30" t="n">
-        <v>263542.4536684565</v>
+        <v>130802.3944076975</v>
       </c>
     </row>
     <row r="31">
@@ -1549,16 +1549,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>349805.2394409227</v>
+        <v>212118.9424013183</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-55762.76912235291</v>
+        <v>-63582.13822067938</v>
       </c>
       <c r="E31" t="n">
-        <v>294042.4703185698</v>
+        <v>148536.8041806389</v>
       </c>
     </row>
     <row r="32">
@@ -1566,16 +1566,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>380355.9153746277</v>
+        <v>230095.123960752</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-55793.52900541547</v>
+        <v>-63751.94120624803</v>
       </c>
       <c r="E32" t="n">
-        <v>324562.3863692122</v>
+        <v>166343.182754504</v>
       </c>
     </row>
   </sheetData>
@@ -1629,16 +1629,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-536164.3626365234</v>
+        <v>-309190.3228222605</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>249193.0404246387</v>
+        <v>234997.7692135514</v>
       </c>
       <c r="E2" t="n">
-        <v>-286971.3222118848</v>
+        <v>-74192.55360870907</v>
       </c>
     </row>
     <row r="3">
@@ -1646,16 +1646,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-505613.6867028183</v>
+        <v>-291214.1412628267</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>249192.9222518131</v>
+        <v>234991.9324569329</v>
       </c>
       <c r="E3" t="n">
-        <v>-256420.7644510052</v>
+        <v>-56222.20880589384</v>
       </c>
     </row>
     <row r="4">
@@ -1663,16 +1663,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-475063.0107691133</v>
+        <v>-273237.959703393</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>249188.9131561333</v>
+        <v>234928.3948181904</v>
       </c>
       <c r="E4" t="n">
-        <v>-225874.0976129801</v>
+        <v>-38309.56488520262</v>
       </c>
     </row>
     <row r="5">
@@ -1680,16 +1680,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-444512.3348354083</v>
+        <v>-255261.7781439593</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>249127.3429494674</v>
+        <v>234520.6585251371</v>
       </c>
       <c r="E5" t="n">
-        <v>-195384.9918859408</v>
+        <v>-20741.11961882221</v>
       </c>
     </row>
     <row r="6">
@@ -1697,16 +1697,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>-413961.6589017033</v>
+        <v>-237285.5965845255</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>248626.1551359377</v>
+        <v>232807.5750573317</v>
       </c>
       <c r="E6" t="n">
-        <v>-165335.5037657655</v>
+        <v>-4478.021527193778</v>
       </c>
     </row>
     <row r="7">
@@ -1714,16 +1714,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-383410.9829679982</v>
+        <v>-219309.4150250918</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>246183.8267019021</v>
+        <v>227699.7753842629</v>
       </c>
       <c r="E7" t="n">
-        <v>-137227.156266096</v>
+        <v>8390.360359171173</v>
       </c>
     </row>
     <row r="8">
@@ -1731,16 +1731,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-352860.3070342932</v>
+        <v>-201333.233465658</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>238338.5083119528</v>
+        <v>216193.3931234903</v>
       </c>
       <c r="E8" t="n">
-        <v>-114521.7987223404</v>
+        <v>14860.15965783232</v>
       </c>
     </row>
     <row r="9">
@@ -1748,16 +1748,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-322309.6311005881</v>
+        <v>-183357.0519062243</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>220392.8412010662</v>
+        <v>195630.0500172188</v>
       </c>
       <c r="E9" t="n">
-        <v>-101916.7898995219</v>
+        <v>12272.99811099452</v>
       </c>
     </row>
     <row r="10">
@@ -1765,16 +1765,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-291758.9551668831</v>
+        <v>-165380.8703467905</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>189299.8872201792</v>
+        <v>165345.9601138715</v>
       </c>
       <c r="E10" t="n">
-        <v>-102459.0679467039</v>
+        <v>-34.91023291900638</v>
       </c>
     </row>
     <row r="11">
@@ -1782,16 +1782,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>-261208.2792331781</v>
+        <v>-147404.6887873567</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>146473.4133221235</v>
+        <v>127487.6733825728</v>
       </c>
       <c r="E11" t="n">
-        <v>-114734.8659110545</v>
+        <v>-19917.01540478393</v>
       </c>
     </row>
     <row r="12">
@@ -1799,16 +1799,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>-230657.603299473</v>
+        <v>-129428.507227923</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>97828.97314172101</v>
+        <v>86373.6789312287</v>
       </c>
       <c r="E12" t="n">
-        <v>-132828.630157752</v>
+        <v>-43054.82829669429</v>
       </c>
     </row>
     <row r="13">
@@ -1816,16 +1816,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>-200106.927365768</v>
+        <v>-111452.3256684892</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>51016.04108613532</v>
+        <v>46867.80325324162</v>
       </c>
       <c r="E13" t="n">
-        <v>-149090.8862796327</v>
+        <v>-64584.52241524762</v>
       </c>
     </row>
     <row r="14">
@@ -1833,16 +1833,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>-169556.251432063</v>
+        <v>-93476.1441090555</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>12081.4922338994</v>
+        <v>12779.53010763391</v>
       </c>
       <c r="E14" t="n">
-        <v>-157474.7591981636</v>
+        <v>-80696.61400142159</v>
       </c>
     </row>
     <row r="15">
@@ -1850,16 +1850,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>-139005.5754983579</v>
+        <v>-75499.96254962175</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-16330.18008783189</v>
+        <v>-13958.92305038558</v>
       </c>
       <c r="E15" t="n">
-        <v>-155335.7555861898</v>
+        <v>-89458.88560000733</v>
       </c>
     </row>
     <row r="16">
@@ -1867,16 +1867,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>-108454.8995646529</v>
+        <v>-57523.780990188</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-34744.78120384233</v>
+        <v>-33223.49342665935</v>
       </c>
       <c r="E16" t="n">
-        <v>-143199.6807684952</v>
+        <v>-90747.27441684734</v>
       </c>
     </row>
     <row r="17">
@@ -1884,16 +1884,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>-77904.22363094786</v>
+        <v>-39547.59943075424</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-45458.21195664926</v>
+        <v>-46087.23107205171</v>
       </c>
       <c r="E17" t="n">
-        <v>-123362.4355875971</v>
+        <v>-85634.83050280595</v>
       </c>
     </row>
     <row r="18">
@@ -1901,16 +1901,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>-47353.54769724283</v>
+        <v>-21571.41787132049</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-51107.03974936268</v>
+        <v>-54110.95405767829</v>
       </c>
       <c r="E18" t="n">
-        <v>-98460.58744660551</v>
+        <v>-75682.37192899878</v>
       </c>
     </row>
     <row r="19">
@@ -1918,16 +1918,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>-16802.87176353779</v>
+        <v>-3595.236311886737</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-53830.38284331711</v>
+        <v>-58818.70878611256</v>
       </c>
       <c r="E19" t="n">
-        <v>-70633.2546068549</v>
+        <v>-62413.9450979993</v>
       </c>
     </row>
     <row r="20">
@@ -1935,16 +1935,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>13747.80417016724</v>
+        <v>14380.94524754702</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-55040.81607202601</v>
+        <v>-61433.17143557659</v>
       </c>
       <c r="E20" t="n">
-        <v>-41293.01190185876</v>
+        <v>-47052.22618802958</v>
       </c>
     </row>
     <row r="21">
@@ -1952,16 +1952,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>44298.48010387228</v>
+        <v>32357.12680698076</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-55540.61259977247</v>
+        <v>-62815.14910486274</v>
       </c>
       <c r="E21" t="n">
-        <v>-11242.13249590019</v>
+        <v>-30458.02229788197</v>
       </c>
     </row>
     <row r="22">
@@ -1969,16 +1969,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>74849.15603757731</v>
+        <v>50333.30836641452</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-55733.68523094275</v>
+        <v>-63513.9296337183</v>
       </c>
       <c r="E22" t="n">
-        <v>19115.47080663456</v>
+        <v>-13180.62126730378</v>
       </c>
     </row>
     <row r="23">
@@ -1986,16 +1986,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>105399.8319712824</v>
+        <v>68309.48992584826</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-55803.91654825249</v>
+        <v>-63853.43989969903</v>
       </c>
       <c r="E23" t="n">
-        <v>49595.91542302987</v>
+        <v>4456.050026149227</v>
       </c>
     </row>
     <row r="24">
@@ -2003,16 +2003,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>135950.5079049874</v>
+        <v>86285.67148528202</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-55828.11494816346</v>
+        <v>-64012.58464866552</v>
       </c>
       <c r="E24" t="n">
-        <v>80122.39295682391</v>
+        <v>22273.08683661649</v>
       </c>
     </row>
     <row r="25">
@@ -2020,16 +2020,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>166501.1838386924</v>
+        <v>104261.8530447158</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-55836.05494056897</v>
+        <v>-64084.81813283292</v>
       </c>
       <c r="E25" t="n">
-        <v>110665.1288981235</v>
+        <v>40177.03491188287</v>
       </c>
     </row>
     <row r="26">
@@ -2037,16 +2037,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>197051.8597723975</v>
+        <v>122238.0346041495</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-55838.54808518964</v>
+        <v>-64116.66849105903</v>
       </c>
       <c r="E26" t="n">
-        <v>141213.3116872078</v>
+        <v>58121.36611309051</v>
       </c>
     </row>
     <row r="27">
@@ -2054,16 +2054,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>227602.5357061025</v>
+        <v>140214.2161635833</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-55839.30055067016</v>
+        <v>-64130.3521374479</v>
       </c>
       <c r="E27" t="n">
-        <v>171763.2351554324</v>
+        <v>76083.86402613537</v>
       </c>
     </row>
     <row r="28">
@@ -2071,16 +2071,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>258153.2116398076</v>
+        <v>158190.397723017</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-55839.51971697132</v>
+        <v>-64136.09538759619</v>
       </c>
       <c r="E28" t="n">
-        <v>202313.6919228362</v>
+        <v>94054.30233542084</v>
       </c>
     </row>
     <row r="29">
@@ -2088,16 +2088,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>288703.8875735126</v>
+        <v>176166.5792824508</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-55839.58154432548</v>
+        <v>-64138.45600790582</v>
       </c>
       <c r="E29" t="n">
-        <v>232864.3060291871</v>
+        <v>112028.123274545</v>
       </c>
     </row>
     <row r="30">
@@ -2105,16 +2105,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>319254.5635072176</v>
+        <v>194142.7608418845</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-55839.59849276837</v>
+        <v>-64139.40825694654</v>
       </c>
       <c r="E30" t="n">
-        <v>263414.9650144493</v>
+        <v>130003.352584938</v>
       </c>
     </row>
     <row r="31">
@@ -2122,16 +2122,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>349805.2394409227</v>
+        <v>212118.9424013183</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-55839.60302079888</v>
+        <v>-64139.78598938086</v>
       </c>
       <c r="E31" t="n">
-        <v>293965.6364201238</v>
+        <v>147979.1564119374</v>
       </c>
     </row>
     <row r="32">
@@ -2139,16 +2139,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>380355.9153746277</v>
+        <v>230095.123960752</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-55839.60420298659</v>
+        <v>-64139.9335939825</v>
       </c>
       <c r="E32" t="n">
-        <v>324516.3111716411</v>
+        <v>165955.1903667695</v>
       </c>
     </row>
   </sheetData>
@@ -2202,16 +2202,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-536164.3626365234</v>
+        <v>-309190.3228222605</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>249637.5010894914</v>
+        <v>235433.9201894319</v>
       </c>
       <c r="E2" t="n">
-        <v>-286526.861547032</v>
+        <v>-73756.40263282863</v>
       </c>
     </row>
     <row r="3">
@@ -2219,16 +2219,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-505613.6867028183</v>
+        <v>-291214.1412628267</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>249637.5010894915</v>
+        <v>235433.9201894319</v>
       </c>
       <c r="E3" t="n">
-        <v>-255976.1856133268</v>
+        <v>-55780.22107339487</v>
       </c>
     </row>
     <row r="4">
@@ -2236,16 +2236,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-475063.0107691133</v>
+        <v>-273237.959703393</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>249637.5010894915</v>
+        <v>235433.9201894319</v>
       </c>
       <c r="E4" t="n">
-        <v>-225425.5096796218</v>
+        <v>-37804.03951396118</v>
       </c>
     </row>
     <row r="5">
@@ -2253,16 +2253,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-444512.3348354083</v>
+        <v>-255261.7781439593</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>249637.5010894915</v>
+        <v>235433.9201894319</v>
       </c>
       <c r="E5" t="n">
-        <v>-194874.8337459167</v>
+        <v>-19827.85795452734</v>
       </c>
     </row>
     <row r="6">
@@ -2270,16 +2270,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>-413961.6589017033</v>
+        <v>-237285.5965845255</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>249637.5010894916</v>
+        <v>235433.9201894314</v>
       </c>
       <c r="E6" t="n">
-        <v>-164324.1578122117</v>
+        <v>-1851.67639509408</v>
       </c>
     </row>
     <row r="7">
@@ -2287,16 +2287,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-383410.9829679982</v>
+        <v>-219309.4150250918</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>249637.5010893625</v>
+        <v>235433.9197920936</v>
       </c>
       <c r="E7" t="n">
-        <v>-133773.4818786357</v>
+        <v>16124.50476700184</v>
       </c>
     </row>
     <row r="8">
@@ -2304,16 +2304,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-352860.3070342932</v>
+        <v>-201333.233465658</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>249637.4156381018</v>
+        <v>235430.5960841125</v>
       </c>
       <c r="E8" t="n">
-        <v>-103222.8913961914</v>
+        <v>34097.36261845453</v>
       </c>
     </row>
     <row r="9">
@@ -2321,16 +2321,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-322309.6311005881</v>
+        <v>-183357.0519062243</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>249367.6935924936</v>
+        <v>234538.4841301284</v>
       </c>
       <c r="E9" t="n">
-        <v>-72941.93750809453</v>
+        <v>51181.43222390415</v>
       </c>
     </row>
     <row r="10">
@@ -2338,16 +2338,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-291758.9551668831</v>
+        <v>-165380.8703467905</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>234356.8825732298</v>
+        <v>216930.0971546016</v>
       </c>
       <c r="E10" t="n">
-        <v>-57402.07259365323</v>
+        <v>51549.22680781112</v>
       </c>
     </row>
     <row r="11">
@@ -2355,16 +2355,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>-261208.2792331781</v>
+        <v>-147404.6887873567</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>172749.8814316897</v>
+        <v>159245.2723280253</v>
       </c>
       <c r="E11" t="n">
-        <v>-88458.39780148841</v>
+        <v>11840.58354066851</v>
       </c>
     </row>
     <row r="12">
@@ -2372,16 +2372,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>-230657.603299473</v>
+        <v>-129428.507227923</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>96751.91361960354</v>
+        <v>85509.75998320236</v>
       </c>
       <c r="E12" t="n">
-        <v>-133905.6896798695</v>
+        <v>-43918.74724472064</v>
       </c>
     </row>
     <row r="13">
@@ -2389,16 +2389,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>-200106.927365768</v>
+        <v>-111452.3256684892</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>21102.16904613879</v>
+        <v>12331.25578059722</v>
       </c>
       <c r="E13" t="n">
-        <v>-179004.7583196292</v>
+        <v>-99121.06988789202</v>
       </c>
     </row>
     <row r="14">
@@ -2406,16 +2406,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>-169556.251432063</v>
+        <v>-93476.1441090555</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-38028.02607814046</v>
+        <v>-43060.28352645896</v>
       </c>
       <c r="E14" t="n">
-        <v>-207584.2775102034</v>
+        <v>-136536.4276355145</v>
       </c>
     </row>
     <row r="15">
@@ -2423,16 +2423,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>-139005.5754983579</v>
+        <v>-75499.96254962175</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-54935.14390178785</v>
+        <v>-62080.03304629076</v>
       </c>
       <c r="E15" t="n">
-        <v>-193940.7194001458</v>
+        <v>-137579.9955959125</v>
       </c>
     </row>
     <row r="16">
@@ -2440,16 +2440,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>-108454.8995646529</v>
+        <v>-57523.780990188</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-55832.75126551952</v>
+        <v>-64082.44807360056</v>
       </c>
       <c r="E16" t="n">
-        <v>-164287.6508301724</v>
+        <v>-121606.2290637885</v>
       </c>
     </row>
     <row r="17">
@@ -2457,16 +2457,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>-77904.22363094786</v>
+        <v>-39547.59943075424</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-55839.59698071695</v>
+        <v>-64139.57234915456</v>
       </c>
       <c r="E17" t="n">
-        <v>-133743.8206116648</v>
+        <v>-103687.1717799088</v>
       </c>
     </row>
     <row r="18">
@@ -2474,16 +2474,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>-47353.54769724283</v>
+        <v>-21571.41787132049</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-55839.60460460716</v>
+        <v>-64140.02411950738</v>
       </c>
       <c r="E18" t="n">
-        <v>-103193.15230185</v>
+        <v>-85711.44199082788</v>
       </c>
     </row>
     <row r="19">
@@ -2491,16 +2491,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>-16802.87176353779</v>
+        <v>-3595.236311886737</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-55839.60460602305</v>
+        <v>-64140.02519742054</v>
       </c>
       <c r="E19" t="n">
-        <v>-72642.47636956084</v>
+        <v>-67735.26150930728</v>
       </c>
     </row>
     <row r="20">
@@ -2508,16 +2508,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>13747.80417016724</v>
+        <v>14380.94524754702</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-55839.60460602311</v>
+        <v>-64140.02519828195</v>
       </c>
       <c r="E20" t="n">
-        <v>-42091.80043585587</v>
+        <v>-49759.07995073494</v>
       </c>
     </row>
     <row r="21">
@@ -2525,16 +2525,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>44298.48010387228</v>
+        <v>32357.12680698076</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-55839.60460602311</v>
+        <v>-64140.02519828227</v>
       </c>
       <c r="E21" t="n">
-        <v>-11541.12450215083</v>
+        <v>-31782.89839130151</v>
       </c>
     </row>
     <row r="22">
@@ -2542,16 +2542,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>74849.15603757731</v>
+        <v>50333.30836641452</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-55839.60460602311</v>
+        <v>-64140.02519828227</v>
       </c>
       <c r="E22" t="n">
-        <v>19009.5514315542</v>
+        <v>-13806.71683186776</v>
       </c>
     </row>
     <row r="23">
@@ -2559,16 +2559,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>105399.8319712824</v>
+        <v>68309.48992584826</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-55839.60460602311</v>
+        <v>-64140.02519828227</v>
       </c>
       <c r="E23" t="n">
-        <v>49560.22736525925</v>
+        <v>4169.464727565988</v>
       </c>
     </row>
     <row r="24">
@@ -2576,16 +2576,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>135950.5079049874</v>
+        <v>86285.67148528202</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-55839.60460602311</v>
+        <v>-64140.02519828227</v>
       </c>
       <c r="E24" t="n">
-        <v>80110.90329896426</v>
+        <v>22145.64628699974</v>
       </c>
     </row>
     <row r="25">
@@ -2593,16 +2593,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>166501.1838386924</v>
+        <v>104261.8530447158</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-55839.60460602311</v>
+        <v>-64140.02519828227</v>
       </c>
       <c r="E25" t="n">
-        <v>110661.5792326693</v>
+        <v>40121.82784643351</v>
       </c>
     </row>
     <row r="26">
@@ -2610,16 +2610,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>197051.8597723975</v>
+        <v>122238.0346041495</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-55839.60460602311</v>
+        <v>-64140.02519828227</v>
       </c>
       <c r="E26" t="n">
-        <v>141212.2551663744</v>
+        <v>58098.00940586726</v>
       </c>
     </row>
     <row r="27">
@@ -2627,16 +2627,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>227602.5357061025</v>
+        <v>140214.2161635833</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-55839.60460602311</v>
+        <v>-64140.02519828227</v>
       </c>
       <c r="E27" t="n">
-        <v>171762.9311000794</v>
+        <v>76074.19096530101</v>
       </c>
     </row>
     <row r="28">
@@ -2644,16 +2644,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>258153.2116398076</v>
+        <v>158190.397723017</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-55839.60460602311</v>
+        <v>-64140.02519828227</v>
       </c>
       <c r="E28" t="n">
-        <v>202313.6070337844</v>
+        <v>94050.37252473476</v>
       </c>
     </row>
     <row r="29">
@@ -2661,16 +2661,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>288703.8875735126</v>
+        <v>176166.5792824508</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-55839.60460602311</v>
+        <v>-64140.02519828227</v>
       </c>
       <c r="E29" t="n">
-        <v>232864.2829674894</v>
+        <v>112026.5540841685</v>
       </c>
     </row>
     <row r="30">
@@ -2678,16 +2678,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>319254.5635072176</v>
+        <v>194142.7608418845</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-55839.60460602311</v>
+        <v>-64140.02519828227</v>
       </c>
       <c r="E30" t="n">
-        <v>263414.9589011945</v>
+        <v>130002.7356436023</v>
       </c>
     </row>
     <row r="31">
@@ -2695,16 +2695,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>349805.2394409227</v>
+        <v>212118.9424013183</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-55839.60460602311</v>
+        <v>-64140.02519828227</v>
       </c>
       <c r="E31" t="n">
-        <v>293965.6348348996</v>
+        <v>147978.917203036</v>
       </c>
     </row>
     <row r="32">
@@ -2712,16 +2712,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>380355.9153746277</v>
+        <v>230095.123960752</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-55839.60460602311</v>
+        <v>-64140.02519828227</v>
       </c>
       <c r="E32" t="n">
-        <v>324516.3107686046</v>
+        <v>165955.0987624697</v>
       </c>
     </row>
   </sheetData>
@@ -2775,16 +2775,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-536164.3626365234</v>
+        <v>-309190.3228222605</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>241217.7922675891</v>
+        <v>224147.5294736313</v>
       </c>
       <c r="E2" t="n">
-        <v>-294946.5703689343</v>
+        <v>-85042.7933486292</v>
       </c>
     </row>
     <row r="3">
@@ -2792,16 +2792,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-505613.6867028183</v>
+        <v>-291214.1412628267</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>236756.6220287571</v>
+        <v>218065.5121482057</v>
       </c>
       <c r="E3" t="n">
-        <v>-268857.0646740613</v>
+        <v>-73148.62911462109</v>
       </c>
     </row>
     <row r="4">
@@ -2809,16 +2809,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-475063.0107691133</v>
+        <v>-273237.959703393</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>229867.026083402</v>
+        <v>209651.8115259641</v>
       </c>
       <c r="E4" t="n">
-        <v>-245195.9846857113</v>
+        <v>-63586.14817742893</v>
       </c>
     </row>
     <row r="5">
@@ -2826,16 +2826,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-444512.3348354083</v>
+        <v>-255261.7781439593</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>220267.4862448466</v>
+        <v>198906.4098544981</v>
       </c>
       <c r="E5" t="n">
-        <v>-224244.8485905617</v>
+        <v>-56355.36828946121</v>
       </c>
     </row>
     <row r="6">
@@ -2843,16 +2843,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>-413961.6589017033</v>
+        <v>-237285.5965845255</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>207951.8253688368</v>
+        <v>186034.7949256155</v>
       </c>
       <c r="E6" t="n">
-        <v>-206009.8335328664</v>
+        <v>-51250.80165890997</v>
       </c>
     </row>
     <row r="7">
@@ -2860,16 +2860,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-383410.9829679982</v>
+        <v>-219309.4150250918</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>193177.1168924362</v>
+        <v>171398.4720300803</v>
       </c>
       <c r="E7" t="n">
-        <v>-190233.866075562</v>
+        <v>-47910.94299501149</v>
       </c>
     </row>
     <row r="8">
@@ -2877,16 +2877,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-352860.3070342932</v>
+        <v>-201333.233465658</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>176404.1269593896</v>
+        <v>155452.7342358661</v>
       </c>
       <c r="E8" t="n">
-        <v>-176456.1800749036</v>
+        <v>-45880.49922979187</v>
       </c>
     </row>
     <row r="9">
@@ -2894,16 +2894,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-322309.6311005881</v>
+        <v>-183357.0519062243</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>158215.7701802556</v>
+        <v>138686.7771819682</v>
       </c>
       <c r="E9" t="n">
-        <v>-164093.8609203325</v>
+        <v>-44670.2747242561</v>
       </c>
     </row>
     <row r="10">
@@ -2911,16 +2911,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-291758.9551668831</v>
+        <v>-165380.8703467905</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>139235.6795962311</v>
+        <v>121575.0173503053</v>
       </c>
       <c r="E10" t="n">
-        <v>-152523.275570652</v>
+        <v>-43805.85299648516</v>
       </c>
     </row>
     <row r="11">
@@ -2928,16 +2928,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>-261208.2792331781</v>
+        <v>-147404.6887873567</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>120061.0807206707</v>
+        <v>104543.0028738746</v>
       </c>
       <c r="E11" t="n">
-        <v>-141147.1985125073</v>
+        <v>-42861.68591348213</v>
       </c>
     </row>
     <row r="12">
@@ -2945,16 +2945,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>-230657.603299473</v>
+        <v>-129428.507227923</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>101216.1220518367</v>
+        <v>87947.56230137977</v>
       </c>
       <c r="E12" t="n">
-        <v>-129441.4812476363</v>
+        <v>-41480.94492654322</v>
       </c>
     </row>
     <row r="13">
@@ -2962,16 +2962,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>-200106.927365768</v>
+        <v>-111452.3256684892</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>83125.82021423815</v>
+        <v>72068.80977381006</v>
       </c>
       <c r="E13" t="n">
-        <v>-116981.1071515299</v>
+        <v>-39383.51589467918</v>
       </c>
     </row>
     <row r="14">
@@ -2979,16 +2979,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>-169556.251432063</v>
+        <v>-93476.1441090555</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>66107.30239311741</v>
+        <v>57110.8947373604</v>
       </c>
       <c r="E14" t="n">
-        <v>-103448.9490389456</v>
+        <v>-36365.2493716951</v>
       </c>
     </row>
     <row r="15">
@@ -2996,16 +2996,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>-139005.5754983579</v>
+        <v>-75499.96254962175</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>50373.65183368957</v>
+        <v>43208.46319741184</v>
       </c>
       <c r="E15" t="n">
-        <v>-88631.92366466837</v>
+        <v>-32291.49935220991</v>
       </c>
     </row>
     <row r="16">
@@ -3013,16 +3013,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>-108454.8995646529</v>
+        <v>-57523.780990188</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>36045.67806402385</v>
+        <v>30436.28546044715</v>
       </c>
       <c r="E16" t="n">
-        <v>-72409.22150062904</v>
+        <v>-27087.49552974085</v>
       </c>
     </row>
     <row r="17">
@@ -3030,16 +3030,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>-77904.22363094786</v>
+        <v>-39547.59943075424</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>23167.68724764454</v>
+        <v>18820.12984253049</v>
       </c>
       <c r="E17" t="n">
-        <v>-54736.53638330332</v>
+        <v>-20727.46958822375</v>
       </c>
     </row>
     <row r="18">
@@ -3047,16 +3047,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>-47353.54769724283</v>
+        <v>-21571.41787132049</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>11724.34349232926</v>
+        <v>8347.564554574428</v>
       </c>
       <c r="E18" t="n">
-        <v>-35629.20420491358</v>
+        <v>-13223.85331674606</v>
       </c>
     </row>
     <row r="19">
@@ -3064,16 +3064,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>-16802.87176353779</v>
+        <v>-3595.236311886737</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1656.700964916768</v>
+        <v>-1022.124431228692</v>
       </c>
       <c r="E19" t="n">
-        <v>-15146.17079862102</v>
+        <v>-4617.36074311543</v>
       </c>
     </row>
     <row r="20">
@@ -3081,16 +3081,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>13747.80417016724</v>
+        <v>14380.94524754702</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-7123.69107514695</v>
+        <v>-9349.326162159512</v>
       </c>
       <c r="E20" t="n">
-        <v>6624.113095020295</v>
+        <v>5031.619085387503</v>
       </c>
     </row>
     <row r="21">
@@ -3098,16 +3098,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>44298.48010387228</v>
+        <v>32357.12680698076</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-14723.09586846517</v>
+        <v>-16706.96331968029</v>
       </c>
       <c r="E21" t="n">
-        <v>29575.38423540711</v>
+        <v>15650.16348730047</v>
       </c>
     </row>
     <row r="22">
@@ -3115,16 +3115,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>74849.15603757731</v>
+        <v>50333.30836641452</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-21256.38122769716</v>
+        <v>-23174.79570543942</v>
       </c>
       <c r="E22" t="n">
-        <v>53592.77480988015</v>
+        <v>27158.5126609751</v>
       </c>
     </row>
     <row r="23">
@@ -3132,16 +3132,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>105399.8319712824</v>
+        <v>68309.48992584826</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-26840.11722617826</v>
+        <v>-28835.04446607029</v>
       </c>
       <c r="E23" t="n">
-        <v>78559.71474510409</v>
+        <v>39474.44545977798</v>
       </c>
     </row>
     <row r="24">
@@ -3149,16 +3149,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>135950.5079049874</v>
+        <v>86285.67148528202</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-31587.67110599545</v>
+        <v>-33769.16188554122</v>
       </c>
       <c r="E24" t="n">
-        <v>104362.8367989919</v>
+        <v>52516.50959974079</v>
       </c>
     </row>
     <row r="25">
@@ -3166,16 +3166,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>166501.1838386924</v>
+        <v>104261.8530447158</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-35605.94430224523</v>
+        <v>-38055.55537851291</v>
       </c>
       <c r="E25" t="n">
-        <v>130895.2395364472</v>
+        <v>66206.29766620288</v>
       </c>
     </row>
     <row r="26">
@@ -3183,16 +3183,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>197051.8597723975</v>
+        <v>122238.0346041495</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-38993.40160939099</v>
+        <v>-41768.07971667177</v>
       </c>
       <c r="E26" t="n">
-        <v>158058.4581630065</v>
+        <v>80469.95488747777</v>
       </c>
     </row>
     <row r="27">
@@ -3200,16 +3200,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>227602.5357061025</v>
+        <v>140214.2161635833</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-41839.07654322153</v>
+        <v>-44975.1289669404</v>
       </c>
       <c r="E27" t="n">
-        <v>185763.459162881</v>
+        <v>95239.08719664288</v>
       </c>
     </row>
     <row r="28">
@@ -3217,16 +3217,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>258153.2116398076</v>
+        <v>158190.397723017</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-44222.28411328801</v>
+        <v>-47739.18261706408</v>
       </c>
       <c r="E28" t="n">
-        <v>213930.9275265195</v>
+        <v>110451.215105953</v>
       </c>
     </row>
     <row r="29">
@@ -3234,16 +3234,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>288703.8875735126</v>
+        <v>176166.5792824508</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-46212.82245793314</v>
+        <v>-50116.68474353863</v>
       </c>
       <c r="E29" t="n">
-        <v>242491.0651155794</v>
+        <v>126049.8945389122</v>
       </c>
     </row>
     <row r="30">
@@ -3251,16 +3251,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>319254.5635072176</v>
+        <v>194142.7608418845</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-47871.49224602117</v>
+        <v>-52158.15836080242</v>
       </c>
       <c r="E30" t="n">
-        <v>271383.0712611965</v>
+        <v>141984.6024810821</v>
       </c>
     </row>
     <row r="31">
@@ -3268,16 +3268,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>349805.2394409227</v>
+        <v>212118.9424013183</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-49250.80444563406</v>
+        <v>-53908.47796410804</v>
       </c>
       <c r="E31" t="n">
-        <v>300554.4349952886</v>
+        <v>158210.4644372102</v>
       </c>
     </row>
     <row r="32">
@@ -3285,16 +3285,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>380355.9153746277</v>
+        <v>230095.123960752</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-50395.78189669115</v>
+        <v>-55407.24118938181</v>
       </c>
       <c r="E32" t="n">
-        <v>329960.1334779366</v>
+        <v>174687.8827713702</v>
       </c>
     </row>
   </sheetData>
@@ -3348,16 +3348,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-536164.3626365234</v>
+        <v>-309190.3228222605</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>241217.7922675891</v>
+        <v>225943.829782129</v>
       </c>
       <c r="E2" t="n">
-        <v>-294946.5703689343</v>
+        <v>-83246.49304013146</v>
       </c>
     </row>
     <row r="3">
@@ -3365,16 +3365,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-505613.6867028183</v>
+        <v>-291214.1412628267</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>236756.6220287571</v>
+        <v>220458.3299565947</v>
       </c>
       <c r="E3" t="n">
-        <v>-268857.0646740613</v>
+        <v>-70755.811306232</v>
       </c>
     </row>
     <row r="4">
@@ -3382,16 +3382,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-475063.0107691133</v>
+        <v>-273237.959703393</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>229867.026083402</v>
+        <v>212567.197669321</v>
       </c>
       <c r="E4" t="n">
-        <v>-245195.9846857113</v>
+        <v>-60670.76203407208</v>
       </c>
     </row>
     <row r="5">
@@ -3399,16 +3399,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-444512.3348354083</v>
+        <v>-255261.7781439593</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>220267.4862448466</v>
+        <v>202173.2588823854</v>
       </c>
       <c r="E5" t="n">
-        <v>-224244.8485905617</v>
+        <v>-53088.51926157382</v>
       </c>
     </row>
     <row r="6">
@@ -3416,16 +3416,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>-413961.6589017033</v>
+        <v>-237285.5965845255</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>207951.8253688368</v>
+        <v>189417.7638830455</v>
       </c>
       <c r="E6" t="n">
-        <v>-206009.8335328664</v>
+        <v>-47867.83270147999</v>
       </c>
     </row>
     <row r="7">
@@ -3433,16 +3433,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-383410.9829679982</v>
+        <v>-219309.4150250918</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>193177.1168924362</v>
+        <v>174639.451313702</v>
       </c>
       <c r="E7" t="n">
-        <v>-190233.866075562</v>
+        <v>-44669.96371138972</v>
       </c>
     </row>
     <row r="8">
@@ -3450,16 +3450,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-352860.3070342932</v>
+        <v>-201333.233465658</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>176404.1269593896</v>
+        <v>158309.1981802254</v>
       </c>
       <c r="E8" t="n">
-        <v>-176456.1800749036</v>
+        <v>-43024.03528543256</v>
       </c>
     </row>
     <row r="9">
@@ -3467,16 +3467,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-322309.6311005881</v>
+        <v>-183357.0519062243</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>158215.7701802556</v>
+        <v>140960.0119289769</v>
       </c>
       <c r="E9" t="n">
-        <v>-164093.8609203325</v>
+        <v>-42397.03997724739</v>
       </c>
     </row>
     <row r="10">
@@ -3484,16 +3484,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-291758.9551668831</v>
+        <v>-165380.8703467905</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>139235.6795962311</v>
+        <v>123125.9007518896</v>
       </c>
       <c r="E10" t="n">
-        <v>-152523.275570652</v>
+        <v>-42254.9695949009</v>
       </c>
     </row>
     <row r="11">
@@ -3501,16 +3501,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>-261208.2792331781</v>
+        <v>-147404.6887873567</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>120061.0807206707</v>
+        <v>105296.3486833067</v>
       </c>
       <c r="E11" t="n">
-        <v>-141147.1985125073</v>
+        <v>-42108.34010405008</v>
       </c>
     </row>
     <row r="12">
@@ -3518,16 +3518,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>-230657.603299473</v>
+        <v>-129428.507227923</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>101216.1220518367</v>
+        <v>87887.78746942616</v>
       </c>
       <c r="E12" t="n">
-        <v>-129441.4812476363</v>
+        <v>-41540.71975849684</v>
       </c>
     </row>
     <row r="13">
@@ -3535,16 +3535,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>-200106.927365768</v>
+        <v>-111452.3256684892</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>83125.82021423815</v>
+        <v>71230.15653257558</v>
       </c>
       <c r="E13" t="n">
-        <v>-116981.1071515299</v>
+        <v>-40222.16913591366</v>
       </c>
     </row>
     <row r="14">
@@ -3552,16 +3552,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>-169556.251432063</v>
+        <v>-93476.1441090555</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>66107.30239311741</v>
+        <v>55565.11901142265</v>
       </c>
       <c r="E14" t="n">
-        <v>-103448.9490389456</v>
+        <v>-37911.02509763285</v>
       </c>
     </row>
     <row r="15">
@@ -3569,16 +3569,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>-139005.5754983579</v>
+        <v>-75499.96254962175</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>50373.65183368957</v>
+        <v>41052.21352423786</v>
       </c>
       <c r="E15" t="n">
-        <v>-88631.92366466837</v>
+        <v>-34447.74902538389</v>
       </c>
     </row>
     <row r="16">
@@ -3586,16 +3586,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>-108454.8995646529</v>
+        <v>-57523.780990188</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>36045.67806402385</v>
+        <v>27779.63635592532</v>
       </c>
       <c r="E16" t="n">
-        <v>-72409.22150062904</v>
+        <v>-29744.14463426267</v>
       </c>
     </row>
     <row r="17">
@@ -3603,16 +3603,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>-77904.22363094786</v>
+        <v>-39547.59943075424</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>23167.68724764454</v>
+        <v>15777.06501873494</v>
       </c>
       <c r="E17" t="n">
-        <v>-54736.53638330332</v>
+        <v>-23770.5344120193</v>
       </c>
     </row>
     <row r="18">
@@ -3620,16 +3620,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>-47353.54769724283</v>
+        <v>-21571.41787132049</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>11724.34349232926</v>
+        <v>5028.696069206449</v>
       </c>
       <c r="E18" t="n">
-        <v>-35629.20420491358</v>
+        <v>-16542.72180211404</v>
       </c>
     </row>
     <row r="19">
@@ -3637,16 +3637,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>-16802.87176353779</v>
+        <v>-3595.236311886737</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1656.700964916768</v>
+        <v>-4514.658027223137</v>
       </c>
       <c r="E19" t="n">
-        <v>-15146.17079862102</v>
+        <v>-8109.894339109875</v>
       </c>
     </row>
     <row r="20">
@@ -3654,16 +3654,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>13747.80417016724</v>
+        <v>14380.94524754702</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-7123.69107514695</v>
+        <v>-12925.03999639867</v>
       </c>
       <c r="E20" t="n">
-        <v>6624.113095020295</v>
+        <v>1455.90525114835</v>
       </c>
     </row>
     <row r="21">
@@ -3671,16 +3671,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>44298.48010387228</v>
+        <v>32357.12680698076</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-14723.09586846517</v>
+        <v>-20288.63446031222</v>
       </c>
       <c r="E21" t="n">
-        <v>29575.38423540711</v>
+        <v>12068.49234666854</v>
       </c>
     </row>
     <row r="22">
@@ -3688,16 +3688,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>74849.15603757731</v>
+        <v>50333.30836641452</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-21256.38122769716</v>
+        <v>-26698.86820146834</v>
       </c>
       <c r="E22" t="n">
-        <v>53592.77480988015</v>
+        <v>23634.44016494618</v>
       </c>
     </row>
     <row r="23">
@@ -3705,16 +3705,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>105399.8319712824</v>
+        <v>68309.48992584826</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-26840.11722617826</v>
+        <v>-32251.17403264048</v>
       </c>
       <c r="E23" t="n">
-        <v>78559.71474510409</v>
+        <v>36058.31589320779</v>
       </c>
     </row>
     <row r="24">
@@ -3722,16 +3722,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>135950.5079049874</v>
+        <v>86285.67148528202</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-31587.67110599545</v>
+        <v>-37039.19414919816</v>
       </c>
       <c r="E24" t="n">
-        <v>104362.8367989919</v>
+        <v>49246.47733608386</v>
       </c>
     </row>
     <row r="25">
@@ -3739,16 +3739,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>166501.1838386924</v>
+        <v>104261.8530447158</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-35605.94430224523</v>
+        <v>-41152.17432356327</v>
       </c>
       <c r="E25" t="n">
-        <v>130895.2395364472</v>
+        <v>63109.67872115252</v>
       </c>
     </row>
     <row r="26">
@@ -3756,16 +3756,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>197051.8597723975</v>
+        <v>122238.0346041495</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-38993.40160939099</v>
+        <v>-44673.30661568286</v>
       </c>
       <c r="E26" t="n">
-        <v>158058.4581630065</v>
+        <v>77564.72798846668</v>
       </c>
     </row>
     <row r="27">
@@ -3773,16 +3773,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>227602.5357061025</v>
+        <v>140214.2161635833</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-41839.07654322153</v>
+        <v>-47678.80173159817</v>
       </c>
       <c r="E27" t="n">
-        <v>185763.459162881</v>
+        <v>92535.4144319851</v>
       </c>
     </row>
     <row r="28">
@@ -3790,16 +3790,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>258153.2116398076</v>
+        <v>158190.397723017</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-44222.28411328801</v>
+        <v>-50237.50341943418</v>
       </c>
       <c r="E28" t="n">
-        <v>213930.9275265195</v>
+        <v>107952.8943035828</v>
       </c>
     </row>
     <row r="29">
@@ -3807,16 +3807,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>288703.8875735126</v>
+        <v>176166.5792824508</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-46212.82245793314</v>
+        <v>-52410.89037655011</v>
       </c>
       <c r="E29" t="n">
-        <v>242491.0651155794</v>
+        <v>123755.6889059007</v>
       </c>
     </row>
     <row r="30">
@@ -3824,16 +3824,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>319254.5635072176</v>
+        <v>194142.7608418845</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-47871.49224602117</v>
+        <v>-54253.34253707335</v>
       </c>
       <c r="E30" t="n">
-        <v>271383.0712611965</v>
+        <v>139889.4183048112</v>
       </c>
     </row>
     <row r="31">
@@ -3841,16 +3841,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>349805.2394409227</v>
+        <v>212118.9424013183</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-49250.80444563406</v>
+        <v>-55812.57649061879</v>
       </c>
       <c r="E31" t="n">
-        <v>300554.4349952886</v>
+        <v>156306.3659106995</v>
       </c>
     </row>
     <row r="32">
@@ -3858,16 +3858,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>380355.9153746277</v>
+        <v>230095.123960752</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-50395.78189669115</v>
+        <v>-57130.1784270487</v>
       </c>
       <c r="E32" t="n">
-        <v>329960.1334779366</v>
+        <v>172964.9455337033</v>
       </c>
     </row>
   </sheetData>
@@ -3921,16 +3921,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-536164.3626365234</v>
+        <v>-309190.3228222605</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>234197.7251220896</v>
+        <v>210985.4562595763</v>
       </c>
       <c r="E2" t="n">
-        <v>-301966.6375144338</v>
+        <v>-98204.86656268424</v>
       </c>
     </row>
     <row r="3">
@@ -3938,16 +3938,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-505613.6867028183</v>
+        <v>-291214.1412628267</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>227589.4680993577</v>
+        <v>202344.0479359038</v>
       </c>
       <c r="E3" t="n">
-        <v>-278024.2186034606</v>
+        <v>-88870.09332692297</v>
       </c>
     </row>
     <row r="4">
@@ -3955,16 +3955,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-475063.0107691133</v>
+        <v>-273237.959703393</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>218803.8231955926</v>
+        <v>192142.5015891244</v>
       </c>
       <c r="E4" t="n">
-        <v>-256259.1875735207</v>
+        <v>-81095.45811426867</v>
       </c>
     </row>
     <row r="5">
@@ -3972,16 +3972,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-444512.3348354083</v>
+        <v>-255261.7781439593</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>207924.6210271257</v>
+        <v>180643.8763132559</v>
       </c>
       <c r="E5" t="n">
-        <v>-236587.7138082826</v>
+        <v>-74617.9018307034</v>
       </c>
     </row>
     <row r="6">
@@ -3989,16 +3989,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>-413961.6589017033</v>
+        <v>-237285.5965845255</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>195197.2649776474</v>
+        <v>168152.7797136225</v>
       </c>
       <c r="E6" t="n">
-        <v>-218764.3939240559</v>
+        <v>-69132.81687090299</v>
       </c>
     </row>
     <row r="7">
@@ -4006,16 +4006,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-383410.9829679982</v>
+        <v>-219309.4150250918</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>180978.2078059494</v>
+        <v>154982.205571818</v>
       </c>
       <c r="E7" t="n">
-        <v>-202432.7751620488</v>
+        <v>-64327.20945327371</v>
       </c>
     </row>
     <row r="8">
@@ -4023,16 +4023,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-352860.3070342932</v>
+        <v>-201333.233465658</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>165681.6102359573</v>
+        <v>141429.633885364</v>
       </c>
       <c r="E8" t="n">
-        <v>-187178.6967983359</v>
+        <v>-59903.59958029402</v>
       </c>
     </row>
     <row r="9">
@@ -4040,16 +4040,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-322309.6311005881</v>
+        <v>-183357.0519062243</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>149732.8060071791</v>
+        <v>127761.8551972132</v>
       </c>
       <c r="E9" t="n">
-        <v>-172576.825093409</v>
+        <v>-55595.1967090111</v>
       </c>
     </row>
     <row r="10">
@@ -4057,16 +4057,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-291758.9551668831</v>
+        <v>-165380.8703467905</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>133533.088001939</v>
+        <v>114206.9520483127</v>
       </c>
       <c r="E10" t="n">
-        <v>-158225.8671649441</v>
+        <v>-51173.91829847777</v>
       </c>
     </row>
     <row r="11">
@@ -4074,16 +4074,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>-261208.2792331781</v>
+        <v>-147404.6887873567</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>117436.6223688099</v>
+        <v>100951.6085618137</v>
       </c>
       <c r="E11" t="n">
-        <v>-143771.6568643682</v>
+        <v>-46453.08022554303</v>
       </c>
     </row>
     <row r="12">
@@ -4091,16 +4091,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>-230657.603299473</v>
+        <v>-129428.507227923</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>101738.1244537164</v>
+        <v>88142.05869755519</v>
       </c>
       <c r="E12" t="n">
-        <v>-128919.4788457566</v>
+        <v>-41286.44853036781</v>
       </c>
     </row>
     <row r="13">
@@ -4108,16 +4108,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>-200106.927365768</v>
+        <v>-111452.3256684892</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>86668.97219441</v>
+        <v>75887.2893061745</v>
       </c>
       <c r="E13" t="n">
-        <v>-113437.955171358</v>
+        <v>-35565.03636231474</v>
       </c>
     </row>
     <row r="14">
@@ -4125,16 +4125,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>-169556.251432063</v>
+        <v>-93476.1441090555</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>72399.26909953609</v>
+        <v>64263.45282047747</v>
       </c>
       <c r="E14" t="n">
-        <v>-97156.98233252688</v>
+        <v>-29212.69128857803</v>
       </c>
     </row>
     <row r="15">
@@ -4142,16 +4142,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>-139005.5754983579</v>
+        <v>-75499.96254962175</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>59043.6397272927</v>
+        <v>53318.75122367468</v>
       </c>
       <c r="E15" t="n">
-        <v>-79961.93577106524</v>
+        <v>-22181.21132594706</v>
       </c>
     </row>
     <row r="16">
@@ -4159,16 +4159,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>-108454.8995646529</v>
+        <v>-57523.780990188</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>46668.99208803372</v>
+        <v>43078.30306961315</v>
       </c>
       <c r="E16" t="n">
-        <v>-61785.90747661917</v>
+        <v>-14445.47792057485</v>
       </c>
     </row>
     <row r="17">
@@ -4176,16 +4176,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>-77904.22363094786</v>
+        <v>-39547.59943075424</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>35302.95956524332</v>
+        <v>33548.69550004202</v>
       </c>
       <c r="E17" t="n">
-        <v>-42601.26406570454</v>
+        <v>-5998.903930712222</v>
       </c>
     </row>
     <row r="18">
@@ -4193,16 +4193,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>-47353.54769724283</v>
+        <v>-21571.41787132049</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>24942.1601119072</v>
+        <v>24722.06004800166</v>
       </c>
       <c r="E18" t="n">
-        <v>-22411.38758533563</v>
+        <v>3150.642176681169</v>
       </c>
     </row>
     <row r="19">
@@ -4210,16 +4210,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>-16802.87176353779</v>
+        <v>-3595.236311886737</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>15559.75131972322</v>
+        <v>16579.60464068638</v>
       </c>
       <c r="E19" t="n">
-        <v>-1243.120443814569</v>
+        <v>12984.36832879964</v>
       </c>
     </row>
     <row r="20">
@@ -4227,16 +4227,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>13747.80417016724</v>
+        <v>14380.94524754702</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>7112.012952267034</v>
+        <v>9094.594891084296</v>
       </c>
       <c r="E20" t="n">
-        <v>20859.81712243428</v>
+        <v>23475.54013863131</v>
       </c>
     </row>
     <row r="21">
@@ -4244,16 +4244,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>44298.48010387228</v>
+        <v>32357.12680698076</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-456.1361247804343</v>
+        <v>2234.81447684126</v>
       </c>
       <c r="E21" t="n">
-        <v>43842.34397909185</v>
+        <v>34591.94128382202</v>
       </c>
     </row>
     <row r="22">
@@ -4261,16 +4261,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>74849.15603757731</v>
+        <v>50333.30836641452</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-7206.666714240752</v>
+        <v>-4035.445619469258</v>
       </c>
       <c r="E22" t="n">
-        <v>67642.48932333656</v>
+        <v>46297.86274694526</v>
       </c>
     </row>
     <row r="23">
@@ -4278,16 +4278,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>105399.8319712824</v>
+        <v>68309.48992584826</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-13204.92765034493</v>
+        <v>-9753.81047454715</v>
       </c>
       <c r="E23" t="n">
-        <v>92194.90432093744</v>
+        <v>58555.67945130111</v>
       </c>
     </row>
     <row r="24">
@@ -4295,16 +4295,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>135950.5079049874</v>
+        <v>86285.67148528202</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-18516.97451069603</v>
+        <v>-14958.59707484657</v>
       </c>
       <c r="E24" t="n">
-        <v>117433.5333942913</v>
+        <v>71327.07441043544</v>
       </c>
     </row>
     <row r="25">
@@ -4312,16 +4312,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>166501.1838386924</v>
+        <v>104261.8530447158</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-23207.60838194133</v>
+        <v>-19687.88526949492</v>
       </c>
       <c r="E25" t="n">
-        <v>143293.5754567511</v>
+        <v>84573.96777522087</v>
       </c>
     </row>
     <row r="26">
@@ -4329,16 +4329,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>197051.8597723975</v>
+        <v>122238.0346041495</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-27338.99712900523</v>
+        <v>-23978.83153861271</v>
       </c>
       <c r="E26" t="n">
-        <v>169712.8626433922</v>
+        <v>98259.20306553683</v>
       </c>
     </row>
     <row r="27">
@@ -4346,16 +4346,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>227602.5357061025</v>
+        <v>140214.2161635833</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-30969.76222534138</v>
+        <v>-27867.17945587596</v>
       </c>
       <c r="E27" t="n">
-        <v>196632.7734807612</v>
+        <v>112347.0367077073</v>
       </c>
     </row>
     <row r="28">
@@ -4363,16 +4363,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>258153.2116398076</v>
+        <v>158190.397723017</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-34154.42861891964</v>
+        <v>-31386.92713853444</v>
       </c>
       <c r="E28" t="n">
-        <v>223998.7830208879</v>
+        <v>126803.4705844826</v>
       </c>
     </row>
     <row r="29">
@@ -4380,16 +4380,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>288703.8875735126</v>
+        <v>176166.5792824508</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-36943.15070637962</v>
+        <v>-34570.11814863973</v>
       </c>
       <c r="E29" t="n">
-        <v>251760.7368671329</v>
+        <v>141596.461133811</v>
       </c>
     </row>
     <row r="30">
@@ -4397,16 +4397,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>319254.5635072176</v>
+        <v>194142.7608418845</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-39381.64266463935</v>
+        <v>-37446.72796513719</v>
       </c>
       <c r="E30" t="n">
-        <v>279872.9208425783</v>
+        <v>156696.0328767473</v>
       </c>
     </row>
     <row r="31">
@@ -4414,16 +4414,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>349805.2394409227</v>
+        <v>212118.9424013183</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-41511.25525686811</v>
+        <v>-40044.62316233355</v>
       </c>
       <c r="E31" t="n">
-        <v>308293.9841840545</v>
+        <v>172074.3192389847</v>
       </c>
     </row>
     <row r="32">
@@ -4431,16 +4431,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>380355.9153746277</v>
+        <v>230095.123960752</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-43369.15337336444</v>
+        <v>-42389.57477223044</v>
       </c>
       <c r="E32" t="n">
-        <v>336986.7620012633</v>
+        <v>187705.5491885216</v>
       </c>
     </row>
   </sheetData>
@@ -4494,16 +4494,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-536164.3626365234</v>
+        <v>-309190.3228222605</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>235963.8573665943</v>
+        <v>213313.7723902144</v>
       </c>
       <c r="E2" t="n">
-        <v>-300200.5052699292</v>
+        <v>-95876.55043204612</v>
       </c>
     </row>
     <row r="3">
@@ -4511,16 +4511,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-505613.6867028183</v>
+        <v>-291214.1412628267</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>229789.4509016621</v>
+        <v>204963.4047552732</v>
       </c>
       <c r="E3" t="n">
-        <v>-275824.2358011562</v>
+        <v>-86250.73650755355</v>
       </c>
     </row>
     <row r="4">
@@ -4528,16 +4528,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-475063.0107691133</v>
+        <v>-273237.959703393</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>221347.6397473515</v>
+        <v>194914.8884591775</v>
       </c>
       <c r="E4" t="n">
-        <v>-253715.3710217618</v>
+        <v>-78323.07124421553</v>
       </c>
     </row>
     <row r="5">
@@ -4545,16 +4545,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-444512.3348354083</v>
+        <v>-255261.7781439593</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>210661.4301938078</v>
+        <v>183416.8380162555</v>
       </c>
       <c r="E5" t="n">
-        <v>-233850.9046416004</v>
+        <v>-71844.9401277038</v>
       </c>
     </row>
     <row r="6">
@@ -4562,16 +4562,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>-413961.6589017033</v>
+        <v>-237285.5965845255</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>197942.8033888225</v>
+        <v>170778.4521516338</v>
       </c>
       <c r="E6" t="n">
-        <v>-216018.8555128808</v>
+        <v>-66507.14443289171</v>
       </c>
     </row>
     <row r="7">
@@ -4579,16 +4579,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-383410.9829679982</v>
+        <v>-219309.4150250918</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>183543.5439217719</v>
+        <v>157330.9978560798</v>
       </c>
       <c r="E7" t="n">
-        <v>-199867.4390462263</v>
+        <v>-61978.41716901193</v>
       </c>
     </row>
     <row r="8">
@@ -4596,16 +4596,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-352860.3070342932</v>
+        <v>-201333.233465658</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>167896.9688273016</v>
+        <v>143398.2914935311</v>
       </c>
       <c r="E8" t="n">
-        <v>-184963.3382069916</v>
+        <v>-57934.94197212689</v>
       </c>
     </row>
     <row r="9">
@@ -4613,16 +4613,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-322309.6311005881</v>
+        <v>-183357.0519062243</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>151463.5269169107</v>
+        <v>129276.6989642215</v>
       </c>
       <c r="E9" t="n">
-        <v>-170846.1041836774</v>
+        <v>-54080.35294200279</v>
       </c>
     </row>
     <row r="10">
@@ -4630,16 +4630,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-291758.9551668831</v>
+        <v>-165380.8703467905</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>134687.4325677421</v>
+        <v>115223.5052549923</v>
       </c>
       <c r="E10" t="n">
-        <v>-157071.5225991409</v>
+        <v>-50157.36509179824</v>
       </c>
     </row>
     <row r="11">
@@ -4647,16 +4647,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>-261208.2792331781</v>
+        <v>-147404.6887873567</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>117966.732965629</v>
+        <v>101451.8449923373</v>
       </c>
       <c r="E11" t="n">
-        <v>-143241.546267549</v>
+        <v>-45952.84379501941</v>
       </c>
     </row>
     <row r="12">
@@ -4664,16 +4664,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>-230657.603299473</v>
+        <v>-129428.507227923</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>101636.1016764027</v>
+        <v>88130.32493473444</v>
       </c>
       <c r="E12" t="n">
-        <v>-129021.5016230704</v>
+        <v>-41298.18229318855</v>
       </c>
     </row>
     <row r="13">
@@ -4681,16 +4681,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>-200106.927365768</v>
+        <v>-111452.3256684892</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>85960.05724163371</v>
+        <v>75385.70453275852</v>
       </c>
       <c r="E13" t="n">
-        <v>-114146.8701241343</v>
+        <v>-36066.62113573072</v>
       </c>
     </row>
     <row r="14">
@@ -4698,16 +4698,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>-169556.251432063</v>
+        <v>-93476.1441090555</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>71133.79833677992</v>
+        <v>63307.34246032826</v>
       </c>
       <c r="E14" t="n">
-        <v>-98422.45309528305</v>
+        <v>-30168.80164872724</v>
       </c>
     </row>
     <row r="15">
@@ -4715,16 +4715,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>-139005.5754983579</v>
+        <v>-75499.96254962175</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>57288.99179549241</v>
+        <v>51952.46132044971</v>
       </c>
       <c r="E15" t="n">
-        <v>-81716.58370286552</v>
+        <v>-23547.50122917203</v>
       </c>
     </row>
     <row r="16">
@@ -4732,16 +4732,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>-108454.8995646529</v>
+        <v>-57523.780990188</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>44502.30880447113</v>
+        <v>41351.5811292335</v>
       </c>
       <c r="E16" t="n">
-        <v>-63952.59076018176</v>
+        <v>-16172.1998609545</v>
       </c>
     </row>
     <row r="17">
@@ -4749,16 +4749,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>-77904.22363094786</v>
+        <v>-39547.59943075424</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>32805.0563201601</v>
+        <v>31513.70879733718</v>
       </c>
       <c r="E17" t="n">
-        <v>-45099.16731078777</v>
+        <v>-8033.890633417061</v>
       </c>
     </row>
     <row r="18">
@@ -4766,16 +4766,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>-47353.54769724283</v>
+        <v>-21571.41787132049</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>22192.77067572937</v>
+        <v>22431.04675497297</v>
       </c>
       <c r="E18" t="n">
-        <v>-25160.77702151346</v>
+        <v>859.6288836524764</v>
       </c>
     </row>
     <row r="19">
@@ -4783,16 +4783,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>-16802.87176353779</v>
+        <v>-3595.236311886737</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>12634.0716739714</v>
+        <v>14083.10769767395</v>
       </c>
       <c r="E19" t="n">
-        <v>-4168.800089566392</v>
+        <v>10487.87138578721</v>
       </c>
     </row>
     <row r="20">
@@ -4800,16 +4800,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>13747.80417016724</v>
+        <v>14380.94524754702</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>4078.403032187827</v>
+        <v>6440.20496549477</v>
       </c>
       <c r="E20" t="n">
-        <v>17826.20720235507</v>
+        <v>20821.15021304179</v>
       </c>
     </row>
     <row r="21">
@@ -4817,16 +4817,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>44298.48010387228</v>
+        <v>32357.12680698076</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-3537.484096684467</v>
+        <v>-533.6603321523507</v>
       </c>
       <c r="E21" t="n">
-        <v>40760.99600718782</v>
+        <v>31823.46647482841</v>
       </c>
     </row>
     <row r="22">
@@ -4834,16 +4834,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>74849.15603757731</v>
+        <v>50333.30836641452</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-10284.29701946309</v>
+        <v>-6878.464863534352</v>
       </c>
       <c r="E22" t="n">
-        <v>64564.85901811422</v>
+        <v>43454.84350288016</v>
       </c>
     </row>
     <row r="23">
@@ -4851,16 +4851,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>105399.8319712824</v>
+        <v>68309.48992584826</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-16236.11971994965</v>
+        <v>-12636.316402574</v>
       </c>
       <c r="E23" t="n">
-        <v>89163.7122513327</v>
+        <v>55673.17352327426</v>
       </c>
     </row>
     <row r="24">
@@ -4868,16 +4868,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>135950.5079049874</v>
+        <v>86285.67148528202</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-21467.34054542535</v>
+        <v>-17850.02565881074</v>
       </c>
       <c r="E24" t="n">
-        <v>114483.167359562</v>
+        <v>68435.64582647127</v>
       </c>
     </row>
     <row r="25">
@@ -4885,16 +4885,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>166501.1838386924</v>
+        <v>104261.8530447158</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-26050.43026554175</v>
+        <v>-22562.02907502134</v>
       </c>
       <c r="E25" t="n">
-        <v>140450.7535731507</v>
+        <v>81699.82396969445</v>
       </c>
     </row>
     <row r="26">
@@ -4902,16 +4902,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>197051.8597723975</v>
+        <v>122238.0346041495</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-30054.41370741094</v>
+        <v>-26813.60029423972</v>
       </c>
       <c r="E26" t="n">
-        <v>166997.4460649865</v>
+        <v>95424.43430990982</v>
       </c>
     </row>
     <row r="27">
@@ -4919,16 +4919,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>227602.5357061025</v>
+        <v>140214.2161635833</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-33543.89108281103</v>
+        <v>-30644.29494885353</v>
       </c>
       <c r="E27" t="n">
-        <v>194058.6446232915</v>
+        <v>109569.9212147298</v>
       </c>
     </row>
     <row r="28">
@@ -4936,16 +4936,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>258153.2116398076</v>
+        <v>158190.397723017</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-36578.48320133283</v>
+        <v>-34091.58094247621</v>
       </c>
       <c r="E28" t="n">
-        <v>221574.7284384747</v>
+        <v>124098.8167805408</v>
       </c>
     </row>
     <row r="29">
@@ -4953,16 +4953,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>288703.8875735126</v>
+        <v>176166.5792824508</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-39212.59446796964</v>
+        <v>-37190.61377653128</v>
       </c>
       <c r="E29" t="n">
-        <v>249491.2931055429</v>
+        <v>138975.9655059195</v>
       </c>
     </row>
     <row r="30">
@@ -4970,16 +4970,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>319254.5635072176</v>
+        <v>194142.7608418845</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-41495.40674383051</v>
+        <v>-39974.12331787795</v>
       </c>
       <c r="E30" t="n">
-        <v>277759.1567633871</v>
+        <v>154168.6375240066</v>
       </c>
     </row>
     <row r="31">
@@ -4987,16 +4987,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>349805.2394409227</v>
+        <v>212118.9424013183</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-43471.03461748298</v>
+        <v>-42472.38451339191</v>
       </c>
       <c r="E31" t="n">
-        <v>306334.2048234397</v>
+        <v>169646.5578879263</v>
       </c>
     </row>
     <row r="32">
@@ -5004,16 +5004,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>380355.9153746277</v>
+        <v>230095.123960752</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-45178.7878461683</v>
+        <v>-44713.24986319337</v>
       </c>
       <c r="E32" t="n">
-        <v>335177.1275284594</v>
+        <v>185381.8740975586</v>
       </c>
     </row>
   </sheetData>
@@ -5067,16 +5067,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-536164.3626365234</v>
+        <v>-309190.3228222605</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>237484.9294271574</v>
+        <v>215386.4944260002</v>
       </c>
       <c r="E2" t="n">
-        <v>-298679.433209366</v>
+        <v>-93803.82839626033</v>
       </c>
     </row>
     <row r="3">
@@ -5084,16 +5084,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-505613.6867028183</v>
+        <v>-291214.1412628267</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>231733.7507534948</v>
+        <v>207341.8042325029</v>
       </c>
       <c r="E3" t="n">
-        <v>-273879.9359493235</v>
+        <v>-83872.3370303238</v>
       </c>
     </row>
     <row r="4">
@@ -5101,16 +5101,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-475063.0107691133</v>
+        <v>-273237.959703393</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>223646.8363353015</v>
+        <v>197473.2337062642</v>
       </c>
       <c r="E4" t="n">
-        <v>-251416.1744338119</v>
+        <v>-75764.72599712887</v>
       </c>
     </row>
     <row r="5">
@@ -5118,16 +5118,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-444512.3348354083</v>
+        <v>-255261.7781439593</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>213181.2439428723</v>
+        <v>186008.9161781525</v>
       </c>
       <c r="E5" t="n">
-        <v>-231331.0908925359</v>
+        <v>-69252.86196580672</v>
       </c>
     </row>
     <row r="6">
@@ -5135,16 +5135,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>-413961.6589017033</v>
+        <v>-237285.5965845255</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>200508.2259467664</v>
+        <v>173257.6493331151</v>
       </c>
       <c r="E6" t="n">
-        <v>-213453.4329549368</v>
+        <v>-64027.94725141037</v>
       </c>
     </row>
     <row r="7">
@@ -5152,16 +5152,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-383410.9829679982</v>
+        <v>-219309.4150250918</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>185968.1179622172</v>
+        <v>159565.6479204761</v>
       </c>
       <c r="E7" t="n">
-        <v>-197442.8650057809</v>
+        <v>-59743.76710461566</v>
       </c>
     </row>
     <row r="8">
@@ -5169,16 +5169,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-352860.3070342932</v>
+        <v>-201333.233465658</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>170008.6534219268</v>
+        <v>145281.390427918</v>
       </c>
       <c r="E8" t="n">
-        <v>-182851.6536123664</v>
+        <v>-56051.84303773998</v>
       </c>
     </row>
     <row r="9">
@@ -5186,16 +5186,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-322309.6311005881</v>
+        <v>-183357.0519062243</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>153123.0600751567</v>
+        <v>130730.4461593544</v>
       </c>
       <c r="E9" t="n">
-        <v>-169186.5710254314</v>
+        <v>-52626.60574686987</v>
       </c>
     </row>
     <row r="10">
@@ -5203,16 +5203,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-291758.9551668831</v>
+        <v>-165380.8703467905</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>135798.1483596578</v>
+        <v>116199.7813257982</v>
       </c>
       <c r="E10" t="n">
-        <v>-155960.8068072252</v>
+        <v>-49181.08902099234</v>
       </c>
     </row>
     <row r="11">
@@ -5220,16 +5220,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>-261208.2792331781</v>
+        <v>-147404.6887873567</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>118476.8149756548</v>
+        <v>101929.8938672724</v>
       </c>
       <c r="E11" t="n">
-        <v>-142731.4642575233</v>
+        <v>-45474.7949200843</v>
       </c>
     </row>
     <row r="12">
@@ -5237,16 +5237,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>-230657.603299473</v>
+        <v>-129428.507227923</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>101535.2296765972</v>
+        <v>88112.79023867892</v>
       </c>
       <c r="E12" t="n">
-        <v>-129122.3736228758</v>
+        <v>-41315.71698924407</v>
       </c>
     </row>
     <row r="13">
@@ -5254,16 +5254,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>-200106.927365768</v>
+        <v>-111452.3256684892</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>85272.59659028582</v>
+        <v>74893.93317237581</v>
       </c>
       <c r="E13" t="n">
-        <v>-114834.3307754822</v>
+        <v>-36558.39249611343</v>
       </c>
     </row>
     <row r="14">
@@ -5271,16 +5271,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>-169556.251432063</v>
+        <v>-93476.1441090555</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>69910.41365991536</v>
+        <v>62376.60821924629</v>
       </c>
       <c r="E14" t="n">
-        <v>-99645.83777214761</v>
+        <v>-31099.53588980921</v>
       </c>
     </row>
     <row r="15">
@@ -5288,16 +5288,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>-139005.5754983579</v>
+        <v>-75499.96254962175</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>55598.10113992668</v>
+        <v>50627.52846810482</v>
       </c>
       <c r="E15" t="n">
-        <v>-83407.47435843127</v>
+        <v>-24872.43408151693</v>
       </c>
     </row>
     <row r="16">
@@ -5305,16 +5305,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>-108454.8995646529</v>
+        <v>-57523.780990188</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>42422.30461479259</v>
+        <v>39682.8425931059</v>
       </c>
       <c r="E16" t="n">
-        <v>-66032.5949498603</v>
+        <v>-17840.9383970821</v>
       </c>
     </row>
     <row r="17">
@@ -5322,16 +5322,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>-77904.22363094786</v>
+        <v>-39547.59943075424</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>30417.79769819007</v>
+        <v>29553.99803159022</v>
       </c>
       <c r="E17" t="n">
-        <v>-47486.42593275779</v>
+        <v>-9993.601399164021</v>
       </c>
     </row>
     <row r="18">
@@ -5339,16 +5339,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>-47353.54769724283</v>
+        <v>-21571.41787132049</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>19578.53258264617</v>
+        <v>20233.13121492259</v>
       </c>
       <c r="E18" t="n">
-        <v>-27775.01511459666</v>
+        <v>-1338.286656397904</v>
       </c>
     </row>
     <row r="19">
@@ -5356,16 +5356,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>-16802.87176353779</v>
+        <v>-3595.236311886737</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>9867.921893275086</v>
+        <v>11697.81581576333</v>
       </c>
       <c r="E19" t="n">
-        <v>-6934.949870262704</v>
+        <v>8102.579503876588</v>
       </c>
     </row>
     <row r="20">
@@ -5373,16 +5373,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>13747.80417016724</v>
+        <v>14380.94524754702</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1227.850834588445</v>
+        <v>3915.108537857952</v>
       </c>
       <c r="E20" t="n">
-        <v>14975.65500475569</v>
+        <v>18296.05378540497</v>
       </c>
     </row>
     <row r="21">
@@ -5390,16 +5390,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>44298.48010387228</v>
+        <v>32357.12680698076</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-6413.784137814123</v>
+        <v>-3155.098407262299</v>
       </c>
       <c r="E21" t="n">
-        <v>37884.69596605816</v>
+        <v>29202.02839971846</v>
       </c>
     </row>
     <row r="22">
@@ -5407,16 +5407,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>74849.15603757731</v>
+        <v>50333.30836641452</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-13137.01762397373</v>
+        <v>-9557.367873569297</v>
       </c>
       <c r="E22" t="n">
-        <v>61712.13841360358</v>
+        <v>40775.94049284522</v>
       </c>
     </row>
     <row r="23">
@@ -5424,16 +5424,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>105399.8319712824</v>
+        <v>68309.48992584826</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-19025.12837818059</v>
+        <v>-15338.57992809236</v>
       </c>
       <c r="E23" t="n">
-        <v>86374.70359310176</v>
+        <v>52970.9099977559</v>
       </c>
     </row>
     <row r="24">
@@ -5441,16 +5441,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>135950.5079049874</v>
+        <v>86285.67148528202</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-24161.15221903758</v>
+        <v>-20546.28614768028</v>
       </c>
       <c r="E24" t="n">
-        <v>111789.3556859498</v>
+        <v>65739.38533760174</v>
       </c>
     </row>
     <row r="25">
@@ -5458,16 +5458,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>166501.1838386924</v>
+        <v>104261.8530447158</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-28625.40152807564</v>
+        <v>-25227.47705383552</v>
       </c>
       <c r="E25" t="n">
-        <v>137875.7823106168</v>
+        <v>79034.37599088027</v>
       </c>
     </row>
     <row r="26">
@@ -5475,16 +5475,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>197051.8597723975</v>
+        <v>122238.0346041495</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-32493.80016001574</v>
+        <v>-29427.68897864059</v>
       </c>
       <c r="E26" t="n">
-        <v>164558.0596123817</v>
+        <v>92810.34562550894</v>
       </c>
     </row>
     <row r="27">
@@ -5492,16 +5492,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>227602.5357061025</v>
+        <v>140214.2161635833</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-35836.85852400227</v>
+        <v>-33190.38447918343</v>
       </c>
       <c r="E27" t="n">
-        <v>191765.6771821002</v>
+        <v>107023.8316843998</v>
       </c>
     </row>
     <row r="28">
@@ -5509,16 +5509,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>258153.2116398076</v>
+        <v>158190.397723017</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-38719.13626176344</v>
+        <v>-36556.54921050442</v>
       </c>
       <c r="E28" t="n">
-        <v>219434.0753780441</v>
+        <v>121633.8485125126</v>
       </c>
     </row>
     <row r="29">
@@ -5526,16 +5526,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>288703.8875735126</v>
+        <v>176166.5792824508</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-41199.06469673285</v>
+        <v>-39564.45696131708</v>
       </c>
       <c r="E29" t="n">
-        <v>247504.8228767797</v>
+        <v>136602.1223211337</v>
       </c>
     </row>
     <row r="30">
@@ -5543,16 +5543,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>319254.5635072176</v>
+        <v>194142.7608418845</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-43329.02524618056</v>
+        <v>-42249.56279189215</v>
       </c>
       <c r="E30" t="n">
-        <v>275925.5382610371</v>
+        <v>151893.1980499924</v>
       </c>
     </row>
     <row r="31">
@@ -5560,16 +5560,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>349805.2394409227</v>
+        <v>212118.9424013183</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-45155.60174305965</v>
+        <v>-44644.49160113581</v>
       </c>
       <c r="E31" t="n">
-        <v>304649.637697863</v>
+        <v>167474.4508001824</v>
       </c>
     </row>
     <row r="32">
@@ -5577,16 +5577,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>380355.9153746277</v>
+        <v>230095.123960752</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-46719.9434191231</v>
+        <v>-46779.09587791143</v>
       </c>
       <c r="E32" t="n">
-        <v>333635.9719555046</v>
+        <v>183316.0280828406</v>
       </c>
     </row>
   </sheetData>
@@ -5640,16 +5640,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-536164.3626365234</v>
+        <v>-309190.3228222605</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>241217.7922675891</v>
+        <v>220819.5132728417</v>
       </c>
       <c r="E2" t="n">
-        <v>-294946.5703689343</v>
+        <v>-88370.8095494188</v>
       </c>
     </row>
     <row r="3">
@@ -5657,16 +5657,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-505613.6867028183</v>
+        <v>-291214.1412628267</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>236756.6220287571</v>
+        <v>213836.9239878926</v>
       </c>
       <c r="E3" t="n">
-        <v>-268857.0646740613</v>
+        <v>-77377.21727493417</v>
       </c>
     </row>
     <row r="4">
@@ -5674,16 +5674,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-475063.0107691133</v>
+        <v>-273237.959703393</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>229867.026083402</v>
+        <v>204701.309090564</v>
       </c>
       <c r="E4" t="n">
-        <v>-245195.9846857113</v>
+        <v>-68536.65061282902</v>
       </c>
     </row>
     <row r="5">
@@ -5691,16 +5691,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-444512.3348354083</v>
+        <v>-255261.7781439593</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>220267.4862448466</v>
+        <v>193535.9546870152</v>
       </c>
       <c r="E5" t="n">
-        <v>-224244.8485905617</v>
+        <v>-61725.82345694405</v>
       </c>
     </row>
     <row r="6">
@@ -5708,16 +5708,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>-413961.6589017033</v>
+        <v>-237285.5965845255</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>207951.8253688368</v>
+        <v>180614.1632383874</v>
       </c>
       <c r="E6" t="n">
-        <v>-206009.8335328664</v>
+        <v>-56671.43334613813</v>
       </c>
     </row>
     <row r="7">
@@ -5725,16 +5725,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-383410.9829679982</v>
+        <v>-219309.4150250918</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>193177.1168924362</v>
+        <v>166306.9279670999</v>
       </c>
       <c r="E7" t="n">
-        <v>-190233.866075562</v>
+        <v>-53002.48705799188</v>
       </c>
     </row>
     <row r="8">
@@ -5742,16 +5742,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-352860.3070342932</v>
+        <v>-201333.233465658</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>176404.1269593896</v>
+        <v>151030.7066628783</v>
       </c>
       <c r="E8" t="n">
-        <v>-176456.1800749036</v>
+        <v>-50302.52680277973</v>
       </c>
     </row>
     <row r="9">
@@ -5759,16 +5759,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-322309.6311005881</v>
+        <v>-183357.0519062243</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>158215.7701802556</v>
+        <v>135203.5781705491</v>
       </c>
       <c r="E9" t="n">
-        <v>-164093.8609203325</v>
+        <v>-48153.47373567513</v>
       </c>
     </row>
     <row r="10">
@@ -5776,16 +5776,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-291758.9551668831</v>
+        <v>-165380.8703467905</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>139235.6795962311</v>
+        <v>119213.2059028434</v>
       </c>
       <c r="E10" t="n">
-        <v>-152523.275570652</v>
+        <v>-46167.66444394705</v>
       </c>
     </row>
     <row r="11">
@@ -5793,16 +5793,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>-261208.2792331781</v>
+        <v>-147404.6887873567</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>120061.0807206707</v>
+        <v>103396.7130487589</v>
       </c>
       <c r="E11" t="n">
-        <v>-141147.1985125073</v>
+        <v>-44007.97573859783</v>
       </c>
     </row>
     <row r="12">
@@ -5810,16 +5810,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>-230657.603299473</v>
+        <v>-129428.507227923</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>101216.1220518367</v>
+        <v>88030.75044571642</v>
       </c>
       <c r="E12" t="n">
-        <v>-129441.4812476363</v>
+        <v>-41397.75678220658</v>
       </c>
     </row>
     <row r="13">
@@ -5827,16 +5827,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>-200106.927365768</v>
+        <v>-111452.3256684892</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>83125.82021423815</v>
+        <v>73329.32877882305</v>
       </c>
       <c r="E13" t="n">
-        <v>-116981.1071515299</v>
+        <v>-38122.99688966619</v>
       </c>
     </row>
     <row r="14">
@@ -5844,16 +5844,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>-169556.251432063</v>
+        <v>-93476.1441090555</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>66107.30239311741</v>
+        <v>59446.97089094657</v>
       </c>
       <c r="E14" t="n">
-        <v>-103448.9490389456</v>
+        <v>-34029.17321810893</v>
       </c>
     </row>
     <row r="15">
@@ -5861,16 +5861,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>-139005.5754983579</v>
+        <v>-75499.96254962175</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>50373.65183368957</v>
+        <v>46485.08063093902</v>
       </c>
       <c r="E15" t="n">
-        <v>-88631.92366466837</v>
+        <v>-29014.88191868273</v>
       </c>
     </row>
     <row r="16">
@@ -5878,16 +5878,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>-108454.8995646529</v>
+        <v>-57523.780990188</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>36045.67806402385</v>
+        <v>34499.89537311521</v>
       </c>
       <c r="E16" t="n">
-        <v>-72409.22150062904</v>
+        <v>-23023.88561707278</v>
       </c>
     </row>
     <row r="17">
@@ -5895,16 +5895,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>-77904.22363094786</v>
+        <v>-39547.59943075424</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>23167.68724764454</v>
+        <v>23510.85845561064</v>
       </c>
       <c r="E17" t="n">
-        <v>-54736.53638330332</v>
+        <v>-16036.7409751436</v>
       </c>
     </row>
     <row r="18">
@@ -5912,16 +5912,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>-47353.54769724283</v>
+        <v>-21571.41787132049</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>11724.34349232926</v>
+        <v>13508.65121500779</v>
       </c>
       <c r="E18" t="n">
-        <v>-35629.20420491358</v>
+        <v>-8062.766656312695</v>
       </c>
     </row>
     <row r="19">
@@ -5929,16 +5929,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>-16802.87176353779</v>
+        <v>-3595.236311886737</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1656.700964916768</v>
+        <v>4462.440230005383</v>
       </c>
       <c r="E19" t="n">
-        <v>-15146.17079862102</v>
+        <v>867.2039181186451</v>
       </c>
     </row>
     <row r="20">
@@ -5946,16 +5946,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>13747.80417016724</v>
+        <v>14380.94524754702</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-7123.69107514695</v>
+        <v>-3673.874649082539</v>
       </c>
       <c r="E20" t="n">
-        <v>6624.113095020295</v>
+        <v>10707.07059846448</v>
       </c>
     </row>
     <row r="21">
@@ -5963,16 +5963,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>44298.48010387228</v>
+        <v>32357.12680698076</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-14723.09586846517</v>
+        <v>-10956.46956403257</v>
       </c>
       <c r="E21" t="n">
-        <v>29575.38423540711</v>
+        <v>21400.65724294819</v>
       </c>
     </row>
     <row r="22">
@@ -5980,16 +5980,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>74849.15603757731</v>
+        <v>50333.30836641452</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-21256.38122769716</v>
+        <v>-17447.42280546244</v>
       </c>
       <c r="E22" t="n">
-        <v>53592.77480988015</v>
+        <v>32885.88556095207</v>
       </c>
     </row>
     <row r="23">
@@ -5997,16 +5997,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>105399.8319712824</v>
+        <v>68309.48992584826</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-26840.11722617826</v>
+        <v>-23211.4616180905</v>
       </c>
       <c r="E23" t="n">
-        <v>78559.71474510409</v>
+        <v>45098.02830775776</v>
       </c>
     </row>
     <row r="24">
@@ -6014,16 +6014,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>135950.5079049874</v>
+        <v>86285.67148528202</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-31587.67110599545</v>
+        <v>-28313.50723846378</v>
       </c>
       <c r="E24" t="n">
-        <v>104362.8367989919</v>
+        <v>57972.16424681823</v>
       </c>
     </row>
     <row r="25">
@@ -6031,16 +6031,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>166501.1838386924</v>
+        <v>104261.8530447158</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-35605.94430224523</v>
+        <v>-32816.88905509111</v>
       </c>
       <c r="E25" t="n">
-        <v>130895.2395364472</v>
+        <v>71444.96398962467</v>
       </c>
     </row>
     <row r="26">
@@ -6048,16 +6048,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>197051.8597723975</v>
+        <v>122238.0346041495</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-38993.40160939099</v>
+        <v>-36782.10399774231</v>
       </c>
       <c r="E26" t="n">
-        <v>158058.4581630065</v>
+        <v>85455.93060640723</v>
       </c>
     </row>
     <row r="27">
@@ -6065,16 +6065,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>227602.5357061025</v>
+        <v>140214.2161635833</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-41839.07654322153</v>
+        <v>-40266.0090453882</v>
       </c>
       <c r="E27" t="n">
-        <v>185763.459162881</v>
+        <v>99948.20711819507</v>
       </c>
     </row>
     <row r="28">
@@ -6082,16 +6082,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>258153.2116398076</v>
+        <v>158190.397723017</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-44222.28411328801</v>
+        <v>-43321.34949123023</v>
       </c>
       <c r="E28" t="n">
-        <v>213930.9275265195</v>
+        <v>114869.0482317868</v>
       </c>
     </row>
     <row r="29">
@@ -6099,16 +6099,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>288703.8875735126</v>
+        <v>176166.5792824508</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-46212.82245793314</v>
+        <v>-45996.54102004413</v>
       </c>
       <c r="E29" t="n">
-        <v>242491.0651155794</v>
+        <v>130170.0382624067</v>
       </c>
     </row>
     <row r="30">
@@ -6116,16 +6116,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>319254.5635072176</v>
+        <v>194142.7608418845</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-47871.49224602117</v>
+        <v>-48335.63836723198</v>
       </c>
       <c r="E30" t="n">
-        <v>271383.0712611965</v>
+        <v>145807.1224746525</v>
       </c>
     </row>
     <row r="31">
@@ -6133,16 +6133,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>349805.2394409227</v>
+        <v>212118.9424013183</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-49250.80444563406</v>
+        <v>-50378.43660591849</v>
       </c>
       <c r="E31" t="n">
-        <v>300554.4349952886</v>
+        <v>161740.5057953998</v>
       </c>
     </row>
     <row r="32">
@@ -6150,16 +6150,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>380355.9153746277</v>
+        <v>230095.123960752</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-50395.78189669115</v>
+        <v>-52160.66263106155</v>
       </c>
       <c r="E32" t="n">
-        <v>329960.1334779366</v>
+        <v>177934.4613296905</v>
       </c>
     </row>
   </sheetData>
@@ -6213,16 +6213,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-536164.3626365234</v>
+        <v>-309190.3228222605</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>244255.0519419636</v>
+        <v>225782.4542824496</v>
       </c>
       <c r="E2" t="n">
-        <v>-291909.3106945598</v>
+        <v>-83407.86853981094</v>
       </c>
     </row>
     <row r="3">
@@ -6230,16 +6230,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-505613.6867028183</v>
+        <v>-291214.1412628267</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>241228.6400477595</v>
+        <v>220239.5427493598</v>
       </c>
       <c r="E3" t="n">
-        <v>-264385.0466550588</v>
+        <v>-70974.59851346695</v>
       </c>
     </row>
     <row r="4">
@@ -6247,16 +6247,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-475063.0107691133</v>
+        <v>-273237.959703393</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>235896.0445590686</v>
+        <v>212296.6032144991</v>
       </c>
       <c r="E4" t="n">
-        <v>-239166.9662100447</v>
+        <v>-60941.35648889391</v>
       </c>
     </row>
     <row r="5">
@@ -6264,16 +6264,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-444512.3348354083</v>
+        <v>-255261.7781439593</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>227651.9234345158</v>
+        <v>201866.325451311</v>
       </c>
       <c r="E5" t="n">
-        <v>-216860.4114008925</v>
+        <v>-53395.45269264825</v>
       </c>
     </row>
     <row r="6">
@@ -6281,16 +6281,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>-413961.6589017033</v>
+        <v>-237285.5965845255</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>216178.3483713251</v>
+        <v>189096.8424072056</v>
       </c>
       <c r="E6" t="n">
-        <v>-197783.3105303782</v>
+        <v>-48188.7541773199</v>
       </c>
     </row>
     <row r="7">
@@ -6298,16 +6298,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-383410.9829679982</v>
+        <v>-219309.4150250918</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>201520.3412615834</v>
+        <v>174329.7065426951</v>
       </c>
       <c r="E7" t="n">
-        <v>-181890.6417064148</v>
+        <v>-44979.70848239664</v>
       </c>
     </row>
     <row r="8">
@@ -6315,16 +6315,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-352860.3070342932</v>
+        <v>-201333.233465658</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>184069.1299368712</v>
+        <v>158034.685628583</v>
       </c>
       <c r="E8" t="n">
-        <v>-168791.177097422</v>
+        <v>-43298.54783707499</v>
       </c>
     </row>
     <row r="9">
@@ -6332,16 +6332,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-322309.6311005881</v>
+        <v>-183357.0519062243</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>164476.2596617935</v>
+        <v>140740.694168168</v>
       </c>
       <c r="E9" t="n">
-        <v>-157833.3714387946</v>
+        <v>-42616.35773805625</v>
       </c>
     </row>
     <row r="10">
@@ -6349,16 +6349,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-291758.9551668831</v>
+        <v>-165380.8703467905</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>143535.5309656574</v>
+        <v>122975.9102258743</v>
       </c>
       <c r="E10" t="n">
-        <v>-148223.4242012257</v>
+        <v>-42404.96012091616</v>
       </c>
     </row>
     <row r="11">
@@ -6366,16 +6366,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>-261208.2792331781</v>
+        <v>-147404.6887873567</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>122066.5420959016</v>
+        <v>105223.4366358581</v>
       </c>
       <c r="E11" t="n">
-        <v>-139141.7371372765</v>
+        <v>-42181.25215149861</v>
       </c>
     </row>
     <row r="12">
@@ -6383,16 +6383,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>-230657.603299473</v>
+        <v>-129428.507227923</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>100821.8327730117</v>
+        <v>87893.6940794343</v>
       </c>
       <c r="E12" t="n">
-        <v>-129835.7705264613</v>
+        <v>-41534.8131484887</v>
       </c>
     </row>
     <row r="13">
@@ -6400,16 +6400,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>-200106.927365768</v>
+        <v>-111452.3256684892</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>80426.73543344096</v>
+        <v>71311.57141546575</v>
       </c>
       <c r="E13" t="n">
-        <v>-119680.191932327</v>
+        <v>-40140.75425302349</v>
       </c>
     </row>
     <row r="14">
@@ -6417,16 +6417,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>-169556.251432063</v>
+        <v>-93476.1441090555</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>61351.21291261752</v>
+        <v>55714.92546039161</v>
       </c>
       <c r="E14" t="n">
-        <v>-108205.0385194455</v>
+        <v>-37761.2186486639</v>
       </c>
     </row>
     <row r="15">
@@ -6434,16 +6434,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>-139005.5754983579</v>
+        <v>-75499.96254962175</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>43907.36889036372</v>
+        <v>41260.77827534692</v>
       </c>
       <c r="E15" t="n">
-        <v>-95098.20660799422</v>
+        <v>-34239.18427427483</v>
       </c>
     </row>
     <row r="16">
@@ -6451,16 +6451,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>-108454.8995646529</v>
+        <v>-57523.780990188</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>28264.36023892204</v>
+        <v>28035.98618886901</v>
       </c>
       <c r="E16" t="n">
-        <v>-80190.53932573086</v>
+        <v>-29487.79480131899</v>
       </c>
     </row>
     <row r="17">
@@ -6468,16 +6468,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>-77904.22363094786</v>
+        <v>-39547.59943075424</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>14472.8759741848</v>
+        <v>16069.86297521713</v>
       </c>
       <c r="E17" t="n">
-        <v>-63431.34765676306</v>
+        <v>-23477.73645553712</v>
       </c>
     </row>
     <row r="18">
@@ -6485,16 +6485,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>-47353.54769724283</v>
+        <v>-21571.41787132049</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>2492.977258853871</v>
+        <v>5346.985162688674</v>
       </c>
       <c r="E18" t="n">
-        <v>-44860.57043838896</v>
+        <v>-16224.43270863182</v>
       </c>
     </row>
     <row r="19">
@@ -6502,16 +6502,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>-16802.87176353779</v>
+        <v>-3595.236311886737</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-7778.952324730573</v>
+        <v>-4180.938394096088</v>
       </c>
       <c r="E19" t="n">
-        <v>-24581.82408826836</v>
+        <v>-7776.174705982825</v>
       </c>
     </row>
     <row r="20">
@@ -6519,16 +6519,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>13747.80417016724</v>
+        <v>14380.94524754702</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-16486.62244904965</v>
+        <v>-12584.73781212693</v>
       </c>
       <c r="E20" t="n">
-        <v>-2738.818278882409</v>
+        <v>1796.207435420083</v>
       </c>
     </row>
     <row r="21">
@@ -6536,16 +6536,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>44298.48010387228</v>
+        <v>32357.12680698076</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-23794.71881319027</v>
+        <v>-19949.23189990071</v>
       </c>
       <c r="E21" t="n">
-        <v>20503.76129068201</v>
+        <v>12407.89490708005</v>
       </c>
     </row>
     <row r="22">
@@ -6553,16 +6553,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>74849.15603757731</v>
+        <v>50333.30836641452</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-29874.41545363248</v>
+        <v>-26366.45221864209</v>
       </c>
       <c r="E22" t="n">
-        <v>44974.74058394483</v>
+        <v>23966.85614777243</v>
       </c>
     </row>
     <row r="23">
@@ -6570,16 +6570,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>105399.8319712824</v>
+        <v>68309.48992584826</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-34893.11889663979</v>
+        <v>-31930.4943852114</v>
       </c>
       <c r="E23" t="n">
-        <v>70506.71307464257</v>
+        <v>36378.99554063687</v>
       </c>
     </row>
     <row r="24">
@@ -6587,16 +6587,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>135950.5079049874</v>
+        <v>86285.67148528202</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-39007.77244905847</v>
+        <v>-36733.77785542617</v>
       </c>
       <c r="E24" t="n">
-        <v>96942.73545592891</v>
+        <v>49551.89362985584</v>
       </c>
     </row>
     <row r="25">
@@ -6604,16 +6604,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>166501.1838386924</v>
+        <v>104261.8530447158</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-42360.96840234181</v>
+        <v>-40864.47178416192</v>
       </c>
       <c r="E25" t="n">
-        <v>124140.2154363506</v>
+        <v>63397.38126055386</v>
       </c>
     </row>
     <row r="26">
@@ -6621,16 +6621,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>197051.8597723975</v>
+        <v>122238.0346041495</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-45079.15193642125</v>
+        <v>-44404.85073518355</v>
       </c>
       <c r="E26" t="n">
-        <v>151972.7078359762</v>
+        <v>77833.18386896598</v>
       </c>
     </row>
     <row r="27">
@@ -6638,16 +6638,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>227602.5357061025</v>
+        <v>140214.2161635833</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-47272.29633386813</v>
+        <v>-47430.36678201332</v>
       </c>
       <c r="E27" t="n">
-        <v>180330.2393722344</v>
+        <v>92783.84938156995</v>
       </c>
     </row>
     <row r="28">
@@ -6655,16 +6655,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>258153.2116398076</v>
+        <v>158190.397723017</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-49034.54685389246</v>
+        <v>-50009.25487205048</v>
       </c>
       <c r="E28" t="n">
-        <v>209118.6647859151</v>
+        <v>108181.1428509665</v>
       </c>
     </row>
     <row r="29">
@@ -6672,16 +6672,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>288703.8875735126</v>
+        <v>176166.5792824508</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-50445.44739820362</v>
+        <v>-52202.52044648496</v>
       </c>
       <c r="E29" t="n">
-        <v>238258.4401753089</v>
+        <v>123964.0588359658</v>
       </c>
     </row>
     <row r="30">
@@ -6689,16 +6689,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>319254.5635072176</v>
+        <v>194142.7608418845</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-51571.46786946427</v>
+        <v>-54064.18881491997</v>
       </c>
       <c r="E30" t="n">
-        <v>267683.0956377534</v>
+        <v>140078.5720269646</v>
       </c>
     </row>
     <row r="31">
@@ -6706,16 +6706,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>349805.2394409227</v>
+        <v>212118.9424013183</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-52467.63595480069</v>
+        <v>-55641.72290479402</v>
       </c>
       <c r="E31" t="n">
-        <v>297337.603486122</v>
+        <v>156477.2194965243</v>
       </c>
     </row>
     <row r="32">
@@ -6723,16 +6723,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>380355.9153746277</v>
+        <v>230095.123960752</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-53179.14433657435</v>
+        <v>-56976.53903447431</v>
       </c>
       <c r="E32" t="n">
-        <v>327176.7710380533</v>
+        <v>173118.5849262777</v>
       </c>
     </row>
   </sheetData>
@@ -6786,16 +6786,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-536164.3626365234</v>
+        <v>-309190.3228222605</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>246379.4128592323</v>
+        <v>229752.3934152462</v>
       </c>
       <c r="E2" t="n">
-        <v>-289784.9497772912</v>
+        <v>-79437.92940701434</v>
       </c>
     </row>
     <row r="3">
@@ -6803,16 +6803,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-505613.6867028183</v>
+        <v>-291214.1412628267</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>244696.7177065088</v>
+        <v>225912.4864561335</v>
       </c>
       <c r="E3" t="n">
-        <v>-260916.9689963095</v>
+        <v>-65301.65480669326</v>
       </c>
     </row>
     <row r="4">
@@ -6820,16 +6820,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-475063.0107691133</v>
+        <v>-273237.959703393</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>241124.1136819429</v>
+        <v>219650.537783386</v>
       </c>
       <c r="E4" t="n">
-        <v>-233938.8970871704</v>
+        <v>-53587.42192000709</v>
       </c>
     </row>
     <row r="5">
@@ -6837,16 +6837,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-444512.3348354083</v>
+        <v>-255261.7781439593</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>234725.9506849144</v>
+        <v>210543.3404179752</v>
       </c>
       <c r="E5" t="n">
-        <v>-209786.3841504938</v>
+        <v>-44718.43772598411</v>
       </c>
     </row>
     <row r="6">
@@ -6854,16 +6854,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>-413961.6589017033</v>
+        <v>-237285.5965845255</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>224734.3055189151</v>
+        <v>198463.3526688479</v>
       </c>
       <c r="E6" t="n">
-        <v>-189227.3533827881</v>
+        <v>-38822.24391567762</v>
       </c>
     </row>
     <row r="7">
@@ -6871,16 +6871,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-383410.9829679982</v>
+        <v>-219309.4150250918</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>210780.3036850743</v>
+        <v>183599.0994360251</v>
       </c>
       <c r="E7" t="n">
-        <v>-172630.6792829239</v>
+        <v>-35710.31558906662</v>
       </c>
     </row>
     <row r="8">
@@ -6888,16 +6888,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-352860.3070342932</v>
+        <v>-201333.233465658</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>193008.4913075863</v>
+        <v>166406.8251302311</v>
       </c>
       <c r="E8" t="n">
-        <v>-159851.8157267069</v>
+        <v>-34926.40833542694</v>
       </c>
     </row>
     <row r="9">
@@ -6905,16 +6905,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-322309.6311005881</v>
+        <v>-183357.0519062243</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>172047.5188995704</v>
+        <v>147521.0784055517</v>
       </c>
       <c r="E9" t="n">
-        <v>-150262.1122010177</v>
+        <v>-35835.97350067258</v>
       </c>
     </row>
     <row r="10">
@@ -6922,16 +6922,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-291758.9551668831</v>
+        <v>-165380.8703467905</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148870.4440591411</v>
+        <v>127654.133852902</v>
       </c>
       <c r="E10" t="n">
-        <v>-142888.511107742</v>
+        <v>-37726.7364938885</v>
       </c>
     </row>
     <row r="11">
@@ -6939,16 +6939,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>-261208.2792331781</v>
+        <v>-147404.6887873567</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>124606.2302042229</v>
+        <v>107506.7803510789</v>
       </c>
       <c r="E11" t="n">
-        <v>-136602.0490289552</v>
+        <v>-39897.90843627788</v>
       </c>
     </row>
     <row r="12">
@@ -6956,16 +6956,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>-230657.603299473</v>
+        <v>-129428.507227923</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>100360.4674652782</v>
+        <v>87702.63330353625</v>
       </c>
       <c r="E12" t="n">
-        <v>-130297.1358341948</v>
+        <v>-41725.87392438675</v>
       </c>
     </row>
     <row r="13">
@@ -6973,16 +6973,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>-200106.927365768</v>
+        <v>-111452.3256684892</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>77082.14146774737</v>
+        <v>68749.07460516057</v>
       </c>
       <c r="E13" t="n">
-        <v>-123024.7858980206</v>
+        <v>-42703.25106332867</v>
       </c>
     </row>
     <row r="14">
@@ -6990,16 +6990,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>-169556.251432063</v>
+        <v>-93476.1441090555</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>55489.25854755846</v>
+        <v>51021.94342542928</v>
       </c>
       <c r="E14" t="n">
-        <v>-114066.9928845045</v>
+        <v>-42454.20068362622</v>
       </c>
     </row>
     <row r="15">
@@ -7007,16 +7007,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>-139005.5754983579</v>
+        <v>-75499.96254962175</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>36048.19601827867</v>
+        <v>34768.20753024584</v>
       </c>
       <c r="E15" t="n">
-        <v>-102957.3794800793</v>
+        <v>-40731.75501937591</v>
       </c>
     </row>
     <row r="16">
@@ -7024,16 +7024,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>-108454.8995646529</v>
+        <v>-57523.780990188</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>18992.34167559055</v>
+        <v>20120.25045856921</v>
       </c>
       <c r="E16" t="n">
-        <v>-89462.55788906234</v>
+        <v>-37403.53053161879</v>
       </c>
     </row>
     <row r="17">
@@ -7041,16 +7041,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>-77904.22363094786</v>
+        <v>-39547.59943075424</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>4363.521626219203</v>
+        <v>7116.172016432321</v>
       </c>
       <c r="E17" t="n">
-        <v>-73540.70200472866</v>
+        <v>-32431.42741432192</v>
       </c>
     </row>
     <row r="18">
@@ -7058,16 +7058,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>-47353.54769724283</v>
+        <v>-21571.41787132049</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-7937.922503007323</v>
+        <v>-4278.154820833644</v>
       </c>
       <c r="E18" t="n">
-        <v>-55291.47020025015</v>
+        <v>-25849.57269215414</v>
       </c>
     </row>
     <row r="19">
@@ -7075,16 +7075,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>-16802.87176353779</v>
+        <v>-3595.236311886737</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-18104.37014956166</v>
+        <v>-14148.10800114182</v>
       </c>
       <c r="E19" t="n">
-        <v>-34907.24191309945</v>
+        <v>-17743.34431302856</v>
       </c>
     </row>
     <row r="20">
@@ -7092,16 +7092,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>13747.80417016724</v>
+        <v>14380.94524754702</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-26379.21248842435</v>
+        <v>-22612.03727587145</v>
       </c>
       <c r="E20" t="n">
-        <v>-12631.40831825711</v>
+        <v>-8231.092028324436</v>
       </c>
     </row>
     <row r="21">
@@ -7109,16 +7109,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>44298.48010387228</v>
+        <v>32357.12680698076</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-33024.55982082264</v>
+        <v>-29806.37584299728</v>
       </c>
       <c r="E21" t="n">
-        <v>11273.92028304964</v>
+        <v>2550.750963983486</v>
       </c>
     </row>
     <row r="22">
@@ -7126,16 +7126,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>74849.15603757731</v>
+        <v>50333.30836641452</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-38298.45146053639</v>
+        <v>-35874.21515376076</v>
       </c>
       <c r="E22" t="n">
-        <v>36550.70457704092</v>
+        <v>14459.09321265376</v>
       </c>
     </row>
     <row r="23">
@@ -7143,16 +7143,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>105399.8319712824</v>
+        <v>68309.48992584826</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-42440.37335897629</v>
+        <v>-40957.04532628658</v>
       </c>
       <c r="E23" t="n">
-        <v>62959.45861230607</v>
+        <v>27352.44459956168</v>
       </c>
     </row>
     <row r="24">
@@ -7160,16 +7160,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>135950.5079049874</v>
+        <v>86285.67148528202</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-45663.35414190192</v>
+        <v>-45189.18130550599</v>
       </c>
       <c r="E24" t="n">
-        <v>90287.15376308546</v>
+        <v>41096.49017977602</v>
       </c>
     </row>
     <row r="25">
@@ -7177,16 +7177,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>166501.1838386924</v>
+        <v>104261.8530447158</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-48150.85610881167</v>
+        <v>-48694.33944604465</v>
       </c>
       <c r="E25" t="n">
-        <v>118350.3277298808</v>
+        <v>55567.51359867113</v>
       </c>
     </row>
     <row r="26">
@@ -7194,16 +7194,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>197051.8597723975</v>
+        <v>122238.0346041495</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-50056.88531337636</v>
+        <v>-51583.85098230562</v>
       </c>
       <c r="E26" t="n">
-        <v>146994.9744590211</v>
+        <v>70654.18362184391</v>
       </c>
     </row>
     <row r="27">
@@ -7211,16 +7211,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>227602.5357061025</v>
+        <v>140214.2161635833</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-51508.05985566163</v>
+        <v>-53956.06140676304</v>
       </c>
       <c r="E27" t="n">
-        <v>176094.4758504409</v>
+        <v>86258.15475682024</v>
       </c>
     </row>
     <row r="28">
@@ -7228,16 +7228,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>258153.2116398076</v>
+        <v>158190.397723017</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-52606.70294016972</v>
+        <v>-55896.54349708086</v>
       </c>
       <c r="E28" t="n">
-        <v>205546.5086996378</v>
+        <v>102293.8542259362</v>
       </c>
     </row>
     <row r="29">
@@ -7245,16 +7245,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>288703.8875735126</v>
+        <v>176166.5792824508</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-53434.31716927694</v>
+        <v>-57478.83144119179</v>
       </c>
       <c r="E29" t="n">
-        <v>235269.5704042356</v>
+        <v>118687.747841259</v>
       </c>
     </row>
     <row r="30">
@@ -7262,16 +7262,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>319254.5635072176</v>
+        <v>194142.7608418845</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-54055.02918053167</v>
+        <v>-58765.45587462113</v>
       </c>
       <c r="E30" t="n">
-        <v>265199.5343266859</v>
+        <v>135377.3049672634</v>
       </c>
     </row>
     <row r="31">
@@ -7279,16 +7279,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>349805.2394409227</v>
+        <v>212118.9424013183</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-54518.76713509495</v>
+        <v>-59809.1209279702</v>
       </c>
       <c r="E31" t="n">
-        <v>295286.4723058277</v>
+        <v>152309.8214733481</v>
       </c>
     </row>
     <row r="32">
@@ -7296,16 +7296,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>380355.9153746277</v>
+        <v>230095.123960752</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-54864.05475155008</v>
+        <v>-60653.91369862774</v>
       </c>
       <c r="E32" t="n">
-        <v>325491.8606230776</v>
+        <v>169441.2102621243</v>
       </c>
     </row>
   </sheetData>

--- a/RGGI PnL Output.xlsx
+++ b/RGGI PnL Output.xlsx
@@ -483,16 +483,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-309190.3228222605</v>
+        <v>643566.5416022954</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>230437.2986423817</v>
+        <v>218092.5540222069</v>
       </c>
       <c r="E2" t="n">
-        <v>-78753.02417987882</v>
+        <v>861659.0956245023</v>
       </c>
     </row>
     <row r="3">
@@ -500,16 +500,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-291214.1412628267</v>
+        <v>603840.2118737586</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>226971.4793368695</v>
+        <v>214522.0865805092</v>
       </c>
       <c r="E3" t="n">
-        <v>-64242.66192595725</v>
+        <v>818362.2984542678</v>
       </c>
     </row>
     <row r="4">
@@ -517,16 +517,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-273237.959703393</v>
+        <v>564113.8821452218</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>221122.8675538281</v>
+        <v>208596.0047893485</v>
       </c>
       <c r="E4" t="n">
-        <v>-52115.092149565</v>
+        <v>772709.8869345703</v>
       </c>
     </row>
     <row r="5">
@@ -534,16 +534,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-255261.7781439593</v>
+        <v>524387.552416685</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>212383.5694128159</v>
+        <v>199855.9382926385</v>
       </c>
       <c r="E5" t="n">
-        <v>-42878.20873114342</v>
+        <v>724243.4907093236</v>
       </c>
     </row>
     <row r="6">
@@ -551,16 +551,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>-237285.5965845255</v>
+        <v>484661.2226881483</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>200542.6989846703</v>
+        <v>188134.3112512931</v>
       </c>
       <c r="E6" t="n">
-        <v>-36742.89759985518</v>
+        <v>672795.5339394414</v>
       </c>
     </row>
     <row r="7">
@@ -568,16 +568,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-219309.4150250918</v>
+        <v>444934.8929596116</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>185730.7932690459</v>
+        <v>173586.2307686101</v>
       </c>
       <c r="E7" t="n">
-        <v>-33578.62175604582</v>
+        <v>618521.1237282217</v>
       </c>
     </row>
     <row r="8">
@@ -585,16 +585,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-201333.233465658</v>
+        <v>405208.5632310748</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>168383.7057224677</v>
+        <v>156648.0876756647</v>
       </c>
       <c r="E8" t="n">
-        <v>-32949.52774319029</v>
+        <v>561856.6509067395</v>
       </c>
     </row>
     <row r="9">
@@ -602,16 +602,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-183357.0519062243</v>
+        <v>365482.2335025381</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>149152.6200287241</v>
+        <v>137949.6054069862</v>
       </c>
       <c r="E9" t="n">
-        <v>-34204.43187750017</v>
+        <v>503431.8389095243</v>
       </c>
     </row>
     <row r="10">
@@ -619,16 +619,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-165380.8703467905</v>
+        <v>325755.9037740013</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>128793.932169801</v>
+        <v>118210.5732481258</v>
       </c>
       <c r="E10" t="n">
-        <v>-36586.93817698948</v>
+        <v>443966.4770221271</v>
       </c>
     </row>
     <row r="11">
@@ -636,16 +636,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>-147404.6887873567</v>
+        <v>286029.5740454646</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>108066.837466329</v>
+        <v>98146.93260583871</v>
       </c>
       <c r="E11" t="n">
-        <v>-39337.85132102776</v>
+        <v>384176.5066513033</v>
       </c>
     </row>
     <row r="12">
@@ -653,16 +653,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>-129428.507227923</v>
+        <v>246303.2443169278</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>87655.15834650023</v>
+        <v>78400.24830070023</v>
       </c>
       <c r="E12" t="n">
-        <v>-41773.34888142276</v>
+        <v>324703.492617628</v>
       </c>
     </row>
     <row r="13">
@@ -670,16 +670,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>-111452.3256684892</v>
+        <v>206576.9145883911</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>68119.0306127567</v>
+        <v>59494.82240623476</v>
       </c>
       <c r="E13" t="n">
-        <v>-43333.29505573254</v>
+        <v>266071.7369946258</v>
       </c>
     </row>
     <row r="14">
@@ -687,16 +687,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>-93476.1441090555</v>
+        <v>166850.5848598543</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>49874.32982534475</v>
+        <v>41820.00599825056</v>
       </c>
       <c r="E14" t="n">
-        <v>-43601.81428371075</v>
+        <v>208670.5908581049</v>
       </c>
     </row>
     <row r="15">
@@ -704,16 +704,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>-75499.96254962175</v>
+        <v>127124.2551313176</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>33193.64597837919</v>
+        <v>25631.8638245051</v>
       </c>
       <c r="E15" t="n">
-        <v>-42306.31657124255</v>
+        <v>152756.1189558227</v>
       </c>
     </row>
     <row r="16">
@@ -721,16 +721,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>-57523.780990188</v>
+        <v>87397.92540278082</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>18221.4609091956</v>
+        <v>11067.49411356249</v>
       </c>
       <c r="E16" t="n">
-        <v>-39302.3200809924</v>
+        <v>98465.4195163433</v>
       </c>
     </row>
     <row r="17">
@@ -738,16 +738,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>-39547.59943075424</v>
+        <v>47671.59567424408</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>4996.849515501456</v>
+        <v>-1833.997833021245</v>
       </c>
       <c r="E17" t="n">
-        <v>-34550.74991525279</v>
+        <v>45837.59784122283</v>
       </c>
     </row>
     <row r="18">
@@ -755,16 +755,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>-21571.41787132049</v>
+        <v>7945.265945707321</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-6521.460488411652</v>
+        <v>-13108.47973974168</v>
       </c>
       <c r="E18" t="n">
-        <v>-28092.87835973214</v>
+        <v>-5163.213794034359</v>
       </c>
     </row>
     <row r="19">
@@ -772,16 +772,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>-3595.236311886737</v>
+        <v>-31781.06378282943</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-16431.14778995632</v>
+        <v>-22844.81834987342</v>
       </c>
       <c r="E19" t="n">
-        <v>-20026.38410184306</v>
+        <v>-54625.88213270285</v>
       </c>
     </row>
     <row r="20">
@@ -789,16 +789,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>14380.94524754702</v>
+        <v>-71507.39351136619</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-24865.46641857059</v>
+        <v>-31165.72190010386</v>
       </c>
       <c r="E20" t="n">
-        <v>-10484.52117102358</v>
+        <v>-102673.11541147</v>
       </c>
     </row>
     <row r="21">
@@ -806,16 +806,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>32357.12680698076</v>
+        <v>-111233.7232399029</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-31976.38137479238</v>
+        <v>-38212.165533621</v>
       </c>
       <c r="E21" t="n">
-        <v>380.7454321883852</v>
+        <v>-149445.8887735239</v>
       </c>
     </row>
     <row r="22">
@@ -823,16 +823,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>50333.30836641452</v>
+        <v>-150960.0529684397</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-37921.76129945726</v>
+        <v>-44131.48688970658</v>
       </c>
       <c r="E22" t="n">
-        <v>12411.54706695726</v>
+        <v>-195091.5398581463</v>
       </c>
     </row>
     <row r="23">
@@ -840,16 +840,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>68309.48992584826</v>
+        <v>-190686.3826969764</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-42856.26415438348</v>
+        <v>-49068.83468750656</v>
       </c>
       <c r="E23" t="n">
-        <v>25453.22577146478</v>
+        <v>-239755.217384483</v>
       </c>
     </row>
     <row r="24">
@@ -857,16 +857,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>86285.67148528202</v>
+        <v>-230412.7124255132</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-46925.33133819926</v>
+        <v>-53161.45440500776</v>
       </c>
       <c r="E24" t="n">
-        <v>39360.34014708275</v>
+        <v>-283574.166830521</v>
       </c>
     </row>
     <row r="25">
@@ -874,16 +874,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>104261.8530447158</v>
+        <v>-270139.04215405</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-50261.6426830673</v>
+        <v>-56535.23551114908</v>
       </c>
       <c r="E25" t="n">
-        <v>54000.21036164848</v>
+        <v>-326674.277665199</v>
       </c>
     </row>
     <row r="26">
@@ -891,16 +891,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>122238.0346041495</v>
+        <v>-309865.3718825867</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-52983.41675078983</v>
+        <v>-59302.96951266014</v>
       </c>
       <c r="E26" t="n">
-        <v>69254.6178533597</v>
+        <v>-369168.3413952468</v>
       </c>
     </row>
     <row r="27">
@@ -908,16 +908,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>140214.2161635833</v>
+        <v>-349591.7016111235</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-55194.02177113736</v>
+        <v>-61563.83710345299</v>
       </c>
       <c r="E27" t="n">
-        <v>85020.1943924459</v>
+        <v>-411155.5387145765</v>
       </c>
     </row>
     <row r="28">
@@ -925,16 +925,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>158190.397723017</v>
+        <v>-389318.0313396602</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-56982.46166155786</v>
+        <v>-63403.72888206297</v>
       </c>
       <c r="E28" t="n">
-        <v>101207.9360614592</v>
+        <v>-452721.7602217231</v>
       </c>
     </row>
     <row r="29">
@@ -942,16 +942,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>176166.5792824508</v>
+        <v>-429044.3610681969</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-58424.40014838028</v>
+        <v>-64896.09082999617</v>
       </c>
       <c r="E29" t="n">
-        <v>117742.1791340705</v>
+        <v>-493940.451898193</v>
       </c>
     </row>
     <row r="30">
@@ -959,16 +959,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>194142.7608418845</v>
+        <v>-468770.6907967337</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-59583.47410380866</v>
+        <v>-66103.06400185</v>
       </c>
       <c r="E30" t="n">
-        <v>134559.2867380759</v>
+        <v>-534873.7547985837</v>
       </c>
     </row>
     <row r="31">
@@ -976,16 +976,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>212118.9424013183</v>
+        <v>-508497.0205252704</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-60512.72063109764</v>
+        <v>-67076.75371795784</v>
       </c>
       <c r="E31" t="n">
-        <v>151606.2217702206</v>
+        <v>-575573.7742432283</v>
       </c>
     </row>
     <row r="32">
@@ -993,16 +993,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>230095.123960752</v>
+        <v>-548223.3502538071</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-61256.00050295543</v>
+        <v>-67860.51614716052</v>
       </c>
       <c r="E32" t="n">
-        <v>168839.1234577966</v>
+        <v>-616083.8664009677</v>
       </c>
     </row>
   </sheetData>
@@ -1056,16 +1056,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-309190.3228222605</v>
+        <v>643566.5416022954</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>233685.6009905493</v>
+        <v>221462.42451044</v>
       </c>
       <c r="E2" t="n">
-        <v>-75504.72183171118</v>
+        <v>865028.9661127353</v>
       </c>
     </row>
     <row r="3">
@@ -1073,16 +1073,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-291214.1412628267</v>
+        <v>603840.2118737586</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>232604.8551278175</v>
+        <v>220306.6916283236</v>
       </c>
       <c r="E3" t="n">
-        <v>-58609.28613500926</v>
+        <v>824146.9035020822</v>
       </c>
     </row>
     <row r="4">
@@ -1090,16 +1090,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-273237.959703393</v>
+        <v>564113.8821452218</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>229984.6173343636</v>
+        <v>217576.3525522918</v>
       </c>
       <c r="E4" t="n">
-        <v>-43253.34236902947</v>
+        <v>781690.2346975136</v>
       </c>
     </row>
     <row r="5">
@@ -1107,16 +1107,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-255261.7781439593</v>
+        <v>524387.552416685</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>224770.1428953439</v>
+        <v>212252.8418948517</v>
       </c>
       <c r="E5" t="n">
-        <v>-30491.63524861532</v>
+        <v>736640.3943115368</v>
       </c>
     </row>
     <row r="6">
@@ -1124,16 +1124,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>-237285.5965845255</v>
+        <v>484661.2226881483</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>215921.1366813255</v>
+        <v>203362.6253849551</v>
       </c>
       <c r="E6" t="n">
-        <v>-21364.45990320001</v>
+        <v>688023.8480731035</v>
       </c>
     </row>
     <row r="7">
@@ -1141,16 +1141,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-219309.4150250918</v>
+        <v>444934.8929596116</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>202738.9139221799</v>
+        <v>190282.4319101509</v>
       </c>
       <c r="E7" t="n">
-        <v>-16570.50110291186</v>
+        <v>635217.3248697624</v>
       </c>
     </row>
     <row r="8">
@@ -1158,16 +1158,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-201333.233465658</v>
+        <v>405208.5632310748</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>185109.144513992</v>
+        <v>172952.5814442241</v>
       </c>
       <c r="E8" t="n">
-        <v>-16224.08895166602</v>
+        <v>578161.1446752989</v>
       </c>
     </row>
     <row r="9">
@@ -1175,16 +1175,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-183357.0519062243</v>
+        <v>365482.2335025381</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>163564.3122566618</v>
+        <v>151918.5041344385</v>
       </c>
       <c r="E9" t="n">
-        <v>-19792.73964956249</v>
+        <v>517400.7376369766</v>
       </c>
     </row>
     <row r="10">
@@ -1192,16 +1192,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-165380.8703467905</v>
+        <v>325755.9037740013</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>139163.5167428093</v>
+        <v>128206.8201569273</v>
       </c>
       <c r="E10" t="n">
-        <v>-26217.35360398123</v>
+        <v>453962.7239309286</v>
       </c>
     </row>
     <row r="11">
@@ -1209,16 +1209,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>-147404.6887873567</v>
+        <v>286029.5740454646</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>113258.6243971168</v>
+        <v>103103.4623751004</v>
       </c>
       <c r="E11" t="n">
-        <v>-34146.06439023998</v>
+        <v>389133.0364205649</v>
       </c>
     </row>
     <row r="12">
@@ -1226,16 +1226,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>-129428.507227923</v>
+        <v>246303.2443169278</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>87237.47790923505</v>
+        <v>77916.66335473195</v>
       </c>
       <c r="E12" t="n">
-        <v>-42191.02931868794</v>
+        <v>324219.9076716597</v>
       </c>
     </row>
     <row r="13">
@@ -1243,16 +1243,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>-111452.3256684892</v>
+        <v>206576.9145883911</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>62315.4412714001</v>
+        <v>53787.55957825793</v>
       </c>
       <c r="E13" t="n">
-        <v>-49136.88439708914</v>
+        <v>260364.474166649</v>
       </c>
     </row>
     <row r="14">
@@ -1260,16 +1260,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>-93476.1441090555</v>
+        <v>166850.5848598543</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>39409.8129928139</v>
+        <v>31577.50594022045</v>
       </c>
       <c r="E14" t="n">
-        <v>-54066.33111624161</v>
+        <v>198428.0908000748</v>
       </c>
     </row>
     <row r="15">
@@ -1277,16 +1277,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>-75499.96254962175</v>
+        <v>127124.2551313176</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>19098.09592497196</v>
+        <v>11831.56242430152</v>
       </c>
       <c r="E15" t="n">
-        <v>-56401.86662464979</v>
+        <v>138955.8175556191</v>
       </c>
     </row>
     <row r="16">
@@ -1294,16 +1294,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>-57523.780990188</v>
+        <v>87397.92540278082</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1640.617914204351</v>
+        <v>-5200.038579153799</v>
       </c>
       <c r="E16" t="n">
-        <v>-55883.16307598364</v>
+        <v>82197.88682362702</v>
       </c>
     </row>
     <row r="17">
@@ -1311,16 +1311,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>-39547.59943075424</v>
+        <v>47671.59567424408</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-12958.89051533255</v>
+        <v>-19506.29897074295</v>
       </c>
       <c r="E17" t="n">
-        <v>-52506.48994608679</v>
+        <v>28165.29670350112</v>
       </c>
     </row>
     <row r="18">
@@ -1328,16 +1328,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>-21571.41787132049</v>
+        <v>7945.265945707321</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-24878.63485350726</v>
+        <v>-31247.1230842663</v>
       </c>
       <c r="E18" t="n">
-        <v>-46450.05272482775</v>
+        <v>-23301.85713855898</v>
       </c>
     </row>
     <row r="19">
@@ -1345,16 +1345,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>-3595.236311886737</v>
+        <v>-31781.06378282943</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-34406.98229539433</v>
+        <v>-40687.44256470772</v>
       </c>
       <c r="E19" t="n">
-        <v>-38002.21860728107</v>
+        <v>-72468.50634753716</v>
       </c>
     </row>
     <row r="20">
@@ -1362,16 +1362,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>14380.94524754702</v>
+        <v>-71507.39351136619</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-41883.04452674647</v>
+        <v>-48142.33756209279</v>
       </c>
       <c r="E20" t="n">
-        <v>-27502.09927919946</v>
+        <v>-119649.731073459</v>
       </c>
     </row>
     <row r="21">
@@ -1379,16 +1379,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>32357.12680698076</v>
+        <v>-111233.7232399029</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-47653.0340423618</v>
+        <v>-53936.32207436674</v>
       </c>
       <c r="E21" t="n">
-        <v>-15295.90723538103</v>
+        <v>-165170.0453142697</v>
       </c>
     </row>
     <row r="22">
@@ -1396,16 +1396,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>50333.30836641452</v>
+        <v>-150960.0529684397</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-52041.84693425484</v>
+        <v>-58376.42031812137</v>
       </c>
       <c r="E22" t="n">
-        <v>-1708.538567840325</v>
+        <v>-209336.473286561</v>
       </c>
     </row>
     <row r="23">
@@ -1413,16 +1413,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>68309.48992584826</v>
+        <v>-190686.3826969764</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-55337.26816527722</v>
+        <v>-61736.79211594885</v>
       </c>
       <c r="E23" t="n">
-        <v>12972.22176057105</v>
+        <v>-252423.1748129253</v>
       </c>
     </row>
     <row r="24">
@@ -1430,16 +1430,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>86285.67148528202</v>
+        <v>-230412.7124255132</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-57783.52449723471</v>
+        <v>-64252.02083620679</v>
       </c>
       <c r="E24" t="n">
-        <v>28502.1469880473</v>
+        <v>-294664.73326172</v>
       </c>
     </row>
     <row r="25">
@@ -1447,16 +1447,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>104261.8530447158</v>
+        <v>-270139.04215405</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-59581.07496596714</v>
+        <v>-66116.28157060221</v>
       </c>
       <c r="E25" t="n">
-        <v>44680.77807874864</v>
+        <v>-336255.3237246522</v>
       </c>
     </row>
     <row r="26">
@@ -1464,16 +1464,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>122238.0346041495</v>
+        <v>-309865.3718825867</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-60890.09131424922</v>
+        <v>-67486.07820110623</v>
       </c>
       <c r="E26" t="n">
-        <v>61347.94328990031</v>
+        <v>-377351.4500836929</v>
       </c>
     </row>
     <row r="27">
@@ -1481,16 +1481,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>140214.2161635833</v>
+        <v>-349591.7016111235</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-61835.75128982507</v>
+        <v>-68484.819571</v>
       </c>
       <c r="E27" t="n">
-        <v>78378.4648737582</v>
+        <v>-418076.5211821235</v>
       </c>
     </row>
     <row r="28">
@@ -1498,16 +1498,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>158190.397723017</v>
+        <v>-389318.0313396602</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-62514.08534627636</v>
+        <v>-69208.05175600851</v>
       </c>
       <c r="E28" t="n">
-        <v>95676.31237674068</v>
+        <v>-458526.0830956687</v>
       </c>
     </row>
     <row r="29">
@@ -1515,16 +1515,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>176166.5792824508</v>
+        <v>-429044.3610681969</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-62997.61306660484</v>
+        <v>-69728.6101612585</v>
       </c>
       <c r="E29" t="n">
-        <v>113168.9662158459</v>
+        <v>-498772.9712294554</v>
       </c>
     </row>
     <row r="30">
@@ -1532,16 +1532,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>194142.7608418845</v>
+        <v>-468770.6907967337</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-63340.36643418703</v>
+        <v>-70101.28626578455</v>
       </c>
       <c r="E30" t="n">
-        <v>130802.3944076975</v>
+        <v>-538871.9770625182</v>
       </c>
     </row>
     <row r="31">
@@ -1549,16 +1549,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>212118.9424013183</v>
+        <v>-508497.0205252704</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-63582.13822067938</v>
+        <v>-70366.8298487688</v>
       </c>
       <c r="E31" t="n">
-        <v>148536.8041806389</v>
+        <v>-578863.8503740391</v>
       </c>
     </row>
     <row r="32">
@@ -1566,16 +1566,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>230095.123960752</v>
+        <v>-548223.3502538071</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-63751.94120624803</v>
+        <v>-70555.24953732436</v>
       </c>
       <c r="E32" t="n">
-        <v>166343.182754504</v>
+        <v>-618778.5997911314</v>
       </c>
     </row>
   </sheetData>
@@ -1629,16 +1629,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-309190.3228222605</v>
+        <v>643566.5416022954</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>234997.7692135514</v>
+        <v>222810.9038698138</v>
       </c>
       <c r="E2" t="n">
-        <v>-74192.55360870907</v>
+        <v>866377.4454721091</v>
       </c>
     </row>
     <row r="3">
@@ -1646,16 +1646,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-291214.1412628267</v>
+        <v>603840.2118737586</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>234991.9324569329</v>
+        <v>222803.705846147</v>
       </c>
       <c r="E3" t="n">
-        <v>-56222.20880589384</v>
+        <v>826643.9177199056</v>
       </c>
     </row>
     <row r="4">
@@ -1663,16 +1663,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-273237.959703393</v>
+        <v>564113.8821452218</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>234928.3948181904</v>
+        <v>222730.3179020536</v>
       </c>
       <c r="E4" t="n">
-        <v>-38309.56488520262</v>
+        <v>786844.2000472755</v>
       </c>
     </row>
     <row r="5">
@@ -1680,16 +1680,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-255261.7781439593</v>
+        <v>524387.552416685</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>234520.6585251371</v>
+        <v>222282.5717750298</v>
       </c>
       <c r="E5" t="n">
-        <v>-20741.11961882221</v>
+        <v>746670.1241917148</v>
       </c>
     </row>
     <row r="6">
@@ -1697,16 +1697,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>-237285.5965845255</v>
+        <v>484661.2226881483</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>232807.5750573317</v>
+        <v>220472.5559538187</v>
       </c>
       <c r="E6" t="n">
-        <v>-4478.021527193778</v>
+        <v>705133.778641967</v>
       </c>
     </row>
     <row r="7">
@@ -1714,16 +1714,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-219309.4150250918</v>
+        <v>444934.8929596116</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>227699.7753842629</v>
+        <v>215230.0323071586</v>
       </c>
       <c r="E7" t="n">
-        <v>8390.360359171173</v>
+        <v>660164.9252667702</v>
       </c>
     </row>
     <row r="8">
@@ -1731,16 +1731,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-201333.233465658</v>
+        <v>405208.5632310748</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>216193.3931234903</v>
+        <v>203670.029663072</v>
       </c>
       <c r="E8" t="n">
-        <v>14860.15965783232</v>
+        <v>608878.5928941468</v>
       </c>
     </row>
     <row r="9">
@@ -1748,16 +1748,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-183357.0519062243</v>
+        <v>365482.2335025381</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>195630.0500172188</v>
+        <v>183324.7788539628</v>
       </c>
       <c r="E9" t="n">
-        <v>12272.99811099452</v>
+        <v>548807.0123565008</v>
       </c>
     </row>
     <row r="10">
@@ -1765,16 +1765,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-165380.8703467905</v>
+        <v>325755.9037740013</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>165345.9601138715</v>
+        <v>153672.7048258671</v>
       </c>
       <c r="E10" t="n">
-        <v>-34.91023291900638</v>
+        <v>479428.6085998684</v>
       </c>
     </row>
     <row r="11">
@@ -1782,16 +1782,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>-147404.6887873567</v>
+        <v>286029.5740454646</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>127487.6733825728</v>
+        <v>116841.2745480015</v>
       </c>
       <c r="E11" t="n">
-        <v>-19917.01540478393</v>
+        <v>402870.848593466</v>
       </c>
     </row>
     <row r="12">
@@ -1799,16 +1799,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>-129428.507227923</v>
+        <v>246303.2443169278</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>86373.6789312287</v>
+        <v>76961.48132856368</v>
       </c>
       <c r="E12" t="n">
-        <v>-43054.82829669429</v>
+        <v>323264.7256454915</v>
       </c>
     </row>
     <row r="13">
@@ -1816,16 +1816,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>-111452.3256684892</v>
+        <v>206576.9145883911</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>46867.80325324162</v>
+        <v>38639.44093943509</v>
       </c>
       <c r="E13" t="n">
-        <v>-64584.52241524762</v>
+        <v>245216.3555278261</v>
       </c>
     </row>
     <row r="14">
@@ -1833,16 +1833,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>-93476.1441090555</v>
+        <v>166850.5848598543</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>12779.53010763391</v>
+        <v>5479.096648994899</v>
       </c>
       <c r="E14" t="n">
-        <v>-80696.61400142159</v>
+        <v>172329.6815088492</v>
       </c>
     </row>
     <row r="15">
@@ -1850,16 +1850,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>-75499.96254962175</v>
+        <v>127124.2551313176</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-13958.92305038558</v>
+        <v>-20672.39340008931</v>
       </c>
       <c r="E15" t="n">
-        <v>-89458.88560000733</v>
+        <v>106451.8617312283</v>
       </c>
     </row>
     <row r="16">
@@ -1867,16 +1867,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>-57523.780990188</v>
+        <v>87397.92540278082</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-33223.49342665935</v>
+        <v>-39661.90326617978</v>
       </c>
       <c r="E16" t="n">
-        <v>-90747.27441684734</v>
+        <v>47736.02213660104</v>
       </c>
     </row>
     <row r="17">
@@ -1884,16 +1884,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>-39547.59943075424</v>
+        <v>47671.59567424408</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-46087.23107205171</v>
+        <v>-52470.37651844494</v>
       </c>
       <c r="E17" t="n">
-        <v>-85634.83050280595</v>
+        <v>-4798.780844200868</v>
       </c>
     </row>
     <row r="18">
@@ -1901,16 +1901,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>-21571.41787132049</v>
+        <v>7945.265945707321</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-54110.95405767829</v>
+        <v>-60557.5579412505</v>
       </c>
       <c r="E18" t="n">
-        <v>-75682.37192899878</v>
+        <v>-52612.29199554318</v>
       </c>
     </row>
     <row r="19">
@@ -1918,16 +1918,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>-3595.236311886737</v>
+        <v>-31781.06378282943</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-58818.70878611256</v>
+        <v>-65370.10524450219</v>
       </c>
       <c r="E19" t="n">
-        <v>-62413.9450979993</v>
+        <v>-97151.16902733161</v>
       </c>
     </row>
     <row r="20">
@@ -1935,16 +1935,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>14380.94524754702</v>
+        <v>-71507.39351136619</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-61433.17143557659</v>
+        <v>-68085.70905367816</v>
       </c>
       <c r="E20" t="n">
-        <v>-47052.22618802958</v>
+        <v>-139593.1025650444</v>
       </c>
     </row>
     <row r="21">
@@ -1952,16 +1952,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>32357.12680698076</v>
+        <v>-111233.7232399029</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-62815.14910486274</v>
+        <v>-69546.62828308577</v>
       </c>
       <c r="E21" t="n">
-        <v>-30458.02229788197</v>
+        <v>-180780.3515229887</v>
       </c>
     </row>
     <row r="22">
@@ -1969,16 +1969,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>50333.30836641452</v>
+        <v>-150960.0529684397</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-63513.9296337183</v>
+        <v>-70299.57417225547</v>
       </c>
       <c r="E22" t="n">
-        <v>-13180.62126730378</v>
+        <v>-221259.6271406951</v>
       </c>
     </row>
     <row r="23">
@@ -1986,16 +1986,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>68309.48992584826</v>
+        <v>-190686.3826969764</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-63853.43989969903</v>
+        <v>-70672.97195445694</v>
       </c>
       <c r="E23" t="n">
-        <v>4456.050026149227</v>
+        <v>-261359.3546514334</v>
       </c>
     </row>
     <row r="24">
@@ -2003,16 +2003,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>86285.67148528202</v>
+        <v>-230412.7124255132</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-64012.58464866552</v>
+        <v>-70851.84722991934</v>
       </c>
       <c r="E24" t="n">
-        <v>22273.08683661649</v>
+        <v>-301264.5596554325</v>
       </c>
     </row>
     <row r="25">
@@ -2020,16 +2020,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>104261.8530447158</v>
+        <v>-270139.04215405</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-64084.81813283292</v>
+        <v>-70934.91419174951</v>
       </c>
       <c r="E25" t="n">
-        <v>40177.03491188287</v>
+        <v>-341073.9563457995</v>
       </c>
     </row>
     <row r="26">
@@ -2037,16 +2037,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>122238.0346041495</v>
+        <v>-309865.3718825867</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-64116.66849105903</v>
+        <v>-70972.42718227484</v>
       </c>
       <c r="E26" t="n">
-        <v>58121.36611309051</v>
+        <v>-380837.7990648615</v>
       </c>
     </row>
     <row r="27">
@@ -2054,16 +2054,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>140214.2161635833</v>
+        <v>-349591.7016111235</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-64130.3521374479</v>
+        <v>-70988.94869489883</v>
       </c>
       <c r="E27" t="n">
-        <v>76083.86402613537</v>
+        <v>-420580.6503060223</v>
       </c>
     </row>
     <row r="28">
@@ -2071,16 +2071,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>158190.397723017</v>
+        <v>-389318.0313396602</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-64136.09538759619</v>
+        <v>-70996.06328920514</v>
       </c>
       <c r="E28" t="n">
-        <v>94054.30233542084</v>
+        <v>-460314.0946288653</v>
       </c>
     </row>
     <row r="29">
@@ -2088,16 +2088,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>176166.5792824508</v>
+        <v>-429044.3610681969</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-64138.45600790582</v>
+        <v>-70999.0658454378</v>
       </c>
       <c r="E29" t="n">
-        <v>112028.123274545</v>
+        <v>-500043.4269136347</v>
       </c>
     </row>
     <row r="30">
@@ -2105,16 +2105,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>194142.7608418845</v>
+        <v>-468770.6907967337</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-64139.40825694654</v>
+        <v>-71000.31031370957</v>
       </c>
       <c r="E30" t="n">
-        <v>130003.352584938</v>
+        <v>-539771.0011104433</v>
       </c>
     </row>
     <row r="31">
@@ -2122,16 +2122,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>212118.9424013183</v>
+        <v>-508497.0205252704</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-64139.78598938086</v>
+        <v>-71000.81783230536</v>
       </c>
       <c r="E31" t="n">
-        <v>147979.1564119374</v>
+        <v>-579497.8383575757</v>
       </c>
     </row>
     <row r="32">
@@ -2139,16 +2139,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>230095.123960752</v>
+        <v>-548223.3502538071</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-64139.9335939825</v>
+        <v>-71001.02183750365</v>
       </c>
       <c r="E32" t="n">
-        <v>165955.1903667695</v>
+        <v>-619224.3720913108</v>
       </c>
     </row>
   </sheetData>
@@ -2202,16 +2202,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-309190.3228222605</v>
+        <v>643566.5416022954</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>235433.9201894319</v>
+        <v>223239.3916958646</v>
       </c>
       <c r="E2" t="n">
-        <v>-73756.40263282863</v>
+        <v>866805.93329816</v>
       </c>
     </row>
     <row r="3">
@@ -2219,16 +2219,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-291214.1412628267</v>
+        <v>603840.2118737586</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>235433.9201894319</v>
+        <v>223239.3916958646</v>
       </c>
       <c r="E3" t="n">
-        <v>-55780.22107339487</v>
+        <v>827079.6035696232</v>
       </c>
     </row>
     <row r="4">
@@ -2236,16 +2236,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-273237.959703393</v>
+        <v>564113.8821452218</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>235433.9201894319</v>
+        <v>223239.3916958646</v>
       </c>
       <c r="E4" t="n">
-        <v>-37804.03951396118</v>
+        <v>787353.2738410864</v>
       </c>
     </row>
     <row r="5">
@@ -2253,16 +2253,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-255261.7781439593</v>
+        <v>524387.552416685</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>235433.9201894319</v>
+        <v>223239.3916958646</v>
       </c>
       <c r="E5" t="n">
-        <v>-19827.85795452734</v>
+        <v>747626.9441125495</v>
       </c>
     </row>
     <row r="6">
@@ -2270,16 +2270,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>-237285.5965845255</v>
+        <v>484661.2226881483</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>235433.9201894314</v>
+        <v>223239.3916958632</v>
       </c>
       <c r="E6" t="n">
-        <v>-1851.67639509408</v>
+        <v>707900.6143840115</v>
       </c>
     </row>
     <row r="7">
@@ -2287,16 +2287,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-219309.4150250918</v>
+        <v>444934.8929596116</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>235433.9197920936</v>
+        <v>223239.3910749161</v>
       </c>
       <c r="E7" t="n">
-        <v>16124.50476700184</v>
+        <v>668174.2840345277</v>
       </c>
     </row>
     <row r="8">
@@ -2304,16 +2304,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-201333.233465658</v>
+        <v>405208.5632310748</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>235430.5960841125</v>
+        <v>223235.3389520764</v>
       </c>
       <c r="E8" t="n">
-        <v>34097.36261845453</v>
+        <v>628443.9021831512</v>
       </c>
     </row>
     <row r="9">
@@ -2321,16 +2321,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-183357.0519062243</v>
+        <v>365482.2335025381</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>234538.4841301284</v>
+        <v>222291.2250494383</v>
       </c>
       <c r="E9" t="n">
-        <v>51181.43222390415</v>
+        <v>587773.4585519764</v>
       </c>
     </row>
     <row r="10">
@@ -2338,16 +2338,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-165380.8703467905</v>
+        <v>325755.9037740013</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>216930.0971546016</v>
+        <v>204788.5368290697</v>
       </c>
       <c r="E10" t="n">
-        <v>51549.22680781112</v>
+        <v>530544.4406030709</v>
       </c>
     </row>
     <row r="11">
@@ -2355,16 +2355,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>-147404.6887873567</v>
+        <v>286029.5740454646</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>159245.2723280253</v>
+        <v>148324.071131041</v>
       </c>
       <c r="E11" t="n">
-        <v>11840.58354066851</v>
+        <v>434353.6451765056</v>
       </c>
     </row>
     <row r="12">
@@ -2372,16 +2372,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>-129428.507227923</v>
+        <v>246303.2443169278</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>85509.75998320236</v>
+        <v>75985.96787703967</v>
       </c>
       <c r="E12" t="n">
-        <v>-43918.74724472064</v>
+        <v>322289.2121939675</v>
       </c>
     </row>
     <row r="13">
@@ -2389,16 +2389,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>-111452.3256684892</v>
+        <v>206576.9145883911</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>12331.25578059722</v>
+        <v>4227.339085598542</v>
       </c>
       <c r="E13" t="n">
-        <v>-99121.06988789202</v>
+        <v>210804.2536739896</v>
       </c>
     </row>
     <row r="14">
@@ -2406,16 +2406,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>-93476.1441090555</v>
+        <v>166850.5848598543</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-43060.28352645896</v>
+        <v>-49958.79940901377</v>
       </c>
       <c r="E14" t="n">
-        <v>-136536.4276355145</v>
+        <v>116891.7854508406</v>
       </c>
     </row>
     <row r="15">
@@ -2423,16 +2423,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>-75499.96254962175</v>
+        <v>127124.2551313176</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-62080.03304629076</v>
+        <v>-68843.17822143537</v>
       </c>
       <c r="E15" t="n">
-        <v>-137579.9955959125</v>
+        <v>58281.07690988221</v>
       </c>
     </row>
     <row r="16">
@@ -2440,16 +2440,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>-57523.780990188</v>
+        <v>87397.92540278082</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-64082.44807360056</v>
+        <v>-70934.97974460837</v>
       </c>
       <c r="E16" t="n">
-        <v>-121606.2290637885</v>
+        <v>16462.94565817245</v>
       </c>
     </row>
     <row r="17">
@@ -2457,16 +2457,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>-39547.59943075424</v>
+        <v>47671.59567424408</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-64139.57234915456</v>
+        <v>-71000.55735664174</v>
       </c>
       <c r="E17" t="n">
-        <v>-103687.1717799088</v>
+        <v>-23328.96168239767</v>
       </c>
     </row>
     <row r="18">
@@ -2474,16 +2474,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>-21571.41787132049</v>
+        <v>7945.265945707321</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-64140.02411950738</v>
+        <v>-71001.15283062798</v>
       </c>
       <c r="E18" t="n">
-        <v>-85711.44199082788</v>
+        <v>-63055.88688492066</v>
       </c>
     </row>
     <row r="19">
@@ -2491,16 +2491,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>-3595.236311886737</v>
+        <v>-31781.06378282943</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-64140.02519742054</v>
+        <v>-71001.15453002005</v>
       </c>
       <c r="E19" t="n">
-        <v>-67735.26150930728</v>
+        <v>-102782.2183128495</v>
       </c>
     </row>
     <row r="20">
@@ -2508,16 +2508,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>14380.94524754702</v>
+        <v>-71507.39351136619</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-64140.02519828195</v>
+        <v>-71001.15453170583</v>
       </c>
       <c r="E20" t="n">
-        <v>-49759.07995073494</v>
+        <v>-142508.548043072</v>
       </c>
     </row>
     <row r="21">
@@ -2525,16 +2525,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>32357.12680698076</v>
+        <v>-111233.7232399029</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-64140.02519828227</v>
+        <v>-71001.15453170647</v>
       </c>
       <c r="E21" t="n">
-        <v>-31782.89839130151</v>
+        <v>-182234.8777716094</v>
       </c>
     </row>
     <row r="22">
@@ -2542,16 +2542,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>50333.30836641452</v>
+        <v>-150960.0529684397</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-64140.02519828227</v>
+        <v>-71001.15453170647</v>
       </c>
       <c r="E22" t="n">
-        <v>-13806.71683186776</v>
+        <v>-221961.2075001461</v>
       </c>
     </row>
     <row r="23">
@@ -2559,16 +2559,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>68309.48992584826</v>
+        <v>-190686.3826969764</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-64140.02519828227</v>
+        <v>-71001.15453170647</v>
       </c>
       <c r="E23" t="n">
-        <v>4169.464727565988</v>
+        <v>-261687.5372286829</v>
       </c>
     </row>
     <row r="24">
@@ -2576,16 +2576,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>86285.67148528202</v>
+        <v>-230412.7124255132</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-64140.02519828227</v>
+        <v>-71001.15453170647</v>
       </c>
       <c r="E24" t="n">
-        <v>22145.64628699974</v>
+        <v>-301413.8669572197</v>
       </c>
     </row>
     <row r="25">
@@ -2593,16 +2593,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>104261.8530447158</v>
+        <v>-270139.04215405</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-64140.02519828227</v>
+        <v>-71001.15453170647</v>
       </c>
       <c r="E25" t="n">
-        <v>40121.82784643351</v>
+        <v>-341140.1966857564</v>
       </c>
     </row>
     <row r="26">
@@ -2610,16 +2610,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>122238.0346041495</v>
+        <v>-309865.3718825867</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-64140.02519828227</v>
+        <v>-71001.15453170647</v>
       </c>
       <c r="E26" t="n">
-        <v>58098.00940586726</v>
+        <v>-380866.5264142932</v>
       </c>
     </row>
     <row r="27">
@@ -2627,16 +2627,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>140214.2161635833</v>
+        <v>-349591.7016111235</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-64140.02519828227</v>
+        <v>-71001.15453170647</v>
       </c>
       <c r="E27" t="n">
-        <v>76074.19096530101</v>
+        <v>-420592.8561428299</v>
       </c>
     </row>
     <row r="28">
@@ -2644,16 +2644,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>158190.397723017</v>
+        <v>-389318.0313396602</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-64140.02519828227</v>
+        <v>-71001.15453170647</v>
       </c>
       <c r="E28" t="n">
-        <v>94050.37252473476</v>
+        <v>-460319.1858713666</v>
       </c>
     </row>
     <row r="29">
@@ -2661,16 +2661,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>176166.5792824508</v>
+        <v>-429044.3610681969</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-64140.02519828227</v>
+        <v>-71001.15453170647</v>
       </c>
       <c r="E29" t="n">
-        <v>112026.5540841685</v>
+        <v>-500045.5155999034</v>
       </c>
     </row>
     <row r="30">
@@ -2678,16 +2678,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>194142.7608418845</v>
+        <v>-468770.6907967337</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-64140.02519828227</v>
+        <v>-71001.15453170647</v>
       </c>
       <c r="E30" t="n">
-        <v>130002.7356436023</v>
+        <v>-539771.8453284402</v>
       </c>
     </row>
     <row r="31">
@@ -2695,16 +2695,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>212118.9424013183</v>
+        <v>-508497.0205252704</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-64140.02519828227</v>
+        <v>-71001.15453170647</v>
       </c>
       <c r="E31" t="n">
-        <v>147978.917203036</v>
+        <v>-579498.1750569768</v>
       </c>
     </row>
     <row r="32">
@@ -2712,16 +2712,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>230095.123960752</v>
+        <v>-548223.3502538071</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-64140.02519828227</v>
+        <v>-71001.15453170647</v>
       </c>
       <c r="E32" t="n">
-        <v>165955.0987624697</v>
+        <v>-619224.5047855136</v>
       </c>
     </row>
   </sheetData>
@@ -2775,16 +2775,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-309190.3228222605</v>
+        <v>643566.5416022954</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>224147.5294736313</v>
+        <v>213018.7164985761</v>
       </c>
       <c r="E2" t="n">
-        <v>-85042.7933486292</v>
+        <v>856585.2581008715</v>
       </c>
     </row>
     <row r="3">
@@ -2792,16 +2792,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-291214.1412628267</v>
+        <v>603840.2118737586</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>218065.5121482057</v>
+        <v>207299.1726828796</v>
       </c>
       <c r="E3" t="n">
-        <v>-73148.62911462109</v>
+        <v>811139.3845566381</v>
       </c>
     </row>
     <row r="4">
@@ -2809,16 +2809,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-273237.959703393</v>
+        <v>564113.8821452218</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>209651.8115259641</v>
+        <v>199261.5135435479</v>
       </c>
       <c r="E4" t="n">
-        <v>-63586.14817742893</v>
+        <v>763375.3956887696</v>
       </c>
     </row>
     <row r="5">
@@ -2826,16 +2826,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-255261.7781439593</v>
+        <v>524387.552416685</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>198906.4098544981</v>
+        <v>188867.5448526262</v>
       </c>
       <c r="E5" t="n">
-        <v>-56355.36828946121</v>
+        <v>713255.0972693113</v>
       </c>
     </row>
     <row r="6">
@@ -2843,16 +2843,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>-237285.5965845255</v>
+        <v>484661.2226881483</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>186034.7949256155</v>
+        <v>176293.770473094</v>
       </c>
       <c r="E6" t="n">
-        <v>-51250.80165890997</v>
+        <v>660954.9931612423</v>
       </c>
     </row>
     <row r="7">
@@ -2860,16 +2860,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-219309.4150250918</v>
+        <v>444934.8929596116</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>171398.4720300803</v>
+        <v>161885.8095406668</v>
       </c>
       <c r="E7" t="n">
-        <v>-47910.94299501149</v>
+        <v>606820.7025002784</v>
       </c>
     </row>
     <row r="8">
@@ -2877,16 +2877,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-201333.233465658</v>
+        <v>405208.5632310748</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>155452.7342358661</v>
+        <v>146095.9770324705</v>
       </c>
       <c r="E8" t="n">
-        <v>-45880.49922979187</v>
+        <v>551304.5402635454</v>
       </c>
     </row>
     <row r="9">
@@ -2894,16 +2894,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-183357.0519062243</v>
+        <v>365482.2335025381</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>138686.7771819682</v>
+        <v>129420.6382147055</v>
       </c>
       <c r="E9" t="n">
-        <v>-44670.2747242561</v>
+        <v>494902.8717172436</v>
       </c>
     </row>
     <row r="10">
@@ -2911,16 +2911,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-165380.8703467905</v>
+        <v>325755.9037740013</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>121575.0173503053</v>
+        <v>112347.7603578184</v>
       </c>
       <c r="E10" t="n">
-        <v>-43805.85299648516</v>
+        <v>438103.6641318197</v>
       </c>
     </row>
     <row r="11">
@@ -2928,16 +2928,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>-147404.6887873567</v>
+        <v>286029.5740454646</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>104543.0028738746</v>
+        <v>95319.19180436489</v>
       </c>
       <c r="E11" t="n">
-        <v>-42861.68591348213</v>
+        <v>381348.7658498295</v>
       </c>
     </row>
     <row r="12">
@@ -2945,16 +2945,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>-129428.507227923</v>
+        <v>246303.2443169278</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>87947.56230137977</v>
+        <v>78707.93805790253</v>
       </c>
       <c r="E12" t="n">
-        <v>-41480.94492654322</v>
+        <v>325011.1823748304</v>
       </c>
     </row>
     <row r="13">
@@ -2962,16 +2962,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>-111452.3256684892</v>
+        <v>206576.9145883911</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>72068.80977381006</v>
+        <v>62808.25792903973</v>
       </c>
       <c r="E13" t="n">
-        <v>-39383.51589467918</v>
+        <v>269385.1725174308</v>
       </c>
     </row>
     <row r="14">
@@ -2979,16 +2979,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>-93476.1441090555</v>
+        <v>166850.5848598543</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>57110.8947373604</v>
+        <v>47835.40574368836</v>
       </c>
       <c r="E14" t="n">
-        <v>-36365.2493716951</v>
+        <v>214685.9906035427</v>
       </c>
     </row>
     <row r="15">
@@ -2996,16 +2996,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>-75499.96254962175</v>
+        <v>127124.2551313176</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>43208.46319741184</v>
+        <v>33931.79486606495</v>
       </c>
       <c r="E15" t="n">
-        <v>-32291.49935220991</v>
+        <v>161056.0499973825</v>
       </c>
     </row>
     <row r="16">
@@ -3013,16 +3013,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>-57523.780990188</v>
+        <v>87397.92540278082</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>30436.28546044715</v>
+        <v>21176.81199748091</v>
       </c>
       <c r="E16" t="n">
-        <v>-27087.49552974085</v>
+        <v>108574.7374002617</v>
       </c>
     </row>
     <row r="17">
@@ -3030,16 +3030,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>-39547.59943075424</v>
+        <v>47671.59567424408</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>18820.12984253049</v>
+        <v>9598.15733849462</v>
       </c>
       <c r="E17" t="n">
-        <v>-20727.46958822375</v>
+        <v>57269.7530127387</v>
       </c>
     </row>
     <row r="18">
@@ -3047,16 +3047,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>-21571.41787132049</v>
+        <v>7945.265945707321</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>8347.564554574428</v>
+        <v>-816.7666524430055</v>
       </c>
       <c r="E18" t="n">
-        <v>-13223.85331674606</v>
+        <v>7128.499293264316</v>
       </c>
     </row>
     <row r="19">
@@ -3064,16 +3064,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>-3595.236311886737</v>
+        <v>-31781.06378282943</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-1022.124431228692</v>
+        <v>-10110.34036645945</v>
       </c>
       <c r="E19" t="n">
-        <v>-4617.36074311543</v>
+        <v>-41891.40414928888</v>
       </c>
     </row>
     <row r="20">
@@ -3081,16 +3081,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>14380.94524754702</v>
+        <v>-71507.39351136619</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-9349.326162159512</v>
+        <v>-18345.57962677562</v>
       </c>
       <c r="E20" t="n">
-        <v>5031.619085387503</v>
+        <v>-89852.97313814181</v>
       </c>
     </row>
     <row r="21">
@@ -3098,16 +3098,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>32357.12680698076</v>
+        <v>-111233.7232399029</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-16706.96331968029</v>
+        <v>-25598.54449173494</v>
       </c>
       <c r="E21" t="n">
-        <v>15650.16348730047</v>
+        <v>-136832.2677316379</v>
       </c>
     </row>
     <row r="22">
@@ -3115,16 +3115,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>50333.30836641452</v>
+        <v>-150960.0529684397</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-23174.79570543942</v>
+        <v>-31952.29361340386</v>
       </c>
       <c r="E22" t="n">
-        <v>27158.5126609751</v>
+        <v>-182912.3465818435</v>
       </c>
     </row>
     <row r="23">
@@ -3132,16 +3132,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>68309.48992584826</v>
+        <v>-190686.3826969764</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-28835.04446607029</v>
+        <v>-37492.25575257117</v>
       </c>
       <c r="E23" t="n">
-        <v>39474.44545977798</v>
+        <v>-228178.6384495476</v>
       </c>
     </row>
     <row r="24">
@@ -3149,16 +3149,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>86285.67148528202</v>
+        <v>-230412.7124255132</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-33769.16188554122</v>
+        <v>-42302.83109111343</v>
       </c>
       <c r="E24" t="n">
-        <v>52516.50959974079</v>
+        <v>-272715.5435166266</v>
       </c>
     </row>
     <row r="25">
@@ -3166,16 +3166,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>104261.8530447158</v>
+        <v>-270139.04215405</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-38055.55537851291</v>
+        <v>-46465.01550333582</v>
       </c>
       <c r="E25" t="n">
-        <v>66206.29766620288</v>
+        <v>-316604.0576573858</v>
       </c>
     </row>
     <row r="26">
@@ -3183,16 +3183,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>122238.0346041495</v>
+        <v>-309865.3718825867</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-41768.07971667177</v>
+        <v>-50054.84602359135</v>
       </c>
       <c r="E26" t="n">
-        <v>80469.95488747777</v>
+        <v>-359920.217906178</v>
       </c>
     </row>
     <row r="27">
@@ -3200,16 +3200,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>140214.2161635833</v>
+        <v>-349591.7016111235</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-44975.1289669404</v>
+        <v>-53142.48456581741</v>
       </c>
       <c r="E27" t="n">
-        <v>95239.08719664288</v>
+        <v>-402734.1861769409</v>
       </c>
     </row>
     <row r="28">
@@ -3217,16 +3217,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>158190.397723017</v>
+        <v>-389318.0313396602</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-47739.18261706408</v>
+        <v>-55791.78212774864</v>
       </c>
       <c r="E28" t="n">
-        <v>110451.215105953</v>
+        <v>-445109.8134674088</v>
       </c>
     </row>
     <row r="29">
@@ -3234,16 +3234,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>176166.5792824508</v>
+        <v>-429044.3610681969</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-50116.68474353863</v>
+        <v>-58060.19250874942</v>
       </c>
       <c r="E29" t="n">
-        <v>126049.8945389122</v>
+        <v>-487104.5535769463</v>
       </c>
     </row>
     <row r="30">
@@ -3251,16 +3251,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>194142.7608418845</v>
+        <v>-468770.6907967337</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-52158.15836080242</v>
+        <v>-59998.93016800988</v>
       </c>
       <c r="E30" t="n">
-        <v>141984.6024810821</v>
+        <v>-528769.6209647435</v>
       </c>
     </row>
     <row r="31">
@@ -3268,16 +3268,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>212118.9424013183</v>
+        <v>-508497.0205252704</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-53908.47796410804</v>
+        <v>-61653.2897584415</v>
       </c>
       <c r="E31" t="n">
-        <v>158210.4644372102</v>
+        <v>-570150.3102837119</v>
       </c>
     </row>
     <row r="32">
@@ -3285,16 +3285,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>230095.123960752</v>
+        <v>-548223.3502538071</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-55407.24118938181</v>
+        <v>-63063.06446972248</v>
       </c>
       <c r="E32" t="n">
-        <v>174687.8827713702</v>
+        <v>-611286.4147235296</v>
       </c>
     </row>
   </sheetData>
@@ -3348,16 +3348,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-309190.3228222605</v>
+        <v>643566.5416022954</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>225943.829782129</v>
+        <v>213510.0283698447</v>
       </c>
       <c r="E2" t="n">
-        <v>-83246.49304013146</v>
+        <v>857076.56997214</v>
       </c>
     </row>
     <row r="3">
@@ -3365,16 +3365,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-291214.1412628267</v>
+        <v>603840.2118737586</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>220458.3299565947</v>
+        <v>207955.7233635978</v>
       </c>
       <c r="E3" t="n">
-        <v>-70755.811306232</v>
+        <v>811795.9352373565</v>
       </c>
     </row>
     <row r="4">
@@ -3382,16 +3382,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-273237.959703393</v>
+        <v>564113.8821452218</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>212567.197669321</v>
+        <v>200063.231858373</v>
       </c>
       <c r="E4" t="n">
-        <v>-60670.76203407208</v>
+        <v>764177.1140035947</v>
       </c>
     </row>
     <row r="5">
@@ -3399,16 +3399,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-255261.7781439593</v>
+        <v>524387.552416685</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>202173.2588823854</v>
+        <v>189767.2671364744</v>
       </c>
       <c r="E5" t="n">
-        <v>-53088.51926157382</v>
+        <v>714154.8195531594</v>
       </c>
     </row>
     <row r="6">
@@ -3416,16 +3416,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>-237285.5965845255</v>
+        <v>484661.2226881483</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>189417.7638830455</v>
+        <v>177226.3214114857</v>
       </c>
       <c r="E6" t="n">
-        <v>-47867.83270147999</v>
+        <v>661887.544099634</v>
       </c>
     </row>
     <row r="7">
@@ -3433,16 +3433,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-219309.4150250918</v>
+        <v>444934.8929596116</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>174639.451313702</v>
+        <v>162779.5219296711</v>
       </c>
       <c r="E7" t="n">
-        <v>-44669.96371138972</v>
+        <v>607714.4148892827</v>
       </c>
     </row>
     <row r="8">
@@ -3450,16 +3450,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-201333.233465658</v>
+        <v>405208.5632310748</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>158309.1981802254</v>
+        <v>146883.3854078303</v>
       </c>
       <c r="E8" t="n">
-        <v>-43024.03528543256</v>
+        <v>552091.9486389051</v>
       </c>
     </row>
     <row r="9">
@@ -3467,16 +3467,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-183357.0519062243</v>
+        <v>365482.2335025381</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>140960.0119289769</v>
+        <v>130046.376219226</v>
       </c>
       <c r="E9" t="n">
-        <v>-42397.03997724739</v>
+        <v>495528.609721764</v>
       </c>
     </row>
     <row r="10">
@@ -3484,16 +3484,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-165380.8703467905</v>
+        <v>325755.9037740013</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>123125.9007518896</v>
+        <v>112772.9973348808</v>
       </c>
       <c r="E10" t="n">
-        <v>-42254.9695949009</v>
+        <v>438528.9011088822</v>
       </c>
     </row>
     <row r="11">
@@ -3501,16 +3501,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>-147404.6887873567</v>
+        <v>286029.5740454646</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>105296.3486833067</v>
+        <v>95522.87967044294</v>
       </c>
       <c r="E11" t="n">
-        <v>-42108.34010405008</v>
+        <v>381552.4537159075</v>
       </c>
     </row>
     <row r="12">
@@ -3518,16 +3518,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>-129428.507227923</v>
+        <v>246303.2443169278</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>87887.78746942616</v>
+        <v>78685.63171739045</v>
       </c>
       <c r="E12" t="n">
-        <v>-41540.71975849684</v>
+        <v>324988.8760343182</v>
       </c>
     </row>
     <row r="13">
@@ -3535,16 +3535,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>-111452.3256684892</v>
+        <v>206576.9145883911</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>71230.15653257558</v>
+        <v>62569.4083627025</v>
       </c>
       <c r="E13" t="n">
-        <v>-40222.16913591366</v>
+        <v>269146.3229510935</v>
       </c>
     </row>
     <row r="14">
@@ -3552,16 +3552,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>-93476.1441090555</v>
+        <v>166850.5848598543</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>55565.11901142265</v>
+        <v>47399.93814375702</v>
       </c>
       <c r="E14" t="n">
-        <v>-37911.02509763285</v>
+        <v>214250.5230036114</v>
       </c>
     </row>
     <row r="15">
@@ -3569,16 +3569,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>-75499.96254962175</v>
+        <v>127124.2551313176</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>41052.21352423786</v>
+        <v>33326.59375965948</v>
       </c>
       <c r="E15" t="n">
-        <v>-34447.74902538389</v>
+        <v>160450.8488909771</v>
       </c>
     </row>
     <row r="16">
@@ -3586,16 +3586,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>-57523.780990188</v>
+        <v>87397.92540278082</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>27779.63635592532</v>
+        <v>20432.52365757131</v>
       </c>
       <c r="E16" t="n">
-        <v>-29744.14463426267</v>
+        <v>107830.4490603521</v>
       </c>
     </row>
     <row r="17">
@@ -3603,16 +3603,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>-39547.59943075424</v>
+        <v>47671.59567424408</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>15777.06501873494</v>
+        <v>8746.533197830428</v>
       </c>
       <c r="E17" t="n">
-        <v>-23770.5344120193</v>
+        <v>56418.12887207451</v>
       </c>
     </row>
     <row r="18">
@@ -3620,16 +3620,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>-21571.41787132049</v>
+        <v>7945.265945707321</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>5028.696069206449</v>
+        <v>-1744.904296825076</v>
       </c>
       <c r="E18" t="n">
-        <v>-16542.72180211404</v>
+        <v>6200.361648882244</v>
       </c>
     </row>
     <row r="19">
@@ -3637,16 +3637,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>-3595.236311886737</v>
+        <v>-31781.06378282943</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-4514.658027223137</v>
+        <v>-11086.52517775411</v>
       </c>
       <c r="E19" t="n">
-        <v>-8109.894339109875</v>
+        <v>-42867.58896058354</v>
       </c>
     </row>
     <row r="20">
@@ -3654,16 +3654,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>14380.94524754702</v>
+        <v>-71507.39351136619</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-12925.03999639867</v>
+        <v>-19344.59169283623</v>
       </c>
       <c r="E20" t="n">
-        <v>1455.90525114835</v>
+        <v>-90851.98520420241</v>
       </c>
     </row>
     <row r="21">
@@ -3671,16 +3671,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>32357.12680698076</v>
+        <v>-111233.7232399029</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-20288.63446031222</v>
+        <v>-26598.86164769848</v>
       </c>
       <c r="E21" t="n">
-        <v>12068.49234666854</v>
+        <v>-137832.5848876014</v>
       </c>
     </row>
     <row r="22">
@@ -3688,16 +3688,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>50333.30836641452</v>
+        <v>-150960.0529684397</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-26698.86820146834</v>
+        <v>-32936.2063471045</v>
       </c>
       <c r="E22" t="n">
-        <v>23634.44016494618</v>
+        <v>-183896.2593155442</v>
       </c>
     </row>
     <row r="23">
@@ -3705,16 +3705,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>68309.48992584826</v>
+        <v>-190686.3826969764</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-32251.17403264048</v>
+        <v>-38445.74136267579</v>
       </c>
       <c r="E23" t="n">
-        <v>36058.31589320779</v>
+        <v>-229132.1240596522</v>
       </c>
     </row>
     <row r="24">
@@ -3722,16 +3722,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>86285.67148528202</v>
+        <v>-230412.7124255132</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-37039.19414919816</v>
+        <v>-43215.26919594037</v>
       </c>
       <c r="E24" t="n">
-        <v>49246.47733608386</v>
+        <v>-273627.9816214535</v>
       </c>
     </row>
     <row r="25">
@@ -3739,16 +3739,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>104261.8530447158</v>
+        <v>-270139.04215405</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-41152.17432356327</v>
+        <v>-47328.81105726858</v>
       </c>
       <c r="E25" t="n">
-        <v>63109.67872115252</v>
+        <v>-317467.8532113186</v>
       </c>
     </row>
     <row r="26">
@@ -3756,16 +3756,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>122238.0346041495</v>
+        <v>-309865.3718825867</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-44673.30661568286</v>
+        <v>-50865.01028082638</v>
       </c>
       <c r="E26" t="n">
-        <v>77564.72798846668</v>
+        <v>-360730.382163413</v>
       </c>
     </row>
     <row r="27">
@@ -3773,16 +3773,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>140214.2161635833</v>
+        <v>-349591.7016111235</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-47678.80173159817</v>
+        <v>-53896.21037219474</v>
       </c>
       <c r="E27" t="n">
-        <v>92535.4144319851</v>
+        <v>-403487.9119833182</v>
       </c>
     </row>
     <row r="28">
@@ -3790,16 +3790,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>158190.397723017</v>
+        <v>-389318.0313396602</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-50237.50341943418</v>
+        <v>-56488.03815754353</v>
       </c>
       <c r="E28" t="n">
-        <v>107952.8943035828</v>
+        <v>-445806.0694972037</v>
       </c>
     </row>
     <row r="29">
@@ -3807,16 +3807,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>176166.5792824508</v>
+        <v>-429044.3610681969</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-52410.89037655011</v>
+        <v>-58699.35172495397</v>
       </c>
       <c r="E29" t="n">
-        <v>123755.6889059007</v>
+        <v>-487743.7127931509</v>
       </c>
     </row>
     <row r="30">
@@ -3824,16 +3824,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>194142.7608418845</v>
+        <v>-468770.6907967337</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-54253.34253707335</v>
+        <v>-60582.44071025939</v>
       </c>
       <c r="E30" t="n">
-        <v>139889.4183048112</v>
+        <v>-529353.1315069931</v>
       </c>
     </row>
     <row r="31">
@@ -3841,16 +3841,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>212118.9424013183</v>
+        <v>-508497.0205252704</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-55812.57649061879</v>
+        <v>-62183.39134663674</v>
       </c>
       <c r="E31" t="n">
-        <v>156306.3659106995</v>
+        <v>-570680.4118719071</v>
       </c>
     </row>
     <row r="32">
@@ -3858,16 +3858,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>230095.123960752</v>
+        <v>-548223.3502538071</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-57130.1784270487</v>
+        <v>-63542.54989889441</v>
       </c>
       <c r="E32" t="n">
-        <v>172964.9455337033</v>
+        <v>-611765.9001527015</v>
       </c>
     </row>
   </sheetData>
@@ -3921,16 +3921,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-309190.3228222605</v>
+        <v>643566.5416022954</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>210985.4562595763</v>
+        <v>198566.6718638215</v>
       </c>
       <c r="E2" t="n">
-        <v>-98204.86656268424</v>
+        <v>842133.2134661168</v>
       </c>
     </row>
     <row r="3">
@@ -3938,16 +3938,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-291214.1412628267</v>
+        <v>603840.2118737586</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>202344.0479359038</v>
+        <v>190009.7143239044</v>
       </c>
       <c r="E3" t="n">
-        <v>-88870.09332692297</v>
+        <v>793849.9261976629</v>
       </c>
     </row>
     <row r="4">
@@ -3955,16 +3955,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-273237.959703393</v>
+        <v>564113.8821452218</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>192142.5015891244</v>
+        <v>179975.4985744604</v>
       </c>
       <c r="E4" t="n">
-        <v>-81095.45811426867</v>
+        <v>744089.3807196822</v>
       </c>
     </row>
     <row r="5">
@@ -3972,16 +3972,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-255261.7781439593</v>
+        <v>524387.552416685</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>180643.8763132559</v>
+        <v>168724.2267832949</v>
       </c>
       <c r="E5" t="n">
-        <v>-74617.9018307034</v>
+        <v>693111.77919998</v>
       </c>
     </row>
     <row r="6">
@@ -3989,16 +3989,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>-237285.5965845255</v>
+        <v>484661.2226881483</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>168152.7797136225</v>
+        <v>156550.5095237828</v>
       </c>
       <c r="E6" t="n">
-        <v>-69132.81687090299</v>
+        <v>641211.7322119311</v>
       </c>
     </row>
     <row r="7">
@@ -4006,16 +4006,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-219309.4150250918</v>
+        <v>444934.8929596116</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>154982.205571818</v>
+        <v>143752.9775088906</v>
       </c>
       <c r="E7" t="n">
-        <v>-64327.20945327371</v>
+        <v>588687.8704685022</v>
       </c>
     </row>
     <row r="8">
@@ -4023,16 +4023,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-201333.233465658</v>
+        <v>405208.5632310748</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>141429.633885364</v>
+        <v>130612.8679425805</v>
       </c>
       <c r="E8" t="n">
-        <v>-59903.59958029402</v>
+        <v>535821.4311736554</v>
       </c>
     </row>
     <row r="9">
@@ -4040,16 +4040,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-183357.0519062243</v>
+        <v>365482.2335025381</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>127761.8551972132</v>
+        <v>117380.7690076794</v>
       </c>
       <c r="E9" t="n">
-        <v>-55595.1967090111</v>
+        <v>482863.0025102174</v>
       </c>
     </row>
     <row r="10">
@@ -4057,16 +4057,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-165380.8703467905</v>
+        <v>325755.9037740013</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>114206.9520483127</v>
+        <v>104269.9048312441</v>
       </c>
       <c r="E10" t="n">
-        <v>-51173.91829847777</v>
+        <v>430025.8086052454</v>
       </c>
     </row>
     <row r="11">
@@ -4074,16 +4074,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>-147404.6887873567</v>
+        <v>286029.5740454646</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>100951.6085618137</v>
+        <v>91454.20270875821</v>
       </c>
       <c r="E11" t="n">
-        <v>-46453.08022554303</v>
+        <v>377483.7767542228</v>
       </c>
     </row>
     <row r="12">
@@ -4091,16 +4091,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>-129428.507227923</v>
+        <v>246303.2443169278</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>88142.05869755519</v>
+        <v>79069.5719628807</v>
       </c>
       <c r="E12" t="n">
-        <v>-41286.44853036781</v>
+        <v>325372.8162798085</v>
       </c>
     </row>
     <row r="13">
@@ -4108,16 +4108,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>-111452.3256684892</v>
+        <v>206576.9145883911</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>75887.2893061745</v>
+        <v>67217.13469224515</v>
       </c>
       <c r="E13" t="n">
-        <v>-35565.03636231474</v>
+        <v>273794.0492806362</v>
       </c>
     </row>
     <row r="14">
@@ -4125,16 +4125,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>-93476.1441090555</v>
+        <v>166850.5848598543</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>64263.45282047747</v>
+        <v>55967.47166536962</v>
       </c>
       <c r="E14" t="n">
-        <v>-29212.69128857803</v>
+        <v>222818.0565252239</v>
       </c>
     </row>
     <row r="15">
@@ -4142,16 +4142,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>-75499.96254962175</v>
+        <v>127124.2551313176</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>53318.75122367468</v>
+        <v>45365.23020022627</v>
       </c>
       <c r="E15" t="n">
-        <v>-22181.21132594706</v>
+        <v>172489.4853315438</v>
       </c>
     </row>
     <row r="16">
@@ -4159,16 +4159,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>-57523.780990188</v>
+        <v>87397.92540278082</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>43078.30306961315</v>
+        <v>35433.66762823274</v>
       </c>
       <c r="E16" t="n">
-        <v>-14445.47792057485</v>
+        <v>122831.5930310136</v>
       </c>
     </row>
     <row r="17">
@@ -4176,16 +4176,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>-39547.59943075424</v>
+        <v>47671.59567424408</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>33548.69550004202</v>
+        <v>26178.87395516611</v>
       </c>
       <c r="E17" t="n">
-        <v>-5998.903930712222</v>
+        <v>73850.46962941019</v>
       </c>
     </row>
     <row r="18">
@@ -4193,16 +4193,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>-21571.41787132049</v>
+        <v>7945.265945707321</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>24722.06004800166</v>
+        <v>17593.53832377621</v>
       </c>
       <c r="E18" t="n">
-        <v>3150.642176681169</v>
+        <v>25538.80426948353</v>
       </c>
     </row>
     <row r="19">
@@ -4210,16 +4210,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>-3595.236311886737</v>
+        <v>-31781.06378282943</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>16579.60464068638</v>
+        <v>9660.205854609601</v>
       </c>
       <c r="E19" t="n">
-        <v>12984.36832879964</v>
+        <v>-22120.85792821983</v>
       </c>
     </row>
     <row r="20">
@@ -4227,16 +4227,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>14380.94524754702</v>
+        <v>-71507.39351136619</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>9094.594891084296</v>
+        <v>2354.024042432331</v>
       </c>
       <c r="E20" t="n">
-        <v>23475.54013863131</v>
+        <v>-69153.36946893386</v>
       </c>
     </row>
     <row r="21">
@@ -4244,16 +4244,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>32357.12680698076</v>
+        <v>-111233.7232399029</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>2234.81447684126</v>
+        <v>-4354.990670175866</v>
       </c>
       <c r="E21" t="n">
-        <v>34591.94128382202</v>
+        <v>-115588.7139100788</v>
       </c>
     </row>
     <row r="22">
@@ -4261,16 +4261,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>50333.30836641452</v>
+        <v>-150960.0529684397</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-4035.445619469258</v>
+        <v>-10500.11872778015</v>
       </c>
       <c r="E22" t="n">
-        <v>46297.86274694526</v>
+        <v>-161460.1716962198</v>
       </c>
     </row>
     <row r="23">
@@ -4278,16 +4278,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>68309.48992584826</v>
+        <v>-190686.3826969764</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-9753.81047454715</v>
+        <v>-16116.48124630026</v>
       </c>
       <c r="E23" t="n">
-        <v>58555.67945130111</v>
+        <v>-206802.8639432767</v>
       </c>
     </row>
     <row r="24">
@@ -4295,16 +4295,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>86285.67148528202</v>
+        <v>-230412.7124255132</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-14958.59707484657</v>
+        <v>-21239.90643085791</v>
       </c>
       <c r="E24" t="n">
-        <v>71327.07441043544</v>
+        <v>-251652.6188563711</v>
       </c>
     </row>
     <row r="25">
@@ -4312,16 +4312,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>104261.8530447158</v>
+        <v>-270139.04215405</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-19687.88526949492</v>
+        <v>-25906.06614470505</v>
       </c>
       <c r="E25" t="n">
-        <v>84573.96777522087</v>
+        <v>-296045.108298755</v>
       </c>
     </row>
     <row r="26">
@@ -4329,16 +4329,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>122238.0346041495</v>
+        <v>-309865.3718825867</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-23978.83153861271</v>
+        <v>-30149.83496852956</v>
       </c>
       <c r="E26" t="n">
-        <v>98259.20306553683</v>
+        <v>-340015.2068511163</v>
       </c>
     </row>
     <row r="27">
@@ -4346,16 +4346,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>140214.2161635833</v>
+        <v>-349591.7016111235</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-27867.17945587596</v>
+        <v>-34004.82978201756</v>
       </c>
       <c r="E27" t="n">
-        <v>112347.0367077073</v>
+        <v>-383596.531393141</v>
       </c>
     </row>
     <row r="28">
@@ -4363,16 +4363,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>158190.397723017</v>
+        <v>-389318.0313396602</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-31386.92713853444</v>
+        <v>-37503.09375763989</v>
       </c>
       <c r="E28" t="n">
-        <v>126803.4705844826</v>
+        <v>-426821.1250973</v>
       </c>
     </row>
     <row r="29">
@@ -4380,16 +4380,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>176166.5792824508</v>
+        <v>-429044.3610681969</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-34570.11814863973</v>
+        <v>-40674.89426018193</v>
       </c>
       <c r="E29" t="n">
-        <v>141596.461133811</v>
+        <v>-469719.2553283788</v>
       </c>
     </row>
     <row r="30">
@@ -4397,16 +4397,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>194142.7608418845</v>
+        <v>-468770.6907967337</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-37446.72796513719</v>
+        <v>-43548.60926621312</v>
       </c>
       <c r="E30" t="n">
-        <v>156696.0328767473</v>
+        <v>-512319.3000629468</v>
       </c>
     </row>
     <row r="31">
@@ -4414,16 +4414,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>212118.9424013183</v>
+        <v>-508497.0205252704</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-40044.62316233355</v>
+        <v>-46150.68145221652</v>
       </c>
       <c r="E31" t="n">
-        <v>172074.3192389847</v>
+        <v>-554647.701977487</v>
       </c>
     </row>
     <row r="32">
@@ -4431,16 +4431,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>230095.123960752</v>
+        <v>-548223.3502538071</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-42389.57477223044</v>
+        <v>-48505.62302386839</v>
       </c>
       <c r="E32" t="n">
-        <v>187705.5491885216</v>
+        <v>-596728.9732776756</v>
       </c>
     </row>
   </sheetData>
@@ -4494,16 +4494,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-309190.3228222605</v>
+        <v>643566.5416022954</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>213313.7723902144</v>
+        <v>200872.3572674592</v>
       </c>
       <c r="E2" t="n">
-        <v>-95876.55043204612</v>
+        <v>844438.8988697545</v>
       </c>
     </row>
     <row r="3">
@@ -4511,16 +4511,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-291214.1412628267</v>
+        <v>603840.2118737586</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>204963.4047552732</v>
+        <v>192585.3122530814</v>
       </c>
       <c r="E3" t="n">
-        <v>-86250.73650755355</v>
+        <v>796425.5241268399</v>
       </c>
     </row>
     <row r="4">
@@ -4528,16 +4528,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-273237.959703393</v>
+        <v>564113.8821452218</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>194914.8884591775</v>
+        <v>182685.2510958628</v>
       </c>
       <c r="E4" t="n">
-        <v>-78323.07124421553</v>
+        <v>746799.1332410846</v>
       </c>
     </row>
     <row r="5">
@@ -4545,16 +4545,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-255261.7781439593</v>
+        <v>524387.552416685</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>183416.8380162555</v>
+        <v>171420.866277996</v>
       </c>
       <c r="E5" t="n">
-        <v>-71844.9401277038</v>
+        <v>695808.418694681</v>
       </c>
     </row>
     <row r="6">
@@ -4562,16 +4562,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>-237285.5965845255</v>
+        <v>484661.2226881483</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>170778.4521516338</v>
+        <v>159092.898054294</v>
       </c>
       <c r="E6" t="n">
-        <v>-66507.14443289171</v>
+        <v>643754.1207424423</v>
       </c>
     </row>
     <row r="7">
@@ -4579,16 +4579,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-219309.4150250918</v>
+        <v>444934.8929596116</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157330.9978560798</v>
+        <v>146018.4900196572</v>
       </c>
       <c r="E7" t="n">
-        <v>-61978.41716901193</v>
+        <v>590953.3829792688</v>
       </c>
     </row>
     <row r="8">
@@ -4596,16 +4596,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-201333.233465658</v>
+        <v>405208.5632310748</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>143398.2914935311</v>
+        <v>132504.4771525956</v>
       </c>
       <c r="E8" t="n">
-        <v>-57934.94197212689</v>
+        <v>537713.0403836705</v>
       </c>
     </row>
     <row r="9">
@@ -4613,16 +4613,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-183357.0519062243</v>
+        <v>365482.2335025381</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>129276.6989642215</v>
+        <v>118829.6864983503</v>
       </c>
       <c r="E9" t="n">
-        <v>-54080.35294200279</v>
+        <v>484311.9200008884</v>
       </c>
     </row>
     <row r="10">
@@ -4630,16 +4630,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-165380.8703467905</v>
+        <v>325755.9037740013</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>115223.5052549923</v>
+        <v>105234.9524367911</v>
       </c>
       <c r="E10" t="n">
-        <v>-50157.36509179824</v>
+        <v>430990.8562107924</v>
       </c>
     </row>
     <row r="11">
@@ -4647,16 +4647,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>-147404.6887873567</v>
+        <v>286029.5740454646</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>101451.8449923373</v>
+        <v>91919.06534485728</v>
       </c>
       <c r="E11" t="n">
-        <v>-45952.84379501941</v>
+        <v>377948.6393903219</v>
       </c>
     </row>
     <row r="12">
@@ -4664,16 +4664,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>-129428.507227923</v>
+        <v>246303.2443169278</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>88130.32493473444</v>
+        <v>79038.8954291332</v>
       </c>
       <c r="E12" t="n">
-        <v>-41298.18229318855</v>
+        <v>325342.139746061</v>
       </c>
     </row>
     <row r="13">
@@ -4681,16 +4681,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>-111452.3256684892</v>
+        <v>206576.9145883911</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>75385.70453275852</v>
+        <v>66712.19301543265</v>
       </c>
       <c r="E13" t="n">
-        <v>-36066.62113573072</v>
+        <v>273289.1076038237</v>
       </c>
     </row>
     <row r="14">
@@ -4698,16 +4698,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>-93476.1441090555</v>
+        <v>166850.5848598543</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>63307.34246032826</v>
+        <v>55021.90013067285</v>
       </c>
       <c r="E14" t="n">
-        <v>-30168.80164872724</v>
+        <v>221872.4849905272</v>
       </c>
     </row>
     <row r="15">
@@ -4715,16 +4715,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>-75499.96254962175</v>
+        <v>127124.2551313176</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>51952.46132044971</v>
+        <v>44021.12995654123</v>
       </c>
       <c r="E15" t="n">
-        <v>-23547.50122917203</v>
+        <v>171145.3850878588</v>
       </c>
     </row>
     <row r="16">
@@ -4732,16 +4732,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>-57523.780990188</v>
+        <v>87397.92540278082</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>41351.5811292335</v>
+        <v>33738.24306695497</v>
       </c>
       <c r="E16" t="n">
-        <v>-16172.1998609545</v>
+        <v>121136.1684697358</v>
       </c>
     </row>
     <row r="17">
@@ -4749,16 +4749,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>-39547.59943075424</v>
+        <v>47671.59567424408</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>31513.70879733718</v>
+        <v>24181.66196613471</v>
       </c>
       <c r="E17" t="n">
-        <v>-8033.890633417061</v>
+        <v>71853.25764037878</v>
       </c>
     </row>
     <row r="18">
@@ -4766,16 +4766,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>-21571.41787132049</v>
+        <v>7945.265945707321</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>22431.04675497297</v>
+        <v>15344.22170310411</v>
       </c>
       <c r="E18" t="n">
-        <v>859.6288836524764</v>
+        <v>23289.48764881143</v>
       </c>
     </row>
     <row r="19">
@@ -4783,16 +4783,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>-3595.236311886737</v>
+        <v>-31781.06378282943</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>14083.10769767395</v>
+        <v>7206.963288811748</v>
       </c>
       <c r="E19" t="n">
-        <v>10487.87138578721</v>
+        <v>-24574.10049401768</v>
       </c>
     </row>
     <row r="20">
@@ -4800,16 +4800,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>14380.94524754702</v>
+        <v>-71507.39351136619</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>6440.20496549477</v>
+        <v>-257.6513717665548</v>
       </c>
       <c r="E20" t="n">
-        <v>20821.15021304179</v>
+        <v>-71765.04488313274</v>
       </c>
     </row>
     <row r="21">
@@ -4817,16 +4817,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>32357.12680698076</v>
+        <v>-111233.7232399029</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-533.6603321523507</v>
+        <v>-7083.079739415763</v>
       </c>
       <c r="E21" t="n">
-        <v>31823.46647482841</v>
+        <v>-118316.8029793187</v>
       </c>
     </row>
     <row r="22">
@@ -4834,16 +4834,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>50333.30836641452</v>
+        <v>-150960.0529684397</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-6878.464863534352</v>
+        <v>-13306.54566459906</v>
       </c>
       <c r="E22" t="n">
-        <v>43454.84350288016</v>
+        <v>-164266.5986330387</v>
       </c>
     </row>
     <row r="23">
@@ -4851,16 +4851,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>68309.48992584826</v>
+        <v>-190686.3826969764</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-12636.316402574</v>
+        <v>-18967.33284616529</v>
       </c>
       <c r="E23" t="n">
-        <v>55673.17352327426</v>
+        <v>-209653.7155431417</v>
       </c>
     </row>
     <row r="24">
@@ -4868,16 +4868,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>86285.67148528202</v>
+        <v>-230412.7124255132</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-17850.02565881074</v>
+        <v>-24105.46109725906</v>
       </c>
       <c r="E24" t="n">
-        <v>68435.64582647127</v>
+        <v>-254518.1735227723</v>
       </c>
     </row>
     <row r="25">
@@ -4885,16 +4885,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>104261.8530447158</v>
+        <v>-270139.04215405</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-22562.02907502134</v>
+        <v>-28760.68377391674</v>
       </c>
       <c r="E25" t="n">
-        <v>81699.82396969445</v>
+        <v>-298899.7259279667</v>
       </c>
     </row>
     <row r="26">
@@ -4902,16 +4902,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>122238.0346041495</v>
+        <v>-309865.3718825867</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-26813.60029423972</v>
+        <v>-32971.74968300429</v>
       </c>
       <c r="E26" t="n">
-        <v>95424.43430990982</v>
+        <v>-342837.121565591</v>
       </c>
     </row>
     <row r="27">
@@ -4919,16 +4919,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>140214.2161635833</v>
+        <v>-349591.7016111235</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-30644.29494885353</v>
+        <v>-36775.879183554</v>
       </c>
       <c r="E27" t="n">
-        <v>109569.9212147298</v>
+        <v>-386367.5807946774</v>
       </c>
     </row>
     <row r="28">
@@ -4936,16 +4936,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>158190.397723017</v>
+        <v>-389318.0313396602</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-34091.58094247621</v>
+        <v>-40208.41103768225</v>
       </c>
       <c r="E28" t="n">
-        <v>124098.8167805408</v>
+        <v>-429526.4423773424</v>
       </c>
     </row>
     <row r="29">
@@ -4953,16 +4953,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>176166.5792824508</v>
+        <v>-429044.3610681969</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-37190.61377653128</v>
+        <v>-43302.58324890213</v>
       </c>
       <c r="E29" t="n">
-        <v>138975.9655059195</v>
+        <v>-472346.944317099</v>
       </c>
     </row>
     <row r="30">
@@ -4970,16 +4970,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>194142.7608418845</v>
+        <v>-468770.6907967337</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-39974.12331787795</v>
+        <v>-46089.41730531867</v>
       </c>
       <c r="E30" t="n">
-        <v>154168.6375240066</v>
+        <v>-514860.1081020524</v>
       </c>
     </row>
     <row r="31">
@@ -4987,16 +4987,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>212118.9424013183</v>
+        <v>-508497.0205252704</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-42472.38451339191</v>
+        <v>-48597.68075583705</v>
       </c>
       <c r="E31" t="n">
-        <v>169646.5578879263</v>
+        <v>-557094.7012811074</v>
       </c>
     </row>
     <row r="32">
@@ -5004,16 +5004,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>230095.123960752</v>
+        <v>-548223.3502538071</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-44713.24986319337</v>
+        <v>-50853.90783356403</v>
       </c>
       <c r="E32" t="n">
-        <v>185381.8740975586</v>
+        <v>-599077.2580873711</v>
       </c>
     </row>
   </sheetData>
@@ -5067,16 +5067,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-309190.3228222605</v>
+        <v>643566.5416022954</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>215386.4944260002</v>
+        <v>202930.0018026598</v>
       </c>
       <c r="E2" t="n">
-        <v>-93803.82839626033</v>
+        <v>846496.5434049552</v>
       </c>
     </row>
     <row r="3">
@@ -5084,16 +5084,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-291214.1412628267</v>
+        <v>603840.2118737586</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>207341.8042325029</v>
+        <v>194928.6886586145</v>
       </c>
       <c r="E3" t="n">
-        <v>-83872.3370303238</v>
+        <v>798768.9005323731</v>
       </c>
     </row>
     <row r="4">
@@ -5101,16 +5101,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-273237.959703393</v>
+        <v>564113.8821452218</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>197473.2337062642</v>
+        <v>185189.8374158599</v>
       </c>
       <c r="E4" t="n">
-        <v>-75764.72599712887</v>
+        <v>749303.7195610817</v>
       </c>
     </row>
     <row r="5">
@@ -5118,16 +5118,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-255261.7781439593</v>
+        <v>524387.552416685</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>186008.9161781525</v>
+        <v>173944.8675590885</v>
       </c>
       <c r="E5" t="n">
-        <v>-69252.86196580672</v>
+        <v>698332.4199757735</v>
       </c>
     </row>
     <row r="6">
@@ -5135,16 +5135,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>-237285.5965845255</v>
+        <v>484661.2226881483</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>173257.6493331151</v>
+        <v>161496.0017188962</v>
       </c>
       <c r="E6" t="n">
-        <v>-64027.94725141037</v>
+        <v>646157.2244070445</v>
       </c>
     </row>
     <row r="7">
@@ -5152,16 +5152,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-219309.4150250918</v>
+        <v>444934.8929596116</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>159565.6479204761</v>
+        <v>148175.8671946246</v>
       </c>
       <c r="E7" t="n">
-        <v>-59743.76710461566</v>
+        <v>593110.7601542362</v>
       </c>
     </row>
     <row r="8">
@@ -5169,16 +5169,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-201333.233465658</v>
+        <v>405208.5632310748</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>145281.390427918</v>
+        <v>134315.4184670516</v>
       </c>
       <c r="E8" t="n">
-        <v>-56051.84303773998</v>
+        <v>539523.9816981264</v>
       </c>
     </row>
     <row r="9">
@@ -5186,16 +5186,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-183357.0519062243</v>
+        <v>365482.2335025381</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>130730.4461593544</v>
+        <v>120221.4428080771</v>
       </c>
       <c r="E9" t="n">
-        <v>-52626.60574686987</v>
+        <v>485703.6763106151</v>
       </c>
     </row>
     <row r="10">
@@ -5203,16 +5203,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-165380.8703467905</v>
+        <v>325755.9037740013</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>116199.7813257982</v>
+        <v>106162.877792369</v>
       </c>
       <c r="E10" t="n">
-        <v>-49181.08902099234</v>
+        <v>431918.7815663703</v>
       </c>
     </row>
     <row r="11">
@@ -5220,16 +5220,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>-147404.6887873567</v>
+        <v>286029.5740454646</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>101929.8938672724</v>
+        <v>92364.25583533847</v>
       </c>
       <c r="E11" t="n">
-        <v>-45474.7949200843</v>
+        <v>378393.829880803</v>
       </c>
     </row>
     <row r="12">
@@ -5237,16 +5237,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>-129428.507227923</v>
+        <v>246303.2443169278</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>88112.79023867892</v>
+        <v>79004.38107883495</v>
       </c>
       <c r="E12" t="n">
-        <v>-41315.71698924407</v>
+        <v>325307.6253957627</v>
       </c>
     </row>
     <row r="13">
@@ -5254,16 +5254,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>-111452.3256684892</v>
+        <v>206576.9145883911</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>74893.93317237581</v>
+        <v>66218.50922809071</v>
       </c>
       <c r="E13" t="n">
-        <v>-36558.39249611343</v>
+        <v>272795.4238164818</v>
       </c>
     </row>
     <row r="14">
@@ -5271,16 +5271,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>-93476.1441090555</v>
+        <v>166850.5848598543</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>62376.60821924629</v>
+        <v>54102.6229411969</v>
       </c>
       <c r="E14" t="n">
-        <v>-31099.53588980921</v>
+        <v>220953.2078010512</v>
       </c>
     </row>
     <row r="15">
@@ -5288,16 +5288,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>-75499.96254962175</v>
+        <v>127124.2551313176</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>50627.52846810482</v>
+        <v>42718.74709466432</v>
       </c>
       <c r="E15" t="n">
-        <v>-24872.43408151693</v>
+        <v>169843.0022259819</v>
       </c>
     </row>
     <row r="16">
@@ -5305,16 +5305,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>-57523.780990188</v>
+        <v>87397.92540278082</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>39682.8425931059</v>
+        <v>32100.56593335881</v>
       </c>
       <c r="E16" t="n">
-        <v>-17840.9383970821</v>
+        <v>119498.4913361396</v>
       </c>
     </row>
     <row r="17">
@@ -5322,16 +5322,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>-39547.59943075424</v>
+        <v>47671.59567424408</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>29553.99803159022</v>
+        <v>22258.86284037339</v>
       </c>
       <c r="E17" t="n">
-        <v>-9993.601399164021</v>
+        <v>69930.45851461746</v>
       </c>
     </row>
     <row r="18">
@@ -5339,16 +5339,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>-21571.41787132049</v>
+        <v>7945.265945707321</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>20233.13121492259</v>
+        <v>13186.49969798026</v>
       </c>
       <c r="E18" t="n">
-        <v>-1338.286656397904</v>
+        <v>21131.76564368758</v>
       </c>
     </row>
     <row r="19">
@@ -5356,16 +5356,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>-3595.236311886737</v>
+        <v>-31781.06378282943</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>11697.81581576333</v>
+        <v>4862.793256356392</v>
       </c>
       <c r="E19" t="n">
-        <v>8102.579503876588</v>
+        <v>-26918.27052647304</v>
       </c>
     </row>
     <row r="20">
@@ -5373,16 +5373,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>14380.94524754702</v>
+        <v>-71507.39351136619</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>3915.108537857952</v>
+        <v>-2742.758975379076</v>
       </c>
       <c r="E20" t="n">
-        <v>18296.05378540497</v>
+        <v>-74250.15248674527</v>
       </c>
     </row>
     <row r="21">
@@ -5390,16 +5390,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>32357.12680698076</v>
+        <v>-111233.7232399029</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-3155.098407262299</v>
+        <v>-9667.3902994851</v>
       </c>
       <c r="E21" t="n">
-        <v>29202.02839971846</v>
+        <v>-120901.113539388</v>
       </c>
     </row>
     <row r="22">
@@ -5407,16 +5407,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>50333.30836641452</v>
+        <v>-150960.0529684397</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-9557.367873569297</v>
+        <v>-15952.56545352254</v>
       </c>
       <c r="E22" t="n">
-        <v>40775.94049284522</v>
+        <v>-166912.6184219622</v>
       </c>
     </row>
     <row r="23">
@@ -5424,16 +5424,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>68309.48992584826</v>
+        <v>-190686.3826969764</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-15338.57992809236</v>
+        <v>-21642.00391459702</v>
       </c>
       <c r="E23" t="n">
-        <v>52970.9099977559</v>
+        <v>-212328.3866115735</v>
       </c>
     </row>
     <row r="24">
@@ -5441,16 +5441,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>86285.67148528202</v>
+        <v>-230412.7124255132</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-20546.28614768028</v>
+        <v>-26780.15309157006</v>
       </c>
       <c r="E24" t="n">
-        <v>65739.38533760174</v>
+        <v>-257192.8655170833</v>
       </c>
     </row>
     <row r="25">
@@ -5458,16 +5458,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>104261.8530447158</v>
+        <v>-270139.04215405</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-25227.47705383552</v>
+        <v>-31411.03943519736</v>
       </c>
       <c r="E25" t="n">
-        <v>79034.37599088027</v>
+        <v>-301550.0815892473</v>
       </c>
     </row>
     <row r="26">
@@ -5475,16 +5475,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>122238.0346041495</v>
+        <v>-309865.3718825867</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-29427.68897864059</v>
+        <v>-35577.43052479065</v>
       </c>
       <c r="E26" t="n">
-        <v>92810.34562550894</v>
+        <v>-345442.8024073773</v>
       </c>
     </row>
     <row r="27">
@@ -5492,16 +5492,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>140214.2161635833</v>
+        <v>-349591.7016111235</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-33190.38447918343</v>
+        <v>-39320.24836289656</v>
       </c>
       <c r="E27" t="n">
-        <v>107023.8316843998</v>
+        <v>-388911.94997402</v>
       </c>
     </row>
     <row r="28">
@@ -5509,16 +5509,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>158190.397723017</v>
+        <v>-389318.0313396602</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-36556.54921050442</v>
+        <v>-42678.18208092035</v>
       </c>
       <c r="E28" t="n">
-        <v>121633.8485125126</v>
+        <v>-431996.2134205805</v>
       </c>
     </row>
     <row r="29">
@@ -5526,16 +5526,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>176166.5792824508</v>
+        <v>-429044.3610681969</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-39564.45696131708</v>
+        <v>-45687.45619325429</v>
       </c>
       <c r="E29" t="n">
-        <v>136602.1223211337</v>
+        <v>-474731.8172614512</v>
       </c>
     </row>
     <row r="30">
@@ -5543,16 +5543,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>194142.7608418845</v>
+        <v>-468770.6907967337</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-42249.56279189215</v>
+        <v>-48381.71795270385</v>
       </c>
       <c r="E30" t="n">
-        <v>151893.1980499924</v>
+        <v>-517152.4087494375</v>
       </c>
     </row>
     <row r="31">
@@ -5560,16 +5560,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>212118.9424013183</v>
+        <v>-508497.0205252704</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-44644.49160113581</v>
+        <v>-50792.01400915213</v>
       </c>
       <c r="E31" t="n">
-        <v>167474.4508001824</v>
+        <v>-559289.0345344224</v>
       </c>
     </row>
     <row r="32">
@@ -5577,16 +5577,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>230095.123960752</v>
+        <v>-548223.3502538071</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-46779.09587791143</v>
+        <v>-52946.83236217532</v>
       </c>
       <c r="E32" t="n">
-        <v>183316.0280828406</v>
+        <v>-601170.1826159825</v>
       </c>
     </row>
   </sheetData>
@@ -5640,16 +5640,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-309190.3228222605</v>
+        <v>643566.5416022954</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>220819.5132728417</v>
+        <v>208350.4621914133</v>
       </c>
       <c r="E2" t="n">
-        <v>-88370.8095494188</v>
+        <v>851917.0037937086</v>
       </c>
     </row>
     <row r="3">
@@ -5657,16 +5657,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-291214.1412628267</v>
+        <v>603840.2118737586</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>213836.9239878926</v>
+        <v>201354.5703704597</v>
       </c>
       <c r="E3" t="n">
-        <v>-77377.21727493417</v>
+        <v>805194.7822442183</v>
       </c>
     </row>
     <row r="4">
@@ -5674,16 +5674,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-273237.959703393</v>
+        <v>564113.8821452218</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>204701.309090564</v>
+        <v>192289.5107820224</v>
       </c>
       <c r="E4" t="n">
-        <v>-68536.65061282902</v>
+        <v>756403.3929272443</v>
       </c>
     </row>
     <row r="5">
@@ -5691,16 +5691,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-255261.7781439593</v>
+        <v>524387.552416685</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>193535.9546870152</v>
+        <v>181293.6349850943</v>
       </c>
       <c r="E5" t="n">
-        <v>-61725.82345694405</v>
+        <v>705681.1874017793</v>
       </c>
     </row>
     <row r="6">
@@ -5708,16 +5708,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>-237285.5965845255</v>
+        <v>484661.2226881483</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>180614.1632383874</v>
+        <v>168641.971466718</v>
       </c>
       <c r="E6" t="n">
-        <v>-56671.43334613813</v>
+        <v>653303.1941548663</v>
       </c>
     </row>
     <row r="7">
@@ -5725,16 +5725,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-219309.4150250918</v>
+        <v>444934.8929596116</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>166306.9279670999</v>
+        <v>154695.7194271117</v>
       </c>
       <c r="E7" t="n">
-        <v>-53002.48705799188</v>
+        <v>599630.6123867233</v>
       </c>
     </row>
     <row r="8">
@@ -5742,16 +5742,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-201333.233465658</v>
+        <v>405208.5632310748</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>151030.7066628783</v>
+        <v>139853.4708833155</v>
       </c>
       <c r="E8" t="n">
-        <v>-50302.52680277973</v>
+        <v>545062.0341143904</v>
       </c>
     </row>
     <row r="9">
@@ -5759,16 +5759,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-183357.0519062243</v>
+        <v>365482.2335025381</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>135203.5781705491</v>
+        <v>124511.1674046532</v>
       </c>
       <c r="E9" t="n">
-        <v>-48153.47373567513</v>
+        <v>489993.4009071912</v>
       </c>
     </row>
     <row r="10">
@@ -5776,16 +5776,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-165380.8703467905</v>
+        <v>325755.9037740013</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>119213.2059028434</v>
+        <v>109033.395893866</v>
       </c>
       <c r="E10" t="n">
-        <v>-46167.66444394705</v>
+        <v>434789.2996678672</v>
       </c>
     </row>
     <row r="11">
@@ -5793,16 +5793,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>-147404.6887873567</v>
+        <v>286029.5740454646</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>103396.7130487589</v>
+        <v>93735.74619758088</v>
       </c>
       <c r="E11" t="n">
-        <v>-44007.97573859783</v>
+        <v>379765.3202430455</v>
       </c>
     </row>
     <row r="12">
@@ -5810,16 +5810,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>-129428.507227923</v>
+        <v>246303.2443169278</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>88030.75044571642</v>
+        <v>78876.44458540615</v>
       </c>
       <c r="E12" t="n">
-        <v>-41397.75678220658</v>
+        <v>325179.688902334</v>
       </c>
     </row>
     <row r="13">
@@ -5827,16 +5827,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>-111452.3256684892</v>
+        <v>206576.9145883911</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>73329.32877882305</v>
+        <v>64654.94889041652</v>
       </c>
       <c r="E13" t="n">
-        <v>-38122.99688966619</v>
+        <v>271231.8634788076</v>
       </c>
     </row>
     <row r="14">
@@ -5844,16 +5844,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>-93476.1441090555</v>
+        <v>166850.5848598543</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>59446.97089094657</v>
+        <v>51215.2515716148</v>
       </c>
       <c r="E14" t="n">
-        <v>-34029.17321810893</v>
+        <v>218065.8364314691</v>
       </c>
     </row>
     <row r="15">
@@ -5861,16 +5861,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>-75499.96254962175</v>
+        <v>127124.2551313176</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>46485.08063093902</v>
+        <v>38651.98678241819</v>
       </c>
       <c r="E15" t="n">
-        <v>-29014.88191868273</v>
+        <v>165776.2419137358</v>
       </c>
     </row>
     <row r="16">
@@ -5878,16 +5878,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>-57523.780990188</v>
+        <v>87397.92540278082</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>34499.89537311521</v>
+        <v>27017.88193229253</v>
       </c>
       <c r="E16" t="n">
-        <v>-23023.88561707278</v>
+        <v>114415.8073350733</v>
       </c>
     </row>
     <row r="17">
@@ -5895,16 +5895,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>-39547.59943075424</v>
+        <v>47671.59567424408</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>23510.85845561064</v>
+        <v>16331.52345221066</v>
       </c>
       <c r="E17" t="n">
-        <v>-16036.7409751436</v>
+        <v>64003.11912645474</v>
       </c>
     </row>
     <row r="18">
@@ -5912,16 +5912,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>-21571.41787132049</v>
+        <v>7945.265945707321</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>13508.65121500779</v>
+        <v>6584.769368062174</v>
       </c>
       <c r="E18" t="n">
-        <v>-8062.766656312695</v>
+        <v>14530.03531376949</v>
       </c>
     </row>
     <row r="19">
@@ -5929,16 +5929,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>-3595.236311886737</v>
+        <v>-31781.06378282943</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>4462.440230005383</v>
+        <v>-2250.577584856389</v>
       </c>
       <c r="E19" t="n">
-        <v>867.2039181186451</v>
+        <v>-34031.64136768581</v>
       </c>
     </row>
     <row r="20">
@@ -5946,16 +5946,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>14380.94524754702</v>
+        <v>-71507.39351136619</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-3673.874649082539</v>
+        <v>-10217.01948298953</v>
       </c>
       <c r="E20" t="n">
-        <v>10707.07059846448</v>
+        <v>-81724.41299435572</v>
       </c>
     </row>
     <row r="21">
@@ -5963,16 +5963,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>32357.12680698076</v>
+        <v>-111233.7232399029</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-10956.46956403257</v>
+        <v>-17366.58125923464</v>
       </c>
       <c r="E21" t="n">
-        <v>21400.65724294819</v>
+        <v>-128600.3044991376</v>
       </c>
     </row>
     <row r="22">
@@ -5980,16 +5980,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>50333.30836641452</v>
+        <v>-150960.0529684397</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-17447.42280546244</v>
+        <v>-23756.95710260683</v>
       </c>
       <c r="E22" t="n">
-        <v>32885.88556095207</v>
+        <v>-174717.0100710465</v>
       </c>
     </row>
     <row r="23">
@@ -5997,16 +5997,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>68309.48992584826</v>
+        <v>-190686.3826969764</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-23211.4616180905</v>
+        <v>-29448.49650376265</v>
       </c>
       <c r="E23" t="n">
-        <v>45098.02830775776</v>
+        <v>-220134.8792007391</v>
       </c>
     </row>
     <row r="24">
@@ -6014,16 +6014,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>86285.67148528202</v>
+        <v>-230412.7124255132</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-28313.50723846378</v>
+        <v>-34501.91870094786</v>
       </c>
       <c r="E24" t="n">
-        <v>57972.16424681823</v>
+        <v>-264914.6311264611</v>
       </c>
     </row>
     <row r="25">
@@ -6031,16 +6031,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>104261.8530447158</v>
+        <v>-270139.04215405</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-32816.88905509111</v>
+        <v>-38976.63876858674</v>
       </c>
       <c r="E25" t="n">
-        <v>71444.96398962467</v>
+        <v>-309115.6809226367</v>
       </c>
     </row>
     <row r="26">
@@ -6048,16 +6048,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>122238.0346041495</v>
+        <v>-309865.3718825867</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-36782.10399774231</v>
+        <v>-42929.59347167157</v>
       </c>
       <c r="E26" t="n">
-        <v>85455.93060640723</v>
+        <v>-352794.9653542583</v>
       </c>
     </row>
     <row r="27">
@@ -6065,16 +6065,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>140214.2161635833</v>
+        <v>-349591.7016111235</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-40266.0090453882</v>
+        <v>-46414.46561335462</v>
       </c>
       <c r="E27" t="n">
-        <v>99948.20711819507</v>
+        <v>-396006.1672244781</v>
       </c>
     </row>
     <row r="28">
@@ -6082,16 +6082,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>158190.397723017</v>
+        <v>-389318.0313396602</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-43321.34949123023</v>
+        <v>-49481.2187902822</v>
       </c>
       <c r="E28" t="n">
-        <v>114869.0482317868</v>
+        <v>-438799.2501299424</v>
       </c>
     </row>
     <row r="29">
@@ -6099,16 +6099,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>176166.5792824508</v>
+        <v>-429044.3610681969</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-45996.54102004413</v>
+        <v>-52175.86823498942</v>
       </c>
       <c r="E29" t="n">
-        <v>130170.0382624067</v>
+        <v>-481220.2293031863</v>
       </c>
     </row>
     <row r="30">
@@ -6116,16 +6116,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>194142.7608418845</v>
+        <v>-468770.6907967337</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-48335.63836723198</v>
+        <v>-54540.42656993722</v>
       </c>
       <c r="E30" t="n">
-        <v>145807.1224746525</v>
+        <v>-523311.1173666709</v>
       </c>
     </row>
     <row r="31">
@@ -6133,16 +6133,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>212118.9424013183</v>
+        <v>-508497.0205252704</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-50378.43660591849</v>
+        <v>-56612.97517957244</v>
       </c>
       <c r="E31" t="n">
-        <v>161740.5057953998</v>
+        <v>-565109.9957048428</v>
       </c>
     </row>
     <row r="32">
@@ -6150,16 +6150,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>230095.123960752</v>
+        <v>-548223.3502538071</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-52160.66263106155</v>
+        <v>-58427.82224459316</v>
       </c>
       <c r="E32" t="n">
-        <v>177934.4613296905</v>
+        <v>-606651.1724984003</v>
       </c>
     </row>
   </sheetData>
@@ -6213,16 +6213,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-309190.3228222605</v>
+        <v>643566.5416022954</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>225782.4542824496</v>
+        <v>213346.6386063468</v>
       </c>
       <c r="E2" t="n">
-        <v>-83407.86853981094</v>
+        <v>856913.1802086422</v>
       </c>
     </row>
     <row r="3">
@@ -6230,16 +6230,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-291214.1412628267</v>
+        <v>603840.2118737586</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>220239.5427493598</v>
+        <v>207736.5931014755</v>
       </c>
       <c r="E3" t="n">
-        <v>-70974.59851346695</v>
+        <v>811576.8049752341</v>
       </c>
     </row>
     <row r="4">
@@ -6247,16 +6247,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-273237.959703393</v>
+        <v>564113.8821452218</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>212296.6032144991</v>
+        <v>199794.827155837</v>
       </c>
       <c r="E4" t="n">
-        <v>-60941.35648889391</v>
+        <v>763908.7093010588</v>
       </c>
     </row>
     <row r="5">
@@ -6264,16 +6264,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-255261.7781439593</v>
+        <v>524387.552416685</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>201866.325451311</v>
+        <v>189465.2969471698</v>
       </c>
       <c r="E5" t="n">
-        <v>-53395.45269264825</v>
+        <v>713852.8493638549</v>
       </c>
     </row>
     <row r="6">
@@ -6281,16 +6281,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>-237285.5965845255</v>
+        <v>484661.2226881483</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>189096.8424072056</v>
+        <v>176912.7108361954</v>
       </c>
       <c r="E6" t="n">
-        <v>-48188.7541773199</v>
+        <v>661573.9335243438</v>
       </c>
     </row>
     <row r="7">
@@ -6298,16 +6298,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-219309.4150250918</v>
+        <v>444934.8929596116</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>174329.7065426951</v>
+        <v>162478.5101511569</v>
       </c>
       <c r="E7" t="n">
-        <v>-44979.70848239664</v>
+        <v>607413.4031107685</v>
       </c>
     </row>
     <row r="8">
@@ -6315,16 +6315,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-201333.233465658</v>
+        <v>405208.5632310748</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>158034.685628583</v>
+        <v>146617.8719260976</v>
       </c>
       <c r="E8" t="n">
-        <v>-43298.54783707499</v>
+        <v>551826.4351571724</v>
       </c>
     </row>
     <row r="9">
@@ -6332,16 +6332,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-183357.0519062243</v>
+        <v>365482.2335025381</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>140740.694168168</v>
+        <v>129835.2037304798</v>
       </c>
       <c r="E9" t="n">
-        <v>-42616.35773805625</v>
+        <v>495317.4372330179</v>
       </c>
     </row>
     <row r="10">
@@ -6349,16 +6349,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-165380.8703467905</v>
+        <v>325755.9037740013</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>122975.9102258743</v>
+        <v>112629.411826332</v>
       </c>
       <c r="E10" t="n">
-        <v>-42404.96012091616</v>
+        <v>438385.3156003333</v>
       </c>
     </row>
     <row r="11">
@@ -6366,16 +6366,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>-147404.6887873567</v>
+        <v>286029.5740454646</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>105223.4366358581</v>
+        <v>95454.08350213793</v>
       </c>
       <c r="E11" t="n">
-        <v>-42181.25215149861</v>
+        <v>381483.6575476025</v>
       </c>
     </row>
     <row r="12">
@@ -6383,16 +6383,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>-129428.507227923</v>
+        <v>246303.2443169278</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>87893.6940794343</v>
+        <v>78693.17226374759</v>
       </c>
       <c r="E12" t="n">
-        <v>-41534.8131484887</v>
+        <v>324996.4165806754</v>
       </c>
     </row>
     <row r="13">
@@ -6400,16 +6400,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>-111452.3256684892</v>
+        <v>206576.9145883911</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>71311.57141546575</v>
+        <v>62650.09496265109</v>
       </c>
       <c r="E13" t="n">
-        <v>-40140.75425302349</v>
+        <v>269227.0095510422</v>
       </c>
     </row>
     <row r="14">
@@ -6417,16 +6417,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>-93476.1441090555</v>
+        <v>166850.5848598543</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>55714.92546039161</v>
+        <v>47547.00810216553</v>
       </c>
       <c r="E14" t="n">
-        <v>-37761.2186486639</v>
+        <v>214397.5929620199</v>
       </c>
     </row>
     <row r="15">
@@ -6434,16 +6434,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>-75499.96254962175</v>
+        <v>127124.2551313176</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>41260.77827534692</v>
+        <v>33530.91283893994</v>
       </c>
       <c r="E15" t="n">
-        <v>-34239.18427427483</v>
+        <v>160655.1679702575</v>
       </c>
     </row>
     <row r="16">
@@ -6451,16 +6451,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>-57523.780990188</v>
+        <v>87397.92540278082</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>28035.98618886901</v>
+        <v>20683.67914725255</v>
       </c>
       <c r="E16" t="n">
-        <v>-29487.79480131899</v>
+        <v>108081.6045500334</v>
       </c>
     </row>
     <row r="17">
@@ -6468,16 +6468,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>-39547.59943075424</v>
+        <v>47671.59567424408</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>16069.86297521713</v>
+        <v>9033.74199232311</v>
       </c>
       <c r="E17" t="n">
-        <v>-23477.73645553712</v>
+        <v>56705.33766656718</v>
       </c>
     </row>
     <row r="18">
@@ -6485,16 +6485,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>-21571.41787132049</v>
+        <v>7945.265945707321</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>5346.985162688674</v>
+        <v>-1432.100943528692</v>
       </c>
       <c r="E18" t="n">
-        <v>-16224.43270863182</v>
+        <v>6513.16500217863</v>
       </c>
     </row>
     <row r="19">
@@ -6502,16 +6502,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>-3595.236311886737</v>
+        <v>-31781.06378282943</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-4180.938394096088</v>
+        <v>-10757.77528032446</v>
       </c>
       <c r="E19" t="n">
-        <v>-7776.174705982825</v>
+        <v>-42538.83906315389</v>
       </c>
     </row>
     <row r="20">
@@ -6519,16 +6519,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>14380.94524754702</v>
+        <v>-71507.39351136619</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-12584.73781212693</v>
+        <v>-19008.43010576801</v>
       </c>
       <c r="E20" t="n">
-        <v>1796.207435420083</v>
+        <v>-90515.82361713419</v>
       </c>
     </row>
     <row r="21">
@@ -6536,16 +6536,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>32357.12680698076</v>
+        <v>-111233.7232399029</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-19949.23189990071</v>
+        <v>-26262.5580962817</v>
       </c>
       <c r="E21" t="n">
-        <v>12407.89490708005</v>
+        <v>-137496.2813361846</v>
       </c>
     </row>
     <row r="22">
@@ -6553,16 +6553,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>50333.30836641452</v>
+        <v>-150960.0529684397</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-26366.45221864209</v>
+        <v>-32605.72853292624</v>
       </c>
       <c r="E22" t="n">
-        <v>23966.85614777243</v>
+        <v>-183565.7815013659</v>
       </c>
     </row>
     <row r="23">
@@ -6570,16 +6570,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>68309.48992584826</v>
+        <v>-190686.3826969764</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-31930.4943852114</v>
+        <v>-38125.80020851517</v>
       </c>
       <c r="E23" t="n">
-        <v>36378.99554063687</v>
+        <v>-228812.1829054916</v>
       </c>
     </row>
     <row r="24">
@@ -6587,16 +6587,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>86285.67148528202</v>
+        <v>-230412.7124255132</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-36733.77785542617</v>
+        <v>-42909.41799938919</v>
       </c>
       <c r="E24" t="n">
-        <v>49551.89362985584</v>
+        <v>-273322.1304249024</v>
       </c>
     </row>
     <row r="25">
@@ -6604,16 +6604,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>104261.8530447158</v>
+        <v>-270139.04215405</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-40864.47178416192</v>
+        <v>-47039.57584132152</v>
       </c>
       <c r="E25" t="n">
-        <v>63397.38126055386</v>
+        <v>-317178.6179953715</v>
       </c>
     </row>
     <row r="26">
@@ -6621,16 +6621,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>122238.0346041495</v>
+        <v>-309865.3718825867</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-44404.85073518355</v>
+        <v>-50594.03406399336</v>
       </c>
       <c r="E26" t="n">
-        <v>77833.18386896598</v>
+        <v>-360459.4059465801</v>
       </c>
     </row>
     <row r="27">
@@ -6638,16 +6638,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>140214.2161635833</v>
+        <v>-349591.7016111235</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-47430.36678201332</v>
+        <v>-53644.39893421838</v>
       </c>
       <c r="E27" t="n">
-        <v>92783.84938156995</v>
+        <v>-403236.1005453418</v>
       </c>
     </row>
     <row r="28">
@@ -6655,16 +6655,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>158190.397723017</v>
+        <v>-389318.0313396602</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-50009.25487205048</v>
+        <v>-56255.69893066347</v>
       </c>
       <c r="E28" t="n">
-        <v>108181.1428509665</v>
+        <v>-445573.7302703236</v>
       </c>
     </row>
     <row r="29">
@@ -6672,16 +6672,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>176166.5792824508</v>
+        <v>-429044.3610681969</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-52202.52044648496</v>
+        <v>-58486.32065166247</v>
       </c>
       <c r="E29" t="n">
-        <v>123964.0588359658</v>
+        <v>-487530.6817198594</v>
       </c>
     </row>
     <row r="30">
@@ -6689,16 +6689,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>194142.7608418845</v>
+        <v>-468770.6907967337</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-54064.18881491997</v>
+        <v>-60388.19433448635</v>
       </c>
       <c r="E30" t="n">
-        <v>140078.5720269646</v>
+        <v>-529158.88513122</v>
       </c>
     </row>
     <row r="31">
@@ -6706,16 +6706,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>212118.9424013183</v>
+        <v>-508497.0205252704</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-55641.72290479402</v>
+        <v>-62007.14315381132</v>
       </c>
       <c r="E31" t="n">
-        <v>156477.2194965243</v>
+        <v>-570504.1636790817</v>
       </c>
     </row>
     <row r="32">
@@ -6723,16 +6723,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>230095.123960752</v>
+        <v>-548223.3502538071</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-56976.53903447431</v>
+        <v>-63383.3311152962</v>
       </c>
       <c r="E32" t="n">
-        <v>173118.5849262777</v>
+        <v>-611606.6813691034</v>
       </c>
     </row>
   </sheetData>
@@ -6786,16 +6786,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-309190.3228222605</v>
+        <v>643566.5416022954</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>229752.3934152462</v>
+        <v>217389.2173689565</v>
       </c>
       <c r="E2" t="n">
-        <v>-79437.92940701434</v>
+        <v>860955.7589712519</v>
       </c>
     </row>
     <row r="3">
@@ -6803,16 +6803,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-291214.1412628267</v>
+        <v>603840.2118737586</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>225912.4864561335</v>
+        <v>213447.8019596353</v>
       </c>
       <c r="E3" t="n">
-        <v>-65301.65480669326</v>
+        <v>817288.0138333939</v>
       </c>
     </row>
     <row r="4">
@@ -6820,16 +6820,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-273237.959703393</v>
+        <v>564113.8821452218</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>219650.537783386</v>
+        <v>207120.3206272492</v>
       </c>
       <c r="E4" t="n">
-        <v>-53587.42192000709</v>
+        <v>771234.202772471</v>
       </c>
     </row>
     <row r="5">
@@ -6837,16 +6837,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-255261.7781439593</v>
+        <v>524387.552416685</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>210543.3404179752</v>
+        <v>198030.7374724279</v>
       </c>
       <c r="E5" t="n">
-        <v>-44718.43772598411</v>
+        <v>722418.2898891129</v>
       </c>
     </row>
     <row r="6">
@@ -6854,16 +6854,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>-237285.5965845255</v>
+        <v>484661.2226881483</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>198463.3526688479</v>
+        <v>186089.7235880063</v>
       </c>
       <c r="E6" t="n">
-        <v>-38822.24391567762</v>
+        <v>670750.9462761546</v>
       </c>
     </row>
     <row r="7">
@@ -6871,16 +6871,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-219309.4150250918</v>
+        <v>444934.8929596116</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>183599.0994360251</v>
+        <v>171504.8179392578</v>
       </c>
       <c r="E7" t="n">
-        <v>-35710.31558906662</v>
+        <v>616439.7108988694</v>
       </c>
     </row>
     <row r="8">
@@ -6888,16 +6888,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-201333.233465658</v>
+        <v>405208.5632310748</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>166406.8251302311</v>
+        <v>154728.8277984607</v>
       </c>
       <c r="E8" t="n">
-        <v>-34926.40833542694</v>
+        <v>559937.3910295356</v>
       </c>
     </row>
     <row r="9">
@@ -6905,16 +6905,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-183357.0519062243</v>
+        <v>365482.2335025381</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147521.0784055517</v>
+        <v>136373.4458440804</v>
       </c>
       <c r="E9" t="n">
-        <v>-35835.97350067258</v>
+        <v>501855.6793466185</v>
       </c>
     </row>
     <row r="10">
@@ -6922,16 +6922,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-165380.8703467905</v>
+        <v>325755.9037740013</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>127654.133852902</v>
+        <v>117115.422522769</v>
       </c>
       <c r="E10" t="n">
-        <v>-37726.7364938885</v>
+        <v>442871.3262967702</v>
       </c>
     </row>
     <row r="11">
@@ -6939,16 +6939,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>-147404.6887873567</v>
+        <v>286029.5740454646</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>107506.7803510789</v>
+        <v>97615.04911024863</v>
       </c>
       <c r="E11" t="n">
-        <v>-39897.90843627788</v>
+        <v>383644.6231557132</v>
       </c>
     </row>
     <row r="12">
@@ -6956,16 +6956,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>-129428.507227923</v>
+        <v>246303.2443169278</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>87702.63330353625</v>
+        <v>78457.09294477922</v>
       </c>
       <c r="E12" t="n">
-        <v>-41725.87392438675</v>
+        <v>324760.337261707</v>
       </c>
     </row>
     <row r="13">
@@ -6973,16 +6973,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>-111452.3256684892</v>
+        <v>206576.9145883911</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>68749.07460516057</v>
+        <v>60116.29092273269</v>
       </c>
       <c r="E13" t="n">
-        <v>-42703.25106332867</v>
+        <v>266693.2055111238</v>
       </c>
     </row>
     <row r="14">
@@ -6990,16 +6990,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>-93476.1441090555</v>
+        <v>166850.5848598543</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>51021.94342542928</v>
+        <v>42944.37060161728</v>
       </c>
       <c r="E14" t="n">
-        <v>-42454.20068362622</v>
+        <v>209794.9554614716</v>
       </c>
     </row>
     <row r="15">
@@ -7007,16 +7007,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>-75499.96254962175</v>
+        <v>127124.2551313176</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>34768.20753024584</v>
+        <v>27173.19100020623</v>
       </c>
       <c r="E15" t="n">
-        <v>-40731.75501937591</v>
+        <v>154297.4461315238</v>
       </c>
     </row>
     <row r="16">
@@ -7024,16 +7024,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>-57523.780990188</v>
+        <v>87397.92540278082</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>20120.25045856921</v>
+        <v>12928.21156084001</v>
       </c>
       <c r="E16" t="n">
-        <v>-37403.53053161879</v>
+        <v>100326.1369636208</v>
       </c>
     </row>
     <row r="17">
@@ -7041,16 +7041,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>-39547.59943075424</v>
+        <v>47671.59567424408</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>7116.172016432321</v>
+        <v>247.2601006899458</v>
       </c>
       <c r="E17" t="n">
-        <v>-32431.42741432192</v>
+        <v>47918.85577493403</v>
       </c>
     </row>
     <row r="18">
@@ -7058,16 +7058,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>-21571.41787132049</v>
+        <v>7945.265945707321</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-4278.154820833644</v>
+        <v>-10899.19417377839</v>
       </c>
       <c r="E18" t="n">
-        <v>-25849.57269215414</v>
+        <v>-2953.928228071071</v>
       </c>
     </row>
     <row r="19">
@@ -7075,16 +7075,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>-3595.236311886737</v>
+        <v>-31781.06378282943</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-14148.10800114182</v>
+        <v>-20588.78261449829</v>
       </c>
       <c r="E19" t="n">
-        <v>-17743.34431302856</v>
+        <v>-52369.84639732772</v>
       </c>
     </row>
     <row r="20">
@@ -7092,16 +7092,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>14380.94524754702</v>
+        <v>-71507.39351136619</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-22612.03727587145</v>
+        <v>-28930.42824743588</v>
       </c>
       <c r="E20" t="n">
-        <v>-8231.092028324436</v>
+        <v>-100437.8217588021</v>
       </c>
     </row>
     <row r="21">
@@ -7109,16 +7109,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>32357.12680698076</v>
+        <v>-111233.7232399029</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-29806.37584299728</v>
+        <v>-36050.60411119251</v>
       </c>
       <c r="E21" t="n">
-        <v>2550.750963983486</v>
+        <v>-147284.3273510954</v>
       </c>
     </row>
     <row r="22">
@@ -7126,16 +7126,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>50333.30836641452</v>
+        <v>-150960.0529684397</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-35874.21515376076</v>
+        <v>-42082.72663291486</v>
       </c>
       <c r="E22" t="n">
-        <v>14459.09321265376</v>
+        <v>-193042.7796013545</v>
       </c>
     </row>
     <row r="23">
@@ -7143,16 +7143,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>68309.48992584826</v>
+        <v>-190686.3826969764</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-40957.04532628658</v>
+        <v>-47159.42317694891</v>
       </c>
       <c r="E23" t="n">
-        <v>27352.44459956168</v>
+        <v>-237845.8058739253</v>
       </c>
     </row>
     <row r="24">
@@ -7160,16 +7160,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>86285.67148528202</v>
+        <v>-230412.7124255132</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-45189.18130550599</v>
+        <v>-51407.24929054433</v>
       </c>
       <c r="E24" t="n">
-        <v>41096.49017977602</v>
+        <v>-281819.9617160575</v>
       </c>
     </row>
     <row r="25">
@@ -7177,16 +7177,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>104261.8530447158</v>
+        <v>-270139.04215405</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-48694.33944604465</v>
+        <v>-54943.37941201257</v>
       </c>
       <c r="E25" t="n">
-        <v>55567.51359867113</v>
+        <v>-325082.4215660625</v>
       </c>
     </row>
     <row r="26">
@@ -7194,16 +7194,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>122238.0346041495</v>
+        <v>-309865.3718825867</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-51583.85098230562</v>
+        <v>-57873.81160408577</v>
       </c>
       <c r="E26" t="n">
-        <v>70654.18362184391</v>
+        <v>-367739.1834866725</v>
       </c>
     </row>
     <row r="27">
@@ -7211,16 +7211,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>140214.2161635833</v>
+        <v>-349591.7016111235</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-53956.06140676304</v>
+        <v>-60292.68033109069</v>
       </c>
       <c r="E27" t="n">
-        <v>86258.15475682024</v>
+        <v>-409884.3819422142</v>
       </c>
     </row>
     <row r="28">
@@ -7228,16 +7228,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>158190.397723017</v>
+        <v>-389318.0313396602</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-55896.54349708086</v>
+        <v>-62282.33979722868</v>
       </c>
       <c r="E28" t="n">
-        <v>102293.8542259362</v>
+        <v>-451600.3711368889</v>
       </c>
     </row>
     <row r="29">
@@ -7245,16 +7245,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>176166.5792824508</v>
+        <v>-429044.3610681969</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-57478.83144119179</v>
+        <v>-63913.95046213154</v>
       </c>
       <c r="E29" t="n">
-        <v>118687.747841259</v>
+        <v>-492958.3115303284</v>
       </c>
     </row>
     <row r="30">
@@ -7262,16 +7262,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>194142.7608418845</v>
+        <v>-468770.6907967337</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-58765.45587462113</v>
+        <v>-65248.36555591199</v>
       </c>
       <c r="E30" t="n">
-        <v>135377.3049672634</v>
+        <v>-534019.0563526456</v>
       </c>
     </row>
     <row r="31">
@@ -7279,16 +7279,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>212118.9424013183</v>
+        <v>-508497.0205252704</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-59809.1209279702</v>
+        <v>-66337.16925791364</v>
       </c>
       <c r="E31" t="n">
-        <v>152309.8214733481</v>
+        <v>-574834.189783184</v>
       </c>
     </row>
     <row r="32">
@@ -7296,16 +7296,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>230095.123960752</v>
+        <v>-548223.3502538071</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-60653.91369862774</v>
+        <v>-67223.76273193309</v>
       </c>
       <c r="E32" t="n">
-        <v>169441.2102621243</v>
+        <v>-615447.1129857402</v>
       </c>
     </row>
   </sheetData>

--- a/RGGI PnL Output.xlsx
+++ b/RGGI PnL Output.xlsx
@@ -483,16 +483,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>643566.5416022954</v>
+        <v>658526.8745852688</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>218092.5540222069</v>
+        <v>222232.3820514142</v>
       </c>
       <c r="E2" t="n">
-        <v>861659.0956245023</v>
+        <v>880759.256636683</v>
       </c>
     </row>
     <row r="3">
@@ -500,16 +500,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>603840.2118737586</v>
+        <v>618712.6741871267</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>214522.0865805092</v>
+        <v>218654.0170927032</v>
       </c>
       <c r="E3" t="n">
-        <v>818362.2984542678</v>
+        <v>837366.6912798299</v>
       </c>
     </row>
     <row r="4">
@@ -517,16 +517,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>564113.8821452218</v>
+        <v>578898.4737889847</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>208596.0047893485</v>
+        <v>212714.8274010976</v>
       </c>
       <c r="E4" t="n">
-        <v>772709.8869345703</v>
+        <v>791613.3011900823</v>
       </c>
     </row>
     <row r="5">
@@ -534,16 +534,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>524387.552416685</v>
+        <v>539084.2733908427</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>199855.9382926385</v>
+        <v>203955.4287511102</v>
       </c>
       <c r="E5" t="n">
-        <v>724243.4907093236</v>
+        <v>743039.7021419529</v>
       </c>
     </row>
     <row r="6">
@@ -551,16 +551,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>484661.2226881483</v>
+        <v>499270.0729927007</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>188134.3112512931</v>
+        <v>192207.8746426528</v>
       </c>
       <c r="E6" t="n">
-        <v>672795.5339394414</v>
+        <v>691477.9476353535</v>
       </c>
     </row>
     <row r="7">
@@ -568,16 +568,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>444934.8929596116</v>
+        <v>459455.8725945587</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>173586.2307686101</v>
+        <v>177627.6152604284</v>
       </c>
       <c r="E7" t="n">
-        <v>618521.1237282217</v>
+        <v>637083.4878549872</v>
       </c>
     </row>
     <row r="8">
@@ -585,16 +585,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>405208.5632310748</v>
+        <v>419641.6721964167</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>156648.0876756647</v>
+        <v>160652.006688401</v>
       </c>
       <c r="E8" t="n">
-        <v>561856.6509067395</v>
+        <v>580293.6788848178</v>
       </c>
     </row>
     <row r="9">
@@ -602,16 +602,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>365482.2335025381</v>
+        <v>379827.4717982747</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>137949.6054069862</v>
+        <v>141912.1652463788</v>
       </c>
       <c r="E9" t="n">
-        <v>503431.8389095243</v>
+        <v>521739.6370446535</v>
       </c>
     </row>
     <row r="10">
@@ -619,16 +619,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>325755.9037740013</v>
+        <v>340013.2714001327</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>118210.5732481258</v>
+        <v>122129.4723218497</v>
       </c>
       <c r="E10" t="n">
-        <v>443966.4770221271</v>
+        <v>462142.7437219824</v>
       </c>
     </row>
     <row r="11">
@@ -636,16 +636,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>286029.5740454646</v>
+        <v>300199.0710019906</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>98146.93260583871</v>
+        <v>102021.4529123821</v>
       </c>
       <c r="E11" t="n">
-        <v>384176.5066513033</v>
+        <v>402220.5239143728</v>
       </c>
     </row>
     <row r="12">
@@ -653,16 +653,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>246303.2443169278</v>
+        <v>260384.8706038487</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>78400.24830070023</v>
+        <v>82231.09091579233</v>
       </c>
       <c r="E12" t="n">
-        <v>324703.492617628</v>
+        <v>342615.961519641</v>
       </c>
     </row>
     <row r="13">
@@ -670,16 +670,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>206576.9145883911</v>
+        <v>220570.6702057066</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>59494.82240623476</v>
+        <v>63283.84810937272</v>
       </c>
       <c r="E13" t="n">
-        <v>266071.7369946258</v>
+        <v>283854.5183150794</v>
       </c>
     </row>
     <row r="14">
@@ -687,16 +687,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>166850.5848598543</v>
+        <v>180756.4698075647</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>41820.00599825056</v>
+        <v>45569.93677458476</v>
       </c>
       <c r="E14" t="n">
-        <v>208670.5908581049</v>
+        <v>226326.4065821494</v>
       </c>
     </row>
     <row r="15">
@@ -704,16 +704,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>127124.2551313176</v>
+        <v>140942.2694094226</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>25631.8638245051</v>
+        <v>29345.98804880713</v>
       </c>
       <c r="E15" t="n">
-        <v>152756.1189558227</v>
+        <v>170288.2574582298</v>
       </c>
     </row>
     <row r="16">
@@ -721,16 +721,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>87397.92540278082</v>
+        <v>101128.0690112806</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>11067.49411356249</v>
+        <v>14749.40340817873</v>
       </c>
       <c r="E16" t="n">
-        <v>98465.4195163433</v>
+        <v>115877.4724194594</v>
       </c>
     </row>
     <row r="17">
@@ -738,16 +738,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>47671.59567424408</v>
+        <v>61313.86861313865</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-1833.997833021245</v>
+        <v>1819.374651272978</v>
       </c>
       <c r="E17" t="n">
-        <v>45837.59784122283</v>
+        <v>63133.24326441163</v>
       </c>
     </row>
     <row r="18">
@@ -755,16 +755,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>7945.265945707321</v>
+        <v>21499.66821499665</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-13108.47973974168</v>
+        <v>-9480.045282226316</v>
       </c>
       <c r="E18" t="n">
-        <v>-5163.213794034359</v>
+        <v>12019.62293277033</v>
       </c>
     </row>
     <row r="19">
@@ -772,16 +772,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>-31781.06378282943</v>
+        <v>-18314.53218314535</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-22844.81834987342</v>
+        <v>-19237.91969994516</v>
       </c>
       <c r="E19" t="n">
-        <v>-54625.88213270285</v>
+        <v>-37552.45188309051</v>
       </c>
     </row>
     <row r="20">
@@ -789,16 +789,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>-71507.39351136619</v>
+        <v>-58128.73258128735</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-31165.72190010386</v>
+        <v>-27577.2282569224</v>
       </c>
       <c r="E20" t="n">
-        <v>-102673.11541147</v>
+        <v>-85705.96083820975</v>
       </c>
     </row>
     <row r="21">
@@ -806,16 +806,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>-111233.7232399029</v>
+        <v>-97942.93297942937</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-38212.165533621</v>
+        <v>-34639.25791926838</v>
       </c>
       <c r="E21" t="n">
-        <v>-149445.8887735239</v>
+        <v>-132582.1908986978</v>
       </c>
     </row>
     <row r="22">
@@ -823,16 +823,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>-150960.0529684397</v>
+        <v>-137757.1333775714</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-44131.48688970658</v>
+        <v>-40571.67222239241</v>
       </c>
       <c r="E22" t="n">
-        <v>-195091.5398581463</v>
+        <v>-178328.8055999638</v>
       </c>
     </row>
     <row r="23">
@@ -840,16 +840,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>-190686.3826969764</v>
+        <v>-177571.3337757134</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-49068.83468750656</v>
+        <v>-45519.94093989557</v>
       </c>
       <c r="E23" t="n">
-        <v>-239755.217384483</v>
+        <v>-223091.2747156089</v>
       </c>
     </row>
     <row r="24">
@@ -857,16 +857,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>-230412.7124255132</v>
+        <v>-217385.5341738554</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-53161.45440500776</v>
+        <v>-49621.61312304041</v>
       </c>
       <c r="E24" t="n">
-        <v>-283574.166830521</v>
+        <v>-267007.1472968958</v>
       </c>
     </row>
     <row r="25">
@@ -874,16 +874,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>-270139.04215405</v>
+        <v>-257199.7345719974</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-56535.23551114908</v>
+        <v>-53002.85669568503</v>
       </c>
       <c r="E25" t="n">
-        <v>-326674.277665199</v>
+        <v>-310202.5912676824</v>
       </c>
     </row>
     <row r="26">
@@ -891,16 +891,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>-309865.3718825867</v>
+        <v>-297013.9349701394</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-59302.96951266014</v>
+        <v>-55776.71264809524</v>
       </c>
       <c r="E26" t="n">
-        <v>-369168.3413952468</v>
+        <v>-352790.6476182346</v>
       </c>
     </row>
     <row r="27">
@@ -908,16 +908,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>-349591.7016111235</v>
+        <v>-336828.1353682814</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-61563.83710345299</v>
+        <v>-58042.5810519622</v>
       </c>
       <c r="E27" t="n">
-        <v>-411155.5387145765</v>
+        <v>-394870.7164202436</v>
       </c>
     </row>
     <row r="28">
@@ -925,16 +925,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>-389318.0313396602</v>
+        <v>-376642.3357664234</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-63403.72888206297</v>
+        <v>-59886.54248723797</v>
       </c>
       <c r="E28" t="n">
-        <v>-452721.7602217231</v>
+        <v>-436528.8782536613</v>
       </c>
     </row>
     <row r="29">
@@ -942,16 +942,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>-429044.3610681969</v>
+        <v>-416456.5361645654</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-64896.09082999617</v>
+        <v>-61382.20539059682</v>
       </c>
       <c r="E29" t="n">
-        <v>-493940.451898193</v>
+        <v>-477838.7415551622</v>
       </c>
     </row>
     <row r="30">
@@ -959,16 +959,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>-468770.6907967337</v>
+        <v>-456270.7365627073</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-66103.06400185</v>
+        <v>-62591.84826643617</v>
       </c>
       <c r="E30" t="n">
-        <v>-534873.7547985837</v>
+        <v>-518862.5848291435</v>
       </c>
     </row>
     <row r="31">
@@ -976,16 +976,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>-508497.0205252704</v>
+        <v>-496084.9369608493</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-67076.75371795784</v>
+        <v>-63567.69168684861</v>
       </c>
       <c r="E31" t="n">
-        <v>-575573.7742432283</v>
+        <v>-559652.628647698</v>
       </c>
     </row>
     <row r="32">
@@ -993,16 +993,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>-548223.3502538071</v>
+        <v>-535899.1373589913</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-67860.51614716052</v>
+        <v>-64353.18772018579</v>
       </c>
       <c r="E32" t="n">
-        <v>-616083.8664009677</v>
+        <v>-600252.3250791772</v>
       </c>
     </row>
   </sheetData>
@@ -1056,16 +1056,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>643566.5416022954</v>
+        <v>658526.8745852688</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>221462.42451044</v>
+        <v>225609.7063562546</v>
       </c>
       <c r="E2" t="n">
-        <v>865028.9661127353</v>
+        <v>884136.5809415234</v>
       </c>
     </row>
     <row r="3">
@@ -1073,16 +1073,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>603840.2118737586</v>
+        <v>618712.6741871267</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>220306.6916283236</v>
+        <v>224451.4171085509</v>
       </c>
       <c r="E3" t="n">
-        <v>824146.9035020822</v>
+        <v>843164.0912956776</v>
       </c>
     </row>
     <row r="4">
@@ -1090,16 +1090,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>564113.8821452218</v>
+        <v>578898.4737889847</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>217576.3525522918</v>
+        <v>221715.0387954565</v>
       </c>
       <c r="E4" t="n">
-        <v>781690.2346975136</v>
+        <v>800613.5125844411</v>
       </c>
     </row>
     <row r="5">
@@ -1107,16 +1107,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>524387.552416685</v>
+        <v>539084.2733908427</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>212252.8418948517</v>
+        <v>216379.7530646753</v>
       </c>
       <c r="E5" t="n">
-        <v>736640.3943115368</v>
+        <v>755464.0264555181</v>
       </c>
     </row>
     <row r="6">
@@ -1124,16 +1124,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>484661.2226881483</v>
+        <v>499270.0729927007</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>203362.6253849551</v>
+        <v>207469.8722846839</v>
       </c>
       <c r="E6" t="n">
-        <v>688023.8480731035</v>
+        <v>706739.9452773846</v>
       </c>
     </row>
     <row r="7">
@@ -1141,16 +1141,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>444934.8929596116</v>
+        <v>459455.8725945587</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>190282.4319101509</v>
+        <v>194360.7467296434</v>
       </c>
       <c r="E7" t="n">
-        <v>635217.3248697624</v>
+        <v>653816.6193242022</v>
       </c>
     </row>
     <row r="8">
@@ -1158,16 +1158,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>405208.5632310748</v>
+        <v>419641.6721964167</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>172952.5814442241</v>
+        <v>176992.5643670878</v>
       </c>
       <c r="E8" t="n">
-        <v>578161.1446752989</v>
+        <v>596634.2365635046</v>
       </c>
     </row>
     <row r="9">
@@ -1175,16 +1175,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>365482.2335025381</v>
+        <v>379827.4717982747</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>151918.5041344385</v>
+        <v>155911.9617812354</v>
       </c>
       <c r="E9" t="n">
-        <v>517400.7376369766</v>
+        <v>535739.4335795101</v>
       </c>
     </row>
     <row r="10">
@@ -1192,16 +1192,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>325755.9037740013</v>
+        <v>340013.2714001327</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>128206.8201569273</v>
+        <v>132147.8299294099</v>
       </c>
       <c r="E10" t="n">
-        <v>453962.7239309286</v>
+        <v>472161.1013295426</v>
       </c>
     </row>
     <row r="11">
@@ -1209,16 +1209,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>286029.5740454646</v>
+        <v>300199.0710019906</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>103103.4623751004</v>
+        <v>106988.94602995</v>
       </c>
       <c r="E11" t="n">
-        <v>389133.0364205649</v>
+        <v>407188.0170319406</v>
       </c>
     </row>
     <row r="12">
@@ -1226,16 +1226,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>246303.2443169278</v>
+        <v>260384.8706038487</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>77916.66335473195</v>
+        <v>81746.43632827135</v>
       </c>
       <c r="E12" t="n">
-        <v>324219.9076716597</v>
+        <v>342131.30693212</v>
       </c>
     </row>
     <row r="13">
@@ -1243,16 +1243,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>206576.9145883911</v>
+        <v>220570.6702057066</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>53787.55957825793</v>
+        <v>57563.96138662045</v>
       </c>
       <c r="E13" t="n">
-        <v>260364.474166649</v>
+        <v>278134.6315923271</v>
       </c>
     </row>
     <row r="14">
@@ -1260,16 +1260,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>166850.5848598543</v>
+        <v>180756.4698075647</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>31577.50594022045</v>
+        <v>35304.78133044974</v>
       </c>
       <c r="E14" t="n">
-        <v>198428.0908000748</v>
+        <v>216061.2511380144</v>
       </c>
     </row>
     <row r="15">
@@ -1277,16 +1277,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>127124.2551313176</v>
+        <v>140942.2694094226</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>11831.56242430152</v>
+        <v>15515.16176163118</v>
       </c>
       <c r="E15" t="n">
-        <v>138955.8175556191</v>
+        <v>156457.4311710538</v>
       </c>
     </row>
     <row r="16">
@@ -1294,16 +1294,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>87397.92540278082</v>
+        <v>101128.0690112806</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-5200.038579153799</v>
+        <v>-1554.111440460401</v>
       </c>
       <c r="E16" t="n">
-        <v>82197.88682362702</v>
+        <v>99573.95757082025</v>
       </c>
     </row>
     <row r="17">
@@ -1311,16 +1311,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>47671.59567424408</v>
+        <v>61313.86861313865</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-19506.29897074295</v>
+        <v>-15892.01584972615</v>
       </c>
       <c r="E17" t="n">
-        <v>28165.29670350112</v>
+        <v>45421.85276341251</v>
       </c>
     </row>
     <row r="18">
@@ -1328,16 +1328,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>7945.265945707321</v>
+        <v>21499.66821499665</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-31247.1230842663</v>
+        <v>-27658.80949236588</v>
       </c>
       <c r="E18" t="n">
-        <v>-23301.85713855898</v>
+        <v>-6159.141277369235</v>
       </c>
     </row>
     <row r="19">
@@ -1345,16 +1345,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>-31781.06378282943</v>
+        <v>-18314.53218314535</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-40687.44256470772</v>
+        <v>-37120.01001567492</v>
       </c>
       <c r="E19" t="n">
-        <v>-72468.50634753716</v>
+        <v>-55434.54219882028</v>
       </c>
     </row>
     <row r="20">
@@ -1362,16 +1362,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>-71507.39351136619</v>
+        <v>-58128.73258128735</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-48142.33756209279</v>
+        <v>-44591.3944954696</v>
       </c>
       <c r="E20" t="n">
-        <v>-119649.731073459</v>
+        <v>-102720.127076757</v>
       </c>
     </row>
     <row r="21">
@@ -1379,16 +1379,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>-111233.7232399029</v>
+        <v>-97942.93297942937</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-53936.32207436674</v>
+        <v>-50398.19472221439</v>
       </c>
       <c r="E21" t="n">
-        <v>-165170.0453142697</v>
+        <v>-148341.1277016438</v>
       </c>
     </row>
     <row r="22">
@@ -1396,16 +1396,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>-150960.0529684397</v>
+        <v>-137757.1333775714</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-58376.42031812137</v>
+        <v>-54848.1140193726</v>
       </c>
       <c r="E22" t="n">
-        <v>-209336.473286561</v>
+        <v>-192605.247396944</v>
       </c>
     </row>
     <row r="23">
@@ -1413,16 +1413,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>-190686.3826969764</v>
+        <v>-177571.3337757134</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-61736.79211594885</v>
+        <v>-58215.918623654</v>
       </c>
       <c r="E23" t="n">
-        <v>-252423.1748129253</v>
+        <v>-235787.2523993674</v>
       </c>
     </row>
     <row r="24">
@@ -1430,16 +1430,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>-230412.7124255132</v>
+        <v>-217385.5341738554</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-64252.02083620679</v>
+        <v>-60736.71077837394</v>
       </c>
       <c r="E24" t="n">
-        <v>-294664.73326172</v>
+        <v>-278122.2449522293</v>
       </c>
     </row>
     <row r="25">
@@ -1447,16 +1447,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>-270139.04215405</v>
+        <v>-257199.7345719974</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-66116.28157060221</v>
+        <v>-62605.09507112898</v>
       </c>
       <c r="E25" t="n">
-        <v>-336255.3237246522</v>
+        <v>-319804.8296431263</v>
       </c>
     </row>
     <row r="26">
@@ -1464,16 +1464,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>-309865.3718825867</v>
+        <v>-297013.9349701394</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-67486.07820110623</v>
+        <v>-63977.92155483033</v>
       </c>
       <c r="E26" t="n">
-        <v>-377351.4500836929</v>
+        <v>-360991.8565249697</v>
       </c>
     </row>
     <row r="27">
@@ -1481,16 +1481,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>-349591.7016111235</v>
+        <v>-336828.1353682814</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-68484.819571</v>
+        <v>-64978.87204078225</v>
       </c>
       <c r="E27" t="n">
-        <v>-418076.5211821235</v>
+        <v>-401807.0074090636</v>
       </c>
     </row>
     <row r="28">
@@ -1498,16 +1498,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>-389318.0313396602</v>
+        <v>-376642.3357664234</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-69208.05175600851</v>
+        <v>-65703.70394307681</v>
       </c>
       <c r="E28" t="n">
-        <v>-458526.0830956687</v>
+        <v>-442346.0397095002</v>
       </c>
     </row>
     <row r="29">
@@ -1515,16 +1515,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>-429044.3610681969</v>
+        <v>-416456.5361645654</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-69728.6101612585</v>
+        <v>-66225.41377147488</v>
       </c>
       <c r="E29" t="n">
-        <v>-498772.9712294554</v>
+        <v>-482681.9499360402</v>
       </c>
     </row>
     <row r="30">
@@ -1532,16 +1532,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>-468770.6907967337</v>
+        <v>-456270.7365627073</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-70101.28626578455</v>
+        <v>-66598.91419828478</v>
       </c>
       <c r="E30" t="n">
-        <v>-538871.9770625182</v>
+        <v>-522869.6507609921</v>
       </c>
     </row>
     <row r="31">
@@ -1549,16 +1549,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>-508497.0205252704</v>
+        <v>-496084.9369608493</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-70366.8298487688</v>
+        <v>-66865.04513712612</v>
       </c>
       <c r="E31" t="n">
-        <v>-578863.8503740391</v>
+        <v>-562949.9820979754</v>
       </c>
     </row>
     <row r="32">
@@ -1566,16 +1566,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>-548223.3502538071</v>
+        <v>-535899.1373589913</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-70555.24953732436</v>
+        <v>-67053.88159119492</v>
       </c>
       <c r="E32" t="n">
-        <v>-618778.5997911314</v>
+        <v>-602953.0189501862</v>
       </c>
     </row>
   </sheetData>
@@ -1629,16 +1629,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>643566.5416022954</v>
+        <v>658526.8745852688</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>222810.9038698138</v>
+        <v>226961.1684171534</v>
       </c>
       <c r="E2" t="n">
-        <v>866377.4454721091</v>
+        <v>885488.0430024222</v>
       </c>
     </row>
     <row r="3">
@@ -1646,16 +1646,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>603840.2118737586</v>
+        <v>618712.6741871267</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>222803.705846147</v>
+        <v>226953.9544721778</v>
       </c>
       <c r="E3" t="n">
-        <v>826643.9177199056</v>
+        <v>845666.6286593045</v>
       </c>
     </row>
     <row r="4">
@@ -1663,16 +1663,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>564113.8821452218</v>
+        <v>578898.4737889847</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>222730.3179020536</v>
+        <v>226880.4042012893</v>
       </c>
       <c r="E4" t="n">
-        <v>786844.2000472755</v>
+        <v>805778.877990274</v>
       </c>
     </row>
     <row r="5">
@@ -1680,16 +1680,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>524387.552416685</v>
+        <v>539084.2733908427</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>222282.5717750298</v>
+        <v>226431.6677045972</v>
       </c>
       <c r="E5" t="n">
-        <v>746670.1241917148</v>
+        <v>765515.94109544</v>
       </c>
     </row>
     <row r="6">
@@ -1697,16 +1697,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>484661.2226881483</v>
+        <v>499270.0729927007</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>220472.5559538187</v>
+        <v>224617.6483093512</v>
       </c>
       <c r="E6" t="n">
-        <v>705133.778641967</v>
+        <v>723887.7213020519</v>
       </c>
     </row>
     <row r="7">
@@ -1714,16 +1714,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>444934.8929596116</v>
+        <v>459455.8725945587</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>215230.0323071586</v>
+        <v>219363.5287245211</v>
       </c>
       <c r="E7" t="n">
-        <v>660164.9252667702</v>
+        <v>678819.4013190798</v>
       </c>
     </row>
     <row r="8">
@@ -1731,16 +1731,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>405208.5632310748</v>
+        <v>419641.6721964167</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>203670.029663072</v>
+        <v>207777.9565103304</v>
       </c>
       <c r="E8" t="n">
-        <v>608878.5928941468</v>
+        <v>627419.6287067471</v>
       </c>
     </row>
     <row r="9">
@@ -1748,16 +1748,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>365482.2335025381</v>
+        <v>379827.4717982747</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>183324.7788539628</v>
+        <v>187387.7040405064</v>
       </c>
       <c r="E9" t="n">
-        <v>548807.0123565008</v>
+        <v>567215.1758387811</v>
       </c>
     </row>
     <row r="10">
@@ -1765,16 +1765,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>325755.9037740013</v>
+        <v>340013.2714001327</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>153672.7048258671</v>
+        <v>157670.0425892122</v>
       </c>
       <c r="E10" t="n">
-        <v>479428.6085998684</v>
+        <v>497683.3139893449</v>
       </c>
     </row>
     <row r="11">
@@ -1782,16 +1782,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>286029.5740454646</v>
+        <v>300199.0710019906</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>116841.2745480015</v>
+        <v>120757.1448699003</v>
       </c>
       <c r="E11" t="n">
-        <v>402870.848593466</v>
+        <v>420956.2158718909</v>
       </c>
     </row>
     <row r="12">
@@ -1799,16 +1799,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>246303.2443169278</v>
+        <v>260384.8706038487</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>76961.48132856368</v>
+        <v>80789.1415349583</v>
       </c>
       <c r="E12" t="n">
-        <v>323264.7256454915</v>
+        <v>341174.012138807</v>
       </c>
     </row>
     <row r="13">
@@ -1816,16 +1816,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>206576.9145883911</v>
+        <v>220570.6702057066</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>38639.44093943509</v>
+        <v>42382.33662384535</v>
       </c>
       <c r="E13" t="n">
-        <v>245216.3555278261</v>
+        <v>262953.006829552</v>
       </c>
     </row>
     <row r="14">
@@ -1833,16 +1833,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>166850.5848598543</v>
+        <v>180756.4698075647</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>5479.096648994899</v>
+        <v>9148.644967135664</v>
       </c>
       <c r="E14" t="n">
-        <v>172329.6815088492</v>
+        <v>189905.1147747003</v>
       </c>
     </row>
     <row r="15">
@@ -1850,16 +1850,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>127124.2551313176</v>
+        <v>140942.2694094226</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-20672.39340008931</v>
+        <v>-17060.68956336658</v>
       </c>
       <c r="E15" t="n">
-        <v>106451.8617312283</v>
+        <v>123881.5798460561</v>
       </c>
     </row>
     <row r="16">
@@ -1867,16 +1867,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>87397.92540278082</v>
+        <v>101128.0690112806</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-39661.90326617978</v>
+        <v>-36092.20232674987</v>
       </c>
       <c r="E16" t="n">
-        <v>47736.02213660104</v>
+        <v>65035.86668453077</v>
       </c>
     </row>
     <row r="17">
@@ -1884,16 +1884,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>47671.59567424408</v>
+        <v>61313.86861313865</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-52470.37651844494</v>
+        <v>-48929.00664128503</v>
       </c>
       <c r="E17" t="n">
-        <v>-4798.780844200868</v>
+        <v>12384.86197185362</v>
       </c>
     </row>
     <row r="18">
@@ -1901,16 +1901,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>7945.265945707321</v>
+        <v>21499.66821499665</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-60557.5579412505</v>
+        <v>-57034.07610085858</v>
       </c>
       <c r="E18" t="n">
-        <v>-52612.29199554318</v>
+        <v>-35534.40788586193</v>
       </c>
     </row>
     <row r="19">
@@ -1918,16 +1918,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>-31781.06378282943</v>
+        <v>-18314.53218314535</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-65370.10524450219</v>
+        <v>-61857.26827759676</v>
       </c>
       <c r="E19" t="n">
-        <v>-97151.16902733161</v>
+        <v>-80171.80046074212</v>
       </c>
     </row>
     <row r="20">
@@ -1935,16 +1935,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>-71507.39351136619</v>
+        <v>-58128.73258128735</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-68085.70905367816</v>
+        <v>-64578.87873089834</v>
       </c>
       <c r="E20" t="n">
-        <v>-139593.1025650444</v>
+        <v>-122707.6113121857</v>
       </c>
     </row>
     <row r="21">
@@ -1952,16 +1952,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>-111233.7232399029</v>
+        <v>-97942.93297942937</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-69546.62828308577</v>
+        <v>-66043.02936758177</v>
       </c>
       <c r="E21" t="n">
-        <v>-180780.3515229887</v>
+        <v>-163985.9623470111</v>
       </c>
     </row>
     <row r="22">
@@ -1969,16 +1969,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>-150960.0529684397</v>
+        <v>-137757.1333775714</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-70299.57417225547</v>
+        <v>-66797.64069778036</v>
       </c>
       <c r="E22" t="n">
-        <v>-221259.6271406951</v>
+        <v>-204554.7740753517</v>
       </c>
     </row>
     <row r="23">
@@ -1986,16 +1986,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>-190686.3826969764</v>
+        <v>-177571.3337757134</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-70672.97195445694</v>
+        <v>-67171.86439854454</v>
       </c>
       <c r="E23" t="n">
-        <v>-261359.3546514334</v>
+        <v>-244743.1981742579</v>
       </c>
     </row>
     <row r="24">
@@ -2003,16 +2003,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>-230412.7124255132</v>
+        <v>-217385.5341738554</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-70851.84722991934</v>
+        <v>-67351.1353282327</v>
       </c>
       <c r="E24" t="n">
-        <v>-301264.5596554325</v>
+        <v>-284736.6695020881</v>
       </c>
     </row>
     <row r="25">
@@ -2020,16 +2020,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>-270139.04215405</v>
+        <v>-257199.7345719974</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-70934.91419174951</v>
+        <v>-67434.38602587761</v>
       </c>
       <c r="E25" t="n">
-        <v>-341073.9563457995</v>
+        <v>-324634.120597875</v>
       </c>
     </row>
     <row r="26">
@@ -2037,16 +2037,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>-309865.3718825867</v>
+        <v>-297013.9349701394</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-70972.42718227484</v>
+        <v>-67471.98199138753</v>
       </c>
       <c r="E26" t="n">
-        <v>-380837.7990648615</v>
+        <v>-364485.916961527</v>
       </c>
     </row>
     <row r="27">
@@ -2054,16 +2054,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>-349591.7016111235</v>
+        <v>-336828.1353682814</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-70988.94869489883</v>
+        <v>-67488.54004794564</v>
       </c>
       <c r="E27" t="n">
-        <v>-420580.6503060223</v>
+        <v>-404316.675416227</v>
       </c>
     </row>
     <row r="28">
@@ -2071,16 +2071,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>-389318.0313396602</v>
+        <v>-376642.3357664234</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-70996.06328920514</v>
+        <v>-67495.67037902324</v>
       </c>
       <c r="E28" t="n">
-        <v>-460314.0946288653</v>
+        <v>-444138.0061454466</v>
       </c>
     </row>
     <row r="29">
@@ -2088,16 +2088,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>-429044.3610681969</v>
+        <v>-416456.5361645654</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-70999.0658454378</v>
+        <v>-67498.67957661008</v>
       </c>
       <c r="E29" t="n">
-        <v>-500043.4269136347</v>
+        <v>-483955.2157411755</v>
       </c>
     </row>
     <row r="30">
@@ -2105,16 +2105,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>-468770.6907967337</v>
+        <v>-456270.7365627073</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-71000.31031370957</v>
+        <v>-67499.92679752127</v>
       </c>
       <c r="E30" t="n">
-        <v>-539771.0011104433</v>
+        <v>-523770.6633602286</v>
       </c>
     </row>
     <row r="31">
@@ -2122,16 +2122,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>-508497.0205252704</v>
+        <v>-496084.9369608493</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-71000.81783230536</v>
+        <v>-67500.43543869746</v>
       </c>
       <c r="E31" t="n">
-        <v>-579497.8383575757</v>
+        <v>-563585.3723995468</v>
       </c>
     </row>
     <row r="32">
@@ -2139,16 +2139,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>-548223.3502538071</v>
+        <v>-535899.1373589913</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-71001.02183750365</v>
+        <v>-67500.63989513482</v>
       </c>
       <c r="E32" t="n">
-        <v>-619224.3720913108</v>
+        <v>-603399.7772541262</v>
       </c>
     </row>
   </sheetData>
@@ -2202,16 +2202,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>643566.5416022954</v>
+        <v>658526.8745852688</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>223239.3916958646</v>
+        <v>227390.6040154361</v>
       </c>
       <c r="E2" t="n">
-        <v>866805.93329816</v>
+        <v>885917.4786007049</v>
       </c>
     </row>
     <row r="3">
@@ -2219,16 +2219,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>603840.2118737586</v>
+        <v>618712.6741871267</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>223239.3916958646</v>
+        <v>227390.6040154361</v>
       </c>
       <c r="E3" t="n">
-        <v>827079.6035696232</v>
+        <v>846103.2782025628</v>
       </c>
     </row>
     <row r="4">
@@ -2236,16 +2236,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>564113.8821452218</v>
+        <v>578898.4737889847</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>223239.3916958646</v>
+        <v>227390.6040154361</v>
       </c>
       <c r="E4" t="n">
-        <v>787353.2738410864</v>
+        <v>806289.0778044208</v>
       </c>
     </row>
     <row r="5">
@@ -2253,16 +2253,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>524387.552416685</v>
+        <v>539084.2733908427</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>223239.3916958646</v>
+        <v>227390.604015436</v>
       </c>
       <c r="E5" t="n">
-        <v>747626.9441125495</v>
+        <v>766474.8774062787</v>
       </c>
     </row>
     <row r="6">
@@ -2270,16 +2270,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>484661.2226881483</v>
+        <v>499270.0729927007</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>223239.3916958632</v>
+        <v>227390.6040154347</v>
       </c>
       <c r="E6" t="n">
-        <v>707900.6143840115</v>
+        <v>726660.6770081354</v>
       </c>
     </row>
     <row r="7">
@@ -2287,16 +2287,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>444934.8929596116</v>
+        <v>459455.8725945587</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>223239.3910749161</v>
+        <v>227390.6033931142</v>
       </c>
       <c r="E7" t="n">
-        <v>668174.2840345277</v>
+        <v>686846.4759876729</v>
       </c>
     </row>
     <row r="8">
@@ -2304,16 +2304,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>405208.5632310748</v>
+        <v>419641.6721964167</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>223235.3389520764</v>
+        <v>227386.5423073838</v>
       </c>
       <c r="E8" t="n">
-        <v>628443.9021831512</v>
+        <v>647028.2145038005</v>
       </c>
     </row>
     <row r="9">
@@ -2321,16 +2321,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>365482.2335025381</v>
+        <v>379827.4717982747</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>222291.2250494383</v>
+        <v>226440.3401191836</v>
       </c>
       <c r="E9" t="n">
-        <v>587773.4585519764</v>
+        <v>606267.8119174583</v>
       </c>
     </row>
     <row r="10">
@@ -2338,16 +2338,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>325755.9037740013</v>
+        <v>340013.2714001327</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>204788.5368290697</v>
+        <v>208898.9377023532</v>
       </c>
       <c r="E10" t="n">
-        <v>530544.4406030709</v>
+        <v>548912.2091024859</v>
       </c>
     </row>
     <row r="11">
@@ -2355,16 +2355,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>286029.5740454646</v>
+        <v>300199.0710019906</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>148324.071131041</v>
+        <v>152309.5782513982</v>
       </c>
       <c r="E11" t="n">
-        <v>434353.6451765056</v>
+        <v>452508.6492533888</v>
       </c>
     </row>
     <row r="12">
@@ -2372,16 +2372,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>246303.2443169278</v>
+        <v>260384.8706038487</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>75985.96787703967</v>
+        <v>79811.47034520927</v>
       </c>
       <c r="E12" t="n">
-        <v>322289.2121939675</v>
+        <v>340196.340949058</v>
       </c>
     </row>
     <row r="13">
@@ -2389,16 +2389,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>206576.9145883911</v>
+        <v>220570.6702057066</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>4227.339085598542</v>
+        <v>7894.11864115714</v>
       </c>
       <c r="E13" t="n">
-        <v>210804.2536739896</v>
+        <v>228464.7888468638</v>
       </c>
     </row>
     <row r="14">
@@ -2406,16 +2406,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>166850.5848598543</v>
+        <v>180756.4698075647</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-49958.79940901377</v>
+        <v>-46411.87417438994</v>
       </c>
       <c r="E14" t="n">
-        <v>116891.7854508406</v>
+        <v>134344.5956331747</v>
       </c>
     </row>
     <row r="15">
@@ -2423,16 +2423,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>127124.2551313176</v>
+        <v>140942.2694094226</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-68843.17822143537</v>
+        <v>-65338.02334472443</v>
       </c>
       <c r="E15" t="n">
-        <v>58281.07690988221</v>
+        <v>75604.24606469821</v>
       </c>
     </row>
     <row r="16">
@@ -2440,16 +2440,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>87397.92540278082</v>
+        <v>101128.0690112806</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-70934.97974460837</v>
+        <v>-67434.45172373283</v>
       </c>
       <c r="E16" t="n">
-        <v>16462.94565817245</v>
+        <v>33693.61728754782</v>
       </c>
     </row>
     <row r="17">
@@ -2457,16 +2457,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>47671.59567424408</v>
+        <v>61313.86861313865</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-71000.55735664174</v>
+        <v>-67500.17438688769</v>
       </c>
       <c r="E17" t="n">
-        <v>-23328.96168239767</v>
+        <v>-6186.305773749045</v>
       </c>
     </row>
     <row r="18">
@@ -2474,16 +2474,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>7945.265945707321</v>
+        <v>21499.66821499665</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-71001.15283062798</v>
+        <v>-67500.77117800286</v>
       </c>
       <c r="E18" t="n">
-        <v>-63055.88688492066</v>
+        <v>-46001.10296300621</v>
       </c>
     </row>
     <row r="19">
@@ -2491,16 +2491,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>-31781.06378282943</v>
+        <v>-18314.53218314535</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-71001.15453002005</v>
+        <v>-67500.77288115383</v>
       </c>
       <c r="E19" t="n">
-        <v>-102782.2183128495</v>
+        <v>-85815.30506429917</v>
       </c>
     </row>
     <row r="20">
@@ -2508,16 +2508,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>-71507.39351136619</v>
+        <v>-58128.73258128735</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-71001.15453170583</v>
+        <v>-67500.77288284332</v>
       </c>
       <c r="E20" t="n">
-        <v>-142508.548043072</v>
+        <v>-125629.5054641307</v>
       </c>
     </row>
     <row r="21">
@@ -2525,16 +2525,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>-111233.7232399029</v>
+        <v>-97942.93297942937</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-71001.15453170647</v>
+        <v>-67500.77288284399</v>
       </c>
       <c r="E21" t="n">
-        <v>-182234.8777716094</v>
+        <v>-165443.7058622733</v>
       </c>
     </row>
     <row r="22">
@@ -2542,16 +2542,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>-150960.0529684397</v>
+        <v>-137757.1333775714</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-71001.15453170647</v>
+        <v>-67500.77288284399</v>
       </c>
       <c r="E22" t="n">
-        <v>-221961.2075001461</v>
+        <v>-205257.9062604154</v>
       </c>
     </row>
     <row r="23">
@@ -2559,16 +2559,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>-190686.3826969764</v>
+        <v>-177571.3337757134</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-71001.15453170647</v>
+        <v>-67500.77288284399</v>
       </c>
       <c r="E23" t="n">
-        <v>-261687.5372286829</v>
+        <v>-245072.1066585574</v>
       </c>
     </row>
     <row r="24">
@@ -2576,16 +2576,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>-230412.7124255132</v>
+        <v>-217385.5341738554</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-71001.15453170647</v>
+        <v>-67500.77288284399</v>
       </c>
       <c r="E24" t="n">
-        <v>-301413.8669572197</v>
+        <v>-284886.3070566994</v>
       </c>
     </row>
     <row r="25">
@@ -2593,16 +2593,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>-270139.04215405</v>
+        <v>-257199.7345719974</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-71001.15453170647</v>
+        <v>-67500.77288284399</v>
       </c>
       <c r="E25" t="n">
-        <v>-341140.1966857564</v>
+        <v>-324700.5074548414</v>
       </c>
     </row>
     <row r="26">
@@ -2610,16 +2610,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>-309865.3718825867</v>
+        <v>-297013.9349701394</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-71001.15453170647</v>
+        <v>-67500.77288284399</v>
       </c>
       <c r="E26" t="n">
-        <v>-380866.5264142932</v>
+        <v>-364514.7078529834</v>
       </c>
     </row>
     <row r="27">
@@ -2627,16 +2627,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>-349591.7016111235</v>
+        <v>-336828.1353682814</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-71001.15453170647</v>
+        <v>-67500.77288284399</v>
       </c>
       <c r="E27" t="n">
-        <v>-420592.8561428299</v>
+        <v>-404328.9082511254</v>
       </c>
     </row>
     <row r="28">
@@ -2644,16 +2644,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>-389318.0313396602</v>
+        <v>-376642.3357664234</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-71001.15453170647</v>
+        <v>-67500.77288284399</v>
       </c>
       <c r="E28" t="n">
-        <v>-460319.1858713666</v>
+        <v>-444143.1086492673</v>
       </c>
     </row>
     <row r="29">
@@ -2661,16 +2661,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>-429044.3610681969</v>
+        <v>-416456.5361645654</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-71001.15453170647</v>
+        <v>-67500.77288284399</v>
       </c>
       <c r="E29" t="n">
-        <v>-500045.5155999034</v>
+        <v>-483957.3090474093</v>
       </c>
     </row>
     <row r="30">
@@ -2678,16 +2678,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>-468770.6907967337</v>
+        <v>-456270.7365627073</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-71001.15453170647</v>
+        <v>-67500.77288284399</v>
       </c>
       <c r="E30" t="n">
-        <v>-539771.8453284402</v>
+        <v>-523771.5094455513</v>
       </c>
     </row>
     <row r="31">
@@ -2695,16 +2695,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>-508497.0205252704</v>
+        <v>-496084.9369608493</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-71001.15453170647</v>
+        <v>-67500.77288284399</v>
       </c>
       <c r="E31" t="n">
-        <v>-579498.1750569768</v>
+        <v>-563585.7098436933</v>
       </c>
     </row>
     <row r="32">
@@ -2712,16 +2712,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>-548223.3502538071</v>
+        <v>-535899.1373589913</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-71001.15453170647</v>
+        <v>-67500.77288284399</v>
       </c>
       <c r="E32" t="n">
-        <v>-619224.5047855136</v>
+        <v>-603399.9102418353</v>
       </c>
     </row>
   </sheetData>
@@ -2775,16 +2775,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>643566.5416022954</v>
+        <v>658526.8745852688</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>213018.7164985761</v>
+        <v>217311.8286681426</v>
       </c>
       <c r="E2" t="n">
-        <v>856585.2581008715</v>
+        <v>875838.7032534113</v>
       </c>
     </row>
     <row r="3">
@@ -2792,16 +2792,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>603840.2118737586</v>
+        <v>618712.6741871267</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>207299.1726828796</v>
+        <v>211634.1741424553</v>
       </c>
       <c r="E3" t="n">
-        <v>811139.3845566381</v>
+        <v>830346.848329582</v>
       </c>
     </row>
     <row r="4">
@@ -2809,16 +2809,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>564113.8821452218</v>
+        <v>578898.4737889847</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>199261.5135435479</v>
+        <v>203626.3503407742</v>
       </c>
       <c r="E4" t="n">
-        <v>763375.3956887696</v>
+        <v>782524.8241297589</v>
       </c>
     </row>
     <row r="5">
@@ -2826,16 +2826,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>524387.552416685</v>
+        <v>539084.2733908427</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>188867.5448526262</v>
+        <v>193241.2389989375</v>
       </c>
       <c r="E5" t="n">
-        <v>713255.0972693113</v>
+        <v>732325.5123897803</v>
       </c>
     </row>
     <row r="6">
@@ -2843,16 +2843,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>484661.2226881483</v>
+        <v>499270.0729927007</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>176293.770473094</v>
+        <v>180649.9278378505</v>
       </c>
       <c r="E6" t="n">
-        <v>660954.9931612423</v>
+        <v>679920.0008305513</v>
       </c>
     </row>
     <row r="7">
@@ -2860,16 +2860,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>444934.8929596116</v>
+        <v>459455.8725945587</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161885.8095406668</v>
+        <v>166196.7801416193</v>
       </c>
       <c r="E7" t="n">
-        <v>606820.7025002784</v>
+        <v>625652.6527361779</v>
       </c>
     </row>
     <row r="8">
@@ -2877,16 +2877,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>405208.5632310748</v>
+        <v>419641.6721964167</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>146095.9770324705</v>
+        <v>150336.5747868425</v>
       </c>
       <c r="E8" t="n">
-        <v>551304.5402635454</v>
+        <v>569978.2469832592</v>
       </c>
     </row>
     <row r="9">
@@ -2894,16 +2894,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>365482.2335025381</v>
+        <v>379827.4717982747</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>129420.6382147055</v>
+        <v>133570.7927599323</v>
       </c>
       <c r="E9" t="n">
-        <v>494902.8717172436</v>
+        <v>513398.264558207</v>
       </c>
     </row>
     <row r="10">
@@ -2911,16 +2911,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>325755.9037740013</v>
+        <v>340013.2714001327</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>112347.7603578184</v>
+        <v>116393.9202645052</v>
       </c>
       <c r="E10" t="n">
-        <v>438103.6641318197</v>
+        <v>456407.1916646379</v>
       </c>
     </row>
     <row r="11">
@@ -2928,16 +2928,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>286029.5740454646</v>
+        <v>300199.0710019906</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>95319.19180436489</v>
+        <v>99254.60826286147</v>
       </c>
       <c r="E11" t="n">
-        <v>381348.7658498295</v>
+        <v>399453.6792648521</v>
       </c>
     </row>
     <row r="12">
@@ -2945,16 +2945,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>246303.2443169278</v>
+        <v>260384.8706038487</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>78707.93805790253</v>
+        <v>82532.11415418396</v>
       </c>
       <c r="E12" t="n">
-        <v>325011.1823748304</v>
+        <v>342916.9847580326</v>
       </c>
     </row>
     <row r="13">
@@ -2962,16 +2962,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>206576.9145883911</v>
+        <v>220570.6702057066</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>62808.25792903973</v>
+        <v>66525.88475085162</v>
       </c>
       <c r="E13" t="n">
-        <v>269385.1725174308</v>
+        <v>287096.5549565583</v>
       </c>
     </row>
     <row r="14">
@@ -2979,16 +2979,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>166850.5848598543</v>
+        <v>180756.4698075647</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>47835.40574368836</v>
+        <v>51455.06966302613</v>
       </c>
       <c r="E14" t="n">
-        <v>214685.9906035427</v>
+        <v>232211.5394705908</v>
       </c>
     </row>
     <row r="15">
@@ -2996,16 +2996,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>127124.2551313176</v>
+        <v>140942.2694094226</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>33931.79486606495</v>
+        <v>37464.67081128273</v>
       </c>
       <c r="E15" t="n">
-        <v>161056.0499973825</v>
+        <v>178406.9402207054</v>
       </c>
     </row>
     <row r="16">
@@ -3013,16 +3013,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>87397.92540278082</v>
+        <v>101128.0690112806</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>21176.81199748091</v>
+        <v>24635.48277774265</v>
       </c>
       <c r="E16" t="n">
-        <v>108574.7374002617</v>
+        <v>125763.5517890233</v>
       </c>
     </row>
     <row r="17">
@@ -3030,16 +3030,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>47671.59567424408</v>
+        <v>61313.86861313865</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>9598.15733849462</v>
+        <v>12995.6341734353</v>
       </c>
       <c r="E17" t="n">
-        <v>57269.7530127387</v>
+        <v>74309.50278657395</v>
       </c>
     </row>
     <row r="18">
@@ -3047,16 +3047,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>7945.265945707321</v>
+        <v>21499.66821499665</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-816.7666524430055</v>
+        <v>2532.203646560518</v>
       </c>
       <c r="E18" t="n">
-        <v>7128.499293264316</v>
+        <v>24031.87186155717</v>
       </c>
     </row>
     <row r="19">
@@ -3064,16 +3064,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>-31781.06378282943</v>
+        <v>-18314.53218314535</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-10110.34036645945</v>
+        <v>-6798.044858558527</v>
       </c>
       <c r="E19" t="n">
-        <v>-41891.40414928888</v>
+        <v>-25112.57704170388</v>
       </c>
     </row>
     <row r="20">
@@ -3081,16 +3081,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>-71507.39351136619</v>
+        <v>-58128.73258128735</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-18345.57962677562</v>
+        <v>-15059.32037133921</v>
       </c>
       <c r="E20" t="n">
-        <v>-89852.97313814181</v>
+        <v>-73188.05295262656</v>
       </c>
     </row>
     <row r="21">
@@ -3098,16 +3098,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>-111233.7232399029</v>
+        <v>-97942.93297942937</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-25598.54449173494</v>
+        <v>-22329.0542418802</v>
       </c>
       <c r="E21" t="n">
-        <v>-136832.2677316379</v>
+        <v>-120271.9872213096</v>
       </c>
     </row>
     <row r="22">
@@ -3115,16 +3115,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>-150960.0529684397</v>
+        <v>-137757.1333775714</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-31952.29361340386</v>
+        <v>-28691.73164967012</v>
       </c>
       <c r="E22" t="n">
-        <v>-182912.3465818435</v>
+        <v>-166448.8650272415</v>
       </c>
     </row>
     <row r="23">
@@ -3132,16 +3132,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>-190686.3826969764</v>
+        <v>-177571.3337757134</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-37492.25575257117</v>
+        <v>-34234.17433096207</v>
       </c>
       <c r="E23" t="n">
-        <v>-228178.6384495476</v>
+        <v>-211805.5081066754</v>
       </c>
     </row>
     <row r="24">
@@ -3149,16 +3149,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>-230412.7124255132</v>
+        <v>-217385.5341738554</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-42302.83109111343</v>
+        <v>-39042.08239512419</v>
       </c>
       <c r="E24" t="n">
-        <v>-272715.5435166266</v>
+        <v>-256427.6165689796</v>
       </c>
     </row>
     <row r="25">
@@ -3166,16 +3166,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>-270139.04215405</v>
+        <v>-257199.7345719974</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-46465.01550333582</v>
+        <v>-43197.62281096143</v>
       </c>
       <c r="E25" t="n">
-        <v>-316604.0576573858</v>
+        <v>-300397.3573829588</v>
       </c>
     </row>
     <row r="26">
@@ -3183,16 +3183,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>-309865.3718825867</v>
+        <v>-297013.9349701394</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-50054.84602359135</v>
+        <v>-46777.85729603542</v>
       </c>
       <c r="E26" t="n">
-        <v>-359920.217906178</v>
+        <v>-343791.7922661748</v>
       </c>
     </row>
     <row r="27">
@@ -3200,16 +3200,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>-349591.7016111235</v>
+        <v>-336828.1353682814</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-53142.48456581741</v>
+        <v>-49853.82172839195</v>
       </c>
       <c r="E27" t="n">
-        <v>-402734.1861769409</v>
+        <v>-386681.9570966733</v>
       </c>
     </row>
     <row r="28">
@@ -3217,16 +3217,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>-389318.0313396602</v>
+        <v>-376642.3357664234</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-55791.78212774864</v>
+        <v>-52490.09516557588</v>
       </c>
       <c r="E28" t="n">
-        <v>-445109.8134674088</v>
+        <v>-429132.4309319992</v>
       </c>
     </row>
     <row r="29">
@@ -3234,16 +3234,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>-429044.3610681969</v>
+        <v>-416456.5361645654</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-58060.19250874942</v>
+        <v>-54744.72418772442</v>
       </c>
       <c r="E29" t="n">
-        <v>-487104.5535769463</v>
+        <v>-471201.2603522898</v>
       </c>
     </row>
     <row r="30">
@@ -3251,16 +3251,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>-468770.6907967337</v>
+        <v>-456270.7365627073</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-59998.93016800988</v>
+        <v>-56669.39466235097</v>
       </c>
       <c r="E30" t="n">
-        <v>-528769.6209647435</v>
+        <v>-512940.1312250583</v>
       </c>
     </row>
     <row r="31">
@@ -3268,16 +3268,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>-508497.0205252704</v>
+        <v>-496084.9369608493</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-61653.2897584415</v>
+        <v>-58309.76661749555</v>
       </c>
       <c r="E31" t="n">
-        <v>-570150.3102837119</v>
+        <v>-554394.7035783449</v>
       </c>
     </row>
     <row r="32">
@@ -3285,16 +3285,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>-548223.3502538071</v>
+        <v>-535899.1373589913</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-63063.06446972248</v>
+        <v>-59705.9080682884</v>
       </c>
       <c r="E32" t="n">
-        <v>-611286.4147235296</v>
+        <v>-595605.0454272797</v>
       </c>
     </row>
   </sheetData>
@@ -3348,16 +3348,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>643566.5416022954</v>
+        <v>658526.8745852688</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>213510.0283698447</v>
+        <v>217639.7203104601</v>
       </c>
       <c r="E2" t="n">
-        <v>857076.56997214</v>
+        <v>876166.5948957289</v>
       </c>
     </row>
     <row r="3">
@@ -3365,16 +3365,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>603840.2118737586</v>
+        <v>618712.6741871267</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>207955.7233635978</v>
+        <v>212073.1297368472</v>
       </c>
       <c r="E3" t="n">
-        <v>811795.9352373565</v>
+        <v>830785.8039239738</v>
       </c>
     </row>
     <row r="4">
@@ -3382,16 +3382,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>564113.8821452218</v>
+        <v>578898.4737889847</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>200063.231858373</v>
+        <v>204163.1808294872</v>
       </c>
       <c r="E4" t="n">
-        <v>764177.1140035947</v>
+        <v>783061.6546184719</v>
       </c>
     </row>
     <row r="5">
@@ -3399,16 +3399,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>524387.552416685</v>
+        <v>539084.2733908427</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>189767.2671364744</v>
+        <v>193844.4424629926</v>
       </c>
       <c r="E5" t="n">
-        <v>714154.8195531594</v>
+        <v>732928.7158538353</v>
       </c>
     </row>
     <row r="6">
@@ -3416,16 +3416,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>484661.2226881483</v>
+        <v>499270.0729927007</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>177226.3214114857</v>
+        <v>181275.7574198774</v>
       </c>
       <c r="E6" t="n">
-        <v>661887.544099634</v>
+        <v>680545.8304125781</v>
       </c>
     </row>
     <row r="7">
@@ -3433,16 +3433,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>444934.8929596116</v>
+        <v>459455.8725945587</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>162779.5219296711</v>
+        <v>166797.0030619695</v>
       </c>
       <c r="E7" t="n">
-        <v>607714.4148892827</v>
+        <v>626252.8756565282</v>
       </c>
     </row>
     <row r="8">
@@ -3450,16 +3450,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>405208.5632310748</v>
+        <v>419641.6721964167</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>146883.3854078303</v>
+        <v>150865.7058754044</v>
       </c>
       <c r="E8" t="n">
-        <v>552091.9486389051</v>
+        <v>570507.3780718211</v>
       </c>
     </row>
     <row r="9">
@@ -3467,16 +3467,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>365482.2335025381</v>
+        <v>379827.4717982747</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>130046.376219226</v>
+        <v>133991.4549058034</v>
       </c>
       <c r="E9" t="n">
-        <v>495528.609721764</v>
+        <v>513818.9267040781</v>
       </c>
     </row>
     <row r="10">
@@ -3484,16 +3484,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>325755.9037740013</v>
+        <v>340013.2714001327</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>112772.9973348808</v>
+        <v>116679.8690343219</v>
       </c>
       <c r="E10" t="n">
-        <v>438528.9011088822</v>
+        <v>456693.1404344547</v>
       </c>
     </row>
     <row r="11">
@@ -3501,16 +3501,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>286029.5740454646</v>
+        <v>300199.0710019906</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>95522.87967044294</v>
+        <v>99391.59583424048</v>
       </c>
       <c r="E11" t="n">
-        <v>381552.4537159075</v>
+        <v>399590.6668362311</v>
       </c>
     </row>
     <row r="12">
@@ -3518,16 +3518,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>246303.2443169278</v>
+        <v>260384.8706038487</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>78685.63171739045</v>
+        <v>82517.10557206822</v>
       </c>
       <c r="E12" t="n">
-        <v>324988.8760343182</v>
+        <v>342901.9761759168</v>
       </c>
     </row>
     <row r="13">
@@ -3535,16 +3535,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>206576.9145883911</v>
+        <v>220570.6702057066</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>62569.4083627025</v>
+        <v>66365.2347425856</v>
       </c>
       <c r="E13" t="n">
-        <v>269146.3229510935</v>
+        <v>286935.9049482922</v>
       </c>
     </row>
     <row r="14">
@@ -3552,16 +3552,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>166850.5848598543</v>
+        <v>180756.4698075647</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>47399.93814375702</v>
+        <v>51162.21117212727</v>
       </c>
       <c r="E14" t="n">
-        <v>214250.5230036114</v>
+        <v>231918.6809796919</v>
       </c>
     </row>
     <row r="15">
@@ -3569,16 +3569,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>127124.2551313176</v>
+        <v>140942.2694094226</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>33326.59375965948</v>
+        <v>37057.73795727528</v>
       </c>
       <c r="E15" t="n">
-        <v>160450.8488909771</v>
+        <v>178000.0073666979</v>
       </c>
     </row>
     <row r="16">
@@ -3586,16 +3586,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>87397.92540278082</v>
+        <v>101128.0690112806</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>20432.52365757131</v>
+        <v>24135.14746124309</v>
       </c>
       <c r="E16" t="n">
-        <v>107830.4490603521</v>
+        <v>125263.2164725237</v>
       </c>
     </row>
     <row r="17">
@@ -3603,16 +3603,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>47671.59567424408</v>
+        <v>61313.86861313865</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>8746.533197830428</v>
+        <v>12423.30875894582</v>
       </c>
       <c r="E17" t="n">
-        <v>56418.12887207451</v>
+        <v>73737.17737208446</v>
       </c>
     </row>
     <row r="18">
@@ -3620,16 +3620,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>7945.265945707321</v>
+        <v>21499.66821499665</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-1744.904296825076</v>
+        <v>1908.66525346383</v>
       </c>
       <c r="E18" t="n">
-        <v>6200.361648882244</v>
+        <v>23408.33346846048</v>
       </c>
     </row>
     <row r="19">
@@ -3637,16 +3637,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>-31781.06378282943</v>
+        <v>-18314.53218314535</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-11086.52517775411</v>
+        <v>-7453.618358898355</v>
       </c>
       <c r="E19" t="n">
-        <v>-42867.58896058354</v>
+        <v>-25768.15054204371</v>
       </c>
     </row>
     <row r="20">
@@ -3654,16 +3654,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>-71507.39351136619</v>
+        <v>-58128.73258128735</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-19344.59169283623</v>
+        <v>-15729.95089148785</v>
       </c>
       <c r="E20" t="n">
-        <v>-90851.98520420241</v>
+        <v>-73858.6834727752</v>
       </c>
     </row>
     <row r="21">
@@ -3671,16 +3671,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>-111233.7232399029</v>
+        <v>-97942.93297942937</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-26598.86164769848</v>
+        <v>-23000.26656622371</v>
       </c>
       <c r="E21" t="n">
-        <v>-137832.5848876014</v>
+        <v>-120943.1995456531</v>
       </c>
     </row>
     <row r="22">
@@ -3688,16 +3688,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>-150960.0529684397</v>
+        <v>-137757.1333775714</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-32936.2063471045</v>
+        <v>-29351.62883851051</v>
       </c>
       <c r="E22" t="n">
-        <v>-183896.2593155442</v>
+        <v>-167108.7622160819</v>
       </c>
     </row>
     <row r="23">
@@ -3705,16 +3705,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>-190686.3826969764</v>
+        <v>-177571.3337757134</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-38445.74136267579</v>
+        <v>-34873.35039470462</v>
       </c>
       <c r="E23" t="n">
-        <v>-229132.1240596522</v>
+        <v>-212444.684170418</v>
       </c>
     </row>
     <row r="24">
@@ -3722,16 +3722,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>-230412.7124255132</v>
+        <v>-217385.5341738554</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-43215.26919594037</v>
+        <v>-39653.42794668909</v>
       </c>
       <c r="E24" t="n">
-        <v>-273627.9816214535</v>
+        <v>-257038.9621205445</v>
       </c>
     </row>
     <row r="25">
@@ -3739,16 +3739,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>-270139.04215405</v>
+        <v>-257199.7345719974</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-47328.81105726858</v>
+        <v>-43776.06855135135</v>
       </c>
       <c r="E25" t="n">
-        <v>-317467.8532113186</v>
+        <v>-300975.8031233487</v>
       </c>
     </row>
     <row r="26">
@@ -3756,16 +3756,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>-309865.3718825867</v>
+        <v>-297013.9349701394</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-50865.01028082638</v>
+        <v>-47320.08949404997</v>
       </c>
       <c r="E26" t="n">
-        <v>-360730.382163413</v>
+        <v>-344334.0244641894</v>
       </c>
     </row>
     <row r="27">
@@ -3773,16 +3773,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>-349591.7016111235</v>
+        <v>-336828.1353682814</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-53896.21037219474</v>
+        <v>-50357.99429696747</v>
       </c>
       <c r="E27" t="n">
-        <v>-403487.9119833182</v>
+        <v>-387186.1296652489</v>
       </c>
     </row>
     <row r="28">
@@ -3790,16 +3790,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>-389318.0313396602</v>
+        <v>-376642.3357664234</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-56488.03815754353</v>
+        <v>-52955.554946252</v>
       </c>
       <c r="E28" t="n">
-        <v>-445806.0694972037</v>
+        <v>-429597.8907126754</v>
       </c>
     </row>
     <row r="29">
@@ -3807,16 +3807,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>-429044.3610681969</v>
+        <v>-416456.5361645654</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-58699.35172495397</v>
+        <v>-55171.7597181911</v>
       </c>
       <c r="E29" t="n">
-        <v>-487743.7127931509</v>
+        <v>-471628.2958827565</v>
       </c>
     </row>
     <row r="30">
@@ -3824,16 +3824,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>-468770.6907967337</v>
+        <v>-456270.7365627073</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-60582.44071025939</v>
+        <v>-57059.01390806477</v>
       </c>
       <c r="E30" t="n">
-        <v>-529353.1315069931</v>
+        <v>-513329.7504707721</v>
       </c>
     </row>
     <row r="31">
@@ -3841,16 +3841,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>-508497.0205252704</v>
+        <v>-496084.9369608493</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-62183.39134663674</v>
+        <v>-58663.50568719015</v>
       </c>
       <c r="E31" t="n">
-        <v>-570680.4118719071</v>
+        <v>-554748.4426480394</v>
       </c>
     </row>
     <row r="32">
@@ -3858,16 +3858,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>-548223.3502538071</v>
+        <v>-535899.1373589913</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-63542.54989889441</v>
+        <v>-60025.67056227961</v>
       </c>
       <c r="E32" t="n">
-        <v>-611765.9001527015</v>
+        <v>-595924.807921271</v>
       </c>
     </row>
   </sheetData>
@@ -3921,16 +3921,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>643566.5416022954</v>
+        <v>658526.8745852688</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>198566.6718638215</v>
+        <v>202663.3105938508</v>
       </c>
       <c r="E2" t="n">
-        <v>842133.2134661168</v>
+        <v>861190.1851791196</v>
       </c>
     </row>
     <row r="3">
@@ -3938,16 +3938,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>603840.2118737586</v>
+        <v>618712.6741871267</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>190009.7143239044</v>
+        <v>194087.4259193619</v>
       </c>
       <c r="E3" t="n">
-        <v>793849.9261976629</v>
+        <v>812800.1001064886</v>
       </c>
     </row>
     <row r="4">
@@ -3955,16 +3955,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>564113.8821452218</v>
+        <v>578898.4737889847</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>179975.4985744604</v>
+        <v>184031.0154878797</v>
       </c>
       <c r="E4" t="n">
-        <v>744089.3807196822</v>
+        <v>762929.4892768644</v>
       </c>
     </row>
     <row r="5">
@@ -3972,16 +3972,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>524387.552416685</v>
+        <v>539084.2733908427</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>168724.2267832949</v>
+        <v>172754.8570083905</v>
       </c>
       <c r="E5" t="n">
-        <v>693111.77919998</v>
+        <v>711839.1303992332</v>
       </c>
     </row>
     <row r="6">
@@ -3989,16 +3989,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>484661.2226881483</v>
+        <v>499270.0729927007</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>156550.5095237828</v>
+        <v>160554.2127034027</v>
       </c>
       <c r="E6" t="n">
-        <v>641211.7322119311</v>
+        <v>659824.2856961035</v>
       </c>
     </row>
     <row r="7">
@@ -4006,16 +4006,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>444934.8929596116</v>
+        <v>459455.8725945587</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>143752.9775088906</v>
+        <v>147728.3738271637</v>
       </c>
       <c r="E7" t="n">
-        <v>588687.8704685022</v>
+        <v>607184.2464217225</v>
       </c>
     </row>
     <row r="8">
@@ -4023,16 +4023,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>405208.5632310748</v>
+        <v>419641.6721964167</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>130612.8679425805</v>
+        <v>134559.1996522134</v>
       </c>
       <c r="E8" t="n">
-        <v>535821.4311736554</v>
+        <v>554200.8718486301</v>
       </c>
     </row>
     <row r="9">
@@ -4040,16 +4040,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>365482.2335025381</v>
+        <v>379827.4717982747</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>117380.7690076794</v>
+        <v>121297.8326373855</v>
       </c>
       <c r="E9" t="n">
-        <v>482863.0025102174</v>
+        <v>501125.3044356601</v>
       </c>
     </row>
     <row r="10">
@@ -4057,16 +4057,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>325755.9037740013</v>
+        <v>340013.2714001327</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>104269.9048312441</v>
+        <v>108157.9685401884</v>
       </c>
       <c r="E10" t="n">
-        <v>430025.8086052454</v>
+        <v>448171.2399403211</v>
       </c>
     </row>
     <row r="11">
@@ -4074,16 +4074,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>286029.5740454646</v>
+        <v>300199.0710019906</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>91454.20270875821</v>
+        <v>95313.91936589425</v>
       </c>
       <c r="E11" t="n">
-        <v>377483.7767542228</v>
+        <v>395512.9903678849</v>
       </c>
     </row>
     <row r="12">
@@ -4091,16 +4091,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>246303.2443169278</v>
+        <v>260384.8706038487</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>79069.5719628807</v>
+        <v>82901.89505499598</v>
       </c>
       <c r="E12" t="n">
-        <v>325372.8162798085</v>
+        <v>343286.7656588446</v>
       </c>
     </row>
     <row r="13">
@@ -4108,16 +4108,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>206576.9145883911</v>
+        <v>220570.6702057066</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>67217.13469224515</v>
+        <v>71023.24137809935</v>
       </c>
       <c r="E13" t="n">
-        <v>273794.0492806362</v>
+        <v>291593.911583806</v>
       </c>
     </row>
     <row r="14">
@@ -4125,16 +4125,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>166850.5848598543</v>
+        <v>180756.4698075647</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>55967.47166536962</v>
+        <v>59748.69522132586</v>
       </c>
       <c r="E14" t="n">
-        <v>222818.0565252239</v>
+        <v>240505.1650288905</v>
       </c>
     </row>
     <row r="15">
@@ -4142,16 +4142,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>127124.2551313176</v>
+        <v>140942.2694094226</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>45365.23020022627</v>
+        <v>49123.00265805123</v>
       </c>
       <c r="E15" t="n">
-        <v>172489.4853315438</v>
+        <v>190065.2720674739</v>
       </c>
     </row>
     <row r="16">
@@ -4159,16 +4159,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>87397.92540278082</v>
+        <v>101128.0690112806</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>35433.66762823274</v>
+        <v>39169.47246258504</v>
       </c>
       <c r="E16" t="n">
-        <v>122831.5930310136</v>
+        <v>140297.5414738657</v>
       </c>
     </row>
     <row r="17">
@@ -4176,16 +4176,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>47671.59567424408</v>
+        <v>61313.86861313865</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>26178.87395516611</v>
+        <v>29894.20811118825</v>
       </c>
       <c r="E17" t="n">
-        <v>73850.46962941019</v>
+        <v>91208.07672432691</v>
       </c>
     </row>
     <row r="18">
@@ -4193,16 +4193,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>7945.265945707321</v>
+        <v>21499.66821499665</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>17593.53832377621</v>
+        <v>21289.88257572536</v>
       </c>
       <c r="E18" t="n">
-        <v>25538.80426948353</v>
+        <v>42789.550790722</v>
       </c>
     </row>
     <row r="19">
@@ -4210,16 +4210,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>-31781.06378282943</v>
+        <v>-18314.53218314535</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>9660.205854609601</v>
+        <v>13339.00236829473</v>
       </c>
       <c r="E19" t="n">
-        <v>-22120.85792821983</v>
+        <v>-4975.529814850626</v>
       </c>
     </row>
     <row r="20">
@@ -4227,16 +4227,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>-71507.39351136619</v>
+        <v>-58128.73258128735</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>2354.024042432331</v>
+        <v>6016.660012405508</v>
       </c>
       <c r="E20" t="n">
-        <v>-69153.36946893386</v>
+        <v>-52112.07256888185</v>
       </c>
     </row>
     <row r="21">
@@ -4244,16 +4244,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>-111233.7232399029</v>
+        <v>-97942.93297942937</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-4354.990670175866</v>
+        <v>-707.1943699939075</v>
       </c>
       <c r="E21" t="n">
-        <v>-115588.7139100788</v>
+        <v>-98650.12734942327</v>
       </c>
     </row>
     <row r="22">
@@ -4261,16 +4261,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>-150960.0529684397</v>
+        <v>-137757.1333775714</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-10500.11872778015</v>
+        <v>-6865.914836484728</v>
       </c>
       <c r="E22" t="n">
-        <v>-161460.1716962198</v>
+        <v>-144623.0482140561</v>
       </c>
     </row>
     <row r="23">
@@ -4278,16 +4278,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>-190686.3826969764</v>
+        <v>-177571.3337757134</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-16116.48124630026</v>
+        <v>-12494.70018738378</v>
       </c>
       <c r="E23" t="n">
-        <v>-206802.8639432767</v>
+        <v>-190066.0339630971</v>
       </c>
     </row>
     <row r="24">
@@ -4295,16 +4295,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>-230412.7124255132</v>
+        <v>-217385.5341738554</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-21239.90643085791</v>
+        <v>-17629.45787622048</v>
       </c>
       <c r="E24" t="n">
-        <v>-251652.6188563711</v>
+        <v>-235014.9920500758</v>
       </c>
     </row>
     <row r="25">
@@ -4312,16 +4312,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>-270139.04215405</v>
+        <v>-257199.7345719974</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-25906.06614470505</v>
+        <v>-22305.93866884189</v>
       </c>
       <c r="E25" t="n">
-        <v>-296045.108298755</v>
+        <v>-279505.6732408393</v>
       </c>
     </row>
     <row r="26">
@@ -4329,16 +4329,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>-309865.3718825867</v>
+        <v>-297013.9349701394</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-30149.83496852956</v>
+        <v>-26559.09428502168</v>
       </c>
       <c r="E26" t="n">
-        <v>-340015.2068511163</v>
+        <v>-323573.0292551611</v>
       </c>
     </row>
     <row r="27">
@@ -4346,16 +4346,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>-349591.7016111235</v>
+        <v>-336828.1353682814</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-34004.82978201756</v>
+        <v>-30422.61596162292</v>
       </c>
       <c r="E27" t="n">
-        <v>-383596.531393141</v>
+        <v>-367250.7513299043</v>
       </c>
     </row>
     <row r="28">
@@ -4363,16 +4363,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>-389318.0313396602</v>
+        <v>-376642.3357664234</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-37503.09375763989</v>
+        <v>-33928.6177474103</v>
       </c>
       <c r="E28" t="n">
-        <v>-426821.1250973</v>
+        <v>-410570.9535138337</v>
       </c>
     </row>
     <row r="29">
@@ -4380,16 +4380,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>-429044.3610681969</v>
+        <v>-416456.5361645654</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-40674.89426018193</v>
+        <v>-37107.43395555406</v>
       </c>
       <c r="E29" t="n">
-        <v>-469719.2553283788</v>
+        <v>-453563.9701201194</v>
       </c>
     </row>
     <row r="30">
@@ -4397,16 +4397,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>-468770.6907967337</v>
+        <v>-456270.7365627073</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-43548.60926621312</v>
+        <v>-39987.50533187065</v>
       </c>
       <c r="E30" t="n">
-        <v>-512319.3000629468</v>
+        <v>-496258.241894578</v>
       </c>
     </row>
     <row r="31">
@@ -4414,16 +4414,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>-508497.0205252704</v>
+        <v>-496084.9369608493</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-46150.68145221652</v>
+        <v>-42595.33304139983</v>
       </c>
       <c r="E31" t="n">
-        <v>-554647.701977487</v>
+        <v>-538680.2700022492</v>
       </c>
     </row>
     <row r="32">
@@ -4431,16 +4431,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>-548223.3502538071</v>
+        <v>-535899.1373589913</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-48505.62302386839</v>
+        <v>-44955.48350836612</v>
       </c>
       <c r="E32" t="n">
-        <v>-596728.9732776756</v>
+        <v>-580854.6208673575</v>
       </c>
     </row>
   </sheetData>
@@ -4494,16 +4494,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>643566.5416022954</v>
+        <v>658526.8745852688</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>200872.3572674592</v>
+        <v>204974.0959430836</v>
       </c>
       <c r="E2" t="n">
-        <v>844438.8988697545</v>
+        <v>863500.9705283524</v>
       </c>
     </row>
     <row r="3">
@@ -4511,16 +4511,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>603840.2118737586</v>
+        <v>618712.6741871267</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192585.3122530814</v>
+        <v>196668.7208136554</v>
       </c>
       <c r="E3" t="n">
-        <v>796425.5241268399</v>
+        <v>815381.3950007821</v>
       </c>
     </row>
     <row r="4">
@@ -4528,16 +4528,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>564113.8821452218</v>
+        <v>578898.4737889847</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>182685.2510958628</v>
+        <v>186746.7617109441</v>
       </c>
       <c r="E4" t="n">
-        <v>746799.1332410846</v>
+        <v>765645.2354999287</v>
       </c>
     </row>
     <row r="5">
@@ -4545,16 +4545,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>524387.552416685</v>
+        <v>539084.2733908427</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>171420.866277996</v>
+        <v>175457.4612000497</v>
       </c>
       <c r="E5" t="n">
-        <v>695808.418694681</v>
+        <v>714541.7345908924</v>
       </c>
     </row>
     <row r="6">
@@ -4562,16 +4562,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>484661.2226881483</v>
+        <v>499270.0729927007</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>159092.898054294</v>
+        <v>163102.2247431609</v>
       </c>
       <c r="E6" t="n">
-        <v>643754.1207424423</v>
+        <v>662372.2977358617</v>
       </c>
     </row>
     <row r="7">
@@ -4579,16 +4579,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>444934.8929596116</v>
+        <v>459455.8725945587</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>146018.4900196572</v>
+        <v>149998.897425103</v>
       </c>
       <c r="E7" t="n">
-        <v>590953.3829792688</v>
+        <v>609454.7700196616</v>
       </c>
     </row>
     <row r="8">
@@ -4596,16 +4596,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>405208.5632310748</v>
+        <v>419641.6721964167</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>132504.4771525956</v>
+        <v>136454.992912682</v>
       </c>
       <c r="E8" t="n">
-        <v>537713.0403836705</v>
+        <v>556096.6651090987</v>
       </c>
     </row>
     <row r="9">
@@ -4613,16 +4613,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>365482.2335025381</v>
+        <v>379827.4717982747</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>118829.6864983503</v>
+        <v>122749.954988686</v>
       </c>
       <c r="E9" t="n">
-        <v>484311.9200008884</v>
+        <v>502577.4267869607</v>
       </c>
     </row>
     <row r="10">
@@ -4630,16 +4630,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>325755.9037740013</v>
+        <v>340013.2714001327</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>105234.9524367911</v>
+        <v>109125.1507345554</v>
       </c>
       <c r="E10" t="n">
-        <v>430990.8562107924</v>
+        <v>449138.4221346881</v>
       </c>
     </row>
     <row r="11">
@@ -4647,16 +4647,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>286029.5740454646</v>
+        <v>300199.0710019906</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>91919.06534485728</v>
+        <v>95779.81023166841</v>
       </c>
       <c r="E11" t="n">
-        <v>377948.6393903219</v>
+        <v>395978.881233659</v>
       </c>
     </row>
     <row r="12">
@@ -4664,16 +4664,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>246303.2443169278</v>
+        <v>260384.8706038487</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>79038.8954291332</v>
+        <v>82871.15066782283</v>
       </c>
       <c r="E12" t="n">
-        <v>325342.139746061</v>
+        <v>343256.0212716715</v>
       </c>
     </row>
     <row r="13">
@@ -4681,16 +4681,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>206576.9145883911</v>
+        <v>220570.6702057066</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>66712.19301543265</v>
+        <v>70517.18282078077</v>
       </c>
       <c r="E13" t="n">
-        <v>273289.1076038237</v>
+        <v>291087.8530264874</v>
       </c>
     </row>
     <row r="14">
@@ -4698,16 +4698,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>166850.5848598543</v>
+        <v>180756.4698075647</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>55021.90013067285</v>
+        <v>58801.03217693056</v>
       </c>
       <c r="E14" t="n">
-        <v>221872.4849905272</v>
+        <v>239557.5019844952</v>
       </c>
     </row>
     <row r="15">
@@ -4715,16 +4715,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>127124.2551313176</v>
+        <v>140942.2694094226</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>44021.12995654123</v>
+        <v>47775.92939900744</v>
       </c>
       <c r="E15" t="n">
-        <v>171145.3850878588</v>
+        <v>188718.1988084301</v>
       </c>
     </row>
     <row r="16">
@@ -4732,16 +4732,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>87397.92540278082</v>
+        <v>101128.0690112806</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>33738.24306695497</v>
+        <v>37470.29779168268</v>
       </c>
       <c r="E16" t="n">
-        <v>121136.1684697358</v>
+        <v>138598.3668029633</v>
       </c>
     </row>
     <row r="17">
@@ -4749,16 +4749,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>47671.59567424408</v>
+        <v>61313.86861313865</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>24181.66196613471</v>
+        <v>27892.57848891414</v>
       </c>
       <c r="E17" t="n">
-        <v>71853.25764037878</v>
+        <v>89206.44710205279</v>
       </c>
     </row>
     <row r="18">
@@ -4766,16 +4766,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>7945.265945707321</v>
+        <v>21499.66821499665</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>15344.22170310411</v>
+        <v>19035.59069157024</v>
       </c>
       <c r="E18" t="n">
-        <v>23289.48764881143</v>
+        <v>40535.25890656689</v>
       </c>
     </row>
     <row r="19">
@@ -4783,16 +4783,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>-31781.06378282943</v>
+        <v>-18314.53218314535</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>7206.963288811748</v>
+        <v>10880.33347521133</v>
       </c>
       <c r="E19" t="n">
-        <v>-24574.10049401768</v>
+        <v>-7434.198707934025</v>
       </c>
     </row>
     <row r="20">
@@ -4800,16 +4800,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>-71507.39351136619</v>
+        <v>-58128.73258128735</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-257.6513717665548</v>
+        <v>3399.207833300192</v>
       </c>
       <c r="E20" t="n">
-        <v>-71765.04488313274</v>
+        <v>-54729.52474798716</v>
       </c>
     </row>
     <row r="21">
@@ -4817,16 +4817,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>-111233.7232399029</v>
+        <v>-97942.93297942937</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-7083.079739415763</v>
+        <v>-3441.317699506399</v>
       </c>
       <c r="E21" t="n">
-        <v>-118316.8029793187</v>
+        <v>-101384.2506789358</v>
       </c>
     </row>
     <row r="22">
@@ -4834,16 +4834,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>-150960.0529684397</v>
+        <v>-137757.1333775714</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-13306.54566459906</v>
+        <v>-9678.549309107268</v>
       </c>
       <c r="E22" t="n">
-        <v>-164266.5986330387</v>
+        <v>-147435.6826866787</v>
       </c>
     </row>
     <row r="23">
@@ -4851,16 +4851,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>-190686.3826969764</v>
+        <v>-177571.3337757134</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-18967.33284616529</v>
+        <v>-15351.85758596561</v>
       </c>
       <c r="E23" t="n">
-        <v>-209653.7155431417</v>
+        <v>-192923.191361679</v>
       </c>
     </row>
     <row r="24">
@@ -4868,16 +4868,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>-230412.7124255132</v>
+        <v>-217385.5341738554</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-24105.46109725906</v>
+        <v>-20501.35086305162</v>
       </c>
       <c r="E24" t="n">
-        <v>-254518.1735227723</v>
+        <v>-237886.885036907</v>
       </c>
     </row>
     <row r="25">
@@ -4885,16 +4885,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>-270139.04215405</v>
+        <v>-257199.7345719974</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-28760.68377391674</v>
+        <v>-25166.87042685076</v>
       </c>
       <c r="E25" t="n">
-        <v>-298899.7259279667</v>
+        <v>-282366.6049988482</v>
       </c>
     </row>
     <row r="26">
@@ -4902,16 +4902,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>-309865.3718825867</v>
+        <v>-297013.9349701394</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-32971.74968300429</v>
+        <v>-29387.25079271577</v>
       </c>
       <c r="E26" t="n">
-        <v>-342837.121565591</v>
+        <v>-326401.1857628552</v>
       </c>
     </row>
     <row r="27">
@@ -4919,16 +4919,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>-349591.7016111235</v>
+        <v>-336828.1353682814</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-36775.879183554</v>
+        <v>-33199.79464739189</v>
       </c>
       <c r="E27" t="n">
-        <v>-386367.5807946774</v>
+        <v>-370027.9300156733</v>
       </c>
     </row>
     <row r="28">
@@ -4936,16 +4936,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>-389318.0313396602</v>
+        <v>-376642.3357664234</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-40208.41103768225</v>
+        <v>-36639.91891880421</v>
       </c>
       <c r="E28" t="n">
-        <v>-429526.4423773424</v>
+        <v>-413282.2546852276</v>
       </c>
     </row>
     <row r="29">
@@ -4953,16 +4953,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>-429044.3610681969</v>
+        <v>-416456.5361645654</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-43302.58324890213</v>
+        <v>-39740.93512960652</v>
       </c>
       <c r="E29" t="n">
-        <v>-472346.944317099</v>
+        <v>-456197.4712941719</v>
       </c>
     </row>
     <row r="30">
@@ -4970,16 +4970,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>-468770.6907967337</v>
+        <v>-456270.7365627073</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-46089.41730531867</v>
+        <v>-42533.9333843341</v>
       </c>
       <c r="E30" t="n">
-        <v>-514860.1081020524</v>
+        <v>-498804.6699470414</v>
       </c>
     </row>
     <row r="31">
@@ -4987,16 +4987,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>-508497.0205252704</v>
+        <v>-496084.9369608493</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-48597.68075583705</v>
+        <v>-45047.74486283417</v>
       </c>
       <c r="E31" t="n">
-        <v>-557094.7012811074</v>
+        <v>-541132.6818236834</v>
       </c>
     </row>
     <row r="32">
@@ -5004,16 +5004,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>-548223.3502538071</v>
+        <v>-535899.1373589913</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-50853.90783356403</v>
+        <v>-47308.96248928427</v>
       </c>
       <c r="E32" t="n">
-        <v>-599077.2580873711</v>
+        <v>-583208.0998482755</v>
       </c>
     </row>
   </sheetData>
@@ -5067,16 +5067,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>643566.5416022954</v>
+        <v>658526.8745852688</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>202930.0018026598</v>
+        <v>207036.2917822773</v>
       </c>
       <c r="E2" t="n">
-        <v>846496.5434049552</v>
+        <v>865563.1663675461</v>
       </c>
     </row>
     <row r="3">
@@ -5084,16 +5084,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>603840.2118737586</v>
+        <v>618712.6741871267</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>194928.6886586145</v>
+        <v>199017.2805335117</v>
       </c>
       <c r="E3" t="n">
-        <v>798768.9005323731</v>
+        <v>817729.9547206385</v>
       </c>
     </row>
     <row r="4">
@@ -5101,16 +5101,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>564113.8821452218</v>
+        <v>578898.4737889847</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>185189.8374158599</v>
+        <v>189256.8879254779</v>
       </c>
       <c r="E4" t="n">
-        <v>749303.7195610817</v>
+        <v>768155.3617144625</v>
       </c>
     </row>
     <row r="5">
@@ -5118,16 +5118,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>524387.552416685</v>
+        <v>539084.2733908427</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>173944.8675590885</v>
+        <v>177987.0453196316</v>
       </c>
       <c r="E5" t="n">
-        <v>698332.4199757735</v>
+        <v>717071.3187104743</v>
       </c>
     </row>
     <row r="6">
@@ -5135,16 +5135,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>484661.2226881483</v>
+        <v>499270.0729927007</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>161496.0017188962</v>
+        <v>165510.643832812</v>
       </c>
       <c r="E6" t="n">
-        <v>646157.2244070445</v>
+        <v>664780.7168255127</v>
       </c>
     </row>
     <row r="7">
@@ -5152,16 +5152,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>444934.8929596116</v>
+        <v>459455.8725945587</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148175.8671946246</v>
+        <v>152161.0465026916</v>
       </c>
       <c r="E7" t="n">
-        <v>593110.7601542362</v>
+        <v>611616.9190972503</v>
       </c>
     </row>
     <row r="8">
@@ -5169,16 +5169,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>405208.5632310748</v>
+        <v>419641.6721964167</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>134315.4184670516</v>
+        <v>138269.9398482714</v>
       </c>
       <c r="E8" t="n">
-        <v>539523.9816981264</v>
+        <v>557911.6120446881</v>
       </c>
     </row>
     <row r="9">
@@ -5186,16 +5186,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>365482.2335025381</v>
+        <v>379827.4717982747</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>120221.4428080771</v>
+        <v>124144.789724225</v>
       </c>
       <c r="E9" t="n">
-        <v>485703.6763106151</v>
+        <v>503972.2615224997</v>
       </c>
     </row>
     <row r="10">
@@ -5203,16 +5203,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>325755.9037740013</v>
+        <v>340013.2714001327</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>106162.877792369</v>
+        <v>110055.1285682478</v>
       </c>
       <c r="E10" t="n">
-        <v>431918.7815663703</v>
+        <v>450068.3999683805</v>
       </c>
     </row>
     <row r="11">
@@ -5220,16 +5220,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>286029.5740454646</v>
+        <v>300199.0710019906</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>92364.25583533847</v>
+        <v>96225.98543900528</v>
       </c>
       <c r="E11" t="n">
-        <v>378393.829880803</v>
+        <v>396425.0564409959</v>
       </c>
     </row>
     <row r="12">
@@ -5237,16 +5237,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>246303.2443169278</v>
+        <v>260384.8706038487</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>79004.38107883495</v>
+        <v>82836.55997523238</v>
       </c>
       <c r="E12" t="n">
-        <v>325307.6253957627</v>
+        <v>343221.4305790811</v>
       </c>
     </row>
     <row r="13">
@@ -5254,16 +5254,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>206576.9145883911</v>
+        <v>220570.6702057066</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>66218.50922809071</v>
+        <v>70022.40705425864</v>
       </c>
       <c r="E13" t="n">
-        <v>272795.4238164818</v>
+        <v>290593.0772599653</v>
       </c>
     </row>
     <row r="14">
@@ -5271,16 +5271,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>166850.5848598543</v>
+        <v>180756.4698075647</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>54102.6229411969</v>
+        <v>57879.72163821888</v>
       </c>
       <c r="E14" t="n">
-        <v>220953.2078010512</v>
+        <v>238636.1914457835</v>
       </c>
     </row>
     <row r="15">
@@ -5288,16 +5288,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>127124.2551313176</v>
+        <v>140942.2694094226</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>42718.74709466432</v>
+        <v>46470.66579644952</v>
       </c>
       <c r="E15" t="n">
-        <v>169843.0022259819</v>
+        <v>187412.9352058722</v>
       </c>
     </row>
     <row r="16">
@@ -5305,16 +5305,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>87397.92540278082</v>
+        <v>101128.0690112806</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>32100.56593335881</v>
+        <v>35828.99827999852</v>
       </c>
       <c r="E16" t="n">
-        <v>119498.4913361396</v>
+        <v>136957.0672912791</v>
       </c>
     </row>
     <row r="17">
@@ -5322,16 +5322,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>47671.59567424408</v>
+        <v>61313.86861313865</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>22258.86284037339</v>
+        <v>25965.526323724</v>
       </c>
       <c r="E17" t="n">
-        <v>69930.45851461746</v>
+        <v>87279.39493686265</v>
       </c>
     </row>
     <row r="18">
@@ -5339,16 +5339,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>7945.265945707321</v>
+        <v>21499.66821499665</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>13186.49969798026</v>
+        <v>16873.09602109555</v>
       </c>
       <c r="E18" t="n">
-        <v>21131.76564368758</v>
+        <v>38372.76423609219</v>
       </c>
     </row>
     <row r="19">
@@ -5356,16 +5356,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>-31781.06378282943</v>
+        <v>-18314.53218314535</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>4862.793256356392</v>
+        <v>8530.97837300934</v>
       </c>
       <c r="E19" t="n">
-        <v>-26918.27052647304</v>
+        <v>-9783.553810136014</v>
       </c>
     </row>
     <row r="20">
@@ -5373,16 +5373,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>-71507.39351136619</v>
+        <v>-58128.73258128735</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-2742.758975379076</v>
+        <v>908.6034201242692</v>
       </c>
       <c r="E20" t="n">
-        <v>-74250.15248674527</v>
+        <v>-57220.12916116309</v>
       </c>
     </row>
     <row r="21">
@@ -5390,16 +5390,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>-111233.7232399029</v>
+        <v>-97942.93297942937</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-9667.3902994851</v>
+        <v>-6031.344496160714</v>
       </c>
       <c r="E21" t="n">
-        <v>-120901.113539388</v>
+        <v>-103974.2774755901</v>
       </c>
     </row>
     <row r="22">
@@ -5407,16 +5407,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>-150960.0529684397</v>
+        <v>-137757.1333775714</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-15952.56545352254</v>
+        <v>-12330.42182926039</v>
       </c>
       <c r="E22" t="n">
-        <v>-166912.6184219622</v>
+        <v>-150087.5552068318</v>
       </c>
     </row>
     <row r="23">
@@ -5424,16 +5424,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>-190686.3826969764</v>
+        <v>-177571.3337757134</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-21642.00391459702</v>
+        <v>-18032.44475939277</v>
       </c>
       <c r="E23" t="n">
-        <v>-212328.3866115735</v>
+        <v>-195603.7785351061</v>
       </c>
     </row>
     <row r="24">
@@ -5441,16 +5441,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>-230412.7124255132</v>
+        <v>-217385.5341738554</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-26780.15309157006</v>
+        <v>-23181.959008644</v>
       </c>
       <c r="E24" t="n">
-        <v>-257192.8655170833</v>
+        <v>-240567.4931824994</v>
       </c>
     </row>
     <row r="25">
@@ -5458,16 +5458,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>-270139.04215405</v>
+        <v>-257199.7345719974</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-31411.03943519736</v>
+        <v>-27823.08840987719</v>
       </c>
       <c r="E25" t="n">
-        <v>-301550.0815892473</v>
+        <v>-285022.8229818746</v>
       </c>
     </row>
     <row r="26">
@@ -5475,16 +5475,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>-309865.3718825867</v>
+        <v>-297013.9349701394</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-35577.43052479065</v>
+        <v>-31998.69514001373</v>
       </c>
       <c r="E26" t="n">
-        <v>-345442.8024073773</v>
+        <v>-329012.6301101531</v>
       </c>
     </row>
     <row r="27">
@@ -5492,16 +5492,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>-349591.7016111235</v>
+        <v>-336828.1353682814</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-39320.24836289656</v>
+        <v>-35749.79171697851</v>
       </c>
       <c r="E27" t="n">
-        <v>-388911.94997402</v>
+        <v>-372577.9270852599</v>
       </c>
     </row>
     <row r="28">
@@ -5509,16 +5509,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>-389318.0313396602</v>
+        <v>-376642.3357664234</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-42678.18208092035</v>
+        <v>-39115.15284866749</v>
       </c>
       <c r="E28" t="n">
-        <v>-431996.2134205805</v>
+        <v>-415757.4886150908</v>
       </c>
     </row>
     <row r="29">
@@ -5526,16 +5526,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>-429044.3610681969</v>
+        <v>-416456.5361645654</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-45687.45619325429</v>
+        <v>-42131.08317447705</v>
       </c>
       <c r="E29" t="n">
-        <v>-474731.8172614512</v>
+        <v>-458587.6193390424</v>
       </c>
     </row>
     <row r="30">
@@ -5543,16 +5543,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>-468770.6907967337</v>
+        <v>-456270.7365627073</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-48381.71795270385</v>
+        <v>-44831.30437157193</v>
       </c>
       <c r="E30" t="n">
-        <v>-517152.4087494375</v>
+        <v>-501102.0409342793</v>
       </c>
     </row>
     <row r="31">
@@ -5560,16 +5560,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>-508497.0205252704</v>
+        <v>-496084.9369608493</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-50792.01400915213</v>
+        <v>-47246.93176192079</v>
       </c>
       <c r="E31" t="n">
-        <v>-559289.0345344224</v>
+        <v>-543331.8687227701</v>
       </c>
     </row>
     <row r="32">
@@ -5577,16 +5577,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>-548223.3502538071</v>
+        <v>-535899.1373589913</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-52946.83236217532</v>
+        <v>-49406.51635770669</v>
       </c>
       <c r="E32" t="n">
-        <v>-601170.1826159825</v>
+        <v>-585305.6537166981</v>
       </c>
     </row>
   </sheetData>
@@ -5640,16 +5640,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>643566.5416022954</v>
+        <v>658526.8745852688</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>208350.4621914133</v>
+        <v>212468.7416874846</v>
       </c>
       <c r="E2" t="n">
-        <v>851917.0037937086</v>
+        <v>870995.6162727533</v>
       </c>
     </row>
     <row r="3">
@@ -5657,16 +5657,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>603840.2118737586</v>
+        <v>618712.6741871267</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>201354.5703704597</v>
+        <v>205457.3756532575</v>
       </c>
       <c r="E3" t="n">
-        <v>805194.7822442183</v>
+        <v>824170.0498403842</v>
       </c>
     </row>
     <row r="4">
@@ -5674,16 +5674,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>564113.8821452218</v>
+        <v>578898.4737889847</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>192289.5107820224</v>
+        <v>196372.265059316</v>
       </c>
       <c r="E4" t="n">
-        <v>756403.3929272443</v>
+        <v>775270.7388483007</v>
       </c>
     </row>
     <row r="5">
@@ -5691,16 +5691,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>524387.552416685</v>
+        <v>539084.2733908427</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>181293.6349850943</v>
+        <v>185352.0674844694</v>
       </c>
       <c r="E5" t="n">
-        <v>705681.1874017793</v>
+        <v>724436.3408753121</v>
       </c>
     </row>
     <row r="6">
@@ -5708,16 +5708,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>484661.2226881483</v>
+        <v>499270.0729927007</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>168641.971466718</v>
+        <v>172672.4197512769</v>
       </c>
       <c r="E6" t="n">
-        <v>653303.1941548663</v>
+        <v>671942.4927439776</v>
       </c>
     </row>
     <row r="7">
@@ -5725,16 +5725,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>444934.8929596116</v>
+        <v>459455.8725945587</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>154695.7194271117</v>
+        <v>158695.3199964759</v>
       </c>
       <c r="E7" t="n">
-        <v>599630.6123867233</v>
+        <v>618151.1925910346</v>
       </c>
     </row>
     <row r="8">
@@ -5742,16 +5742,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>405208.5632310748</v>
+        <v>419641.6721964167</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>139853.4708833155</v>
+        <v>143820.2418827973</v>
       </c>
       <c r="E8" t="n">
-        <v>545062.0341143904</v>
+        <v>563461.914079214</v>
       </c>
     </row>
     <row r="9">
@@ -5759,16 +5759,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>365482.2335025381</v>
+        <v>379827.4717982747</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>124511.1674046532</v>
+        <v>128444.0027627312</v>
       </c>
       <c r="E9" t="n">
-        <v>489993.4009071912</v>
+        <v>508271.4745610058</v>
       </c>
     </row>
     <row r="10">
@@ -5776,16 +5776,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>325755.9037740013</v>
+        <v>340013.2714001327</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>109033.395893866</v>
+        <v>112931.995968797</v>
       </c>
       <c r="E10" t="n">
-        <v>434789.2996678672</v>
+        <v>452945.2673689297</v>
       </c>
     </row>
     <row r="11">
@@ -5793,16 +5793,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>286029.5740454646</v>
+        <v>300199.0710019906</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>93735.74619758088</v>
+        <v>97600.50940081029</v>
       </c>
       <c r="E11" t="n">
-        <v>379765.3202430455</v>
+        <v>397799.5804028009</v>
       </c>
     </row>
     <row r="12">
@@ -5810,16 +5810,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>246303.2443169278</v>
+        <v>260384.8706038487</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>78876.44458540615</v>
+        <v>82708.34049907092</v>
       </c>
       <c r="E12" t="n">
-        <v>325179.688902334</v>
+        <v>343093.2111029196</v>
       </c>
     </row>
     <row r="13">
@@ -5827,16 +5827,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>206576.9145883911</v>
+        <v>220570.6702057066</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>64654.94889041652</v>
+        <v>68455.38827743896</v>
       </c>
       <c r="E13" t="n">
-        <v>271231.8634788076</v>
+        <v>289026.0584831456</v>
       </c>
     </row>
     <row r="14">
@@ -5844,16 +5844,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>166850.5848598543</v>
+        <v>180756.4698075647</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>51215.2515716148</v>
+        <v>54985.96369184054</v>
       </c>
       <c r="E14" t="n">
-        <v>218065.8364314691</v>
+        <v>235742.4334994052</v>
       </c>
     </row>
     <row r="15">
@@ -5861,16 +5861,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>127124.2551313176</v>
+        <v>140942.2694094226</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>38651.98678241819</v>
+        <v>42394.91021697881</v>
       </c>
       <c r="E15" t="n">
-        <v>165776.2419137358</v>
+        <v>183337.1796264015</v>
       </c>
     </row>
     <row r="16">
@@ -5878,16 +5878,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>87397.92540278082</v>
+        <v>101128.0690112806</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>27017.88193229253</v>
+        <v>30735.07189007782</v>
       </c>
       <c r="E16" t="n">
-        <v>114415.8073350733</v>
+        <v>131863.1409013584</v>
       </c>
     </row>
     <row r="17">
@@ -5895,16 +5895,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>47671.59567424408</v>
+        <v>61313.86861313865</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>16331.52345221066</v>
+        <v>20025.07625343749</v>
       </c>
       <c r="E17" t="n">
-        <v>64003.11912645474</v>
+        <v>81338.94486657614</v>
       </c>
     </row>
     <row r="18">
@@ -5912,16 +5912,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>7945.265945707321</v>
+        <v>21499.66821499665</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>6584.769368062174</v>
+        <v>10256.76332371469</v>
       </c>
       <c r="E18" t="n">
-        <v>14530.03531376949</v>
+        <v>31756.43153871133</v>
       </c>
     </row>
     <row r="19">
@@ -5929,16 +5929,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>-31781.06378282943</v>
+        <v>-18314.53218314535</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-2250.577584856389</v>
+        <v>1401.873466675535</v>
       </c>
       <c r="E19" t="n">
-        <v>-34031.64136768581</v>
+        <v>-16912.65871646982</v>
       </c>
     </row>
     <row r="20">
@@ -5946,16 +5946,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>-71507.39351136619</v>
+        <v>-58128.73258128735</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-10217.01948298953</v>
+        <v>-6582.189404468297</v>
       </c>
       <c r="E20" t="n">
-        <v>-81724.41299435572</v>
+        <v>-64710.92198575565</v>
       </c>
     </row>
     <row r="21">
@@ -5963,16 +5963,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>-111233.7232399029</v>
+        <v>-97942.93297942937</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-17366.58125923464</v>
+        <v>-13747.56529656442</v>
       </c>
       <c r="E21" t="n">
-        <v>-128600.3044991376</v>
+        <v>-111690.4982759938</v>
       </c>
     </row>
     <row r="22">
@@ -5980,16 +5980,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>-150960.0529684397</v>
+        <v>-137757.1333775714</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-23756.95710260683</v>
+        <v>-20152.07601240592</v>
       </c>
       <c r="E22" t="n">
-        <v>-174717.0100710465</v>
+        <v>-157909.2093899773</v>
       </c>
     </row>
     <row r="23">
@@ -5997,16 +5997,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>-190686.3826969764</v>
+        <v>-177571.3337757134</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-29448.49650376265</v>
+        <v>-25856.20452968905</v>
       </c>
       <c r="E23" t="n">
-        <v>-220134.8792007391</v>
+        <v>-203427.5383054024</v>
       </c>
     </row>
     <row r="24">
@@ -6014,16 +6014,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>-230412.7124255132</v>
+        <v>-217385.5341738554</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-34501.91870094786</v>
+        <v>-30920.80439154398</v>
       </c>
       <c r="E24" t="n">
-        <v>-264914.6311264611</v>
+        <v>-248306.3385653994</v>
       </c>
     </row>
     <row r="25">
@@ -6031,16 +6031,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>-270139.04215405</v>
+        <v>-257199.7345719974</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-38976.63876858674</v>
+        <v>-35405.42209259945</v>
       </c>
       <c r="E25" t="n">
-        <v>-309115.6809226367</v>
+        <v>-292605.1566645969</v>
       </c>
     </row>
     <row r="26">
@@ -6048,16 +6048,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>-309865.3718825867</v>
+        <v>-297013.9349701394</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-42929.59347167157</v>
+        <v>-39367.12033627948</v>
       </c>
       <c r="E26" t="n">
-        <v>-352794.9653542583</v>
+        <v>-336381.0553064189</v>
       </c>
     </row>
     <row r="27">
@@ -6065,16 +6065,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>-349591.7016111235</v>
+        <v>-336828.1353682814</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-46414.46561335462</v>
+        <v>-42859.7006667298</v>
       </c>
       <c r="E27" t="n">
-        <v>-396006.1672244781</v>
+        <v>-379687.8360350112</v>
       </c>
     </row>
     <row r="28">
@@ -6082,16 +6082,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>-389318.0313396602</v>
+        <v>-376642.3357664234</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-49481.2187902822</v>
+        <v>-45933.23719507724</v>
       </c>
       <c r="E28" t="n">
-        <v>-438799.2501299424</v>
+        <v>-422575.5729615006</v>
       </c>
     </row>
     <row r="29">
@@ -6099,16 +6099,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>-429044.3610681969</v>
+        <v>-416456.5361645654</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-52175.86823498942</v>
+        <v>-48633.84693495082</v>
       </c>
       <c r="E29" t="n">
-        <v>-481220.2293031863</v>
+        <v>-465090.3830995162</v>
       </c>
     </row>
     <row r="30">
@@ -6116,16 +6116,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>-468770.6907967337</v>
+        <v>-456270.7365627073</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-54540.42656993722</v>
+        <v>-51003.635436532</v>
       </c>
       <c r="E30" t="n">
-        <v>-523311.1173666709</v>
+        <v>-507274.3719992393</v>
       </c>
     </row>
     <row r="31">
@@ -6133,16 +6133,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>-508497.0205252704</v>
+        <v>-496084.9369608493</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-56612.97517957244</v>
+        <v>-53080.7683164827</v>
       </c>
       <c r="E31" t="n">
-        <v>-565109.9957048428</v>
+        <v>-549165.705277332</v>
       </c>
     </row>
     <row r="32">
@@ -6150,16 +6150,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>-548223.3502538071</v>
+        <v>-535899.1373589913</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-58427.82224459316</v>
+        <v>-54899.6296417667</v>
       </c>
       <c r="E32" t="n">
-        <v>-606651.1724984003</v>
+        <v>-590798.767000758</v>
       </c>
     </row>
   </sheetData>
@@ -6213,16 +6213,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>643566.5416022954</v>
+        <v>658526.8745852688</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>213346.6386063468</v>
+        <v>217475.9691451407</v>
       </c>
       <c r="E2" t="n">
-        <v>856913.1802086422</v>
+        <v>876002.8437304095</v>
       </c>
     </row>
     <row r="3">
@@ -6230,16 +6230,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>603840.2118737586</v>
+        <v>618712.6741871267</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>207736.5931014755</v>
+        <v>211853.5147804932</v>
       </c>
       <c r="E3" t="n">
-        <v>811576.8049752341</v>
+        <v>830566.1889676198</v>
       </c>
     </row>
     <row r="4">
@@ -6247,16 +6247,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>564113.8821452218</v>
+        <v>578898.4737889847</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>199794.827155837</v>
+        <v>203894.1824425837</v>
       </c>
       <c r="E4" t="n">
-        <v>763908.7093010588</v>
+        <v>782792.6562315684</v>
       </c>
     </row>
     <row r="5">
@@ -6264,16 +6264,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>524387.552416685</v>
+        <v>539084.2733908427</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>189465.2969471698</v>
+        <v>193541.8043458196</v>
       </c>
       <c r="E5" t="n">
-        <v>713852.8493638549</v>
+        <v>732626.0777366624</v>
       </c>
     </row>
     <row r="6">
@@ -6281,16 +6281,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>484661.2226881483</v>
+        <v>499270.0729927007</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>176912.7108361954</v>
+        <v>180961.4531693486</v>
       </c>
       <c r="E6" t="n">
-        <v>661573.9335243438</v>
+        <v>680231.5261620494</v>
       </c>
     </row>
     <row r="7">
@@ -6298,16 +6298,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>444934.8929596116</v>
+        <v>459455.8725945587</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>162478.5101511569</v>
+        <v>166495.3254754957</v>
       </c>
       <c r="E7" t="n">
-        <v>607413.4031107685</v>
+        <v>625951.1980700544</v>
       </c>
     </row>
     <row r="8">
@@ -6315,16 +6315,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>405208.5632310748</v>
+        <v>419641.6721964167</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>146617.8719260976</v>
+        <v>150599.6051043955</v>
       </c>
       <c r="E8" t="n">
-        <v>551826.4351571724</v>
+        <v>570241.2773008123</v>
       </c>
     </row>
     <row r="9">
@@ -6332,16 +6332,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>365482.2335025381</v>
+        <v>379827.4717982747</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>129835.2037304798</v>
+        <v>133779.8153246247</v>
       </c>
       <c r="E9" t="n">
-        <v>495317.4372330179</v>
+        <v>513607.2871228993</v>
       </c>
     </row>
     <row r="10">
@@ -6349,16 +6349,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>325755.9037740013</v>
+        <v>340013.2714001327</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>112629.411826332</v>
+        <v>116535.9659289836</v>
       </c>
       <c r="E10" t="n">
-        <v>438385.3156003333</v>
+        <v>456549.2373291162</v>
       </c>
     </row>
     <row r="11">
@@ -6366,16 +6366,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>286029.5740454646</v>
+        <v>300199.0710019906</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>95454.08350213793</v>
+        <v>99322.64749568932</v>
       </c>
       <c r="E11" t="n">
-        <v>381483.6575476025</v>
+        <v>399521.71849768</v>
       </c>
     </row>
     <row r="12">
@@ -6383,16 +6383,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>246303.2443169278</v>
+        <v>260384.8706038487</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>78693.17226374759</v>
+        <v>82524.66279736001</v>
       </c>
       <c r="E12" t="n">
-        <v>324996.4165806754</v>
+        <v>342909.5334012087</v>
       </c>
     </row>
     <row r="13">
@@ -6400,16 +6400,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>206576.9145883911</v>
+        <v>220570.6702057066</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>62650.09496265109</v>
+        <v>66446.09981322638</v>
       </c>
       <c r="E13" t="n">
-        <v>269227.0095510422</v>
+        <v>287016.770018933</v>
       </c>
     </row>
     <row r="14">
@@ -6417,16 +6417,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>166850.5848598543</v>
+        <v>180756.4698075647</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>47547.00810216553</v>
+        <v>51309.60643458004</v>
       </c>
       <c r="E14" t="n">
-        <v>214397.5929620199</v>
+        <v>232066.0762421447</v>
       </c>
     </row>
     <row r="15">
@@ -6434,16 +6434,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>127124.2551313176</v>
+        <v>140942.2694094226</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>33530.91283893994</v>
+        <v>37262.5089699317</v>
       </c>
       <c r="E15" t="n">
-        <v>160655.1679702575</v>
+        <v>178204.7783793543</v>
       </c>
     </row>
     <row r="16">
@@ -6451,16 +6451,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>87397.92540278082</v>
+        <v>101128.0690112806</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>20683.67914725255</v>
+        <v>24386.8584817575</v>
       </c>
       <c r="E16" t="n">
-        <v>108081.6045500334</v>
+        <v>125514.9274930382</v>
       </c>
     </row>
     <row r="17">
@@ -6468,16 +6468,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>47671.59567424408</v>
+        <v>61313.86861313865</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>9033.74199232311</v>
+        <v>12711.15283057739</v>
       </c>
       <c r="E17" t="n">
-        <v>56705.33766656718</v>
+        <v>74025.02144371605</v>
       </c>
     </row>
     <row r="18">
@@ -6485,16 +6485,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>7945.265945707321</v>
+        <v>21499.66821499665</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-1432.100943528692</v>
+        <v>2222.16049650429</v>
       </c>
       <c r="E18" t="n">
-        <v>6513.16500217863</v>
+        <v>23721.82871150094</v>
       </c>
     </row>
     <row r="19">
@@ -6502,16 +6502,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>-31781.06378282943</v>
+        <v>-18314.53218314535</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-10757.77528032446</v>
+        <v>-7124.141299563307</v>
       </c>
       <c r="E19" t="n">
-        <v>-42538.83906315389</v>
+        <v>-25438.67348270866</v>
       </c>
     </row>
     <row r="20">
@@ -6519,16 +6519,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>-71507.39351136619</v>
+        <v>-58128.73258128735</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-19008.43010576801</v>
+        <v>-15393.04574859775</v>
       </c>
       <c r="E20" t="n">
-        <v>-90515.82361713419</v>
+        <v>-73521.7783298851</v>
       </c>
     </row>
     <row r="21">
@@ -6536,16 +6536,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>-111233.7232399029</v>
+        <v>-97942.93297942937</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-26262.5580962817</v>
+        <v>-22663.21914497411</v>
       </c>
       <c r="E21" t="n">
-        <v>-137496.2813361846</v>
+        <v>-120606.1521244035</v>
       </c>
     </row>
     <row r="22">
@@ -6553,16 +6553,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>-150960.0529684397</v>
+        <v>-137757.1333775714</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-32605.72853292624</v>
+        <v>-29020.42004044777</v>
       </c>
       <c r="E22" t="n">
-        <v>-183565.7815013659</v>
+        <v>-166777.5534180191</v>
       </c>
     </row>
     <row r="23">
@@ -6570,16 +6570,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>-190686.3826969764</v>
+        <v>-177571.3337757134</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-38125.80020851517</v>
+        <v>-34552.70156269804</v>
       </c>
       <c r="E23" t="n">
-        <v>-228812.1829054916</v>
+        <v>-212124.0353384114</v>
       </c>
     </row>
     <row r="24">
@@ -6587,16 +6587,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>-230412.7124255132</v>
+        <v>-217385.5341738554</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-42909.41799938919</v>
+        <v>-39346.9002378695</v>
       </c>
       <c r="E24" t="n">
-        <v>-273322.1304249024</v>
+        <v>-256732.4344117249</v>
       </c>
     </row>
     <row r="25">
@@ -6604,16 +6604,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>-270139.04215405</v>
+        <v>-257199.7345719974</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-47039.57584132152</v>
+        <v>-43486.19357602374</v>
       </c>
       <c r="E25" t="n">
-        <v>-317178.6179953715</v>
+        <v>-300685.9281480211</v>
       </c>
     </row>
     <row r="26">
@@ -6621,16 +6621,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>-309865.3718825867</v>
+        <v>-297013.9349701394</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-50594.03406399336</v>
+        <v>-47048.51390491695</v>
       </c>
       <c r="E26" t="n">
-        <v>-360459.4059465801</v>
+        <v>-344062.4488750563</v>
       </c>
     </row>
     <row r="27">
@@ -6638,16 +6638,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>-349591.7016111235</v>
+        <v>-336828.1353682814</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-53644.39893421838</v>
+        <v>-50105.62587726588</v>
       </c>
       <c r="E27" t="n">
-        <v>-403236.1005453418</v>
+        <v>-386933.7612455473</v>
       </c>
     </row>
     <row r="28">
@@ -6655,16 +6655,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>-389318.0313396602</v>
+        <v>-376642.3357664234</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-56255.69893066347</v>
+        <v>-52722.70180823086</v>
       </c>
       <c r="E28" t="n">
-        <v>-445573.7302703236</v>
+        <v>-429365.0375746542</v>
       </c>
     </row>
     <row r="29">
@@ -6672,16 +6672,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>-429044.3610681969</v>
+        <v>-416456.5361645654</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-58486.32065166247</v>
+        <v>-54958.2574414639</v>
       </c>
       <c r="E29" t="n">
-        <v>-487530.6817198594</v>
+        <v>-471414.7936060292</v>
       </c>
     </row>
     <row r="30">
@@ -6689,16 +6689,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>-468770.6907967337</v>
+        <v>-456270.7365627073</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-60388.19433448635</v>
+        <v>-56864.33787872885</v>
       </c>
       <c r="E30" t="n">
-        <v>-529158.88513122</v>
+        <v>-513135.0744414362</v>
       </c>
     </row>
     <row r="31">
@@ -6706,16 +6706,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>-508497.0205252704</v>
+        <v>-496084.9369608493</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-62007.14315381132</v>
+        <v>-58486.86765098313</v>
       </c>
       <c r="E31" t="n">
-        <v>-570504.1636790817</v>
+        <v>-554571.8046118325</v>
       </c>
     </row>
     <row r="32">
@@ -6723,16 +6723,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>-548223.3502538071</v>
+        <v>-535899.1373589913</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-63383.3311152962</v>
+        <v>-59866.09960265044</v>
       </c>
       <c r="E32" t="n">
-        <v>-611606.6813691034</v>
+        <v>-595765.2369616418</v>
       </c>
     </row>
   </sheetData>
@@ -6786,16 +6786,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>643566.5416022954</v>
+        <v>658526.8745852688</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>217389.2173689565</v>
+        <v>221527.4896878049</v>
       </c>
       <c r="E2" t="n">
-        <v>860955.7589712519</v>
+        <v>880054.3642730737</v>
       </c>
     </row>
     <row r="3">
@@ -6803,16 +6803,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>603840.2118737586</v>
+        <v>618712.6741871267</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>213447.8019596353</v>
+        <v>217577.3562616527</v>
       </c>
       <c r="E3" t="n">
-        <v>817288.0138333939</v>
+        <v>836290.0304487795</v>
       </c>
     </row>
     <row r="4">
@@ -6820,16 +6820,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>564113.8821452218</v>
+        <v>578898.4737889847</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>207120.3206272492</v>
+        <v>211235.8791731676</v>
       </c>
       <c r="E4" t="n">
-        <v>771234.202772471</v>
+        <v>790134.3529621523</v>
       </c>
     </row>
     <row r="5">
@@ -6837,16 +6837,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>524387.552416685</v>
+        <v>539084.2733908427</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>198030.7374724279</v>
+        <v>202126.190769165</v>
       </c>
       <c r="E5" t="n">
-        <v>722418.2898891129</v>
+        <v>741210.4641600077</v>
       </c>
     </row>
     <row r="6">
@@ -6854,16 +6854,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>484661.2226881483</v>
+        <v>499270.0729927007</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>186089.7235880063</v>
+        <v>190158.7645558683</v>
       </c>
       <c r="E6" t="n">
-        <v>670750.9462761546</v>
+        <v>689428.8375485691</v>
       </c>
     </row>
     <row r="7">
@@ -6871,16 +6871,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>444934.8929596116</v>
+        <v>459455.8725945587</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>171504.8179392578</v>
+        <v>175541.5985539927</v>
       </c>
       <c r="E7" t="n">
-        <v>616439.7108988694</v>
+        <v>634997.4711485514</v>
       </c>
     </row>
     <row r="8">
@@ -6888,16 +6888,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>405208.5632310748</v>
+        <v>419641.6721964167</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>154728.8277984607</v>
+        <v>158728.5016002322</v>
       </c>
       <c r="E8" t="n">
-        <v>559937.3910295356</v>
+        <v>578370.1737966489</v>
       </c>
     </row>
     <row r="9">
@@ -6905,16 +6905,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>365482.2335025381</v>
+        <v>379827.4717982747</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>136373.4458440804</v>
+        <v>140332.5193761011</v>
       </c>
       <c r="E9" t="n">
-        <v>501855.6793466185</v>
+        <v>520159.9911743758</v>
       </c>
     </row>
     <row r="10">
@@ -6922,16 +6922,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>325755.9037740013</v>
+        <v>340013.2714001327</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>117115.422522769</v>
+        <v>121031.8992325792</v>
       </c>
       <c r="E10" t="n">
-        <v>442871.3262967702</v>
+        <v>461045.1706327119</v>
       </c>
     </row>
     <row r="11">
@@ -6939,16 +6939,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>286029.5740454646</v>
+        <v>300199.0710019906</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>97615.04911024863</v>
+        <v>101488.3929436764</v>
       </c>
       <c r="E11" t="n">
-        <v>383644.6231557132</v>
+        <v>401687.463945667</v>
       </c>
     </row>
     <row r="12">
@@ -6956,16 +6956,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>246303.2443169278</v>
+        <v>260384.8706038487</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>78457.09294477922</v>
+        <v>82288.06129454082</v>
       </c>
       <c r="E12" t="n">
-        <v>324760.337261707</v>
+        <v>342672.9318983895</v>
       </c>
     </row>
     <row r="13">
@@ -6973,16 +6973,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>206576.9145883911</v>
+        <v>220570.6702057066</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>60116.29092273269</v>
+        <v>63906.69125209605</v>
       </c>
       <c r="E13" t="n">
-        <v>266693.2055111238</v>
+        <v>284477.3614578027</v>
       </c>
     </row>
     <row r="14">
@@ -6990,16 +6990,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>166850.5848598543</v>
+        <v>180756.4698075647</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>42944.37060161728</v>
+        <v>46696.78836004254</v>
       </c>
       <c r="E14" t="n">
-        <v>209794.9554614716</v>
+        <v>227453.2581676072</v>
       </c>
     </row>
     <row r="15">
@@ -7007,16 +7007,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>127124.2551313176</v>
+        <v>140942.2694094226</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>27173.19100020623</v>
+        <v>30890.72448612228</v>
       </c>
       <c r="E15" t="n">
-        <v>154297.4461315238</v>
+        <v>171832.9938955449</v>
       </c>
     </row>
     <row r="16">
@@ -7024,16 +7024,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>87397.92540278082</v>
+        <v>101128.0690112806</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>12928.21156084001</v>
+        <v>16614.23657641904</v>
       </c>
       <c r="E16" t="n">
-        <v>100326.1369636208</v>
+        <v>117742.3055876997</v>
       </c>
     </row>
     <row r="17">
@@ -7041,16 +7041,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>47671.59567424408</v>
+        <v>61313.86861313865</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>247.2601006899458</v>
+        <v>3905.23611945378</v>
       </c>
       <c r="E17" t="n">
-        <v>47918.85577493403</v>
+        <v>65219.10473259243</v>
       </c>
     </row>
     <row r="18">
@@ -7058,16 +7058,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>7945.265945707321</v>
+        <v>21499.66821499665</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-10899.19417377839</v>
+        <v>-7265.872997470799</v>
       </c>
       <c r="E18" t="n">
-        <v>-2953.928228071071</v>
+        <v>14233.79521752585</v>
       </c>
     </row>
     <row r="19">
@@ -7075,16 +7075,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>-31781.06378282943</v>
+        <v>-18314.53218314535</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-20588.78261449829</v>
+        <v>-16976.89383907706</v>
       </c>
       <c r="E19" t="n">
-        <v>-52369.84639732772</v>
+        <v>-35291.42602222241</v>
       </c>
     </row>
     <row r="20">
@@ -7092,16 +7092,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>-71507.39351136619</v>
+        <v>-58128.73258128735</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-28930.42824743588</v>
+        <v>-25336.99035817465</v>
       </c>
       <c r="E20" t="n">
-        <v>-100437.8217588021</v>
+        <v>-83465.72293946199</v>
       </c>
     </row>
     <row r="21">
@@ -7109,16 +7109,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>-111233.7232399029</v>
+        <v>-97942.93297942937</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-36050.60411119251</v>
+        <v>-32472.9153390818</v>
       </c>
       <c r="E21" t="n">
-        <v>-147284.3273510954</v>
+        <v>-130415.8483185112</v>
       </c>
     </row>
     <row r="22">
@@ -7126,16 +7126,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>-150960.0529684397</v>
+        <v>-137757.1333775714</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-42082.72663291486</v>
+        <v>-38518.38031274337</v>
       </c>
       <c r="E22" t="n">
-        <v>-193042.7796013545</v>
+        <v>-176275.5136903148</v>
       </c>
     </row>
     <row r="23">
@@ -7143,16 +7143,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>-190686.3826969764</v>
+        <v>-177571.3337757134</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-47159.42317694891</v>
+        <v>-43606.30600197547</v>
       </c>
       <c r="E23" t="n">
-        <v>-237845.8058739253</v>
+        <v>-221177.6397776888</v>
       </c>
     </row>
     <row r="24">
@@ -7160,16 +7160,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>-230412.7124255132</v>
+        <v>-217385.5341738554</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-51407.24929054433</v>
+        <v>-47863.52788224549</v>
       </c>
       <c r="E24" t="n">
-        <v>-281819.9617160575</v>
+        <v>-265249.0620561009</v>
       </c>
     </row>
     <row r="25">
@@ -7177,16 +7177,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>-270139.04215405</v>
+        <v>-257199.7345719974</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-54943.37941201257</v>
+        <v>-51407.47957000764</v>
       </c>
       <c r="E25" t="n">
-        <v>-325082.4215660625</v>
+        <v>-308607.214142005</v>
       </c>
     </row>
     <row r="26">
@@ -7194,16 +7194,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>-309865.3718825867</v>
+        <v>-297013.9349701394</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-57873.81160408577</v>
+        <v>-54344.39358511132</v>
       </c>
       <c r="E26" t="n">
-        <v>-367739.1834866725</v>
+        <v>-351358.3285552507</v>
       </c>
     </row>
     <row r="27">
@@ -7211,16 +7211,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>-349591.7016111235</v>
+        <v>-336828.1353682814</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-60292.68033109069</v>
+        <v>-56768.61260790701</v>
       </c>
       <c r="E27" t="n">
-        <v>-409884.3819422142</v>
+        <v>-393596.7479761884</v>
       </c>
     </row>
     <row r="28">
@@ -7228,16 +7228,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>-389318.0313396602</v>
+        <v>-376642.3357664234</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-62282.33979722868</v>
+        <v>-58762.67300186213</v>
       </c>
       <c r="E28" t="n">
-        <v>-451600.3711368889</v>
+        <v>-435405.0087682855</v>
       </c>
     </row>
     <row r="29">
@@ -7245,16 +7245,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>-429044.3610681969</v>
+        <v>-416456.5361645654</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-63913.95046213154</v>
+        <v>-60397.8926264308</v>
       </c>
       <c r="E29" t="n">
-        <v>-492958.3115303284</v>
+        <v>-476854.4287909961</v>
       </c>
     </row>
     <row r="30">
@@ -7262,16 +7262,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>-468770.6907967337</v>
+        <v>-456270.7365627073</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-65248.36555591199</v>
+        <v>-61735.25931298669</v>
       </c>
       <c r="E30" t="n">
-        <v>-534019.0563526456</v>
+        <v>-518005.995875694</v>
       </c>
     </row>
     <row r="31">
@@ -7279,16 +7279,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>-508497.0205252704</v>
+        <v>-496084.9369608493</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-66337.16925791364</v>
+        <v>-62826.4713399209</v>
       </c>
       <c r="E31" t="n">
-        <v>-574834.189783184</v>
+        <v>-558911.4083007702</v>
       </c>
     </row>
     <row r="32">
@@ -7296,16 +7296,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>-548223.3502538071</v>
+        <v>-535899.1373589913</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-67223.76273193309</v>
+        <v>-63715.02587006512</v>
       </c>
       <c r="E32" t="n">
-        <v>-615447.1129857402</v>
+        <v>-599614.1632290564</v>
       </c>
     </row>
   </sheetData>

--- a/RGGI PnL Output.xlsx
+++ b/RGGI PnL Output.xlsx
@@ -20,6 +20,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="End of Oct" sheetId="11" state="visible" r:id="rId11"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="End of Nov" sheetId="12" state="visible" r:id="rId12"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dec expiry" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="End of Dec" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -483,16 +484,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>658526.8745852688</v>
+        <v>-65180.3570105918</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>222232.3820514142</v>
+        <v>114851.9401391869</v>
       </c>
       <c r="E2" t="n">
-        <v>880759.256636683</v>
+        <v>49671.58312859511</v>
       </c>
     </row>
     <row r="3">
@@ -500,16 +501,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>618712.6741871267</v>
+        <v>-57773.49825938819</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>218654.0170927032</v>
+        <v>111794.018627976</v>
       </c>
       <c r="E3" t="n">
-        <v>837366.6912798299</v>
+        <v>54020.52036858782</v>
       </c>
     </row>
     <row r="4">
@@ -517,16 +518,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>578898.4737889847</v>
+        <v>-50366.63950818458</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>212714.8274010976</v>
+        <v>106386.6344067895</v>
       </c>
       <c r="E4" t="n">
-        <v>791613.3011900823</v>
+        <v>56019.99489860492</v>
       </c>
     </row>
     <row r="5">
@@ -534,16 +535,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>539084.2733908427</v>
+        <v>-42959.78075698097</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>203955.4287511102</v>
+        <v>98004.14107730438</v>
       </c>
       <c r="E5" t="n">
-        <v>743039.7021419529</v>
+        <v>55044.36032032341</v>
       </c>
     </row>
     <row r="6">
@@ -551,16 +552,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>499270.0729927007</v>
+        <v>-35552.92200577736</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>192207.8746426528</v>
+        <v>86319.24946323811</v>
       </c>
       <c r="E6" t="n">
-        <v>691477.9476353535</v>
+        <v>50766.32745746076</v>
       </c>
     </row>
     <row r="7">
@@ -568,16 +569,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>459455.8725945587</v>
+        <v>-28146.06325457374</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>177627.6152604284</v>
+        <v>71386.19086508267</v>
       </c>
       <c r="E7" t="n">
-        <v>637083.4878549872</v>
+        <v>43240.12761050893</v>
       </c>
     </row>
     <row r="8">
@@ -585,16 +586,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>419641.6721964167</v>
+        <v>-20739.20450337013</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>160652.006688401</v>
+        <v>53625.22817132824</v>
       </c>
       <c r="E8" t="n">
-        <v>580293.6788848178</v>
+        <v>32886.02366795811</v>
       </c>
     </row>
     <row r="9">
@@ -602,16 +603,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>379827.4717982747</v>
+        <v>-13332.34575216651</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>141912.1652463788</v>
+        <v>33731.42701736646</v>
       </c>
       <c r="E9" t="n">
-        <v>521739.6370446535</v>
+        <v>20399.08126519995</v>
       </c>
     </row>
     <row r="10">
@@ -619,16 +620,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>340013.2714001327</v>
+        <v>-5925.487000962897</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>122129.4723218497</v>
+        <v>12547.27576040755</v>
       </c>
       <c r="E10" t="n">
-        <v>462142.7437219824</v>
+        <v>6621.788759444652</v>
       </c>
     </row>
     <row r="11">
@@ -636,16 +637,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>300199.0710019906</v>
+        <v>1481.371750240718</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>102021.4529123821</v>
+        <v>-9063.541330146945</v>
       </c>
       <c r="E11" t="n">
-        <v>402220.5239143728</v>
+        <v>-7582.169579906227</v>
       </c>
     </row>
     <row r="12">
@@ -653,16 +654,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>260384.8706038487</v>
+        <v>8888.230501444332</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>82231.09091579233</v>
+        <v>-30316.44145230193</v>
       </c>
       <c r="E12" t="n">
-        <v>342615.961519641</v>
+        <v>-21428.2109508576</v>
       </c>
     </row>
     <row r="13">
@@ -670,16 +671,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>220570.6702057066</v>
+        <v>16295.08925264795</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>63283.84810937272</v>
+        <v>-50569.8951284592</v>
       </c>
       <c r="E13" t="n">
-        <v>283854.5183150794</v>
+        <v>-34274.80587581125</v>
       </c>
     </row>
     <row r="14">
@@ -687,16 +688,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>180756.4698075647</v>
+        <v>23701.94800385156</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>45569.93677458476</v>
+        <v>-69353.81146572725</v>
       </c>
       <c r="E14" t="n">
-        <v>226326.4065821494</v>
+        <v>-45651.86346187569</v>
       </c>
     </row>
     <row r="15">
@@ -704,16 +705,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>140942.2694094226</v>
+        <v>31108.80675505518</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>29345.98804880713</v>
+        <v>-86369.58088083955</v>
       </c>
       <c r="E15" t="n">
-        <v>170288.2574582298</v>
+        <v>-55260.77412578437</v>
       </c>
     </row>
     <row r="16">
@@ -721,16 +722,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>101128.0690112806</v>
+        <v>38515.66550625879</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>14749.40340817873</v>
+        <v>-101471.2501285126</v>
       </c>
       <c r="E16" t="n">
-        <v>115877.4724194594</v>
+        <v>-62955.5846222538</v>
       </c>
     </row>
     <row r="17">
@@ -738,16 +739,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>61313.86861313865</v>
+        <v>45922.52425746241</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1819.374651272978</v>
+        <v>-114636.7594131476</v>
       </c>
       <c r="E17" t="n">
-        <v>63133.24326441163</v>
+        <v>-68714.23515568522</v>
       </c>
     </row>
     <row r="18">
@@ -755,16 +756,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>21499.66821499665</v>
+        <v>53329.38300866602</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-9480.045282226316</v>
+        <v>-125936.2309932022</v>
       </c>
       <c r="E18" t="n">
-        <v>12019.62293277033</v>
+        <v>-72606.84798453617</v>
       </c>
     </row>
     <row r="19">
@@ -772,16 +773,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>-18314.53218314535</v>
+        <v>60736.24175986964</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-19237.91969994516</v>
+        <v>-135501.9940230655</v>
       </c>
       <c r="E19" t="n">
-        <v>-37552.45188309051</v>
+        <v>-74765.75226319584</v>
       </c>
     </row>
     <row r="20">
@@ -789,16 +790,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>-58128.73258128735</v>
+        <v>68143.10051107325</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-27577.2282569224</v>
+        <v>-143502.9619157289</v>
       </c>
       <c r="E20" t="n">
-        <v>-85705.96083820975</v>
+        <v>-75359.86140465565</v>
       </c>
     </row>
     <row r="21">
@@ -806,16 +807,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>-97942.93297942937</v>
+        <v>75549.95926227687</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-34639.25791926838</v>
+        <v>-150124.4023037915</v>
       </c>
       <c r="E21" t="n">
-        <v>-132582.1908986978</v>
+        <v>-74574.44304151465</v>
       </c>
     </row>
     <row r="22">
@@ -823,16 +824,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>-137757.1333775714</v>
+        <v>82956.81801348049</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-40571.67222239241</v>
+        <v>-155553.0911844594</v>
       </c>
       <c r="E22" t="n">
-        <v>-178328.8055999638</v>
+        <v>-72596.27317097894</v>
       </c>
     </row>
     <row r="23">
@@ -840,16 +841,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>-177571.3337757134</v>
+        <v>90363.67676468409</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-45519.94093989557</v>
+        <v>-159967.2443234801</v>
       </c>
       <c r="E23" t="n">
-        <v>-223091.2747156089</v>
+        <v>-69603.56755879603</v>
       </c>
     </row>
     <row r="24">
@@ -857,16 +858,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>-217385.5341738554</v>
+        <v>97770.53551588771</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-49621.61312304041</v>
+        <v>-163530.3533458663</v>
       </c>
       <c r="E24" t="n">
-        <v>-267007.1472968958</v>
+        <v>-65759.81782997864</v>
       </c>
     </row>
     <row r="25">
@@ -874,16 +875,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>-257199.7345719974</v>
+        <v>105177.3942670913</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-53002.85669568503</v>
+        <v>-166388.0066862379</v>
       </c>
       <c r="E25" t="n">
-        <v>-310202.5912676824</v>
+        <v>-61210.61241914655</v>
       </c>
     </row>
     <row r="26">
@@ -891,16 +892,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>-297013.9349701394</v>
+        <v>112584.2530182949</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-55776.71264809524</v>
+        <v>-168666.8537407502</v>
       </c>
       <c r="E26" t="n">
-        <v>-352790.6476182346</v>
+        <v>-56082.60072245529</v>
       </c>
     </row>
     <row r="27">
@@ -908,16 +909,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>-336828.1353682814</v>
+        <v>119991.1117694986</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-58042.5810519622</v>
+        <v>-170475.0073853175</v>
       </c>
       <c r="E27" t="n">
-        <v>-394870.7164202436</v>
+        <v>-50483.89561581891</v>
       </c>
     </row>
     <row r="28">
@@ -925,16 +926,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>-376642.3357664234</v>
+        <v>127397.9705207022</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-59886.54248723797</v>
+        <v>-171903.3323968005</v>
       </c>
       <c r="E28" t="n">
-        <v>-436528.8782536613</v>
+        <v>-44505.36187609829</v>
       </c>
     </row>
     <row r="29">
@@ -942,16 +943,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>-416456.5361645654</v>
+        <v>134804.8292719058</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-61382.20539059682</v>
+        <v>-173027.2105206289</v>
       </c>
       <c r="E29" t="n">
-        <v>-477838.7415551622</v>
+        <v>-38222.3812487231</v>
       </c>
     </row>
     <row r="30">
@@ -959,16 +960,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>-456270.7365627073</v>
+        <v>142211.6880231094</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-62591.84826643617</v>
+        <v>-173908.4951009178</v>
       </c>
       <c r="E30" t="n">
-        <v>-518862.5848291435</v>
+        <v>-31696.80707780836</v>
       </c>
     </row>
     <row r="31">
@@ -976,16 +977,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>-496084.9369608493</v>
+        <v>149618.546774313</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-63567.69168684861</v>
+        <v>-174597.4656127223</v>
       </c>
       <c r="E31" t="n">
-        <v>-559652.628647698</v>
+        <v>-24978.9188384093</v>
       </c>
     </row>
     <row r="32">
@@ -993,16 +994,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>-535899.1373589913</v>
+        <v>157025.4055255166</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-64353.18772018579</v>
+        <v>-175134.6660452791</v>
       </c>
       <c r="E32" t="n">
-        <v>-600252.3250791772</v>
+        <v>-18109.26051976244</v>
       </c>
     </row>
   </sheetData>
@@ -1056,16 +1057,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>658526.8745852688</v>
+        <v>-65180.3570105918</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>225609.7063562546</v>
+        <v>117663.8760063706</v>
       </c>
       <c r="E2" t="n">
-        <v>884136.5809415234</v>
+        <v>52483.51899577884</v>
       </c>
     </row>
     <row r="3">
@@ -1073,16 +1074,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>618712.6741871267</v>
+        <v>-57773.49825938819</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>224451.4171085509</v>
+        <v>116809.9441794154</v>
       </c>
       <c r="E3" t="n">
-        <v>843164.0912956776</v>
+        <v>59036.44592002722</v>
       </c>
     </row>
     <row r="4">
@@ -1090,16 +1091,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>578898.4737889847</v>
+        <v>-50366.63950818458</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>221715.0387954565</v>
+        <v>114585.3652015305</v>
       </c>
       <c r="E4" t="n">
-        <v>800613.5125844411</v>
+        <v>64218.72569334594</v>
       </c>
     </row>
     <row r="5">
@@ -1107,16 +1108,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>539084.2733908427</v>
+        <v>-42959.78075698097</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>216379.7530646753</v>
+        <v>109897.8383446929</v>
       </c>
       <c r="E5" t="n">
-        <v>755464.0264555181</v>
+        <v>66938.0575877119</v>
       </c>
     </row>
     <row r="6">
@@ -1124,16 +1125,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>499270.0729927007</v>
+        <v>-35552.92200577736</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>207469.8722846839</v>
+        <v>101576.297518528</v>
       </c>
       <c r="E6" t="n">
-        <v>706739.9452773846</v>
+        <v>66023.37551275064</v>
       </c>
     </row>
     <row r="7">
@@ -1141,16 +1142,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>459455.8725945587</v>
+        <v>-28146.06325457374</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>194360.7467296434</v>
+        <v>88739.37774532137</v>
       </c>
       <c r="E7" t="n">
-        <v>653816.6193242022</v>
+        <v>60593.31449074763</v>
       </c>
     </row>
     <row r="8">
@@ -1158,16 +1159,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>419641.6721964167</v>
+        <v>-20739.20450337013</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>176992.5643670878</v>
+        <v>71115.39783015811</v>
       </c>
       <c r="E8" t="n">
-        <v>596634.2365635046</v>
+        <v>50376.19332678798</v>
       </c>
     </row>
     <row r="9">
@@ -1175,16 +1176,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>379827.4717982747</v>
+        <v>-13332.34575216651</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>155911.9617812354</v>
+        <v>49171.97491568835</v>
       </c>
       <c r="E9" t="n">
-        <v>535739.4335795101</v>
+        <v>35839.62916352184</v>
       </c>
     </row>
     <row r="10">
@@ -1192,16 +1193,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>340013.2714001327</v>
+        <v>-5925.487000962897</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>132147.8299294099</v>
+        <v>24019.10903529907</v>
       </c>
       <c r="E10" t="n">
-        <v>472161.1013295426</v>
+        <v>18093.62203433617</v>
       </c>
     </row>
     <row r="11">
@@ -1209,16 +1210,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>300199.0710019906</v>
+        <v>1481.371750240718</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>106988.94602995</v>
+        <v>-2848.954291456226</v>
       </c>
       <c r="E11" t="n">
-        <v>407188.0170319406</v>
+        <v>-1367.582541215509</v>
       </c>
     </row>
     <row r="12">
@@ -1226,16 +1227,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>260384.8706038487</v>
+        <v>8888.230501444332</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>81746.43632827135</v>
+        <v>-29862.44027256239</v>
       </c>
       <c r="E12" t="n">
-        <v>342131.30693212</v>
+        <v>-20974.20977111805</v>
       </c>
     </row>
     <row r="13">
@@ -1243,16 +1244,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>220570.6702057066</v>
+        <v>16295.08925264795</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>57563.96138662045</v>
+        <v>-55637.92948167097</v>
       </c>
       <c r="E13" t="n">
-        <v>278134.6315923271</v>
+        <v>-39342.84022902303</v>
       </c>
     </row>
     <row r="14">
@@ -1260,16 +1261,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>180756.4698075647</v>
+        <v>23701.94800385156</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>35304.78133044974</v>
+        <v>-79140.46774403132</v>
       </c>
       <c r="E14" t="n">
-        <v>216061.2511380144</v>
+        <v>-55438.51974017976</v>
       </c>
     </row>
     <row r="15">
@@ -1277,16 +1278,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>140942.2694094226</v>
+        <v>31108.80675505518</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>15515.16176163118</v>
+        <v>-99738.88620994872</v>
       </c>
       <c r="E15" t="n">
-        <v>156457.4311710538</v>
+        <v>-68630.07945489354</v>
       </c>
     </row>
     <row r="16">
@@ -1294,16 +1295,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>101128.0690112806</v>
+        <v>38515.66550625879</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-1554.111440460401</v>
+        <v>-117177.5639274834</v>
       </c>
       <c r="E16" t="n">
-        <v>99573.95757082025</v>
+        <v>-78661.89842122464</v>
       </c>
     </row>
     <row r="17">
@@ -1311,16 +1312,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>61313.86861313865</v>
+        <v>45922.52425746241</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-15892.01584972615</v>
+        <v>-131499.1783193485</v>
       </c>
       <c r="E17" t="n">
-        <v>45421.85276341251</v>
+        <v>-85576.65406188613</v>
       </c>
     </row>
     <row r="18">
@@ -1328,16 +1329,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>21499.66821499665</v>
+        <v>53329.38300866602</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-27658.80949236588</v>
+        <v>-142950.3651352309</v>
       </c>
       <c r="E18" t="n">
-        <v>-6159.141277369235</v>
+        <v>-89620.98212656492</v>
       </c>
     </row>
     <row r="19">
@@ -1345,16 +1346,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>-18314.53218314535</v>
+        <v>60736.24175986964</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-37120.01001567492</v>
+        <v>-151892.8188714415</v>
       </c>
       <c r="E19" t="n">
-        <v>-55434.54219882028</v>
+        <v>-91156.57711157188</v>
       </c>
     </row>
     <row r="20">
@@ -1362,16 +1363,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>-58128.73258128735</v>
+        <v>68143.10051107325</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-44591.3944954696</v>
+        <v>-158731.9182844635</v>
       </c>
       <c r="E20" t="n">
-        <v>-102720.127076757</v>
+        <v>-90588.81777339021</v>
       </c>
     </row>
     <row r="21">
@@ -1379,16 +1380,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>-97942.93297942937</v>
+        <v>75549.95926227687</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-50398.19472221439</v>
+        <v>-163866.6076876631</v>
       </c>
       <c r="E21" t="n">
-        <v>-148341.1277016438</v>
+        <v>-88316.64842538627</v>
       </c>
     </row>
     <row r="22">
@@ -1396,16 +1397,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>-137757.1333775714</v>
+        <v>82956.81801348049</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-54848.1140193726</v>
+        <v>-167658.9806416035</v>
       </c>
       <c r="E22" t="n">
-        <v>-192605.247396944</v>
+        <v>-84702.16262812304</v>
       </c>
     </row>
     <row r="23">
@@ -1413,16 +1414,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>-177571.3337757134</v>
+        <v>90363.67676468409</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-58215.918623654</v>
+        <v>-170419.4844894108</v>
       </c>
       <c r="E23" t="n">
-        <v>-235787.2523993674</v>
+        <v>-80055.80772472671</v>
       </c>
     </row>
     <row r="24">
@@ -1430,16 +1431,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>-217385.5341738554</v>
+        <v>97770.53551588771</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-60736.71077837394</v>
+        <v>-172403.069628685</v>
       </c>
       <c r="E24" t="n">
-        <v>-278122.2449522293</v>
+        <v>-74632.53411279734</v>
       </c>
     </row>
     <row r="25">
@@ -1447,16 +1448,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>-257199.7345719974</v>
+        <v>105177.3942670913</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-62605.09507112898</v>
+        <v>-173812.1056008973</v>
       </c>
       <c r="E25" t="n">
-        <v>-319804.8296431263</v>
+        <v>-68634.71133380596</v>
       </c>
     </row>
     <row r="26">
@@ -1464,16 +1465,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>-297013.9349701394</v>
+        <v>112584.2530182949</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-63977.92155483033</v>
+        <v>-174802.8357671417</v>
       </c>
       <c r="E26" t="n">
-        <v>-360991.8565249697</v>
+        <v>-62218.58274884675</v>
       </c>
     </row>
     <row r="27">
@@ -1481,16 +1482,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>-336828.1353682814</v>
+        <v>119991.1117694986</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-64978.87204078225</v>
+        <v>-175493.1439818439</v>
       </c>
       <c r="E27" t="n">
-        <v>-401807.0074090636</v>
+        <v>-55502.03221234534</v>
       </c>
     </row>
     <row r="28">
@@ -1498,16 +1499,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>-376642.3357664234</v>
+        <v>127397.9705207022</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-65703.70394307681</v>
+        <v>-175970.2600837651</v>
       </c>
       <c r="E28" t="n">
-        <v>-442346.0397095002</v>
+        <v>-48572.28956306295</v>
       </c>
     </row>
     <row r="29">
@@ -1515,16 +1516,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>-416456.5361645654</v>
+        <v>134804.8292719058</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-66225.41377147488</v>
+        <v>-176297.6693068942</v>
       </c>
       <c r="E29" t="n">
-        <v>-482681.9499360402</v>
+        <v>-41492.84003498845</v>
       </c>
     </row>
     <row r="30">
@@ -1532,16 +1533,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>-456270.7365627073</v>
+        <v>142211.6880231094</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-66598.91419828478</v>
+        <v>-176520.9211536613</v>
       </c>
       <c r="E30" t="n">
-        <v>-522869.6507609921</v>
+        <v>-34309.23313055187</v>
       </c>
     </row>
     <row r="31">
@@ -1549,16 +1550,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>-496084.9369608493</v>
+        <v>149618.546774313</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-66865.04513712612</v>
+        <v>-176672.295404841</v>
       </c>
       <c r="E31" t="n">
-        <v>-562949.9820979754</v>
+        <v>-27053.74863052796</v>
       </c>
     </row>
     <row r="32">
@@ -1566,16 +1567,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>-535899.1373589913</v>
+        <v>157025.4055255166</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-67053.88159119492</v>
+        <v>-176774.4235438535</v>
       </c>
       <c r="E32" t="n">
-        <v>-602953.0189501862</v>
+        <v>-19749.01801833682</v>
       </c>
     </row>
   </sheetData>
@@ -1629,16 +1630,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>658526.8745852688</v>
+        <v>-65180.3570105918</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>226961.1684171534</v>
+        <v>118834.8563839251</v>
       </c>
       <c r="E2" t="n">
-        <v>885488.0430024222</v>
+        <v>53654.49937333327</v>
       </c>
     </row>
     <row r="3">
@@ -1646,16 +1647,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>618712.6741871267</v>
+        <v>-57773.49825938819</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>226953.9544721778</v>
+        <v>118831.7311623776</v>
       </c>
       <c r="E3" t="n">
-        <v>845666.6286593045</v>
+        <v>61058.23290298938</v>
       </c>
     </row>
     <row r="4">
@@ -1663,16 +1664,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>578898.4737889847</v>
+        <v>-50366.63950818458</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>226880.4042012893</v>
+        <v>118791.1263803642</v>
       </c>
       <c r="E4" t="n">
-        <v>805778.877990274</v>
+        <v>68424.48687217967</v>
       </c>
     </row>
     <row r="5">
@@ -1680,16 +1681,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>539084.2733908427</v>
+        <v>-42959.78075698097</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>226431.6677045972</v>
+        <v>118492.4587772103</v>
       </c>
       <c r="E5" t="n">
-        <v>765515.94109544</v>
+        <v>75532.67802022933</v>
       </c>
     </row>
     <row r="6">
@@ -1697,16 +1698,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>499270.0729927007</v>
+        <v>-35552.92200577736</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>224617.6483093512</v>
+        <v>117099.6993640425</v>
       </c>
       <c r="E6" t="n">
-        <v>723887.7213020519</v>
+        <v>81546.77735826516</v>
       </c>
     </row>
     <row r="7">
@@ -1714,16 +1715,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>459455.8725945587</v>
+        <v>-28146.06325457374</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>219363.5287245211</v>
+        <v>112606.9184519964</v>
       </c>
       <c r="E7" t="n">
-        <v>678819.4013190798</v>
+        <v>84460.8551974227</v>
       </c>
     </row>
     <row r="8">
@@ -1731,16 +1732,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>419641.6721964167</v>
+        <v>-20739.20450337013</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>207777.9565103304</v>
+        <v>101876.4187760018</v>
       </c>
       <c r="E8" t="n">
-        <v>627419.6287067471</v>
+        <v>81137.21427263165</v>
       </c>
     </row>
     <row r="9">
@@ -1748,16 +1749,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>379827.4717982747</v>
+        <v>-13332.34575216651</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>187387.7040405064</v>
+        <v>81868.18025836805</v>
       </c>
       <c r="E9" t="n">
-        <v>567215.1758387811</v>
+        <v>68535.83450620154</v>
       </c>
     </row>
     <row r="10">
@@ -1765,16 +1766,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>340013.2714001327</v>
+        <v>-5925.487000962897</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157670.0425892122</v>
+        <v>51521.58584957463</v>
       </c>
       <c r="E10" t="n">
-        <v>497683.3139893449</v>
+        <v>45596.09884861173</v>
       </c>
     </row>
     <row r="11">
@@ -1782,16 +1783,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>300199.0710019906</v>
+        <v>1481.371750240718</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>120757.1448699003</v>
+        <v>12883.51192517151</v>
       </c>
       <c r="E11" t="n">
-        <v>420956.2158718909</v>
+        <v>14364.88367541223</v>
       </c>
     </row>
     <row r="12">
@@ -1799,16 +1800,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>260384.8706038487</v>
+        <v>8888.230501444332</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>80789.1415349583</v>
+        <v>-29424.8392920021</v>
       </c>
       <c r="E12" t="n">
-        <v>341174.012138807</v>
+        <v>-20536.60879055777</v>
       </c>
     </row>
     <row r="13">
@@ -1816,16 +1817,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>220570.6702057066</v>
+        <v>16295.08925264795</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>42382.33662384535</v>
+        <v>-70021.94915401019</v>
       </c>
       <c r="E13" t="n">
-        <v>262953.006829552</v>
+        <v>-53726.85990136224</v>
       </c>
     </row>
     <row r="14">
@@ -1833,16 +1834,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>180756.4698075647</v>
+        <v>23701.94800385156</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>9148.644967135664</v>
+        <v>-104673.8419417774</v>
       </c>
       <c r="E14" t="n">
-        <v>189905.1147747003</v>
+        <v>-80971.89393792587</v>
       </c>
     </row>
     <row r="15">
@@ -1850,16 +1851,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>140942.2694094226</v>
+        <v>31108.80675505518</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-17060.68956336658</v>
+        <v>-131311.651920074</v>
       </c>
       <c r="E15" t="n">
-        <v>123881.5798460561</v>
+        <v>-100202.8451650188</v>
       </c>
     </row>
     <row r="16">
@@ -1867,16 +1868,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>101128.0690112806</v>
+        <v>38515.66550625879</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-36092.20232674987</v>
+        <v>-149950.134695958</v>
       </c>
       <c r="E16" t="n">
-        <v>65035.86668453077</v>
+        <v>-111434.4691896992</v>
       </c>
     </row>
     <row r="17">
@@ -1884,16 +1885,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>61313.86861313865</v>
+        <v>45922.52425746241</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-48929.00664128503</v>
+        <v>-161931.4857181033</v>
       </c>
       <c r="E17" t="n">
-        <v>12384.86197185362</v>
+        <v>-116008.9614606409</v>
       </c>
     </row>
     <row r="18">
@@ -1901,16 +1902,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>21499.66821499665</v>
+        <v>53329.38300866602</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-57034.07610085858</v>
+        <v>-169066.5360171775</v>
       </c>
       <c r="E18" t="n">
-        <v>-35534.40788586193</v>
+        <v>-115737.1530085114</v>
       </c>
     </row>
     <row r="19">
@@ -1918,16 +1919,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>-18314.53218314535</v>
+        <v>60736.24175986964</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-61857.26827759676</v>
+        <v>-173032.4370328988</v>
       </c>
       <c r="E19" t="n">
-        <v>-80171.80046074212</v>
+        <v>-112296.1952730291</v>
       </c>
     </row>
     <row r="20">
@@ -1935,16 +1936,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>-58128.73258128735</v>
+        <v>68143.10051107325</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-64578.87873089834</v>
+        <v>-175103.9538382338</v>
       </c>
       <c r="E20" t="n">
-        <v>-122707.6113121857</v>
+        <v>-106960.8533271605</v>
       </c>
     </row>
     <row r="21">
@@ -1952,16 +1953,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>-97942.93297942937</v>
+        <v>75549.95926227687</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-66043.02936758177</v>
+        <v>-176127.0281916836</v>
       </c>
       <c r="E21" t="n">
-        <v>-163985.9623470111</v>
+        <v>-100577.0689294068</v>
       </c>
     </row>
     <row r="22">
@@ -1969,16 +1970,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>-137757.1333775714</v>
+        <v>82956.81801348049</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-66797.64069778036</v>
+        <v>-176607.4422347629</v>
       </c>
       <c r="E22" t="n">
-        <v>-204554.7740753517</v>
+        <v>-93650.62422128246</v>
       </c>
     </row>
     <row r="23">
@@ -1986,16 +1987,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>-177571.3337757134</v>
+        <v>90363.67676468409</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-67171.86439854454</v>
+        <v>-176823.0184064063</v>
       </c>
       <c r="E23" t="n">
-        <v>-244743.1981742579</v>
+        <v>-86459.34164172225</v>
       </c>
     </row>
     <row r="24">
@@ -2003,16 +2004,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>-217385.5341738554</v>
+        <v>97770.53551588771</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-67351.1353282327</v>
+        <v>-176915.8805564114</v>
       </c>
       <c r="E24" t="n">
-        <v>-284736.6695020881</v>
+        <v>-79145.34504052369</v>
       </c>
     </row>
     <row r="25">
@@ -2020,16 +2021,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>-257199.7345719974</v>
+        <v>105177.3942670913</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-67434.38602587761</v>
+        <v>-176954.4385744339</v>
       </c>
       <c r="E25" t="n">
-        <v>-324634.120597875</v>
+        <v>-71777.04430734258</v>
       </c>
     </row>
     <row r="26">
@@ -2037,16 +2038,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>-297013.9349701394</v>
+        <v>112584.2530182949</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-67471.98199138753</v>
+        <v>-176969.9281840128</v>
       </c>
       <c r="E26" t="n">
-        <v>-364485.916961527</v>
+        <v>-64385.67516571782</v>
       </c>
     </row>
     <row r="27">
@@ -2054,16 +2055,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>-336828.1353682814</v>
+        <v>119991.1117694986</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-67488.54004794564</v>
+        <v>-176975.9686634168</v>
       </c>
       <c r="E27" t="n">
-        <v>-404316.675416227</v>
+        <v>-56984.85689391824</v>
       </c>
     </row>
     <row r="28">
@@ -2071,16 +2072,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>-376642.3357664234</v>
+        <v>127397.9705207022</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-67495.67037902324</v>
+        <v>-176978.2622859489</v>
       </c>
       <c r="E28" t="n">
-        <v>-444138.0061454466</v>
+        <v>-49580.29176524674</v>
       </c>
     </row>
     <row r="29">
@@ -2088,16 +2089,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>-416456.5361645654</v>
+        <v>134804.8292719058</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-67498.67957661008</v>
+        <v>-176979.1126008514</v>
       </c>
       <c r="E29" t="n">
-        <v>-483955.2157411755</v>
+        <v>-42174.28332894557</v>
       </c>
     </row>
     <row r="30">
@@ -2105,16 +2106,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>-456270.7365627073</v>
+        <v>142211.6880231094</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-67499.92679752127</v>
+        <v>-176979.421146061</v>
       </c>
       <c r="E30" t="n">
-        <v>-523770.6633602286</v>
+        <v>-34767.73312295164</v>
       </c>
     </row>
     <row r="31">
@@ -2122,16 +2123,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>-496084.9369608493</v>
+        <v>149618.546774313</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-67500.43543869746</v>
+        <v>-176979.5309734542</v>
       </c>
       <c r="E31" t="n">
-        <v>-563585.3723995468</v>
+        <v>-27360.98419914118</v>
       </c>
     </row>
     <row r="32">
@@ -2139,16 +2140,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>-535899.1373589913</v>
+        <v>157025.4055255166</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-67500.63989513482</v>
+        <v>-176979.5694003539</v>
       </c>
       <c r="E32" t="n">
-        <v>-603399.7772541262</v>
+        <v>-19954.16387483728</v>
       </c>
     </row>
   </sheetData>
@@ -2202,16 +2203,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>658526.8745852688</v>
+        <v>-65180.3570105918</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>227390.6040154361</v>
+        <v>119294.760650546</v>
       </c>
       <c r="E2" t="n">
-        <v>885917.4786007049</v>
+        <v>54114.40363995419</v>
       </c>
     </row>
     <row r="3">
@@ -2219,16 +2220,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>618712.6741871267</v>
+        <v>-57773.49825938819</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>227390.6040154361</v>
+        <v>119294.7606505461</v>
       </c>
       <c r="E3" t="n">
-        <v>846103.2782025628</v>
+        <v>61521.26239115786</v>
       </c>
     </row>
     <row r="4">
@@ -2236,16 +2237,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>578898.4737889847</v>
+        <v>-50366.63950818458</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>227390.6040154361</v>
+        <v>119294.7606505461</v>
       </c>
       <c r="E4" t="n">
-        <v>806289.0778044208</v>
+        <v>68928.12114236149</v>
       </c>
     </row>
     <row r="5">
@@ -2253,16 +2254,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>539084.2733908427</v>
+        <v>-42959.78075698097</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>227390.604015436</v>
+        <v>119294.760650546</v>
       </c>
       <c r="E5" t="n">
-        <v>766474.8774062787</v>
+        <v>76334.97989356506</v>
       </c>
     </row>
     <row r="6">
@@ -2270,16 +2271,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>499270.0729927007</v>
+        <v>-35552.92200577736</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>227390.6040154347</v>
+        <v>119294.760650546</v>
       </c>
       <c r="E6" t="n">
-        <v>726660.6770081354</v>
+        <v>83741.83864476866</v>
       </c>
     </row>
     <row r="7">
@@ -2287,16 +2288,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>459455.8725945587</v>
+        <v>-28146.06325457374</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>227390.6033931142</v>
+        <v>119294.7606505461</v>
       </c>
       <c r="E7" t="n">
-        <v>686846.4759876729</v>
+        <v>91148.69739597233</v>
       </c>
     </row>
     <row r="8">
@@ -2304,16 +2305,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>419641.6721964167</v>
+        <v>-20739.20450337013</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>227386.5423073838</v>
+        <v>119294.7606505461</v>
       </c>
       <c r="E8" t="n">
-        <v>647028.2145038005</v>
+        <v>98555.55614717593</v>
       </c>
     </row>
     <row r="9">
@@ -2321,16 +2322,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>379827.4717982747</v>
+        <v>-13332.34575216651</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>226440.3401191836</v>
+        <v>119294.7606505461</v>
       </c>
       <c r="E9" t="n">
-        <v>606267.8119174583</v>
+        <v>105962.4148983795</v>
       </c>
     </row>
     <row r="10">
@@ -2338,16 +2339,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>340013.2714001327</v>
+        <v>-5925.487000962897</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>208898.9377023532</v>
+        <v>119294.7606505461</v>
       </c>
       <c r="E10" t="n">
-        <v>548912.2091024859</v>
+        <v>113369.2736495832</v>
       </c>
     </row>
     <row r="11">
@@ -2355,16 +2356,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>300199.0710019906</v>
+        <v>1481.371750240718</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>152309.5782513982</v>
+        <v>45226.17313850993</v>
       </c>
       <c r="E11" t="n">
-        <v>452508.6492533888</v>
+        <v>46707.54488875064</v>
       </c>
     </row>
     <row r="12">
@@ -2372,16 +2373,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>260384.8706038487</v>
+        <v>8888.230501444332</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>79811.47034520927</v>
+        <v>-28842.41437352623</v>
       </c>
       <c r="E12" t="n">
-        <v>340196.340949058</v>
+        <v>-19954.1838720819</v>
       </c>
     </row>
     <row r="13">
@@ -2389,16 +2390,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>220570.6702057066</v>
+        <v>16295.08925264795</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>7894.11864115714</v>
+        <v>-102911.0018855624</v>
       </c>
       <c r="E13" t="n">
-        <v>228464.7888468638</v>
+        <v>-86615.91263291443</v>
       </c>
     </row>
     <row r="14">
@@ -2406,16 +2407,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>180756.4698075647</v>
+        <v>23701.94800385156</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-46411.87417438994</v>
+        <v>-176979.5893975985</v>
       </c>
       <c r="E14" t="n">
-        <v>134344.5956331747</v>
+        <v>-153277.6413937469</v>
       </c>
     </row>
     <row r="15">
@@ -2423,16 +2424,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>140942.2694094226</v>
+        <v>31108.80675505518</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-65338.02334472443</v>
+        <v>-176979.5893975985</v>
       </c>
       <c r="E15" t="n">
-        <v>75604.24606469821</v>
+        <v>-145870.7826425433</v>
       </c>
     </row>
     <row r="16">
@@ -2440,16 +2441,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>101128.0690112806</v>
+        <v>38515.66550625879</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-67434.45172373283</v>
+        <v>-176979.5893975985</v>
       </c>
       <c r="E16" t="n">
-        <v>33693.61728754782</v>
+        <v>-138463.9238913397</v>
       </c>
     </row>
     <row r="17">
@@ -2457,16 +2458,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>61313.86861313865</v>
+        <v>45922.52425746241</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-67500.17438688769</v>
+        <v>-176979.5893975985</v>
       </c>
       <c r="E17" t="n">
-        <v>-6186.305773749045</v>
+        <v>-131057.0651401361</v>
       </c>
     </row>
     <row r="18">
@@ -2474,16 +2475,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>21499.66821499665</v>
+        <v>53329.38300866602</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-67500.77117800286</v>
+        <v>-176979.5893975985</v>
       </c>
       <c r="E18" t="n">
-        <v>-46001.10296300621</v>
+        <v>-123650.2063889325</v>
       </c>
     </row>
     <row r="19">
@@ -2491,16 +2492,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>-18314.53218314535</v>
+        <v>60736.24175986964</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-67500.77288115383</v>
+        <v>-176979.5893975985</v>
       </c>
       <c r="E19" t="n">
-        <v>-85815.30506429917</v>
+        <v>-116243.3476377288</v>
       </c>
     </row>
     <row r="20">
@@ -2508,16 +2509,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>-58128.73258128735</v>
+        <v>68143.10051107325</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-67500.77288284332</v>
+        <v>-176979.5893975985</v>
       </c>
       <c r="E20" t="n">
-        <v>-125629.5054641307</v>
+        <v>-108836.4888865252</v>
       </c>
     </row>
     <row r="21">
@@ -2525,16 +2526,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>-97942.93297942937</v>
+        <v>75549.95926227687</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-67500.77288284399</v>
+        <v>-176979.5893975985</v>
       </c>
       <c r="E21" t="n">
-        <v>-165443.7058622733</v>
+        <v>-101429.6301353216</v>
       </c>
     </row>
     <row r="22">
@@ -2542,16 +2543,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>-137757.1333775714</v>
+        <v>82956.81801348049</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-67500.77288284399</v>
+        <v>-176979.5893975985</v>
       </c>
       <c r="E22" t="n">
-        <v>-205257.9062604154</v>
+        <v>-94022.77138411801</v>
       </c>
     </row>
     <row r="23">
@@ -2559,16 +2560,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>-177571.3337757134</v>
+        <v>90363.67676468409</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-67500.77288284399</v>
+        <v>-176979.5893975985</v>
       </c>
       <c r="E23" t="n">
-        <v>-245072.1066585574</v>
+        <v>-86615.91263291441</v>
       </c>
     </row>
     <row r="24">
@@ -2576,16 +2577,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>-217385.5341738554</v>
+        <v>97770.53551588771</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-67500.77288284399</v>
+        <v>-176979.5893975985</v>
       </c>
       <c r="E24" t="n">
-        <v>-284886.3070566994</v>
+        <v>-79209.05388171079</v>
       </c>
     </row>
     <row r="25">
@@ -2593,16 +2594,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>-257199.7345719974</v>
+        <v>105177.3942670913</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-67500.77288284399</v>
+        <v>-176979.5893975985</v>
       </c>
       <c r="E25" t="n">
-        <v>-324700.5074548414</v>
+        <v>-71802.19513050717</v>
       </c>
     </row>
     <row r="26">
@@ -2610,16 +2611,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>-297013.9349701394</v>
+        <v>112584.2530182949</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-67500.77288284399</v>
+        <v>-176979.5893975985</v>
       </c>
       <c r="E26" t="n">
-        <v>-364514.7078529834</v>
+        <v>-64395.33637930355</v>
       </c>
     </row>
     <row r="27">
@@ -2627,16 +2628,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>-336828.1353682814</v>
+        <v>119991.1117694986</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-67500.77288284399</v>
+        <v>-176979.5893975985</v>
       </c>
       <c r="E27" t="n">
-        <v>-404328.9082511254</v>
+        <v>-56988.47762809994</v>
       </c>
     </row>
     <row r="28">
@@ -2644,16 +2645,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>-376642.3357664234</v>
+        <v>127397.9705207022</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-67500.77288284399</v>
+        <v>-176979.5893975985</v>
       </c>
       <c r="E28" t="n">
-        <v>-444143.1086492673</v>
+        <v>-49581.61887689633</v>
       </c>
     </row>
     <row r="29">
@@ -2661,16 +2662,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>-416456.5361645654</v>
+        <v>134804.8292719058</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-67500.77288284399</v>
+        <v>-176979.5893975985</v>
       </c>
       <c r="E29" t="n">
-        <v>-483957.3090474093</v>
+        <v>-42174.7601256927</v>
       </c>
     </row>
     <row r="30">
@@ -2678,16 +2679,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>-456270.7365627073</v>
+        <v>142211.6880231094</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-67500.77288284399</v>
+        <v>-176979.5893975985</v>
       </c>
       <c r="E30" t="n">
-        <v>-523771.5094455513</v>
+        <v>-34767.9013744891</v>
       </c>
     </row>
     <row r="31">
@@ -2695,16 +2696,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>-496084.9369608493</v>
+        <v>149618.546774313</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-67500.77288284399</v>
+        <v>-176979.5893975985</v>
       </c>
       <c r="E31" t="n">
-        <v>-563585.7098436933</v>
+        <v>-27361.0426232855</v>
       </c>
     </row>
     <row r="32">
@@ -2712,16 +2713,589 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>-535899.1373589913</v>
+        <v>157025.4055255166</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-67500.77288284399</v>
+        <v>-176979.5893975985</v>
       </c>
       <c r="E32" t="n">
-        <v>-603399.9102418353</v>
+        <v>-19954.18387208186</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Spot</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Fwds</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Options</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Total_Pnl</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-65180.3570105918</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>119266.0031415744</v>
+      </c>
+      <c r="E2" t="n">
+        <v>54085.64613098258</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>11</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-57773.49825938819</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>119266.0031415744</v>
+      </c>
+      <c r="E3" t="n">
+        <v>61492.50488218619</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>12</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-50366.63950818458</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>119266.0031415744</v>
+      </c>
+      <c r="E4" t="n">
+        <v>68899.36363338982</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>13</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-42959.78075698097</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>119266.0031415744</v>
+      </c>
+      <c r="E5" t="n">
+        <v>76306.22238459339</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>14</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-35552.92200577736</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>119266.0031415741</v>
+      </c>
+      <c r="E6" t="n">
+        <v>83713.08113579676</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>15</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-28146.06325457374</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>119266.0030293944</v>
+      </c>
+      <c r="E7" t="n">
+        <v>91119.9397748207</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>16</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-20739.20450337013</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>119264.1642288393</v>
+      </c>
+      <c r="E8" t="n">
+        <v>98524.95972546922</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>17</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-13332.34575216651</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>118540.8237054713</v>
+      </c>
+      <c r="E9" t="n">
+        <v>105208.4779533048</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>18</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-5925.487000962897</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>101663.6293911822</v>
+      </c>
+      <c r="E10" t="n">
+        <v>95738.14239021935</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>19</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1481.371750240718</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>44119.22708865009</v>
+      </c>
+      <c r="E11" t="n">
+        <v>45600.59883889081</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>20</v>
+      </c>
+      <c r="B12" t="n">
+        <v>8888.230501444332</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-28998.18109693361</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-20109.95059548927</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>21</v>
+      </c>
+      <c r="B13" t="n">
+        <v>16295.08925264795</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-101744.4090459074</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-85449.31979325946</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>22</v>
+      </c>
+      <c r="B14" t="n">
+        <v>23701.94800385156</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-157324.7765365858</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-133622.8285327342</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>23</v>
+      </c>
+      <c r="B15" t="n">
+        <v>31108.80675505518</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-175383.7956615415</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-144274.9889064863</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>24</v>
+      </c>
+      <c r="B16" t="n">
+        <v>38515.66550625879</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-176948.499030801</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-138432.8335245422</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>25</v>
+      </c>
+      <c r="B17" t="n">
+        <v>45922.52425746241</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-176979.4465076992</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-131056.9222502368</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>26</v>
+      </c>
+      <c r="B18" t="n">
+        <v>53329.38300866602</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-176979.5892284931</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-123650.2062198271</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>27</v>
+      </c>
+      <c r="B19" t="n">
+        <v>60736.24175986964</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-176979.5893975405</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-116243.3476376709</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>28</v>
+      </c>
+      <c r="B20" t="n">
+        <v>68143.10051107325</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-176979.5893975985</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-108836.4888865252</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>29</v>
+      </c>
+      <c r="B21" t="n">
+        <v>75549.95926227687</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-176979.5893975985</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-101429.6301353216</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>30</v>
+      </c>
+      <c r="B22" t="n">
+        <v>82956.81801348049</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-176979.5893975985</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-94022.77138411801</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>31</v>
+      </c>
+      <c r="B23" t="n">
+        <v>90363.67676468409</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-176979.5893975985</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-86615.91263291441</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>32</v>
+      </c>
+      <c r="B24" t="n">
+        <v>97770.53551588771</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-176979.5893975985</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-79209.05388171079</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>33</v>
+      </c>
+      <c r="B25" t="n">
+        <v>105177.3942670913</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-176979.5893975985</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-71802.19513050717</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>34</v>
+      </c>
+      <c r="B26" t="n">
+        <v>112584.2530182949</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-176979.5893975985</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-64395.33637930355</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>35</v>
+      </c>
+      <c r="B27" t="n">
+        <v>119991.1117694986</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-176979.5893975985</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-56988.47762809994</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>36</v>
+      </c>
+      <c r="B28" t="n">
+        <v>127397.9705207022</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-176979.5893975985</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-49581.61887689633</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>37</v>
+      </c>
+      <c r="B29" t="n">
+        <v>134804.8292719058</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-176979.5893975985</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-42174.7601256927</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>38</v>
+      </c>
+      <c r="B30" t="n">
+        <v>142211.6880231094</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-176979.5893975985</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-34767.9013744891</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>39</v>
+      </c>
+      <c r="B31" t="n">
+        <v>149618.546774313</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-176979.5893975985</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-27361.0426232855</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>40</v>
+      </c>
+      <c r="B32" t="n">
+        <v>157025.4055255166</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-176979.5893975985</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-19954.18387208186</v>
       </c>
     </row>
   </sheetData>
@@ -2775,16 +3349,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>658526.8745852688</v>
+        <v>-65180.3570105918</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>217311.8286681426</v>
+        <v>115748.9021006977</v>
       </c>
       <c r="E2" t="n">
-        <v>875838.7032534113</v>
+        <v>50568.54509010594</v>
       </c>
     </row>
     <row r="3">
@@ -2792,16 +3366,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>618712.6741871267</v>
+        <v>-57773.49825938819</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>211634.1741424553</v>
+        <v>113290.1996316956</v>
       </c>
       <c r="E3" t="n">
-        <v>830346.848329582</v>
+        <v>55516.70137230744</v>
       </c>
     </row>
     <row r="4">
@@ -2809,16 +3383,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>578898.4737889847</v>
+        <v>-50366.63950818458</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>203626.3503407742</v>
+        <v>108631.7745136298</v>
       </c>
       <c r="E4" t="n">
-        <v>782524.8241297589</v>
+        <v>58265.13500544521</v>
       </c>
     </row>
     <row r="5">
@@ -2826,16 +3400,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>539084.2733908427</v>
+        <v>-42959.78075698097</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>193241.2389989375</v>
+        <v>101004.0414555208</v>
       </c>
       <c r="E5" t="n">
-        <v>732325.5123897803</v>
+        <v>58044.26069853982</v>
       </c>
     </row>
     <row r="6">
@@ -2843,16 +3417,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>499270.0729927007</v>
+        <v>-35552.92200577736</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>180649.9278378505</v>
+        <v>89902.69414378406</v>
       </c>
       <c r="E6" t="n">
-        <v>679920.0008305513</v>
+        <v>54349.7721380067</v>
       </c>
     </row>
     <row r="7">
@@ -2860,16 +3434,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>459455.8725945587</v>
+        <v>-28146.06325457374</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>166196.7801416193</v>
+        <v>75231.3279464845</v>
       </c>
       <c r="E7" t="n">
-        <v>625652.6527361779</v>
+        <v>47085.26469191076</v>
       </c>
     </row>
     <row r="8">
@@ -2877,16 +3451,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>419641.6721964167</v>
+        <v>-20739.20450337013</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>150336.5747868425</v>
+        <v>57329.90488929022</v>
       </c>
       <c r="E8" t="n">
-        <v>569978.2469832592</v>
+        <v>36590.70038592009</v>
       </c>
     </row>
     <row r="9">
@@ -2894,16 +3468,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>379827.4717982747</v>
+        <v>-13332.34575216651</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>133570.7927599323</v>
+        <v>36897.9809381192</v>
       </c>
       <c r="E9" t="n">
-        <v>513398.264558207</v>
+        <v>23565.63518595269</v>
       </c>
     </row>
     <row r="10">
@@ -2911,16 +3485,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>340013.2714001327</v>
+        <v>-5925.487000962897</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>116393.9202645052</v>
+        <v>14854.50903147743</v>
       </c>
       <c r="E10" t="n">
-        <v>456407.1916646379</v>
+        <v>8929.02203051453</v>
       </c>
     </row>
     <row r="11">
@@ -2928,16 +3502,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>300199.0710019906</v>
+        <v>1481.371750240718</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>99254.60826286147</v>
+        <v>-7816.947768907823</v>
       </c>
       <c r="E11" t="n">
-        <v>399453.6792648521</v>
+        <v>-6335.576018667105</v>
       </c>
     </row>
     <row r="12">
@@ -2945,16 +3519,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>260384.8706038487</v>
+        <v>8888.230501444332</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>82532.11415418396</v>
+        <v>-30200.03938147204</v>
       </c>
       <c r="E12" t="n">
-        <v>342916.9847580326</v>
+        <v>-21311.8088800277</v>
       </c>
     </row>
     <row r="13">
@@ -2962,16 +3536,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>220570.6702057066</v>
+        <v>16295.08925264795</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>66525.88475085162</v>
+        <v>-51535.03059790929</v>
       </c>
       <c r="E13" t="n">
-        <v>287096.5549565583</v>
+        <v>-35239.94134526134</v>
       </c>
     </row>
     <row r="14">
@@ -2979,16 +3553,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>180756.4698075647</v>
+        <v>23701.94800385156</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>51455.06966302613</v>
+        <v>-71262.60147196839</v>
       </c>
       <c r="E14" t="n">
-        <v>232211.5394705908</v>
+        <v>-47560.65346811683</v>
       </c>
     </row>
     <row r="15">
@@ -2996,16 +3570,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>140942.2694094226</v>
+        <v>31108.80675505518</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>37464.67081128273</v>
+        <v>-89029.40017718585</v>
       </c>
       <c r="E15" t="n">
-        <v>178406.9402207054</v>
+        <v>-57920.59342213067</v>
       </c>
     </row>
     <row r="16">
@@ -3013,16 +3587,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>101128.0690112806</v>
+        <v>38515.66550625879</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>24635.48277774265</v>
+        <v>-104667.2383786465</v>
       </c>
       <c r="E16" t="n">
-        <v>125763.5517890233</v>
+        <v>-66151.57287238774</v>
       </c>
     </row>
     <row r="17">
@@ -3030,16 +3604,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>61313.86861313865</v>
+        <v>45922.52425746241</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>12995.6341734353</v>
+        <v>-118157.9466715339</v>
       </c>
       <c r="E17" t="n">
-        <v>74309.50278657395</v>
+        <v>-72235.42241407145</v>
       </c>
     </row>
     <row r="18">
@@ -3047,16 +3621,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>21499.66821499665</v>
+        <v>53329.38300866602</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>2532.203646560518</v>
+        <v>-129593.6130525979</v>
       </c>
       <c r="E18" t="n">
-        <v>24031.87186155717</v>
+        <v>-76264.23004393189</v>
       </c>
     </row>
     <row r="19">
@@ -3064,16 +3638,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>-18314.53218314535</v>
+        <v>60736.24175986964</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-6798.044858558527</v>
+        <v>-139138.8216676768</v>
       </c>
       <c r="E19" t="n">
-        <v>-25112.57704170388</v>
+        <v>-78402.5799078072</v>
       </c>
     </row>
     <row r="20">
@@ -3081,16 +3655,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>-58128.73258128735</v>
+        <v>68143.10051107325</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-15059.32037133921</v>
+        <v>-146998.5962334278</v>
       </c>
       <c r="E20" t="n">
-        <v>-73188.05295262656</v>
+        <v>-78855.49572235459</v>
       </c>
     </row>
     <row r="21">
@@ -3098,16 +3672,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>-97942.93297942937</v>
+        <v>75549.95926227687</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-22329.0542418802</v>
+        <v>-153393.4973221312</v>
       </c>
       <c r="E21" t="n">
-        <v>-120271.9872213096</v>
+        <v>-77843.53805985428</v>
       </c>
     </row>
     <row r="22">
@@ -3115,16 +3689,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>-137757.1333775714</v>
+        <v>82956.81801348049</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-28691.73164967012</v>
+        <v>-158541.8239132599</v>
       </c>
       <c r="E22" t="n">
-        <v>-166448.8650272415</v>
+        <v>-75585.00589977941</v>
       </c>
     </row>
     <row r="23">
@@ -3132,16 +3706,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>-177571.3337757134</v>
+        <v>90363.67676468409</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-34234.17433096207</v>
+        <v>-162648.0295175409</v>
       </c>
       <c r="E23" t="n">
-        <v>-211805.5081066754</v>
+        <v>-72284.35275285685</v>
       </c>
     </row>
     <row r="24">
@@ -3149,16 +3723,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>-217385.5341738554</v>
+        <v>97770.53551588771</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-39042.08239512419</v>
+        <v>-165896.110520562</v>
       </c>
       <c r="E24" t="n">
-        <v>-256427.6165689796</v>
+        <v>-68125.57500467433</v>
       </c>
     </row>
     <row r="25">
@@ -3166,16 +3740,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>-257199.7345719974</v>
+        <v>105177.3942670913</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-43197.62281096143</v>
+        <v>-168446.6867413024</v>
       </c>
       <c r="E25" t="n">
-        <v>-300397.3573829588</v>
+        <v>-63269.29247421105</v>
       </c>
     </row>
     <row r="26">
@@ -3183,16 +3757,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>-297013.9349701394</v>
+        <v>112584.2530182949</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-46777.85729603542</v>
+        <v>-170436.6312108712</v>
       </c>
       <c r="E26" t="n">
-        <v>-343791.7922661748</v>
+        <v>-57852.37819257627</v>
       </c>
     </row>
     <row r="27">
@@ -3200,16 +3774,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>-336828.1353682814</v>
+        <v>119991.1117694986</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-49853.82172839195</v>
+        <v>-171980.3183669046</v>
       </c>
       <c r="E27" t="n">
-        <v>-386681.9570966733</v>
+        <v>-51989.20659740604</v>
       </c>
     </row>
     <row r="28">
@@ -3217,16 +3791,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>-376642.3357664234</v>
+        <v>127397.9705207022</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-52490.09516557588</v>
+        <v>-173171.7847721387</v>
       </c>
       <c r="E28" t="n">
-        <v>-429132.4309319992</v>
+        <v>-45773.81425143653</v>
       </c>
     </row>
     <row r="29">
@@ -3234,16 +3808,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>-416456.5361645654</v>
+        <v>134804.8292719058</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-54744.72418772442</v>
+        <v>-174087.3000483689</v>
       </c>
       <c r="E29" t="n">
-        <v>-471201.2603522898</v>
+        <v>-39282.47077646307</v>
       </c>
     </row>
     <row r="30">
@@ -3251,16 +3825,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>-456270.7365627073</v>
+        <v>142211.6880231094</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-56669.39466235097</v>
+        <v>-174788.0132685003</v>
       </c>
       <c r="E30" t="n">
-        <v>-512940.1312250583</v>
+        <v>-32576.32524539088</v>
       </c>
     </row>
     <row r="31">
@@ -3268,16 +3842,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>-496084.9369608493</v>
+        <v>149618.546774313</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-58309.76661749555</v>
+        <v>-175322.4686790755</v>
       </c>
       <c r="E31" t="n">
-        <v>-554394.7035783449</v>
+        <v>-25703.92190476254</v>
       </c>
     </row>
     <row r="32">
@@ -3285,16 +3859,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>-535899.1373589913</v>
+        <v>157025.4055255166</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-59705.9080682884</v>
+        <v>-175728.8777549221</v>
       </c>
       <c r="E32" t="n">
-        <v>-595605.0454272797</v>
+        <v>-18703.47222940551</v>
       </c>
     </row>
   </sheetData>
@@ -3348,16 +3922,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>658526.8745852688</v>
+        <v>-65180.3570105918</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>217639.7203104601</v>
+        <v>117663.8760063706</v>
       </c>
       <c r="E2" t="n">
-        <v>876166.5948957289</v>
+        <v>52483.51899577884</v>
       </c>
     </row>
     <row r="3">
@@ -3365,16 +3939,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>618712.6741871267</v>
+        <v>-57773.49825938819</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>212073.1297368472</v>
+        <v>116809.9441794154</v>
       </c>
       <c r="E3" t="n">
-        <v>830785.8039239738</v>
+        <v>59036.44592002722</v>
       </c>
     </row>
     <row r="4">
@@ -3382,16 +3956,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>578898.4737889847</v>
+        <v>-50366.63950818458</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>204163.1808294872</v>
+        <v>114585.3652015305</v>
       </c>
       <c r="E4" t="n">
-        <v>783061.6546184719</v>
+        <v>64218.72569334594</v>
       </c>
     </row>
     <row r="5">
@@ -3399,16 +3973,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>539084.2733908427</v>
+        <v>-42959.78075698097</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>193844.4424629926</v>
+        <v>109897.8383446929</v>
       </c>
       <c r="E5" t="n">
-        <v>732928.7158538353</v>
+        <v>66938.0575877119</v>
       </c>
     </row>
     <row r="6">
@@ -3416,16 +3990,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>499270.0729927007</v>
+        <v>-35552.92200577736</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>181275.7574198774</v>
+        <v>101576.297518528</v>
       </c>
       <c r="E6" t="n">
-        <v>680545.8304125781</v>
+        <v>66023.37551275064</v>
       </c>
     </row>
     <row r="7">
@@ -3433,16 +4007,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>459455.8725945587</v>
+        <v>-28146.06325457374</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>166797.0030619695</v>
+        <v>88739.37774532137</v>
       </c>
       <c r="E7" t="n">
-        <v>626252.8756565282</v>
+        <v>60593.31449074763</v>
       </c>
     </row>
     <row r="8">
@@ -3450,16 +4024,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>419641.6721964167</v>
+        <v>-20739.20450337013</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>150865.7058754044</v>
+        <v>71115.39783015811</v>
       </c>
       <c r="E8" t="n">
-        <v>570507.3780718211</v>
+        <v>50376.19332678798</v>
       </c>
     </row>
     <row r="9">
@@ -3467,16 +4041,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>379827.4717982747</v>
+        <v>-13332.34575216651</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>133991.4549058034</v>
+        <v>49171.97491568835</v>
       </c>
       <c r="E9" t="n">
-        <v>513818.9267040781</v>
+        <v>35839.62916352184</v>
       </c>
     </row>
     <row r="10">
@@ -3484,16 +4058,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>340013.2714001327</v>
+        <v>-5925.487000962897</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>116679.8690343219</v>
+        <v>24019.10903529907</v>
       </c>
       <c r="E10" t="n">
-        <v>456693.1404344547</v>
+        <v>18093.62203433617</v>
       </c>
     </row>
     <row r="11">
@@ -3501,16 +4075,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>300199.0710019906</v>
+        <v>1481.371750240718</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>99391.59583424048</v>
+        <v>-2848.954291456226</v>
       </c>
       <c r="E11" t="n">
-        <v>399590.6668362311</v>
+        <v>-1367.582541215509</v>
       </c>
     </row>
     <row r="12">
@@ -3518,16 +4092,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>260384.8706038487</v>
+        <v>8888.230501444332</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>82517.10557206822</v>
+        <v>-29862.44027256239</v>
       </c>
       <c r="E12" t="n">
-        <v>342901.9761759168</v>
+        <v>-20974.20977111805</v>
       </c>
     </row>
     <row r="13">
@@ -3535,16 +4109,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>220570.6702057066</v>
+        <v>16295.08925264795</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>66365.2347425856</v>
+        <v>-55637.92948167097</v>
       </c>
       <c r="E13" t="n">
-        <v>286935.9049482922</v>
+        <v>-39342.84022902303</v>
       </c>
     </row>
     <row r="14">
@@ -3552,16 +4126,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>180756.4698075647</v>
+        <v>23701.94800385156</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>51162.21117212727</v>
+        <v>-79140.46774403132</v>
       </c>
       <c r="E14" t="n">
-        <v>231918.6809796919</v>
+        <v>-55438.51974017976</v>
       </c>
     </row>
     <row r="15">
@@ -3569,16 +4143,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>140942.2694094226</v>
+        <v>31108.80675505518</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>37057.73795727528</v>
+        <v>-99738.88620994872</v>
       </c>
       <c r="E15" t="n">
-        <v>178000.0073666979</v>
+        <v>-68630.07945489354</v>
       </c>
     </row>
     <row r="16">
@@ -3586,16 +4160,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>101128.0690112806</v>
+        <v>38515.66550625879</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>24135.14746124309</v>
+        <v>-117177.5639274834</v>
       </c>
       <c r="E16" t="n">
-        <v>125263.2164725237</v>
+        <v>-78661.89842122464</v>
       </c>
     </row>
     <row r="17">
@@ -3603,16 +4177,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>61313.86861313865</v>
+        <v>45922.52425746241</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>12423.30875894582</v>
+        <v>-131499.1783193485</v>
       </c>
       <c r="E17" t="n">
-        <v>73737.17737208446</v>
+        <v>-85576.65406188613</v>
       </c>
     </row>
     <row r="18">
@@ -3620,16 +4194,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>21499.66821499665</v>
+        <v>53329.38300866602</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>1908.66525346383</v>
+        <v>-142950.3651352309</v>
       </c>
       <c r="E18" t="n">
-        <v>23408.33346846048</v>
+        <v>-89620.98212656492</v>
       </c>
     </row>
     <row r="19">
@@ -3637,16 +4211,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>-18314.53218314535</v>
+        <v>60736.24175986964</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-7453.618358898355</v>
+        <v>-151892.8188714415</v>
       </c>
       <c r="E19" t="n">
-        <v>-25768.15054204371</v>
+        <v>-91156.57711157188</v>
       </c>
     </row>
     <row r="20">
@@ -3654,16 +4228,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>-58128.73258128735</v>
+        <v>68143.10051107325</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-15729.95089148785</v>
+        <v>-158731.9182844635</v>
       </c>
       <c r="E20" t="n">
-        <v>-73858.6834727752</v>
+        <v>-90588.81777339021</v>
       </c>
     </row>
     <row r="21">
@@ -3671,16 +4245,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>-97942.93297942937</v>
+        <v>75549.95926227687</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-23000.26656622371</v>
+        <v>-163866.6076876631</v>
       </c>
       <c r="E21" t="n">
-        <v>-120943.1995456531</v>
+        <v>-88316.64842538627</v>
       </c>
     </row>
     <row r="22">
@@ -3688,16 +4262,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>-137757.1333775714</v>
+        <v>82956.81801348049</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-29351.62883851051</v>
+        <v>-167658.9806416035</v>
       </c>
       <c r="E22" t="n">
-        <v>-167108.7622160819</v>
+        <v>-84702.16262812304</v>
       </c>
     </row>
     <row r="23">
@@ -3705,16 +4279,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>-177571.3337757134</v>
+        <v>90363.67676468409</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-34873.35039470462</v>
+        <v>-170419.4844894108</v>
       </c>
       <c r="E23" t="n">
-        <v>-212444.684170418</v>
+        <v>-80055.80772472671</v>
       </c>
     </row>
     <row r="24">
@@ -3722,16 +4296,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>-217385.5341738554</v>
+        <v>97770.53551588771</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-39653.42794668909</v>
+        <v>-172403.069628685</v>
       </c>
       <c r="E24" t="n">
-        <v>-257038.9621205445</v>
+        <v>-74632.53411279734</v>
       </c>
     </row>
     <row r="25">
@@ -3739,16 +4313,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>-257199.7345719974</v>
+        <v>105177.3942670913</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-43776.06855135135</v>
+        <v>-173812.1056008973</v>
       </c>
       <c r="E25" t="n">
-        <v>-300975.8031233487</v>
+        <v>-68634.71133380596</v>
       </c>
     </row>
     <row r="26">
@@ -3756,16 +4330,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>-297013.9349701394</v>
+        <v>112584.2530182949</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-47320.08949404997</v>
+        <v>-174802.8357671417</v>
       </c>
       <c r="E26" t="n">
-        <v>-344334.0244641894</v>
+        <v>-62218.58274884675</v>
       </c>
     </row>
     <row r="27">
@@ -3773,16 +4347,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>-336828.1353682814</v>
+        <v>119991.1117694986</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-50357.99429696747</v>
+        <v>-175493.1439818439</v>
       </c>
       <c r="E27" t="n">
-        <v>-387186.1296652489</v>
+        <v>-55502.03221234534</v>
       </c>
     </row>
     <row r="28">
@@ -3790,16 +4364,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>-376642.3357664234</v>
+        <v>127397.9705207022</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-52955.554946252</v>
+        <v>-175970.2600837651</v>
       </c>
       <c r="E28" t="n">
-        <v>-429597.8907126754</v>
+        <v>-48572.28956306295</v>
       </c>
     </row>
     <row r="29">
@@ -3807,16 +4381,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>-416456.5361645654</v>
+        <v>134804.8292719058</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-55171.7597181911</v>
+        <v>-176297.6693068942</v>
       </c>
       <c r="E29" t="n">
-        <v>-471628.2958827565</v>
+        <v>-41492.84003498845</v>
       </c>
     </row>
     <row r="30">
@@ -3824,16 +4398,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>-456270.7365627073</v>
+        <v>142211.6880231094</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-57059.01390806477</v>
+        <v>-176520.9211536613</v>
       </c>
       <c r="E30" t="n">
-        <v>-513329.7504707721</v>
+        <v>-34309.23313055187</v>
       </c>
     </row>
     <row r="31">
@@ -3841,16 +4415,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>-496084.9369608493</v>
+        <v>149618.546774313</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-58663.50568719015</v>
+        <v>-176672.295404841</v>
       </c>
       <c r="E31" t="n">
-        <v>-554748.4426480394</v>
+        <v>-27053.74863052796</v>
       </c>
     </row>
     <row r="32">
@@ -3858,16 +4432,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>-535899.1373589913</v>
+        <v>157025.4055255166</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-60025.67056227961</v>
+        <v>-176774.4235438535</v>
       </c>
       <c r="E32" t="n">
-        <v>-595924.807921271</v>
+        <v>-19749.01801833682</v>
       </c>
     </row>
   </sheetData>
@@ -3921,16 +4495,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>658526.8745852688</v>
+        <v>-65180.3570105918</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>202663.3105938508</v>
+        <v>96130.52901121852</v>
       </c>
       <c r="E2" t="n">
-        <v>861190.1851791196</v>
+        <v>30950.17200062671</v>
       </c>
     </row>
     <row r="3">
@@ -3938,16 +4512,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>618712.6741871267</v>
+        <v>-57773.49825938819</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>194087.4259193619</v>
+        <v>87461.79155590455</v>
       </c>
       <c r="E3" t="n">
-        <v>812800.1001064886</v>
+        <v>29688.29329651636</v>
       </c>
     </row>
     <row r="4">
@@ -3955,16 +4529,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>578898.4737889847</v>
+        <v>-50366.63950818458</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>184031.0154878797</v>
+        <v>77047.50126484799</v>
       </c>
       <c r="E4" t="n">
-        <v>762929.4892768644</v>
+        <v>26680.86175666341</v>
       </c>
     </row>
     <row r="5">
@@ -3972,16 +4546,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>539084.2733908427</v>
+        <v>-42959.78075698097</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>172754.8570083905</v>
+        <v>65157.5091911527</v>
       </c>
       <c r="E5" t="n">
-        <v>711839.1303992332</v>
+        <v>22197.72843417173</v>
       </c>
     </row>
     <row r="6">
@@ -3989,16 +4563,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>499270.0729927007</v>
+        <v>-35552.92200577736</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>160554.2127034027</v>
+        <v>52123.92007088565</v>
       </c>
       <c r="E6" t="n">
-        <v>659824.2856961035</v>
+        <v>16570.9980651083</v>
       </c>
     </row>
     <row r="7">
@@ -4006,16 +4580,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>459455.8725945587</v>
+        <v>-28146.06325457374</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>147728.3738271637</v>
+        <v>38299.66468953184</v>
       </c>
       <c r="E7" t="n">
-        <v>607184.2464217225</v>
+        <v>10153.6014349581</v>
       </c>
     </row>
     <row r="8">
@@ -4023,16 +4597,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>419641.6721964167</v>
+        <v>-20739.20450337013</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>134559.1996522134</v>
+        <v>24026.99254364322</v>
       </c>
       <c r="E8" t="n">
-        <v>554200.8718486301</v>
+        <v>3287.788040273099</v>
       </c>
     </row>
     <row r="9">
@@ -4040,16 +4614,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>379827.4717982747</v>
+        <v>-13332.34575216651</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>121297.8326373855</v>
+        <v>9616.406726829999</v>
       </c>
       <c r="E9" t="n">
-        <v>501125.3044356601</v>
+        <v>-3715.939025336513</v>
       </c>
     </row>
     <row r="10">
@@ -4057,16 +4631,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>340013.2714001327</v>
+        <v>-5925.487000962897</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>108157.9685401884</v>
+        <v>-4665.272576462768</v>
       </c>
       <c r="E10" t="n">
-        <v>448171.2399403211</v>
+        <v>-10590.75957742567</v>
       </c>
     </row>
     <row r="11">
@@ -4074,16 +4648,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>300199.0710019906</v>
+        <v>1481.371750240718</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>95313.91936589425</v>
+        <v>-18599.74367253314</v>
       </c>
       <c r="E11" t="n">
-        <v>395512.9903678849</v>
+        <v>-17118.37192229243</v>
       </c>
     </row>
     <row r="12">
@@ -4091,16 +4665,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>260384.8706038487</v>
+        <v>8888.230501444332</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>82901.89505499598</v>
+        <v>-32017.0372259771</v>
       </c>
       <c r="E12" t="n">
-        <v>343286.7656588446</v>
+        <v>-23128.80672453276</v>
       </c>
     </row>
     <row r="13">
@@ -4108,16 +4682,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>220570.6702057066</v>
+        <v>16295.08925264795</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>71023.24137809935</v>
+        <v>-44792.11321738445</v>
       </c>
       <c r="E13" t="n">
-        <v>291593.911583806</v>
+        <v>-28497.02396473651</v>
       </c>
     </row>
     <row r="14">
@@ -4125,16 +4699,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>180756.4698075647</v>
+        <v>23701.94800385156</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>59748.69522132586</v>
+        <v>-56839.65672227476</v>
       </c>
       <c r="E14" t="n">
-        <v>240505.1650288905</v>
+        <v>-33137.7087184232</v>
       </c>
     </row>
     <row r="15">
@@ -4142,16 +4716,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>140942.2694094226</v>
+        <v>31108.80675505518</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>49123.00265805123</v>
+        <v>-68108.10032007599</v>
       </c>
       <c r="E15" t="n">
-        <v>190065.2720674739</v>
+        <v>-36999.29356502081</v>
       </c>
     </row>
     <row r="16">
@@ -4159,16 +4733,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>101128.0690112806</v>
+        <v>38515.66550625879</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>39169.47246258504</v>
+        <v>-78573.5674974296</v>
       </c>
       <c r="E16" t="n">
-        <v>140297.5414738657</v>
+        <v>-40057.90199117081</v>
       </c>
     </row>
     <row r="17">
@@ -4176,16 +4750,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>61313.86861313865</v>
+        <v>45922.52425746241</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>29894.20811118825</v>
+        <v>-88234.16926038862</v>
       </c>
       <c r="E17" t="n">
-        <v>91208.07672432691</v>
+        <v>-42311.64500292621</v>
       </c>
     </row>
     <row r="18">
@@ -4193,16 +4767,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>21499.66821499665</v>
+        <v>53329.38300866602</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>21289.88257572536</v>
+        <v>-97104.8931943896</v>
       </c>
       <c r="E18" t="n">
-        <v>42789.550790722</v>
+        <v>-43775.51018572358</v>
       </c>
     </row>
     <row r="19">
@@ -4210,16 +4784,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>-18314.53218314535</v>
+        <v>60736.24175986964</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>13339.00236829473</v>
+        <v>-105213.1900663442</v>
       </c>
       <c r="E19" t="n">
-        <v>-4975.529814850626</v>
+        <v>-44476.94830647455</v>
       </c>
     </row>
     <row r="20">
@@ -4227,16 +4801,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>-58128.73258128735</v>
+        <v>68143.10051107325</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>6016.660012405508</v>
+        <v>-112595.2751356795</v>
       </c>
       <c r="E20" t="n">
-        <v>-52112.07256888185</v>
+        <v>-44452.17462460621</v>
       </c>
     </row>
     <row r="21">
@@ -4244,16 +4818,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>-97942.93297942937</v>
+        <v>75549.95926227687</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-707.1943699939075</v>
+        <v>-119293.1076975694</v>
       </c>
       <c r="E21" t="n">
-        <v>-98650.12734942327</v>
+        <v>-43743.14843529249</v>
       </c>
     </row>
     <row r="22">
@@ -4261,16 +4835,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>-137757.1333775714</v>
+        <v>82956.81801348049</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-6865.914836484728</v>
+        <v>-125351.9829800925</v>
       </c>
       <c r="E22" t="n">
-        <v>-144623.0482140561</v>
+        <v>-42395.16496661199</v>
       </c>
     </row>
     <row r="23">
@@ -4278,16 +4852,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>-177571.3337757134</v>
+        <v>90363.67676468409</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-12494.70018738378</v>
+        <v>-130818.6574871895</v>
       </c>
       <c r="E23" t="n">
-        <v>-190066.0339630971</v>
+        <v>-40454.98072250545</v>
       </c>
     </row>
     <row r="24">
@@ -4295,16 +4869,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>-217385.5341738554</v>
+        <v>97770.53551588771</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-17629.45787622048</v>
+        <v>-135739.9263581486</v>
       </c>
       <c r="E24" t="n">
-        <v>-235014.9920500758</v>
+        <v>-37969.39084226087</v>
       </c>
     </row>
     <row r="25">
@@ -4312,16 +4886,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>-257199.7345719974</v>
+        <v>105177.3942670913</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-22305.93866884189</v>
+        <v>-140161.5751109397</v>
       </c>
       <c r="E25" t="n">
-        <v>-279505.6732408393</v>
+        <v>-34984.18084384836</v>
       </c>
     </row>
     <row r="26">
@@ -4329,16 +4903,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>-297013.9349701394</v>
+        <v>112584.2530182949</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-26559.09428502168</v>
+        <v>-144127.6353667071</v>
       </c>
       <c r="E26" t="n">
-        <v>-323573.0292551611</v>
+        <v>-31543.38234841211</v>
       </c>
     </row>
     <row r="27">
@@ -4346,16 +4920,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>-336828.1353682814</v>
+        <v>119991.1117694986</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-30422.61596162292</v>
+        <v>-147679.882906953</v>
       </c>
       <c r="E27" t="n">
-        <v>-367250.7513299043</v>
+        <v>-27688.77113745443</v>
       </c>
     </row>
     <row r="28">
@@ -4363,16 +4937,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>-376642.3357664234</v>
+        <v>127397.9705207022</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-33928.6177474103</v>
+        <v>-150857.5254864147</v>
       </c>
       <c r="E28" t="n">
-        <v>-410570.9535138337</v>
+        <v>-23459.55496571251</v>
       </c>
     </row>
     <row r="29">
@@ -4380,16 +4954,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>-416456.5361645654</v>
+        <v>134804.8292719058</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-37107.43395555406</v>
+        <v>-153697.0364958586</v>
       </c>
       <c r="E29" t="n">
-        <v>-453563.9701201194</v>
+        <v>-18892.20722395278</v>
       </c>
     </row>
     <row r="30">
@@ -4397,16 +4971,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>-456270.7365627073</v>
+        <v>142211.6880231094</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-39987.50533187065</v>
+        <v>-156232.0984529271</v>
       </c>
       <c r="E30" t="n">
-        <v>-496258.241894578</v>
+        <v>-14020.41042981771</v>
       </c>
     </row>
     <row r="31">
@@ -4414,16 +4988,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>-496084.9369608493</v>
+        <v>149618.546774313</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-42595.33304139983</v>
+        <v>-158493.627224469</v>
       </c>
       <c r="E31" t="n">
-        <v>-538680.2700022492</v>
+        <v>-8875.080450156034</v>
       </c>
     </row>
     <row r="32">
@@ -4431,16 +5005,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>-535899.1373589913</v>
+        <v>157025.4055255166</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-44955.48350836612</v>
+        <v>-160509.853813772</v>
       </c>
       <c r="E32" t="n">
-        <v>-580854.6208673575</v>
+        <v>-3484.448288255342</v>
       </c>
     </row>
   </sheetData>
@@ -4494,16 +5068,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>658526.8745852688</v>
+        <v>-65180.3570105918</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>204974.0959430836</v>
+        <v>98477.13748498412</v>
       </c>
       <c r="E2" t="n">
-        <v>863500.9705283524</v>
+        <v>33296.78047439232</v>
       </c>
     </row>
     <row r="3">
@@ -4511,16 +5085,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>618712.6741871267</v>
+        <v>-57773.49825938819</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>196668.7208136554</v>
+        <v>90163.85797973204</v>
       </c>
       <c r="E3" t="n">
-        <v>815381.3950007821</v>
+        <v>32390.35972034385</v>
       </c>
     </row>
     <row r="4">
@@ -4528,16 +5102,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>578898.4737889847</v>
+        <v>-50366.63950818458</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>186746.7617109441</v>
+        <v>79965.85019435326</v>
       </c>
       <c r="E4" t="n">
-        <v>765645.2354999287</v>
+        <v>29599.21068616868</v>
       </c>
     </row>
     <row r="5">
@@ -4545,16 +5119,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>539084.2733908427</v>
+        <v>-42959.78075698097</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>175457.4612000497</v>
+        <v>68129.51434979803</v>
       </c>
       <c r="E5" t="n">
-        <v>714541.7345908924</v>
+        <v>25169.73359281707</v>
       </c>
     </row>
     <row r="6">
@@ -4562,16 +5136,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>499270.0729927007</v>
+        <v>-35552.92200577736</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>163102.2247431609</v>
+        <v>54986.4169916214</v>
       </c>
       <c r="E6" t="n">
-        <v>662372.2977358617</v>
+        <v>19433.49498584405</v>
       </c>
     </row>
     <row r="7">
@@ -4579,16 +5153,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>459455.8725945587</v>
+        <v>-28146.06325457374</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>149998.897425103</v>
+        <v>40906.44809643857</v>
       </c>
       <c r="E7" t="n">
-        <v>609454.7700196616</v>
+        <v>12760.38484186483</v>
       </c>
     </row>
     <row r="8">
@@ -4596,16 +5170,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>419641.6721964167</v>
+        <v>-20739.20450337013</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>136454.992912682</v>
+        <v>26259.81810114405</v>
       </c>
       <c r="E8" t="n">
-        <v>556096.6651090987</v>
+        <v>5520.613597773921</v>
       </c>
     </row>
     <row r="9">
@@ -4613,16 +5187,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>379827.4717982747</v>
+        <v>-13332.34575216651</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>122749.954988686</v>
+        <v>11390.02721883325</v>
       </c>
       <c r="E9" t="n">
-        <v>502577.4267869607</v>
+        <v>-1942.318533333266</v>
       </c>
     </row>
     <row r="10">
@@ -4630,16 +5204,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>340013.2714001327</v>
+        <v>-5925.487000962897</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>109125.1507345554</v>
+        <v>-3402.738764954425</v>
       </c>
       <c r="E10" t="n">
-        <v>449138.4221346881</v>
+        <v>-9328.225765917323</v>
       </c>
     </row>
     <row r="11">
@@ -4647,16 +5221,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>300199.0710019906</v>
+        <v>1481.371750240718</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>95779.81023166841</v>
+        <v>-17869.62761305819</v>
       </c>
       <c r="E11" t="n">
-        <v>395978.881233659</v>
+        <v>-16388.25586281747</v>
       </c>
     </row>
     <row r="12">
@@ -4664,16 +5238,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>260384.8706038487</v>
+        <v>8888.230501444332</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>82871.15066782283</v>
+        <v>-31814.77564177882</v>
       </c>
       <c r="E12" t="n">
-        <v>343256.0212716715</v>
+        <v>-22926.54514033449</v>
       </c>
     </row>
     <row r="13">
@@ -4681,16 +5255,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>220570.6702057066</v>
+        <v>16295.08925264795</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>70517.18282078077</v>
+        <v>-45092.68657732297</v>
       </c>
       <c r="E13" t="n">
-        <v>291087.8530264874</v>
+        <v>-28797.59732467503</v>
       </c>
     </row>
     <row r="14">
@@ -4698,16 +5272,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>180756.4698075647</v>
+        <v>23701.94800385156</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>58801.03217693056</v>
+        <v>-57603.059151676</v>
       </c>
       <c r="E14" t="n">
-        <v>239557.5019844952</v>
+        <v>-33901.11114782443</v>
       </c>
     </row>
     <row r="15">
@@ -4715,16 +5289,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>140942.2694094226</v>
+        <v>31108.80675505518</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>47775.92939900744</v>
+        <v>-69284.36637376735</v>
       </c>
       <c r="E15" t="n">
-        <v>188718.1988084301</v>
+        <v>-38175.55961871217</v>
       </c>
     </row>
     <row r="16">
@@ -4732,16 +5306,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>101128.0690112806</v>
+        <v>38515.66550625879</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>37470.29779168268</v>
+        <v>-80107.09833816274</v>
       </c>
       <c r="E16" t="n">
-        <v>138598.3668029633</v>
+        <v>-41591.43283190396</v>
       </c>
     </row>
     <row r="17">
@@ -4749,16 +5323,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>61313.86861313865</v>
+        <v>45922.52425746241</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>27892.57848891414</v>
+        <v>-90067.25794754989</v>
       </c>
       <c r="E17" t="n">
-        <v>89206.44710205279</v>
+        <v>-44144.73369008749</v>
       </c>
     </row>
     <row r="18">
@@ -4766,16 +5340,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>21499.66821499665</v>
+        <v>53329.38300866602</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>19035.59069157024</v>
+        <v>-99180.45308980397</v>
       </c>
       <c r="E18" t="n">
-        <v>40535.25890656689</v>
+        <v>-45851.07008113794</v>
       </c>
     </row>
     <row r="19">
@@ -4783,16 +5357,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>-18314.53218314535</v>
+        <v>60736.24175986964</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>10880.33347521133</v>
+        <v>-107476.7529280481</v>
       </c>
       <c r="E19" t="n">
-        <v>-7434.198707934025</v>
+        <v>-46740.51116817841</v>
       </c>
     </row>
     <row r="20">
@@ -4800,16 +5374,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>-58128.73258128735</v>
+        <v>68143.10051107325</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>3399.207833300192</v>
+        <v>-114996.3575192383</v>
       </c>
       <c r="E20" t="n">
-        <v>-54729.52474798716</v>
+        <v>-46853.25700816506</v>
       </c>
     </row>
     <row r="21">
@@ -4817,16 +5391,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>-97942.93297942937</v>
+        <v>75549.95926227687</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-3441.317699506399</v>
+        <v>-121786.0555074206</v>
       </c>
       <c r="E21" t="n">
-        <v>-101384.2506789358</v>
+        <v>-46236.09624514371</v>
       </c>
     </row>
     <row r="22">
@@ -4834,16 +5408,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>-137757.1333775714</v>
+        <v>82956.81801348049</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-9678.549309107268</v>
+        <v>-127896.4020407703</v>
       </c>
       <c r="E22" t="n">
-        <v>-147435.6826866787</v>
+        <v>-44939.58402728979</v>
       </c>
     </row>
     <row r="23">
@@ -4851,16 +5425,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>-177571.3337757134</v>
+        <v>90363.67676468409</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-15351.85758596561</v>
+        <v>-133379.5284543264</v>
       </c>
       <c r="E23" t="n">
-        <v>-192923.191361679</v>
+        <v>-43015.85168964235</v>
       </c>
     </row>
     <row r="24">
@@ -4868,16 +5442,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>-217385.5341738554</v>
+        <v>97770.53551588771</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-20501.35086305162</v>
+        <v>-138287.4890656974</v>
       </c>
       <c r="E24" t="n">
-        <v>-237886.885036907</v>
+        <v>-40516.95354980965</v>
       </c>
     </row>
     <row r="25">
@@ -4885,16 +5459,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>-257199.7345719974</v>
+        <v>105177.3942670913</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-25166.87042685076</v>
+        <v>-142671.0531127042</v>
       </c>
       <c r="E25" t="n">
-        <v>-282366.6049988482</v>
+        <v>-37493.65884561292</v>
       </c>
     </row>
     <row r="26">
@@ -4902,16 +5476,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>-297013.9349701394</v>
+        <v>112584.2530182949</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-29387.25079271577</v>
+        <v>-146578.857540766</v>
       </c>
       <c r="E26" t="n">
-        <v>-326401.1857628552</v>
+        <v>-33994.60452247107</v>
       </c>
     </row>
     <row r="27">
@@ -4919,16 +5493,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>-336828.1353682814</v>
+        <v>119991.1117694986</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-33199.79464739189</v>
+        <v>-150056.8464149315</v>
       </c>
       <c r="E27" t="n">
-        <v>-370027.9300156733</v>
+        <v>-30065.73464543294</v>
       </c>
     </row>
     <row r="28">
@@ -4936,16 +5510,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>-376642.3357664234</v>
+        <v>127397.9705207022</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-36639.91891880421</v>
+        <v>-153147.9335108259</v>
       </c>
       <c r="E28" t="n">
-        <v>-413282.2546852276</v>
+        <v>-25749.96299012369</v>
       </c>
     </row>
     <row r="29">
@@ -4953,16 +5527,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>-416456.5361645654</v>
+        <v>134804.8292719058</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-39740.93512960652</v>
+        <v>-155891.8351147903</v>
       </c>
       <c r="E29" t="n">
-        <v>-456197.4712941719</v>
+        <v>-21087.00584288454</v>
       </c>
     </row>
     <row r="30">
@@ -4970,16 +5544,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>-456270.7365627073</v>
+        <v>142211.6880231094</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-42533.9333843341</v>
+        <v>-158325.0296724853</v>
       </c>
       <c r="E30" t="n">
-        <v>-498804.6699470414</v>
+        <v>-16113.34164937591</v>
       </c>
     </row>
     <row r="31">
@@ -4987,16 +5561,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>-496084.9369608493</v>
+        <v>149618.546774313</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-45047.74486283417</v>
+        <v>-160480.8094016247</v>
       </c>
       <c r="E31" t="n">
-        <v>-541132.6818236834</v>
+        <v>-10862.26262731166</v>
       </c>
     </row>
     <row r="32">
@@ -5004,16 +5578,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>-535899.1373589913</v>
+        <v>157025.4055255166</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-47308.96248928427</v>
+        <v>-162389.3962515611</v>
       </c>
       <c r="E32" t="n">
-        <v>-583208.0998482755</v>
+        <v>-5363.990726044431</v>
       </c>
     </row>
   </sheetData>
@@ -5067,16 +5641,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>658526.8745852688</v>
+        <v>-65180.3570105918</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>207036.2917822773</v>
+        <v>100547.7132159775</v>
       </c>
       <c r="E2" t="n">
-        <v>865563.1663675461</v>
+        <v>35367.35620538567</v>
       </c>
     </row>
     <row r="3">
@@ -5084,16 +5658,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>618712.6741871267</v>
+        <v>-57773.49825938819</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>199017.2805335117</v>
+        <v>92598.81011879287</v>
       </c>
       <c r="E3" t="n">
-        <v>817729.9547206385</v>
+        <v>34825.31185940468</v>
       </c>
     </row>
     <row r="4">
@@ -5101,16 +5675,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>578898.4737889847</v>
+        <v>-50366.63950818458</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>189256.8879254779</v>
+        <v>82641.38065696496</v>
       </c>
       <c r="E4" t="n">
-        <v>768155.3617144625</v>
+        <v>32274.74114878038</v>
       </c>
     </row>
     <row r="5">
@@ -5118,16 +5692,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>539084.2733908427</v>
+        <v>-42959.78075698097</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>177987.0453196316</v>
+        <v>70891.7213699547</v>
       </c>
       <c r="E5" t="n">
-        <v>717071.3187104743</v>
+        <v>27931.94061297373</v>
       </c>
     </row>
     <row r="6">
@@ -5135,16 +5709,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>499270.0729927007</v>
+        <v>-35552.92200577736</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>165510.643832812</v>
+        <v>57674.89810070835</v>
       </c>
       <c r="E6" t="n">
-        <v>664780.7168255127</v>
+        <v>22121.97609493099</v>
       </c>
     </row>
     <row r="7">
@@ -5152,16 +5726,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>459455.8725945587</v>
+        <v>-28146.06325457374</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>152161.0465026916</v>
+        <v>43373.5274845883</v>
       </c>
       <c r="E7" t="n">
-        <v>611616.9190972503</v>
+        <v>15227.46423001456</v>
       </c>
     </row>
     <row r="8">
@@ -5169,16 +5743,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>419641.6721964167</v>
+        <v>-20739.20450337013</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>138269.9398482714</v>
+        <v>28383.46763121887</v>
       </c>
       <c r="E8" t="n">
-        <v>557911.6120446881</v>
+        <v>7644.263127848742</v>
       </c>
     </row>
     <row r="9">
@@ -5186,16 +5760,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>379827.4717982747</v>
+        <v>-13332.34575216651</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>124144.789724225</v>
+        <v>13080.5087479772</v>
       </c>
       <c r="E9" t="n">
-        <v>503972.2615224997</v>
+        <v>-251.8370041893068</v>
       </c>
     </row>
     <row r="10">
@@ -5203,16 +5777,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>340013.2714001327</v>
+        <v>-5925.487000962897</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>110055.1285682478</v>
+        <v>-2201.40988261337</v>
       </c>
       <c r="E10" t="n">
-        <v>450068.3999683805</v>
+        <v>-8126.896883576267</v>
       </c>
     </row>
     <row r="11">
@@ -5220,16 +5794,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>300199.0710019906</v>
+        <v>1481.371750240718</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>96225.98543900528</v>
+        <v>-17181.91169151365</v>
       </c>
       <c r="E11" t="n">
-        <v>396425.0564409959</v>
+        <v>-15700.53994127293</v>
       </c>
     </row>
     <row r="12">
@@ -5237,16 +5811,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>260384.8706038487</v>
+        <v>8888.230501444332</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>82836.55997523238</v>
+        <v>-31638.0852961578</v>
       </c>
       <c r="E12" t="n">
-        <v>343221.4305790811</v>
+        <v>-22749.85479471347</v>
       </c>
     </row>
     <row r="13">
@@ -5254,16 +5828,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>220570.6702057066</v>
+        <v>16295.08925264795</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>70022.40705425864</v>
+        <v>-45402.91837106035</v>
       </c>
       <c r="E13" t="n">
-        <v>290593.0772599653</v>
+        <v>-29107.82911841241</v>
       </c>
     </row>
     <row r="14">
@@ -5271,16 +5845,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>180756.4698075647</v>
+        <v>23701.94800385156</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>57879.72163821888</v>
+        <v>-58360.30694892153</v>
       </c>
       <c r="E14" t="n">
-        <v>238636.1914457835</v>
+        <v>-34658.35894506997</v>
       </c>
     </row>
     <row r="15">
@@ -5288,16 +5862,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>140942.2694094226</v>
+        <v>31108.80675505518</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>46470.66579644952</v>
+        <v>-70438.24592716042</v>
       </c>
       <c r="E15" t="n">
-        <v>187412.9352058722</v>
+        <v>-39329.43917210524</v>
       </c>
     </row>
     <row r="16">
@@ -5305,16 +5879,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>101128.0690112806</v>
+        <v>38515.66550625879</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>35828.99827999852</v>
+        <v>-81601.36141158303</v>
       </c>
       <c r="E16" t="n">
-        <v>136957.0672912791</v>
+        <v>-43085.69590532424</v>
       </c>
     </row>
     <row r="17">
@@ -5322,16 +5896,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>61313.86861313865</v>
+        <v>45922.52425746241</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>25965.526323724</v>
+        <v>-91843.55893286451</v>
       </c>
       <c r="E17" t="n">
-        <v>87279.39493686265</v>
+        <v>-45921.03467540211</v>
       </c>
     </row>
     <row r="18">
@@ -5339,16 +5913,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>21499.66821499665</v>
+        <v>53329.38300866602</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>16873.09602109555</v>
+        <v>-101181.2563101951</v>
       </c>
       <c r="E18" t="n">
-        <v>38372.76423609219</v>
+        <v>-47851.87330152911</v>
       </c>
     </row>
     <row r="19">
@@ -5356,16 +5930,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>-18314.53218314535</v>
+        <v>60736.24175986964</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>8530.97837300934</v>
+        <v>-109647.4455493824</v>
       </c>
       <c r="E19" t="n">
-        <v>-9783.553810136014</v>
+        <v>-48911.20378951275</v>
       </c>
     </row>
     <row r="20">
@@ -5373,16 +5947,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>-58128.73258128735</v>
+        <v>68143.10051107325</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>908.6034201242692</v>
+        <v>-117286.6734639715</v>
       </c>
       <c r="E20" t="n">
-        <v>-57220.12916116309</v>
+        <v>-49143.57295289823</v>
       </c>
     </row>
     <row r="21">
@@ -5390,16 +5964,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>-97942.93297942937</v>
+        <v>75549.95926227687</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-6031.344496160714</v>
+        <v>-124150.93109411</v>
       </c>
       <c r="E21" t="n">
-        <v>-103974.2774755901</v>
+        <v>-48600.97183183317</v>
       </c>
     </row>
     <row r="22">
@@ -5407,16 +5981,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>-137757.1333775714</v>
+        <v>82956.81801348049</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-12330.42182926039</v>
+        <v>-130296.3832617347</v>
       </c>
       <c r="E22" t="n">
-        <v>-150087.5552068318</v>
+        <v>-47339.56524825422</v>
       </c>
     </row>
     <row r="23">
@@ -5424,16 +5998,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>-177571.3337757134</v>
+        <v>90363.67676468409</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-18032.44475939277</v>
+        <v>-135780.8396085289</v>
       </c>
       <c r="E23" t="n">
-        <v>-195603.7785351061</v>
+        <v>-45417.16284384477</v>
       </c>
     </row>
     <row r="24">
@@ -5441,16 +6015,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>-217385.5341738554</v>
+        <v>97770.53551588771</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-23181.959008644</v>
+        <v>-140661.8576351402</v>
       </c>
       <c r="E24" t="n">
-        <v>-240567.4931824994</v>
+        <v>-42891.32211925245</v>
       </c>
     </row>
     <row r="25">
@@ -5458,16 +6032,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>-257199.7345719974</v>
+        <v>105177.3942670913</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-27823.08840987719</v>
+        <v>-144995.3694488138</v>
       </c>
       <c r="E25" t="n">
-        <v>-285022.8229818746</v>
+        <v>-39817.97518172246</v>
       </c>
     </row>
     <row r="26">
@@ -5475,16 +6049,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>-297013.9349701394</v>
+        <v>112584.2530182949</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-31998.69514001373</v>
+        <v>-148834.7320424664</v>
       </c>
       <c r="E26" t="n">
-        <v>-329012.6301101531</v>
+        <v>-36250.47902417144</v>
       </c>
     </row>
     <row r="27">
@@ -5492,16 +6066,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>-336828.1353682814</v>
+        <v>119991.1117694986</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-35749.79171697851</v>
+        <v>-152230.1125029825</v>
       </c>
       <c r="E27" t="n">
-        <v>-372577.9270852599</v>
+        <v>-32239.00073348399</v>
       </c>
     </row>
     <row r="28">
@@ -5509,16 +6083,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>-376642.3357664234</v>
+        <v>127397.9705207022</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-39115.15284866749</v>
+        <v>-155228.1323247135</v>
       </c>
       <c r="E28" t="n">
-        <v>-415757.4886150908</v>
+        <v>-27830.16180401132</v>
       </c>
     </row>
     <row r="29">
@@ -5526,16 +6100,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>-416456.5361645654</v>
+        <v>134804.8292719058</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-42131.08317447705</v>
+        <v>-157871.7076015077</v>
       </c>
       <c r="E29" t="n">
-        <v>-458587.6193390424</v>
+        <v>-23066.8783296019</v>
       </c>
     </row>
     <row r="30">
@@ -5543,16 +6117,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>-456270.7365627073</v>
+        <v>142211.6880231094</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-44831.30437157193</v>
+        <v>-160200.0335047773</v>
       </c>
       <c r="E30" t="n">
-        <v>-501102.0409342793</v>
+        <v>-17988.34548166787</v>
       </c>
     </row>
     <row r="31">
@@ -5560,16 +6134,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>-496084.9369608493</v>
+        <v>149618.546774313</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-47246.93176192079</v>
+        <v>-162248.6717451704</v>
       </c>
       <c r="E31" t="n">
-        <v>-543331.8687227701</v>
+        <v>-12630.12497085737</v>
       </c>
     </row>
     <row r="32">
@@ -5577,16 +6151,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>-535899.1373589913</v>
+        <v>157025.4055255166</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-49406.51635770669</v>
+        <v>-164049.7085358819</v>
       </c>
       <c r="E32" t="n">
-        <v>-585305.6537166981</v>
+        <v>-7024.303010365256</v>
       </c>
     </row>
   </sheetData>
@@ -5640,16 +6214,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>658526.8745852688</v>
+        <v>-65180.3570105918</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>212468.7416874846</v>
+        <v>105880.5374477173</v>
       </c>
       <c r="E2" t="n">
-        <v>870995.6162727533</v>
+        <v>40700.18043712553</v>
       </c>
     </row>
     <row r="3">
@@ -5657,16 +6231,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>618712.6741871267</v>
+        <v>-57773.49825938819</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>205457.3756532575</v>
+        <v>99148.16338908399</v>
       </c>
       <c r="E3" t="n">
-        <v>824170.0498403842</v>
+        <v>41374.66512969579</v>
       </c>
     </row>
     <row r="4">
@@ -5674,16 +6248,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>578898.4737889847</v>
+        <v>-50366.63950818458</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>196372.265059316</v>
+        <v>90102.74501558591</v>
       </c>
       <c r="E4" t="n">
-        <v>775270.7388483007</v>
+        <v>39736.10550740133</v>
       </c>
     </row>
     <row r="5">
@@ -5691,16 +6265,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>539084.2733908427</v>
+        <v>-42959.78075698097</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>185352.0674844694</v>
+        <v>78822.20798763353</v>
       </c>
       <c r="E5" t="n">
-        <v>724436.3408753121</v>
+        <v>35862.42723065257</v>
       </c>
     </row>
     <row r="6">
@@ -5708,16 +6282,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>499270.0729927007</v>
+        <v>-35552.92200577736</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>172672.4197512769</v>
+        <v>65570.56429215134</v>
       </c>
       <c r="E6" t="n">
-        <v>671942.4927439776</v>
+        <v>30017.64228637398</v>
       </c>
     </row>
     <row r="7">
@@ -5725,16 +6299,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>459455.8725945587</v>
+        <v>-28146.06325457374</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>158695.3199964759</v>
+        <v>50741.91487923148</v>
       </c>
       <c r="E7" t="n">
-        <v>618151.1925910346</v>
+        <v>22595.85162465774</v>
       </c>
     </row>
     <row r="8">
@@ -5742,16 +6316,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>419641.6721964167</v>
+        <v>-20739.20450337013</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>143820.2418827973</v>
+        <v>34798.74520488197</v>
       </c>
       <c r="E8" t="n">
-        <v>563461.914079214</v>
+        <v>14059.54070151184</v>
       </c>
     </row>
     <row r="9">
@@ -5759,16 +6333,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>379827.4717982747</v>
+        <v>-13332.34575216651</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>128444.0027627312</v>
+        <v>18216.92670872298</v>
       </c>
       <c r="E9" t="n">
-        <v>508271.4745610058</v>
+        <v>4884.58095655647</v>
       </c>
     </row>
     <row r="10">
@@ -5776,16 +6350,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>340013.2714001327</v>
+        <v>-5925.487000962897</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>112931.995968797</v>
+        <v>1443.692842905482</v>
       </c>
       <c r="E10" t="n">
-        <v>452945.2673689297</v>
+        <v>-4481.794158057414</v>
       </c>
     </row>
     <row r="11">
@@ -5793,16 +6367,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>300199.0710019906</v>
+        <v>1481.371750240718</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>97600.50940081029</v>
+        <v>-15129.88803170788</v>
       </c>
       <c r="E11" t="n">
-        <v>397799.5804028009</v>
+        <v>-13648.51628146716</v>
       </c>
     </row>
     <row r="12">
@@ -5810,16 +6384,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>260384.8706038487</v>
+        <v>8888.230501444332</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>82708.34049907092</v>
+        <v>-31183.34284387525</v>
       </c>
       <c r="E12" t="n">
-        <v>343093.2111029196</v>
+        <v>-22295.11234243091</v>
       </c>
     </row>
     <row r="13">
@@ -5827,16 +6401,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>220570.6702057066</v>
+        <v>16295.08925264795</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>68455.38827743896</v>
+        <v>-46470.89685842761</v>
       </c>
       <c r="E13" t="n">
-        <v>289026.0584831456</v>
+        <v>-30175.80760577966</v>
       </c>
     </row>
     <row r="14">
@@ -5844,16 +6418,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>180756.4698075647</v>
+        <v>23701.94800385156</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>54985.96369184054</v>
+        <v>-60818.32602813763</v>
       </c>
       <c r="E14" t="n">
-        <v>235742.4334994052</v>
+        <v>-37116.37802428607</v>
       </c>
     </row>
     <row r="15">
@@ -5861,16 +6435,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>140942.2694094226</v>
+        <v>31108.80675505518</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>42394.91021697881</v>
+        <v>-74115.33813257419</v>
       </c>
       <c r="E15" t="n">
-        <v>183337.1796264015</v>
+        <v>-43006.53137751902</v>
       </c>
     </row>
     <row r="16">
@@ -5878,16 +6452,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>101128.0690112806</v>
+        <v>38515.66550625879</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>30735.07189007782</v>
+        <v>-86305.7011926914</v>
       </c>
       <c r="E16" t="n">
-        <v>131863.1409013584</v>
+        <v>-47790.03568643261</v>
       </c>
     </row>
     <row r="17">
@@ -5895,16 +6469,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>61313.86861313865</v>
+        <v>45922.52425746241</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>20025.07625343749</v>
+        <v>-97376.72601518311</v>
       </c>
       <c r="E17" t="n">
-        <v>81338.94486657614</v>
+        <v>-51454.20175772071</v>
       </c>
     </row>
     <row r="18">
@@ -5912,16 +6486,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>21499.66821499665</v>
+        <v>53329.38300866602</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>10256.76332371469</v>
+        <v>-107349.1609819011</v>
       </c>
       <c r="E18" t="n">
-        <v>31756.43153871133</v>
+        <v>-54019.77797323511</v>
       </c>
     </row>
     <row r="19">
@@ -5929,16 +6503,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>-18314.53218314535</v>
+        <v>60736.24175986964</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1401.873466675535</v>
+        <v>-116268.1177342889</v>
       </c>
       <c r="E19" t="n">
-        <v>-16912.65871646982</v>
+        <v>-55531.87597441923</v>
       </c>
     </row>
     <row r="20">
@@ -5946,16 +6520,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>-58128.73258128735</v>
+        <v>68143.10051107325</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-6582.189404468297</v>
+        <v>-124195.3230573271</v>
       </c>
       <c r="E20" t="n">
-        <v>-64710.92198575565</v>
+        <v>-56052.22254625382</v>
       </c>
     </row>
     <row r="21">
@@ -5963,16 +6537,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>-97942.93297942937</v>
+        <v>75549.95926227687</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-13747.56529656442</v>
+        <v>-131202.7719862816</v>
       </c>
       <c r="E21" t="n">
-        <v>-111690.4982759938</v>
+        <v>-55652.81272400475</v>
       </c>
     </row>
     <row r="22">
@@ -5980,16 +6554,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>-137757.1333775714</v>
+        <v>82956.81801348049</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-20152.07601240592</v>
+        <v>-137367.719321399</v>
       </c>
       <c r="E22" t="n">
-        <v>-157909.2093899773</v>
+        <v>-54410.90130791851</v>
       </c>
     </row>
     <row r="23">
@@ -5997,16 +6571,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>-177571.3337757134</v>
+        <v>90363.67676468409</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-25856.20452968905</v>
+        <v>-142768.8700483979</v>
       </c>
       <c r="E23" t="n">
-        <v>-203427.5383054024</v>
+        <v>-52405.19328371377</v>
       </c>
     </row>
     <row r="24">
@@ -6014,16 +6588,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>-217385.5341738554</v>
+        <v>97770.53551588771</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-30920.80439154398</v>
+        <v>-147483.5949646329</v>
       </c>
       <c r="E24" t="n">
-        <v>-248306.3385653994</v>
+        <v>-49713.05944874523</v>
       </c>
     </row>
     <row r="25">
@@ -6031,16 +6605,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>-257199.7345719974</v>
+        <v>105177.3942670913</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-35405.42209259945</v>
+        <v>-151585.9912291743</v>
       </c>
       <c r="E25" t="n">
-        <v>-292605.1566645969</v>
+        <v>-46408.59696208293</v>
       </c>
     </row>
     <row r="26">
@@ -6048,16 +6622,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>-297013.9349701394</v>
+        <v>112584.2530182949</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-39367.12033627948</v>
+        <v>-155145.6175153395</v>
       </c>
       <c r="E26" t="n">
-        <v>-336381.0553064189</v>
+        <v>-42561.36449704452</v>
       </c>
     </row>
     <row r="27">
@@ -6065,16 +6639,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>-336828.1353682814</v>
+        <v>119991.1117694986</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-42859.7006667298</v>
+        <v>-158226.7521575232</v>
       </c>
       <c r="E27" t="n">
-        <v>-379687.8360350112</v>
+        <v>-38235.64038802462</v>
       </c>
     </row>
     <row r="28">
@@ -6082,16 +6656,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>-376642.3357664234</v>
+        <v>127397.9705207022</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-45933.23719507724</v>
+        <v>-160888.0449668633</v>
       </c>
       <c r="E28" t="n">
-        <v>-422575.5729615006</v>
+        <v>-33490.0744461611</v>
       </c>
     </row>
     <row r="29">
@@ -6099,16 +6673,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>-416456.5361645654</v>
+        <v>134804.8292719058</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-48633.84693495082</v>
+        <v>-163182.4560011076</v>
       </c>
       <c r="E29" t="n">
-        <v>-465090.3830995162</v>
+        <v>-28377.62672920185</v>
       </c>
     </row>
     <row r="30">
@@ -6116,16 +6690,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>-456270.7365627073</v>
+        <v>142211.6880231094</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-51003.635436532</v>
+        <v>-165157.3956487663</v>
       </c>
       <c r="E30" t="n">
-        <v>-507274.3719992393</v>
+        <v>-22945.70762565691</v>
       </c>
     </row>
     <row r="31">
@@ -6133,16 +6707,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>-496084.9369608493</v>
+        <v>149618.546774313</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-53080.7683164827</v>
+        <v>-166854.9989926266</v>
       </c>
       <c r="E31" t="n">
-        <v>-549165.705277332</v>
+        <v>-17236.45221831361</v>
       </c>
     </row>
     <row r="32">
@@ -6150,16 +6724,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>-535899.1373589913</v>
+        <v>157025.4055255166</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-54899.6296417667</v>
+        <v>-168312.4832178185</v>
       </c>
       <c r="E32" t="n">
-        <v>-590798.767000758</v>
+        <v>-11287.07769230183</v>
       </c>
     </row>
   </sheetData>
@@ -6213,16 +6787,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>658526.8745852688</v>
+        <v>-65180.3570105918</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>217475.9691451407</v>
+        <v>110603.6192847961</v>
       </c>
       <c r="E2" t="n">
-        <v>876002.8437304095</v>
+        <v>45423.26227420426</v>
       </c>
     </row>
     <row r="3">
@@ -6230,16 +6804,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>618712.6741871267</v>
+        <v>-57773.49825938819</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>211853.5147804932</v>
+        <v>105433.17115131</v>
       </c>
       <c r="E3" t="n">
-        <v>830566.1889676198</v>
+        <v>47659.67289192178</v>
       </c>
     </row>
     <row r="4">
@@ -6247,16 +6821,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>578898.4737889847</v>
+        <v>-50366.63950818458</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>203894.1824425837</v>
+        <v>97766.61622934276</v>
       </c>
       <c r="E4" t="n">
-        <v>782792.6562315684</v>
+        <v>47399.97672115819</v>
       </c>
     </row>
     <row r="5">
@@ -6264,16 +6838,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>539084.2733908427</v>
+        <v>-42959.78075698097</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>193541.8043458196</v>
+        <v>87430.24798760063</v>
       </c>
       <c r="E5" t="n">
-        <v>732626.0777366624</v>
+        <v>44470.46723061966</v>
       </c>
     </row>
     <row r="6">
@@ -6281,16 +6855,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>499270.0729927007</v>
+        <v>-35552.92200577736</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>180961.4531693486</v>
+        <v>74520.74060281072</v>
       </c>
       <c r="E6" t="n">
-        <v>680231.5261620494</v>
+        <v>38967.81859703337</v>
       </c>
     </row>
     <row r="7">
@@ -6298,16 +6872,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>459455.8725945587</v>
+        <v>-28146.06325457374</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>166495.3254754957</v>
+        <v>59372.36428642279</v>
       </c>
       <c r="E7" t="n">
-        <v>625951.1980700544</v>
+        <v>31226.30103184905</v>
       </c>
     </row>
     <row r="8">
@@ -6315,16 +6889,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>419641.6721964167</v>
+        <v>-20739.20450337013</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>150599.6051043955</v>
+        <v>42487.74389853467</v>
       </c>
       <c r="E8" t="n">
-        <v>570241.2773008123</v>
+        <v>21748.53939516454</v>
       </c>
     </row>
     <row r="9">
@@ -6332,16 +6906,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>379827.4717982747</v>
+        <v>-13332.34575216651</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>133779.8153246247</v>
+        <v>24456.5403252477</v>
       </c>
       <c r="E9" t="n">
-        <v>513607.2871228993</v>
+        <v>11124.19457308119</v>
       </c>
     </row>
     <row r="10">
@@ -6349,16 +6923,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>340013.2714001327</v>
+        <v>-5925.487000962897</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>116535.9659289836</v>
+        <v>5880.691726305849</v>
       </c>
       <c r="E10" t="n">
-        <v>456549.2373291162</v>
+        <v>-44.79527465704723</v>
       </c>
     </row>
     <row r="11">
@@ -6366,16 +6940,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>300199.0710019906</v>
+        <v>1481.371750240718</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>99322.64749568932</v>
+        <v>-12683.27817163122</v>
       </c>
       <c r="E11" t="n">
-        <v>399521.71849768</v>
+        <v>-11201.9064213905</v>
       </c>
     </row>
     <row r="12">
@@ -6383,16 +6957,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>260384.8706038487</v>
+        <v>8888.230501444332</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>82524.66279736001</v>
+        <v>-30761.52093565654</v>
       </c>
       <c r="E12" t="n">
-        <v>342909.5334012087</v>
+        <v>-21873.29043421221</v>
       </c>
     </row>
     <row r="13">
@@ -6400,16 +6974,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>220570.6702057066</v>
+        <v>16295.08925264795</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>66446.09981322638</v>
+        <v>-47981.15011840944</v>
       </c>
       <c r="E13" t="n">
-        <v>287016.770018933</v>
+        <v>-31686.06086576149</v>
       </c>
     </row>
     <row r="14">
@@ -6417,16 +6991,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>180756.4698075647</v>
+        <v>23701.94800385156</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>51309.60643458004</v>
+        <v>-64073.49071127096</v>
       </c>
       <c r="E14" t="n">
-        <v>232066.0762421447</v>
+        <v>-40371.54270741939</v>
       </c>
     </row>
     <row r="15">
@@ -6434,16 +7008,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>140942.2694094226</v>
+        <v>31108.80675505518</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>37262.5089699317</v>
+        <v>-78866.94328735169</v>
       </c>
       <c r="E15" t="n">
-        <v>178204.7783793543</v>
+        <v>-47758.13653229651</v>
       </c>
     </row>
     <row r="16">
@@ -6451,16 +7025,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>101128.0690112806</v>
+        <v>38515.66550625879</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>24386.8584817575</v>
+        <v>-92273.75265706214</v>
       </c>
       <c r="E16" t="n">
-        <v>125514.9274930382</v>
+        <v>-53758.08715080335</v>
       </c>
     </row>
     <row r="17">
@@ -6468,16 +7042,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>61313.86861313865</v>
+        <v>45922.52425746241</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>12711.15283057739</v>
+        <v>-104274.1012754697</v>
       </c>
       <c r="E17" t="n">
-        <v>74025.02144371605</v>
+        <v>-58351.57701800732</v>
       </c>
     </row>
     <row r="18">
@@ -6485,16 +7059,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>21499.66821499665</v>
+        <v>53329.38300866602</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>2222.16049650429</v>
+        <v>-114899.9547801178</v>
       </c>
       <c r="E18" t="n">
-        <v>23721.82871150094</v>
+        <v>-61570.57177145177</v>
       </c>
     </row>
     <row r="19">
@@ -6502,16 +7076,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>-18314.53218314535</v>
+        <v>60736.24175986964</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-7124.141299563307</v>
+        <v>-124220.186410149</v>
       </c>
       <c r="E19" t="n">
-        <v>-25438.67348270866</v>
+        <v>-63483.94465027938</v>
       </c>
     </row>
     <row r="20">
@@ -6519,16 +7093,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>-58128.73258128735</v>
+        <v>68143.10051107325</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-15393.04574859775</v>
+        <v>-132327.791491436</v>
       </c>
       <c r="E20" t="n">
-        <v>-73521.7783298851</v>
+        <v>-64184.69098036279</v>
       </c>
     </row>
     <row r="21">
@@ -6536,16 +7110,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>-97942.93297942937</v>
+        <v>75549.95926227687</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-22663.21914497411</v>
+        <v>-139329.4895956443</v>
       </c>
       <c r="E21" t="n">
-        <v>-120606.1521244035</v>
+        <v>-63779.53033336742</v>
       </c>
     </row>
     <row r="22">
@@ -6553,16 +7127,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>-137757.1333775714</v>
+        <v>82956.81801348049</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-29020.42004044777</v>
+        <v>-145337.6777933598</v>
       </c>
       <c r="E22" t="n">
-        <v>-166777.5534180191</v>
+        <v>-62380.85977987931</v>
       </c>
     </row>
     <row r="23">
@@ -6570,16 +7144,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>-177571.3337757134</v>
+        <v>90363.67676468409</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-34552.70156269804</v>
+        <v>-150464.5055975481</v>
       </c>
       <c r="E23" t="n">
-        <v>-212124.0353384114</v>
+        <v>-60100.828832864</v>
       </c>
     </row>
     <row r="24">
@@ -6587,16 +7161,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>-217385.5341738554</v>
+        <v>97770.53551588771</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-39346.9002378695</v>
+        <v>-154817.7511814502</v>
       </c>
       <c r="E24" t="n">
-        <v>-256732.4344117249</v>
+        <v>-57047.2156655625</v>
       </c>
     </row>
     <row r="25">
@@ -6604,16 +7178,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>-257199.7345719974</v>
+        <v>105177.3942670913</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-43486.19357602374</v>
+        <v>-158498.1549235682</v>
       </c>
       <c r="E25" t="n">
-        <v>-300685.9281480211</v>
+        <v>-53320.76065647689</v>
       </c>
     </row>
     <row r="26">
@@ -6621,16 +7195,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>-297013.9349701394</v>
+        <v>112584.2530182949</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-47048.51390491695</v>
+        <v>-161597.8835089396</v>
       </c>
       <c r="E26" t="n">
-        <v>-344062.4488750563</v>
+        <v>-49013.6304906447</v>
       </c>
     </row>
     <row r="27">
@@ -6638,16 +7212,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>-336828.1353682814</v>
+        <v>119991.1117694986</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-50105.62587726588</v>
+        <v>-164199.8364305071</v>
       </c>
       <c r="E27" t="n">
-        <v>-386933.7612455473</v>
+        <v>-44208.72466100857</v>
       </c>
     </row>
     <row r="28">
@@ -6655,16 +7229,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>-376642.3357664234</v>
+        <v>127397.9705207022</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-52722.70180823086</v>
+        <v>-166377.5538820786</v>
       </c>
       <c r="E28" t="n">
-        <v>-429365.0375746542</v>
+        <v>-38979.5833613764</v>
       </c>
     </row>
     <row r="29">
@@ -6672,16 +7246,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>-416456.5361645654</v>
+        <v>134804.8292719058</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-54958.2574414639</v>
+        <v>-168195.5327180296</v>
       </c>
       <c r="E29" t="n">
-        <v>-471414.7936060292</v>
+        <v>-33390.70344612381</v>
       </c>
     </row>
     <row r="30">
@@ -6689,16 +7263,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>-456270.7365627073</v>
+        <v>142211.6880231094</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-56864.33787872885</v>
+        <v>-169709.8008998085</v>
       </c>
       <c r="E30" t="n">
-        <v>-513135.0744414362</v>
+        <v>-27498.11287669907</v>
       </c>
     </row>
     <row r="31">
@@ -6706,16 +7280,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>-496084.9369608493</v>
+        <v>149618.546774313</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-58486.86765098313</v>
+        <v>-170968.6385534584</v>
       </c>
       <c r="E31" t="n">
-        <v>-554571.8046118325</v>
+        <v>-21350.09177914535</v>
       </c>
     </row>
     <row r="32">
@@ -6723,16 +7297,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>-535899.1373589913</v>
+        <v>157025.4055255166</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-59866.09960265044</v>
+        <v>-172013.3648198338</v>
       </c>
       <c r="E32" t="n">
-        <v>-595765.2369616418</v>
+        <v>-14987.9592943172</v>
       </c>
     </row>
   </sheetData>
@@ -6786,16 +7360,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>658526.8745852688</v>
+        <v>-65180.3570105918</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>221527.4896878049</v>
+        <v>114241.0904038053</v>
       </c>
       <c r="E2" t="n">
-        <v>880054.3642730737</v>
+        <v>49060.73339321351</v>
       </c>
     </row>
     <row r="3">
@@ -6803,16 +7377,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>618712.6741871267</v>
+        <v>-57773.49825938819</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>217577.3562616527</v>
+        <v>110814.6493388006</v>
       </c>
       <c r="E3" t="n">
-        <v>836290.0304487795</v>
+        <v>53041.15107941244</v>
       </c>
     </row>
     <row r="4">
@@ -6820,16 +7394,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>578898.4737889847</v>
+        <v>-50366.63950818458</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>211235.8791731676</v>
+        <v>104974.3068770352</v>
       </c>
       <c r="E4" t="n">
-        <v>790134.3529621523</v>
+        <v>54607.66736885066</v>
       </c>
     </row>
     <row r="5">
@@ -6837,16 +7411,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>539084.2733908427</v>
+        <v>-42959.78075698097</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>202126.190769165</v>
+        <v>96180.76310485619</v>
       </c>
       <c r="E5" t="n">
-        <v>741210.4641600077</v>
+        <v>53220.98234787522</v>
       </c>
     </row>
     <row r="6">
@@ -6854,16 +7428,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>499270.0729927007</v>
+        <v>-35552.92200577736</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>190158.7645558683</v>
+        <v>84201.1270709548</v>
       </c>
       <c r="E6" t="n">
-        <v>689428.8375485691</v>
+        <v>48648.20506517744</v>
       </c>
     </row>
     <row r="7">
@@ -6871,16 +7445,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>459455.8725945587</v>
+        <v>-28146.06325457374</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>175541.5985539927</v>
+        <v>69162.31514101429</v>
       </c>
       <c r="E7" t="n">
-        <v>634997.4711485514</v>
+        <v>41016.25188644055</v>
       </c>
     </row>
     <row r="8">
@@ -6888,16 +7462,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>419641.6721964167</v>
+        <v>-20739.20450337013</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>158728.5016002322</v>
+        <v>51517.05489496405</v>
       </c>
       <c r="E8" t="n">
-        <v>578370.1737966489</v>
+        <v>30777.85039159393</v>
       </c>
     </row>
     <row r="9">
@@ -6905,16 +7479,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>379827.4717982747</v>
+        <v>-13332.34575216651</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>140332.5193761011</v>
+        <v>31949.48826373547</v>
       </c>
       <c r="E9" t="n">
-        <v>520159.9911743758</v>
+        <v>18617.14251156896</v>
       </c>
     </row>
     <row r="10">
@@ -6922,16 +7496,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>340013.2714001327</v>
+        <v>-5925.487000962897</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>121031.8992325792</v>
+        <v>11256.89581590111</v>
       </c>
       <c r="E10" t="n">
-        <v>461045.1706327119</v>
+        <v>5331.408814938212</v>
       </c>
     </row>
     <row r="11">
@@ -6939,16 +7513,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>300199.0710019906</v>
+        <v>1481.371750240718</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>101488.3929436764</v>
+        <v>-9761.376784759828</v>
       </c>
       <c r="E11" t="n">
-        <v>401687.463945667</v>
+        <v>-8280.00503451911</v>
       </c>
     </row>
     <row r="12">
@@ -6956,16 +7530,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>260384.8706038487</v>
+        <v>8888.230501444332</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>82288.06129454082</v>
+        <v>-30388.87711770296</v>
       </c>
       <c r="E12" t="n">
-        <v>342672.9318983895</v>
+        <v>-21500.64661625863</v>
       </c>
     </row>
     <row r="13">
@@ -6973,16 +7547,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>220570.6702057066</v>
+        <v>16295.08925264795</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>63906.69125209605</v>
+        <v>-50044.20298494287</v>
       </c>
       <c r="E13" t="n">
-        <v>284477.3614578027</v>
+        <v>-33749.11373229493</v>
       </c>
     </row>
     <row r="14">
@@ -6990,16 +7564,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>180756.4698075647</v>
+        <v>23701.94800385156</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>46696.78836004254</v>
+        <v>-68302.52013154059</v>
       </c>
       <c r="E14" t="n">
-        <v>227453.2581676072</v>
+        <v>-44600.57212768903</v>
       </c>
     </row>
     <row r="15">
@@ -7007,16 +7581,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>140942.2694094226</v>
+        <v>31108.80675505518</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>30890.72448612228</v>
+        <v>-84893.33203727745</v>
       </c>
       <c r="E15" t="n">
-        <v>171832.9938955449</v>
+        <v>-53784.52528222227</v>
       </c>
     </row>
     <row r="16">
@@ -7024,16 +7598,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>101128.0690112806</v>
+        <v>38515.66550625879</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>16614.23657641904</v>
+        <v>-99682.76248929527</v>
       </c>
       <c r="E16" t="n">
-        <v>117742.3055876997</v>
+        <v>-61167.09698303648</v>
       </c>
     </row>
     <row r="17">
@@ -7041,16 +7615,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>61313.86861313865</v>
+        <v>45922.52425746241</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>3905.23611945378</v>
+        <v>-112647.8617402425</v>
       </c>
       <c r="E17" t="n">
-        <v>65219.10473259243</v>
+        <v>-66725.3374827801</v>
       </c>
     </row>
     <row r="18">
@@ -7058,16 +7632,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>21499.66821499665</v>
+        <v>53329.38300866602</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-7265.872997470799</v>
+        <v>-123848.7069826745</v>
       </c>
       <c r="E18" t="n">
-        <v>14233.79521752585</v>
+        <v>-70519.32397400844</v>
       </c>
     </row>
     <row r="19">
@@ -7075,16 +7649,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>-18314.53218314535</v>
+        <v>60736.24175986964</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-16976.89383907706</v>
+        <v>-133402.1273364944</v>
       </c>
       <c r="E19" t="n">
-        <v>-35291.42602222241</v>
+        <v>-72665.8855766248</v>
       </c>
     </row>
     <row r="20">
@@ -7092,16 +7666,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>-58128.73258128735</v>
+        <v>68143.10051107325</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-25336.99035817465</v>
+        <v>-141459.1837096253</v>
       </c>
       <c r="E20" t="n">
-        <v>-83465.72293946199</v>
+        <v>-73316.08319855202</v>
       </c>
     </row>
     <row r="21">
@@ -7109,16 +7683,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>-97942.93297942937</v>
+        <v>75549.95926227687</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-32472.9153390818</v>
+        <v>-148187.2515089307</v>
       </c>
       <c r="E21" t="n">
-        <v>-130415.8483185112</v>
+        <v>-72637.29224665383</v>
       </c>
     </row>
     <row r="22">
@@ -7126,16 +7700,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>-137757.1333775714</v>
+        <v>82956.81801348049</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-38518.38031274337</v>
+        <v>-153756.7023091977</v>
       </c>
       <c r="E22" t="n">
-        <v>-176275.5136903148</v>
+        <v>-70799.8842957172</v>
       </c>
     </row>
     <row r="23">
@@ -7143,16 +7717,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>-177571.3337757134</v>
+        <v>90363.67676468409</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-43606.30600197547</v>
+        <v>-158331.6909069899</v>
       </c>
       <c r="E23" t="n">
-        <v>-221177.6397776888</v>
+        <v>-67968.01414230582</v>
       </c>
     </row>
     <row r="24">
@@ -7160,16 +7734,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>-217385.5341738554</v>
+        <v>97770.53551588771</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-47863.52788224549</v>
+        <v>-162064.3317976384</v>
       </c>
       <c r="E24" t="n">
-        <v>-265249.0620561009</v>
+        <v>-64293.79628175068</v>
       </c>
     </row>
     <row r="25">
@@ -7177,16 +7751,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>-257199.7345719974</v>
+        <v>105177.3942670913</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-51407.47957000764</v>
+        <v>-165091.5031044592</v>
       </c>
       <c r="E25" t="n">
-        <v>-308607.214142005</v>
+        <v>-59914.10883736788</v>
       </c>
     </row>
     <row r="26">
@@ -7194,16 +7768,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>-297013.9349701394</v>
+        <v>112584.2530182949</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-54344.39358511132</v>
+        <v>-167533.5728323482</v>
       </c>
       <c r="E26" t="n">
-        <v>-351358.3285552507</v>
+        <v>-54949.31981405323</v>
       </c>
     </row>
     <row r="27">
@@ -7211,16 +7785,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>-336828.1353682814</v>
+        <v>119991.1117694986</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-56768.61260790701</v>
+        <v>-169494.4489726804</v>
       </c>
       <c r="E27" t="n">
-        <v>-393596.7479761884</v>
+        <v>-49503.33720318187</v>
       </c>
     </row>
     <row r="28">
@@ -7228,16 +7802,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>-376642.3357664234</v>
+        <v>127397.9705207022</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-58762.67300186213</v>
+        <v>-171062.4768021106</v>
       </c>
       <c r="E28" t="n">
-        <v>-435405.0087682855</v>
+        <v>-43664.50628140845</v>
       </c>
     </row>
     <row r="29">
@@ -7245,16 +7819,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>-416456.5361645654</v>
+        <v>134804.8292719058</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-60397.8926264308</v>
+        <v>-172311.8233833283</v>
       </c>
       <c r="E29" t="n">
-        <v>-476854.4287909961</v>
+        <v>-37506.99411142248</v>
       </c>
     </row>
     <row r="30">
@@ -7262,16 +7836,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>-456270.7365627073</v>
+        <v>142211.6880231094</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-61735.25931298669</v>
+        <v>-173304.0905989996</v>
       </c>
       <c r="E30" t="n">
-        <v>-518005.995875694</v>
+        <v>-31092.40257589018</v>
       </c>
     </row>
     <row r="31">
@@ -7279,16 +7853,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>-496084.9369608493</v>
+        <v>149618.546774313</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-62826.4713399209</v>
+        <v>-174089.9803752353</v>
       </c>
       <c r="E31" t="n">
-        <v>-558911.4083007702</v>
+        <v>-24471.43360092232</v>
       </c>
     </row>
     <row r="32">
@@ -7296,16 +7870,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>-535899.1373589913</v>
+        <v>157025.4055255166</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-63715.02587006512</v>
+        <v>-174710.899254585</v>
       </c>
       <c r="E32" t="n">
-        <v>-599614.1632290564</v>
+        <v>-17685.4937290684</v>
       </c>
     </row>
   </sheetData>

--- a/RGGI PnL Output.xlsx
+++ b/RGGI PnL Output.xlsx
@@ -484,16 +484,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-65180.3570105918</v>
+        <v>-633973.6346516007</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>114851.9401391869</v>
+        <v>236106.6771326157</v>
       </c>
       <c r="E2" t="n">
-        <v>49671.58312859511</v>
+        <v>-397866.957518985</v>
       </c>
     </row>
     <row r="3">
@@ -501,16 +501,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-57773.49825938819</v>
+        <v>-585762.7118644067</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>111794.018627976</v>
+        <v>234372.206313989</v>
       </c>
       <c r="E3" t="n">
-        <v>54020.52036858782</v>
+        <v>-351390.5055504177</v>
       </c>
     </row>
     <row r="4">
@@ -518,16 +518,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-50366.63950818458</v>
+        <v>-537551.7890772128</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>106386.6344067895</v>
+        <v>230669.4731224774</v>
       </c>
       <c r="E4" t="n">
-        <v>56019.99489860492</v>
+        <v>-306882.3159547354</v>
       </c>
     </row>
     <row r="5">
@@ -535,16 +535,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-42959.78075698097</v>
+        <v>-489340.8662900188</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>98004.14107730438</v>
+        <v>224005.6927210383</v>
       </c>
       <c r="E5" t="n">
-        <v>55044.36032032341</v>
+        <v>-265335.1735689805</v>
       </c>
     </row>
     <row r="6">
@@ -552,16 +552,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>-35552.92200577736</v>
+        <v>-441129.9435028248</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>86319.24946323811</v>
+        <v>213560.5260994563</v>
       </c>
       <c r="E6" t="n">
-        <v>50766.32745746076</v>
+        <v>-227569.4174033685</v>
       </c>
     </row>
     <row r="7">
@@ -569,16 +569,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-28146.06325457374</v>
+        <v>-392919.0207156308</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>71386.19086508267</v>
+        <v>198942.9657840566</v>
       </c>
       <c r="E7" t="n">
-        <v>43240.12761050893</v>
+        <v>-193976.0549315742</v>
       </c>
     </row>
     <row r="8">
@@ -586,16 +586,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-20739.20450337013</v>
+        <v>-344708.0979284369</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>53625.22817132824</v>
+        <v>180324.1719533085</v>
       </c>
       <c r="E8" t="n">
-        <v>32886.02366795811</v>
+        <v>-164383.9259751284</v>
       </c>
     </row>
     <row r="9">
@@ -603,16 +603,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-13332.34575216651</v>
+        <v>-296497.1751412429</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>33731.42701736646</v>
+        <v>158409.502222043</v>
       </c>
       <c r="E9" t="n">
-        <v>20399.08126519995</v>
+        <v>-138087.6729191999</v>
       </c>
     </row>
     <row r="10">
@@ -620,16 +620,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-5925.487000962897</v>
+        <v>-248286.2523540489</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>12547.27576040755</v>
+        <v>134282.5495936868</v>
       </c>
       <c r="E10" t="n">
-        <v>6621.788759444652</v>
+        <v>-114003.7027603621</v>
       </c>
     </row>
     <row r="11">
@@ -637,16 +637,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>1481.371750240718</v>
+        <v>-200075.3295668549</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-9063.541330146945</v>
+        <v>109190.473648714</v>
       </c>
       <c r="E11" t="n">
-        <v>-7582.169579906227</v>
+        <v>-90884.85591814094</v>
       </c>
     </row>
     <row r="12">
@@ -654,16 +654,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>8888.230501444332</v>
+        <v>-151864.406779661</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-30316.44145230193</v>
+        <v>84338.97531248943</v>
       </c>
       <c r="E12" t="n">
-        <v>-21428.2109508576</v>
+        <v>-67525.43146717153</v>
       </c>
     </row>
     <row r="13">
@@ -671,16 +671,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>16295.08925264795</v>
+        <v>-103653.483992467</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-50569.8951284592</v>
+        <v>60741.51231209659</v>
       </c>
       <c r="E13" t="n">
-        <v>-34274.80587581125</v>
+        <v>-42911.9716803704</v>
       </c>
     </row>
     <row r="14">
@@ -688,16 +688,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>23701.94800385156</v>
+        <v>-55442.56120527301</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-69353.81146572725</v>
+        <v>39138.54232300066</v>
       </c>
       <c r="E14" t="n">
-        <v>-45651.86346187569</v>
+        <v>-16304.01888227235</v>
       </c>
     </row>
     <row r="15">
@@ -705,16 +705,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>31108.80675505518</v>
+        <v>-7231.638418079028</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-86369.58088083955</v>
+        <v>19980.39931590334</v>
       </c>
       <c r="E15" t="n">
-        <v>-55260.77412578437</v>
+        <v>12748.76089782431</v>
       </c>
     </row>
     <row r="16">
@@ -722,16 +722,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>38515.66550625879</v>
+        <v>40979.28436911495</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-101471.2501285126</v>
+        <v>3455.782382335856</v>
       </c>
       <c r="E16" t="n">
-        <v>-62955.5846222538</v>
+        <v>44435.0667514508</v>
       </c>
     </row>
     <row r="17">
@@ -739,16 +739,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>45922.52425746241</v>
+        <v>89190.20715630893</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-114636.7594131476</v>
+        <v>-10454.6183372653</v>
       </c>
       <c r="E17" t="n">
-        <v>-68714.23515568522</v>
+        <v>78735.58881904362</v>
       </c>
     </row>
     <row r="18">
@@ -756,16 +756,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>53329.38300866602</v>
+        <v>137401.1299435029</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-125936.2309932022</v>
+        <v>-21916.62049134306</v>
       </c>
       <c r="E18" t="n">
-        <v>-72606.84798453617</v>
+        <v>115484.5094521599</v>
       </c>
     </row>
     <row r="19">
@@ -773,16 +773,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>60736.24175986964</v>
+        <v>185612.0527306969</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-135501.9940230655</v>
+        <v>-31184.95270398743</v>
       </c>
       <c r="E19" t="n">
-        <v>-74765.75226319584</v>
+        <v>154427.1000267095</v>
       </c>
     </row>
     <row r="20">
@@ -790,16 +790,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>68143.10051107325</v>
+        <v>233822.9755178909</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-143502.9619157289</v>
+        <v>-38555.9147521077</v>
       </c>
       <c r="E20" t="n">
-        <v>-75359.86140465565</v>
+        <v>195267.0607657832</v>
       </c>
     </row>
     <row r="21">
@@ -807,16 +807,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>75549.95926227687</v>
+        <v>282033.8983050848</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-150124.4023037915</v>
+        <v>-44332.4298693802</v>
       </c>
       <c r="E21" t="n">
-        <v>-74574.44304151465</v>
+        <v>237701.4684357046</v>
       </c>
     </row>
     <row r="22">
@@ -824,16 +824,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>82956.81801348049</v>
+        <v>330244.8210922789</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-155553.0911844594</v>
+        <v>-48800.90840499332</v>
       </c>
       <c r="E22" t="n">
-        <v>-72596.27317097894</v>
+        <v>281443.9126872856</v>
       </c>
     </row>
     <row r="23">
@@ -841,16 +841,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>90363.67676468409</v>
+        <v>378455.7438794728</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-159967.2443234801</v>
+        <v>-52217.93947106063</v>
       </c>
       <c r="E23" t="n">
-        <v>-69603.56755879603</v>
+        <v>326237.8044084122</v>
       </c>
     </row>
     <row r="24">
@@ -858,16 +858,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>97770.53551588771</v>
+        <v>426666.6666666668</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-163530.3533458663</v>
+        <v>-54804.36815537498</v>
       </c>
       <c r="E24" t="n">
-        <v>-65759.81782997864</v>
+        <v>371862.2985112918</v>
       </c>
     </row>
     <row r="25">
@@ -875,16 +875,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>105177.3942670913</v>
+        <v>474877.5894538608</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-166388.0066862379</v>
+        <v>-56744.42871098912</v>
       </c>
       <c r="E25" t="n">
-        <v>-61210.61241914655</v>
+        <v>418133.1607428716</v>
       </c>
     </row>
     <row r="26">
@@ -892,16 +892,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>112584.2530182949</v>
+        <v>523088.5122410548</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-168666.8537407502</v>
+        <v>-58187.99618327626</v>
       </c>
       <c r="E26" t="n">
-        <v>-56082.60072245529</v>
+        <v>464900.5160577785</v>
       </c>
     </row>
     <row r="27">
@@ -909,16 +909,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>119991.1117694986</v>
+        <v>571299.4350282487</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-170475.0073853175</v>
+        <v>-59254.49463949035</v>
       </c>
       <c r="E27" t="n">
-        <v>-50483.89561581891</v>
+        <v>512044.9403887584</v>
       </c>
     </row>
     <row r="28">
@@ -926,16 +926,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>127397.9705207022</v>
+        <v>619510.3578154427</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-171903.3323968005</v>
+        <v>-60037.44802292262</v>
       </c>
       <c r="E28" t="n">
-        <v>-44505.36187609829</v>
+        <v>559472.9097925201</v>
       </c>
     </row>
     <row r="29">
@@ -943,16 +943,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>134804.8292719058</v>
+        <v>667721.2806026367</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-173027.2105206289</v>
+        <v>-60609.02877896808</v>
       </c>
       <c r="E29" t="n">
-        <v>-38222.3812487231</v>
+        <v>607112.2518236687</v>
       </c>
     </row>
     <row r="30">
@@ -960,16 +960,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>142211.6880231094</v>
+        <v>715932.2033898307</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-173908.4951009178</v>
+        <v>-61024.23680505694</v>
       </c>
       <c r="E30" t="n">
-        <v>-31696.80707780836</v>
+        <v>654907.9665847737</v>
       </c>
     </row>
     <row r="31">
@@ -977,16 +977,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>149618.546774313</v>
+        <v>764143.1261770247</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-174597.4656127223</v>
+        <v>-61324.53427920988</v>
       </c>
       <c r="E31" t="n">
-        <v>-24978.9188384093</v>
+        <v>702818.5918978148</v>
       </c>
     </row>
     <row r="32">
@@ -994,16 +994,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>157025.4055255166</v>
+        <v>812354.0489642186</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-175134.6660452791</v>
+        <v>-61540.88637991787</v>
       </c>
       <c r="E32" t="n">
-        <v>-18109.26051976244</v>
+        <v>750813.1625843007</v>
       </c>
     </row>
   </sheetData>
@@ -1057,16 +1057,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-65180.3570105918</v>
+        <v>-633973.6346516007</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>117663.8760063706</v>
+        <v>237819.6387147696</v>
       </c>
       <c r="E2" t="n">
-        <v>52483.51899577884</v>
+        <v>-396153.9959368311</v>
       </c>
     </row>
     <row r="3">
@@ -1074,16 +1074,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-57773.49825938819</v>
+        <v>-585762.7118644067</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>116809.9441794154</v>
+        <v>237496.7945413995</v>
       </c>
       <c r="E3" t="n">
-        <v>59036.44592002722</v>
+        <v>-348265.9173230072</v>
       </c>
     </row>
     <row r="4">
@@ -1091,16 +1091,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-50366.63950818458</v>
+        <v>-537551.7890772128</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>114585.3652015305</v>
+        <v>236372.384670337</v>
       </c>
       <c r="E4" t="n">
-        <v>64218.72569334594</v>
+        <v>-301179.4044068758</v>
       </c>
     </row>
     <row r="5">
@@ -1108,16 +1108,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-42959.78075698097</v>
+        <v>-489340.8662900188</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>109897.8383446929</v>
+        <v>233393.3678997729</v>
       </c>
       <c r="E5" t="n">
-        <v>66938.0575877119</v>
+        <v>-255947.4983902458</v>
       </c>
     </row>
     <row r="6">
@@ -1125,16 +1125,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>-35552.92200577736</v>
+        <v>-441129.9435028248</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>101576.297518528</v>
+        <v>227063.1403922925</v>
       </c>
       <c r="E6" t="n">
-        <v>66023.37551275064</v>
+        <v>-214066.8031105323</v>
       </c>
     </row>
     <row r="7">
@@ -1142,16 +1142,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-28146.06325457374</v>
+        <v>-392919.0207156308</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>88739.37774532137</v>
+        <v>215834.6204846886</v>
       </c>
       <c r="E7" t="n">
-        <v>60593.31449074763</v>
+        <v>-177084.4002309422</v>
       </c>
     </row>
     <row r="8">
@@ -1159,16 +1159,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-20739.20450337013</v>
+        <v>-344708.0979284369</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>71115.39783015811</v>
+        <v>198690.7906393562</v>
       </c>
       <c r="E8" t="n">
-        <v>50376.19332678798</v>
+        <v>-146017.3072890806</v>
       </c>
     </row>
     <row r="9">
@@ -1176,16 +1176,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-13332.34575216651</v>
+        <v>-296497.1751412429</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>49171.97491568835</v>
+        <v>175614.1794994944</v>
       </c>
       <c r="E9" t="n">
-        <v>35839.62916352184</v>
+        <v>-120882.9956417485</v>
       </c>
     </row>
     <row r="10">
@@ -1193,16 +1193,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-5925.487000962897</v>
+        <v>-248286.2523540489</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>24019.10903529907</v>
+        <v>147704.1277490811</v>
       </c>
       <c r="E10" t="n">
-        <v>18093.62203433617</v>
+        <v>-100582.1246049679</v>
       </c>
     </row>
     <row r="11">
@@ -1210,16 +1210,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>1481.371750240718</v>
+        <v>-200075.3295668549</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-2848.954291456226</v>
+        <v>116906.4003689109</v>
       </c>
       <c r="E11" t="n">
-        <v>-1367.582541215509</v>
+        <v>-83168.92919794403</v>
       </c>
     </row>
     <row r="12">
@@ -1227,16 +1227,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>8888.230501444332</v>
+        <v>-151864.406779661</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-29862.44027256239</v>
+        <v>85509.82274713379</v>
       </c>
       <c r="E12" t="n">
-        <v>-20974.20977111805</v>
+        <v>-66354.58403252717</v>
       </c>
     </row>
     <row r="13">
@@ -1244,16 +1244,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>16295.08925264795</v>
+        <v>-103653.483992467</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-55637.92948167097</v>
+        <v>55631.26512926859</v>
       </c>
       <c r="E13" t="n">
-        <v>-39342.84022902303</v>
+        <v>-48022.2188631984</v>
       </c>
     </row>
     <row r="14">
@@ -1261,16 +1261,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>23701.94800385156</v>
+        <v>-55442.56120527301</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-79140.46774403132</v>
+        <v>28856.00677193737</v>
       </c>
       <c r="E14" t="n">
-        <v>-55438.51974017976</v>
+        <v>-26586.55443333564</v>
       </c>
     </row>
     <row r="15">
@@ -1278,16 +1278,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>31108.80675505518</v>
+        <v>-7231.638418079028</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-99738.88620994872</v>
+        <v>6093.952359479331</v>
       </c>
       <c r="E15" t="n">
-        <v>-68630.07945489354</v>
+        <v>-1137.686058599697</v>
       </c>
     </row>
     <row r="16">
@@ -1295,16 +1295,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>38515.66550625879</v>
+        <v>40979.28436911495</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-117177.5639274834</v>
+        <v>-12378.94819318215</v>
       </c>
       <c r="E16" t="n">
-        <v>-78661.89842122464</v>
+        <v>28600.3361759328</v>
       </c>
     </row>
     <row r="17">
@@ -1312,16 +1312,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>45922.52425746241</v>
+        <v>89190.20715630893</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-131499.1783193485</v>
+        <v>-26769.12462941587</v>
       </c>
       <c r="E17" t="n">
-        <v>-85576.65406188613</v>
+        <v>62421.08252689306</v>
       </c>
     </row>
     <row r="18">
@@ -1329,16 +1329,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>53329.38300866602</v>
+        <v>137401.1299435029</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-142950.3651352309</v>
+        <v>-37579.74829614312</v>
       </c>
       <c r="E18" t="n">
-        <v>-89620.98212656492</v>
+        <v>99821.3816473598</v>
       </c>
     </row>
     <row r="19">
@@ -1346,16 +1346,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>60736.24175986964</v>
+        <v>185612.0527306969</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-151892.8188714415</v>
+        <v>-45444.24952397805</v>
       </c>
       <c r="E19" t="n">
-        <v>-91156.57711157188</v>
+        <v>140167.8032067188</v>
       </c>
     </row>
     <row r="20">
@@ -1363,16 +1363,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>68143.10051107325</v>
+        <v>233822.9755178909</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-158731.9182844635</v>
+        <v>-51004.4011593616</v>
       </c>
       <c r="E20" t="n">
-        <v>-90588.81777339021</v>
+        <v>182818.5743585293</v>
       </c>
     </row>
     <row r="21">
@@ -1380,16 +1380,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>75549.95926227687</v>
+        <v>282033.8983050848</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-163866.6076876631</v>
+        <v>-54836.76356521715</v>
       </c>
       <c r="E21" t="n">
-        <v>-88316.64842538627</v>
+        <v>227197.1347398677</v>
       </c>
     </row>
     <row r="22">
@@ -1397,16 +1397,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>82956.81801348049</v>
+        <v>330244.8210922789</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-167658.9806416035</v>
+        <v>-57419.13072215547</v>
       </c>
       <c r="E22" t="n">
-        <v>-84702.16262812304</v>
+        <v>272825.6903701234</v>
       </c>
     </row>
     <row r="23">
@@ -1414,16 +1414,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>90363.67676468409</v>
+        <v>378455.7438794728</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-170419.4844894108</v>
+        <v>-59124.45909772797</v>
       </c>
       <c r="E23" t="n">
-        <v>-80055.80772472671</v>
+        <v>319331.2847817449</v>
       </c>
     </row>
     <row r="24">
@@ -1431,16 +1431,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>97770.53551588771</v>
+        <v>426666.6666666668</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-172403.069628685</v>
+        <v>-60230.5295799059</v>
       </c>
       <c r="E24" t="n">
-        <v>-74632.53411279734</v>
+        <v>366436.1370867609</v>
       </c>
     </row>
     <row r="25">
@@ -1448,16 +1448,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>105177.3942670913</v>
+        <v>474877.5894538608</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-173812.1056008973</v>
+        <v>-60936.49496098433</v>
       </c>
       <c r="E25" t="n">
-        <v>-68634.71133380596</v>
+        <v>413941.0944928764</v>
       </c>
     </row>
     <row r="26">
@@ -1465,16 +1465,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>112584.2530182949</v>
+        <v>523088.5122410548</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-174802.8357671417</v>
+        <v>-61380.6752466484</v>
       </c>
       <c r="E26" t="n">
-        <v>-62218.58274884675</v>
+        <v>461707.8369944064</v>
       </c>
     </row>
     <row r="27">
@@ -1482,16 +1482,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>119991.1117694986</v>
+        <v>571299.4350282487</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-175493.1439818439</v>
+        <v>-61656.59306208767</v>
       </c>
       <c r="E27" t="n">
-        <v>-55502.03221234534</v>
+        <v>509642.841966161</v>
       </c>
     </row>
     <row r="28">
@@ -1499,16 +1499,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>127397.9705207022</v>
+        <v>619510.3578154427</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-175970.2600837651</v>
+        <v>-61826.04392962728</v>
       </c>
       <c r="E28" t="n">
-        <v>-48572.28956306295</v>
+        <v>557684.3138858154</v>
       </c>
     </row>
     <row r="29">
@@ -1516,16 +1516,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>134804.8292719058</v>
+        <v>667721.2806026367</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-176297.6693068942</v>
+        <v>-61929.05610572902</v>
       </c>
       <c r="E29" t="n">
-        <v>-41492.84003498845</v>
+        <v>605792.2244969078</v>
       </c>
     </row>
     <row r="30">
@@ -1533,16 +1533,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>142211.6880231094</v>
+        <v>715932.2033898307</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-176520.9211536613</v>
+        <v>-61991.11393186671</v>
       </c>
       <c r="E30" t="n">
-        <v>-34309.23313055187</v>
+        <v>653941.0894579639</v>
       </c>
     </row>
     <row r="31">
@@ -1550,16 +1550,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>149618.546774313</v>
+        <v>764143.1261770247</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-176672.295404841</v>
+        <v>-62028.19924983013</v>
       </c>
       <c r="E31" t="n">
-        <v>-27053.74863052796</v>
+        <v>702114.9269271946</v>
       </c>
     </row>
     <row r="32">
@@ -1567,16 +1567,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>157025.4055255166</v>
+        <v>812354.0489642186</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-176774.4235438535</v>
+        <v>-62050.20297934933</v>
       </c>
       <c r="E32" t="n">
-        <v>-19749.01801833682</v>
+        <v>750303.8459848693</v>
       </c>
     </row>
   </sheetData>
@@ -1630,16 +1630,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-65180.3570105918</v>
+        <v>-633973.6346516007</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>118834.8563839251</v>
+        <v>238769.3475174768</v>
       </c>
       <c r="E2" t="n">
-        <v>53654.49937333327</v>
+        <v>-395204.287134124</v>
       </c>
     </row>
     <row r="3">
@@ -1647,16 +1647,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-57773.49825938819</v>
+        <v>-585762.7118644067</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>118831.7311623776</v>
+        <v>238769.1077994049</v>
       </c>
       <c r="E3" t="n">
-        <v>61058.23290298938</v>
+        <v>-346993.6040650018</v>
       </c>
     </row>
     <row r="4">
@@ -1664,16 +1664,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-50366.63950818458</v>
+        <v>-537551.7890772128</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>118791.1263803642</v>
+        <v>238762.518287291</v>
       </c>
       <c r="E4" t="n">
-        <v>68424.48687217967</v>
+        <v>-298789.2707899218</v>
       </c>
     </row>
     <row r="5">
@@ -1681,16 +1681,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-42959.78075698097</v>
+        <v>-489340.8662900188</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>118492.4587772103</v>
+        <v>238676.3628454763</v>
       </c>
       <c r="E5" t="n">
-        <v>75532.67802022933</v>
+        <v>-250664.5034445425</v>
       </c>
     </row>
     <row r="6">
@@ -1698,16 +1698,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>-35552.92200577736</v>
+        <v>-441129.9435028248</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>117099.6993640425</v>
+        <v>238055.1075834229</v>
       </c>
       <c r="E6" t="n">
-        <v>81546.77735826516</v>
+        <v>-203074.8359194019</v>
       </c>
     </row>
     <row r="7">
@@ -1715,16 +1715,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-28146.06325457374</v>
+        <v>-392919.0207156308</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>112606.9184519964</v>
+        <v>235284.6745887842</v>
       </c>
       <c r="E7" t="n">
-        <v>84460.8551974227</v>
+        <v>-157634.3461268466</v>
       </c>
     </row>
     <row r="8">
@@ -1732,16 +1732,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-20739.20450337013</v>
+        <v>-344708.0979284369</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>101876.4187760018</v>
+        <v>226919.4031394681</v>
       </c>
       <c r="E8" t="n">
-        <v>81137.21427263165</v>
+        <v>-117788.6947889688</v>
       </c>
     </row>
     <row r="9">
@@ -1749,16 +1749,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-13332.34575216651</v>
+        <v>-296497.1751412429</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>81868.18025836805</v>
+        <v>208534.2052936946</v>
       </c>
       <c r="E9" t="n">
-        <v>68535.83450620154</v>
+        <v>-87962.96984754829</v>
       </c>
     </row>
     <row r="10">
@@ -1766,16 +1766,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-5925.487000962897</v>
+        <v>-248286.2523540489</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>51521.58584957463</v>
+        <v>177400.9083029245</v>
       </c>
       <c r="E10" t="n">
-        <v>45596.09884861173</v>
+        <v>-70885.34405112441</v>
       </c>
     </row>
     <row r="11">
@@ -1783,16 +1783,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>1481.371750240718</v>
+        <v>-200075.3295668549</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>12883.51192517151</v>
+        <v>134984.3526848592</v>
       </c>
       <c r="E11" t="n">
-        <v>14364.88367541223</v>
+        <v>-65090.97688199568</v>
       </c>
     </row>
     <row r="12">
@@ -1800,16 +1800,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>8888.230501444332</v>
+        <v>-151864.406779661</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-29424.8392920021</v>
+        <v>87003.14095159784</v>
       </c>
       <c r="E12" t="n">
-        <v>-20536.60879055777</v>
+        <v>-64861.26582806311</v>
       </c>
     </row>
     <row r="13">
@@ -1817,16 +1817,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>16295.08925264795</v>
+        <v>-103653.483992467</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-70021.94915401019</v>
+        <v>40921.14002297308</v>
       </c>
       <c r="E13" t="n">
-        <v>-53726.85990136224</v>
+        <v>-62732.34396949392</v>
       </c>
     </row>
     <row r="14">
@@ -1834,16 +1834,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>23701.94800385156</v>
+        <v>-55442.56120527301</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-104673.8419417774</v>
+        <v>2730.785003063093</v>
       </c>
       <c r="E14" t="n">
-        <v>-80971.89393792587</v>
+        <v>-52711.77620220992</v>
       </c>
     </row>
     <row r="15">
@@ -1851,16 +1851,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>31108.80675505518</v>
+        <v>-7231.638418079028</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-131311.651920074</v>
+        <v>-24929.63695589118</v>
       </c>
       <c r="E15" t="n">
-        <v>-100202.8451650188</v>
+        <v>-32161.27537397021</v>
       </c>
     </row>
     <row r="16">
@@ -1868,16 +1868,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>38515.66550625879</v>
+        <v>40979.28436911495</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-149950.134695958</v>
+        <v>-42631.24026373772</v>
       </c>
       <c r="E16" t="n">
-        <v>-111434.4691896992</v>
+        <v>-1651.955894622777</v>
       </c>
     </row>
     <row r="17">
@@ -1885,16 +1885,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>45922.52425746241</v>
+        <v>89190.20715630893</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-161931.4857181033</v>
+        <v>-52742.79047980541</v>
       </c>
       <c r="E17" t="n">
-        <v>-116008.9614606409</v>
+        <v>36447.41667650352</v>
       </c>
     </row>
     <row r="18">
@@ -1902,16 +1902,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>53329.38300866602</v>
+        <v>137401.1299435029</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-169066.5360171775</v>
+        <v>-57948.22374580284</v>
       </c>
       <c r="E18" t="n">
-        <v>-115737.1530085114</v>
+        <v>79452.90619770008</v>
       </c>
     </row>
     <row r="19">
@@ -1919,16 +1919,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>60736.24175986964</v>
+        <v>185612.0527306969</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-173032.4370328988</v>
+        <v>-60385.54638804938</v>
       </c>
       <c r="E19" t="n">
-        <v>-112296.1952730291</v>
+        <v>125226.5063426475</v>
       </c>
     </row>
     <row r="20">
@@ -1936,16 +1936,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>68143.10051107325</v>
+        <v>233822.9755178909</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-175103.9538382338</v>
+        <v>-61432.54780458962</v>
       </c>
       <c r="E20" t="n">
-        <v>-106960.8533271605</v>
+        <v>172390.4277133013</v>
       </c>
     </row>
     <row r="21">
@@ -1953,16 +1953,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>75549.95926227687</v>
+        <v>282033.8983050848</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-176127.0281916836</v>
+        <v>-61848.52842349133</v>
       </c>
       <c r="E21" t="n">
-        <v>-100577.0689294068</v>
+        <v>220185.3698815935</v>
       </c>
     </row>
     <row r="22">
@@ -1970,16 +1970,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>82956.81801348049</v>
+        <v>330244.8210922789</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-176607.4422347629</v>
+        <v>-62002.53556854565</v>
       </c>
       <c r="E22" t="n">
-        <v>-93650.62422128246</v>
+        <v>268242.2855237332</v>
       </c>
     </row>
     <row r="23">
@@ -1987,16 +1987,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>90363.67676468409</v>
+        <v>378455.7438794728</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-176823.0184064063</v>
+        <v>-62056.03319507795</v>
       </c>
       <c r="E23" t="n">
-        <v>-86459.34164172225</v>
+        <v>316399.7106843949</v>
       </c>
     </row>
     <row r="24">
@@ -2004,16 +2004,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>97770.53551588771</v>
+        <v>426666.6666666668</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-176915.8805564114</v>
+        <v>-62073.57918700048</v>
       </c>
       <c r="E24" t="n">
-        <v>-79145.34504052369</v>
+        <v>364593.0874796663</v>
       </c>
     </row>
     <row r="25">
@@ -2021,16 +2021,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>105177.3942670913</v>
+        <v>474877.5894538608</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-176954.4385744339</v>
+        <v>-62079.04365484364</v>
       </c>
       <c r="E25" t="n">
-        <v>-71777.04430734258</v>
+        <v>412798.5457990171</v>
       </c>
     </row>
     <row r="26">
@@ -2038,16 +2038,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>112584.2530182949</v>
+        <v>523088.5122410548</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-176969.9281840128</v>
+        <v>-62080.66804605655</v>
       </c>
       <c r="E26" t="n">
-        <v>-64385.67516571782</v>
+        <v>461007.8441949983</v>
       </c>
     </row>
     <row r="27">
@@ -2055,16 +2055,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>119991.1117694986</v>
+        <v>571299.4350282487</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-176975.9686634168</v>
+        <v>-62081.13110922386</v>
       </c>
       <c r="E27" t="n">
-        <v>-56984.85689391824</v>
+        <v>509218.3039190248</v>
       </c>
     </row>
     <row r="28">
@@ -2072,16 +2072,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>127397.9705207022</v>
+        <v>619510.3578154427</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-176978.2622859489</v>
+        <v>-62081.25823601481</v>
       </c>
       <c r="E28" t="n">
-        <v>-49580.29176524674</v>
+        <v>557429.0995794279</v>
       </c>
     </row>
     <row r="29">
@@ -2089,16 +2089,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>134804.8292719058</v>
+        <v>667721.2806026367</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-176979.1126008514</v>
+        <v>-62081.29197608063</v>
       </c>
       <c r="E29" t="n">
-        <v>-42174.28332894557</v>
+        <v>605639.9886265561</v>
       </c>
     </row>
     <row r="30">
@@ -2106,16 +2106,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>142211.6880231094</v>
+        <v>715932.2033898307</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-176979.421146061</v>
+        <v>-62081.30066314196</v>
       </c>
       <c r="E30" t="n">
-        <v>-34767.73312295164</v>
+        <v>653850.9027266887</v>
       </c>
     </row>
     <row r="31">
@@ -2123,16 +2123,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>149618.546774313</v>
+        <v>764143.1261770247</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-176979.5309734542</v>
+        <v>-62081.30283975439</v>
       </c>
       <c r="E31" t="n">
-        <v>-27360.98419914118</v>
+        <v>702061.8233372703</v>
       </c>
     </row>
     <row r="32">
@@ -2140,16 +2140,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>157025.4055255166</v>
+        <v>812354.0489642186</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-176979.5694003539</v>
+        <v>-62081.30337199174</v>
       </c>
       <c r="E32" t="n">
-        <v>-19954.16387483728</v>
+        <v>750272.7455922269</v>
       </c>
     </row>
   </sheetData>
@@ -2203,16 +2203,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-65180.3570105918</v>
+        <v>-633973.6346516007</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>119294.760650546</v>
+        <v>239236.9638818464</v>
       </c>
       <c r="E2" t="n">
-        <v>54114.40363995419</v>
+        <v>-394736.6707697543</v>
       </c>
     </row>
     <row r="3">
@@ -2220,16 +2220,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-57773.49825938819</v>
+        <v>-585762.7118644067</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>119294.7606505461</v>
+        <v>239236.9638818464</v>
       </c>
       <c r="E3" t="n">
-        <v>61521.26239115786</v>
+        <v>-346525.7479825603</v>
       </c>
     </row>
     <row r="4">
@@ -2237,16 +2237,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-50366.63950818458</v>
+        <v>-537551.7890772128</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>119294.7606505461</v>
+        <v>239236.9638818465</v>
       </c>
       <c r="E4" t="n">
-        <v>68928.12114236149</v>
+        <v>-298314.8251953663</v>
       </c>
     </row>
     <row r="5">
@@ -2254,16 +2254,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-42959.78075698097</v>
+        <v>-489340.8662900188</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>119294.760650546</v>
+        <v>239236.9638818463</v>
       </c>
       <c r="E5" t="n">
-        <v>76334.97989356506</v>
+        <v>-250103.9024081724</v>
       </c>
     </row>
     <row r="6">
@@ -2271,16 +2271,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>-35552.92200577736</v>
+        <v>-441129.9435028248</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>119294.760650546</v>
+        <v>239236.9638818464</v>
       </c>
       <c r="E6" t="n">
-        <v>83741.83864476866</v>
+        <v>-201892.9796209784</v>
       </c>
     </row>
     <row r="7">
@@ -2288,16 +2288,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-28146.06325457374</v>
+        <v>-392919.0207156308</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>119294.7606505461</v>
+        <v>239236.9638818464</v>
       </c>
       <c r="E7" t="n">
-        <v>91148.69739597233</v>
+        <v>-153682.0568337845</v>
       </c>
     </row>
     <row r="8">
@@ -2305,16 +2305,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-20739.20450337013</v>
+        <v>-344708.0979284369</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>119294.7606505461</v>
+        <v>239236.9638818463</v>
       </c>
       <c r="E8" t="n">
-        <v>98555.55614717593</v>
+        <v>-105471.1340465905</v>
       </c>
     </row>
     <row r="9">
@@ -2322,16 +2322,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-13332.34575216651</v>
+        <v>-296497.1751412429</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>119294.7606505461</v>
+        <v>239236.9638818464</v>
       </c>
       <c r="E9" t="n">
-        <v>105962.4148983795</v>
+        <v>-57260.21125939648</v>
       </c>
     </row>
     <row r="10">
@@ -2339,16 +2339,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-5925.487000962897</v>
+        <v>-248286.2523540489</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>119294.7606505461</v>
+        <v>239236.9638818463</v>
       </c>
       <c r="E10" t="n">
-        <v>113369.2736495832</v>
+        <v>-9049.288472202577</v>
       </c>
     </row>
     <row r="11">
@@ -2356,16 +2356,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>1481.371750240718</v>
+        <v>-200075.3295668549</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>45226.17313850993</v>
+        <v>163907.3970268558</v>
       </c>
       <c r="E11" t="n">
-        <v>46707.54488875064</v>
+        <v>-36167.93253999914</v>
       </c>
     </row>
     <row r="12">
@@ -2373,16 +2373,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>8888.230501444332</v>
+        <v>-151864.406779661</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-28842.41437352623</v>
+        <v>88577.83017186518</v>
       </c>
       <c r="E12" t="n">
-        <v>-19954.1838720819</v>
+        <v>-63286.57660779578</v>
       </c>
     </row>
     <row r="13">
@@ -2390,16 +2390,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>16295.08925264795</v>
+        <v>-103653.483992467</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-102911.0018855624</v>
+        <v>13248.26331687459</v>
       </c>
       <c r="E13" t="n">
-        <v>-86615.91263291443</v>
+        <v>-90405.22067559241</v>
       </c>
     </row>
     <row r="14">
@@ -2407,16 +2407,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>23701.94800385156</v>
+        <v>-55442.56120527301</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-176979.5893975985</v>
+        <v>-62081.303538116</v>
       </c>
       <c r="E14" t="n">
-        <v>-153277.6413937469</v>
+        <v>-117523.864743389</v>
       </c>
     </row>
     <row r="15">
@@ -2424,16 +2424,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>31108.80675505518</v>
+        <v>-7231.638418079028</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-176979.5893975985</v>
+        <v>-62081.303538116</v>
       </c>
       <c r="E15" t="n">
-        <v>-145870.7826425433</v>
+        <v>-69312.94195619503</v>
       </c>
     </row>
     <row r="16">
@@ -2441,16 +2441,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>38515.66550625879</v>
+        <v>40979.28436911495</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-176979.5893975985</v>
+        <v>-62081.303538116</v>
       </c>
       <c r="E16" t="n">
-        <v>-138463.9238913397</v>
+        <v>-21102.01916900105</v>
       </c>
     </row>
     <row r="17">
@@ -2458,16 +2458,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>45922.52425746241</v>
+        <v>89190.20715630893</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-176979.5893975985</v>
+        <v>-62081.303538116</v>
       </c>
       <c r="E17" t="n">
-        <v>-131057.0651401361</v>
+        <v>27108.90361819293</v>
       </c>
     </row>
     <row r="18">
@@ -2475,16 +2475,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>53329.38300866602</v>
+        <v>137401.1299435029</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-176979.5893975985</v>
+        <v>-62081.303538116</v>
       </c>
       <c r="E18" t="n">
-        <v>-123650.2063889325</v>
+        <v>75319.82640538692</v>
       </c>
     </row>
     <row r="19">
@@ -2492,16 +2492,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>60736.24175986964</v>
+        <v>185612.0527306969</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-176979.5893975985</v>
+        <v>-62081.303538116</v>
       </c>
       <c r="E19" t="n">
-        <v>-116243.3476377288</v>
+        <v>123530.7491925809</v>
       </c>
     </row>
     <row r="20">
@@ -2509,16 +2509,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>68143.10051107325</v>
+        <v>233822.9755178909</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-176979.5893975985</v>
+        <v>-62081.303538116</v>
       </c>
       <c r="E20" t="n">
-        <v>-108836.4888865252</v>
+        <v>171741.6719797749</v>
       </c>
     </row>
     <row r="21">
@@ -2526,16 +2526,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>75549.95926227687</v>
+        <v>282033.8983050848</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-176979.5893975985</v>
+        <v>-62081.303538116</v>
       </c>
       <c r="E21" t="n">
-        <v>-101429.6301353216</v>
+        <v>219952.5947669689</v>
       </c>
     </row>
     <row r="22">
@@ -2543,16 +2543,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>82956.81801348049</v>
+        <v>330244.8210922789</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-176979.5893975985</v>
+        <v>-62081.303538116</v>
       </c>
       <c r="E22" t="n">
-        <v>-94022.77138411801</v>
+        <v>268163.5175541629</v>
       </c>
     </row>
     <row r="23">
@@ -2560,16 +2560,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>90363.67676468409</v>
+        <v>378455.7438794728</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-176979.5893975985</v>
+        <v>-62081.303538116</v>
       </c>
       <c r="E23" t="n">
-        <v>-86615.91263291441</v>
+        <v>316374.4403413569</v>
       </c>
     </row>
     <row r="24">
@@ -2577,16 +2577,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>97770.53551588771</v>
+        <v>426666.6666666668</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-176979.5893975985</v>
+        <v>-62081.303538116</v>
       </c>
       <c r="E24" t="n">
-        <v>-79209.05388171079</v>
+        <v>364585.3631285508</v>
       </c>
     </row>
     <row r="25">
@@ -2594,16 +2594,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>105177.3942670913</v>
+        <v>474877.5894538608</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-176979.5893975985</v>
+        <v>-62081.303538116</v>
       </c>
       <c r="E25" t="n">
-        <v>-71802.19513050717</v>
+        <v>412796.2859157448</v>
       </c>
     </row>
     <row r="26">
@@ -2611,16 +2611,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>112584.2530182949</v>
+        <v>523088.5122410548</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-176979.5893975985</v>
+        <v>-62081.303538116</v>
       </c>
       <c r="E26" t="n">
-        <v>-64395.33637930355</v>
+        <v>461007.2087029388</v>
       </c>
     </row>
     <row r="27">
@@ -2628,16 +2628,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>119991.1117694986</v>
+        <v>571299.4350282487</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-176979.5893975985</v>
+        <v>-62081.303538116</v>
       </c>
       <c r="E27" t="n">
-        <v>-56988.47762809994</v>
+        <v>509218.1314901327</v>
       </c>
     </row>
     <row r="28">
@@ -2645,16 +2645,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>127397.9705207022</v>
+        <v>619510.3578154427</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-176979.5893975985</v>
+        <v>-62081.303538116</v>
       </c>
       <c r="E28" t="n">
-        <v>-49581.61887689633</v>
+        <v>557429.0542773267</v>
       </c>
     </row>
     <row r="29">
@@ -2662,16 +2662,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>134804.8292719058</v>
+        <v>667721.2806026367</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-176979.5893975985</v>
+        <v>-62081.303538116</v>
       </c>
       <c r="E29" t="n">
-        <v>-42174.7601256927</v>
+        <v>605639.9770645207</v>
       </c>
     </row>
     <row r="30">
@@ -2679,16 +2679,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>142211.6880231094</v>
+        <v>715932.2033898307</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-176979.5893975985</v>
+        <v>-62081.303538116</v>
       </c>
       <c r="E30" t="n">
-        <v>-34767.9013744891</v>
+        <v>653850.8998517146</v>
       </c>
     </row>
     <row r="31">
@@ -2696,16 +2696,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>149618.546774313</v>
+        <v>764143.1261770247</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-176979.5893975985</v>
+        <v>-62081.303538116</v>
       </c>
       <c r="E31" t="n">
-        <v>-27361.0426232855</v>
+        <v>702061.8226389086</v>
       </c>
     </row>
     <row r="32">
@@ -2713,16 +2713,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>157025.4055255166</v>
+        <v>812354.0489642186</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-176979.5893975985</v>
+        <v>-62081.303538116</v>
       </c>
       <c r="E32" t="n">
-        <v>-19954.18387208186</v>
+        <v>750272.7454261025</v>
       </c>
     </row>
   </sheetData>
@@ -2776,16 +2776,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-65180.3570105918</v>
+        <v>-633973.6346516007</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>119266.0031415744</v>
+        <v>239207.7167911778</v>
       </c>
       <c r="E2" t="n">
-        <v>54085.64613098258</v>
+        <v>-394765.917860423</v>
       </c>
     </row>
     <row r="3">
@@ -2793,16 +2793,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-57773.49825938819</v>
+        <v>-585762.7118644067</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>119266.0031415744</v>
+        <v>239207.7167911776</v>
       </c>
       <c r="E3" t="n">
-        <v>61492.50488218619</v>
+        <v>-346554.9950732291</v>
       </c>
     </row>
     <row r="4">
@@ -2810,16 +2810,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-50366.63950818458</v>
+        <v>-537551.7890772128</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>119266.0031415744</v>
+        <v>239207.7167911777</v>
       </c>
       <c r="E4" t="n">
-        <v>68899.36363338982</v>
+        <v>-298344.0722860351</v>
       </c>
     </row>
     <row r="5">
@@ -2827,16 +2827,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-42959.78075698097</v>
+        <v>-489340.8662900188</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>119266.0031415744</v>
+        <v>239207.7167911776</v>
       </c>
       <c r="E5" t="n">
-        <v>76306.22238459339</v>
+        <v>-250133.1494988411</v>
       </c>
     </row>
     <row r="6">
@@ -2844,16 +2844,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>-35552.92200577736</v>
+        <v>-441129.9435028248</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>119266.0031415741</v>
+        <v>239207.7167911777</v>
       </c>
       <c r="E6" t="n">
-        <v>83713.08113579676</v>
+        <v>-201922.2267116471</v>
       </c>
     </row>
     <row r="7">
@@ -2861,16 +2861,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-28146.06325457374</v>
+        <v>-392919.0207156308</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>119266.0030293944</v>
+        <v>239207.7167906135</v>
       </c>
       <c r="E7" t="n">
-        <v>91119.9397748207</v>
+        <v>-153711.3039250173</v>
       </c>
     </row>
     <row r="8">
@@ -2878,16 +2878,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-20739.20450337013</v>
+        <v>-344708.0979284369</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>119264.1642288393</v>
+        <v>239207.5515700784</v>
       </c>
       <c r="E8" t="n">
-        <v>98524.95972546922</v>
+        <v>-105500.5463583585</v>
       </c>
     </row>
     <row r="9">
@@ -2895,16 +2895,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-13332.34575216651</v>
+        <v>-296497.1751412429</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>118540.8237054713</v>
+        <v>238877.546375823</v>
       </c>
       <c r="E9" t="n">
-        <v>105208.4779533048</v>
+        <v>-57619.62876541982</v>
       </c>
     </row>
     <row r="10">
@@ -2912,16 +2912,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-5925.487000962897</v>
+        <v>-248286.2523540489</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>101663.6293911822</v>
+        <v>223627.021278441</v>
       </c>
       <c r="E10" t="n">
-        <v>95738.14239021935</v>
+        <v>-24659.23107560794</v>
       </c>
     </row>
     <row r="11">
@@ -2929,16 +2929,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>1481.371750240718</v>
+        <v>-200075.3295668549</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>44119.22708865009</v>
+        <v>163291.3119419937</v>
       </c>
       <c r="E11" t="n">
-        <v>45600.59883889081</v>
+        <v>-36784.01762486124</v>
       </c>
     </row>
     <row r="12">
@@ -2946,16 +2946,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>8888.230501444332</v>
+        <v>-151864.406779661</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-28998.18109693361</v>
+        <v>88417.07773088096</v>
       </c>
       <c r="E12" t="n">
-        <v>-20109.95059548927</v>
+        <v>-63447.32904878</v>
       </c>
     </row>
     <row r="13">
@@ -2963,16 +2963,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>16295.08925264795</v>
+        <v>-103653.483992467</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-101744.4090459074</v>
+        <v>13715.89804972861</v>
       </c>
       <c r="E13" t="n">
-        <v>-85449.31979325946</v>
+        <v>-89937.58594273838</v>
       </c>
     </row>
     <row r="14">
@@ -2980,16 +2980,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>23701.94800385156</v>
+        <v>-55442.56120527301</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-157324.7765365858</v>
+        <v>-44946.43527898544</v>
       </c>
       <c r="E14" t="n">
-        <v>-133622.8285327342</v>
+        <v>-100388.9964842584</v>
       </c>
     </row>
     <row r="15">
@@ -2997,16 +2997,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>31108.80675505518</v>
+        <v>-7231.638418079028</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-175383.7956615415</v>
+        <v>-61295.36279773743</v>
       </c>
       <c r="E15" t="n">
-        <v>-144274.9889064863</v>
+        <v>-68527.00121581646</v>
       </c>
     </row>
     <row r="16">
@@ -3014,16 +3014,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>38515.66550625879</v>
+        <v>40979.28436911495</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-176948.499030801</v>
+        <v>-62076.47575652937</v>
       </c>
       <c r="E16" t="n">
-        <v>-138432.8335245422</v>
+        <v>-21097.19138741442</v>
       </c>
     </row>
     <row r="17">
@@ -3031,16 +3031,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>45922.52425746241</v>
+        <v>89190.20715630893</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-176979.4465076992</v>
+        <v>-62081.2996267219</v>
       </c>
       <c r="E17" t="n">
-        <v>-131056.9222502368</v>
+        <v>27108.90752958703</v>
       </c>
     </row>
     <row r="18">
@@ -3048,16 +3048,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>53329.38300866602</v>
+        <v>137401.1299435029</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-176979.5892284931</v>
+        <v>-62081.30353763634</v>
       </c>
       <c r="E18" t="n">
-        <v>-123650.2062198271</v>
+        <v>75319.82640586658</v>
       </c>
     </row>
     <row r="19">
@@ -3065,16 +3065,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>60736.24175986964</v>
+        <v>185612.0527306969</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-176979.5893975405</v>
+        <v>-62081.30353811597</v>
       </c>
       <c r="E19" t="n">
-        <v>-116243.3476376709</v>
+        <v>123530.7491925809</v>
       </c>
     </row>
     <row r="20">
@@ -3082,16 +3082,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>68143.10051107325</v>
+        <v>233822.9755178909</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-176979.5893975985</v>
+        <v>-62081.303538116</v>
       </c>
       <c r="E20" t="n">
-        <v>-108836.4888865252</v>
+        <v>171741.6719797749</v>
       </c>
     </row>
     <row r="21">
@@ -3099,16 +3099,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>75549.95926227687</v>
+        <v>282033.8983050848</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-176979.5893975985</v>
+        <v>-62081.303538116</v>
       </c>
       <c r="E21" t="n">
-        <v>-101429.6301353216</v>
+        <v>219952.5947669689</v>
       </c>
     </row>
     <row r="22">
@@ -3116,16 +3116,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>82956.81801348049</v>
+        <v>330244.8210922789</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-176979.5893975985</v>
+        <v>-62081.303538116</v>
       </c>
       <c r="E22" t="n">
-        <v>-94022.77138411801</v>
+        <v>268163.5175541629</v>
       </c>
     </row>
     <row r="23">
@@ -3133,16 +3133,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>90363.67676468409</v>
+        <v>378455.7438794728</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-176979.5893975985</v>
+        <v>-62081.303538116</v>
       </c>
       <c r="E23" t="n">
-        <v>-86615.91263291441</v>
+        <v>316374.4403413569</v>
       </c>
     </row>
     <row r="24">
@@ -3150,16 +3150,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>97770.53551588771</v>
+        <v>426666.6666666668</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-176979.5893975985</v>
+        <v>-62081.303538116</v>
       </c>
       <c r="E24" t="n">
-        <v>-79209.05388171079</v>
+        <v>364585.3631285508</v>
       </c>
     </row>
     <row r="25">
@@ -3167,16 +3167,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>105177.3942670913</v>
+        <v>474877.5894538608</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-176979.5893975985</v>
+        <v>-62081.303538116</v>
       </c>
       <c r="E25" t="n">
-        <v>-71802.19513050717</v>
+        <v>412796.2859157448</v>
       </c>
     </row>
     <row r="26">
@@ -3184,16 +3184,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>112584.2530182949</v>
+        <v>523088.5122410548</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-176979.5893975985</v>
+        <v>-62081.303538116</v>
       </c>
       <c r="E26" t="n">
-        <v>-64395.33637930355</v>
+        <v>461007.2087029388</v>
       </c>
     </row>
     <row r="27">
@@ -3201,16 +3201,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>119991.1117694986</v>
+        <v>571299.4350282487</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-176979.5893975985</v>
+        <v>-62081.303538116</v>
       </c>
       <c r="E27" t="n">
-        <v>-56988.47762809994</v>
+        <v>509218.1314901327</v>
       </c>
     </row>
     <row r="28">
@@ -3218,16 +3218,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>127397.9705207022</v>
+        <v>619510.3578154427</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-176979.5893975985</v>
+        <v>-62081.303538116</v>
       </c>
       <c r="E28" t="n">
-        <v>-49581.61887689633</v>
+        <v>557429.0542773267</v>
       </c>
     </row>
     <row r="29">
@@ -3235,16 +3235,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>134804.8292719058</v>
+        <v>667721.2806026367</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-176979.5893975985</v>
+        <v>-62081.303538116</v>
       </c>
       <c r="E29" t="n">
-        <v>-42174.7601256927</v>
+        <v>605639.9770645207</v>
       </c>
     </row>
     <row r="30">
@@ -3252,16 +3252,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>142211.6880231094</v>
+        <v>715932.2033898307</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-176979.5893975985</v>
+        <v>-62081.303538116</v>
       </c>
       <c r="E30" t="n">
-        <v>-34767.9013744891</v>
+        <v>653850.8998517146</v>
       </c>
     </row>
     <row r="31">
@@ -3269,16 +3269,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>149618.546774313</v>
+        <v>764143.1261770247</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-176979.5893975985</v>
+        <v>-62081.303538116</v>
       </c>
       <c r="E31" t="n">
-        <v>-27361.0426232855</v>
+        <v>702061.8226389086</v>
       </c>
     </row>
     <row r="32">
@@ -3286,16 +3286,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>157025.4055255166</v>
+        <v>812354.0489642186</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-176979.5893975985</v>
+        <v>-62081.303538116</v>
       </c>
       <c r="E32" t="n">
-        <v>-19954.18387208186</v>
+        <v>750272.7454261025</v>
       </c>
     </row>
   </sheetData>
@@ -3349,16 +3349,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-65180.3570105918</v>
+        <v>-633973.6346516007</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>115748.9021006977</v>
+        <v>238071.8178888763</v>
       </c>
       <c r="E2" t="n">
-        <v>50568.54509010594</v>
+        <v>-395901.8167627244</v>
       </c>
     </row>
     <row r="3">
@@ -3366,16 +3366,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-57773.49825938819</v>
+        <v>-585762.7118644067</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>113290.1996316956</v>
+        <v>237916.3337518912</v>
       </c>
       <c r="E3" t="n">
-        <v>55516.70137230744</v>
+        <v>-347846.3781125155</v>
       </c>
     </row>
     <row r="4">
@@ -3383,16 +3383,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-50366.63950818458</v>
+        <v>-537551.7890772128</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>108631.7745136298</v>
+        <v>237249.4860761176</v>
       </c>
       <c r="E4" t="n">
-        <v>58265.13500544521</v>
+        <v>-300302.3030010952</v>
       </c>
     </row>
     <row r="5">
@@ -3400,16 +3400,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-42959.78075698097</v>
+        <v>-489340.8662900188</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>101004.0414555208</v>
+        <v>235169.9097583238</v>
       </c>
       <c r="E5" t="n">
-        <v>58044.26069853982</v>
+        <v>-254170.956531695</v>
       </c>
     </row>
     <row r="6">
@@ -3417,16 +3417,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>-35552.92200577736</v>
+        <v>-441129.9435028248</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>89902.69414378406</v>
+        <v>230151.5502683903</v>
       </c>
       <c r="E6" t="n">
-        <v>54349.7721380067</v>
+        <v>-210978.3932344345</v>
       </c>
     </row>
     <row r="7">
@@ -3434,16 +3434,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-28146.06325457374</v>
+        <v>-392919.0207156308</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>75231.3279464845</v>
+        <v>220329.3903038978</v>
       </c>
       <c r="E7" t="n">
-        <v>47085.26469191076</v>
+        <v>-172589.6304117331</v>
       </c>
     </row>
     <row r="8">
@@ -3451,16 +3451,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-20739.20450337013</v>
+        <v>-344708.0979284369</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>57329.90488929022</v>
+        <v>204165.8809967707</v>
       </c>
       <c r="E8" t="n">
-        <v>36590.70038592009</v>
+        <v>-140542.2169316662</v>
       </c>
     </row>
     <row r="9">
@@ -3468,16 +3468,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-13332.34575216651</v>
+        <v>-296497.1751412429</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>36897.9809381192</v>
+        <v>181169.213888257</v>
       </c>
       <c r="E9" t="n">
-        <v>23565.63518595269</v>
+        <v>-115327.9612529859</v>
       </c>
     </row>
     <row r="10">
@@ -3485,16 +3485,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-5925.487000962897</v>
+        <v>-248286.2523540489</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>14854.50903147743</v>
+        <v>152253.6415257528</v>
       </c>
       <c r="E10" t="n">
-        <v>8929.02203051453</v>
+        <v>-96032.61082829611</v>
       </c>
     </row>
     <row r="11">
@@ -3502,16 +3502,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>1481.371750240718</v>
+        <v>-200075.3295668549</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-7816.947768907823</v>
+        <v>119552.3568446368</v>
       </c>
       <c r="E11" t="n">
-        <v>-6335.576018667105</v>
+        <v>-80522.97272221808</v>
       </c>
     </row>
     <row r="12">
@@ -3519,16 +3519,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>8888.230501444332</v>
+        <v>-151864.406779661</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-30200.03938147204</v>
+        <v>85810.59188554896</v>
       </c>
       <c r="E12" t="n">
-        <v>-21311.8088800277</v>
+        <v>-66053.814894112</v>
       </c>
     </row>
     <row r="13">
@@ -3536,16 +3536,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>16295.08925264795</v>
+        <v>-103653.483992467</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-51535.03059790929</v>
+        <v>53669.03682692954</v>
       </c>
       <c r="E13" t="n">
-        <v>-35239.94134526134</v>
+        <v>-49984.44716553746</v>
       </c>
     </row>
     <row r="14">
@@ -3553,16 +3553,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>23701.94800385156</v>
+        <v>-55442.56120527301</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-71262.60147196839</v>
+        <v>25122.13954025179</v>
       </c>
       <c r="E14" t="n">
-        <v>-47560.65346811683</v>
+        <v>-30320.42166502122</v>
       </c>
     </row>
     <row r="15">
@@ -3570,16 +3570,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>31108.80675505518</v>
+        <v>-7231.638418079028</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-89029.40017718585</v>
+        <v>1283.026840653969</v>
       </c>
       <c r="E15" t="n">
-        <v>-57920.59342213067</v>
+        <v>-5948.611577425059</v>
       </c>
     </row>
     <row r="16">
@@ -3587,16 +3587,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>38515.66550625879</v>
+        <v>40979.28436911495</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-104667.2383786465</v>
+        <v>-17570.217938852</v>
       </c>
       <c r="E16" t="n">
-        <v>-66151.57287238774</v>
+        <v>23409.06643026295</v>
       </c>
     </row>
     <row r="17">
@@ -3604,16 +3604,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>45922.52425746241</v>
+        <v>89190.20715630893</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-118157.9466715339</v>
+        <v>-31778.730197578</v>
       </c>
       <c r="E17" t="n">
-        <v>-72235.42241407145</v>
+        <v>57411.47695873093</v>
       </c>
     </row>
     <row r="18">
@@ -3621,16 +3621,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>53329.38300866602</v>
+        <v>137401.1299435029</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-129593.6130525979</v>
+        <v>-42038.27767716462</v>
       </c>
       <c r="E18" t="n">
-        <v>-76264.23004393189</v>
+        <v>95362.8522663383</v>
       </c>
     </row>
     <row r="19">
@@ -3638,16 +3638,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>60736.24175986964</v>
+        <v>185612.0527306969</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-139138.8216676768</v>
+        <v>-49169.78113534805</v>
       </c>
       <c r="E19" t="n">
-        <v>-78402.5799078072</v>
+        <v>136442.2715953488</v>
       </c>
     </row>
     <row r="20">
@@ -3655,16 +3655,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>68143.10051107325</v>
+        <v>233822.9755178909</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-146998.5962334278</v>
+        <v>-53961.74852780125</v>
       </c>
       <c r="E20" t="n">
-        <v>-78855.49572235459</v>
+        <v>179861.2269900896</v>
       </c>
     </row>
     <row r="21">
@@ -3672,16 +3672,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>75549.95926227687</v>
+        <v>282033.8983050848</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-153393.4973221312</v>
+        <v>-57085.81019771232</v>
       </c>
       <c r="E21" t="n">
-        <v>-77843.53805985428</v>
+        <v>224948.0881073725</v>
       </c>
     </row>
     <row r="22">
@@ -3689,16 +3689,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>82956.81801348049</v>
+        <v>330244.8210922789</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-158541.8239132599</v>
+        <v>-59068.28499317382</v>
       </c>
       <c r="E22" t="n">
-        <v>-75585.00589977941</v>
+        <v>271176.536099105</v>
       </c>
     </row>
     <row r="23">
@@ -3706,16 +3706,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>90363.67676468409</v>
+        <v>378455.7438794728</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-162648.0295175409</v>
+        <v>-60296.36970302736</v>
       </c>
       <c r="E23" t="n">
-        <v>-72284.35275285685</v>
+        <v>318159.3741764455</v>
       </c>
     </row>
     <row r="24">
@@ -3723,16 +3723,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>97770.53551588771</v>
+        <v>426666.6666666668</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-165896.110520562</v>
+        <v>-61040.91893503995</v>
       </c>
       <c r="E24" t="n">
-        <v>-68125.57500467433</v>
+        <v>365625.7477316268</v>
       </c>
     </row>
     <row r="25">
@@ -3740,16 +3740,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>105177.3942670913</v>
+        <v>474877.5894538608</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-168446.6867413024</v>
+        <v>-61483.70509253866</v>
       </c>
       <c r="E25" t="n">
-        <v>-63269.29247421105</v>
+        <v>413393.8843613221</v>
       </c>
     </row>
     <row r="26">
@@ -3757,16 +3757,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>112584.2530182949</v>
+        <v>523088.5122410548</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-170436.6312108712</v>
+        <v>-61742.53558245036</v>
       </c>
       <c r="E26" t="n">
-        <v>-57852.37819257627</v>
+        <v>461345.9766586045</v>
       </c>
     </row>
     <row r="27">
@@ -3774,16 +3774,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>119991.1117694986</v>
+        <v>571299.4350282487</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-171980.3183669046</v>
+        <v>-61891.5231149583</v>
       </c>
       <c r="E27" t="n">
-        <v>-51989.20659740604</v>
+        <v>509407.9119132904</v>
       </c>
     </row>
     <row r="28">
@@ -3791,16 +3791,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>127397.9705207022</v>
+        <v>619510.3578154427</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-173171.7847721387</v>
+        <v>-61976.11095753939</v>
       </c>
       <c r="E28" t="n">
-        <v>-45773.81425143653</v>
+        <v>557534.2468579033</v>
       </c>
     </row>
     <row r="29">
@@ -3808,16 +3808,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>134804.8292719058</v>
+        <v>667721.2806026367</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-174087.3000483689</v>
+        <v>-62023.54909526954</v>
       </c>
       <c r="E29" t="n">
-        <v>-39282.47077646307</v>
+        <v>605697.7315073672</v>
       </c>
     </row>
     <row r="30">
@@ -3825,16 +3825,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>142211.6880231094</v>
+        <v>715932.2033898307</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-174788.0132685003</v>
+        <v>-62049.86286827055</v>
       </c>
       <c r="E30" t="n">
-        <v>-32576.32524539088</v>
+        <v>653882.3405215601</v>
       </c>
     </row>
     <row r="31">
@@ -3842,16 +3842,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>149618.546774313</v>
+        <v>764143.1261770247</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-175322.4686790755</v>
+        <v>-62064.31699354421</v>
       </c>
       <c r="E31" t="n">
-        <v>-25703.92190476254</v>
+        <v>702078.8091834805</v>
       </c>
     </row>
     <row r="32">
@@ -3859,16 +3859,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>157025.4055255166</v>
+        <v>812354.0489642186</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-175728.8777549221</v>
+        <v>-62072.18782558077</v>
       </c>
       <c r="E32" t="n">
-        <v>-18703.47222940551</v>
+        <v>750281.8611386379</v>
       </c>
     </row>
   </sheetData>
@@ -3922,16 +3922,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-65180.3570105918</v>
+        <v>-633973.6346516007</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>117663.8760063706</v>
+        <v>238769.3475174768</v>
       </c>
       <c r="E2" t="n">
-        <v>52483.51899577884</v>
+        <v>-395204.287134124</v>
       </c>
     </row>
     <row r="3">
@@ -3939,16 +3939,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-57773.49825938819</v>
+        <v>-585762.7118644067</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>116809.9441794154</v>
+        <v>238769.1077994049</v>
       </c>
       <c r="E3" t="n">
-        <v>59036.44592002722</v>
+        <v>-346993.6040650018</v>
       </c>
     </row>
     <row r="4">
@@ -3956,16 +3956,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-50366.63950818458</v>
+        <v>-537551.7890772128</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>114585.3652015305</v>
+        <v>238762.518287291</v>
       </c>
       <c r="E4" t="n">
-        <v>64218.72569334594</v>
+        <v>-298789.2707899218</v>
       </c>
     </row>
     <row r="5">
@@ -3973,16 +3973,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-42959.78075698097</v>
+        <v>-489340.8662900188</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>109897.8383446929</v>
+        <v>238676.3628454763</v>
       </c>
       <c r="E5" t="n">
-        <v>66938.0575877119</v>
+        <v>-250664.5034445425</v>
       </c>
     </row>
     <row r="6">
@@ -3990,16 +3990,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>-35552.92200577736</v>
+        <v>-441129.9435028248</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>101576.297518528</v>
+        <v>238055.1075834229</v>
       </c>
       <c r="E6" t="n">
-        <v>66023.37551275064</v>
+        <v>-203074.8359194019</v>
       </c>
     </row>
     <row r="7">
@@ -4007,16 +4007,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-28146.06325457374</v>
+        <v>-392919.0207156308</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>88739.37774532137</v>
+        <v>235284.6745887842</v>
       </c>
       <c r="E7" t="n">
-        <v>60593.31449074763</v>
+        <v>-157634.3461268466</v>
       </c>
     </row>
     <row r="8">
@@ -4024,16 +4024,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-20739.20450337013</v>
+        <v>-344708.0979284369</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>71115.39783015811</v>
+        <v>226919.4031394681</v>
       </c>
       <c r="E8" t="n">
-        <v>50376.19332678798</v>
+        <v>-117788.6947889688</v>
       </c>
     </row>
     <row r="9">
@@ -4041,16 +4041,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-13332.34575216651</v>
+        <v>-296497.1751412429</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>49171.97491568835</v>
+        <v>208534.2052936946</v>
       </c>
       <c r="E9" t="n">
-        <v>35839.62916352184</v>
+        <v>-87962.96984754829</v>
       </c>
     </row>
     <row r="10">
@@ -4058,16 +4058,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-5925.487000962897</v>
+        <v>-248286.2523540489</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>24019.10903529907</v>
+        <v>177400.9083029245</v>
       </c>
       <c r="E10" t="n">
-        <v>18093.62203433617</v>
+        <v>-70885.34405112441</v>
       </c>
     </row>
     <row r="11">
@@ -4075,16 +4075,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>1481.371750240718</v>
+        <v>-200075.3295668549</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-2848.954291456226</v>
+        <v>134984.3526848592</v>
       </c>
       <c r="E11" t="n">
-        <v>-1367.582541215509</v>
+        <v>-65090.97688199568</v>
       </c>
     </row>
     <row r="12">
@@ -4092,16 +4092,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>8888.230501444332</v>
+        <v>-151864.406779661</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-29862.44027256239</v>
+        <v>87003.14095159784</v>
       </c>
       <c r="E12" t="n">
-        <v>-20974.20977111805</v>
+        <v>-64861.26582806311</v>
       </c>
     </row>
     <row r="13">
@@ -4109,16 +4109,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>16295.08925264795</v>
+        <v>-103653.483992467</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-55637.92948167097</v>
+        <v>40921.14002297308</v>
       </c>
       <c r="E13" t="n">
-        <v>-39342.84022902303</v>
+        <v>-62732.34396949392</v>
       </c>
     </row>
     <row r="14">
@@ -4126,16 +4126,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>23701.94800385156</v>
+        <v>-55442.56120527301</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-79140.46774403132</v>
+        <v>2730.785003063093</v>
       </c>
       <c r="E14" t="n">
-        <v>-55438.51974017976</v>
+        <v>-52711.77620220992</v>
       </c>
     </row>
     <row r="15">
@@ -4143,16 +4143,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>31108.80675505518</v>
+        <v>-7231.638418079028</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-99738.88620994872</v>
+        <v>-24929.63695589118</v>
       </c>
       <c r="E15" t="n">
-        <v>-68630.07945489354</v>
+        <v>-32161.27537397021</v>
       </c>
     </row>
     <row r="16">
@@ -4160,16 +4160,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>38515.66550625879</v>
+        <v>40979.28436911495</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-117177.5639274834</v>
+        <v>-42631.24026373772</v>
       </c>
       <c r="E16" t="n">
-        <v>-78661.89842122464</v>
+        <v>-1651.955894622777</v>
       </c>
     </row>
     <row r="17">
@@ -4177,16 +4177,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>45922.52425746241</v>
+        <v>89190.20715630893</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-131499.1783193485</v>
+        <v>-52742.79047980541</v>
       </c>
       <c r="E17" t="n">
-        <v>-85576.65406188613</v>
+        <v>36447.41667650352</v>
       </c>
     </row>
     <row r="18">
@@ -4194,16 +4194,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>53329.38300866602</v>
+        <v>137401.1299435029</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-142950.3651352309</v>
+        <v>-57948.22374580284</v>
       </c>
       <c r="E18" t="n">
-        <v>-89620.98212656492</v>
+        <v>79452.90619770008</v>
       </c>
     </row>
     <row r="19">
@@ -4211,16 +4211,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>60736.24175986964</v>
+        <v>185612.0527306969</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-151892.8188714415</v>
+        <v>-60385.54638804938</v>
       </c>
       <c r="E19" t="n">
-        <v>-91156.57711157188</v>
+        <v>125226.5063426475</v>
       </c>
     </row>
     <row r="20">
@@ -4228,16 +4228,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>68143.10051107325</v>
+        <v>233822.9755178909</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-158731.9182844635</v>
+        <v>-61432.54780458962</v>
       </c>
       <c r="E20" t="n">
-        <v>-90588.81777339021</v>
+        <v>172390.4277133013</v>
       </c>
     </row>
     <row r="21">
@@ -4245,16 +4245,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>75549.95926227687</v>
+        <v>282033.8983050848</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-163866.6076876631</v>
+        <v>-61848.52842349133</v>
       </c>
       <c r="E21" t="n">
-        <v>-88316.64842538627</v>
+        <v>220185.3698815935</v>
       </c>
     </row>
     <row r="22">
@@ -4262,16 +4262,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>82956.81801348049</v>
+        <v>330244.8210922789</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-167658.9806416035</v>
+        <v>-62002.53556854565</v>
       </c>
       <c r="E22" t="n">
-        <v>-84702.16262812304</v>
+        <v>268242.2855237332</v>
       </c>
     </row>
     <row r="23">
@@ -4279,16 +4279,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>90363.67676468409</v>
+        <v>378455.7438794728</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-170419.4844894108</v>
+        <v>-62056.03319507795</v>
       </c>
       <c r="E23" t="n">
-        <v>-80055.80772472671</v>
+        <v>316399.7106843949</v>
       </c>
     </row>
     <row r="24">
@@ -4296,16 +4296,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>97770.53551588771</v>
+        <v>426666.6666666668</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-172403.069628685</v>
+        <v>-62073.57918700048</v>
       </c>
       <c r="E24" t="n">
-        <v>-74632.53411279734</v>
+        <v>364593.0874796663</v>
       </c>
     </row>
     <row r="25">
@@ -4313,16 +4313,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>105177.3942670913</v>
+        <v>474877.5894538608</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-173812.1056008973</v>
+        <v>-62079.04365484364</v>
       </c>
       <c r="E25" t="n">
-        <v>-68634.71133380596</v>
+        <v>412798.5457990171</v>
       </c>
     </row>
     <row r="26">
@@ -4330,16 +4330,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>112584.2530182949</v>
+        <v>523088.5122410548</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-174802.8357671417</v>
+        <v>-62080.66804605655</v>
       </c>
       <c r="E26" t="n">
-        <v>-62218.58274884675</v>
+        <v>461007.8441949983</v>
       </c>
     </row>
     <row r="27">
@@ -4347,16 +4347,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>119991.1117694986</v>
+        <v>571299.4350282487</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-175493.1439818439</v>
+        <v>-62081.13110922386</v>
       </c>
       <c r="E27" t="n">
-        <v>-55502.03221234534</v>
+        <v>509218.3039190248</v>
       </c>
     </row>
     <row r="28">
@@ -4364,16 +4364,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>127397.9705207022</v>
+        <v>619510.3578154427</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-175970.2600837651</v>
+        <v>-62081.25823601481</v>
       </c>
       <c r="E28" t="n">
-        <v>-48572.28956306295</v>
+        <v>557429.0995794279</v>
       </c>
     </row>
     <row r="29">
@@ -4381,16 +4381,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>134804.8292719058</v>
+        <v>667721.2806026367</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-176297.6693068942</v>
+        <v>-62081.29197608063</v>
       </c>
       <c r="E29" t="n">
-        <v>-41492.84003498845</v>
+        <v>605639.9886265561</v>
       </c>
     </row>
     <row r="30">
@@ -4398,16 +4398,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>142211.6880231094</v>
+        <v>715932.2033898307</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-176520.9211536613</v>
+        <v>-62081.30066314196</v>
       </c>
       <c r="E30" t="n">
-        <v>-34309.23313055187</v>
+        <v>653850.9027266887</v>
       </c>
     </row>
     <row r="31">
@@ -4415,16 +4415,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>149618.546774313</v>
+        <v>764143.1261770247</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-176672.295404841</v>
+        <v>-62081.30283975439</v>
       </c>
       <c r="E31" t="n">
-        <v>-27053.74863052796</v>
+        <v>702061.8233372703</v>
       </c>
     </row>
     <row r="32">
@@ -4432,16 +4432,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>157025.4055255166</v>
+        <v>812354.0489642186</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-176774.4235438535</v>
+        <v>-62081.30337199174</v>
       </c>
       <c r="E32" t="n">
-        <v>-19749.01801833682</v>
+        <v>750272.7455922269</v>
       </c>
     </row>
   </sheetData>
@@ -4495,16 +4495,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-65180.3570105918</v>
+        <v>-633973.6346516007</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>96130.52901121852</v>
+        <v>221631.5480280818</v>
       </c>
       <c r="E2" t="n">
-        <v>30950.17200062671</v>
+        <v>-412342.086623519</v>
       </c>
     </row>
     <row r="3">
@@ -4512,16 +4512,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-57773.49825938819</v>
+        <v>-585762.7118644067</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>87461.79155590455</v>
+        <v>213956.4278396342</v>
       </c>
       <c r="E3" t="n">
-        <v>29688.29329651636</v>
+        <v>-371806.2840247725</v>
       </c>
     </row>
     <row r="4">
@@ -4529,16 +4529,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-50366.63950818458</v>
+        <v>-537551.7890772128</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>77047.50126484799</v>
+        <v>203973.3925834953</v>
       </c>
       <c r="E4" t="n">
-        <v>26680.86175666341</v>
+        <v>-333578.3964937175</v>
       </c>
     </row>
     <row r="5">
@@ -4546,16 +4546,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-42959.78075698097</v>
+        <v>-489340.8662900188</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>65157.5091911527</v>
+        <v>191848.6922175856</v>
       </c>
       <c r="E5" t="n">
-        <v>22197.72843417173</v>
+        <v>-297492.1740724332</v>
       </c>
     </row>
     <row r="6">
@@ -4563,16 +4563,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>-35552.92200577736</v>
+        <v>-441129.9435028248</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>52123.92007088565</v>
+        <v>177910.7823279713</v>
       </c>
       <c r="E6" t="n">
-        <v>16570.9980651083</v>
+        <v>-263219.1611748535</v>
       </c>
     </row>
     <row r="7">
@@ -4580,16 +4580,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-28146.06325457374</v>
+        <v>-392919.0207156308</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>38299.66468953184</v>
+        <v>162589.0209892681</v>
       </c>
       <c r="E7" t="n">
-        <v>10153.6014349581</v>
+        <v>-230329.9997263628</v>
       </c>
     </row>
     <row r="8">
@@ -4597,16 +4597,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-20739.20450337013</v>
+        <v>-344708.0979284369</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>24026.99254364322</v>
+        <v>146353.91122405</v>
       </c>
       <c r="E8" t="n">
-        <v>3287.788040273099</v>
+        <v>-198354.1867043869</v>
       </c>
     </row>
     <row r="9">
@@ -4614,16 +4614,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-13332.34575216651</v>
+        <v>-296497.1751412429</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>9616.406726829999</v>
+        <v>129668.1211324717</v>
       </c>
       <c r="E9" t="n">
-        <v>-3715.939025336513</v>
+        <v>-166829.0540087711</v>
       </c>
     </row>
     <row r="10">
@@ -4631,16 +4631,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-5925.487000962897</v>
+        <v>-248286.2523540489</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-4665.272576462768</v>
+        <v>112951.8130296585</v>
       </c>
       <c r="E10" t="n">
-        <v>-10590.75957742567</v>
+        <v>-135334.4393243904</v>
       </c>
     </row>
     <row r="11">
@@ -4648,16 +4648,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>1481.371750240718</v>
+        <v>-200075.3295668549</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-18599.74367253314</v>
+        <v>96561.9888726529</v>
       </c>
       <c r="E11" t="n">
-        <v>-17118.37192229243</v>
+        <v>-103513.340694202</v>
       </c>
     </row>
     <row r="12">
@@ -4665,16 +4665,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>8888.230501444332</v>
+        <v>-151864.406779661</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-32017.0372259771</v>
+        <v>80783.52913587054</v>
       </c>
       <c r="E12" t="n">
-        <v>-23128.80672453276</v>
+        <v>-71080.87764379042</v>
       </c>
     </row>
     <row r="13">
@@ -4682,16 +4682,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>16295.08925264795</v>
+        <v>-103653.483992467</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-44792.11321738445</v>
+        <v>65828.88809125386</v>
       </c>
       <c r="E13" t="n">
-        <v>-28497.02396473651</v>
+        <v>-37824.59590121314</v>
       </c>
     </row>
     <row r="14">
@@ -4699,16 +4699,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>23701.94800385156</v>
+        <v>-55442.56120527301</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-56839.65672227476</v>
+        <v>51843.49464059304</v>
       </c>
       <c r="E14" t="n">
-        <v>-33137.7087184232</v>
+        <v>-3599.066564679975</v>
       </c>
     </row>
     <row r="15">
@@ -4716,16 +4716,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>31108.80675505518</v>
+        <v>-7231.638418079028</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-68108.10032007599</v>
+        <v>38914.38799141716</v>
       </c>
       <c r="E15" t="n">
-        <v>-36999.29356502081</v>
+        <v>31682.74957333813</v>
       </c>
     </row>
     <row r="16">
@@ -4733,16 +4733,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>38515.66550625879</v>
+        <v>40979.28436911495</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-78573.5674974296</v>
+        <v>27080.22327238285</v>
       </c>
       <c r="E16" t="n">
-        <v>-40057.90199117081</v>
+        <v>68059.5076414978</v>
       </c>
     </row>
     <row r="17">
@@ -4750,16 +4750,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>45922.52425746241</v>
+        <v>89190.20715630893</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-88234.16926038862</v>
+        <v>16341.36202052443</v>
       </c>
       <c r="E17" t="n">
-        <v>-42311.64500292621</v>
+        <v>105531.5691768333</v>
       </c>
     </row>
     <row r="18">
@@ -4767,16 +4767,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>53329.38300866602</v>
+        <v>137401.1299435029</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-97104.8931943896</v>
+        <v>6669.246509794932</v>
       </c>
       <c r="E18" t="n">
-        <v>-43775.51018572358</v>
+        <v>144070.3764532979</v>
       </c>
     </row>
     <row r="19">
@@ -4784,16 +4784,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>60736.24175986964</v>
+        <v>185612.0527306969</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-105213.1900663442</v>
+        <v>-1985.374608338767</v>
       </c>
       <c r="E19" t="n">
-        <v>-44476.94830647455</v>
+        <v>183626.6781223581</v>
       </c>
     </row>
     <row r="20">
@@ -4801,16 +4801,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>68143.10051107325</v>
+        <v>233822.9755178909</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-112595.2751356795</v>
+        <v>-9685.541953128402</v>
       </c>
       <c r="E20" t="n">
-        <v>-44452.17462460621</v>
+        <v>224137.4335647625</v>
       </c>
     </row>
     <row r="21">
@@ -4818,16 +4818,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>75549.95926227687</v>
+        <v>282033.8983050848</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-119293.1076975694</v>
+        <v>-16502.50508910249</v>
       </c>
       <c r="E21" t="n">
-        <v>-43743.14843529249</v>
+        <v>265531.3932159824</v>
       </c>
     </row>
     <row r="22">
@@ -4835,16 +4835,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>82956.81801348049</v>
+        <v>330244.8210922789</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-125351.9829800925</v>
+        <v>-22511.36788141198</v>
       </c>
       <c r="E22" t="n">
-        <v>-42395.16496661199</v>
+        <v>307733.4532108669</v>
       </c>
     </row>
     <row r="23">
@@ -4852,16 +4852,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>90363.67676468409</v>
+        <v>378455.7438794728</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-130818.6574871895</v>
+        <v>-27787.80926826331</v>
       </c>
       <c r="E23" t="n">
-        <v>-40454.98072250545</v>
+        <v>350667.9346112096</v>
       </c>
     </row>
     <row r="24">
@@ -4869,16 +4869,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>97770.53551588771</v>
+        <v>426666.6666666668</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-135739.9263581486</v>
+        <v>-32405.71029053015</v>
       </c>
       <c r="E24" t="n">
-        <v>-37969.39084226087</v>
+        <v>394260.9563761366</v>
       </c>
     </row>
     <row r="25">
@@ -4886,16 +4886,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>105177.3942670913</v>
+        <v>474877.5894538608</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-140161.5751109397</v>
+        <v>-36435.5200149536</v>
       </c>
       <c r="E25" t="n">
-        <v>-34984.18084384836</v>
+        <v>438442.0694389071</v>
       </c>
     </row>
     <row r="26">
@@ -4903,16 +4903,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>112584.2530182949</v>
+        <v>523088.5122410548</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-144127.6353667071</v>
+        <v>-39943.20659401707</v>
       </c>
       <c r="E26" t="n">
-        <v>-31543.38234841211</v>
+        <v>483145.3056470377</v>
       </c>
     </row>
     <row r="27">
@@ -4920,16 +4920,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>119991.1117694986</v>
+        <v>571299.4350282487</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-147679.882906953</v>
+        <v>-42989.65905288545</v>
       </c>
       <c r="E27" t="n">
-        <v>-27688.77113745443</v>
+        <v>528309.7759753632</v>
       </c>
     </row>
     <row r="28">
@@ -4937,16 +4937,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>127397.9705207022</v>
+        <v>619510.3578154427</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-150857.5254864147</v>
+        <v>-45630.42655652044</v>
       </c>
       <c r="E28" t="n">
-        <v>-23459.55496571251</v>
+        <v>573879.9312589223</v>
       </c>
     </row>
     <row r="29">
@@ -4954,16 +4954,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>134804.8292719058</v>
+        <v>667721.2806026367</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-153697.0364958586</v>
+        <v>-47915.70251520153</v>
       </c>
       <c r="E29" t="n">
-        <v>-18892.20722395278</v>
+        <v>619805.5780874352</v>
       </c>
     </row>
     <row r="30">
@@ -4971,16 +4971,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>142211.6880231094</v>
+        <v>715932.2033898307</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-156232.0984529271</v>
+        <v>-49890.47963389225</v>
       </c>
       <c r="E30" t="n">
-        <v>-14020.41042981771</v>
+        <v>666041.7237559385</v>
       </c>
     </row>
     <row r="31">
@@ -4988,16 +4988,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>149618.546774313</v>
+        <v>764143.1261770247</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-158493.627224469</v>
+        <v>-51594.81830828456</v>
       </c>
       <c r="E31" t="n">
-        <v>-8875.080450156034</v>
+        <v>712548.3078687402</v>
       </c>
     </row>
     <row r="32">
@@ -5005,16 +5005,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>157025.4055255166</v>
+        <v>812354.0489642186</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-160509.853813772</v>
+        <v>-53064.18446994759</v>
       </c>
       <c r="E32" t="n">
-        <v>-3484.448288255342</v>
+        <v>759289.864494271</v>
       </c>
     </row>
   </sheetData>
@@ -5068,16 +5068,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-65180.3570105918</v>
+        <v>-633973.6346516007</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>98477.13748498412</v>
+        <v>223688.4754220665</v>
       </c>
       <c r="E2" t="n">
-        <v>33296.78047439232</v>
+        <v>-410285.1592295342</v>
       </c>
     </row>
     <row r="3">
@@ -5085,16 +5085,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-57773.49825938819</v>
+        <v>-585762.7118644067</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>90163.85797973204</v>
+        <v>216513.769961654</v>
       </c>
       <c r="E3" t="n">
-        <v>32390.35972034385</v>
+        <v>-369248.9419027527</v>
       </c>
     </row>
     <row r="4">
@@ -5102,16 +5102,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-50366.63950818458</v>
+        <v>-537551.7890772128</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>79965.85019435326</v>
+        <v>206924.222529061</v>
       </c>
       <c r="E4" t="n">
-        <v>29599.21068616868</v>
+        <v>-330627.5665481518</v>
       </c>
     </row>
     <row r="5">
@@ -5119,16 +5119,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-42959.78075698097</v>
+        <v>-489340.8662900188</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>68129.51434979803</v>
+        <v>195023.9500040797</v>
       </c>
       <c r="E5" t="n">
-        <v>25169.73359281707</v>
+        <v>-294316.916285939</v>
       </c>
     </row>
     <row r="6">
@@ -5136,16 +5136,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>-35552.92200577736</v>
+        <v>-441129.9435028248</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>54986.4169916214</v>
+        <v>181110.6567099456</v>
       </c>
       <c r="E6" t="n">
-        <v>19433.49498584405</v>
+        <v>-260019.2867928792</v>
       </c>
     </row>
     <row r="7">
@@ -5153,16 +5153,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-28146.06325457374</v>
+        <v>-392919.0207156308</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>40906.44809643857</v>
+        <v>165614.0008862985</v>
       </c>
       <c r="E7" t="n">
-        <v>12760.38484186483</v>
+        <v>-227305.0198293324</v>
       </c>
     </row>
     <row r="8">
@@ -5170,16 +5170,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-20739.20450337013</v>
+        <v>-344708.0979284369</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>26259.81810114405</v>
+        <v>149029.2460375016</v>
       </c>
       <c r="E8" t="n">
-        <v>5520.613597773921</v>
+        <v>-195678.8518909353</v>
       </c>
     </row>
     <row r="9">
@@ -5187,16 +5187,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-13332.34575216651</v>
+        <v>-296497.1751412429</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>11390.02721883325</v>
+        <v>131859.1679039742</v>
       </c>
       <c r="E9" t="n">
-        <v>-1942.318533333266</v>
+        <v>-164638.0072372686</v>
       </c>
     </row>
     <row r="10">
@@ -5204,16 +5204,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-5925.487000962897</v>
+        <v>-248286.2523540489</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-3402.738764954425</v>
+        <v>114570.5136101291</v>
       </c>
       <c r="E10" t="n">
-        <v>-9328.225765917323</v>
+        <v>-133715.7387439198</v>
       </c>
     </row>
     <row r="11">
@@ -5221,16 +5221,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>1481.371750240718</v>
+        <v>-200075.3295668549</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-17869.62761305819</v>
+        <v>97566.25581752835</v>
       </c>
       <c r="E11" t="n">
-        <v>-16388.25586281747</v>
+        <v>-102509.0737493266</v>
       </c>
     </row>
     <row r="12">
@@ -5238,16 +5238,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>8888.230501444332</v>
+        <v>-151864.406779661</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-31814.77564177882</v>
+        <v>81171.84555490379</v>
       </c>
       <c r="E12" t="n">
-        <v>-22926.54514033449</v>
+        <v>-70692.56122475717</v>
       </c>
     </row>
     <row r="13">
@@ -5255,16 +5255,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>16295.08925264795</v>
+        <v>-103653.483992467</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-45092.68657732297</v>
+        <v>65632.30641616767</v>
       </c>
       <c r="E13" t="n">
-        <v>-28797.59732467503</v>
+        <v>-38021.17757629932</v>
       </c>
     </row>
     <row r="14">
@@ -5272,16 +5272,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>23701.94800385156</v>
+        <v>-55442.56120527301</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-57603.059151676</v>
+        <v>51116.77913104945</v>
       </c>
       <c r="E14" t="n">
-        <v>-33901.11114782443</v>
+        <v>-4325.782074223564</v>
       </c>
     </row>
     <row r="15">
@@ -5289,16 +5289,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>31108.80675505518</v>
+        <v>-7231.638418079028</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-69284.36637376735</v>
+        <v>37727.51547550425</v>
       </c>
       <c r="E15" t="n">
-        <v>-38175.55961871217</v>
+        <v>30495.87705742522</v>
       </c>
     </row>
     <row r="16">
@@ -5306,16 +5306,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>38515.66550625879</v>
+        <v>40979.28436911495</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-80107.09833816274</v>
+        <v>25510.96853739195</v>
       </c>
       <c r="E16" t="n">
-        <v>-41591.43283190396</v>
+        <v>66490.2529065069</v>
       </c>
     </row>
     <row r="17">
@@ -5323,16 +5323,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>45922.52425746241</v>
+        <v>89190.20715630893</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-90067.25794754989</v>
+        <v>14469.30737419517</v>
       </c>
       <c r="E17" t="n">
-        <v>-44144.73369008749</v>
+        <v>103659.5145305041</v>
       </c>
     </row>
     <row r="18">
@@ -5340,16 +5340,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>53329.38300866602</v>
+        <v>137401.1299435029</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-99180.45308980397</v>
+        <v>4571.281845943326</v>
       </c>
       <c r="E18" t="n">
-        <v>-45851.07008113794</v>
+        <v>141972.4117894463</v>
       </c>
     </row>
     <row r="19">
@@ -5357,16 +5357,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>60736.24175986964</v>
+        <v>185612.0527306969</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-107476.7529280481</v>
+        <v>-4238.166421830512</v>
       </c>
       <c r="E19" t="n">
-        <v>-46740.51116817841</v>
+        <v>181373.8863088664</v>
       </c>
     </row>
     <row r="20">
@@ -5374,16 +5374,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>68143.10051107325</v>
+        <v>233822.9755178909</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-114996.3575192383</v>
+        <v>-12029.81125202629</v>
       </c>
       <c r="E20" t="n">
-        <v>-46853.25700816506</v>
+        <v>221793.1642658646</v>
       </c>
     </row>
     <row r="21">
@@ -5391,16 +5391,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>75549.95926227687</v>
+        <v>282033.8983050848</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-121786.0555074206</v>
+        <v>-18883.60502723543</v>
       </c>
       <c r="E21" t="n">
-        <v>-46236.09624514371</v>
+        <v>263150.2932778494</v>
       </c>
     </row>
     <row r="22">
@@ -5408,16 +5408,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>82956.81801348049</v>
+        <v>330244.8210922789</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-127896.4020407703</v>
+        <v>-24883.59770782103</v>
       </c>
       <c r="E22" t="n">
-        <v>-44939.58402728979</v>
+        <v>305361.2233844578</v>
       </c>
     </row>
     <row r="23">
@@ -5425,16 +5425,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>90363.67676468409</v>
+        <v>378455.7438794728</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-133379.5284543264</v>
+        <v>-30114.13883161423</v>
       </c>
       <c r="E23" t="n">
-        <v>-43015.85168964235</v>
+        <v>348341.6050478586</v>
       </c>
     </row>
     <row r="24">
@@ -5442,16 +5442,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>97770.53551588771</v>
+        <v>426666.6666666668</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-138287.4890656974</v>
+        <v>-34657.16078026593</v>
       </c>
       <c r="E24" t="n">
-        <v>-40516.95354980965</v>
+        <v>392009.5058864009</v>
       </c>
     </row>
     <row r="25">
@@ -5459,16 +5459,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>105177.3942670913</v>
+        <v>474877.5894538608</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-142671.0531127042</v>
+        <v>-38590.34081040172</v>
       </c>
       <c r="E25" t="n">
-        <v>-37493.65884561292</v>
+        <v>436287.2486434591</v>
       </c>
     </row>
     <row r="26">
@@ -5476,16 +5476,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>112584.2530182949</v>
+        <v>523088.5122410548</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-146578.857540766</v>
+        <v>-41985.95474949256</v>
       </c>
       <c r="E26" t="n">
-        <v>-33994.60452247107</v>
+        <v>481102.5574915622</v>
       </c>
     </row>
     <row r="27">
@@ -5493,16 +5493,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>119991.1117694986</v>
+        <v>571299.4350282487</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-150056.8464149315</v>
+        <v>-44910.25868744327</v>
       </c>
       <c r="E27" t="n">
-        <v>-30065.73464543294</v>
+        <v>526389.1763408055</v>
       </c>
     </row>
     <row r="28">
@@ -5510,16 +5510,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>127397.9705207022</v>
+        <v>619510.3578154427</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-153147.9335108259</v>
+        <v>-47423.26114074522</v>
       </c>
       <c r="E28" t="n">
-        <v>-25749.96299012369</v>
+        <v>572087.0966746975</v>
       </c>
     </row>
     <row r="29">
@@ -5527,16 +5527,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>134804.8292719058</v>
+        <v>667721.2806026367</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-155891.8351147903</v>
+        <v>-49578.77379746285</v>
       </c>
       <c r="E29" t="n">
-        <v>-21087.00584288454</v>
+        <v>618142.5068051739</v>
       </c>
     </row>
     <row r="30">
@@ -5544,16 +5544,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>142211.6880231094</v>
+        <v>715932.2033898307</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-158325.0296724853</v>
+        <v>-51424.65229155979</v>
       </c>
       <c r="E30" t="n">
-        <v>-16113.34164937591</v>
+        <v>664507.5510982708</v>
       </c>
     </row>
     <row r="31">
@@ -5561,16 +5561,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>149618.546774313</v>
+        <v>764143.1261770247</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-160480.8094016247</v>
+        <v>-53003.15869041586</v>
       </c>
       <c r="E31" t="n">
-        <v>-10862.26262731166</v>
+        <v>711139.9674866088</v>
       </c>
     </row>
     <row r="32">
@@ -5578,16 +5578,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>157025.4055255166</v>
+        <v>812354.0489642186</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-162389.3962515611</v>
+        <v>-54351.39429967327</v>
       </c>
       <c r="E32" t="n">
-        <v>-5363.990726044431</v>
+        <v>758002.6546645453</v>
       </c>
     </row>
   </sheetData>
@@ -5641,16 +5641,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-65180.3570105918</v>
+        <v>-633973.6346516007</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>100547.7132159775</v>
+        <v>225456.6878777682</v>
       </c>
       <c r="E2" t="n">
-        <v>35367.35620538567</v>
+        <v>-408516.9467738325</v>
       </c>
     </row>
     <row r="3">
@@ -5658,16 +5658,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-57773.49825938819</v>
+        <v>-585762.7118644067</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>92598.81011879287</v>
+        <v>218768.7484918976</v>
       </c>
       <c r="E3" t="n">
-        <v>34825.31185940468</v>
+        <v>-366993.9633725091</v>
       </c>
     </row>
     <row r="4">
@@ -5675,16 +5675,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-50366.63950818458</v>
+        <v>-537551.7890772128</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>82641.38065696496</v>
+        <v>209583.069123857</v>
       </c>
       <c r="E4" t="n">
-        <v>32274.74114878038</v>
+        <v>-327968.7199533558</v>
       </c>
     </row>
     <row r="5">
@@ -5692,16 +5692,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-42959.78075698097</v>
+        <v>-489340.8662900188</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>70891.7213699547</v>
+        <v>197935.5578485751</v>
       </c>
       <c r="E5" t="n">
-        <v>27931.94061297373</v>
+        <v>-291405.3084414437</v>
       </c>
     </row>
     <row r="6">
@@ -5709,16 +5709,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>-35552.92200577736</v>
+        <v>-441129.9435028248</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>57674.89810070835</v>
+        <v>184085.0003285437</v>
       </c>
       <c r="E6" t="n">
-        <v>22121.97609493099</v>
+        <v>-257044.9431742812</v>
       </c>
     </row>
     <row r="7">
@@ -5726,16 +5726,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-28146.06325457374</v>
+        <v>-392919.0207156308</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>43373.5274845883</v>
+        <v>168453.9797890018</v>
       </c>
       <c r="E7" t="n">
-        <v>15227.46423001456</v>
+        <v>-224465.040926629</v>
       </c>
     </row>
     <row r="8">
@@ -5743,16 +5743,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-20739.20450337013</v>
+        <v>-344708.0979284369</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>28383.46763121887</v>
+        <v>151557.4648232217</v>
       </c>
       <c r="E8" t="n">
-        <v>7644.263127848742</v>
+        <v>-193150.6331052152</v>
       </c>
     </row>
     <row r="9">
@@ -5760,16 +5760,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-13332.34575216651</v>
+        <v>-296497.1751412429</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>13080.5087479772</v>
+        <v>133935.8939658841</v>
       </c>
       <c r="E9" t="n">
-        <v>-251.8370041893068</v>
+        <v>-162561.2811753587</v>
       </c>
     </row>
     <row r="10">
@@ -5777,16 +5777,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-5925.487000962897</v>
+        <v>-248286.2523540489</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-2201.40988261337</v>
+        <v>116102.2800299371</v>
       </c>
       <c r="E10" t="n">
-        <v>-8126.896883576267</v>
+        <v>-132183.9723241118</v>
       </c>
     </row>
     <row r="11">
@@ -5794,16 +5794,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>1481.371750240718</v>
+        <v>-200075.3295668549</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-17181.91169151365</v>
+        <v>98506.58196884955</v>
       </c>
       <c r="E11" t="n">
-        <v>-15700.53994127293</v>
+        <v>-101568.7475980054</v>
       </c>
     </row>
     <row r="12">
@@ -5811,16 +5811,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>8888.230501444332</v>
+        <v>-151864.406779661</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-31638.0852961578</v>
+        <v>81516.40326227281</v>
       </c>
       <c r="E12" t="n">
-        <v>-22749.85479471347</v>
+        <v>-70348.00351738815</v>
       </c>
     </row>
     <row r="13">
@@ -5828,16 +5828,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>16295.08925264795</v>
+        <v>-103653.483992467</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-45402.91837106035</v>
+        <v>65410.90633962794</v>
       </c>
       <c r="E13" t="n">
-        <v>-29107.82911841241</v>
+        <v>-38242.57765283906</v>
       </c>
     </row>
     <row r="14">
@@ -5845,16 +5845,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>23701.94800385156</v>
+        <v>-55442.56120527301</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-58360.30694892153</v>
+        <v>50384.1554881382</v>
       </c>
       <c r="E14" t="n">
-        <v>-34658.35894506997</v>
+        <v>-5058.40571713481</v>
       </c>
     </row>
     <row r="15">
@@ -5862,16 +5862,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>31108.80675505518</v>
+        <v>-7231.638418079028</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-70438.24592716042</v>
+        <v>36554.32835828871</v>
       </c>
       <c r="E15" t="n">
-        <v>-39329.43917210524</v>
+        <v>29322.68994020968</v>
       </c>
     </row>
     <row r="16">
@@ -5879,16 +5879,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>38515.66550625879</v>
+        <v>40979.28436911495</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-81601.36141158303</v>
+        <v>23975.89672365023</v>
       </c>
       <c r="E16" t="n">
-        <v>-43085.69590532424</v>
+        <v>64955.18109276517</v>
       </c>
     </row>
     <row r="17">
@@ -5896,16 +5896,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>45922.52425746241</v>
+        <v>89190.20715630893</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-91843.55893286451</v>
+        <v>12652.65676630469</v>
       </c>
       <c r="E17" t="n">
-        <v>-45921.03467540211</v>
+        <v>101842.8639226136</v>
       </c>
     </row>
     <row r="18">
@@ -5913,16 +5913,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>53329.38300866602</v>
+        <v>137401.1299435029</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-101181.2563101951</v>
+        <v>2550.211652729966</v>
       </c>
       <c r="E18" t="n">
-        <v>-47851.87330152911</v>
+        <v>139951.3415962329</v>
       </c>
     </row>
     <row r="19">
@@ -5930,16 +5930,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>60736.24175986964</v>
+        <v>185612.0527306969</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-109647.4455493824</v>
+        <v>-6392.903637005635</v>
       </c>
       <c r="E19" t="n">
-        <v>-48911.20378951275</v>
+        <v>179219.1490936913</v>
       </c>
     </row>
     <row r="20">
@@ -5947,16 +5947,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>68143.10051107325</v>
+        <v>233822.9755178909</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-117286.6734639715</v>
+        <v>-14255.8312826327</v>
       </c>
       <c r="E20" t="n">
-        <v>-49143.57295289823</v>
+        <v>219567.1442352582</v>
       </c>
     </row>
     <row r="21">
@@ -5964,16 +5964,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>75549.95926227687</v>
+        <v>282033.8983050848</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-124150.93109411</v>
+        <v>-21127.81489942766</v>
       </c>
       <c r="E21" t="n">
-        <v>-48600.97183183317</v>
+        <v>260906.0834056572</v>
       </c>
     </row>
     <row r="22">
@@ -5981,16 +5981,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>82956.81801348049</v>
+        <v>330244.8210922789</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-130296.3832617347</v>
+        <v>-27102.33866882113</v>
       </c>
       <c r="E22" t="n">
-        <v>-47339.56524825422</v>
+        <v>303142.4824234577</v>
       </c>
     </row>
     <row r="23">
@@ -5998,16 +5998,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>90363.67676468409</v>
+        <v>378455.7438794728</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-135780.8396085289</v>
+        <v>-32272.78249408911</v>
       </c>
       <c r="E23" t="n">
-        <v>-45417.16284384477</v>
+        <v>346182.9613853837</v>
       </c>
     </row>
     <row r="24">
@@ -6015,16 +6015,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>97770.53551588771</v>
+        <v>426666.6666666668</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-140661.8576351402</v>
+        <v>-36729.35362493487</v>
       </c>
       <c r="E24" t="n">
-        <v>-42891.32211925245</v>
+        <v>389937.3130417319</v>
       </c>
     </row>
     <row r="25">
@@ -6032,16 +6032,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>105177.3942670913</v>
+        <v>474877.5894538608</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-144995.3694488138</v>
+        <v>-40557.05137196693</v>
       </c>
       <c r="E25" t="n">
-        <v>-39817.97518172246</v>
+        <v>434320.5380818938</v>
       </c>
     </row>
     <row r="26">
@@ -6049,16 +6049,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>112584.2530182949</v>
+        <v>523088.5122410548</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-148834.7320424664</v>
+        <v>-43834.43920685178</v>
       </c>
       <c r="E26" t="n">
-        <v>-36250.47902417144</v>
+        <v>479254.073034203</v>
       </c>
     </row>
     <row r="27">
@@ -6066,16 +6066,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>119991.1117694986</v>
+        <v>571299.4350282487</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-152230.1125029825</v>
+        <v>-46633.02698472875</v>
       </c>
       <c r="E27" t="n">
-        <v>-32239.00073348399</v>
+        <v>524666.4080435199</v>
       </c>
     </row>
     <row r="28">
@@ -6083,16 +6083,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>127397.9705207022</v>
+        <v>619510.3578154427</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-155228.1323247135</v>
+        <v>-49017.09821051478</v>
       </c>
       <c r="E28" t="n">
-        <v>-27830.16180401132</v>
+        <v>570493.259604928</v>
       </c>
     </row>
     <row r="29">
@@ -6100,16 +6100,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>134804.8292719058</v>
+        <v>667721.2806026367</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-157871.7076015077</v>
+        <v>-51043.84892760673</v>
       </c>
       <c r="E29" t="n">
-        <v>-23066.8783296019</v>
+        <v>616677.43167503</v>
       </c>
     </row>
     <row r="30">
@@ -6117,16 +6117,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>142211.6880231094</v>
+        <v>715932.2033898307</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-160200.0335047773</v>
+        <v>-52763.73358980349</v>
       </c>
       <c r="E30" t="n">
-        <v>-17988.34548166787</v>
+        <v>663168.4698000272</v>
       </c>
     </row>
     <row r="31">
@@ -6134,16 +6134,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>149618.546774313</v>
+        <v>764143.1261770247</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-162248.6717451704</v>
+        <v>-54220.93811703798</v>
       </c>
       <c r="E31" t="n">
-        <v>-12630.12497085737</v>
+        <v>709922.1880599867</v>
       </c>
     </row>
     <row r="32">
@@ -6151,16 +6151,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>157025.4055255166</v>
+        <v>812354.0489642186</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-164049.7085358819</v>
+        <v>-55453.92096490858</v>
       </c>
       <c r="E32" t="n">
-        <v>-7024.303010365256</v>
+        <v>756900.12799931</v>
       </c>
     </row>
   </sheetData>
@@ -6214,16 +6214,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-65180.3570105918</v>
+        <v>-633973.6346516007</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>105880.5374477173</v>
+        <v>229782.6615035484</v>
       </c>
       <c r="E2" t="n">
-        <v>40700.18043712553</v>
+        <v>-404190.9731480523</v>
       </c>
     </row>
     <row r="3">
@@ -6231,16 +6231,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-57773.49825938819</v>
+        <v>-585762.7118644067</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>99148.16338908399</v>
+        <v>224573.0311613039</v>
       </c>
       <c r="E3" t="n">
-        <v>41374.66512969579</v>
+        <v>-361189.6807031028</v>
       </c>
     </row>
     <row r="4">
@@ -6248,16 +6248,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-50366.63950818458</v>
+        <v>-537551.7890772128</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>90102.74501558591</v>
+        <v>216739.1465717233</v>
       </c>
       <c r="E4" t="n">
-        <v>39736.10550740133</v>
+        <v>-320812.6425054895</v>
       </c>
     </row>
     <row r="5">
@@ -6265,16 +6265,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-42959.78075698097</v>
+        <v>-489340.8662900188</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>78822.20798763353</v>
+        <v>206065.9262221711</v>
       </c>
       <c r="E5" t="n">
-        <v>35862.42723065257</v>
+        <v>-283274.9400678477</v>
       </c>
     </row>
     <row r="6">
@@ -6282,16 +6282,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>-35552.92200577736</v>
+        <v>-441129.9435028248</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>65570.56429215134</v>
+        <v>192635.615172949</v>
       </c>
       <c r="E6" t="n">
-        <v>30017.64228637398</v>
+        <v>-248494.3283298758</v>
       </c>
     </row>
     <row r="7">
@@ -6299,16 +6299,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-28146.06325457374</v>
+        <v>-392919.0207156308</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>50741.91487923148</v>
+        <v>176798.1663642919</v>
       </c>
       <c r="E7" t="n">
-        <v>22595.85162465774</v>
+        <v>-216120.854351339</v>
       </c>
     </row>
     <row r="8">
@@ -6316,16 +6316,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-20739.20450337013</v>
+        <v>-344708.0979284369</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>34798.74520488197</v>
+        <v>159096.8535786097</v>
       </c>
       <c r="E8" t="n">
-        <v>14059.54070151184</v>
+        <v>-185611.2443498272</v>
       </c>
     </row>
     <row r="9">
@@ -6333,16 +6333,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-13332.34575216651</v>
+        <v>-296497.1751412429</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>18216.92670872298</v>
+        <v>140177.0516311495</v>
       </c>
       <c r="E9" t="n">
-        <v>4884.58095655647</v>
+        <v>-156320.1235100933</v>
       </c>
     </row>
     <row r="10">
@@ -6350,16 +6350,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-5925.487000962897</v>
+        <v>-248286.2523540489</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1443.692842905482</v>
+        <v>120700.6191831202</v>
       </c>
       <c r="E10" t="n">
-        <v>-4481.794158057414</v>
+        <v>-127585.6331709287</v>
       </c>
     </row>
     <row r="11">
@@ -6367,16 +6367,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>1481.371750240718</v>
+        <v>-200075.3295668549</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-15129.88803170788</v>
+        <v>101279.114120199</v>
       </c>
       <c r="E11" t="n">
-        <v>-13648.51628146716</v>
+        <v>-98796.21544665593</v>
       </c>
     </row>
     <row r="12">
@@ -6384,16 +6384,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>8888.230501444332</v>
+        <v>-151864.406779661</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-31183.34284387525</v>
+        <v>82430.50920611332</v>
       </c>
       <c r="E12" t="n">
-        <v>-22295.11234243091</v>
+        <v>-69433.89757354764</v>
       </c>
     </row>
     <row r="13">
@@ -6401,16 +6401,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>16295.08925264795</v>
+        <v>-103653.483992467</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-46470.89685842761</v>
+        <v>64558.08882557384</v>
       </c>
       <c r="E13" t="n">
-        <v>-30175.80760577966</v>
+        <v>-39095.39516689315</v>
       </c>
     </row>
     <row r="14">
@@ -6418,16 +6418,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>23701.94800385156</v>
+        <v>-55442.56120527301</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-60818.32602813763</v>
+        <v>47947.02194835905</v>
       </c>
       <c r="E14" t="n">
-        <v>-37116.37802428607</v>
+        <v>-7495.539256913966</v>
       </c>
     </row>
     <row r="15">
@@ -6435,16 +6435,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>31108.80675505518</v>
+        <v>-7231.638418079028</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-74115.33813257419</v>
+        <v>32773.11214491532</v>
       </c>
       <c r="E15" t="n">
-        <v>-43006.53137751902</v>
+        <v>25541.4737268363</v>
       </c>
     </row>
     <row r="16">
@@ -6452,16 +6452,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>38515.66550625879</v>
+        <v>40979.28436911495</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-86305.7011926914</v>
+        <v>19118.60084750874</v>
       </c>
       <c r="E16" t="n">
-        <v>-47790.03568643261</v>
+        <v>60097.88521662368</v>
       </c>
     </row>
     <row r="17">
@@ -6469,16 +6469,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>45922.52425746241</v>
+        <v>89190.20715630893</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-97376.72601518311</v>
+        <v>6990.935591145833</v>
       </c>
       <c r="E17" t="n">
-        <v>-51454.20175772071</v>
+        <v>96181.14274745475</v>
       </c>
     </row>
     <row r="18">
@@ -6486,16 +6486,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>53329.38300866602</v>
+        <v>137401.1299435029</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-107349.1609819011</v>
+        <v>-3658.3787818038</v>
       </c>
       <c r="E18" t="n">
-        <v>-54019.77797323511</v>
+        <v>133742.7511616991</v>
       </c>
     </row>
     <row r="19">
@@ -6503,16 +6503,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>60736.24175986964</v>
+        <v>185612.0527306969</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-116268.1177342889</v>
+        <v>-12916.62946152728</v>
       </c>
       <c r="E19" t="n">
-        <v>-55531.87597441923</v>
+        <v>172695.4232691696</v>
       </c>
     </row>
     <row r="20">
@@ -6520,16 +6520,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>68143.10051107325</v>
+        <v>233822.9755178909</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-124195.3230573271</v>
+        <v>-20895.35955962287</v>
       </c>
       <c r="E20" t="n">
-        <v>-56052.22254625382</v>
+        <v>212927.615958268</v>
       </c>
     </row>
     <row r="21">
@@ -6537,16 +6537,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>75549.95926227687</v>
+        <v>282033.8983050848</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-131202.7719862816</v>
+        <v>-27718.74287183958</v>
       </c>
       <c r="E21" t="n">
-        <v>-55652.81272400475</v>
+        <v>254315.1554332453</v>
       </c>
     </row>
     <row r="22">
@@ -6554,16 +6554,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>82956.81801348049</v>
+        <v>330244.8210922789</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-137367.719321399</v>
+        <v>-33514.77130472953</v>
       </c>
       <c r="E22" t="n">
-        <v>-54410.90130791851</v>
+        <v>296730.0497875494</v>
       </c>
     </row>
     <row r="23">
@@ -6571,16 +6571,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>90363.67676468409</v>
+        <v>378455.7438794728</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-142768.8700483979</v>
+        <v>-38408.93667578523</v>
       </c>
       <c r="E23" t="n">
-        <v>-52405.19328371377</v>
+        <v>340046.8072036876</v>
       </c>
     </row>
     <row r="24">
@@ -6588,16 +6588,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>97770.53551588771</v>
+        <v>426666.6666666668</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-147483.5949646329</v>
+        <v>-42519.99248917487</v>
       </c>
       <c r="E24" t="n">
-        <v>-49713.05944874523</v>
+        <v>384146.6741774919</v>
       </c>
     </row>
     <row r="25">
@@ -6605,16 +6605,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>105177.3942670913</v>
+        <v>474877.5894538608</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-151585.9912291743</v>
+        <v>-45957.36567673023</v>
       </c>
       <c r="E25" t="n">
-        <v>-46408.59696208293</v>
+        <v>428920.2237771305</v>
       </c>
     </row>
     <row r="26">
@@ -6622,16 +6622,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>112584.2530182949</v>
+        <v>523088.5122410548</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-155145.6175153395</v>
+        <v>-48819.81966318082</v>
       </c>
       <c r="E26" t="n">
-        <v>-42561.36449704452</v>
+        <v>474268.6925778739</v>
       </c>
     </row>
     <row r="27">
@@ -6639,16 +6639,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>119991.1117694986</v>
+        <v>571299.4350282487</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-158226.7521575232</v>
+        <v>-51195.02472990549</v>
       </c>
       <c r="E27" t="n">
-        <v>-38235.64038802462</v>
+        <v>520104.4102983432</v>
       </c>
     </row>
     <row r="28">
@@ -6656,16 +6656,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>127397.9705207022</v>
+        <v>619510.3578154427</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-160888.0449668633</v>
+        <v>-53159.75396839541</v>
       </c>
       <c r="E28" t="n">
-        <v>-33490.0744461611</v>
+        <v>566350.6038470473</v>
       </c>
     </row>
     <row r="29">
@@ -6673,16 +6673,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>134804.8292719058</v>
+        <v>667721.2806026367</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-163182.4560011076</v>
+        <v>-54780.48381212479</v>
       </c>
       <c r="E29" t="n">
-        <v>-28377.62672920185</v>
+        <v>612940.7967905119</v>
       </c>
     </row>
     <row r="30">
@@ -6690,16 +6690,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>142211.6880231094</v>
+        <v>715932.2033898307</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-165157.3956487663</v>
+        <v>-56114.23227720273</v>
       </c>
       <c r="E30" t="n">
-        <v>-22945.70762565691</v>
+        <v>659817.9711126279</v>
       </c>
     </row>
     <row r="31">
@@ -6707,16 +6707,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>149618.546774313</v>
+        <v>764143.1261770247</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-166854.9989926266</v>
+        <v>-57209.51357529206</v>
       </c>
       <c r="E31" t="n">
-        <v>-17236.45221831361</v>
+        <v>706933.6126017326</v>
       </c>
     </row>
     <row r="32">
@@ -6724,16 +6724,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>157025.4055255166</v>
+        <v>812354.0489642186</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-168312.4832178185</v>
+        <v>-58107.32439331147</v>
       </c>
       <c r="E32" t="n">
-        <v>-11287.07769230183</v>
+        <v>754246.7245709071</v>
       </c>
     </row>
   </sheetData>
@@ -6787,16 +6787,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-65180.3570105918</v>
+        <v>-633973.6346516007</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>110603.6192847961</v>
+        <v>233286.7117543728</v>
       </c>
       <c r="E2" t="n">
-        <v>45423.26227420426</v>
+        <v>-400686.9228972279</v>
       </c>
     </row>
     <row r="3">
@@ -6804,16 +6804,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-57773.49825938819</v>
+        <v>-585762.7118644067</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>105433.17115131</v>
+        <v>229718.4586267752</v>
       </c>
       <c r="E3" t="n">
-        <v>47659.67289192178</v>
+        <v>-356044.2532376315</v>
       </c>
     </row>
     <row r="4">
@@ -6821,16 +6821,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-50366.63950818458</v>
+        <v>-537551.7890772128</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>97766.61622934276</v>
+        <v>223629.1223906567</v>
       </c>
       <c r="E4" t="n">
-        <v>47399.97672115819</v>
+        <v>-313922.6666865561</v>
       </c>
     </row>
     <row r="5">
@@ -6838,16 +6838,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-42959.78075698097</v>
+        <v>-489340.8662900188</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>87430.24798760063</v>
+        <v>214456.0443069446</v>
       </c>
       <c r="E5" t="n">
-        <v>44470.46723061966</v>
+        <v>-274884.8219830742</v>
       </c>
     </row>
     <row r="6">
@@ -6855,16 +6855,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>-35552.92200577736</v>
+        <v>-441129.9435028248</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>74520.74060281072</v>
+        <v>201961.843017133</v>
       </c>
       <c r="E6" t="n">
-        <v>38967.81859703337</v>
+        <v>-239168.1004856919</v>
       </c>
     </row>
     <row r="7">
@@ -6872,16 +6872,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-28146.06325457374</v>
+        <v>-392919.0207156308</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>59372.36428642279</v>
+        <v>186291.1418024075</v>
       </c>
       <c r="E7" t="n">
-        <v>31226.30103184905</v>
+        <v>-206627.8789132233</v>
       </c>
     </row>
     <row r="8">
@@ -6889,16 +6889,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-20739.20450337013</v>
+        <v>-344708.0979284369</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>42487.74389853467</v>
+        <v>167933.4590127063</v>
       </c>
       <c r="E8" t="n">
-        <v>21748.53939516454</v>
+        <v>-176774.6389157306</v>
       </c>
     </row>
     <row r="9">
@@ -6906,16 +6906,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-13332.34575216651</v>
+        <v>-296497.1751412429</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>24456.5403252477</v>
+        <v>147621.1422659357</v>
       </c>
       <c r="E9" t="n">
-        <v>11124.19457308119</v>
+        <v>-148876.0328753071</v>
       </c>
     </row>
     <row r="10">
@@ -6923,16 +6923,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-5925.487000962897</v>
+        <v>-248286.2523540489</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>5880.691726305849</v>
+        <v>126201.8899414355</v>
       </c>
       <c r="E10" t="n">
-        <v>-44.79527465704723</v>
+        <v>-122084.3624126134</v>
       </c>
     </row>
     <row r="11">
@@ -6940,16 +6940,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>1481.371750240718</v>
+        <v>-200075.3295668549</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-12683.27817163122</v>
+        <v>104519.6262547488</v>
       </c>
       <c r="E11" t="n">
-        <v>-11201.9064213905</v>
+        <v>-95555.70331210614</v>
       </c>
     </row>
     <row r="12">
@@ -6957,16 +6957,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>8888.230501444332</v>
+        <v>-151864.406779661</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-30761.52093565654</v>
+        <v>83324.21111510748</v>
       </c>
       <c r="E12" t="n">
-        <v>-21873.29043421221</v>
+        <v>-68540.19566455348</v>
       </c>
     </row>
     <row r="13">
@@ -6974,16 +6974,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>16295.08925264795</v>
+        <v>-103653.483992467</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-47981.15011840944</v>
+        <v>63217.04825540693</v>
       </c>
       <c r="E13" t="n">
-        <v>-31686.06086576149</v>
+        <v>-40436.43573706006</v>
       </c>
     </row>
     <row r="14">
@@ -6991,16 +6991,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>23701.94800385156</v>
+        <v>-55442.56120527301</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-64073.49071127096</v>
+        <v>44629.9576082134</v>
       </c>
       <c r="E14" t="n">
-        <v>-40371.54270741939</v>
+        <v>-10812.60359705961</v>
       </c>
     </row>
     <row r="15">
@@ -7008,16 +7008,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>31108.80675505518</v>
+        <v>-7231.638418079028</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-78866.94328735169</v>
+        <v>27829.54788697731</v>
       </c>
       <c r="E15" t="n">
-        <v>-47758.13653229651</v>
+        <v>20597.90946889829</v>
       </c>
     </row>
     <row r="16">
@@ -7025,16 +7025,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>38515.66550625879</v>
+        <v>40979.28436911495</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-92273.75265706214</v>
+        <v>12937.91916597747</v>
       </c>
       <c r="E16" t="n">
-        <v>-53758.08715080335</v>
+        <v>53917.20353509242</v>
       </c>
     </row>
     <row r="17">
@@ -7042,16 +7042,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>45922.52425746241</v>
+        <v>89190.20715630893</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-104274.1012754697</v>
+        <v>-38.54818654972769</v>
       </c>
       <c r="E17" t="n">
-        <v>-58351.57701800732</v>
+        <v>89151.6589697592</v>
       </c>
     </row>
     <row r="18">
@@ -7059,16 +7059,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>53329.38300866602</v>
+        <v>137401.1299435029</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-114899.9547801178</v>
+        <v>-11178.56816373609</v>
       </c>
       <c r="E18" t="n">
-        <v>-61570.57177145177</v>
+        <v>126222.5617797668</v>
       </c>
     </row>
     <row r="19">
@@ -7076,16 +7076,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>60736.24175986964</v>
+        <v>185612.0527306969</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-124220.186410149</v>
+        <v>-20617.55656366171</v>
       </c>
       <c r="E19" t="n">
-        <v>-63483.94465027938</v>
+        <v>164994.4961670352</v>
       </c>
     </row>
     <row r="20">
@@ -7093,16 +7093,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>68143.10051107325</v>
+        <v>233822.9755178909</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-132327.791491436</v>
+        <v>-28523.65747842328</v>
       </c>
       <c r="E20" t="n">
-        <v>-64184.69098036279</v>
+        <v>205299.3180394676</v>
       </c>
     </row>
     <row r="21">
@@ -7110,16 +7110,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>75549.95926227687</v>
+        <v>282033.8983050848</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-139329.4895956443</v>
+        <v>-35078.9766129511</v>
       </c>
       <c r="E21" t="n">
-        <v>-63779.53033336742</v>
+        <v>246954.9216921338</v>
       </c>
     </row>
     <row r="22">
@@ -7127,16 +7127,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>82956.81801348049</v>
+        <v>330244.8210922789</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-145337.6777933598</v>
+        <v>-40465.89936361162</v>
       </c>
       <c r="E22" t="n">
-        <v>-62380.85977987931</v>
+        <v>289778.9217286672</v>
       </c>
     </row>
     <row r="23">
@@ -7144,16 +7144,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>90363.67676468409</v>
+        <v>378455.7438794728</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-150464.5055975481</v>
+        <v>-44857.86589860417</v>
       </c>
       <c r="E23" t="n">
-        <v>-60100.828832864</v>
+        <v>333597.8779808687</v>
       </c>
     </row>
     <row r="24">
@@ -7161,16 +7161,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>97770.53551588771</v>
+        <v>426666.6666666668</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-154817.7511814502</v>
+        <v>-48413.76281012585</v>
       </c>
       <c r="E24" t="n">
-        <v>-57047.2156655625</v>
+        <v>378252.903856541</v>
       </c>
     </row>
     <row r="25">
@@ -7178,16 +7178,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>105177.3942670913</v>
+        <v>474877.5894538608</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-158498.1549235682</v>
+        <v>-51275.06728527595</v>
       </c>
       <c r="E25" t="n">
-        <v>-53320.76065647689</v>
+        <v>423602.5221685848</v>
       </c>
     </row>
     <row r="26">
@@ -7195,16 +7195,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>112584.2530182949</v>
+        <v>523088.5122410548</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-161597.8835089396</v>
+        <v>-53564.96266393407</v>
       </c>
       <c r="E26" t="n">
-        <v>-49013.6304906447</v>
+        <v>469523.5495771207</v>
       </c>
     </row>
     <row r="27">
@@ -7212,16 +7212,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>119991.1117694986</v>
+        <v>571299.4350282487</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-164199.8364305071</v>
+        <v>-55388.77536039332</v>
       </c>
       <c r="E27" t="n">
-        <v>-44208.72466100857</v>
+        <v>515910.6596678554</v>
       </c>
     </row>
     <row r="28">
@@ -7229,16 +7229,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>127397.9705207022</v>
+        <v>619510.3578154427</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-166377.5538820786</v>
+        <v>-56835.22520933086</v>
       </c>
       <c r="E28" t="n">
-        <v>-38979.5833613764</v>
+        <v>562675.1326061118</v>
       </c>
     </row>
     <row r="29">
@@ -7246,16 +7246,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>134804.8292719058</v>
+        <v>667721.2806026367</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-168195.5327180296</v>
+        <v>-57978.11329639033</v>
       </c>
       <c r="E29" t="n">
-        <v>-33390.70344612381</v>
+        <v>609743.1673062465</v>
       </c>
     </row>
     <row r="30">
@@ -7263,16 +7263,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>142211.6880231094</v>
+        <v>715932.2033898307</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-169709.8008998085</v>
+        <v>-58878.18334743209</v>
       </c>
       <c r="E30" t="n">
-        <v>-27498.11287669907</v>
+        <v>657054.0200423986</v>
       </c>
     </row>
     <row r="31">
@@ -7280,16 +7280,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>149618.546774313</v>
+        <v>764143.1261770247</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-170968.6385534584</v>
+        <v>-59584.98189949289</v>
       </c>
       <c r="E31" t="n">
-        <v>-21350.09177914535</v>
+        <v>704558.1442775318</v>
       </c>
     </row>
     <row r="32">
@@ -7297,16 +7297,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>157025.4055255166</v>
+        <v>812354.0489642186</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-172013.3648198338</v>
+        <v>-60138.60985255243</v>
       </c>
       <c r="E32" t="n">
-        <v>-14987.9592943172</v>
+        <v>752215.4391116662</v>
       </c>
     </row>
   </sheetData>
@@ -7360,16 +7360,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-65180.3570105918</v>
+        <v>-633973.6346516007</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>114241.0904038053</v>
+        <v>235722.9875556832</v>
       </c>
       <c r="E2" t="n">
-        <v>49060.73339321351</v>
+        <v>-398250.6470959175</v>
       </c>
     </row>
     <row r="3">
@@ -7377,16 +7377,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-57773.49825938819</v>
+        <v>-585762.7118644067</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>110814.6493388006</v>
+        <v>233699.8553744814</v>
       </c>
       <c r="E3" t="n">
-        <v>53041.15107941244</v>
+        <v>-352062.8564899254</v>
       </c>
     </row>
     <row r="4">
@@ -7394,16 +7394,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-50366.63950818458</v>
+        <v>-537551.7890772128</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>104974.3068770352</v>
+        <v>229577.4191437631</v>
       </c>
       <c r="E4" t="n">
-        <v>54607.66736885066</v>
+        <v>-307974.3699334497</v>
       </c>
     </row>
     <row r="5">
@@ -7411,16 +7411,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-42959.78075698097</v>
+        <v>-489340.8662900188</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>96180.76310485619</v>
+        <v>222427.6687022478</v>
       </c>
       <c r="E5" t="n">
-        <v>53220.98234787522</v>
+        <v>-266913.1975877709</v>
       </c>
     </row>
     <row r="6">
@@ -7428,16 +7428,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>-35552.92200577736</v>
+        <v>-441129.9435028248</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>84201.1270709548</v>
+        <v>211543.3346166581</v>
       </c>
       <c r="E6" t="n">
-        <v>48648.20506517744</v>
+        <v>-229586.6088861667</v>
       </c>
     </row>
     <row r="7">
@@ -7445,16 +7445,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-28146.06325457374</v>
+        <v>-392919.0207156308</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>69162.31514101429</v>
+        <v>196654.4237075048</v>
       </c>
       <c r="E7" t="n">
-        <v>41016.25188644055</v>
+        <v>-196264.597008126</v>
       </c>
     </row>
     <row r="8">
@@ -7462,16 +7462,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-20739.20450337013</v>
+        <v>-344708.0979284369</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>51517.05489496405</v>
+        <v>178017.6349601682</v>
       </c>
       <c r="E8" t="n">
-        <v>30777.85039159393</v>
+        <v>-166690.4629682687</v>
       </c>
     </row>
     <row r="9">
@@ -7479,16 +7479,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-13332.34575216651</v>
+        <v>-296497.1751412429</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>31949.48826373547</v>
+        <v>156362.6058199927</v>
       </c>
       <c r="E9" t="n">
-        <v>18617.14251156896</v>
+        <v>-140134.5693212502</v>
       </c>
     </row>
     <row r="10">
@@ -7496,16 +7496,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-5925.487000962897</v>
+        <v>-248286.2523540489</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>11256.89581590111</v>
+        <v>132735.1005007553</v>
       </c>
       <c r="E10" t="n">
-        <v>5331.408814938212</v>
+        <v>-115551.1518532936</v>
       </c>
     </row>
     <row r="11">
@@ -7513,16 +7513,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>1481.371750240718</v>
+        <v>-200075.3295668549</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-9761.376784759828</v>
+        <v>108300.8755300093</v>
       </c>
       <c r="E11" t="n">
-        <v>-8280.00503451911</v>
+        <v>-91774.45403684567</v>
       </c>
     </row>
     <row r="12">
@@ -7530,16 +7530,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>8888.230501444332</v>
+        <v>-151864.406779661</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-30388.87711770296</v>
+        <v>84167.14563440546</v>
       </c>
       <c r="E12" t="n">
-        <v>-21500.64661625863</v>
+        <v>-67697.2611452555</v>
       </c>
     </row>
     <row r="13">
@@ -7547,16 +7547,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>16295.08925264795</v>
+        <v>-103653.483992467</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-50044.20298494287</v>
+        <v>61255.82491217393</v>
       </c>
       <c r="E13" t="n">
-        <v>-33749.11373229493</v>
+        <v>-42397.65908029307</v>
       </c>
     </row>
     <row r="14">
@@ -7564,16 +7564,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>23701.94800385156</v>
+        <v>-55442.56120527301</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-68302.52013154059</v>
+        <v>40238.43291491111</v>
       </c>
       <c r="E14" t="n">
-        <v>-44600.57212768903</v>
+        <v>-15204.12829036191</v>
       </c>
     </row>
     <row r="15">
@@ -7581,16 +7581,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>31108.80675505518</v>
+        <v>-7231.638418079028</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-84893.33203727745</v>
+        <v>21525.08689269781</v>
       </c>
       <c r="E15" t="n">
-        <v>-53784.52528222227</v>
+        <v>14293.44847461878</v>
       </c>
     </row>
     <row r="16">
@@ -7598,16 +7598,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>38515.66550625879</v>
+        <v>40979.28436911495</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-99682.76248929527</v>
+        <v>5291.480392372065</v>
       </c>
       <c r="E16" t="n">
-        <v>-61167.09698303648</v>
+        <v>46270.76476148701</v>
       </c>
     </row>
     <row r="17">
@@ -7615,16 +7615,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>45922.52425746241</v>
+        <v>89190.20715630893</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-112647.8617402425</v>
+        <v>-8473.510621801481</v>
       </c>
       <c r="E17" t="n">
-        <v>-66725.3374827801</v>
+        <v>80716.69653450744</v>
       </c>
     </row>
     <row r="18">
@@ -7632,16 +7632,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>53329.38300866602</v>
+        <v>137401.1299435029</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-123848.7069826745</v>
+        <v>-19913.93015429915</v>
       </c>
       <c r="E18" t="n">
-        <v>-70519.32397400844</v>
+        <v>117487.1997892038</v>
       </c>
     </row>
     <row r="19">
@@ -7649,16 +7649,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>60736.24175986964</v>
+        <v>185612.0527306969</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-133402.1273364944</v>
+        <v>-29256.26754063981</v>
       </c>
       <c r="E19" t="n">
-        <v>-72665.8855766248</v>
+        <v>156355.7851900571</v>
       </c>
     </row>
     <row r="20">
@@ -7666,16 +7666,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>68143.10051107325</v>
+        <v>233822.9755178909</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-141459.1837096253</v>
+        <v>-36767.66511499447</v>
       </c>
       <c r="E20" t="n">
-        <v>-73316.08319855202</v>
+        <v>197055.3104028964</v>
       </c>
     </row>
     <row r="21">
@@ -7683,16 +7683,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>75549.95926227687</v>
+        <v>282033.8983050848</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-148187.2515089307</v>
+        <v>-42724.62775195061</v>
       </c>
       <c r="E21" t="n">
-        <v>-72637.29224665383</v>
+        <v>239309.2705531342</v>
       </c>
     </row>
     <row r="22">
@@ -7700,16 +7700,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>82956.81801348049</v>
+        <v>330244.8210922789</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-153756.7023091977</v>
+        <v>-47391.82647683361</v>
       </c>
       <c r="E22" t="n">
-        <v>-70799.8842957172</v>
+        <v>282852.9946154453</v>
       </c>
     </row>
     <row r="23">
@@ -7717,16 +7717,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>90363.67676468409</v>
+        <v>378455.7438794728</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-158331.6909069899</v>
+        <v>-51009.413817425</v>
       </c>
       <c r="E23" t="n">
-        <v>-67968.01414230582</v>
+        <v>327446.3300620478</v>
       </c>
     </row>
     <row r="24">
@@ -7734,16 +7734,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>97770.53551588771</v>
+        <v>426666.6666666668</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-162064.3317976384</v>
+        <v>-53786.85491117935</v>
       </c>
       <c r="E24" t="n">
-        <v>-64293.79628175068</v>
+        <v>372879.8117554875</v>
       </c>
     </row>
     <row r="25">
@@ -7751,16 +7751,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>105177.3942670913</v>
+        <v>474877.5894538608</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-165091.5031044592</v>
+        <v>-55901.33410477221</v>
       </c>
       <c r="E25" t="n">
-        <v>-59914.10883736788</v>
+        <v>418976.2553490886</v>
       </c>
     </row>
     <row r="26">
@@ -7768,16 +7768,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>112584.2530182949</v>
+        <v>523088.5122410548</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-167533.5728323482</v>
+        <v>-57499.09072439223</v>
       </c>
       <c r="E26" t="n">
-        <v>-54949.31981405323</v>
+        <v>465589.4215166626</v>
       </c>
     </row>
     <row r="27">
@@ -7785,16 +7785,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>119991.1117694986</v>
+        <v>571299.4350282487</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-169494.4489726804</v>
+        <v>-58698.41278332517</v>
       </c>
       <c r="E27" t="n">
-        <v>-49503.33720318187</v>
+        <v>512601.0222449235</v>
       </c>
     </row>
     <row r="28">
@@ -7802,16 +7802,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>127397.9705207022</v>
+        <v>619510.3578154427</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-171062.4768021106</v>
+        <v>-59593.38134838279</v>
       </c>
       <c r="E28" t="n">
-        <v>-43664.50628140845</v>
+        <v>559916.9764670599</v>
       </c>
     </row>
     <row r="29">
@@ -7819,16 +7819,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>134804.8292719058</v>
+        <v>667721.2806026367</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-172311.8233833283</v>
+        <v>-60257.76639254618</v>
       </c>
       <c r="E29" t="n">
-        <v>-37506.99411142248</v>
+        <v>607463.5142100905</v>
       </c>
     </row>
     <row r="30">
@@ -7836,16 +7836,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>142211.6880231094</v>
+        <v>715932.2033898307</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-173304.0905989996</v>
+        <v>-60748.71304853683</v>
       </c>
       <c r="E30" t="n">
-        <v>-31092.40257589018</v>
+        <v>655183.4903412939</v>
       </c>
     </row>
     <row r="31">
@@ -7853,16 +7853,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>149618.546774313</v>
+        <v>764143.1261770247</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-174089.9803752353</v>
+        <v>-61110.02817199536</v>
       </c>
       <c r="E31" t="n">
-        <v>-24471.43360092232</v>
+        <v>703033.0980050294</v>
       </c>
     </row>
     <row r="32">
@@ -7870,16 +7870,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>157025.4055255166</v>
+        <v>812354.0489642186</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-174710.899254585</v>
+        <v>-61374.99179843096</v>
       </c>
       <c r="E32" t="n">
-        <v>-17685.4937290684</v>
+        <v>750979.0571657877</v>
       </c>
     </row>
   </sheetData>

--- a/RGGI PnL Output.xlsx
+++ b/RGGI PnL Output.xlsx
@@ -10,17 +10,12 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="today" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EoM" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="End of May" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="June Expiry" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="End of June" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="End of July" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="End of August" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sep Expiry" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="End of Sep" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="End of Oct" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="End of Nov" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dec expiry" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="End of Dec" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 Months" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 Months" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4 Months" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="5 Months" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="6 Months" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dec Expiry" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -438,2871 +433,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Price</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Spot</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Fwds</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Options</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Total_Pnl</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-633973.6346516007</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>236106.6771326157</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-397866.957518985</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>11</v>
-      </c>
-      <c r="B3" t="n">
-        <v>-585762.7118644067</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>234372.206313989</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-351390.5055504177</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>12</v>
-      </c>
-      <c r="B4" t="n">
-        <v>-537551.7890772128</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>230669.4731224774</v>
-      </c>
-      <c r="E4" t="n">
-        <v>-306882.3159547354</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>13</v>
-      </c>
-      <c r="B5" t="n">
-        <v>-489340.8662900188</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>224005.6927210383</v>
-      </c>
-      <c r="E5" t="n">
-        <v>-265335.1735689805</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>14</v>
-      </c>
-      <c r="B6" t="n">
-        <v>-441129.9435028248</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>213560.5260994563</v>
-      </c>
-      <c r="E6" t="n">
-        <v>-227569.4174033685</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>15</v>
-      </c>
-      <c r="B7" t="n">
-        <v>-392919.0207156308</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>198942.9657840566</v>
-      </c>
-      <c r="E7" t="n">
-        <v>-193976.0549315742</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>16</v>
-      </c>
-      <c r="B8" t="n">
-        <v>-344708.0979284369</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>180324.1719533085</v>
-      </c>
-      <c r="E8" t="n">
-        <v>-164383.9259751284</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>17</v>
-      </c>
-      <c r="B9" t="n">
-        <v>-296497.1751412429</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>158409.502222043</v>
-      </c>
-      <c r="E9" t="n">
-        <v>-138087.6729191999</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>18</v>
-      </c>
-      <c r="B10" t="n">
-        <v>-248286.2523540489</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>134282.5495936868</v>
-      </c>
-      <c r="E10" t="n">
-        <v>-114003.7027603621</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>19</v>
-      </c>
-      <c r="B11" t="n">
-        <v>-200075.3295668549</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>109190.473648714</v>
-      </c>
-      <c r="E11" t="n">
-        <v>-90884.85591814094</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>20</v>
-      </c>
-      <c r="B12" t="n">
-        <v>-151864.406779661</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>84338.97531248943</v>
-      </c>
-      <c r="E12" t="n">
-        <v>-67525.43146717153</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>21</v>
-      </c>
-      <c r="B13" t="n">
-        <v>-103653.483992467</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>60741.51231209659</v>
-      </c>
-      <c r="E13" t="n">
-        <v>-42911.9716803704</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>22</v>
-      </c>
-      <c r="B14" t="n">
-        <v>-55442.56120527301</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>39138.54232300066</v>
-      </c>
-      <c r="E14" t="n">
-        <v>-16304.01888227235</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>23</v>
-      </c>
-      <c r="B15" t="n">
-        <v>-7231.638418079028</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>19980.39931590334</v>
-      </c>
-      <c r="E15" t="n">
-        <v>12748.76089782431</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>24</v>
-      </c>
-      <c r="B16" t="n">
-        <v>40979.28436911495</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>3455.782382335856</v>
-      </c>
-      <c r="E16" t="n">
-        <v>44435.0667514508</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>25</v>
-      </c>
-      <c r="B17" t="n">
-        <v>89190.20715630893</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>-10454.6183372653</v>
-      </c>
-      <c r="E17" t="n">
-        <v>78735.58881904362</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>26</v>
-      </c>
-      <c r="B18" t="n">
-        <v>137401.1299435029</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>-21916.62049134306</v>
-      </c>
-      <c r="E18" t="n">
-        <v>115484.5094521599</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>27</v>
-      </c>
-      <c r="B19" t="n">
-        <v>185612.0527306969</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>-31184.95270398743</v>
-      </c>
-      <c r="E19" t="n">
-        <v>154427.1000267095</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>28</v>
-      </c>
-      <c r="B20" t="n">
-        <v>233822.9755178909</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>-38555.9147521077</v>
-      </c>
-      <c r="E20" t="n">
-        <v>195267.0607657832</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>29</v>
-      </c>
-      <c r="B21" t="n">
-        <v>282033.8983050848</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="n">
-        <v>-44332.4298693802</v>
-      </c>
-      <c r="E21" t="n">
-        <v>237701.4684357046</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>30</v>
-      </c>
-      <c r="B22" t="n">
-        <v>330244.8210922789</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>-48800.90840499332</v>
-      </c>
-      <c r="E22" t="n">
-        <v>281443.9126872856</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>31</v>
-      </c>
-      <c r="B23" t="n">
-        <v>378455.7438794728</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>-52217.93947106063</v>
-      </c>
-      <c r="E23" t="n">
-        <v>326237.8044084122</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>32</v>
-      </c>
-      <c r="B24" t="n">
-        <v>426666.6666666668</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>-54804.36815537498</v>
-      </c>
-      <c r="E24" t="n">
-        <v>371862.2985112918</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>33</v>
-      </c>
-      <c r="B25" t="n">
-        <v>474877.5894538608</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>-56744.42871098912</v>
-      </c>
-      <c r="E25" t="n">
-        <v>418133.1607428716</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>34</v>
-      </c>
-      <c r="B26" t="n">
-        <v>523088.5122410548</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>-58187.99618327626</v>
-      </c>
-      <c r="E26" t="n">
-        <v>464900.5160577785</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>35</v>
-      </c>
-      <c r="B27" t="n">
-        <v>571299.4350282487</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" t="n">
-        <v>-59254.49463949035</v>
-      </c>
-      <c r="E27" t="n">
-        <v>512044.9403887584</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>36</v>
-      </c>
-      <c r="B28" t="n">
-        <v>619510.3578154427</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="n">
-        <v>-60037.44802292262</v>
-      </c>
-      <c r="E28" t="n">
-        <v>559472.9097925201</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>37</v>
-      </c>
-      <c r="B29" t="n">
-        <v>667721.2806026367</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>-60609.02877896808</v>
-      </c>
-      <c r="E29" t="n">
-        <v>607112.2518236687</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>38</v>
-      </c>
-      <c r="B30" t="n">
-        <v>715932.2033898307</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" t="n">
-        <v>-61024.23680505694</v>
-      </c>
-      <c r="E30" t="n">
-        <v>654907.9665847737</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>39</v>
-      </c>
-      <c r="B31" t="n">
-        <v>764143.1261770247</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" t="n">
-        <v>-61324.53427920988</v>
-      </c>
-      <c r="E31" t="n">
-        <v>702818.5918978148</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>40</v>
-      </c>
-      <c r="B32" t="n">
-        <v>812354.0489642186</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" t="n">
-        <v>-61540.88637991787</v>
-      </c>
-      <c r="E32" t="n">
-        <v>750813.1625843007</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Price</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Spot</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Fwds</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Options</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Total_Pnl</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-633973.6346516007</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>237819.6387147696</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-396153.9959368311</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>11</v>
-      </c>
-      <c r="B3" t="n">
-        <v>-585762.7118644067</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>237496.7945413995</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-348265.9173230072</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>12</v>
-      </c>
-      <c r="B4" t="n">
-        <v>-537551.7890772128</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>236372.384670337</v>
-      </c>
-      <c r="E4" t="n">
-        <v>-301179.4044068758</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>13</v>
-      </c>
-      <c r="B5" t="n">
-        <v>-489340.8662900188</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>233393.3678997729</v>
-      </c>
-      <c r="E5" t="n">
-        <v>-255947.4983902458</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>14</v>
-      </c>
-      <c r="B6" t="n">
-        <v>-441129.9435028248</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>227063.1403922925</v>
-      </c>
-      <c r="E6" t="n">
-        <v>-214066.8031105323</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>15</v>
-      </c>
-      <c r="B7" t="n">
-        <v>-392919.0207156308</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>215834.6204846886</v>
-      </c>
-      <c r="E7" t="n">
-        <v>-177084.4002309422</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>16</v>
-      </c>
-      <c r="B8" t="n">
-        <v>-344708.0979284369</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>198690.7906393562</v>
-      </c>
-      <c r="E8" t="n">
-        <v>-146017.3072890806</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>17</v>
-      </c>
-      <c r="B9" t="n">
-        <v>-296497.1751412429</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>175614.1794994944</v>
-      </c>
-      <c r="E9" t="n">
-        <v>-120882.9956417485</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>18</v>
-      </c>
-      <c r="B10" t="n">
-        <v>-248286.2523540489</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>147704.1277490811</v>
-      </c>
-      <c r="E10" t="n">
-        <v>-100582.1246049679</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>19</v>
-      </c>
-      <c r="B11" t="n">
-        <v>-200075.3295668549</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>116906.4003689109</v>
-      </c>
-      <c r="E11" t="n">
-        <v>-83168.92919794403</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>20</v>
-      </c>
-      <c r="B12" t="n">
-        <v>-151864.406779661</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>85509.82274713379</v>
-      </c>
-      <c r="E12" t="n">
-        <v>-66354.58403252717</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>21</v>
-      </c>
-      <c r="B13" t="n">
-        <v>-103653.483992467</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>55631.26512926859</v>
-      </c>
-      <c r="E13" t="n">
-        <v>-48022.2188631984</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>22</v>
-      </c>
-      <c r="B14" t="n">
-        <v>-55442.56120527301</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>28856.00677193737</v>
-      </c>
-      <c r="E14" t="n">
-        <v>-26586.55443333564</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>23</v>
-      </c>
-      <c r="B15" t="n">
-        <v>-7231.638418079028</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>6093.952359479331</v>
-      </c>
-      <c r="E15" t="n">
-        <v>-1137.686058599697</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>24</v>
-      </c>
-      <c r="B16" t="n">
-        <v>40979.28436911495</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>-12378.94819318215</v>
-      </c>
-      <c r="E16" t="n">
-        <v>28600.3361759328</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>25</v>
-      </c>
-      <c r="B17" t="n">
-        <v>89190.20715630893</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>-26769.12462941587</v>
-      </c>
-      <c r="E17" t="n">
-        <v>62421.08252689306</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>26</v>
-      </c>
-      <c r="B18" t="n">
-        <v>137401.1299435029</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>-37579.74829614312</v>
-      </c>
-      <c r="E18" t="n">
-        <v>99821.3816473598</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>27</v>
-      </c>
-      <c r="B19" t="n">
-        <v>185612.0527306969</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>-45444.24952397805</v>
-      </c>
-      <c r="E19" t="n">
-        <v>140167.8032067188</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>28</v>
-      </c>
-      <c r="B20" t="n">
-        <v>233822.9755178909</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>-51004.4011593616</v>
-      </c>
-      <c r="E20" t="n">
-        <v>182818.5743585293</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>29</v>
-      </c>
-      <c r="B21" t="n">
-        <v>282033.8983050848</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="n">
-        <v>-54836.76356521715</v>
-      </c>
-      <c r="E21" t="n">
-        <v>227197.1347398677</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>30</v>
-      </c>
-      <c r="B22" t="n">
-        <v>330244.8210922789</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>-57419.13072215547</v>
-      </c>
-      <c r="E22" t="n">
-        <v>272825.6903701234</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>31</v>
-      </c>
-      <c r="B23" t="n">
-        <v>378455.7438794728</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>-59124.45909772797</v>
-      </c>
-      <c r="E23" t="n">
-        <v>319331.2847817449</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>32</v>
-      </c>
-      <c r="B24" t="n">
-        <v>426666.6666666668</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>-60230.5295799059</v>
-      </c>
-      <c r="E24" t="n">
-        <v>366436.1370867609</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>33</v>
-      </c>
-      <c r="B25" t="n">
-        <v>474877.5894538608</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>-60936.49496098433</v>
-      </c>
-      <c r="E25" t="n">
-        <v>413941.0944928764</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>34</v>
-      </c>
-      <c r="B26" t="n">
-        <v>523088.5122410548</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>-61380.6752466484</v>
-      </c>
-      <c r="E26" t="n">
-        <v>461707.8369944064</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>35</v>
-      </c>
-      <c r="B27" t="n">
-        <v>571299.4350282487</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" t="n">
-        <v>-61656.59306208767</v>
-      </c>
-      <c r="E27" t="n">
-        <v>509642.841966161</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>36</v>
-      </c>
-      <c r="B28" t="n">
-        <v>619510.3578154427</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="n">
-        <v>-61826.04392962728</v>
-      </c>
-      <c r="E28" t="n">
-        <v>557684.3138858154</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>37</v>
-      </c>
-      <c r="B29" t="n">
-        <v>667721.2806026367</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>-61929.05610572902</v>
-      </c>
-      <c r="E29" t="n">
-        <v>605792.2244969078</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>38</v>
-      </c>
-      <c r="B30" t="n">
-        <v>715932.2033898307</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" t="n">
-        <v>-61991.11393186671</v>
-      </c>
-      <c r="E30" t="n">
-        <v>653941.0894579639</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>39</v>
-      </c>
-      <c r="B31" t="n">
-        <v>764143.1261770247</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" t="n">
-        <v>-62028.19924983013</v>
-      </c>
-      <c r="E31" t="n">
-        <v>702114.9269271946</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>40</v>
-      </c>
-      <c r="B32" t="n">
-        <v>812354.0489642186</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" t="n">
-        <v>-62050.20297934933</v>
-      </c>
-      <c r="E32" t="n">
-        <v>750303.8459848693</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Price</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Spot</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Fwds</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Options</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Total_Pnl</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-633973.6346516007</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>238769.3475174768</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-395204.287134124</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>11</v>
-      </c>
-      <c r="B3" t="n">
-        <v>-585762.7118644067</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>238769.1077994049</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-346993.6040650018</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>12</v>
-      </c>
-      <c r="B4" t="n">
-        <v>-537551.7890772128</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>238762.518287291</v>
-      </c>
-      <c r="E4" t="n">
-        <v>-298789.2707899218</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>13</v>
-      </c>
-      <c r="B5" t="n">
-        <v>-489340.8662900188</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>238676.3628454763</v>
-      </c>
-      <c r="E5" t="n">
-        <v>-250664.5034445425</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>14</v>
-      </c>
-      <c r="B6" t="n">
-        <v>-441129.9435028248</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>238055.1075834229</v>
-      </c>
-      <c r="E6" t="n">
-        <v>-203074.8359194019</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>15</v>
-      </c>
-      <c r="B7" t="n">
-        <v>-392919.0207156308</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>235284.6745887842</v>
-      </c>
-      <c r="E7" t="n">
-        <v>-157634.3461268466</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>16</v>
-      </c>
-      <c r="B8" t="n">
-        <v>-344708.0979284369</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>226919.4031394681</v>
-      </c>
-      <c r="E8" t="n">
-        <v>-117788.6947889688</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>17</v>
-      </c>
-      <c r="B9" t="n">
-        <v>-296497.1751412429</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>208534.2052936946</v>
-      </c>
-      <c r="E9" t="n">
-        <v>-87962.96984754829</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>18</v>
-      </c>
-      <c r="B10" t="n">
-        <v>-248286.2523540489</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>177400.9083029245</v>
-      </c>
-      <c r="E10" t="n">
-        <v>-70885.34405112441</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>19</v>
-      </c>
-      <c r="B11" t="n">
-        <v>-200075.3295668549</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>134984.3526848592</v>
-      </c>
-      <c r="E11" t="n">
-        <v>-65090.97688199568</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>20</v>
-      </c>
-      <c r="B12" t="n">
-        <v>-151864.406779661</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>87003.14095159784</v>
-      </c>
-      <c r="E12" t="n">
-        <v>-64861.26582806311</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>21</v>
-      </c>
-      <c r="B13" t="n">
-        <v>-103653.483992467</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>40921.14002297308</v>
-      </c>
-      <c r="E13" t="n">
-        <v>-62732.34396949392</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>22</v>
-      </c>
-      <c r="B14" t="n">
-        <v>-55442.56120527301</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>2730.785003063093</v>
-      </c>
-      <c r="E14" t="n">
-        <v>-52711.77620220992</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>23</v>
-      </c>
-      <c r="B15" t="n">
-        <v>-7231.638418079028</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>-24929.63695589118</v>
-      </c>
-      <c r="E15" t="n">
-        <v>-32161.27537397021</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>24</v>
-      </c>
-      <c r="B16" t="n">
-        <v>40979.28436911495</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>-42631.24026373772</v>
-      </c>
-      <c r="E16" t="n">
-        <v>-1651.955894622777</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>25</v>
-      </c>
-      <c r="B17" t="n">
-        <v>89190.20715630893</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>-52742.79047980541</v>
-      </c>
-      <c r="E17" t="n">
-        <v>36447.41667650352</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>26</v>
-      </c>
-      <c r="B18" t="n">
-        <v>137401.1299435029</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>-57948.22374580284</v>
-      </c>
-      <c r="E18" t="n">
-        <v>79452.90619770008</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>27</v>
-      </c>
-      <c r="B19" t="n">
-        <v>185612.0527306969</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>-60385.54638804938</v>
-      </c>
-      <c r="E19" t="n">
-        <v>125226.5063426475</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>28</v>
-      </c>
-      <c r="B20" t="n">
-        <v>233822.9755178909</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>-61432.54780458962</v>
-      </c>
-      <c r="E20" t="n">
-        <v>172390.4277133013</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>29</v>
-      </c>
-      <c r="B21" t="n">
-        <v>282033.8983050848</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="n">
-        <v>-61848.52842349133</v>
-      </c>
-      <c r="E21" t="n">
-        <v>220185.3698815935</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>30</v>
-      </c>
-      <c r="B22" t="n">
-        <v>330244.8210922789</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>-62002.53556854565</v>
-      </c>
-      <c r="E22" t="n">
-        <v>268242.2855237332</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>31</v>
-      </c>
-      <c r="B23" t="n">
-        <v>378455.7438794728</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>-62056.03319507795</v>
-      </c>
-      <c r="E23" t="n">
-        <v>316399.7106843949</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>32</v>
-      </c>
-      <c r="B24" t="n">
-        <v>426666.6666666668</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>-62073.57918700048</v>
-      </c>
-      <c r="E24" t="n">
-        <v>364593.0874796663</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>33</v>
-      </c>
-      <c r="B25" t="n">
-        <v>474877.5894538608</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>-62079.04365484364</v>
-      </c>
-      <c r="E25" t="n">
-        <v>412798.5457990171</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>34</v>
-      </c>
-      <c r="B26" t="n">
-        <v>523088.5122410548</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>-62080.66804605655</v>
-      </c>
-      <c r="E26" t="n">
-        <v>461007.8441949983</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>35</v>
-      </c>
-      <c r="B27" t="n">
-        <v>571299.4350282487</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" t="n">
-        <v>-62081.13110922386</v>
-      </c>
-      <c r="E27" t="n">
-        <v>509218.3039190248</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>36</v>
-      </c>
-      <c r="B28" t="n">
-        <v>619510.3578154427</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="n">
-        <v>-62081.25823601481</v>
-      </c>
-      <c r="E28" t="n">
-        <v>557429.0995794279</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>37</v>
-      </c>
-      <c r="B29" t="n">
-        <v>667721.2806026367</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>-62081.29197608063</v>
-      </c>
-      <c r="E29" t="n">
-        <v>605639.9886265561</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>38</v>
-      </c>
-      <c r="B30" t="n">
-        <v>715932.2033898307</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" t="n">
-        <v>-62081.30066314196</v>
-      </c>
-      <c r="E30" t="n">
-        <v>653850.9027266887</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>39</v>
-      </c>
-      <c r="B31" t="n">
-        <v>764143.1261770247</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" t="n">
-        <v>-62081.30283975439</v>
-      </c>
-      <c r="E31" t="n">
-        <v>702061.8233372703</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>40</v>
-      </c>
-      <c r="B32" t="n">
-        <v>812354.0489642186</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" t="n">
-        <v>-62081.30337199174</v>
-      </c>
-      <c r="E32" t="n">
-        <v>750272.7455922269</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Price</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Spot</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Fwds</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Options</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Total_Pnl</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-633973.6346516007</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>239236.9638818464</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-394736.6707697543</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>11</v>
-      </c>
-      <c r="B3" t="n">
-        <v>-585762.7118644067</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>239236.9638818464</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-346525.7479825603</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>12</v>
-      </c>
-      <c r="B4" t="n">
-        <v>-537551.7890772128</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>239236.9638818465</v>
-      </c>
-      <c r="E4" t="n">
-        <v>-298314.8251953663</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>13</v>
-      </c>
-      <c r="B5" t="n">
-        <v>-489340.8662900188</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>239236.9638818463</v>
-      </c>
-      <c r="E5" t="n">
-        <v>-250103.9024081724</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>14</v>
-      </c>
-      <c r="B6" t="n">
-        <v>-441129.9435028248</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>239236.9638818464</v>
-      </c>
-      <c r="E6" t="n">
-        <v>-201892.9796209784</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>15</v>
-      </c>
-      <c r="B7" t="n">
-        <v>-392919.0207156308</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>239236.9638818464</v>
-      </c>
-      <c r="E7" t="n">
-        <v>-153682.0568337845</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>16</v>
-      </c>
-      <c r="B8" t="n">
-        <v>-344708.0979284369</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>239236.9638818463</v>
-      </c>
-      <c r="E8" t="n">
-        <v>-105471.1340465905</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>17</v>
-      </c>
-      <c r="B9" t="n">
-        <v>-296497.1751412429</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>239236.9638818464</v>
-      </c>
-      <c r="E9" t="n">
-        <v>-57260.21125939648</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>18</v>
-      </c>
-      <c r="B10" t="n">
-        <v>-248286.2523540489</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>239236.9638818463</v>
-      </c>
-      <c r="E10" t="n">
-        <v>-9049.288472202577</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>19</v>
-      </c>
-      <c r="B11" t="n">
-        <v>-200075.3295668549</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>163907.3970268558</v>
-      </c>
-      <c r="E11" t="n">
-        <v>-36167.93253999914</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>20</v>
-      </c>
-      <c r="B12" t="n">
-        <v>-151864.406779661</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>88577.83017186518</v>
-      </c>
-      <c r="E12" t="n">
-        <v>-63286.57660779578</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>21</v>
-      </c>
-      <c r="B13" t="n">
-        <v>-103653.483992467</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>13248.26331687459</v>
-      </c>
-      <c r="E13" t="n">
-        <v>-90405.22067559241</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>22</v>
-      </c>
-      <c r="B14" t="n">
-        <v>-55442.56120527301</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>-62081.303538116</v>
-      </c>
-      <c r="E14" t="n">
-        <v>-117523.864743389</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>23</v>
-      </c>
-      <c r="B15" t="n">
-        <v>-7231.638418079028</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>-62081.303538116</v>
-      </c>
-      <c r="E15" t="n">
-        <v>-69312.94195619503</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>24</v>
-      </c>
-      <c r="B16" t="n">
-        <v>40979.28436911495</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>-62081.303538116</v>
-      </c>
-      <c r="E16" t="n">
-        <v>-21102.01916900105</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>25</v>
-      </c>
-      <c r="B17" t="n">
-        <v>89190.20715630893</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>-62081.303538116</v>
-      </c>
-      <c r="E17" t="n">
-        <v>27108.90361819293</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>26</v>
-      </c>
-      <c r="B18" t="n">
-        <v>137401.1299435029</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>-62081.303538116</v>
-      </c>
-      <c r="E18" t="n">
-        <v>75319.82640538692</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>27</v>
-      </c>
-      <c r="B19" t="n">
-        <v>185612.0527306969</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>-62081.303538116</v>
-      </c>
-      <c r="E19" t="n">
-        <v>123530.7491925809</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>28</v>
-      </c>
-      <c r="B20" t="n">
-        <v>233822.9755178909</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>-62081.303538116</v>
-      </c>
-      <c r="E20" t="n">
-        <v>171741.6719797749</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>29</v>
-      </c>
-      <c r="B21" t="n">
-        <v>282033.8983050848</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="n">
-        <v>-62081.303538116</v>
-      </c>
-      <c r="E21" t="n">
-        <v>219952.5947669689</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>30</v>
-      </c>
-      <c r="B22" t="n">
-        <v>330244.8210922789</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>-62081.303538116</v>
-      </c>
-      <c r="E22" t="n">
-        <v>268163.5175541629</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>31</v>
-      </c>
-      <c r="B23" t="n">
-        <v>378455.7438794728</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>-62081.303538116</v>
-      </c>
-      <c r="E23" t="n">
-        <v>316374.4403413569</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>32</v>
-      </c>
-      <c r="B24" t="n">
-        <v>426666.6666666668</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>-62081.303538116</v>
-      </c>
-      <c r="E24" t="n">
-        <v>364585.3631285508</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>33</v>
-      </c>
-      <c r="B25" t="n">
-        <v>474877.5894538608</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>-62081.303538116</v>
-      </c>
-      <c r="E25" t="n">
-        <v>412796.2859157448</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>34</v>
-      </c>
-      <c r="B26" t="n">
-        <v>523088.5122410548</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>-62081.303538116</v>
-      </c>
-      <c r="E26" t="n">
-        <v>461007.2087029388</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>35</v>
-      </c>
-      <c r="B27" t="n">
-        <v>571299.4350282487</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" t="n">
-        <v>-62081.303538116</v>
-      </c>
-      <c r="E27" t="n">
-        <v>509218.1314901327</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>36</v>
-      </c>
-      <c r="B28" t="n">
-        <v>619510.3578154427</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="n">
-        <v>-62081.303538116</v>
-      </c>
-      <c r="E28" t="n">
-        <v>557429.0542773267</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>37</v>
-      </c>
-      <c r="B29" t="n">
-        <v>667721.2806026367</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>-62081.303538116</v>
-      </c>
-      <c r="E29" t="n">
-        <v>605639.9770645207</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>38</v>
-      </c>
-      <c r="B30" t="n">
-        <v>715932.2033898307</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" t="n">
-        <v>-62081.303538116</v>
-      </c>
-      <c r="E30" t="n">
-        <v>653850.8998517146</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>39</v>
-      </c>
-      <c r="B31" t="n">
-        <v>764143.1261770247</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" t="n">
-        <v>-62081.303538116</v>
-      </c>
-      <c r="E31" t="n">
-        <v>702061.8226389086</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>40</v>
-      </c>
-      <c r="B32" t="n">
-        <v>812354.0489642186</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" t="n">
-        <v>-62081.303538116</v>
-      </c>
-      <c r="E32" t="n">
-        <v>750272.7454261025</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Price</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Spot</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Fwds</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Options</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Total_Pnl</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-633973.6346516007</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>239207.7167911778</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-394765.917860423</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>11</v>
-      </c>
-      <c r="B3" t="n">
-        <v>-585762.7118644067</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>239207.7167911776</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-346554.9950732291</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>12</v>
-      </c>
-      <c r="B4" t="n">
-        <v>-537551.7890772128</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>239207.7167911777</v>
-      </c>
-      <c r="E4" t="n">
-        <v>-298344.0722860351</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>13</v>
-      </c>
-      <c r="B5" t="n">
-        <v>-489340.8662900188</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>239207.7167911776</v>
-      </c>
-      <c r="E5" t="n">
-        <v>-250133.1494988411</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>14</v>
-      </c>
-      <c r="B6" t="n">
-        <v>-441129.9435028248</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>239207.7167911777</v>
-      </c>
-      <c r="E6" t="n">
-        <v>-201922.2267116471</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>15</v>
-      </c>
-      <c r="B7" t="n">
-        <v>-392919.0207156308</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>239207.7167906135</v>
-      </c>
-      <c r="E7" t="n">
-        <v>-153711.3039250173</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>16</v>
-      </c>
-      <c r="B8" t="n">
-        <v>-344708.0979284369</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>239207.5515700784</v>
-      </c>
-      <c r="E8" t="n">
-        <v>-105500.5463583585</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>17</v>
-      </c>
-      <c r="B9" t="n">
-        <v>-296497.1751412429</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>238877.546375823</v>
-      </c>
-      <c r="E9" t="n">
-        <v>-57619.62876541982</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>18</v>
-      </c>
-      <c r="B10" t="n">
-        <v>-248286.2523540489</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>223627.021278441</v>
-      </c>
-      <c r="E10" t="n">
-        <v>-24659.23107560794</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>19</v>
-      </c>
-      <c r="B11" t="n">
-        <v>-200075.3295668549</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>163291.3119419937</v>
-      </c>
-      <c r="E11" t="n">
-        <v>-36784.01762486124</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>20</v>
-      </c>
-      <c r="B12" t="n">
-        <v>-151864.406779661</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>88417.07773088096</v>
-      </c>
-      <c r="E12" t="n">
-        <v>-63447.32904878</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>21</v>
-      </c>
-      <c r="B13" t="n">
-        <v>-103653.483992467</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>13715.89804972861</v>
-      </c>
-      <c r="E13" t="n">
-        <v>-89937.58594273838</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>22</v>
-      </c>
-      <c r="B14" t="n">
-        <v>-55442.56120527301</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>-44946.43527898544</v>
-      </c>
-      <c r="E14" t="n">
-        <v>-100388.9964842584</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>23</v>
-      </c>
-      <c r="B15" t="n">
-        <v>-7231.638418079028</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>-61295.36279773743</v>
-      </c>
-      <c r="E15" t="n">
-        <v>-68527.00121581646</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>24</v>
-      </c>
-      <c r="B16" t="n">
-        <v>40979.28436911495</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>-62076.47575652937</v>
-      </c>
-      <c r="E16" t="n">
-        <v>-21097.19138741442</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>25</v>
-      </c>
-      <c r="B17" t="n">
-        <v>89190.20715630893</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>-62081.2996267219</v>
-      </c>
-      <c r="E17" t="n">
-        <v>27108.90752958703</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>26</v>
-      </c>
-      <c r="B18" t="n">
-        <v>137401.1299435029</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>-62081.30353763634</v>
-      </c>
-      <c r="E18" t="n">
-        <v>75319.82640586658</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>27</v>
-      </c>
-      <c r="B19" t="n">
-        <v>185612.0527306969</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>-62081.30353811597</v>
-      </c>
-      <c r="E19" t="n">
-        <v>123530.7491925809</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>28</v>
-      </c>
-      <c r="B20" t="n">
-        <v>233822.9755178909</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>-62081.303538116</v>
-      </c>
-      <c r="E20" t="n">
-        <v>171741.6719797749</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>29</v>
-      </c>
-      <c r="B21" t="n">
-        <v>282033.8983050848</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="n">
-        <v>-62081.303538116</v>
-      </c>
-      <c r="E21" t="n">
-        <v>219952.5947669689</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>30</v>
-      </c>
-      <c r="B22" t="n">
-        <v>330244.8210922789</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>-62081.303538116</v>
-      </c>
-      <c r="E22" t="n">
-        <v>268163.5175541629</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>31</v>
-      </c>
-      <c r="B23" t="n">
-        <v>378455.7438794728</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>-62081.303538116</v>
-      </c>
-      <c r="E23" t="n">
-        <v>316374.4403413569</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>32</v>
-      </c>
-      <c r="B24" t="n">
-        <v>426666.6666666668</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>-62081.303538116</v>
-      </c>
-      <c r="E24" t="n">
-        <v>364585.3631285508</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>33</v>
-      </c>
-      <c r="B25" t="n">
-        <v>474877.5894538608</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>-62081.303538116</v>
-      </c>
-      <c r="E25" t="n">
-        <v>412796.2859157448</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>34</v>
-      </c>
-      <c r="B26" t="n">
-        <v>523088.5122410548</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>-62081.303538116</v>
-      </c>
-      <c r="E26" t="n">
-        <v>461007.2087029388</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>35</v>
-      </c>
-      <c r="B27" t="n">
-        <v>571299.4350282487</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" t="n">
-        <v>-62081.303538116</v>
-      </c>
-      <c r="E27" t="n">
-        <v>509218.1314901327</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>36</v>
-      </c>
-      <c r="B28" t="n">
-        <v>619510.3578154427</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="n">
-        <v>-62081.303538116</v>
-      </c>
-      <c r="E28" t="n">
-        <v>557429.0542773267</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>37</v>
-      </c>
-      <c r="B29" t="n">
-        <v>667721.2806026367</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>-62081.303538116</v>
-      </c>
-      <c r="E29" t="n">
-        <v>605639.9770645207</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>38</v>
-      </c>
-      <c r="B30" t="n">
-        <v>715932.2033898307</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" t="n">
-        <v>-62081.303538116</v>
-      </c>
-      <c r="E30" t="n">
-        <v>653850.8998517146</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>39</v>
-      </c>
-      <c r="B31" t="n">
-        <v>764143.1261770247</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" t="n">
-        <v>-62081.303538116</v>
-      </c>
-      <c r="E31" t="n">
-        <v>702061.8226389086</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>40</v>
-      </c>
-      <c r="B32" t="n">
-        <v>812354.0489642186</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" t="n">
-        <v>-62081.303538116</v>
-      </c>
-      <c r="E32" t="n">
-        <v>750272.7454261025</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -3349,16 +479,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-633973.6346516007</v>
+        <v>-855742.1289355322</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>238071.8178888763</v>
+        <v>262474.0727969955</v>
       </c>
       <c r="E2" t="n">
-        <v>-395901.8167627244</v>
+        <v>-593268.0561385367</v>
       </c>
     </row>
     <row r="3">
@@ -3366,16 +496,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-585762.7118644067</v>
+        <v>-792773.6131934032</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>237916.3337518912</v>
+        <v>262361.6091251708</v>
       </c>
       <c r="E3" t="n">
-        <v>-347846.3781125155</v>
+        <v>-530412.0040682324</v>
       </c>
     </row>
     <row r="4">
@@ -3383,16 +513,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-537551.7890772128</v>
+        <v>-729805.0974512743</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>237249.4860761176</v>
+        <v>261831.8332906794</v>
       </c>
       <c r="E4" t="n">
-        <v>-300302.3030010952</v>
+        <v>-467973.2641605949</v>
       </c>
     </row>
     <row r="5">
@@ -3400,16 +530,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-489340.8662900188</v>
+        <v>-666836.5817091453</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>235169.9097583238</v>
+        <v>260047.8385347877</v>
       </c>
       <c r="E5" t="n">
-        <v>-254170.956531695</v>
+        <v>-406788.7431743576</v>
       </c>
     </row>
     <row r="6">
@@ -3417,16 +547,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>-441129.9435028248</v>
+        <v>-603868.0659670165</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>230151.5502683903</v>
+        <v>255452.9946210525</v>
       </c>
       <c r="E6" t="n">
-        <v>-210978.3932344345</v>
+        <v>-348415.071345964</v>
       </c>
     </row>
     <row r="7">
@@ -3434,16 +564,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-392919.0207156308</v>
+        <v>-540899.5502248876</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>220329.3903038978</v>
+        <v>245930.8928769632</v>
       </c>
       <c r="E7" t="n">
-        <v>-172589.6304117331</v>
+        <v>-294968.6573479243</v>
       </c>
     </row>
     <row r="8">
@@ -3451,16 +581,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-344708.0979284369</v>
+        <v>-477931.0344827586</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>204165.8809967707</v>
+        <v>229448.45469368</v>
       </c>
       <c r="E8" t="n">
-        <v>-140542.2169316662</v>
+        <v>-248482.5797890786</v>
       </c>
     </row>
     <row r="9">
@@ -3468,16 +598,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-296497.1751412429</v>
+        <v>-414962.5187406297</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>181169.213888257</v>
+        <v>204967.2086229752</v>
       </c>
       <c r="E9" t="n">
-        <v>-115327.9612529859</v>
+        <v>-209995.3101176544</v>
       </c>
     </row>
     <row r="10">
@@ -3485,16 +615,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-248286.2523540489</v>
+        <v>-351994.0029985007</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>152253.6415257528</v>
+        <v>173163.1627071236</v>
       </c>
       <c r="E10" t="n">
-        <v>-96032.61082829611</v>
+        <v>-178830.8402913771</v>
       </c>
     </row>
     <row r="11">
@@ -3502,16 +632,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>-200075.3295668549</v>
+        <v>-289025.4872563718</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>119552.3568446368</v>
+        <v>136518.7308123856</v>
       </c>
       <c r="E11" t="n">
-        <v>-80522.97272221808</v>
+        <v>-152506.7564439861</v>
       </c>
     </row>
     <row r="12">
@@ -3519,16 +649,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>-151864.406779661</v>
+        <v>-226056.9715142429</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>85810.59188554896</v>
+        <v>98666.00988246757</v>
       </c>
       <c r="E12" t="n">
-        <v>-66053.814894112</v>
+        <v>-127390.9616317753</v>
       </c>
     </row>
     <row r="13">
@@ -3536,16 +666,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>-103653.483992467</v>
+        <v>-163088.4557721139</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>53669.03682692954</v>
+        <v>63289.71571118858</v>
       </c>
       <c r="E13" t="n">
-        <v>-49984.44716553746</v>
+        <v>-99798.74006092534</v>
       </c>
     </row>
     <row r="14">
@@ -3553,16 +683,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>-55442.56120527301</v>
+        <v>-100119.940029985</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>25122.13954025179</v>
+        <v>33129.04544297224</v>
       </c>
       <c r="E14" t="n">
-        <v>-30320.42166502122</v>
+        <v>-66990.89458701275</v>
       </c>
     </row>
     <row r="15">
@@ -3570,16 +700,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>-7231.638418079028</v>
+        <v>-37151.42428785606</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>1283.026840653969</v>
+        <v>9489.190473298426</v>
       </c>
       <c r="E15" t="n">
-        <v>-5948.611577425059</v>
+        <v>-27662.23381455764</v>
       </c>
     </row>
     <row r="16">
@@ -3587,16 +717,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>40979.28436911495</v>
+        <v>25817.09145427287</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-17570.217938852</v>
+        <v>-7670.115588341148</v>
       </c>
       <c r="E16" t="n">
-        <v>23409.06643026295</v>
+        <v>18146.97586593172</v>
       </c>
     </row>
     <row r="17">
@@ -3604,16 +734,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>89190.20715630893</v>
+        <v>88785.6071964018</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-31778.730197578</v>
+        <v>-19284.30577116874</v>
       </c>
       <c r="E17" t="n">
-        <v>57411.47695873093</v>
+        <v>69501.30142523308</v>
       </c>
     </row>
     <row r="18">
@@ -3621,16 +751,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>137401.1299435029</v>
+        <v>151754.1229385307</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-42038.27767716462</v>
+        <v>-26661.38050329144</v>
       </c>
       <c r="E18" t="n">
-        <v>95362.8522663383</v>
+        <v>125092.7424352393</v>
       </c>
     </row>
     <row r="19">
@@ -3638,16 +768,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>185612.0527306969</v>
+        <v>214722.6386806596</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-49169.78113534805</v>
+        <v>-31084.51251568807</v>
       </c>
       <c r="E19" t="n">
-        <v>136442.2715953488</v>
+        <v>183638.1261649716</v>
       </c>
     </row>
     <row r="20">
@@ -3655,16 +785,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>233822.9755178909</v>
+        <v>277691.1544227886</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-53961.74852780125</v>
+        <v>-33601.22822188471</v>
       </c>
       <c r="E20" t="n">
-        <v>179861.2269900896</v>
+        <v>244089.9262009039</v>
       </c>
     </row>
     <row r="21">
@@ -3672,16 +802,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>282033.8983050848</v>
+        <v>340659.6701649175</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-57085.81019771232</v>
+        <v>-34966.64543712087</v>
       </c>
       <c r="E21" t="n">
-        <v>224948.0881073725</v>
+        <v>305693.0247277967</v>
       </c>
     </row>
     <row r="22">
@@ -3689,16 +819,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>330244.8210922789</v>
+        <v>403628.1859070464</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-59068.28499317382</v>
+        <v>-35675.981433181</v>
       </c>
       <c r="E22" t="n">
-        <v>271176.536099105</v>
+        <v>367952.2044738655</v>
       </c>
     </row>
     <row r="23">
@@ -3706,16 +836,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>378455.7438794728</v>
+        <v>466596.7016491754</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-60296.36970302736</v>
+        <v>-36030.12708314182</v>
       </c>
       <c r="E23" t="n">
-        <v>318159.3741764455</v>
+        <v>430566.5745660336</v>
       </c>
     </row>
     <row r="24">
@@ -3723,16 +853,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>426666.6666666668</v>
+        <v>529565.2173913043</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-61040.91893503995</v>
+        <v>-36200.57744635161</v>
       </c>
       <c r="E24" t="n">
-        <v>365625.7477316268</v>
+        <v>493364.6399449527</v>
       </c>
     </row>
     <row r="25">
@@ -3740,16 +870,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>474877.5894538608</v>
+        <v>592533.7331334333</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-61483.70509253866</v>
+        <v>-36279.8613854369</v>
       </c>
       <c r="E25" t="n">
-        <v>413393.8843613221</v>
+        <v>556253.8717479964</v>
       </c>
     </row>
     <row r="26">
@@ -3757,16 +887,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>523088.5122410548</v>
+        <v>655502.2488755622</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-61742.53558245036</v>
+        <v>-36315.56766818892</v>
       </c>
       <c r="E26" t="n">
-        <v>461345.9766586045</v>
+        <v>619186.6812073733</v>
       </c>
     </row>
     <row r="27">
@@ -3774,16 +904,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>571299.4350282487</v>
+        <v>718470.764617691</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-61891.5231149583</v>
+        <v>-36331.15395069128</v>
       </c>
       <c r="E27" t="n">
-        <v>509407.9119132904</v>
+        <v>682139.6106669998</v>
       </c>
     </row>
     <row r="28">
@@ -3791,16 +921,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>619510.3578154427</v>
+        <v>781439.28035982</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-61976.11095753939</v>
+        <v>-36337.74902758277</v>
       </c>
       <c r="E28" t="n">
-        <v>557534.2468579033</v>
+        <v>745101.5313322372</v>
       </c>
     </row>
     <row r="29">
@@ -3808,16 +938,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>667721.2806026367</v>
+        <v>844407.7961019489</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-62023.54909526954</v>
+        <v>-36340.45066406781</v>
       </c>
       <c r="E29" t="n">
-        <v>605697.7315073672</v>
+        <v>808067.3454378812</v>
       </c>
     </row>
     <row r="30">
@@ -3825,16 +955,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>715932.2033898307</v>
+        <v>907376.3118440779</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-62049.86286827055</v>
+        <v>-36341.51851787463</v>
       </c>
       <c r="E30" t="n">
-        <v>653882.3405215601</v>
+        <v>871034.7933262032</v>
       </c>
     </row>
     <row r="31">
@@ -3842,16 +972,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>764143.1261770247</v>
+        <v>970344.8275862068</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-62064.31699354421</v>
+        <v>-36341.92299201334</v>
       </c>
       <c r="E31" t="n">
-        <v>702078.8091834805</v>
+        <v>934002.9045941934</v>
       </c>
     </row>
     <row r="32">
@@ -3859,16 +989,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>812354.0489642186</v>
+        <v>1033313.343328336</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-62072.18782558077</v>
+        <v>-36342.06781305924</v>
       </c>
       <c r="E32" t="n">
-        <v>750281.8611386379</v>
+        <v>996971.2755152766</v>
       </c>
     </row>
   </sheetData>
@@ -3922,16 +1052,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-633973.6346516007</v>
+        <v>-855742.1289355322</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>238769.3475174768</v>
+        <v>263042.6065634855</v>
       </c>
       <c r="E2" t="n">
-        <v>-395204.287134124</v>
+        <v>-592699.5223720467</v>
       </c>
     </row>
     <row r="3">
@@ -3939,16 +1069,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-585762.7118644067</v>
+        <v>-792773.6131934032</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>238769.1077994049</v>
+        <v>263042.2342824636</v>
       </c>
       <c r="E3" t="n">
-        <v>-346993.6040650018</v>
+        <v>-529731.3789109397</v>
       </c>
     </row>
     <row r="4">
@@ -3956,16 +1086,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-537551.7890772128</v>
+        <v>-729805.0974512743</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>238762.518287291</v>
+        <v>263033.2444407611</v>
       </c>
       <c r="E4" t="n">
-        <v>-298789.2707899218</v>
+        <v>-466771.8530105132</v>
       </c>
     </row>
     <row r="5">
@@ -3973,16 +1103,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-489340.8662900188</v>
+        <v>-666836.5817091453</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>238676.3628454763</v>
+        <v>262926.8048972545</v>
       </c>
       <c r="E5" t="n">
-        <v>-250664.5034445425</v>
+        <v>-403909.7768118908</v>
       </c>
     </row>
     <row r="6">
@@ -3990,16 +1120,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>-441129.9435028248</v>
+        <v>-603868.0659670165</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>238055.1075834229</v>
+        <v>262214.4931790962</v>
       </c>
       <c r="E6" t="n">
-        <v>-203074.8359194019</v>
+        <v>-341653.5727879203</v>
       </c>
     </row>
     <row r="7">
@@ -4007,16 +1137,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-392919.0207156308</v>
+        <v>-540899.5502248876</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>235284.6745887842</v>
+        <v>259205.2944238416</v>
       </c>
       <c r="E7" t="n">
-        <v>-157634.3461268466</v>
+        <v>-281694.2558010459</v>
       </c>
     </row>
     <row r="8">
@@ -4024,16 +1154,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-344708.0979284369</v>
+        <v>-477931.0344827586</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>226919.4031394681</v>
+        <v>250439.2976541025</v>
       </c>
       <c r="E8" t="n">
-        <v>-117788.6947889688</v>
+        <v>-227491.7368286561</v>
       </c>
     </row>
     <row r="9">
@@ -4041,16 +1171,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-296497.1751412429</v>
+        <v>-414962.5187406297</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>208534.2052936946</v>
+        <v>231529.4549715421</v>
       </c>
       <c r="E9" t="n">
-        <v>-87962.96984754829</v>
+        <v>-183433.0637690875</v>
       </c>
     </row>
     <row r="10">
@@ -4058,16 +1188,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-248286.2523540489</v>
+        <v>-351994.0029985007</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>177400.9083029245</v>
+        <v>199594.5577095294</v>
       </c>
       <c r="E10" t="n">
-        <v>-70885.34405112441</v>
+        <v>-152399.4452889713</v>
       </c>
     </row>
     <row r="11">
@@ -4075,16 +1205,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>-200075.3295668549</v>
+        <v>-289025.4872563718</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>134984.3526848592</v>
+        <v>155706.5367515421</v>
       </c>
       <c r="E11" t="n">
-        <v>-65090.97688199568</v>
+        <v>-133318.9505048297</v>
       </c>
     </row>
     <row r="12">
@@ -4092,16 +1222,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>-151864.406779661</v>
+        <v>-226056.9715142429</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>87003.14095159784</v>
+        <v>105544.4424904998</v>
       </c>
       <c r="E12" t="n">
-        <v>-64861.26582806311</v>
+        <v>-120512.5290237431</v>
       </c>
     </row>
     <row r="13">
@@ -4109,16 +1239,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>-103653.483992467</v>
+        <v>-163088.4557721139</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>40921.14002297308</v>
+        <v>57426.32555439941</v>
       </c>
       <c r="E13" t="n">
-        <v>-62732.34396949392</v>
+        <v>-105662.1302177145</v>
       </c>
     </row>
     <row r="14">
@@ -4126,16 +1256,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>-55442.56120527301</v>
+        <v>-100119.940029985</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>2730.785003063093</v>
+        <v>18549.15428146773</v>
       </c>
       <c r="E14" t="n">
-        <v>-52711.77620220992</v>
+        <v>-81570.78574851726</v>
       </c>
     </row>
     <row r="15">
@@ -4143,16 +1273,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>-7231.638418079028</v>
+        <v>-37151.42428785606</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-24929.63695589118</v>
+        <v>-8006.745278291369</v>
       </c>
       <c r="E15" t="n">
-        <v>-32161.27537397021</v>
+        <v>-45158.16956614743</v>
       </c>
     </row>
     <row r="16">
@@ -4160,16 +1290,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>40979.28436911495</v>
+        <v>25817.09145427287</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-42631.24026373772</v>
+        <v>-23440.18391020114</v>
       </c>
       <c r="E16" t="n">
-        <v>-1651.955894622777</v>
+        <v>2376.907544071732</v>
       </c>
     </row>
     <row r="17">
@@ -4177,16 +1307,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>89190.20715630893</v>
+        <v>88785.6071964018</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-52742.79047980541</v>
+        <v>-31140.09224658549</v>
       </c>
       <c r="E17" t="n">
-        <v>36447.41667650352</v>
+        <v>57645.51494981632</v>
       </c>
     </row>
     <row r="18">
@@ -4194,16 +1324,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>137401.1299435029</v>
+        <v>151754.1229385307</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-57948.22374580284</v>
+        <v>-34473.17128210289</v>
       </c>
       <c r="E18" t="n">
-        <v>79452.90619770008</v>
+        <v>117280.9516564278</v>
       </c>
     </row>
     <row r="19">
@@ -4211,16 +1341,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>185612.0527306969</v>
+        <v>214722.6386806596</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-60385.54638804938</v>
+        <v>-35739.27120425804</v>
       </c>
       <c r="E19" t="n">
-        <v>125226.5063426475</v>
+        <v>178983.3674764016</v>
       </c>
     </row>
     <row r="20">
@@ -4228,16 +1358,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>233822.9755178909</v>
+        <v>277691.1544227886</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-61432.54780458962</v>
+        <v>-36166.12059441444</v>
       </c>
       <c r="E20" t="n">
-        <v>172390.4277133013</v>
+        <v>241525.0338283741</v>
       </c>
     </row>
     <row r="21">
@@ -4245,16 +1375,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>282033.8983050848</v>
+        <v>340659.6701649175</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-61848.52842349133</v>
+        <v>-36295.23902341467</v>
       </c>
       <c r="E21" t="n">
-        <v>220185.3698815935</v>
+        <v>304364.4311415029</v>
       </c>
     </row>
     <row r="22">
@@ -4262,16 +1392,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>330244.8210922789</v>
+        <v>403628.1859070464</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-62002.53556854565</v>
+        <v>-36330.64054476333</v>
       </c>
       <c r="E22" t="n">
-        <v>268242.2855237332</v>
+        <v>367297.5453622831</v>
       </c>
     </row>
     <row r="23">
@@ -4279,16 +1409,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>378455.7438794728</v>
+        <v>466596.7016491754</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-62056.03319507795</v>
+        <v>-36339.52078419967</v>
       </c>
       <c r="E23" t="n">
-        <v>316399.7106843949</v>
+        <v>430257.1808649757</v>
       </c>
     </row>
     <row r="24">
@@ -4296,16 +1426,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>426666.6666666668</v>
+        <v>529565.2173913043</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-62073.57918700048</v>
+        <v>-36341.57599497517</v>
       </c>
       <c r="E24" t="n">
-        <v>364593.0874796663</v>
+        <v>493223.6413963292</v>
       </c>
     </row>
     <row r="25">
@@ -4313,16 +1443,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>474877.5894538608</v>
+        <v>592533.7331334333</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-62079.04365484364</v>
+        <v>-36342.01815044413</v>
       </c>
       <c r="E25" t="n">
-        <v>412798.5457990171</v>
+        <v>556191.7149829891</v>
       </c>
     </row>
     <row r="26">
@@ -4330,16 +1460,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>523088.5122410548</v>
+        <v>655502.2488755622</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-62080.66804605655</v>
+        <v>-36342.10715674113</v>
       </c>
       <c r="E26" t="n">
-        <v>461007.8441949983</v>
+        <v>619160.1417188211</v>
       </c>
     </row>
     <row r="27">
@@ -4347,16 +1477,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>571299.4350282487</v>
+        <v>718470.764617691</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-62081.13110922386</v>
+        <v>-36342.12401377338</v>
       </c>
       <c r="E27" t="n">
-        <v>509218.3039190248</v>
+        <v>682128.6406039177</v>
       </c>
     </row>
     <row r="28">
@@ -4364,16 +1494,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>619510.3578154427</v>
+        <v>781439.28035982</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-62081.25823601481</v>
+        <v>-36342.12703035675</v>
       </c>
       <c r="E28" t="n">
-        <v>557429.0995794279</v>
+        <v>745097.1533294632</v>
       </c>
     </row>
     <row r="29">
@@ -4381,16 +1511,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>667721.2806026367</v>
+        <v>844407.7961019489</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-62081.29197608063</v>
+        <v>-36342.1275418005</v>
       </c>
       <c r="E29" t="n">
-        <v>605639.9886265561</v>
+        <v>808065.6685601484</v>
       </c>
     </row>
     <row r="30">
@@ -4398,16 +1528,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>715932.2033898307</v>
+        <v>907376.3118440779</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-62081.30066314196</v>
+        <v>-36342.12762398682</v>
       </c>
       <c r="E30" t="n">
-        <v>653850.9027266887</v>
+        <v>871034.1842200911</v>
       </c>
     </row>
     <row r="31">
@@ -4415,16 +1545,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>764143.1261770247</v>
+        <v>970344.8275862068</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-62081.30283975439</v>
+        <v>-36342.12763646094</v>
       </c>
       <c r="E31" t="n">
-        <v>702061.8233372703</v>
+        <v>934002.6999497459</v>
       </c>
     </row>
     <row r="32">
@@ -4432,16 +1562,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>812354.0489642186</v>
+        <v>1033313.343328336</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-62081.30337199174</v>
+        <v>-36342.1276382299</v>
       </c>
       <c r="E32" t="n">
-        <v>750272.7455922269</v>
+        <v>996971.2156901059</v>
       </c>
     </row>
   </sheetData>
@@ -4495,16 +1625,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-633973.6346516007</v>
+        <v>-855742.1289355322</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>221631.5480280818</v>
+        <v>263507.9473240356</v>
       </c>
       <c r="E2" t="n">
-        <v>-412342.086623519</v>
+        <v>-592234.1816114966</v>
       </c>
     </row>
     <row r="3">
@@ -4512,16 +1642,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-585762.7118644067</v>
+        <v>-792773.6131934032</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>213956.4278396342</v>
+        <v>263507.9473240356</v>
       </c>
       <c r="E3" t="n">
-        <v>-371806.2840247725</v>
+        <v>-529265.6658693675</v>
       </c>
     </row>
     <row r="4">
@@ -4529,16 +1659,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-537551.7890772128</v>
+        <v>-729805.0974512743</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>203973.3925834953</v>
+        <v>263507.9473240356</v>
       </c>
       <c r="E4" t="n">
-        <v>-333578.3964937175</v>
+        <v>-466297.1501272387</v>
       </c>
     </row>
     <row r="5">
@@ -4546,16 +1676,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-489340.8662900188</v>
+        <v>-666836.5817091453</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>191848.6922175856</v>
+        <v>263507.9473240356</v>
       </c>
       <c r="E5" t="n">
-        <v>-297492.1740724332</v>
+        <v>-403328.6343851097</v>
       </c>
     </row>
     <row r="6">
@@ -4563,16 +1693,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>-441129.9435028248</v>
+        <v>-603868.0659670165</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>177910.7823279713</v>
+        <v>263507.9473240356</v>
       </c>
       <c r="E6" t="n">
-        <v>-263219.1611748535</v>
+        <v>-340360.1186429809</v>
       </c>
     </row>
     <row r="7">
@@ -4580,16 +1710,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-392919.0207156308</v>
+        <v>-540899.5502248876</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>162589.0209892681</v>
+        <v>263507.9473240356</v>
       </c>
       <c r="E7" t="n">
-        <v>-230329.9997263628</v>
+        <v>-277391.602900852</v>
       </c>
     </row>
     <row r="8">
@@ -4597,16 +1727,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-344708.0979284369</v>
+        <v>-477931.0344827586</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>146353.91122405</v>
+        <v>263507.9473240356</v>
       </c>
       <c r="E8" t="n">
-        <v>-198354.1867043869</v>
+        <v>-214423.087158723</v>
       </c>
     </row>
     <row r="9">
@@ -4614,16 +1744,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-296497.1751412429</v>
+        <v>-414962.5187406297</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>129668.1211324717</v>
+        <v>263507.9473240356</v>
       </c>
       <c r="E9" t="n">
-        <v>-166829.0540087711</v>
+        <v>-151454.571416594</v>
       </c>
     </row>
     <row r="10">
@@ -4631,16 +1761,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-248286.2523540489</v>
+        <v>-351994.0029985007</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>112951.8130296585</v>
+        <v>263507.9473240356</v>
       </c>
       <c r="E10" t="n">
-        <v>-135334.4393243904</v>
+        <v>-88486.05567446508</v>
       </c>
     </row>
     <row r="11">
@@ -4648,16 +1778,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>-200075.3295668549</v>
+        <v>-289025.4872563718</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>96561.9888726529</v>
+        <v>188545.428583406</v>
       </c>
       <c r="E11" t="n">
-        <v>-103513.340694202</v>
+        <v>-100480.0586729658</v>
       </c>
     </row>
     <row r="12">
@@ -4665,16 +1795,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>-151864.406779661</v>
+        <v>-226056.9715142429</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>80783.52913587054</v>
+        <v>113582.9098427763</v>
       </c>
       <c r="E12" t="n">
-        <v>-71080.87764379042</v>
+        <v>-112474.0616714666</v>
       </c>
     </row>
     <row r="13">
@@ -4682,16 +1812,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>-103653.483992467</v>
+        <v>-163088.4557721139</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>65828.88809125386</v>
+        <v>38620.3911021466</v>
       </c>
       <c r="E13" t="n">
-        <v>-37824.59590121314</v>
+        <v>-124468.0646699673</v>
       </c>
     </row>
     <row r="14">
@@ -4699,16 +1829,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>-55442.56120527301</v>
+        <v>-100119.940029985</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>51843.49464059304</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E14" t="n">
-        <v>-3599.066564679975</v>
+        <v>-136462.0676684681</v>
       </c>
     </row>
     <row r="15">
@@ -4716,16 +1846,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>-7231.638418079028</v>
+        <v>-37151.42428785606</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>38914.38799141716</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E15" t="n">
-        <v>31682.74957333813</v>
+        <v>-73493.55192633913</v>
       </c>
     </row>
     <row r="16">
@@ -4733,16 +1863,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>40979.28436911495</v>
+        <v>25817.09145427287</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>27080.22327238285</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E16" t="n">
-        <v>68059.5076414978</v>
+        <v>-10525.0361842102</v>
       </c>
     </row>
     <row r="17">
@@ -4750,16 +1880,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>89190.20715630893</v>
+        <v>88785.6071964018</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>16341.36202052443</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E17" t="n">
-        <v>105531.5691768333</v>
+        <v>52443.47955791873</v>
       </c>
     </row>
     <row r="18">
@@ -4767,16 +1897,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>137401.1299435029</v>
+        <v>151754.1229385307</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>6669.246509794932</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E18" t="n">
-        <v>144070.3764532979</v>
+        <v>115411.9953000477</v>
       </c>
     </row>
     <row r="19">
@@ -4784,16 +1914,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>185612.0527306969</v>
+        <v>214722.6386806596</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-1985.374608338767</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E19" t="n">
-        <v>183626.6781223581</v>
+        <v>178380.5110421766</v>
       </c>
     </row>
     <row r="20">
@@ -4801,16 +1931,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>233822.9755178909</v>
+        <v>277691.1544227886</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-9685.541953128402</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E20" t="n">
-        <v>224137.4335647625</v>
+        <v>241349.0267843055</v>
       </c>
     </row>
     <row r="21">
@@ -4818,16 +1948,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>282033.8983050848</v>
+        <v>340659.6701649175</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-16502.50508910249</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E21" t="n">
-        <v>265531.3932159824</v>
+        <v>304317.5425264345</v>
       </c>
     </row>
     <row r="22">
@@ -4835,16 +1965,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>330244.8210922789</v>
+        <v>403628.1859070464</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-22511.36788141198</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E22" t="n">
-        <v>307733.4532108669</v>
+        <v>367286.0582685634</v>
       </c>
     </row>
     <row r="23">
@@ -4852,16 +1982,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>378455.7438794728</v>
+        <v>466596.7016491754</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-27787.80926826331</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E23" t="n">
-        <v>350667.9346112096</v>
+        <v>430254.5740106923</v>
       </c>
     </row>
     <row r="24">
@@ -4869,16 +1999,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>426666.6666666668</v>
+        <v>529565.2173913043</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-32405.71029053015</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E24" t="n">
-        <v>394260.9563761366</v>
+        <v>493223.0897528213</v>
       </c>
     </row>
     <row r="25">
@@ -4886,16 +2016,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>474877.5894538608</v>
+        <v>592533.7331334333</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-36435.5200149536</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E25" t="n">
-        <v>438442.0694389071</v>
+        <v>556191.6054949502</v>
       </c>
     </row>
     <row r="26">
@@ -4903,16 +2033,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>523088.5122410548</v>
+        <v>655502.2488755622</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-39943.20659401707</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E26" t="n">
-        <v>483145.3056470377</v>
+        <v>619160.1212370791</v>
       </c>
     </row>
     <row r="27">
@@ -4920,16 +2050,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>571299.4350282487</v>
+        <v>718470.764617691</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-42989.65905288545</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E27" t="n">
-        <v>528309.7759753632</v>
+        <v>682128.636979208</v>
       </c>
     </row>
     <row r="28">
@@ -4937,16 +2067,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>619510.3578154427</v>
+        <v>781439.28035982</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-45630.42655652044</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E28" t="n">
-        <v>573879.9312589223</v>
+        <v>745097.1527213369</v>
       </c>
     </row>
     <row r="29">
@@ -4954,16 +2084,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>667721.2806026367</v>
+        <v>844407.7961019489</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-47915.70251520153</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E29" t="n">
-        <v>619805.5780874352</v>
+        <v>808065.6684634659</v>
       </c>
     </row>
     <row r="30">
@@ -4971,16 +2101,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>715932.2033898307</v>
+        <v>907376.3118440779</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-49890.47963389225</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E30" t="n">
-        <v>666041.7237559385</v>
+        <v>871034.1842055948</v>
       </c>
     </row>
     <row r="31">
@@ -4988,16 +2118,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>764143.1261770247</v>
+        <v>970344.8275862068</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-51594.81830828456</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E31" t="n">
-        <v>712548.3078687402</v>
+        <v>934002.6999477238</v>
       </c>
     </row>
     <row r="32">
@@ -5005,16 +2135,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>812354.0489642186</v>
+        <v>1033313.343328336</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-53064.18446994759</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E32" t="n">
-        <v>759289.864494271</v>
+        <v>996971.2156898527</v>
       </c>
     </row>
   </sheetData>
@@ -5068,16 +2198,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-633973.6346516007</v>
+        <v>-855742.1289355322</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>223688.4754220665</v>
+        <v>263507.9473240356</v>
       </c>
       <c r="E2" t="n">
-        <v>-410285.1592295342</v>
+        <v>-592234.1816114966</v>
       </c>
     </row>
     <row r="3">
@@ -5085,16 +2215,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-585762.7118644067</v>
+        <v>-792773.6131934032</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>216513.769961654</v>
+        <v>263507.9473240356</v>
       </c>
       <c r="E3" t="n">
-        <v>-369248.9419027527</v>
+        <v>-529265.6658693675</v>
       </c>
     </row>
     <row r="4">
@@ -5102,16 +2232,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-537551.7890772128</v>
+        <v>-729805.0974512743</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>206924.222529061</v>
+        <v>263507.9473240356</v>
       </c>
       <c r="E4" t="n">
-        <v>-330627.5665481518</v>
+        <v>-466297.1501272387</v>
       </c>
     </row>
     <row r="5">
@@ -5119,16 +2249,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-489340.8662900188</v>
+        <v>-666836.5817091453</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>195023.9500040797</v>
+        <v>263507.9473240356</v>
       </c>
       <c r="E5" t="n">
-        <v>-294316.916285939</v>
+        <v>-403328.6343851097</v>
       </c>
     </row>
     <row r="6">
@@ -5136,16 +2266,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>-441129.9435028248</v>
+        <v>-603868.0659670165</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>181110.6567099456</v>
+        <v>263507.9473240356</v>
       </c>
       <c r="E6" t="n">
-        <v>-260019.2867928792</v>
+        <v>-340360.1186429809</v>
       </c>
     </row>
     <row r="7">
@@ -5153,16 +2283,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-392919.0207156308</v>
+        <v>-540899.5502248876</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>165614.0008862985</v>
+        <v>263507.9473240356</v>
       </c>
       <c r="E7" t="n">
-        <v>-227305.0198293324</v>
+        <v>-277391.602900852</v>
       </c>
     </row>
     <row r="8">
@@ -5170,16 +2300,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-344708.0979284369</v>
+        <v>-477931.0344827586</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>149029.2460375016</v>
+        <v>263507.9473240356</v>
       </c>
       <c r="E8" t="n">
-        <v>-195678.8518909353</v>
+        <v>-214423.087158723</v>
       </c>
     </row>
     <row r="9">
@@ -5187,16 +2317,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-296497.1751412429</v>
+        <v>-414962.5187406297</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>131859.1679039742</v>
+        <v>263507.9473240356</v>
       </c>
       <c r="E9" t="n">
-        <v>-164638.0072372686</v>
+        <v>-151454.571416594</v>
       </c>
     </row>
     <row r="10">
@@ -5204,16 +2334,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-248286.2523540489</v>
+        <v>-351994.0029985007</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>114570.5136101291</v>
+        <v>263507.9473240356</v>
       </c>
       <c r="E10" t="n">
-        <v>-133715.7387439198</v>
+        <v>-88486.05567446508</v>
       </c>
     </row>
     <row r="11">
@@ -5221,16 +2351,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>-200075.3295668549</v>
+        <v>-289025.4872563718</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>97566.25581752835</v>
+        <v>188545.428583406</v>
       </c>
       <c r="E11" t="n">
-        <v>-102509.0737493266</v>
+        <v>-100480.0586729658</v>
       </c>
     </row>
     <row r="12">
@@ -5238,16 +2368,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>-151864.406779661</v>
+        <v>-226056.9715142429</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>81171.84555490379</v>
+        <v>113582.9098427763</v>
       </c>
       <c r="E12" t="n">
-        <v>-70692.56122475717</v>
+        <v>-112474.0616714666</v>
       </c>
     </row>
     <row r="13">
@@ -5255,16 +2385,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>-103653.483992467</v>
+        <v>-163088.4557721139</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>65632.30641616767</v>
+        <v>38620.3911021466</v>
       </c>
       <c r="E13" t="n">
-        <v>-38021.17757629932</v>
+        <v>-124468.0646699673</v>
       </c>
     </row>
     <row r="14">
@@ -5272,16 +2402,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>-55442.56120527301</v>
+        <v>-100119.940029985</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>51116.77913104945</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E14" t="n">
-        <v>-4325.782074223564</v>
+        <v>-136462.0676684681</v>
       </c>
     </row>
     <row r="15">
@@ -5289,16 +2419,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>-7231.638418079028</v>
+        <v>-37151.42428785606</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>37727.51547550425</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E15" t="n">
-        <v>30495.87705742522</v>
+        <v>-73493.55192633913</v>
       </c>
     </row>
     <row r="16">
@@ -5306,16 +2436,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>40979.28436911495</v>
+        <v>25817.09145427287</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>25510.96853739195</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E16" t="n">
-        <v>66490.2529065069</v>
+        <v>-10525.0361842102</v>
       </c>
     </row>
     <row r="17">
@@ -5323,16 +2453,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>89190.20715630893</v>
+        <v>88785.6071964018</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>14469.30737419517</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E17" t="n">
-        <v>103659.5145305041</v>
+        <v>52443.47955791873</v>
       </c>
     </row>
     <row r="18">
@@ -5340,16 +2470,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>137401.1299435029</v>
+        <v>151754.1229385307</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>4571.281845943326</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E18" t="n">
-        <v>141972.4117894463</v>
+        <v>115411.9953000477</v>
       </c>
     </row>
     <row r="19">
@@ -5357,16 +2487,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>185612.0527306969</v>
+        <v>214722.6386806596</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-4238.166421830512</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E19" t="n">
-        <v>181373.8863088664</v>
+        <v>178380.5110421766</v>
       </c>
     </row>
     <row r="20">
@@ -5374,16 +2504,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>233822.9755178909</v>
+        <v>277691.1544227886</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-12029.81125202629</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E20" t="n">
-        <v>221793.1642658646</v>
+        <v>241349.0267843055</v>
       </c>
     </row>
     <row r="21">
@@ -5391,16 +2521,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>282033.8983050848</v>
+        <v>340659.6701649175</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-18883.60502723543</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E21" t="n">
-        <v>263150.2932778494</v>
+        <v>304317.5425264345</v>
       </c>
     </row>
     <row r="22">
@@ -5408,16 +2538,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>330244.8210922789</v>
+        <v>403628.1859070464</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-24883.59770782103</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E22" t="n">
-        <v>305361.2233844578</v>
+        <v>367286.0582685634</v>
       </c>
     </row>
     <row r="23">
@@ -5425,16 +2555,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>378455.7438794728</v>
+        <v>466596.7016491754</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-30114.13883161423</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E23" t="n">
-        <v>348341.6050478586</v>
+        <v>430254.5740106923</v>
       </c>
     </row>
     <row r="24">
@@ -5442,16 +2572,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>426666.6666666668</v>
+        <v>529565.2173913043</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-34657.16078026593</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E24" t="n">
-        <v>392009.5058864009</v>
+        <v>493223.0897528213</v>
       </c>
     </row>
     <row r="25">
@@ -5459,16 +2589,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>474877.5894538608</v>
+        <v>592533.7331334333</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-38590.34081040172</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E25" t="n">
-        <v>436287.2486434591</v>
+        <v>556191.6054949502</v>
       </c>
     </row>
     <row r="26">
@@ -5476,16 +2606,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>523088.5122410548</v>
+        <v>655502.2488755622</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-41985.95474949256</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E26" t="n">
-        <v>481102.5574915622</v>
+        <v>619160.1212370791</v>
       </c>
     </row>
     <row r="27">
@@ -5493,16 +2623,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>571299.4350282487</v>
+        <v>718470.764617691</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-44910.25868744327</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E27" t="n">
-        <v>526389.1763408055</v>
+        <v>682128.636979208</v>
       </c>
     </row>
     <row r="28">
@@ -5510,16 +2640,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>619510.3578154427</v>
+        <v>781439.28035982</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-47423.26114074522</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E28" t="n">
-        <v>572087.0966746975</v>
+        <v>745097.1527213369</v>
       </c>
     </row>
     <row r="29">
@@ -5527,16 +2657,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>667721.2806026367</v>
+        <v>844407.7961019489</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-49578.77379746285</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E29" t="n">
-        <v>618142.5068051739</v>
+        <v>808065.6684634659</v>
       </c>
     </row>
     <row r="30">
@@ -5544,16 +2674,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>715932.2033898307</v>
+        <v>907376.3118440779</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-51424.65229155979</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E30" t="n">
-        <v>664507.5510982708</v>
+        <v>871034.1842055948</v>
       </c>
     </row>
     <row r="31">
@@ -5561,16 +2691,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>764143.1261770247</v>
+        <v>970344.8275862068</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-53003.15869041586</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E31" t="n">
-        <v>711139.9674866088</v>
+        <v>934002.6999477238</v>
       </c>
     </row>
     <row r="32">
@@ -5578,16 +2708,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>812354.0489642186</v>
+        <v>1033313.343328336</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-54351.39429967327</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E32" t="n">
-        <v>758002.6546645453</v>
+        <v>996971.2156898527</v>
       </c>
     </row>
   </sheetData>
@@ -5641,16 +2771,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-633973.6346516007</v>
+        <v>-855742.1289355322</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>225456.6878777682</v>
+        <v>263507.9473240356</v>
       </c>
       <c r="E2" t="n">
-        <v>-408516.9467738325</v>
+        <v>-592234.1816114966</v>
       </c>
     </row>
     <row r="3">
@@ -5658,16 +2788,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-585762.7118644067</v>
+        <v>-792773.6131934032</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>218768.7484918976</v>
+        <v>263507.9473240356</v>
       </c>
       <c r="E3" t="n">
-        <v>-366993.9633725091</v>
+        <v>-529265.6658693675</v>
       </c>
     </row>
     <row r="4">
@@ -5675,16 +2805,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-537551.7890772128</v>
+        <v>-729805.0974512743</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>209583.069123857</v>
+        <v>263507.9473240356</v>
       </c>
       <c r="E4" t="n">
-        <v>-327968.7199533558</v>
+        <v>-466297.1501272387</v>
       </c>
     </row>
     <row r="5">
@@ -5692,16 +2822,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-489340.8662900188</v>
+        <v>-666836.5817091453</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>197935.5578485751</v>
+        <v>263507.9473240356</v>
       </c>
       <c r="E5" t="n">
-        <v>-291405.3084414437</v>
+        <v>-403328.6343851097</v>
       </c>
     </row>
     <row r="6">
@@ -5709,16 +2839,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>-441129.9435028248</v>
+        <v>-603868.0659670165</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>184085.0003285437</v>
+        <v>263507.9473240356</v>
       </c>
       <c r="E6" t="n">
-        <v>-257044.9431742812</v>
+        <v>-340360.1186429809</v>
       </c>
     </row>
     <row r="7">
@@ -5726,16 +2856,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-392919.0207156308</v>
+        <v>-540899.5502248876</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>168453.9797890018</v>
+        <v>263507.9473240356</v>
       </c>
       <c r="E7" t="n">
-        <v>-224465.040926629</v>
+        <v>-277391.602900852</v>
       </c>
     </row>
     <row r="8">
@@ -5743,16 +2873,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-344708.0979284369</v>
+        <v>-477931.0344827586</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>151557.4648232217</v>
+        <v>263507.9473240356</v>
       </c>
       <c r="E8" t="n">
-        <v>-193150.6331052152</v>
+        <v>-214423.087158723</v>
       </c>
     </row>
     <row r="9">
@@ -5760,16 +2890,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-296497.1751412429</v>
+        <v>-414962.5187406297</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>133935.8939658841</v>
+        <v>263507.9473240356</v>
       </c>
       <c r="E9" t="n">
-        <v>-162561.2811753587</v>
+        <v>-151454.571416594</v>
       </c>
     </row>
     <row r="10">
@@ -5777,16 +2907,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-248286.2523540489</v>
+        <v>-351994.0029985007</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>116102.2800299371</v>
+        <v>263507.9473240356</v>
       </c>
       <c r="E10" t="n">
-        <v>-132183.9723241118</v>
+        <v>-88486.05567446508</v>
       </c>
     </row>
     <row r="11">
@@ -5794,16 +2924,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>-200075.3295668549</v>
+        <v>-289025.4872563718</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>98506.58196884955</v>
+        <v>188545.428583406</v>
       </c>
       <c r="E11" t="n">
-        <v>-101568.7475980054</v>
+        <v>-100480.0586729658</v>
       </c>
     </row>
     <row r="12">
@@ -5811,16 +2941,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>-151864.406779661</v>
+        <v>-226056.9715142429</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>81516.40326227281</v>
+        <v>113582.9098427763</v>
       </c>
       <c r="E12" t="n">
-        <v>-70348.00351738815</v>
+        <v>-112474.0616714666</v>
       </c>
     </row>
     <row r="13">
@@ -5828,16 +2958,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>-103653.483992467</v>
+        <v>-163088.4557721139</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>65410.90633962794</v>
+        <v>38620.3911021466</v>
       </c>
       <c r="E13" t="n">
-        <v>-38242.57765283906</v>
+        <v>-124468.0646699673</v>
       </c>
     </row>
     <row r="14">
@@ -5845,16 +2975,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>-55442.56120527301</v>
+        <v>-100119.940029985</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>50384.1554881382</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E14" t="n">
-        <v>-5058.40571713481</v>
+        <v>-136462.0676684681</v>
       </c>
     </row>
     <row r="15">
@@ -5862,16 +2992,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>-7231.638418079028</v>
+        <v>-37151.42428785606</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>36554.32835828871</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E15" t="n">
-        <v>29322.68994020968</v>
+        <v>-73493.55192633913</v>
       </c>
     </row>
     <row r="16">
@@ -5879,16 +3009,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>40979.28436911495</v>
+        <v>25817.09145427287</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>23975.89672365023</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E16" t="n">
-        <v>64955.18109276517</v>
+        <v>-10525.0361842102</v>
       </c>
     </row>
     <row r="17">
@@ -5896,16 +3026,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>89190.20715630893</v>
+        <v>88785.6071964018</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>12652.65676630469</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E17" t="n">
-        <v>101842.8639226136</v>
+        <v>52443.47955791873</v>
       </c>
     </row>
     <row r="18">
@@ -5913,16 +3043,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>137401.1299435029</v>
+        <v>151754.1229385307</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>2550.211652729966</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E18" t="n">
-        <v>139951.3415962329</v>
+        <v>115411.9953000477</v>
       </c>
     </row>
     <row r="19">
@@ -5930,16 +3060,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>185612.0527306969</v>
+        <v>214722.6386806596</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-6392.903637005635</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E19" t="n">
-        <v>179219.1490936913</v>
+        <v>178380.5110421766</v>
       </c>
     </row>
     <row r="20">
@@ -5947,16 +3077,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>233822.9755178909</v>
+        <v>277691.1544227886</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-14255.8312826327</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E20" t="n">
-        <v>219567.1442352582</v>
+        <v>241349.0267843055</v>
       </c>
     </row>
     <row r="21">
@@ -5964,16 +3094,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>282033.8983050848</v>
+        <v>340659.6701649175</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-21127.81489942766</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E21" t="n">
-        <v>260906.0834056572</v>
+        <v>304317.5425264345</v>
       </c>
     </row>
     <row r="22">
@@ -5981,16 +3111,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>330244.8210922789</v>
+        <v>403628.1859070464</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-27102.33866882113</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E22" t="n">
-        <v>303142.4824234577</v>
+        <v>367286.0582685634</v>
       </c>
     </row>
     <row r="23">
@@ -5998,16 +3128,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>378455.7438794728</v>
+        <v>466596.7016491754</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-32272.78249408911</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E23" t="n">
-        <v>346182.9613853837</v>
+        <v>430254.5740106923</v>
       </c>
     </row>
     <row r="24">
@@ -6015,16 +3145,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>426666.6666666668</v>
+        <v>529565.2173913043</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-36729.35362493487</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E24" t="n">
-        <v>389937.3130417319</v>
+        <v>493223.0897528213</v>
       </c>
     </row>
     <row r="25">
@@ -6032,16 +3162,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>474877.5894538608</v>
+        <v>592533.7331334333</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-40557.05137196693</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E25" t="n">
-        <v>434320.5380818938</v>
+        <v>556191.6054949502</v>
       </c>
     </row>
     <row r="26">
@@ -6049,16 +3179,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>523088.5122410548</v>
+        <v>655502.2488755622</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-43834.43920685178</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E26" t="n">
-        <v>479254.073034203</v>
+        <v>619160.1212370791</v>
       </c>
     </row>
     <row r="27">
@@ -6066,16 +3196,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>571299.4350282487</v>
+        <v>718470.764617691</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-46633.02698472875</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E27" t="n">
-        <v>524666.4080435199</v>
+        <v>682128.636979208</v>
       </c>
     </row>
     <row r="28">
@@ -6083,16 +3213,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>619510.3578154427</v>
+        <v>781439.28035982</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-49017.09821051478</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E28" t="n">
-        <v>570493.259604928</v>
+        <v>745097.1527213369</v>
       </c>
     </row>
     <row r="29">
@@ -6100,16 +3230,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>667721.2806026367</v>
+        <v>844407.7961019489</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-51043.84892760673</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E29" t="n">
-        <v>616677.43167503</v>
+        <v>808065.6684634659</v>
       </c>
     </row>
     <row r="30">
@@ -6117,16 +3247,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>715932.2033898307</v>
+        <v>907376.3118440779</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-52763.73358980349</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E30" t="n">
-        <v>663168.4698000272</v>
+        <v>871034.1842055948</v>
       </c>
     </row>
     <row r="31">
@@ -6134,16 +3264,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>764143.1261770247</v>
+        <v>970344.8275862068</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-54220.93811703798</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E31" t="n">
-        <v>709922.1880599867</v>
+        <v>934002.6999477238</v>
       </c>
     </row>
     <row r="32">
@@ -6151,16 +3281,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>812354.0489642186</v>
+        <v>1033313.343328336</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-55453.92096490858</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E32" t="n">
-        <v>756900.12799931</v>
+        <v>996971.2156898527</v>
       </c>
     </row>
   </sheetData>
@@ -6214,16 +3344,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-633973.6346516007</v>
+        <v>-855742.1289355322</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>229782.6615035484</v>
+        <v>263507.9473240356</v>
       </c>
       <c r="E2" t="n">
-        <v>-404190.9731480523</v>
+        <v>-592234.1816114966</v>
       </c>
     </row>
     <row r="3">
@@ -6231,16 +3361,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-585762.7118644067</v>
+        <v>-792773.6131934032</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>224573.0311613039</v>
+        <v>263507.9473240356</v>
       </c>
       <c r="E3" t="n">
-        <v>-361189.6807031028</v>
+        <v>-529265.6658693675</v>
       </c>
     </row>
     <row r="4">
@@ -6248,16 +3378,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-537551.7890772128</v>
+        <v>-729805.0974512743</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>216739.1465717233</v>
+        <v>263507.9473240356</v>
       </c>
       <c r="E4" t="n">
-        <v>-320812.6425054895</v>
+        <v>-466297.1501272387</v>
       </c>
     </row>
     <row r="5">
@@ -6265,16 +3395,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-489340.8662900188</v>
+        <v>-666836.5817091453</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>206065.9262221711</v>
+        <v>263507.9473240356</v>
       </c>
       <c r="E5" t="n">
-        <v>-283274.9400678477</v>
+        <v>-403328.6343851097</v>
       </c>
     </row>
     <row r="6">
@@ -6282,16 +3412,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>-441129.9435028248</v>
+        <v>-603868.0659670165</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>192635.615172949</v>
+        <v>263507.9473240356</v>
       </c>
       <c r="E6" t="n">
-        <v>-248494.3283298758</v>
+        <v>-340360.1186429809</v>
       </c>
     </row>
     <row r="7">
@@ -6299,16 +3429,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-392919.0207156308</v>
+        <v>-540899.5502248876</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>176798.1663642919</v>
+        <v>263507.9473240356</v>
       </c>
       <c r="E7" t="n">
-        <v>-216120.854351339</v>
+        <v>-277391.602900852</v>
       </c>
     </row>
     <row r="8">
@@ -6316,16 +3446,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-344708.0979284369</v>
+        <v>-477931.0344827586</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>159096.8535786097</v>
+        <v>263507.9473240356</v>
       </c>
       <c r="E8" t="n">
-        <v>-185611.2443498272</v>
+        <v>-214423.087158723</v>
       </c>
     </row>
     <row r="9">
@@ -6333,16 +3463,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-296497.1751412429</v>
+        <v>-414962.5187406297</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>140177.0516311495</v>
+        <v>263507.9473240356</v>
       </c>
       <c r="E9" t="n">
-        <v>-156320.1235100933</v>
+        <v>-151454.571416594</v>
       </c>
     </row>
     <row r="10">
@@ -6350,16 +3480,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-248286.2523540489</v>
+        <v>-351994.0029985007</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>120700.6191831202</v>
+        <v>263507.9473240356</v>
       </c>
       <c r="E10" t="n">
-        <v>-127585.6331709287</v>
+        <v>-88486.05567446508</v>
       </c>
     </row>
     <row r="11">
@@ -6367,16 +3497,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>-200075.3295668549</v>
+        <v>-289025.4872563718</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>101279.114120199</v>
+        <v>188545.428583406</v>
       </c>
       <c r="E11" t="n">
-        <v>-98796.21544665593</v>
+        <v>-100480.0586729658</v>
       </c>
     </row>
     <row r="12">
@@ -6384,16 +3514,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>-151864.406779661</v>
+        <v>-226056.9715142429</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>82430.50920611332</v>
+        <v>113582.9098427763</v>
       </c>
       <c r="E12" t="n">
-        <v>-69433.89757354764</v>
+        <v>-112474.0616714666</v>
       </c>
     </row>
     <row r="13">
@@ -6401,16 +3531,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>-103653.483992467</v>
+        <v>-163088.4557721139</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>64558.08882557384</v>
+        <v>38620.3911021466</v>
       </c>
       <c r="E13" t="n">
-        <v>-39095.39516689315</v>
+        <v>-124468.0646699673</v>
       </c>
     </row>
     <row r="14">
@@ -6418,16 +3548,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>-55442.56120527301</v>
+        <v>-100119.940029985</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>47947.02194835905</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E14" t="n">
-        <v>-7495.539256913966</v>
+        <v>-136462.0676684681</v>
       </c>
     </row>
     <row r="15">
@@ -6435,16 +3565,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>-7231.638418079028</v>
+        <v>-37151.42428785606</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>32773.11214491532</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E15" t="n">
-        <v>25541.4737268363</v>
+        <v>-73493.55192633913</v>
       </c>
     </row>
     <row r="16">
@@ -6452,16 +3582,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>40979.28436911495</v>
+        <v>25817.09145427287</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>19118.60084750874</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E16" t="n">
-        <v>60097.88521662368</v>
+        <v>-10525.0361842102</v>
       </c>
     </row>
     <row r="17">
@@ -6469,16 +3599,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>89190.20715630893</v>
+        <v>88785.6071964018</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>6990.935591145833</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E17" t="n">
-        <v>96181.14274745475</v>
+        <v>52443.47955791873</v>
       </c>
     </row>
     <row r="18">
@@ -6486,16 +3616,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>137401.1299435029</v>
+        <v>151754.1229385307</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-3658.3787818038</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E18" t="n">
-        <v>133742.7511616991</v>
+        <v>115411.9953000477</v>
       </c>
     </row>
     <row r="19">
@@ -6503,16 +3633,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>185612.0527306969</v>
+        <v>214722.6386806596</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-12916.62946152728</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E19" t="n">
-        <v>172695.4232691696</v>
+        <v>178380.5110421766</v>
       </c>
     </row>
     <row r="20">
@@ -6520,16 +3650,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>233822.9755178909</v>
+        <v>277691.1544227886</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-20895.35955962287</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E20" t="n">
-        <v>212927.615958268</v>
+        <v>241349.0267843055</v>
       </c>
     </row>
     <row r="21">
@@ -6537,16 +3667,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>282033.8983050848</v>
+        <v>340659.6701649175</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-27718.74287183958</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E21" t="n">
-        <v>254315.1554332453</v>
+        <v>304317.5425264345</v>
       </c>
     </row>
     <row r="22">
@@ -6554,16 +3684,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>330244.8210922789</v>
+        <v>403628.1859070464</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-33514.77130472953</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E22" t="n">
-        <v>296730.0497875494</v>
+        <v>367286.0582685634</v>
       </c>
     </row>
     <row r="23">
@@ -6571,16 +3701,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>378455.7438794728</v>
+        <v>466596.7016491754</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-38408.93667578523</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E23" t="n">
-        <v>340046.8072036876</v>
+        <v>430254.5740106923</v>
       </c>
     </row>
     <row r="24">
@@ -6588,16 +3718,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>426666.6666666668</v>
+        <v>529565.2173913043</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-42519.99248917487</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E24" t="n">
-        <v>384146.6741774919</v>
+        <v>493223.0897528213</v>
       </c>
     </row>
     <row r="25">
@@ -6605,16 +3735,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>474877.5894538608</v>
+        <v>592533.7331334333</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-45957.36567673023</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E25" t="n">
-        <v>428920.2237771305</v>
+        <v>556191.6054949502</v>
       </c>
     </row>
     <row r="26">
@@ -6622,16 +3752,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>523088.5122410548</v>
+        <v>655502.2488755622</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-48819.81966318082</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E26" t="n">
-        <v>474268.6925778739</v>
+        <v>619160.1212370791</v>
       </c>
     </row>
     <row r="27">
@@ -6639,16 +3769,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>571299.4350282487</v>
+        <v>718470.764617691</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-51195.02472990549</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E27" t="n">
-        <v>520104.4102983432</v>
+        <v>682128.636979208</v>
       </c>
     </row>
     <row r="28">
@@ -6656,16 +3786,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>619510.3578154427</v>
+        <v>781439.28035982</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-53159.75396839541</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E28" t="n">
-        <v>566350.6038470473</v>
+        <v>745097.1527213369</v>
       </c>
     </row>
     <row r="29">
@@ -6673,16 +3803,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>667721.2806026367</v>
+        <v>844407.7961019489</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-54780.48381212479</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E29" t="n">
-        <v>612940.7967905119</v>
+        <v>808065.6684634659</v>
       </c>
     </row>
     <row r="30">
@@ -6690,16 +3820,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>715932.2033898307</v>
+        <v>907376.3118440779</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-56114.23227720273</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E30" t="n">
-        <v>659817.9711126279</v>
+        <v>871034.1842055948</v>
       </c>
     </row>
     <row r="31">
@@ -6707,16 +3837,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>764143.1261770247</v>
+        <v>970344.8275862068</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-57209.51357529206</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E31" t="n">
-        <v>706933.6126017326</v>
+        <v>934002.6999477238</v>
       </c>
     </row>
     <row r="32">
@@ -6724,16 +3854,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>812354.0489642186</v>
+        <v>1033313.343328336</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-58107.32439331147</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E32" t="n">
-        <v>754246.7245709071</v>
+        <v>996971.2156898527</v>
       </c>
     </row>
   </sheetData>
@@ -6787,16 +3917,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-633973.6346516007</v>
+        <v>-855742.1289355322</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>233286.7117543728</v>
+        <v>263507.9473240356</v>
       </c>
       <c r="E2" t="n">
-        <v>-400686.9228972279</v>
+        <v>-592234.1816114966</v>
       </c>
     </row>
     <row r="3">
@@ -6804,16 +3934,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-585762.7118644067</v>
+        <v>-792773.6131934032</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>229718.4586267752</v>
+        <v>263507.9473240356</v>
       </c>
       <c r="E3" t="n">
-        <v>-356044.2532376315</v>
+        <v>-529265.6658693675</v>
       </c>
     </row>
     <row r="4">
@@ -6821,16 +3951,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-537551.7890772128</v>
+        <v>-729805.0974512743</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>223629.1223906567</v>
+        <v>263507.9473240356</v>
       </c>
       <c r="E4" t="n">
-        <v>-313922.6666865561</v>
+        <v>-466297.1501272387</v>
       </c>
     </row>
     <row r="5">
@@ -6838,16 +3968,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-489340.8662900188</v>
+        <v>-666836.5817091453</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>214456.0443069446</v>
+        <v>263507.9473240356</v>
       </c>
       <c r="E5" t="n">
-        <v>-274884.8219830742</v>
+        <v>-403328.6343851097</v>
       </c>
     </row>
     <row r="6">
@@ -6855,16 +3985,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>-441129.9435028248</v>
+        <v>-603868.0659670165</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>201961.843017133</v>
+        <v>263507.9473240356</v>
       </c>
       <c r="E6" t="n">
-        <v>-239168.1004856919</v>
+        <v>-340360.1186429809</v>
       </c>
     </row>
     <row r="7">
@@ -6872,16 +4002,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-392919.0207156308</v>
+        <v>-540899.5502248876</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>186291.1418024075</v>
+        <v>263507.9473240356</v>
       </c>
       <c r="E7" t="n">
-        <v>-206627.8789132233</v>
+        <v>-277391.602900852</v>
       </c>
     </row>
     <row r="8">
@@ -6889,16 +4019,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-344708.0979284369</v>
+        <v>-477931.0344827586</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>167933.4590127063</v>
+        <v>263507.9473240356</v>
       </c>
       <c r="E8" t="n">
-        <v>-176774.6389157306</v>
+        <v>-214423.087158723</v>
       </c>
     </row>
     <row r="9">
@@ -6906,16 +4036,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-296497.1751412429</v>
+        <v>-414962.5187406297</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147621.1422659357</v>
+        <v>263507.9473240356</v>
       </c>
       <c r="E9" t="n">
-        <v>-148876.0328753071</v>
+        <v>-151454.571416594</v>
       </c>
     </row>
     <row r="10">
@@ -6923,16 +4053,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-248286.2523540489</v>
+        <v>-351994.0029985007</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>126201.8899414355</v>
+        <v>263507.9473240356</v>
       </c>
       <c r="E10" t="n">
-        <v>-122084.3624126134</v>
+        <v>-88486.05567446508</v>
       </c>
     </row>
     <row r="11">
@@ -6940,16 +4070,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>-200075.3295668549</v>
+        <v>-289025.4872563718</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>104519.6262547488</v>
+        <v>188545.428583406</v>
       </c>
       <c r="E11" t="n">
-        <v>-95555.70331210614</v>
+        <v>-100480.0586729658</v>
       </c>
     </row>
     <row r="12">
@@ -6957,16 +4087,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>-151864.406779661</v>
+        <v>-226056.9715142429</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>83324.21111510748</v>
+        <v>113582.9098427763</v>
       </c>
       <c r="E12" t="n">
-        <v>-68540.19566455348</v>
+        <v>-112474.0616714666</v>
       </c>
     </row>
     <row r="13">
@@ -6974,16 +4104,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>-103653.483992467</v>
+        <v>-163088.4557721139</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>63217.04825540693</v>
+        <v>38620.3911021466</v>
       </c>
       <c r="E13" t="n">
-        <v>-40436.43573706006</v>
+        <v>-124468.0646699673</v>
       </c>
     </row>
     <row r="14">
@@ -6991,16 +4121,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>-55442.56120527301</v>
+        <v>-100119.940029985</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>44629.9576082134</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E14" t="n">
-        <v>-10812.60359705961</v>
+        <v>-136462.0676684681</v>
       </c>
     </row>
     <row r="15">
@@ -7008,16 +4138,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>-7231.638418079028</v>
+        <v>-37151.42428785606</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>27829.54788697731</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E15" t="n">
-        <v>20597.90946889829</v>
+        <v>-73493.55192633913</v>
       </c>
     </row>
     <row r="16">
@@ -7025,16 +4155,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>40979.28436911495</v>
+        <v>25817.09145427287</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>12937.91916597747</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E16" t="n">
-        <v>53917.20353509242</v>
+        <v>-10525.0361842102</v>
       </c>
     </row>
     <row r="17">
@@ -7042,16 +4172,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>89190.20715630893</v>
+        <v>88785.6071964018</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-38.54818654972769</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E17" t="n">
-        <v>89151.6589697592</v>
+        <v>52443.47955791873</v>
       </c>
     </row>
     <row r="18">
@@ -7059,16 +4189,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>137401.1299435029</v>
+        <v>151754.1229385307</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-11178.56816373609</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E18" t="n">
-        <v>126222.5617797668</v>
+        <v>115411.9953000477</v>
       </c>
     </row>
     <row r="19">
@@ -7076,16 +4206,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>185612.0527306969</v>
+        <v>214722.6386806596</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-20617.55656366171</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E19" t="n">
-        <v>164994.4961670352</v>
+        <v>178380.5110421766</v>
       </c>
     </row>
     <row r="20">
@@ -7093,16 +4223,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>233822.9755178909</v>
+        <v>277691.1544227886</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-28523.65747842328</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E20" t="n">
-        <v>205299.3180394676</v>
+        <v>241349.0267843055</v>
       </c>
     </row>
     <row r="21">
@@ -7110,16 +4240,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>282033.8983050848</v>
+        <v>340659.6701649175</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-35078.9766129511</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E21" t="n">
-        <v>246954.9216921338</v>
+        <v>304317.5425264345</v>
       </c>
     </row>
     <row r="22">
@@ -7127,16 +4257,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>330244.8210922789</v>
+        <v>403628.1859070464</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-40465.89936361162</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E22" t="n">
-        <v>289778.9217286672</v>
+        <v>367286.0582685634</v>
       </c>
     </row>
     <row r="23">
@@ -7144,16 +4274,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>378455.7438794728</v>
+        <v>466596.7016491754</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-44857.86589860417</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E23" t="n">
-        <v>333597.8779808687</v>
+        <v>430254.5740106923</v>
       </c>
     </row>
     <row r="24">
@@ -7161,16 +4291,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>426666.6666666668</v>
+        <v>529565.2173913043</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-48413.76281012585</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E24" t="n">
-        <v>378252.903856541</v>
+        <v>493223.0897528213</v>
       </c>
     </row>
     <row r="25">
@@ -7178,16 +4308,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>474877.5894538608</v>
+        <v>592533.7331334333</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-51275.06728527595</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E25" t="n">
-        <v>423602.5221685848</v>
+        <v>556191.6054949502</v>
       </c>
     </row>
     <row r="26">
@@ -7195,16 +4325,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>523088.5122410548</v>
+        <v>655502.2488755622</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-53564.96266393407</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E26" t="n">
-        <v>469523.5495771207</v>
+        <v>619160.1212370791</v>
       </c>
     </row>
     <row r="27">
@@ -7212,16 +4342,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>571299.4350282487</v>
+        <v>718470.764617691</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-55388.77536039332</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E27" t="n">
-        <v>515910.6596678554</v>
+        <v>682128.636979208</v>
       </c>
     </row>
     <row r="28">
@@ -7229,16 +4359,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>619510.3578154427</v>
+        <v>781439.28035982</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-56835.22520933086</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E28" t="n">
-        <v>562675.1326061118</v>
+        <v>745097.1527213369</v>
       </c>
     </row>
     <row r="29">
@@ -7246,16 +4376,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>667721.2806026367</v>
+        <v>844407.7961019489</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-57978.11329639033</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E29" t="n">
-        <v>609743.1673062465</v>
+        <v>808065.6684634659</v>
       </c>
     </row>
     <row r="30">
@@ -7263,16 +4393,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>715932.2033898307</v>
+        <v>907376.3118440779</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-58878.18334743209</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E30" t="n">
-        <v>657054.0200423986</v>
+        <v>871034.1842055948</v>
       </c>
     </row>
     <row r="31">
@@ -7280,16 +4410,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>764143.1261770247</v>
+        <v>970344.8275862068</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-59584.98189949289</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E31" t="n">
-        <v>704558.1442775318</v>
+        <v>934002.6999477238</v>
       </c>
     </row>
     <row r="32">
@@ -7297,16 +4427,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>812354.0489642186</v>
+        <v>1033313.343328336</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-60138.60985255243</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E32" t="n">
-        <v>752215.4391116662</v>
+        <v>996971.2156898527</v>
       </c>
     </row>
   </sheetData>
@@ -7360,16 +4490,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-633973.6346516007</v>
+        <v>-855742.1289355322</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>235722.9875556832</v>
+        <v>263507.9473240356</v>
       </c>
       <c r="E2" t="n">
-        <v>-398250.6470959175</v>
+        <v>-592234.1816114966</v>
       </c>
     </row>
     <row r="3">
@@ -7377,16 +4507,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-585762.7118644067</v>
+        <v>-792773.6131934032</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>233699.8553744814</v>
+        <v>263507.9473240356</v>
       </c>
       <c r="E3" t="n">
-        <v>-352062.8564899254</v>
+        <v>-529265.6658693675</v>
       </c>
     </row>
     <row r="4">
@@ -7394,16 +4524,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-537551.7890772128</v>
+        <v>-729805.0974512743</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>229577.4191437631</v>
+        <v>263507.9473240356</v>
       </c>
       <c r="E4" t="n">
-        <v>-307974.3699334497</v>
+        <v>-466297.1501272387</v>
       </c>
     </row>
     <row r="5">
@@ -7411,16 +4541,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-489340.8662900188</v>
+        <v>-666836.5817091453</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>222427.6687022478</v>
+        <v>263507.9473240356</v>
       </c>
       <c r="E5" t="n">
-        <v>-266913.1975877709</v>
+        <v>-403328.6343851097</v>
       </c>
     </row>
     <row r="6">
@@ -7428,16 +4558,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>-441129.9435028248</v>
+        <v>-603868.0659670165</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>211543.3346166581</v>
+        <v>263507.9473240356</v>
       </c>
       <c r="E6" t="n">
-        <v>-229586.6088861667</v>
+        <v>-340360.1186429809</v>
       </c>
     </row>
     <row r="7">
@@ -7445,16 +4575,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-392919.0207156308</v>
+        <v>-540899.5502248876</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>196654.4237075048</v>
+        <v>263507.9473240356</v>
       </c>
       <c r="E7" t="n">
-        <v>-196264.597008126</v>
+        <v>-277391.602900852</v>
       </c>
     </row>
     <row r="8">
@@ -7462,16 +4592,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-344708.0979284369</v>
+        <v>-477931.0344827586</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>178017.6349601682</v>
+        <v>263507.9473240356</v>
       </c>
       <c r="E8" t="n">
-        <v>-166690.4629682687</v>
+        <v>-214423.087158723</v>
       </c>
     </row>
     <row r="9">
@@ -7479,16 +4609,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-296497.1751412429</v>
+        <v>-414962.5187406297</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>156362.6058199927</v>
+        <v>263507.9473240356</v>
       </c>
       <c r="E9" t="n">
-        <v>-140134.5693212502</v>
+        <v>-151454.571416594</v>
       </c>
     </row>
     <row r="10">
@@ -7496,16 +4626,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-248286.2523540489</v>
+        <v>-351994.0029985007</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>132735.1005007553</v>
+        <v>263507.9473240356</v>
       </c>
       <c r="E10" t="n">
-        <v>-115551.1518532936</v>
+        <v>-88486.05567446508</v>
       </c>
     </row>
     <row r="11">
@@ -7513,16 +4643,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>-200075.3295668549</v>
+        <v>-289025.4872563718</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>108300.8755300093</v>
+        <v>188545.428583406</v>
       </c>
       <c r="E11" t="n">
-        <v>-91774.45403684567</v>
+        <v>-100480.0586729658</v>
       </c>
     </row>
     <row r="12">
@@ -7530,16 +4660,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>-151864.406779661</v>
+        <v>-226056.9715142429</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>84167.14563440546</v>
+        <v>113582.9098427763</v>
       </c>
       <c r="E12" t="n">
-        <v>-67697.2611452555</v>
+        <v>-112474.0616714666</v>
       </c>
     </row>
     <row r="13">
@@ -7547,16 +4677,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>-103653.483992467</v>
+        <v>-163088.4557721139</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>61255.82491217393</v>
+        <v>38620.3911021466</v>
       </c>
       <c r="E13" t="n">
-        <v>-42397.65908029307</v>
+        <v>-124468.0646699673</v>
       </c>
     </row>
     <row r="14">
@@ -7564,16 +4694,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>-55442.56120527301</v>
+        <v>-100119.940029985</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>40238.43291491111</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E14" t="n">
-        <v>-15204.12829036191</v>
+        <v>-136462.0676684681</v>
       </c>
     </row>
     <row r="15">
@@ -7581,16 +4711,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>-7231.638418079028</v>
+        <v>-37151.42428785606</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>21525.08689269781</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E15" t="n">
-        <v>14293.44847461878</v>
+        <v>-73493.55192633913</v>
       </c>
     </row>
     <row r="16">
@@ -7598,16 +4728,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>40979.28436911495</v>
+        <v>25817.09145427287</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>5291.480392372065</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E16" t="n">
-        <v>46270.76476148701</v>
+        <v>-10525.0361842102</v>
       </c>
     </row>
     <row r="17">
@@ -7615,16 +4745,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>89190.20715630893</v>
+        <v>88785.6071964018</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-8473.510621801481</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E17" t="n">
-        <v>80716.69653450744</v>
+        <v>52443.47955791873</v>
       </c>
     </row>
     <row r="18">
@@ -7632,16 +4762,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>137401.1299435029</v>
+        <v>151754.1229385307</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-19913.93015429915</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E18" t="n">
-        <v>117487.1997892038</v>
+        <v>115411.9953000477</v>
       </c>
     </row>
     <row r="19">
@@ -7649,16 +4779,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>185612.0527306969</v>
+        <v>214722.6386806596</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-29256.26754063981</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E19" t="n">
-        <v>156355.7851900571</v>
+        <v>178380.5110421766</v>
       </c>
     </row>
     <row r="20">
@@ -7666,16 +4796,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>233822.9755178909</v>
+        <v>277691.1544227886</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-36767.66511499447</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E20" t="n">
-        <v>197055.3104028964</v>
+        <v>241349.0267843055</v>
       </c>
     </row>
     <row r="21">
@@ -7683,16 +4813,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>282033.8983050848</v>
+        <v>340659.6701649175</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-42724.62775195061</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E21" t="n">
-        <v>239309.2705531342</v>
+        <v>304317.5425264345</v>
       </c>
     </row>
     <row r="22">
@@ -7700,16 +4830,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>330244.8210922789</v>
+        <v>403628.1859070464</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-47391.82647683361</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E22" t="n">
-        <v>282852.9946154453</v>
+        <v>367286.0582685634</v>
       </c>
     </row>
     <row r="23">
@@ -7717,16 +4847,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>378455.7438794728</v>
+        <v>466596.7016491754</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-51009.413817425</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E23" t="n">
-        <v>327446.3300620478</v>
+        <v>430254.5740106923</v>
       </c>
     </row>
     <row r="24">
@@ -7734,16 +4864,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>426666.6666666668</v>
+        <v>529565.2173913043</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-53786.85491117935</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E24" t="n">
-        <v>372879.8117554875</v>
+        <v>493223.0897528213</v>
       </c>
     </row>
     <row r="25">
@@ -7751,16 +4881,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>474877.5894538608</v>
+        <v>592533.7331334333</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-55901.33410477221</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E25" t="n">
-        <v>418976.2553490886</v>
+        <v>556191.6054949502</v>
       </c>
     </row>
     <row r="26">
@@ -7768,16 +4898,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>523088.5122410548</v>
+        <v>655502.2488755622</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-57499.09072439223</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E26" t="n">
-        <v>465589.4215166626</v>
+        <v>619160.1212370791</v>
       </c>
     </row>
     <row r="27">
@@ -7785,16 +4915,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>571299.4350282487</v>
+        <v>718470.764617691</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-58698.41278332517</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E27" t="n">
-        <v>512601.0222449235</v>
+        <v>682128.636979208</v>
       </c>
     </row>
     <row r="28">
@@ -7802,16 +4932,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>619510.3578154427</v>
+        <v>781439.28035982</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-59593.38134838279</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E28" t="n">
-        <v>559916.9764670599</v>
+        <v>745097.1527213369</v>
       </c>
     </row>
     <row r="29">
@@ -7819,16 +4949,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>667721.2806026367</v>
+        <v>844407.7961019489</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-60257.76639254618</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E29" t="n">
-        <v>607463.5142100905</v>
+        <v>808065.6684634659</v>
       </c>
     </row>
     <row r="30">
@@ -7836,16 +4966,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>715932.2033898307</v>
+        <v>907376.3118440779</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-60748.71304853683</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E30" t="n">
-        <v>655183.4903412939</v>
+        <v>871034.1842055948</v>
       </c>
     </row>
     <row r="31">
@@ -7853,16 +4983,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>764143.1261770247</v>
+        <v>970344.8275862068</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-61110.02817199536</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E31" t="n">
-        <v>703033.0980050294</v>
+        <v>934002.6999477238</v>
       </c>
     </row>
     <row r="32">
@@ -7870,16 +5000,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>812354.0489642186</v>
+        <v>1033313.343328336</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-61374.99179843096</v>
+        <v>-36342.12763848307</v>
       </c>
       <c r="E32" t="n">
-        <v>750979.0571657877</v>
+        <v>996971.2156898527</v>
       </c>
     </row>
   </sheetData>

--- a/RGGI PnL Output.xlsx
+++ b/RGGI PnL Output.xlsx
@@ -479,16 +479,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-855742.1289355322</v>
+        <v>-822836.152138976</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>262474.0727969955</v>
+        <v>252438.4836543038</v>
       </c>
       <c r="E2" t="n">
-        <v>-593268.0561385367</v>
+        <v>-570397.6684846722</v>
       </c>
     </row>
     <row r="3">
@@ -496,16 +496,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-792773.6131934032</v>
+        <v>-758552.0777531186</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>262361.6091251708</v>
+        <v>252315.6028522509</v>
       </c>
       <c r="E3" t="n">
-        <v>-530412.0040682324</v>
+        <v>-506236.4749008677</v>
       </c>
     </row>
     <row r="4">
@@ -513,16 +513,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-729805.0974512743</v>
+        <v>-694268.0033672611</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>261831.8332906794</v>
+        <v>251748.1743589293</v>
       </c>
       <c r="E4" t="n">
-        <v>-467973.2641605949</v>
+        <v>-442519.8290083319</v>
       </c>
     </row>
     <row r="5">
@@ -530,16 +530,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-666836.5817091453</v>
+        <v>-629983.9289814036</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>260047.8385347877</v>
+        <v>249866.2526802361</v>
       </c>
       <c r="E5" t="n">
-        <v>-406788.7431743576</v>
+        <v>-380117.6763011675</v>
       </c>
     </row>
     <row r="6">
@@ -547,16 +547,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>-603868.0659670165</v>
+        <v>-565699.8545955461</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>255452.9946210525</v>
+        <v>245074.3211129674</v>
       </c>
       <c r="E6" t="n">
-        <v>-348415.071345964</v>
+        <v>-320625.5334825788</v>
       </c>
     </row>
     <row r="7">
@@ -564,16 +564,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-540899.5502248876</v>
+        <v>-501415.7802096886</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>245930.8928769632</v>
+        <v>235226.7533310749</v>
       </c>
       <c r="E7" t="n">
-        <v>-294968.6573479243</v>
+        <v>-266189.0268786137</v>
       </c>
     </row>
     <row r="8">
@@ -581,16 +581,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-477931.0344827586</v>
+        <v>-437131.7058238311</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>229448.45469368</v>
+        <v>218282.1620386516</v>
       </c>
       <c r="E8" t="n">
-        <v>-248482.5797890786</v>
+        <v>-218849.5437851795</v>
       </c>
     </row>
     <row r="9">
@@ -598,16 +598,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-414962.5187406297</v>
+        <v>-372847.6314379736</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>204967.2086229752</v>
+        <v>193216.4060793968</v>
       </c>
       <c r="E9" t="n">
-        <v>-209995.3101176544</v>
+        <v>-179631.2253585768</v>
       </c>
     </row>
     <row r="10">
@@ -615,16 +615,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-351994.0029985007</v>
+        <v>-308563.5570521161</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>173163.1627071236</v>
+        <v>160738.4651235983</v>
       </c>
       <c r="E10" t="n">
-        <v>-178830.8402913771</v>
+        <v>-147825.0919285178</v>
       </c>
     </row>
     <row r="11">
@@ -632,16 +632,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>-289025.4872563718</v>
+        <v>-244279.4826662586</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>136518.7308123856</v>
+        <v>123376.9731829687</v>
       </c>
       <c r="E11" t="n">
-        <v>-152506.7564439861</v>
+        <v>-120902.5094832899</v>
       </c>
     </row>
     <row r="12">
@@ -649,16 +649,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>-226056.9715142429</v>
+        <v>-179995.4082804011</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>98666.00988246757</v>
+        <v>84816.66740976452</v>
       </c>
       <c r="E12" t="n">
-        <v>-127390.9616317753</v>
+        <v>-95178.74087063654</v>
       </c>
     </row>
     <row r="13">
@@ -666,16 +666,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>-163088.4557721139</v>
+        <v>-115711.3338945436</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>63289.71571118858</v>
+        <v>48792.04800451273</v>
       </c>
       <c r="E13" t="n">
-        <v>-99798.74006092534</v>
+        <v>-66919.28589003082</v>
       </c>
     </row>
     <row r="14">
@@ -683,16 +683,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>-100119.940029985</v>
+        <v>-51427.25950868605</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>33129.04544297224</v>
+        <v>18079.51589472648</v>
       </c>
       <c r="E14" t="n">
-        <v>-66990.89458701275</v>
+        <v>-33347.74361395957</v>
       </c>
     </row>
     <row r="15">
@@ -700,16 +700,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>-37151.42428785606</v>
+        <v>12856.81487717146</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>9489.190473298426</v>
+        <v>-5997.280587396705</v>
       </c>
       <c r="E15" t="n">
-        <v>-27662.23381455764</v>
+        <v>6859.534289774752</v>
       </c>
     </row>
     <row r="16">
@@ -717,16 +717,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>25817.09145427287</v>
+        <v>77140.88926302896</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-7670.115588341148</v>
+        <v>-23479.07856879307</v>
       </c>
       <c r="E16" t="n">
-        <v>18146.97586593172</v>
+        <v>53661.81069423589</v>
       </c>
     </row>
     <row r="17">
@@ -734,16 +734,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>88785.6071964018</v>
+        <v>141424.9636488864</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-19284.30577116874</v>
+        <v>-35315.78336190611</v>
       </c>
       <c r="E17" t="n">
-        <v>69501.30142523308</v>
+        <v>106109.1802869804</v>
       </c>
     </row>
     <row r="18">
@@ -751,16 +751,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>151754.1229385307</v>
+        <v>205709.038034744</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-26661.38050329144</v>
+        <v>-42836.83373014015</v>
       </c>
       <c r="E18" t="n">
-        <v>125092.7424352393</v>
+        <v>162872.2043046038</v>
       </c>
     </row>
     <row r="19">
@@ -768,16 +768,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>214722.6386806596</v>
+        <v>269993.1124206015</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-31084.51251568807</v>
+        <v>-47347.57908005321</v>
       </c>
       <c r="E19" t="n">
-        <v>183638.1261649716</v>
+        <v>222645.5333405483</v>
       </c>
     </row>
     <row r="20">
@@ -785,16 +785,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>277691.1544227886</v>
+        <v>334277.186806459</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-33601.22822188471</v>
+        <v>-49914.55075125043</v>
       </c>
       <c r="E20" t="n">
-        <v>244089.9262009039</v>
+        <v>284362.6360552086</v>
       </c>
     </row>
     <row r="21">
@@ -802,16 +802,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>340659.6701649175</v>
+        <v>398561.2611923165</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-34966.64543712087</v>
+        <v>-51307.17230110492</v>
       </c>
       <c r="E21" t="n">
-        <v>305693.0247277967</v>
+        <v>347254.0888912115</v>
       </c>
     </row>
     <row r="22">
@@ -819,16 +819,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>403628.1859070464</v>
+        <v>462845.3355781739</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-35675.981433181</v>
+        <v>-52030.39578944452</v>
       </c>
       <c r="E22" t="n">
-        <v>367952.2044738655</v>
+        <v>410814.9397887294</v>
       </c>
     </row>
     <row r="23">
@@ -836,16 +836,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>466596.7016491754</v>
+        <v>527129.4099640314</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-36030.12708314182</v>
+        <v>-52391.20201847891</v>
       </c>
       <c r="E23" t="n">
-        <v>430566.5745660336</v>
+        <v>474738.2079455525</v>
       </c>
     </row>
     <row r="24">
@@ -853,16 +853,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>529565.2173913043</v>
+        <v>591413.484349889</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-36200.57744635161</v>
+        <v>-52564.62545866078</v>
       </c>
       <c r="E24" t="n">
-        <v>493364.6399449527</v>
+        <v>538848.8588912282</v>
       </c>
     </row>
     <row r="25">
@@ -870,16 +870,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>592533.7331334333</v>
+        <v>655697.5587357464</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-36279.8613854369</v>
+        <v>-52645.11815900885</v>
       </c>
       <c r="E25" t="n">
-        <v>556253.8717479964</v>
+        <v>603052.4405767376</v>
       </c>
     </row>
     <row r="26">
@@ -887,16 +887,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>655502.2488755622</v>
+        <v>719981.633121604</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-36315.56766818892</v>
+        <v>-52681.24847032005</v>
       </c>
       <c r="E26" t="n">
-        <v>619186.6812073733</v>
+        <v>667300.384651284</v>
       </c>
     </row>
     <row r="27">
@@ -904,16 +904,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>718470.764617691</v>
+        <v>784265.7075074614</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-36331.15395069128</v>
+        <v>-52696.94105705707</v>
       </c>
       <c r="E27" t="n">
-        <v>682139.6106669998</v>
+        <v>731568.7664504043</v>
       </c>
     </row>
     <row r="28">
@@ -921,16 +921,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>781439.28035982</v>
+        <v>848549.781893319</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-36337.74902758277</v>
+        <v>-52703.53145325704</v>
       </c>
       <c r="E28" t="n">
-        <v>745101.5313322372</v>
+        <v>795846.2504400619</v>
       </c>
     </row>
     <row r="29">
@@ -938,16 +938,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>844407.7961019489</v>
+        <v>912833.8562791765</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-36340.45066406781</v>
+        <v>-52706.20067661883</v>
       </c>
       <c r="E29" t="n">
-        <v>808067.3454378812</v>
+        <v>860127.6556025577</v>
       </c>
     </row>
     <row r="30">
@@ -955,16 +955,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>907376.3118440779</v>
+        <v>977117.930665034</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-36341.51851787463</v>
+        <v>-52707.23728918788</v>
       </c>
       <c r="E30" t="n">
-        <v>871034.7933262032</v>
+        <v>924410.6933758461</v>
       </c>
     </row>
     <row r="31">
@@ -972,16 +972,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>970344.8275862068</v>
+        <v>1041402.005050892</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-36341.92299201334</v>
+        <v>-52707.61885751642</v>
       </c>
       <c r="E31" t="n">
-        <v>934002.9045941934</v>
+        <v>988694.3861933751</v>
       </c>
     </row>
     <row r="32">
@@ -989,16 +989,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>1033313.343328336</v>
+        <v>1105686.079436749</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-36342.06781305924</v>
+        <v>-52707.74878298122</v>
       </c>
       <c r="E32" t="n">
-        <v>996971.2755152766</v>
+        <v>1052978.330653768</v>
       </c>
     </row>
   </sheetData>
@@ -1052,16 +1052,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-855742.1289355322</v>
+        <v>-822836.152138976</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>263042.6065634855</v>
+        <v>252931.7700132424</v>
       </c>
       <c r="E2" t="n">
-        <v>-592699.5223720467</v>
+        <v>-569904.3821257337</v>
       </c>
     </row>
     <row r="3">
@@ -1069,16 +1069,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-792773.6131934032</v>
+        <v>-758552.0777531186</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>263042.2342824636</v>
+        <v>252930.7329617465</v>
       </c>
       <c r="E3" t="n">
-        <v>-529731.3789109397</v>
+        <v>-505621.3447913721</v>
       </c>
     </row>
     <row r="4">
@@ -1086,16 +1086,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-729805.0974512743</v>
+        <v>-694268.0033672611</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>263033.2444407611</v>
+        <v>252912.0206849655</v>
       </c>
       <c r="E4" t="n">
-        <v>-466771.8530105132</v>
+        <v>-441355.9826822956</v>
       </c>
     </row>
     <row r="5">
@@ -1103,16 +1103,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-666836.5817091453</v>
+        <v>-629983.9289814036</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>262926.8048972545</v>
+        <v>252734.828188701</v>
       </c>
       <c r="E5" t="n">
-        <v>-403909.7768118908</v>
+        <v>-377249.1007927026</v>
       </c>
     </row>
     <row r="6">
@@ -1120,16 +1120,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>-603868.0659670165</v>
+        <v>-565699.8545955461</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>262214.4931790962</v>
+        <v>251733.2184967126</v>
       </c>
       <c r="E6" t="n">
-        <v>-341653.5727879203</v>
+        <v>-313966.6360988336</v>
       </c>
     </row>
     <row r="7">
@@ -1137,16 +1137,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-540899.5502248876</v>
+        <v>-501415.7802096886</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>259205.2944238416</v>
+        <v>247996.9878147464</v>
       </c>
       <c r="E7" t="n">
-        <v>-281694.2558010459</v>
+        <v>-253418.7923949422</v>
       </c>
     </row>
     <row r="8">
@@ -1154,16 +1154,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-477931.0344827586</v>
+        <v>-437131.7058238311</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>250439.2976541025</v>
+        <v>238035.3942099423</v>
       </c>
       <c r="E8" t="n">
-        <v>-227491.7368286561</v>
+        <v>-199096.3116138888</v>
       </c>
     </row>
     <row r="9">
@@ -1171,16 +1171,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-414962.5187406297</v>
+        <v>-372847.6314379736</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>231529.4549715421</v>
+        <v>217804.8023975942</v>
       </c>
       <c r="E9" t="n">
-        <v>-183433.0637690875</v>
+        <v>-155042.8290403794</v>
       </c>
     </row>
     <row r="10">
@@ -1188,16 +1188,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-351994.0029985007</v>
+        <v>-308563.5570521161</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>199594.5577095294</v>
+        <v>184961.3849182866</v>
       </c>
       <c r="E10" t="n">
-        <v>-152399.4452889713</v>
+        <v>-123602.1721338295</v>
       </c>
     </row>
     <row r="11">
@@ -1205,16 +1205,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>-289025.4872563718</v>
+        <v>-244279.4826662586</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>155706.5367515421</v>
+        <v>140929.538466069</v>
       </c>
       <c r="E11" t="n">
-        <v>-133318.9505048297</v>
+        <v>-103349.9442001896</v>
       </c>
     </row>
     <row r="12">
@@ -1222,16 +1222,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>-226056.9715142429</v>
+        <v>-179995.4082804011</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>105544.4424904998</v>
+        <v>91291.60556224402</v>
       </c>
       <c r="E12" t="n">
-        <v>-120512.5290237431</v>
+        <v>-88703.80271815704</v>
       </c>
     </row>
     <row r="13">
@@ -1239,16 +1239,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>-163088.4557721139</v>
+        <v>-115711.3338945436</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>57426.32555439941</v>
+        <v>43843.55680163623</v>
       </c>
       <c r="E13" t="n">
-        <v>-105662.1302177145</v>
+        <v>-71867.77709290732</v>
       </c>
     </row>
     <row r="14">
@@ -1256,16 +1256,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>-100119.940029985</v>
+        <v>-51427.25950868605</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>18549.15428146773</v>
+        <v>5208.845898874628</v>
       </c>
       <c r="E14" t="n">
-        <v>-81570.78574851726</v>
+        <v>-46218.41360981142</v>
       </c>
     </row>
     <row r="15">
@@ -1273,16 +1273,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>-37151.42428785606</v>
+        <v>12856.81487717146</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-8006.745278291369</v>
+        <v>-21723.80448623145</v>
       </c>
       <c r="E15" t="n">
-        <v>-45158.16956614743</v>
+        <v>-8866.989609059992</v>
       </c>
     </row>
     <row r="16">
@@ -1290,16 +1290,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>25817.09145427287</v>
+        <v>77140.88926302896</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-23440.18391020114</v>
+        <v>-37911.66730436913</v>
       </c>
       <c r="E16" t="n">
-        <v>2376.907544071732</v>
+        <v>39229.22195865983</v>
       </c>
     </row>
     <row r="17">
@@ -1307,16 +1307,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>88785.6071964018</v>
+        <v>141424.9636488864</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-31140.09224658549</v>
+        <v>-46376.14820952732</v>
       </c>
       <c r="E17" t="n">
-        <v>57645.51494981632</v>
+        <v>95048.81543935914</v>
       </c>
     </row>
     <row r="18">
@@ -1324,16 +1324,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>151754.1229385307</v>
+        <v>205709.038034744</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-34473.17128210289</v>
+        <v>-50265.73756004327</v>
       </c>
       <c r="E18" t="n">
-        <v>117280.9516564278</v>
+        <v>155443.3004747007</v>
       </c>
     </row>
     <row r="19">
@@ -1341,16 +1341,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>214722.6386806596</v>
+        <v>269993.1124206015</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-35739.27120425804</v>
+        <v>-51853.06427993339</v>
       </c>
       <c r="E19" t="n">
-        <v>178983.3674764016</v>
+        <v>218140.0481406681</v>
       </c>
     </row>
     <row r="20">
@@ -1358,16 +1358,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>277691.1544227886</v>
+        <v>334277.186806459</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-36166.12059441444</v>
+        <v>-52434.34710413059</v>
       </c>
       <c r="E20" t="n">
-        <v>241525.0338283741</v>
+        <v>281842.8397023284</v>
       </c>
     </row>
     <row r="21">
@@ -1375,16 +1375,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>340659.6701649175</v>
+        <v>398561.2611923165</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-36295.23902341467</v>
+        <v>-52627.25339206284</v>
       </c>
       <c r="E21" t="n">
-        <v>304364.4311415029</v>
+        <v>345934.0078002536</v>
       </c>
     </row>
     <row r="22">
@@ -1392,16 +1392,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>403628.1859070464</v>
+        <v>462845.3355781739</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-36330.64054476333</v>
+        <v>-52685.8016743356</v>
       </c>
       <c r="E22" t="n">
-        <v>367297.5453622831</v>
+        <v>410159.5339038383</v>
       </c>
     </row>
     <row r="23">
@@ -1409,16 +1409,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>466596.7016491754</v>
+        <v>527129.4099640314</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-36339.52078419967</v>
+        <v>-52702.18896076799</v>
       </c>
       <c r="E23" t="n">
-        <v>430257.1808649757</v>
+        <v>474427.2210032634</v>
       </c>
     </row>
     <row r="24">
@@ -1426,16 +1426,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>529565.2173913043</v>
+        <v>591413.484349889</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-36341.57599497517</v>
+        <v>-52706.45043344553</v>
       </c>
       <c r="E24" t="n">
-        <v>493223.6413963292</v>
+        <v>538707.0339164435</v>
       </c>
     </row>
     <row r="25">
@@ -1443,16 +1443,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>592533.7331334333</v>
+        <v>655697.5587357464</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-36342.01815044413</v>
+        <v>-52707.48677287078</v>
       </c>
       <c r="E25" t="n">
-        <v>556191.7149829891</v>
+        <v>602990.0719628757</v>
       </c>
     </row>
     <row r="26">
@@ -1460,16 +1460,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>655502.2488755622</v>
+        <v>719981.633121604</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-36342.10715674113</v>
+        <v>-52707.72375899032</v>
       </c>
       <c r="E26" t="n">
-        <v>619160.1417188211</v>
+        <v>667273.9093626137</v>
       </c>
     </row>
     <row r="27">
@@ -1477,16 +1477,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>718470.764617691</v>
+        <v>784265.7075074614</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-36342.12401377338</v>
+        <v>-52707.77493899787</v>
       </c>
       <c r="E27" t="n">
-        <v>682128.6406039177</v>
+        <v>731557.9325684635</v>
       </c>
     </row>
     <row r="28">
@@ -1494,16 +1494,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>781439.28035982</v>
+        <v>848549.781893319</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-36342.12703035675</v>
+        <v>-52707.78540697201</v>
       </c>
       <c r="E28" t="n">
-        <v>745097.1533294632</v>
+        <v>795841.9964863469</v>
       </c>
     </row>
     <row r="29">
@@ -1511,16 +1511,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>844407.7961019489</v>
+        <v>912833.8562791765</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-36342.1275418005</v>
+        <v>-52707.78743610945</v>
       </c>
       <c r="E29" t="n">
-        <v>808065.6685601484</v>
+        <v>860126.068843067</v>
       </c>
     </row>
     <row r="30">
@@ -1528,16 +1528,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>907376.3118440779</v>
+        <v>977117.930665034</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-36342.12762398682</v>
+        <v>-52707.78780785589</v>
       </c>
       <c r="E30" t="n">
-        <v>871034.1842200911</v>
+        <v>924410.1428571781</v>
       </c>
     </row>
     <row r="31">
@@ -1545,16 +1545,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>970344.8275862068</v>
+        <v>1041402.005050892</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-36342.12763646094</v>
+        <v>-52707.78787163344</v>
       </c>
       <c r="E31" t="n">
-        <v>934002.6999497459</v>
+        <v>988694.2171792581</v>
       </c>
     </row>
     <row r="32">
@@ -1562,16 +1562,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>1033313.343328336</v>
+        <v>1105686.079436749</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-36342.1276382299</v>
+        <v>-52707.78788164207</v>
       </c>
       <c r="E32" t="n">
-        <v>996971.2156901059</v>
+        <v>1052978.291555107</v>
       </c>
     </row>
   </sheetData>
@@ -1625,16 +1625,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-855742.1289355322</v>
+        <v>-822836.152138976</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>263507.9473240356</v>
+        <v>253406.8520495677</v>
       </c>
       <c r="E2" t="n">
-        <v>-592234.1816114966</v>
+        <v>-569429.3000894083</v>
       </c>
     </row>
     <row r="3">
@@ -1642,16 +1642,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-792773.6131934032</v>
+        <v>-758552.0777531186</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>263507.9473240356</v>
+        <v>253406.8520495677</v>
       </c>
       <c r="E3" t="n">
-        <v>-529265.6658693675</v>
+        <v>-505145.2257035509</v>
       </c>
     </row>
     <row r="4">
@@ -1659,16 +1659,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-729805.0974512743</v>
+        <v>-694268.0033672611</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>263507.9473240356</v>
+        <v>253406.8520495678</v>
       </c>
       <c r="E4" t="n">
-        <v>-466297.1501272387</v>
+        <v>-440861.1513176934</v>
       </c>
     </row>
     <row r="5">
@@ -1676,16 +1676,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-666836.5817091453</v>
+        <v>-629983.9289814036</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>263507.9473240356</v>
+        <v>253406.8520495678</v>
       </c>
       <c r="E5" t="n">
-        <v>-403328.6343851097</v>
+        <v>-376577.0769318358</v>
       </c>
     </row>
     <row r="6">
@@ -1693,16 +1693,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>-603868.0659670165</v>
+        <v>-565699.8545955461</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>263507.9473240356</v>
+        <v>253406.8520495677</v>
       </c>
       <c r="E6" t="n">
-        <v>-340360.1186429809</v>
+        <v>-312293.0025459784</v>
       </c>
     </row>
     <row r="7">
@@ -1710,16 +1710,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-540899.5502248876</v>
+        <v>-501415.7802096886</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>263507.9473240356</v>
+        <v>253406.8520495678</v>
       </c>
       <c r="E7" t="n">
-        <v>-277391.602900852</v>
+        <v>-248008.9281601208</v>
       </c>
     </row>
     <row r="8">
@@ -1727,16 +1727,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-477931.0344827586</v>
+        <v>-437131.7058238311</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>263507.9473240356</v>
+        <v>253406.8520495678</v>
       </c>
       <c r="E8" t="n">
-        <v>-214423.087158723</v>
+        <v>-183724.8537742633</v>
       </c>
     </row>
     <row r="9">
@@ -1744,16 +1744,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-414962.5187406297</v>
+        <v>-372847.6314379736</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>263507.9473240356</v>
+        <v>253406.8520495678</v>
       </c>
       <c r="E9" t="n">
-        <v>-151454.571416594</v>
+        <v>-119440.7793884058</v>
       </c>
     </row>
     <row r="10">
@@ -1761,16 +1761,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-351994.0029985007</v>
+        <v>-308563.5570521161</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>263507.9473240356</v>
+        <v>253406.8520495678</v>
       </c>
       <c r="E10" t="n">
-        <v>-88486.05567446508</v>
+        <v>-55156.70500254829</v>
       </c>
     </row>
     <row r="11">
@@ -1778,16 +1778,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>-289025.4872563718</v>
+        <v>-244279.4826662586</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>188545.428583406</v>
+        <v>176878.1920664041</v>
       </c>
       <c r="E11" t="n">
-        <v>-100480.0586729658</v>
+        <v>-67401.29059985443</v>
       </c>
     </row>
     <row r="12">
@@ -1795,16 +1795,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>-226056.9715142429</v>
+        <v>-179995.4082804011</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>113582.9098427763</v>
+        <v>100349.5320832404</v>
       </c>
       <c r="E12" t="n">
-        <v>-112474.0616714666</v>
+        <v>-79645.87619716061</v>
       </c>
     </row>
     <row r="13">
@@ -1812,16 +1812,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>-163088.4557721139</v>
+        <v>-115711.3338945436</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>38620.3911021466</v>
+        <v>23820.87210007674</v>
       </c>
       <c r="E13" t="n">
-        <v>-124468.0646699673</v>
+        <v>-91890.46179446681</v>
       </c>
     </row>
     <row r="14">
@@ -1829,16 +1829,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>-100119.940029985</v>
+        <v>-51427.25950868605</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E14" t="n">
-        <v>-136462.0676684681</v>
+        <v>-104135.047391773</v>
       </c>
     </row>
     <row r="15">
@@ -1846,16 +1846,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>-37151.42428785606</v>
+        <v>12856.81487717146</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E15" t="n">
-        <v>-73493.55192633913</v>
+        <v>-39850.9730059155</v>
       </c>
     </row>
     <row r="16">
@@ -1863,16 +1863,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>25817.09145427287</v>
+        <v>77140.88926302896</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E16" t="n">
-        <v>-10525.0361842102</v>
+        <v>24433.10137994201</v>
       </c>
     </row>
     <row r="17">
@@ -1880,16 +1880,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>88785.6071964018</v>
+        <v>141424.9636488864</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E17" t="n">
-        <v>52443.47955791873</v>
+        <v>88717.1757657995</v>
       </c>
     </row>
     <row r="18">
@@ -1897,16 +1897,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>151754.1229385307</v>
+        <v>205709.038034744</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E18" t="n">
-        <v>115411.9953000477</v>
+        <v>153001.250151657</v>
       </c>
     </row>
     <row r="19">
@@ -1914,16 +1914,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>214722.6386806596</v>
+        <v>269993.1124206015</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E19" t="n">
-        <v>178380.5110421766</v>
+        <v>217285.3245375145</v>
       </c>
     </row>
     <row r="20">
@@ -1931,16 +1931,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>277691.1544227886</v>
+        <v>334277.186806459</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E20" t="n">
-        <v>241349.0267843055</v>
+        <v>281569.398923372</v>
       </c>
     </row>
     <row r="21">
@@ -1948,16 +1948,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>340659.6701649175</v>
+        <v>398561.2611923165</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E21" t="n">
-        <v>304317.5425264345</v>
+        <v>345853.4733092295</v>
       </c>
     </row>
     <row r="22">
@@ -1965,16 +1965,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>403628.1859070464</v>
+        <v>462845.3355781739</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E22" t="n">
-        <v>367286.0582685634</v>
+        <v>410137.547695087</v>
       </c>
     </row>
     <row r="23">
@@ -1982,16 +1982,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>466596.7016491754</v>
+        <v>527129.4099640314</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E23" t="n">
-        <v>430254.5740106923</v>
+        <v>474421.6220809445</v>
       </c>
     </row>
     <row r="24">
@@ -1999,16 +1999,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>529565.2173913043</v>
+        <v>591413.484349889</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E24" t="n">
-        <v>493223.0897528213</v>
+        <v>538705.696466802</v>
       </c>
     </row>
     <row r="25">
@@ -2016,16 +2016,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>592533.7331334333</v>
+        <v>655697.5587357464</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E25" t="n">
-        <v>556191.6054949502</v>
+        <v>602989.7708526595</v>
       </c>
     </row>
     <row r="26">
@@ -2033,16 +2033,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>655502.2488755622</v>
+        <v>719981.633121604</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E26" t="n">
-        <v>619160.1212370791</v>
+        <v>667273.845238517</v>
       </c>
     </row>
     <row r="27">
@@ -2050,16 +2050,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>718470.764617691</v>
+        <v>784265.7075074614</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E27" t="n">
-        <v>682128.636979208</v>
+        <v>731557.9196243745</v>
       </c>
     </row>
     <row r="28">
@@ -2067,16 +2067,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>781439.28035982</v>
+        <v>848549.781893319</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E28" t="n">
-        <v>745097.1527213369</v>
+        <v>795841.994010232</v>
       </c>
     </row>
     <row r="29">
@@ -2084,16 +2084,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>844407.7961019489</v>
+        <v>912833.8562791765</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E29" t="n">
-        <v>808065.6684634659</v>
+        <v>860126.0683960896</v>
       </c>
     </row>
     <row r="30">
@@ -2101,16 +2101,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>907376.3118440779</v>
+        <v>977117.930665034</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E30" t="n">
-        <v>871034.1842055948</v>
+        <v>924410.142781947</v>
       </c>
     </row>
     <row r="31">
@@ -2118,16 +2118,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>970344.8275862068</v>
+        <v>1041402.005050892</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E31" t="n">
-        <v>934002.6999477238</v>
+        <v>988694.2171678046</v>
       </c>
     </row>
     <row r="32">
@@ -2135,16 +2135,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>1033313.343328336</v>
+        <v>1105686.079436749</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E32" t="n">
-        <v>996971.2156898527</v>
+        <v>1052978.291553662</v>
       </c>
     </row>
   </sheetData>
@@ -2198,16 +2198,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-855742.1289355322</v>
+        <v>-822836.152138976</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>263507.9473240356</v>
+        <v>253406.8520495677</v>
       </c>
       <c r="E2" t="n">
-        <v>-592234.1816114966</v>
+        <v>-569429.3000894083</v>
       </c>
     </row>
     <row r="3">
@@ -2215,16 +2215,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-792773.6131934032</v>
+        <v>-758552.0777531186</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>263507.9473240356</v>
+        <v>253406.8520495677</v>
       </c>
       <c r="E3" t="n">
-        <v>-529265.6658693675</v>
+        <v>-505145.2257035509</v>
       </c>
     </row>
     <row r="4">
@@ -2232,16 +2232,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-729805.0974512743</v>
+        <v>-694268.0033672611</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>263507.9473240356</v>
+        <v>253406.8520495678</v>
       </c>
       <c r="E4" t="n">
-        <v>-466297.1501272387</v>
+        <v>-440861.1513176934</v>
       </c>
     </row>
     <row r="5">
@@ -2249,16 +2249,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-666836.5817091453</v>
+        <v>-629983.9289814036</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>263507.9473240356</v>
+        <v>253406.8520495678</v>
       </c>
       <c r="E5" t="n">
-        <v>-403328.6343851097</v>
+        <v>-376577.0769318358</v>
       </c>
     </row>
     <row r="6">
@@ -2266,16 +2266,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>-603868.0659670165</v>
+        <v>-565699.8545955461</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>263507.9473240356</v>
+        <v>253406.8520495677</v>
       </c>
       <c r="E6" t="n">
-        <v>-340360.1186429809</v>
+        <v>-312293.0025459784</v>
       </c>
     </row>
     <row r="7">
@@ -2283,16 +2283,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-540899.5502248876</v>
+        <v>-501415.7802096886</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>263507.9473240356</v>
+        <v>253406.8520495678</v>
       </c>
       <c r="E7" t="n">
-        <v>-277391.602900852</v>
+        <v>-248008.9281601208</v>
       </c>
     </row>
     <row r="8">
@@ -2300,16 +2300,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-477931.0344827586</v>
+        <v>-437131.7058238311</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>263507.9473240356</v>
+        <v>253406.8520495678</v>
       </c>
       <c r="E8" t="n">
-        <v>-214423.087158723</v>
+        <v>-183724.8537742633</v>
       </c>
     </row>
     <row r="9">
@@ -2317,16 +2317,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-414962.5187406297</v>
+        <v>-372847.6314379736</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>263507.9473240356</v>
+        <v>253406.8520495678</v>
       </c>
       <c r="E9" t="n">
-        <v>-151454.571416594</v>
+        <v>-119440.7793884058</v>
       </c>
     </row>
     <row r="10">
@@ -2334,16 +2334,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-351994.0029985007</v>
+        <v>-308563.5570521161</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>263507.9473240356</v>
+        <v>253406.8520495678</v>
       </c>
       <c r="E10" t="n">
-        <v>-88486.05567446508</v>
+        <v>-55156.70500254829</v>
       </c>
     </row>
     <row r="11">
@@ -2351,16 +2351,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>-289025.4872563718</v>
+        <v>-244279.4826662586</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>188545.428583406</v>
+        <v>176878.1920664041</v>
       </c>
       <c r="E11" t="n">
-        <v>-100480.0586729658</v>
+        <v>-67401.29059985443</v>
       </c>
     </row>
     <row r="12">
@@ -2368,16 +2368,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>-226056.9715142429</v>
+        <v>-179995.4082804011</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>113582.9098427763</v>
+        <v>100349.5320832404</v>
       </c>
       <c r="E12" t="n">
-        <v>-112474.0616714666</v>
+        <v>-79645.87619716061</v>
       </c>
     </row>
     <row r="13">
@@ -2385,16 +2385,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>-163088.4557721139</v>
+        <v>-115711.3338945436</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>38620.3911021466</v>
+        <v>23820.87210007674</v>
       </c>
       <c r="E13" t="n">
-        <v>-124468.0646699673</v>
+        <v>-91890.46179446681</v>
       </c>
     </row>
     <row r="14">
@@ -2402,16 +2402,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>-100119.940029985</v>
+        <v>-51427.25950868605</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E14" t="n">
-        <v>-136462.0676684681</v>
+        <v>-104135.047391773</v>
       </c>
     </row>
     <row r="15">
@@ -2419,16 +2419,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>-37151.42428785606</v>
+        <v>12856.81487717146</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E15" t="n">
-        <v>-73493.55192633913</v>
+        <v>-39850.9730059155</v>
       </c>
     </row>
     <row r="16">
@@ -2436,16 +2436,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>25817.09145427287</v>
+        <v>77140.88926302896</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E16" t="n">
-        <v>-10525.0361842102</v>
+        <v>24433.10137994201</v>
       </c>
     </row>
     <row r="17">
@@ -2453,16 +2453,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>88785.6071964018</v>
+        <v>141424.9636488864</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E17" t="n">
-        <v>52443.47955791873</v>
+        <v>88717.1757657995</v>
       </c>
     </row>
     <row r="18">
@@ -2470,16 +2470,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>151754.1229385307</v>
+        <v>205709.038034744</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E18" t="n">
-        <v>115411.9953000477</v>
+        <v>153001.250151657</v>
       </c>
     </row>
     <row r="19">
@@ -2487,16 +2487,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>214722.6386806596</v>
+        <v>269993.1124206015</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E19" t="n">
-        <v>178380.5110421766</v>
+        <v>217285.3245375145</v>
       </c>
     </row>
     <row r="20">
@@ -2504,16 +2504,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>277691.1544227886</v>
+        <v>334277.186806459</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E20" t="n">
-        <v>241349.0267843055</v>
+        <v>281569.398923372</v>
       </c>
     </row>
     <row r="21">
@@ -2521,16 +2521,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>340659.6701649175</v>
+        <v>398561.2611923165</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E21" t="n">
-        <v>304317.5425264345</v>
+        <v>345853.4733092295</v>
       </c>
     </row>
     <row r="22">
@@ -2538,16 +2538,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>403628.1859070464</v>
+        <v>462845.3355781739</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E22" t="n">
-        <v>367286.0582685634</v>
+        <v>410137.547695087</v>
       </c>
     </row>
     <row r="23">
@@ -2555,16 +2555,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>466596.7016491754</v>
+        <v>527129.4099640314</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E23" t="n">
-        <v>430254.5740106923</v>
+        <v>474421.6220809445</v>
       </c>
     </row>
     <row r="24">
@@ -2572,16 +2572,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>529565.2173913043</v>
+        <v>591413.484349889</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E24" t="n">
-        <v>493223.0897528213</v>
+        <v>538705.696466802</v>
       </c>
     </row>
     <row r="25">
@@ -2589,16 +2589,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>592533.7331334333</v>
+        <v>655697.5587357464</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E25" t="n">
-        <v>556191.6054949502</v>
+        <v>602989.7708526595</v>
       </c>
     </row>
     <row r="26">
@@ -2606,16 +2606,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>655502.2488755622</v>
+        <v>719981.633121604</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E26" t="n">
-        <v>619160.1212370791</v>
+        <v>667273.845238517</v>
       </c>
     </row>
     <row r="27">
@@ -2623,16 +2623,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>718470.764617691</v>
+        <v>784265.7075074614</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E27" t="n">
-        <v>682128.636979208</v>
+        <v>731557.9196243745</v>
       </c>
     </row>
     <row r="28">
@@ -2640,16 +2640,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>781439.28035982</v>
+        <v>848549.781893319</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E28" t="n">
-        <v>745097.1527213369</v>
+        <v>795841.994010232</v>
       </c>
     </row>
     <row r="29">
@@ -2657,16 +2657,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>844407.7961019489</v>
+        <v>912833.8562791765</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E29" t="n">
-        <v>808065.6684634659</v>
+        <v>860126.0683960896</v>
       </c>
     </row>
     <row r="30">
@@ -2674,16 +2674,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>907376.3118440779</v>
+        <v>977117.930665034</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E30" t="n">
-        <v>871034.1842055948</v>
+        <v>924410.142781947</v>
       </c>
     </row>
     <row r="31">
@@ -2691,16 +2691,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>970344.8275862068</v>
+        <v>1041402.005050892</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E31" t="n">
-        <v>934002.6999477238</v>
+        <v>988694.2171678046</v>
       </c>
     </row>
     <row r="32">
@@ -2708,16 +2708,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>1033313.343328336</v>
+        <v>1105686.079436749</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E32" t="n">
-        <v>996971.2156898527</v>
+        <v>1052978.291553662</v>
       </c>
     </row>
   </sheetData>
@@ -2771,16 +2771,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-855742.1289355322</v>
+        <v>-822836.152138976</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>263507.9473240356</v>
+        <v>253406.8520495677</v>
       </c>
       <c r="E2" t="n">
-        <v>-592234.1816114966</v>
+        <v>-569429.3000894083</v>
       </c>
     </row>
     <row r="3">
@@ -2788,16 +2788,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-792773.6131934032</v>
+        <v>-758552.0777531186</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>263507.9473240356</v>
+        <v>253406.8520495677</v>
       </c>
       <c r="E3" t="n">
-        <v>-529265.6658693675</v>
+        <v>-505145.2257035509</v>
       </c>
     </row>
     <row r="4">
@@ -2805,16 +2805,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-729805.0974512743</v>
+        <v>-694268.0033672611</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>263507.9473240356</v>
+        <v>253406.8520495678</v>
       </c>
       <c r="E4" t="n">
-        <v>-466297.1501272387</v>
+        <v>-440861.1513176934</v>
       </c>
     </row>
     <row r="5">
@@ -2822,16 +2822,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-666836.5817091453</v>
+        <v>-629983.9289814036</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>263507.9473240356</v>
+        <v>253406.8520495678</v>
       </c>
       <c r="E5" t="n">
-        <v>-403328.6343851097</v>
+        <v>-376577.0769318358</v>
       </c>
     </row>
     <row r="6">
@@ -2839,16 +2839,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>-603868.0659670165</v>
+        <v>-565699.8545955461</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>263507.9473240356</v>
+        <v>253406.8520495677</v>
       </c>
       <c r="E6" t="n">
-        <v>-340360.1186429809</v>
+        <v>-312293.0025459784</v>
       </c>
     </row>
     <row r="7">
@@ -2856,16 +2856,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-540899.5502248876</v>
+        <v>-501415.7802096886</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>263507.9473240356</v>
+        <v>253406.8520495678</v>
       </c>
       <c r="E7" t="n">
-        <v>-277391.602900852</v>
+        <v>-248008.9281601208</v>
       </c>
     </row>
     <row r="8">
@@ -2873,16 +2873,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-477931.0344827586</v>
+        <v>-437131.7058238311</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>263507.9473240356</v>
+        <v>253406.8520495678</v>
       </c>
       <c r="E8" t="n">
-        <v>-214423.087158723</v>
+        <v>-183724.8537742633</v>
       </c>
     </row>
     <row r="9">
@@ -2890,16 +2890,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-414962.5187406297</v>
+        <v>-372847.6314379736</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>263507.9473240356</v>
+        <v>253406.8520495678</v>
       </c>
       <c r="E9" t="n">
-        <v>-151454.571416594</v>
+        <v>-119440.7793884058</v>
       </c>
     </row>
     <row r="10">
@@ -2907,16 +2907,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-351994.0029985007</v>
+        <v>-308563.5570521161</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>263507.9473240356</v>
+        <v>253406.8520495678</v>
       </c>
       <c r="E10" t="n">
-        <v>-88486.05567446508</v>
+        <v>-55156.70500254829</v>
       </c>
     </row>
     <row r="11">
@@ -2924,16 +2924,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>-289025.4872563718</v>
+        <v>-244279.4826662586</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>188545.428583406</v>
+        <v>176878.1920664041</v>
       </c>
       <c r="E11" t="n">
-        <v>-100480.0586729658</v>
+        <v>-67401.29059985443</v>
       </c>
     </row>
     <row r="12">
@@ -2941,16 +2941,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>-226056.9715142429</v>
+        <v>-179995.4082804011</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>113582.9098427763</v>
+        <v>100349.5320832404</v>
       </c>
       <c r="E12" t="n">
-        <v>-112474.0616714666</v>
+        <v>-79645.87619716061</v>
       </c>
     </row>
     <row r="13">
@@ -2958,16 +2958,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>-163088.4557721139</v>
+        <v>-115711.3338945436</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>38620.3911021466</v>
+        <v>23820.87210007674</v>
       </c>
       <c r="E13" t="n">
-        <v>-124468.0646699673</v>
+        <v>-91890.46179446681</v>
       </c>
     </row>
     <row r="14">
@@ -2975,16 +2975,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>-100119.940029985</v>
+        <v>-51427.25950868605</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E14" t="n">
-        <v>-136462.0676684681</v>
+        <v>-104135.047391773</v>
       </c>
     </row>
     <row r="15">
@@ -2992,16 +2992,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>-37151.42428785606</v>
+        <v>12856.81487717146</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E15" t="n">
-        <v>-73493.55192633913</v>
+        <v>-39850.9730059155</v>
       </c>
     </row>
     <row r="16">
@@ -3009,16 +3009,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>25817.09145427287</v>
+        <v>77140.88926302896</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E16" t="n">
-        <v>-10525.0361842102</v>
+        <v>24433.10137994201</v>
       </c>
     </row>
     <row r="17">
@@ -3026,16 +3026,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>88785.6071964018</v>
+        <v>141424.9636488864</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E17" t="n">
-        <v>52443.47955791873</v>
+        <v>88717.1757657995</v>
       </c>
     </row>
     <row r="18">
@@ -3043,16 +3043,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>151754.1229385307</v>
+        <v>205709.038034744</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E18" t="n">
-        <v>115411.9953000477</v>
+        <v>153001.250151657</v>
       </c>
     </row>
     <row r="19">
@@ -3060,16 +3060,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>214722.6386806596</v>
+        <v>269993.1124206015</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E19" t="n">
-        <v>178380.5110421766</v>
+        <v>217285.3245375145</v>
       </c>
     </row>
     <row r="20">
@@ -3077,16 +3077,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>277691.1544227886</v>
+        <v>334277.186806459</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E20" t="n">
-        <v>241349.0267843055</v>
+        <v>281569.398923372</v>
       </c>
     </row>
     <row r="21">
@@ -3094,16 +3094,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>340659.6701649175</v>
+        <v>398561.2611923165</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E21" t="n">
-        <v>304317.5425264345</v>
+        <v>345853.4733092295</v>
       </c>
     </row>
     <row r="22">
@@ -3111,16 +3111,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>403628.1859070464</v>
+        <v>462845.3355781739</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E22" t="n">
-        <v>367286.0582685634</v>
+        <v>410137.547695087</v>
       </c>
     </row>
     <row r="23">
@@ -3128,16 +3128,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>466596.7016491754</v>
+        <v>527129.4099640314</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E23" t="n">
-        <v>430254.5740106923</v>
+        <v>474421.6220809445</v>
       </c>
     </row>
     <row r="24">
@@ -3145,16 +3145,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>529565.2173913043</v>
+        <v>591413.484349889</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E24" t="n">
-        <v>493223.0897528213</v>
+        <v>538705.696466802</v>
       </c>
     </row>
     <row r="25">
@@ -3162,16 +3162,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>592533.7331334333</v>
+        <v>655697.5587357464</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E25" t="n">
-        <v>556191.6054949502</v>
+        <v>602989.7708526595</v>
       </c>
     </row>
     <row r="26">
@@ -3179,16 +3179,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>655502.2488755622</v>
+        <v>719981.633121604</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E26" t="n">
-        <v>619160.1212370791</v>
+        <v>667273.845238517</v>
       </c>
     </row>
     <row r="27">
@@ -3196,16 +3196,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>718470.764617691</v>
+        <v>784265.7075074614</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E27" t="n">
-        <v>682128.636979208</v>
+        <v>731557.9196243745</v>
       </c>
     </row>
     <row r="28">
@@ -3213,16 +3213,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>781439.28035982</v>
+        <v>848549.781893319</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E28" t="n">
-        <v>745097.1527213369</v>
+        <v>795841.994010232</v>
       </c>
     </row>
     <row r="29">
@@ -3230,16 +3230,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>844407.7961019489</v>
+        <v>912833.8562791765</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E29" t="n">
-        <v>808065.6684634659</v>
+        <v>860126.0683960896</v>
       </c>
     </row>
     <row r="30">
@@ -3247,16 +3247,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>907376.3118440779</v>
+        <v>977117.930665034</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E30" t="n">
-        <v>871034.1842055948</v>
+        <v>924410.142781947</v>
       </c>
     </row>
     <row r="31">
@@ -3264,16 +3264,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>970344.8275862068</v>
+        <v>1041402.005050892</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E31" t="n">
-        <v>934002.6999477238</v>
+        <v>988694.2171678046</v>
       </c>
     </row>
     <row r="32">
@@ -3281,16 +3281,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>1033313.343328336</v>
+        <v>1105686.079436749</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E32" t="n">
-        <v>996971.2156898527</v>
+        <v>1052978.291553662</v>
       </c>
     </row>
   </sheetData>
@@ -3344,16 +3344,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-855742.1289355322</v>
+        <v>-822836.152138976</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>263507.9473240356</v>
+        <v>253406.8520495677</v>
       </c>
       <c r="E2" t="n">
-        <v>-592234.1816114966</v>
+        <v>-569429.3000894083</v>
       </c>
     </row>
     <row r="3">
@@ -3361,16 +3361,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-792773.6131934032</v>
+        <v>-758552.0777531186</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>263507.9473240356</v>
+        <v>253406.8520495677</v>
       </c>
       <c r="E3" t="n">
-        <v>-529265.6658693675</v>
+        <v>-505145.2257035509</v>
       </c>
     </row>
     <row r="4">
@@ -3378,16 +3378,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-729805.0974512743</v>
+        <v>-694268.0033672611</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>263507.9473240356</v>
+        <v>253406.8520495678</v>
       </c>
       <c r="E4" t="n">
-        <v>-466297.1501272387</v>
+        <v>-440861.1513176934</v>
       </c>
     </row>
     <row r="5">
@@ -3395,16 +3395,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-666836.5817091453</v>
+        <v>-629983.9289814036</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>263507.9473240356</v>
+        <v>253406.8520495678</v>
       </c>
       <c r="E5" t="n">
-        <v>-403328.6343851097</v>
+        <v>-376577.0769318358</v>
       </c>
     </row>
     <row r="6">
@@ -3412,16 +3412,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>-603868.0659670165</v>
+        <v>-565699.8545955461</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>263507.9473240356</v>
+        <v>253406.8520495677</v>
       </c>
       <c r="E6" t="n">
-        <v>-340360.1186429809</v>
+        <v>-312293.0025459784</v>
       </c>
     </row>
     <row r="7">
@@ -3429,16 +3429,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-540899.5502248876</v>
+        <v>-501415.7802096886</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>263507.9473240356</v>
+        <v>253406.8520495678</v>
       </c>
       <c r="E7" t="n">
-        <v>-277391.602900852</v>
+        <v>-248008.9281601208</v>
       </c>
     </row>
     <row r="8">
@@ -3446,16 +3446,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-477931.0344827586</v>
+        <v>-437131.7058238311</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>263507.9473240356</v>
+        <v>253406.8520495678</v>
       </c>
       <c r="E8" t="n">
-        <v>-214423.087158723</v>
+        <v>-183724.8537742633</v>
       </c>
     </row>
     <row r="9">
@@ -3463,16 +3463,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-414962.5187406297</v>
+        <v>-372847.6314379736</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>263507.9473240356</v>
+        <v>253406.8520495678</v>
       </c>
       <c r="E9" t="n">
-        <v>-151454.571416594</v>
+        <v>-119440.7793884058</v>
       </c>
     </row>
     <row r="10">
@@ -3480,16 +3480,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-351994.0029985007</v>
+        <v>-308563.5570521161</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>263507.9473240356</v>
+        <v>253406.8520495678</v>
       </c>
       <c r="E10" t="n">
-        <v>-88486.05567446508</v>
+        <v>-55156.70500254829</v>
       </c>
     </row>
     <row r="11">
@@ -3497,16 +3497,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>-289025.4872563718</v>
+        <v>-244279.4826662586</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>188545.428583406</v>
+        <v>176878.1920664041</v>
       </c>
       <c r="E11" t="n">
-        <v>-100480.0586729658</v>
+        <v>-67401.29059985443</v>
       </c>
     </row>
     <row r="12">
@@ -3514,16 +3514,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>-226056.9715142429</v>
+        <v>-179995.4082804011</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>113582.9098427763</v>
+        <v>100349.5320832404</v>
       </c>
       <c r="E12" t="n">
-        <v>-112474.0616714666</v>
+        <v>-79645.87619716061</v>
       </c>
     </row>
     <row r="13">
@@ -3531,16 +3531,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>-163088.4557721139</v>
+        <v>-115711.3338945436</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>38620.3911021466</v>
+        <v>23820.87210007674</v>
       </c>
       <c r="E13" t="n">
-        <v>-124468.0646699673</v>
+        <v>-91890.46179446681</v>
       </c>
     </row>
     <row r="14">
@@ -3548,16 +3548,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>-100119.940029985</v>
+        <v>-51427.25950868605</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E14" t="n">
-        <v>-136462.0676684681</v>
+        <v>-104135.047391773</v>
       </c>
     </row>
     <row r="15">
@@ -3565,16 +3565,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>-37151.42428785606</v>
+        <v>12856.81487717146</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E15" t="n">
-        <v>-73493.55192633913</v>
+        <v>-39850.9730059155</v>
       </c>
     </row>
     <row r="16">
@@ -3582,16 +3582,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>25817.09145427287</v>
+        <v>77140.88926302896</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E16" t="n">
-        <v>-10525.0361842102</v>
+        <v>24433.10137994201</v>
       </c>
     </row>
     <row r="17">
@@ -3599,16 +3599,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>88785.6071964018</v>
+        <v>141424.9636488864</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E17" t="n">
-        <v>52443.47955791873</v>
+        <v>88717.1757657995</v>
       </c>
     </row>
     <row r="18">
@@ -3616,16 +3616,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>151754.1229385307</v>
+        <v>205709.038034744</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E18" t="n">
-        <v>115411.9953000477</v>
+        <v>153001.250151657</v>
       </c>
     </row>
     <row r="19">
@@ -3633,16 +3633,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>214722.6386806596</v>
+        <v>269993.1124206015</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E19" t="n">
-        <v>178380.5110421766</v>
+        <v>217285.3245375145</v>
       </c>
     </row>
     <row r="20">
@@ -3650,16 +3650,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>277691.1544227886</v>
+        <v>334277.186806459</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E20" t="n">
-        <v>241349.0267843055</v>
+        <v>281569.398923372</v>
       </c>
     </row>
     <row r="21">
@@ -3667,16 +3667,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>340659.6701649175</v>
+        <v>398561.2611923165</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E21" t="n">
-        <v>304317.5425264345</v>
+        <v>345853.4733092295</v>
       </c>
     </row>
     <row r="22">
@@ -3684,16 +3684,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>403628.1859070464</v>
+        <v>462845.3355781739</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E22" t="n">
-        <v>367286.0582685634</v>
+        <v>410137.547695087</v>
       </c>
     </row>
     <row r="23">
@@ -3701,16 +3701,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>466596.7016491754</v>
+        <v>527129.4099640314</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E23" t="n">
-        <v>430254.5740106923</v>
+        <v>474421.6220809445</v>
       </c>
     </row>
     <row r="24">
@@ -3718,16 +3718,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>529565.2173913043</v>
+        <v>591413.484349889</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E24" t="n">
-        <v>493223.0897528213</v>
+        <v>538705.696466802</v>
       </c>
     </row>
     <row r="25">
@@ -3735,16 +3735,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>592533.7331334333</v>
+        <v>655697.5587357464</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E25" t="n">
-        <v>556191.6054949502</v>
+        <v>602989.7708526595</v>
       </c>
     </row>
     <row r="26">
@@ -3752,16 +3752,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>655502.2488755622</v>
+        <v>719981.633121604</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E26" t="n">
-        <v>619160.1212370791</v>
+        <v>667273.845238517</v>
       </c>
     </row>
     <row r="27">
@@ -3769,16 +3769,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>718470.764617691</v>
+        <v>784265.7075074614</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E27" t="n">
-        <v>682128.636979208</v>
+        <v>731557.9196243745</v>
       </c>
     </row>
     <row r="28">
@@ -3786,16 +3786,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>781439.28035982</v>
+        <v>848549.781893319</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E28" t="n">
-        <v>745097.1527213369</v>
+        <v>795841.994010232</v>
       </c>
     </row>
     <row r="29">
@@ -3803,16 +3803,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>844407.7961019489</v>
+        <v>912833.8562791765</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E29" t="n">
-        <v>808065.6684634659</v>
+        <v>860126.0683960896</v>
       </c>
     </row>
     <row r="30">
@@ -3820,16 +3820,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>907376.3118440779</v>
+        <v>977117.930665034</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E30" t="n">
-        <v>871034.1842055948</v>
+        <v>924410.142781947</v>
       </c>
     </row>
     <row r="31">
@@ -3837,16 +3837,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>970344.8275862068</v>
+        <v>1041402.005050892</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E31" t="n">
-        <v>934002.6999477238</v>
+        <v>988694.2171678046</v>
       </c>
     </row>
     <row r="32">
@@ -3854,16 +3854,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>1033313.343328336</v>
+        <v>1105686.079436749</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E32" t="n">
-        <v>996971.2156898527</v>
+        <v>1052978.291553662</v>
       </c>
     </row>
   </sheetData>
@@ -3917,16 +3917,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-855742.1289355322</v>
+        <v>-822836.152138976</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>263507.9473240356</v>
+        <v>253406.8520495677</v>
       </c>
       <c r="E2" t="n">
-        <v>-592234.1816114966</v>
+        <v>-569429.3000894083</v>
       </c>
     </row>
     <row r="3">
@@ -3934,16 +3934,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-792773.6131934032</v>
+        <v>-758552.0777531186</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>263507.9473240356</v>
+        <v>253406.8520495677</v>
       </c>
       <c r="E3" t="n">
-        <v>-529265.6658693675</v>
+        <v>-505145.2257035509</v>
       </c>
     </row>
     <row r="4">
@@ -3951,16 +3951,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-729805.0974512743</v>
+        <v>-694268.0033672611</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>263507.9473240356</v>
+        <v>253406.8520495678</v>
       </c>
       <c r="E4" t="n">
-        <v>-466297.1501272387</v>
+        <v>-440861.1513176934</v>
       </c>
     </row>
     <row r="5">
@@ -3968,16 +3968,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-666836.5817091453</v>
+        <v>-629983.9289814036</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>263507.9473240356</v>
+        <v>253406.8520495678</v>
       </c>
       <c r="E5" t="n">
-        <v>-403328.6343851097</v>
+        <v>-376577.0769318358</v>
       </c>
     </row>
     <row r="6">
@@ -3985,16 +3985,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>-603868.0659670165</v>
+        <v>-565699.8545955461</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>263507.9473240356</v>
+        <v>253406.8520495677</v>
       </c>
       <c r="E6" t="n">
-        <v>-340360.1186429809</v>
+        <v>-312293.0025459784</v>
       </c>
     </row>
     <row r="7">
@@ -4002,16 +4002,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-540899.5502248876</v>
+        <v>-501415.7802096886</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>263507.9473240356</v>
+        <v>253406.8520495678</v>
       </c>
       <c r="E7" t="n">
-        <v>-277391.602900852</v>
+        <v>-248008.9281601208</v>
       </c>
     </row>
     <row r="8">
@@ -4019,16 +4019,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-477931.0344827586</v>
+        <v>-437131.7058238311</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>263507.9473240356</v>
+        <v>253406.8520495678</v>
       </c>
       <c r="E8" t="n">
-        <v>-214423.087158723</v>
+        <v>-183724.8537742633</v>
       </c>
     </row>
     <row r="9">
@@ -4036,16 +4036,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-414962.5187406297</v>
+        <v>-372847.6314379736</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>263507.9473240356</v>
+        <v>253406.8520495678</v>
       </c>
       <c r="E9" t="n">
-        <v>-151454.571416594</v>
+        <v>-119440.7793884058</v>
       </c>
     </row>
     <row r="10">
@@ -4053,16 +4053,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-351994.0029985007</v>
+        <v>-308563.5570521161</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>263507.9473240356</v>
+        <v>253406.8520495678</v>
       </c>
       <c r="E10" t="n">
-        <v>-88486.05567446508</v>
+        <v>-55156.70500254829</v>
       </c>
     </row>
     <row r="11">
@@ -4070,16 +4070,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>-289025.4872563718</v>
+        <v>-244279.4826662586</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>188545.428583406</v>
+        <v>176878.1920664041</v>
       </c>
       <c r="E11" t="n">
-        <v>-100480.0586729658</v>
+        <v>-67401.29059985443</v>
       </c>
     </row>
     <row r="12">
@@ -4087,16 +4087,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>-226056.9715142429</v>
+        <v>-179995.4082804011</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>113582.9098427763</v>
+        <v>100349.5320832404</v>
       </c>
       <c r="E12" t="n">
-        <v>-112474.0616714666</v>
+        <v>-79645.87619716061</v>
       </c>
     </row>
     <row r="13">
@@ -4104,16 +4104,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>-163088.4557721139</v>
+        <v>-115711.3338945436</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>38620.3911021466</v>
+        <v>23820.87210007674</v>
       </c>
       <c r="E13" t="n">
-        <v>-124468.0646699673</v>
+        <v>-91890.46179446681</v>
       </c>
     </row>
     <row r="14">
@@ -4121,16 +4121,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>-100119.940029985</v>
+        <v>-51427.25950868605</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E14" t="n">
-        <v>-136462.0676684681</v>
+        <v>-104135.047391773</v>
       </c>
     </row>
     <row r="15">
@@ -4138,16 +4138,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>-37151.42428785606</v>
+        <v>12856.81487717146</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E15" t="n">
-        <v>-73493.55192633913</v>
+        <v>-39850.9730059155</v>
       </c>
     </row>
     <row r="16">
@@ -4155,16 +4155,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>25817.09145427287</v>
+        <v>77140.88926302896</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E16" t="n">
-        <v>-10525.0361842102</v>
+        <v>24433.10137994201</v>
       </c>
     </row>
     <row r="17">
@@ -4172,16 +4172,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>88785.6071964018</v>
+        <v>141424.9636488864</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E17" t="n">
-        <v>52443.47955791873</v>
+        <v>88717.1757657995</v>
       </c>
     </row>
     <row r="18">
@@ -4189,16 +4189,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>151754.1229385307</v>
+        <v>205709.038034744</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E18" t="n">
-        <v>115411.9953000477</v>
+        <v>153001.250151657</v>
       </c>
     </row>
     <row r="19">
@@ -4206,16 +4206,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>214722.6386806596</v>
+        <v>269993.1124206015</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E19" t="n">
-        <v>178380.5110421766</v>
+        <v>217285.3245375145</v>
       </c>
     </row>
     <row r="20">
@@ -4223,16 +4223,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>277691.1544227886</v>
+        <v>334277.186806459</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E20" t="n">
-        <v>241349.0267843055</v>
+        <v>281569.398923372</v>
       </c>
     </row>
     <row r="21">
@@ -4240,16 +4240,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>340659.6701649175</v>
+        <v>398561.2611923165</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E21" t="n">
-        <v>304317.5425264345</v>
+        <v>345853.4733092295</v>
       </c>
     </row>
     <row r="22">
@@ -4257,16 +4257,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>403628.1859070464</v>
+        <v>462845.3355781739</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E22" t="n">
-        <v>367286.0582685634</v>
+        <v>410137.547695087</v>
       </c>
     </row>
     <row r="23">
@@ -4274,16 +4274,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>466596.7016491754</v>
+        <v>527129.4099640314</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E23" t="n">
-        <v>430254.5740106923</v>
+        <v>474421.6220809445</v>
       </c>
     </row>
     <row r="24">
@@ -4291,16 +4291,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>529565.2173913043</v>
+        <v>591413.484349889</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E24" t="n">
-        <v>493223.0897528213</v>
+        <v>538705.696466802</v>
       </c>
     </row>
     <row r="25">
@@ -4308,16 +4308,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>592533.7331334333</v>
+        <v>655697.5587357464</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E25" t="n">
-        <v>556191.6054949502</v>
+        <v>602989.7708526595</v>
       </c>
     </row>
     <row r="26">
@@ -4325,16 +4325,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>655502.2488755622</v>
+        <v>719981.633121604</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E26" t="n">
-        <v>619160.1212370791</v>
+        <v>667273.845238517</v>
       </c>
     </row>
     <row r="27">
@@ -4342,16 +4342,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>718470.764617691</v>
+        <v>784265.7075074614</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E27" t="n">
-        <v>682128.636979208</v>
+        <v>731557.9196243745</v>
       </c>
     </row>
     <row r="28">
@@ -4359,16 +4359,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>781439.28035982</v>
+        <v>848549.781893319</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E28" t="n">
-        <v>745097.1527213369</v>
+        <v>795841.994010232</v>
       </c>
     </row>
     <row r="29">
@@ -4376,16 +4376,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>844407.7961019489</v>
+        <v>912833.8562791765</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E29" t="n">
-        <v>808065.6684634659</v>
+        <v>860126.0683960896</v>
       </c>
     </row>
     <row r="30">
@@ -4393,16 +4393,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>907376.3118440779</v>
+        <v>977117.930665034</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E30" t="n">
-        <v>871034.1842055948</v>
+        <v>924410.142781947</v>
       </c>
     </row>
     <row r="31">
@@ -4410,16 +4410,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>970344.8275862068</v>
+        <v>1041402.005050892</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E31" t="n">
-        <v>934002.6999477238</v>
+        <v>988694.2171678046</v>
       </c>
     </row>
     <row r="32">
@@ -4427,16 +4427,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>1033313.343328336</v>
+        <v>1105686.079436749</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E32" t="n">
-        <v>996971.2156898527</v>
+        <v>1052978.291553662</v>
       </c>
     </row>
   </sheetData>
@@ -4490,16 +4490,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-855742.1289355322</v>
+        <v>-822836.152138976</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>263507.9473240356</v>
+        <v>253406.8520495677</v>
       </c>
       <c r="E2" t="n">
-        <v>-592234.1816114966</v>
+        <v>-569429.3000894083</v>
       </c>
     </row>
     <row r="3">
@@ -4507,16 +4507,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-792773.6131934032</v>
+        <v>-758552.0777531186</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>263507.9473240356</v>
+        <v>253406.8520495677</v>
       </c>
       <c r="E3" t="n">
-        <v>-529265.6658693675</v>
+        <v>-505145.2257035509</v>
       </c>
     </row>
     <row r="4">
@@ -4524,16 +4524,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-729805.0974512743</v>
+        <v>-694268.0033672611</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>263507.9473240356</v>
+        <v>253406.8520495678</v>
       </c>
       <c r="E4" t="n">
-        <v>-466297.1501272387</v>
+        <v>-440861.1513176934</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-666836.5817091453</v>
+        <v>-629983.9289814036</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>263507.9473240356</v>
+        <v>253406.8520495678</v>
       </c>
       <c r="E5" t="n">
-        <v>-403328.6343851097</v>
+        <v>-376577.0769318358</v>
       </c>
     </row>
     <row r="6">
@@ -4558,16 +4558,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>-603868.0659670165</v>
+        <v>-565699.8545955461</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>263507.9473240356</v>
+        <v>253406.8520495677</v>
       </c>
       <c r="E6" t="n">
-        <v>-340360.1186429809</v>
+        <v>-312293.0025459784</v>
       </c>
     </row>
     <row r="7">
@@ -4575,16 +4575,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-540899.5502248876</v>
+        <v>-501415.7802096886</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>263507.9473240356</v>
+        <v>253406.8520495678</v>
       </c>
       <c r="E7" t="n">
-        <v>-277391.602900852</v>
+        <v>-248008.9281601208</v>
       </c>
     </row>
     <row r="8">
@@ -4592,16 +4592,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-477931.0344827586</v>
+        <v>-437131.7058238311</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>263507.9473240356</v>
+        <v>253406.8520495678</v>
       </c>
       <c r="E8" t="n">
-        <v>-214423.087158723</v>
+        <v>-183724.8537742633</v>
       </c>
     </row>
     <row r="9">
@@ -4609,16 +4609,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-414962.5187406297</v>
+        <v>-372847.6314379736</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>263507.9473240356</v>
+        <v>253406.8520495678</v>
       </c>
       <c r="E9" t="n">
-        <v>-151454.571416594</v>
+        <v>-119440.7793884058</v>
       </c>
     </row>
     <row r="10">
@@ -4626,16 +4626,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-351994.0029985007</v>
+        <v>-308563.5570521161</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>263507.9473240356</v>
+        <v>253406.8520495678</v>
       </c>
       <c r="E10" t="n">
-        <v>-88486.05567446508</v>
+        <v>-55156.70500254829</v>
       </c>
     </row>
     <row r="11">
@@ -4643,16 +4643,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>-289025.4872563718</v>
+        <v>-244279.4826662586</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>188545.428583406</v>
+        <v>176878.1920664041</v>
       </c>
       <c r="E11" t="n">
-        <v>-100480.0586729658</v>
+        <v>-67401.29059985443</v>
       </c>
     </row>
     <row r="12">
@@ -4660,16 +4660,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>-226056.9715142429</v>
+        <v>-179995.4082804011</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>113582.9098427763</v>
+        <v>100349.5320832404</v>
       </c>
       <c r="E12" t="n">
-        <v>-112474.0616714666</v>
+        <v>-79645.87619716061</v>
       </c>
     </row>
     <row r="13">
@@ -4677,16 +4677,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>-163088.4557721139</v>
+        <v>-115711.3338945436</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>38620.3911021466</v>
+        <v>23820.87210007674</v>
       </c>
       <c r="E13" t="n">
-        <v>-124468.0646699673</v>
+        <v>-91890.46179446681</v>
       </c>
     </row>
     <row r="14">
@@ -4694,16 +4694,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>-100119.940029985</v>
+        <v>-51427.25950868605</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E14" t="n">
-        <v>-136462.0676684681</v>
+        <v>-104135.047391773</v>
       </c>
     </row>
     <row r="15">
@@ -4711,16 +4711,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>-37151.42428785606</v>
+        <v>12856.81487717146</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E15" t="n">
-        <v>-73493.55192633913</v>
+        <v>-39850.9730059155</v>
       </c>
     </row>
     <row r="16">
@@ -4728,16 +4728,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>25817.09145427287</v>
+        <v>77140.88926302896</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E16" t="n">
-        <v>-10525.0361842102</v>
+        <v>24433.10137994201</v>
       </c>
     </row>
     <row r="17">
@@ -4745,16 +4745,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>88785.6071964018</v>
+        <v>141424.9636488864</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E17" t="n">
-        <v>52443.47955791873</v>
+        <v>88717.1757657995</v>
       </c>
     </row>
     <row r="18">
@@ -4762,16 +4762,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>151754.1229385307</v>
+        <v>205709.038034744</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E18" t="n">
-        <v>115411.9953000477</v>
+        <v>153001.250151657</v>
       </c>
     </row>
     <row r="19">
@@ -4779,16 +4779,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>214722.6386806596</v>
+        <v>269993.1124206015</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E19" t="n">
-        <v>178380.5110421766</v>
+        <v>217285.3245375145</v>
       </c>
     </row>
     <row r="20">
@@ -4796,16 +4796,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>277691.1544227886</v>
+        <v>334277.186806459</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E20" t="n">
-        <v>241349.0267843055</v>
+        <v>281569.398923372</v>
       </c>
     </row>
     <row r="21">
@@ -4813,16 +4813,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>340659.6701649175</v>
+        <v>398561.2611923165</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E21" t="n">
-        <v>304317.5425264345</v>
+        <v>345853.4733092295</v>
       </c>
     </row>
     <row r="22">
@@ -4830,16 +4830,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>403628.1859070464</v>
+        <v>462845.3355781739</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E22" t="n">
-        <v>367286.0582685634</v>
+        <v>410137.547695087</v>
       </c>
     </row>
     <row r="23">
@@ -4847,16 +4847,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>466596.7016491754</v>
+        <v>527129.4099640314</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E23" t="n">
-        <v>430254.5740106923</v>
+        <v>474421.6220809445</v>
       </c>
     </row>
     <row r="24">
@@ -4864,16 +4864,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>529565.2173913043</v>
+        <v>591413.484349889</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E24" t="n">
-        <v>493223.0897528213</v>
+        <v>538705.696466802</v>
       </c>
     </row>
     <row r="25">
@@ -4881,16 +4881,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>592533.7331334333</v>
+        <v>655697.5587357464</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E25" t="n">
-        <v>556191.6054949502</v>
+        <v>602989.7708526595</v>
       </c>
     </row>
     <row r="26">
@@ -4898,16 +4898,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>655502.2488755622</v>
+        <v>719981.633121604</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E26" t="n">
-        <v>619160.1212370791</v>
+        <v>667273.845238517</v>
       </c>
     </row>
     <row r="27">
@@ -4915,16 +4915,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>718470.764617691</v>
+        <v>784265.7075074614</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E27" t="n">
-        <v>682128.636979208</v>
+        <v>731557.9196243745</v>
       </c>
     </row>
     <row r="28">
@@ -4932,16 +4932,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>781439.28035982</v>
+        <v>848549.781893319</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E28" t="n">
-        <v>745097.1527213369</v>
+        <v>795841.994010232</v>
       </c>
     </row>
     <row r="29">
@@ -4949,16 +4949,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>844407.7961019489</v>
+        <v>912833.8562791765</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E29" t="n">
-        <v>808065.6684634659</v>
+        <v>860126.0683960896</v>
       </c>
     </row>
     <row r="30">
@@ -4966,16 +4966,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>907376.3118440779</v>
+        <v>977117.930665034</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E30" t="n">
-        <v>871034.1842055948</v>
+        <v>924410.142781947</v>
       </c>
     </row>
     <row r="31">
@@ -4983,16 +4983,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>970344.8275862068</v>
+        <v>1041402.005050892</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E31" t="n">
-        <v>934002.6999477238</v>
+        <v>988694.2171678046</v>
       </c>
     </row>
     <row r="32">
@@ -5000,16 +5000,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>1033313.343328336</v>
+        <v>1105686.079436749</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-36342.12763848307</v>
+        <v>-52707.78788308695</v>
       </c>
       <c r="E32" t="n">
-        <v>996971.2156898527</v>
+        <v>1052978.291553662</v>
       </c>
     </row>
   </sheetData>

--- a/RGGI PnL Output.xlsx
+++ b/RGGI PnL Output.xlsx
@@ -479,16 +479,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-822836.152138976</v>
+        <v>-830719.3077339103</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>252438.4836543038</v>
+        <v>261686.8399545376</v>
       </c>
       <c r="E2" t="n">
-        <v>-570397.6684846722</v>
+        <v>-569032.4677793727</v>
       </c>
     </row>
     <row r="3">
@@ -496,16 +496,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-758552.0777531186</v>
+        <v>-765819.3618171986</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>252315.6028522509</v>
+        <v>261625.678036339</v>
       </c>
       <c r="E3" t="n">
-        <v>-506236.4749008677</v>
+        <v>-504193.6837808596</v>
       </c>
     </row>
     <row r="4">
@@ -513,16 +513,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-694268.0033672611</v>
+        <v>-700919.4159004869</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>251748.1743589293</v>
+        <v>261280.9393927187</v>
       </c>
       <c r="E4" t="n">
-        <v>-442519.8290083319</v>
+        <v>-439638.4765077682</v>
       </c>
     </row>
     <row r="5">
@@ -530,16 +530,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-629983.9289814036</v>
+        <v>-636019.4699837752</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>249866.2526802361</v>
+        <v>259947.1335963028</v>
       </c>
       <c r="E5" t="n">
-        <v>-380117.6763011675</v>
+        <v>-376072.3363874723</v>
       </c>
     </row>
     <row r="6">
@@ -547,16 +547,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>-565699.8545955461</v>
+        <v>-571119.5240670634</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>245074.3211129674</v>
+        <v>256123.5809792298</v>
       </c>
       <c r="E6" t="n">
-        <v>-320625.5334825788</v>
+        <v>-314995.9430878336</v>
       </c>
     </row>
     <row r="7">
@@ -564,16 +564,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-501415.7802096886</v>
+        <v>-506219.5781503516</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>235226.7533310749</v>
+        <v>247514.5953076935</v>
       </c>
       <c r="E7" t="n">
-        <v>-266189.0268786137</v>
+        <v>-258704.9828426582</v>
       </c>
     </row>
     <row r="8">
@@ -581,16 +581,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-437131.7058238311</v>
+        <v>-441319.6322336399</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>218282.1620386516</v>
+        <v>231606.9079603206</v>
       </c>
       <c r="E8" t="n">
-        <v>-218849.5437851795</v>
+        <v>-209712.7242733192</v>
       </c>
     </row>
     <row r="9">
@@ -598,16 +598,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-372847.6314379736</v>
+        <v>-376419.6863169281</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>193216.4060793968</v>
+        <v>206712.2951161415</v>
       </c>
       <c r="E9" t="n">
-        <v>-179631.2253585768</v>
+        <v>-169707.3912007866</v>
       </c>
     </row>
     <row r="10">
@@ -615,16 +615,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-308563.5570521161</v>
+        <v>-311519.7404002164</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>160738.4651235983</v>
+        <v>173015.0444467223</v>
       </c>
       <c r="E10" t="n">
-        <v>-147825.0919285178</v>
+        <v>-138504.695953494</v>
       </c>
     </row>
     <row r="11">
@@ -632,16 +632,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>-244279.4826662586</v>
+        <v>-246619.7944835046</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>123376.9731829687</v>
+        <v>133030.9998471866</v>
       </c>
       <c r="E11" t="n">
-        <v>-120902.5094832899</v>
+        <v>-113588.794636318</v>
       </c>
     </row>
     <row r="12">
@@ -649,16 +649,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>-179995.4082804011</v>
+        <v>-181719.8485667929</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>84816.66740976452</v>
+        <v>91071.50211057202</v>
       </c>
       <c r="E12" t="n">
-        <v>-95178.74087063654</v>
+        <v>-90648.34645622088</v>
       </c>
     </row>
     <row r="13">
@@ -666,16 +666,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>-115711.3338945436</v>
+        <v>-116819.9026500812</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>48792.04800451273</v>
+        <v>51856.1725160486</v>
       </c>
       <c r="E13" t="n">
-        <v>-66919.28589003082</v>
+        <v>-64963.73013403257</v>
       </c>
     </row>
     <row r="14">
@@ -683,16 +683,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>-51427.25950868605</v>
+        <v>-51919.95673336944</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>18079.51589472648</v>
+        <v>18996.73854435059</v>
       </c>
       <c r="E14" t="n">
-        <v>-33347.74361395957</v>
+        <v>-32923.21818901884</v>
       </c>
     </row>
     <row r="15">
@@ -700,16 +700,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>12856.81487717146</v>
+        <v>12979.9891833423</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-5997.280587396705</v>
+        <v>-5861.125829113435</v>
       </c>
       <c r="E15" t="n">
-        <v>6859.534289774752</v>
+        <v>7118.863354228868</v>
       </c>
     </row>
     <row r="16">
@@ -717,16 +717,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>77140.88926302896</v>
+        <v>77879.93510005403</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-23479.07856879307</v>
+        <v>-22961.86949912143</v>
       </c>
       <c r="E16" t="n">
-        <v>53661.81069423589</v>
+        <v>54918.0656009326</v>
       </c>
     </row>
     <row r="17">
@@ -734,16 +734,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>141424.9636488864</v>
+        <v>142779.8810167658</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-35315.78336190611</v>
+        <v>-33738.61483044877</v>
       </c>
       <c r="E17" t="n">
-        <v>106109.1802869804</v>
+        <v>109041.266186317</v>
       </c>
     </row>
     <row r="18">
@@ -751,16 +751,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>205709.038034744</v>
+        <v>207679.8269334775</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-42836.83373014015</v>
+        <v>-40004.2358118536</v>
       </c>
       <c r="E18" t="n">
-        <v>162872.2043046038</v>
+        <v>167675.5911216239</v>
       </c>
     </row>
     <row r="19">
@@ -768,16 +768,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>269993.1124206015</v>
+        <v>272579.7728501892</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-47347.57908005321</v>
+        <v>-43387.49045235405</v>
       </c>
       <c r="E19" t="n">
-        <v>222645.5333405483</v>
+        <v>229192.2823978352</v>
       </c>
     </row>
     <row r="20">
@@ -785,16 +785,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>334277.186806459</v>
+        <v>337479.718766901</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-49914.55075125043</v>
+        <v>-45094.42716526178</v>
       </c>
       <c r="E20" t="n">
-        <v>284362.6360552086</v>
+        <v>292385.2916016392</v>
       </c>
     </row>
     <row r="21">
@@ -802,16 +802,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>398561.2611923165</v>
+        <v>402379.6646836127</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-51307.17230110492</v>
+        <v>-45903.31752948246</v>
       </c>
       <c r="E21" t="n">
-        <v>347254.0888912115</v>
+        <v>356476.3471541302</v>
       </c>
     </row>
     <row r="22">
@@ -819,16 +819,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>462845.3355781739</v>
+        <v>467279.6106003244</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-52030.39578944452</v>
+        <v>-46264.90542674638</v>
       </c>
       <c r="E22" t="n">
-        <v>410814.9397887294</v>
+        <v>421014.705173578</v>
       </c>
     </row>
     <row r="23">
@@ -836,16 +836,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>527129.4099640314</v>
+        <v>532179.5565170362</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-52391.20201847891</v>
+        <v>-46417.84992973667</v>
       </c>
       <c r="E23" t="n">
-        <v>474738.2079455525</v>
+        <v>485761.7065872995</v>
       </c>
     </row>
     <row r="24">
@@ -853,16 +853,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>591413.484349889</v>
+        <v>597079.5024337479</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-52564.62545866078</v>
+        <v>-46479.1556133678</v>
       </c>
       <c r="E24" t="n">
-        <v>538848.8588912282</v>
+        <v>550600.3468203801</v>
       </c>
     </row>
     <row r="25">
@@ -870,16 +870,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>655697.5587357464</v>
+        <v>661979.4483504597</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-52645.11815900885</v>
+        <v>-46502.42304828514</v>
       </c>
       <c r="E25" t="n">
-        <v>603052.4405767376</v>
+        <v>615477.0253021745</v>
       </c>
     </row>
     <row r="26">
@@ -887,16 +887,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>719981.633121604</v>
+        <v>726879.3942671714</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-52681.24847032005</v>
+        <v>-46510.74513763019</v>
       </c>
       <c r="E26" t="n">
-        <v>667300.384651284</v>
+        <v>680368.6491295412</v>
       </c>
     </row>
     <row r="27">
@@ -904,16 +904,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>784265.7075074614</v>
+        <v>791779.3401838831</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-52696.94105705707</v>
+        <v>-46513.51666187705</v>
       </c>
       <c r="E27" t="n">
-        <v>731568.7664504043</v>
+        <v>745265.823522006</v>
       </c>
     </row>
     <row r="28">
@@ -921,16 +921,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>848549.781893319</v>
+        <v>856679.2861005949</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-52703.53145325704</v>
+        <v>-46514.35170327536</v>
       </c>
       <c r="E28" t="n">
-        <v>795846.2504400619</v>
+        <v>810164.9343973196</v>
       </c>
     </row>
     <row r="29">
@@ -938,16 +938,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>912833.8562791765</v>
+        <v>921579.2320173067</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-52706.20067661883</v>
+        <v>-46514.56199105312</v>
       </c>
       <c r="E29" t="n">
-        <v>860127.6556025577</v>
+        <v>875064.6700262536</v>
       </c>
     </row>
     <row r="30">
@@ -955,16 +955,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>977117.930665034</v>
+        <v>986479.1779340184</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-52707.23728918788</v>
+        <v>-46514.59299779098</v>
       </c>
       <c r="E30" t="n">
-        <v>924410.6933758461</v>
+        <v>939964.5849362274</v>
       </c>
     </row>
     <row r="31">
@@ -972,16 +972,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>1041402.005050892</v>
+        <v>1051379.12385073</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-52707.61885751642</v>
+        <v>-46514.58336569626</v>
       </c>
       <c r="E31" t="n">
-        <v>988694.3861933751</v>
+        <v>1004864.540485034</v>
       </c>
     </row>
     <row r="32">
@@ -989,16 +989,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>1105686.079436749</v>
+        <v>1116279.069767442</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-52707.74878298122</v>
+        <v>-46514.57055785255</v>
       </c>
       <c r="E32" t="n">
-        <v>1052978.330653768</v>
+        <v>1069764.499209589</v>
       </c>
     </row>
   </sheetData>
@@ -1052,16 +1052,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-822836.152138976</v>
+        <v>-830719.3077339103</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>252931.7700132424</v>
+        <v>262053.1760176996</v>
       </c>
       <c r="E2" t="n">
-        <v>-569904.3821257337</v>
+        <v>-568666.1317162106</v>
       </c>
     </row>
     <row r="3">
@@ -1069,16 +1069,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-758552.0777531186</v>
+        <v>-765819.3618171986</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>252930.7329617465</v>
+        <v>262052.1290307638</v>
       </c>
       <c r="E3" t="n">
-        <v>-505621.3447913721</v>
+        <v>-503767.2327864348</v>
       </c>
     </row>
     <row r="4">
@@ -1086,16 +1086,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-694268.0033672611</v>
+        <v>-700919.4159004869</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>252912.0206849655</v>
+        <v>262033.2374805394</v>
       </c>
       <c r="E4" t="n">
-        <v>-441355.9826822956</v>
+        <v>-438886.1784199474</v>
       </c>
     </row>
     <row r="5">
@@ -1103,16 +1103,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-629983.9289814036</v>
+        <v>-636019.4699837752</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>252734.828188701</v>
+        <v>261854.3471830526</v>
       </c>
       <c r="E5" t="n">
-        <v>-377249.1007927026</v>
+        <v>-374165.1228007225</v>
       </c>
     </row>
     <row r="6">
@@ -1120,16 +1120,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>-565699.8545955461</v>
+        <v>-571119.5240670634</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>251733.2184967126</v>
+        <v>260843.1266336999</v>
       </c>
       <c r="E6" t="n">
-        <v>-313966.6360988336</v>
+        <v>-310276.3974333635</v>
       </c>
     </row>
     <row r="7">
@@ -1137,16 +1137,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-501415.7802096886</v>
+        <v>-506219.5781503516</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>247996.9878147464</v>
+        <v>257070.6639807117</v>
       </c>
       <c r="E7" t="n">
-        <v>-253418.7923949422</v>
+        <v>-249148.91416964</v>
       </c>
     </row>
     <row r="8">
@@ -1154,16 +1154,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-437131.7058238311</v>
+        <v>-441319.6322336399</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>238035.3942099423</v>
+        <v>247007.5159597138</v>
       </c>
       <c r="E8" t="n">
-        <v>-199096.3116138888</v>
+        <v>-194312.116273926</v>
       </c>
     </row>
     <row r="9">
@@ -1171,16 +1171,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-372847.6314379736</v>
+        <v>-376419.6863169281</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>217804.8023975942</v>
+        <v>226537.5169432924</v>
       </c>
       <c r="E9" t="n">
-        <v>-155042.8290403794</v>
+        <v>-149882.1693736357</v>
       </c>
     </row>
     <row r="10">
@@ -1188,16 +1188,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-308563.5570521161</v>
+        <v>-311519.7404002164</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>184961.3849182866</v>
+        <v>193183.4696042937</v>
       </c>
       <c r="E10" t="n">
-        <v>-123602.1721338295</v>
+        <v>-118336.2707959227</v>
       </c>
     </row>
     <row r="11">
@@ -1205,16 +1205,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>-244279.4826662586</v>
+        <v>-246619.7944835046</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>140929.538466069</v>
+        <v>148215.4515636665</v>
       </c>
       <c r="E11" t="n">
-        <v>-103349.9442001896</v>
+        <v>-98404.34291983815</v>
       </c>
     </row>
     <row r="12">
@@ -1222,16 +1222,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>-179995.4082804011</v>
+        <v>-181719.8485667929</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>91291.60556224402</v>
+        <v>97254.70540587198</v>
       </c>
       <c r="E12" t="n">
-        <v>-88703.80271815704</v>
+        <v>-84465.14316092092</v>
       </c>
     </row>
     <row r="13">
@@ -1239,16 +1239,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>-115711.3338945436</v>
+        <v>-116819.9026500812</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>43843.55680163623</v>
+        <v>48503.81527738606</v>
       </c>
       <c r="E13" t="n">
-        <v>-71867.77709290732</v>
+        <v>-68316.08737269511</v>
       </c>
     </row>
     <row r="14">
@@ -1256,16 +1256,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>-51427.25950868605</v>
+        <v>-51919.95673336944</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>5208.845898874628</v>
+        <v>9123.069623418985</v>
       </c>
       <c r="E14" t="n">
-        <v>-46218.41360981142</v>
+        <v>-42796.88710995045</v>
       </c>
     </row>
     <row r="15">
@@ -1273,16 +1273,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>12856.81487717146</v>
+        <v>12979.9891833423</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-21723.80448623145</v>
+        <v>-17791.82062481192</v>
       </c>
       <c r="E15" t="n">
-        <v>-8866.989609059992</v>
+        <v>-4811.831441469621</v>
       </c>
     </row>
     <row r="16">
@@ -1290,16 +1290,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>77140.88926302896</v>
+        <v>77879.93510005403</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-37911.66730436913</v>
+        <v>-33441.20463619945</v>
       </c>
       <c r="E16" t="n">
-        <v>39229.22195865983</v>
+        <v>44438.73046385458</v>
       </c>
     </row>
     <row r="17">
@@ -1307,16 +1307,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>141424.9636488864</v>
+        <v>142779.8810167658</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-46376.14820952732</v>
+        <v>-41248.86624254913</v>
       </c>
       <c r="E17" t="n">
-        <v>95048.81543935914</v>
+        <v>101531.0147742166</v>
       </c>
     </row>
     <row r="18">
@@ -1324,16 +1324,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>205709.038034744</v>
+        <v>207679.8269334775</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-50265.73756004327</v>
+        <v>-44626.3515538549</v>
       </c>
       <c r="E18" t="n">
-        <v>155443.3004747007</v>
+        <v>163053.4753796226</v>
       </c>
     </row>
     <row r="19">
@@ -1341,16 +1341,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>269993.1124206015</v>
+        <v>272579.7728501892</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-51853.06427993339</v>
+        <v>-45907.3855623303</v>
       </c>
       <c r="E19" t="n">
-        <v>218140.0481406681</v>
+        <v>226672.3872878589</v>
       </c>
     </row>
     <row r="20">
@@ -1358,16 +1358,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>334277.186806459</v>
+        <v>337479.718766901</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-52434.34710413059</v>
+        <v>-46338.14115470149</v>
       </c>
       <c r="E20" t="n">
-        <v>281842.8397023284</v>
+        <v>291141.5776121995</v>
       </c>
     </row>
     <row r="21">
@@ -1375,16 +1375,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>398561.2611923165</v>
+        <v>402379.6646836127</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-52627.25339206284</v>
+        <v>-46467.90128933441</v>
       </c>
       <c r="E21" t="n">
-        <v>345934.0078002536</v>
+        <v>355911.7633942783</v>
       </c>
     </row>
     <row r="22">
@@ -1392,16 +1392,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>462845.3355781739</v>
+        <v>467279.6106003244</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-52685.8016743356</v>
+        <v>-46503.25182841415</v>
       </c>
       <c r="E22" t="n">
-        <v>410159.5339038383</v>
+        <v>420776.3587719103</v>
       </c>
     </row>
     <row r="23">
@@ -1409,16 +1409,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>527129.4099640314</v>
+        <v>532179.5565170362</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-52702.18896076799</v>
+        <v>-46512.03243658371</v>
       </c>
       <c r="E23" t="n">
-        <v>474427.2210032634</v>
+        <v>485667.5240804525</v>
       </c>
     </row>
     <row r="24">
@@ -1426,16 +1426,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>591413.484349889</v>
+        <v>597079.5024337479</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-52706.45043344553</v>
+        <v>-46514.03366247116</v>
       </c>
       <c r="E24" t="n">
-        <v>538707.0339164435</v>
+        <v>550565.4687712768</v>
       </c>
     </row>
     <row r="25">
@@ -1443,16 +1443,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>655697.5587357464</v>
+        <v>661979.4483504597</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-52707.48677287078</v>
+        <v>-46514.45380082766</v>
       </c>
       <c r="E25" t="n">
-        <v>602990.0719628757</v>
+        <v>615464.9945496321</v>
       </c>
     </row>
     <row r="26">
@@ -1460,16 +1460,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>719981.633121604</v>
+        <v>726879.3942671714</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-52707.72375899032</v>
+        <v>-46514.53503331613</v>
       </c>
       <c r="E26" t="n">
-        <v>667273.9093626137</v>
+        <v>680364.8592338553</v>
       </c>
     </row>
     <row r="27">
@@ -1477,16 +1477,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>784265.7075074614</v>
+        <v>791779.3401838831</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-52707.77493899787</v>
+        <v>-46514.54938402827</v>
       </c>
       <c r="E27" t="n">
-        <v>731557.9325684635</v>
+        <v>745264.7907998548</v>
       </c>
     </row>
     <row r="28">
@@ -1494,16 +1494,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>848549.781893319</v>
+        <v>856679.2861005949</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-52707.78540697201</v>
+        <v>-46514.55164169545</v>
       </c>
       <c r="E28" t="n">
-        <v>795841.9964863469</v>
+        <v>810164.7344588995</v>
       </c>
     </row>
     <row r="29">
@@ -1511,16 +1511,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>912833.8562791765</v>
+        <v>921579.2320173067</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-52707.78743610945</v>
+        <v>-46514.55193349301</v>
       </c>
       <c r="E29" t="n">
-        <v>860126.068843067</v>
+        <v>875064.6800838137</v>
       </c>
     </row>
     <row r="30">
@@ -1528,16 +1528,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>977117.930665034</v>
+        <v>986479.1779340184</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-52707.78780785589</v>
+        <v>-46514.55195418894</v>
       </c>
       <c r="E30" t="n">
-        <v>924410.1428571781</v>
+        <v>939964.6259798295</v>
       </c>
     </row>
     <row r="31">
@@ -1545,16 +1545,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>1041402.005050892</v>
+        <v>1051379.12385073</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-52707.78787163344</v>
+        <v>-46514.55194987044</v>
       </c>
       <c r="E31" t="n">
-        <v>988694.2171792581</v>
+        <v>1004864.57190086</v>
       </c>
     </row>
     <row r="32">
@@ -1562,16 +1562,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>1105686.079436749</v>
+        <v>1116279.069767442</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-52707.78788164207</v>
+        <v>-46514.55194713772</v>
       </c>
       <c r="E32" t="n">
-        <v>1052978.291555107</v>
+        <v>1069764.517820304</v>
       </c>
     </row>
   </sheetData>
@@ -1625,16 +1625,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-822836.152138976</v>
+        <v>-830719.3077339103</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>253406.8520495677</v>
+        <v>262532.8095623698</v>
       </c>
       <c r="E2" t="n">
-        <v>-569429.3000894083</v>
+        <v>-568186.4981715404</v>
       </c>
     </row>
     <row r="3">
@@ -1642,16 +1642,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-758552.0777531186</v>
+        <v>-765819.3618171986</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>253406.8520495677</v>
+        <v>262532.8095623698</v>
       </c>
       <c r="E3" t="n">
-        <v>-505145.2257035509</v>
+        <v>-503286.5522548287</v>
       </c>
     </row>
     <row r="4">
@@ -1659,16 +1659,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-694268.0033672611</v>
+        <v>-700919.4159004869</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>253406.8520495678</v>
+        <v>262532.8095623697</v>
       </c>
       <c r="E4" t="n">
-        <v>-440861.1513176934</v>
+        <v>-438386.6063381172</v>
       </c>
     </row>
     <row r="5">
@@ -1676,16 +1676,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-629983.9289814036</v>
+        <v>-636019.4699837752</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>253406.8520495678</v>
+        <v>262532.8095623698</v>
       </c>
       <c r="E5" t="n">
-        <v>-376577.0769318358</v>
+        <v>-373486.6604214054</v>
       </c>
     </row>
     <row r="6">
@@ -1693,16 +1693,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>-565699.8545955461</v>
+        <v>-571119.5240670634</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>253406.8520495677</v>
+        <v>262532.8095623698</v>
       </c>
       <c r="E6" t="n">
-        <v>-312293.0025459784</v>
+        <v>-308586.7145046936</v>
       </c>
     </row>
     <row r="7">
@@ -1710,16 +1710,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-501415.7802096886</v>
+        <v>-506219.5781503516</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>253406.8520495678</v>
+        <v>262532.8095623698</v>
       </c>
       <c r="E7" t="n">
-        <v>-248008.9281601208</v>
+        <v>-243686.7685879819</v>
       </c>
     </row>
     <row r="8">
@@ -1727,16 +1727,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-437131.7058238311</v>
+        <v>-441319.6322336399</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>253406.8520495678</v>
+        <v>262532.8095623698</v>
       </c>
       <c r="E8" t="n">
-        <v>-183724.8537742633</v>
+        <v>-178786.8226712701</v>
       </c>
     </row>
     <row r="9">
@@ -1744,16 +1744,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-372847.6314379736</v>
+        <v>-376419.6863169281</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>253406.8520495678</v>
+        <v>262532.8095623697</v>
       </c>
       <c r="E9" t="n">
-        <v>-119440.7793884058</v>
+        <v>-113886.8767545584</v>
       </c>
     </row>
     <row r="10">
@@ -1761,16 +1761,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-308563.5570521161</v>
+        <v>-311519.7404002164</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>253406.8520495678</v>
+        <v>262532.8095623697</v>
       </c>
       <c r="E10" t="n">
-        <v>-55156.70500254829</v>
+        <v>-48986.93083784665</v>
       </c>
     </row>
     <row r="11">
@@ -1778,16 +1778,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>-244279.4826662586</v>
+        <v>-246619.7944835046</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>176878.1920664041</v>
+        <v>185270.969185332</v>
       </c>
       <c r="E11" t="n">
-        <v>-67401.29059985443</v>
+        <v>-61348.82529817268</v>
       </c>
     </row>
     <row r="12">
@@ -1795,16 +1795,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>-179995.4082804011</v>
+        <v>-181719.8485667929</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>100349.5320832404</v>
+        <v>108009.1288082942</v>
       </c>
       <c r="E12" t="n">
-        <v>-79645.87619716061</v>
+        <v>-73710.71975849873</v>
       </c>
     </row>
     <row r="13">
@@ -1812,16 +1812,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>-115711.3338945436</v>
+        <v>-116819.9026500812</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>23820.87210007674</v>
+        <v>30747.28843125639</v>
       </c>
       <c r="E13" t="n">
-        <v>-91890.46179446681</v>
+        <v>-86072.61421882479</v>
       </c>
     </row>
     <row r="14">
@@ -1829,16 +1829,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>-51427.25950868605</v>
+        <v>-51919.95673336944</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E14" t="n">
-        <v>-104135.047391773</v>
+        <v>-98434.50867915084</v>
       </c>
     </row>
     <row r="15">
@@ -1846,16 +1846,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>12856.81487717146</v>
+        <v>12979.9891833423</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E15" t="n">
-        <v>-39850.9730059155</v>
+        <v>-33534.56276243909</v>
       </c>
     </row>
     <row r="16">
@@ -1863,16 +1863,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>77140.88926302896</v>
+        <v>77879.93510005403</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E16" t="n">
-        <v>24433.10137994201</v>
+        <v>31365.38315427264</v>
       </c>
     </row>
     <row r="17">
@@ -1880,16 +1880,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>141424.9636488864</v>
+        <v>142779.8810167658</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E17" t="n">
-        <v>88717.1757657995</v>
+        <v>96265.32907098439</v>
       </c>
     </row>
     <row r="18">
@@ -1897,16 +1897,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>205709.038034744</v>
+        <v>207679.8269334775</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E18" t="n">
-        <v>153001.250151657</v>
+        <v>161165.2749876961</v>
       </c>
     </row>
     <row r="19">
@@ -1914,16 +1914,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>269993.1124206015</v>
+        <v>272579.7728501892</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E19" t="n">
-        <v>217285.3245375145</v>
+        <v>226065.2209044078</v>
       </c>
     </row>
     <row r="20">
@@ -1931,16 +1931,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>334277.186806459</v>
+        <v>337479.718766901</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E20" t="n">
-        <v>281569.398923372</v>
+        <v>290965.1668211196</v>
       </c>
     </row>
     <row r="21">
@@ -1948,16 +1948,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>398561.2611923165</v>
+        <v>402379.6646836127</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E21" t="n">
-        <v>345853.4733092295</v>
+        <v>355865.1127378313</v>
       </c>
     </row>
     <row r="22">
@@ -1965,16 +1965,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>462845.3355781739</v>
+        <v>467279.6106003244</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E22" t="n">
-        <v>410137.547695087</v>
+        <v>420765.058654543</v>
       </c>
     </row>
     <row r="23">
@@ -1982,16 +1982,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>527129.4099640314</v>
+        <v>532179.5565170362</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E23" t="n">
-        <v>474421.6220809445</v>
+        <v>485665.0045712548</v>
       </c>
     </row>
     <row r="24">
@@ -1999,16 +1999,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>591413.484349889</v>
+        <v>597079.5024337479</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E24" t="n">
-        <v>538705.696466802</v>
+        <v>550564.9504879664</v>
       </c>
     </row>
     <row r="25">
@@ -2016,16 +2016,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>655697.5587357464</v>
+        <v>661979.4483504597</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E25" t="n">
-        <v>602989.7708526595</v>
+        <v>615464.8964046782</v>
       </c>
     </row>
     <row r="26">
@@ -2033,16 +2033,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>719981.633121604</v>
+        <v>726879.3942671714</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E26" t="n">
-        <v>667273.845238517</v>
+        <v>680364.8423213901</v>
       </c>
     </row>
     <row r="27">
@@ -2050,16 +2050,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>784265.7075074614</v>
+        <v>791779.3401838831</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E27" t="n">
-        <v>731557.9196243745</v>
+        <v>745264.7882381016</v>
       </c>
     </row>
     <row r="28">
@@ -2067,16 +2067,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>848549.781893319</v>
+        <v>856679.2861005949</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E28" t="n">
-        <v>795841.994010232</v>
+        <v>810164.7341548135</v>
       </c>
     </row>
     <row r="29">
@@ -2084,16 +2084,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>912833.8562791765</v>
+        <v>921579.2320173067</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E29" t="n">
-        <v>860126.0683960896</v>
+        <v>875064.6800715253</v>
       </c>
     </row>
     <row r="30">
@@ -2101,16 +2101,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>977117.930665034</v>
+        <v>986479.1779340184</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E30" t="n">
-        <v>924410.142781947</v>
+        <v>939964.6259882371</v>
       </c>
     </row>
     <row r="31">
@@ -2118,16 +2118,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>1041402.005050892</v>
+        <v>1051379.12385073</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E31" t="n">
-        <v>988694.2171678046</v>
+        <v>1004864.571904949</v>
       </c>
     </row>
     <row r="32">
@@ -2135,16 +2135,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>1105686.079436749</v>
+        <v>1116279.069767442</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E32" t="n">
-        <v>1052978.291553662</v>
+        <v>1069764.51782166</v>
       </c>
     </row>
   </sheetData>
@@ -2198,16 +2198,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-822836.152138976</v>
+        <v>-830719.3077339103</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>253406.8520495677</v>
+        <v>262532.8095623698</v>
       </c>
       <c r="E2" t="n">
-        <v>-569429.3000894083</v>
+        <v>-568186.4981715404</v>
       </c>
     </row>
     <row r="3">
@@ -2215,16 +2215,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-758552.0777531186</v>
+        <v>-765819.3618171986</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>253406.8520495677</v>
+        <v>262532.8095623698</v>
       </c>
       <c r="E3" t="n">
-        <v>-505145.2257035509</v>
+        <v>-503286.5522548287</v>
       </c>
     </row>
     <row r="4">
@@ -2232,16 +2232,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-694268.0033672611</v>
+        <v>-700919.4159004869</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>253406.8520495678</v>
+        <v>262532.8095623697</v>
       </c>
       <c r="E4" t="n">
-        <v>-440861.1513176934</v>
+        <v>-438386.6063381172</v>
       </c>
     </row>
     <row r="5">
@@ -2249,16 +2249,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-629983.9289814036</v>
+        <v>-636019.4699837752</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>253406.8520495678</v>
+        <v>262532.8095623698</v>
       </c>
       <c r="E5" t="n">
-        <v>-376577.0769318358</v>
+        <v>-373486.6604214054</v>
       </c>
     </row>
     <row r="6">
@@ -2266,16 +2266,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>-565699.8545955461</v>
+        <v>-571119.5240670634</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>253406.8520495677</v>
+        <v>262532.8095623698</v>
       </c>
       <c r="E6" t="n">
-        <v>-312293.0025459784</v>
+        <v>-308586.7145046936</v>
       </c>
     </row>
     <row r="7">
@@ -2283,16 +2283,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-501415.7802096886</v>
+        <v>-506219.5781503516</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>253406.8520495678</v>
+        <v>262532.8095623698</v>
       </c>
       <c r="E7" t="n">
-        <v>-248008.9281601208</v>
+        <v>-243686.7685879819</v>
       </c>
     </row>
     <row r="8">
@@ -2300,16 +2300,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-437131.7058238311</v>
+        <v>-441319.6322336399</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>253406.8520495678</v>
+        <v>262532.8095623698</v>
       </c>
       <c r="E8" t="n">
-        <v>-183724.8537742633</v>
+        <v>-178786.8226712701</v>
       </c>
     </row>
     <row r="9">
@@ -2317,16 +2317,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-372847.6314379736</v>
+        <v>-376419.6863169281</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>253406.8520495678</v>
+        <v>262532.8095623697</v>
       </c>
       <c r="E9" t="n">
-        <v>-119440.7793884058</v>
+        <v>-113886.8767545584</v>
       </c>
     </row>
     <row r="10">
@@ -2334,16 +2334,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-308563.5570521161</v>
+        <v>-311519.7404002164</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>253406.8520495678</v>
+        <v>262532.8095623697</v>
       </c>
       <c r="E10" t="n">
-        <v>-55156.70500254829</v>
+        <v>-48986.93083784665</v>
       </c>
     </row>
     <row r="11">
@@ -2351,16 +2351,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>-244279.4826662586</v>
+        <v>-246619.7944835046</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>176878.1920664041</v>
+        <v>185270.969185332</v>
       </c>
       <c r="E11" t="n">
-        <v>-67401.29059985443</v>
+        <v>-61348.82529817268</v>
       </c>
     </row>
     <row r="12">
@@ -2368,16 +2368,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>-179995.4082804011</v>
+        <v>-181719.8485667929</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>100349.5320832404</v>
+        <v>108009.1288082942</v>
       </c>
       <c r="E12" t="n">
-        <v>-79645.87619716061</v>
+        <v>-73710.71975849873</v>
       </c>
     </row>
     <row r="13">
@@ -2385,16 +2385,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>-115711.3338945436</v>
+        <v>-116819.9026500812</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>23820.87210007674</v>
+        <v>30747.28843125639</v>
       </c>
       <c r="E13" t="n">
-        <v>-91890.46179446681</v>
+        <v>-86072.61421882479</v>
       </c>
     </row>
     <row r="14">
@@ -2402,16 +2402,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>-51427.25950868605</v>
+        <v>-51919.95673336944</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E14" t="n">
-        <v>-104135.047391773</v>
+        <v>-98434.50867915084</v>
       </c>
     </row>
     <row r="15">
@@ -2419,16 +2419,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>12856.81487717146</v>
+        <v>12979.9891833423</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E15" t="n">
-        <v>-39850.9730059155</v>
+        <v>-33534.56276243909</v>
       </c>
     </row>
     <row r="16">
@@ -2436,16 +2436,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>77140.88926302896</v>
+        <v>77879.93510005403</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E16" t="n">
-        <v>24433.10137994201</v>
+        <v>31365.38315427264</v>
       </c>
     </row>
     <row r="17">
@@ -2453,16 +2453,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>141424.9636488864</v>
+        <v>142779.8810167658</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E17" t="n">
-        <v>88717.1757657995</v>
+        <v>96265.32907098439</v>
       </c>
     </row>
     <row r="18">
@@ -2470,16 +2470,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>205709.038034744</v>
+        <v>207679.8269334775</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E18" t="n">
-        <v>153001.250151657</v>
+        <v>161165.2749876961</v>
       </c>
     </row>
     <row r="19">
@@ -2487,16 +2487,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>269993.1124206015</v>
+        <v>272579.7728501892</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E19" t="n">
-        <v>217285.3245375145</v>
+        <v>226065.2209044078</v>
       </c>
     </row>
     <row r="20">
@@ -2504,16 +2504,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>334277.186806459</v>
+        <v>337479.718766901</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E20" t="n">
-        <v>281569.398923372</v>
+        <v>290965.1668211196</v>
       </c>
     </row>
     <row r="21">
@@ -2521,16 +2521,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>398561.2611923165</v>
+        <v>402379.6646836127</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E21" t="n">
-        <v>345853.4733092295</v>
+        <v>355865.1127378313</v>
       </c>
     </row>
     <row r="22">
@@ -2538,16 +2538,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>462845.3355781739</v>
+        <v>467279.6106003244</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E22" t="n">
-        <v>410137.547695087</v>
+        <v>420765.058654543</v>
       </c>
     </row>
     <row r="23">
@@ -2555,16 +2555,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>527129.4099640314</v>
+        <v>532179.5565170362</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E23" t="n">
-        <v>474421.6220809445</v>
+        <v>485665.0045712548</v>
       </c>
     </row>
     <row r="24">
@@ -2572,16 +2572,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>591413.484349889</v>
+        <v>597079.5024337479</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E24" t="n">
-        <v>538705.696466802</v>
+        <v>550564.9504879664</v>
       </c>
     </row>
     <row r="25">
@@ -2589,16 +2589,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>655697.5587357464</v>
+        <v>661979.4483504597</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E25" t="n">
-        <v>602989.7708526595</v>
+        <v>615464.8964046782</v>
       </c>
     </row>
     <row r="26">
@@ -2606,16 +2606,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>719981.633121604</v>
+        <v>726879.3942671714</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E26" t="n">
-        <v>667273.845238517</v>
+        <v>680364.8423213901</v>
       </c>
     </row>
     <row r="27">
@@ -2623,16 +2623,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>784265.7075074614</v>
+        <v>791779.3401838831</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E27" t="n">
-        <v>731557.9196243745</v>
+        <v>745264.7882381016</v>
       </c>
     </row>
     <row r="28">
@@ -2640,16 +2640,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>848549.781893319</v>
+        <v>856679.2861005949</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E28" t="n">
-        <v>795841.994010232</v>
+        <v>810164.7341548135</v>
       </c>
     </row>
     <row r="29">
@@ -2657,16 +2657,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>912833.8562791765</v>
+        <v>921579.2320173067</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E29" t="n">
-        <v>860126.0683960896</v>
+        <v>875064.6800715253</v>
       </c>
     </row>
     <row r="30">
@@ -2674,16 +2674,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>977117.930665034</v>
+        <v>986479.1779340184</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E30" t="n">
-        <v>924410.142781947</v>
+        <v>939964.6259882371</v>
       </c>
     </row>
     <row r="31">
@@ -2691,16 +2691,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>1041402.005050892</v>
+        <v>1051379.12385073</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E31" t="n">
-        <v>988694.2171678046</v>
+        <v>1004864.571904949</v>
       </c>
     </row>
     <row r="32">
@@ -2708,16 +2708,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>1105686.079436749</v>
+        <v>1116279.069767442</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E32" t="n">
-        <v>1052978.291553662</v>
+        <v>1069764.51782166</v>
       </c>
     </row>
   </sheetData>
@@ -2771,16 +2771,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-822836.152138976</v>
+        <v>-830719.3077339103</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>253406.8520495677</v>
+        <v>262532.8095623698</v>
       </c>
       <c r="E2" t="n">
-        <v>-569429.3000894083</v>
+        <v>-568186.4981715404</v>
       </c>
     </row>
     <row r="3">
@@ -2788,16 +2788,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-758552.0777531186</v>
+        <v>-765819.3618171986</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>253406.8520495677</v>
+        <v>262532.8095623698</v>
       </c>
       <c r="E3" t="n">
-        <v>-505145.2257035509</v>
+        <v>-503286.5522548287</v>
       </c>
     </row>
     <row r="4">
@@ -2805,16 +2805,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-694268.0033672611</v>
+        <v>-700919.4159004869</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>253406.8520495678</v>
+        <v>262532.8095623697</v>
       </c>
       <c r="E4" t="n">
-        <v>-440861.1513176934</v>
+        <v>-438386.6063381172</v>
       </c>
     </row>
     <row r="5">
@@ -2822,16 +2822,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-629983.9289814036</v>
+        <v>-636019.4699837752</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>253406.8520495678</v>
+        <v>262532.8095623698</v>
       </c>
       <c r="E5" t="n">
-        <v>-376577.0769318358</v>
+        <v>-373486.6604214054</v>
       </c>
     </row>
     <row r="6">
@@ -2839,16 +2839,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>-565699.8545955461</v>
+        <v>-571119.5240670634</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>253406.8520495677</v>
+        <v>262532.8095623698</v>
       </c>
       <c r="E6" t="n">
-        <v>-312293.0025459784</v>
+        <v>-308586.7145046936</v>
       </c>
     </row>
     <row r="7">
@@ -2856,16 +2856,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-501415.7802096886</v>
+        <v>-506219.5781503516</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>253406.8520495678</v>
+        <v>262532.8095623698</v>
       </c>
       <c r="E7" t="n">
-        <v>-248008.9281601208</v>
+        <v>-243686.7685879819</v>
       </c>
     </row>
     <row r="8">
@@ -2873,16 +2873,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-437131.7058238311</v>
+        <v>-441319.6322336399</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>253406.8520495678</v>
+        <v>262532.8095623698</v>
       </c>
       <c r="E8" t="n">
-        <v>-183724.8537742633</v>
+        <v>-178786.8226712701</v>
       </c>
     </row>
     <row r="9">
@@ -2890,16 +2890,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-372847.6314379736</v>
+        <v>-376419.6863169281</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>253406.8520495678</v>
+        <v>262532.8095623697</v>
       </c>
       <c r="E9" t="n">
-        <v>-119440.7793884058</v>
+        <v>-113886.8767545584</v>
       </c>
     </row>
     <row r="10">
@@ -2907,16 +2907,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-308563.5570521161</v>
+        <v>-311519.7404002164</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>253406.8520495678</v>
+        <v>262532.8095623697</v>
       </c>
       <c r="E10" t="n">
-        <v>-55156.70500254829</v>
+        <v>-48986.93083784665</v>
       </c>
     </row>
     <row r="11">
@@ -2924,16 +2924,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>-244279.4826662586</v>
+        <v>-246619.7944835046</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>176878.1920664041</v>
+        <v>185270.969185332</v>
       </c>
       <c r="E11" t="n">
-        <v>-67401.29059985443</v>
+        <v>-61348.82529817268</v>
       </c>
     </row>
     <row r="12">
@@ -2941,16 +2941,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>-179995.4082804011</v>
+        <v>-181719.8485667929</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>100349.5320832404</v>
+        <v>108009.1288082942</v>
       </c>
       <c r="E12" t="n">
-        <v>-79645.87619716061</v>
+        <v>-73710.71975849873</v>
       </c>
     </row>
     <row r="13">
@@ -2958,16 +2958,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>-115711.3338945436</v>
+        <v>-116819.9026500812</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>23820.87210007674</v>
+        <v>30747.28843125639</v>
       </c>
       <c r="E13" t="n">
-        <v>-91890.46179446681</v>
+        <v>-86072.61421882479</v>
       </c>
     </row>
     <row r="14">
@@ -2975,16 +2975,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>-51427.25950868605</v>
+        <v>-51919.95673336944</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E14" t="n">
-        <v>-104135.047391773</v>
+        <v>-98434.50867915084</v>
       </c>
     </row>
     <row r="15">
@@ -2992,16 +2992,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>12856.81487717146</v>
+        <v>12979.9891833423</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E15" t="n">
-        <v>-39850.9730059155</v>
+        <v>-33534.56276243909</v>
       </c>
     </row>
     <row r="16">
@@ -3009,16 +3009,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>77140.88926302896</v>
+        <v>77879.93510005403</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E16" t="n">
-        <v>24433.10137994201</v>
+        <v>31365.38315427264</v>
       </c>
     </row>
     <row r="17">
@@ -3026,16 +3026,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>141424.9636488864</v>
+        <v>142779.8810167658</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E17" t="n">
-        <v>88717.1757657995</v>
+        <v>96265.32907098439</v>
       </c>
     </row>
     <row r="18">
@@ -3043,16 +3043,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>205709.038034744</v>
+        <v>207679.8269334775</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E18" t="n">
-        <v>153001.250151657</v>
+        <v>161165.2749876961</v>
       </c>
     </row>
     <row r="19">
@@ -3060,16 +3060,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>269993.1124206015</v>
+        <v>272579.7728501892</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E19" t="n">
-        <v>217285.3245375145</v>
+        <v>226065.2209044078</v>
       </c>
     </row>
     <row r="20">
@@ -3077,16 +3077,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>334277.186806459</v>
+        <v>337479.718766901</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E20" t="n">
-        <v>281569.398923372</v>
+        <v>290965.1668211196</v>
       </c>
     </row>
     <row r="21">
@@ -3094,16 +3094,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>398561.2611923165</v>
+        <v>402379.6646836127</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E21" t="n">
-        <v>345853.4733092295</v>
+        <v>355865.1127378313</v>
       </c>
     </row>
     <row r="22">
@@ -3111,16 +3111,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>462845.3355781739</v>
+        <v>467279.6106003244</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E22" t="n">
-        <v>410137.547695087</v>
+        <v>420765.058654543</v>
       </c>
     </row>
     <row r="23">
@@ -3128,16 +3128,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>527129.4099640314</v>
+        <v>532179.5565170362</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E23" t="n">
-        <v>474421.6220809445</v>
+        <v>485665.0045712548</v>
       </c>
     </row>
     <row r="24">
@@ -3145,16 +3145,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>591413.484349889</v>
+        <v>597079.5024337479</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E24" t="n">
-        <v>538705.696466802</v>
+        <v>550564.9504879664</v>
       </c>
     </row>
     <row r="25">
@@ -3162,16 +3162,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>655697.5587357464</v>
+        <v>661979.4483504597</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E25" t="n">
-        <v>602989.7708526595</v>
+        <v>615464.8964046782</v>
       </c>
     </row>
     <row r="26">
@@ -3179,16 +3179,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>719981.633121604</v>
+        <v>726879.3942671714</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E26" t="n">
-        <v>667273.845238517</v>
+        <v>680364.8423213901</v>
       </c>
     </row>
     <row r="27">
@@ -3196,16 +3196,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>784265.7075074614</v>
+        <v>791779.3401838831</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E27" t="n">
-        <v>731557.9196243745</v>
+        <v>745264.7882381016</v>
       </c>
     </row>
     <row r="28">
@@ -3213,16 +3213,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>848549.781893319</v>
+        <v>856679.2861005949</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E28" t="n">
-        <v>795841.994010232</v>
+        <v>810164.7341548135</v>
       </c>
     </row>
     <row r="29">
@@ -3230,16 +3230,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>912833.8562791765</v>
+        <v>921579.2320173067</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E29" t="n">
-        <v>860126.0683960896</v>
+        <v>875064.6800715253</v>
       </c>
     </row>
     <row r="30">
@@ -3247,16 +3247,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>977117.930665034</v>
+        <v>986479.1779340184</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E30" t="n">
-        <v>924410.142781947</v>
+        <v>939964.6259882371</v>
       </c>
     </row>
     <row r="31">
@@ -3264,16 +3264,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>1041402.005050892</v>
+        <v>1051379.12385073</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E31" t="n">
-        <v>988694.2171678046</v>
+        <v>1004864.571904949</v>
       </c>
     </row>
     <row r="32">
@@ -3281,16 +3281,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>1105686.079436749</v>
+        <v>1116279.069767442</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E32" t="n">
-        <v>1052978.291553662</v>
+        <v>1069764.51782166</v>
       </c>
     </row>
   </sheetData>
@@ -3344,16 +3344,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-822836.152138976</v>
+        <v>-830719.3077339103</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>253406.8520495677</v>
+        <v>262532.8095623698</v>
       </c>
       <c r="E2" t="n">
-        <v>-569429.3000894083</v>
+        <v>-568186.4981715404</v>
       </c>
     </row>
     <row r="3">
@@ -3361,16 +3361,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-758552.0777531186</v>
+        <v>-765819.3618171986</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>253406.8520495677</v>
+        <v>262532.8095623698</v>
       </c>
       <c r="E3" t="n">
-        <v>-505145.2257035509</v>
+        <v>-503286.5522548287</v>
       </c>
     </row>
     <row r="4">
@@ -3378,16 +3378,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-694268.0033672611</v>
+        <v>-700919.4159004869</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>253406.8520495678</v>
+        <v>262532.8095623697</v>
       </c>
       <c r="E4" t="n">
-        <v>-440861.1513176934</v>
+        <v>-438386.6063381172</v>
       </c>
     </row>
     <row r="5">
@@ -3395,16 +3395,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-629983.9289814036</v>
+        <v>-636019.4699837752</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>253406.8520495678</v>
+        <v>262532.8095623698</v>
       </c>
       <c r="E5" t="n">
-        <v>-376577.0769318358</v>
+        <v>-373486.6604214054</v>
       </c>
     </row>
     <row r="6">
@@ -3412,16 +3412,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>-565699.8545955461</v>
+        <v>-571119.5240670634</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>253406.8520495677</v>
+        <v>262532.8095623698</v>
       </c>
       <c r="E6" t="n">
-        <v>-312293.0025459784</v>
+        <v>-308586.7145046936</v>
       </c>
     </row>
     <row r="7">
@@ -3429,16 +3429,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-501415.7802096886</v>
+        <v>-506219.5781503516</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>253406.8520495678</v>
+        <v>262532.8095623698</v>
       </c>
       <c r="E7" t="n">
-        <v>-248008.9281601208</v>
+        <v>-243686.7685879819</v>
       </c>
     </row>
     <row r="8">
@@ -3446,16 +3446,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-437131.7058238311</v>
+        <v>-441319.6322336399</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>253406.8520495678</v>
+        <v>262532.8095623698</v>
       </c>
       <c r="E8" t="n">
-        <v>-183724.8537742633</v>
+        <v>-178786.8226712701</v>
       </c>
     </row>
     <row r="9">
@@ -3463,16 +3463,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-372847.6314379736</v>
+        <v>-376419.6863169281</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>253406.8520495678</v>
+        <v>262532.8095623697</v>
       </c>
       <c r="E9" t="n">
-        <v>-119440.7793884058</v>
+        <v>-113886.8767545584</v>
       </c>
     </row>
     <row r="10">
@@ -3480,16 +3480,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-308563.5570521161</v>
+        <v>-311519.7404002164</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>253406.8520495678</v>
+        <v>262532.8095623697</v>
       </c>
       <c r="E10" t="n">
-        <v>-55156.70500254829</v>
+        <v>-48986.93083784665</v>
       </c>
     </row>
     <row r="11">
@@ -3497,16 +3497,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>-244279.4826662586</v>
+        <v>-246619.7944835046</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>176878.1920664041</v>
+        <v>185270.969185332</v>
       </c>
       <c r="E11" t="n">
-        <v>-67401.29059985443</v>
+        <v>-61348.82529817268</v>
       </c>
     </row>
     <row r="12">
@@ -3514,16 +3514,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>-179995.4082804011</v>
+        <v>-181719.8485667929</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>100349.5320832404</v>
+        <v>108009.1288082942</v>
       </c>
       <c r="E12" t="n">
-        <v>-79645.87619716061</v>
+        <v>-73710.71975849873</v>
       </c>
     </row>
     <row r="13">
@@ -3531,16 +3531,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>-115711.3338945436</v>
+        <v>-116819.9026500812</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>23820.87210007674</v>
+        <v>30747.28843125639</v>
       </c>
       <c r="E13" t="n">
-        <v>-91890.46179446681</v>
+        <v>-86072.61421882479</v>
       </c>
     </row>
     <row r="14">
@@ -3548,16 +3548,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>-51427.25950868605</v>
+        <v>-51919.95673336944</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E14" t="n">
-        <v>-104135.047391773</v>
+        <v>-98434.50867915084</v>
       </c>
     </row>
     <row r="15">
@@ -3565,16 +3565,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>12856.81487717146</v>
+        <v>12979.9891833423</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E15" t="n">
-        <v>-39850.9730059155</v>
+        <v>-33534.56276243909</v>
       </c>
     </row>
     <row r="16">
@@ -3582,16 +3582,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>77140.88926302896</v>
+        <v>77879.93510005403</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E16" t="n">
-        <v>24433.10137994201</v>
+        <v>31365.38315427264</v>
       </c>
     </row>
     <row r="17">
@@ -3599,16 +3599,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>141424.9636488864</v>
+        <v>142779.8810167658</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E17" t="n">
-        <v>88717.1757657995</v>
+        <v>96265.32907098439</v>
       </c>
     </row>
     <row r="18">
@@ -3616,16 +3616,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>205709.038034744</v>
+        <v>207679.8269334775</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E18" t="n">
-        <v>153001.250151657</v>
+        <v>161165.2749876961</v>
       </c>
     </row>
     <row r="19">
@@ -3633,16 +3633,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>269993.1124206015</v>
+        <v>272579.7728501892</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E19" t="n">
-        <v>217285.3245375145</v>
+        <v>226065.2209044078</v>
       </c>
     </row>
     <row r="20">
@@ -3650,16 +3650,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>334277.186806459</v>
+        <v>337479.718766901</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E20" t="n">
-        <v>281569.398923372</v>
+        <v>290965.1668211196</v>
       </c>
     </row>
     <row r="21">
@@ -3667,16 +3667,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>398561.2611923165</v>
+        <v>402379.6646836127</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E21" t="n">
-        <v>345853.4733092295</v>
+        <v>355865.1127378313</v>
       </c>
     </row>
     <row r="22">
@@ -3684,16 +3684,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>462845.3355781739</v>
+        <v>467279.6106003244</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E22" t="n">
-        <v>410137.547695087</v>
+        <v>420765.058654543</v>
       </c>
     </row>
     <row r="23">
@@ -3701,16 +3701,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>527129.4099640314</v>
+        <v>532179.5565170362</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E23" t="n">
-        <v>474421.6220809445</v>
+        <v>485665.0045712548</v>
       </c>
     </row>
     <row r="24">
@@ -3718,16 +3718,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>591413.484349889</v>
+        <v>597079.5024337479</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E24" t="n">
-        <v>538705.696466802</v>
+        <v>550564.9504879664</v>
       </c>
     </row>
     <row r="25">
@@ -3735,16 +3735,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>655697.5587357464</v>
+        <v>661979.4483504597</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E25" t="n">
-        <v>602989.7708526595</v>
+        <v>615464.8964046782</v>
       </c>
     </row>
     <row r="26">
@@ -3752,16 +3752,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>719981.633121604</v>
+        <v>726879.3942671714</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E26" t="n">
-        <v>667273.845238517</v>
+        <v>680364.8423213901</v>
       </c>
     </row>
     <row r="27">
@@ -3769,16 +3769,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>784265.7075074614</v>
+        <v>791779.3401838831</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E27" t="n">
-        <v>731557.9196243745</v>
+        <v>745264.7882381016</v>
       </c>
     </row>
     <row r="28">
@@ -3786,16 +3786,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>848549.781893319</v>
+        <v>856679.2861005949</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E28" t="n">
-        <v>795841.994010232</v>
+        <v>810164.7341548135</v>
       </c>
     </row>
     <row r="29">
@@ -3803,16 +3803,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>912833.8562791765</v>
+        <v>921579.2320173067</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E29" t="n">
-        <v>860126.0683960896</v>
+        <v>875064.6800715253</v>
       </c>
     </row>
     <row r="30">
@@ -3820,16 +3820,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>977117.930665034</v>
+        <v>986479.1779340184</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E30" t="n">
-        <v>924410.142781947</v>
+        <v>939964.6259882371</v>
       </c>
     </row>
     <row r="31">
@@ -3837,16 +3837,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>1041402.005050892</v>
+        <v>1051379.12385073</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E31" t="n">
-        <v>988694.2171678046</v>
+        <v>1004864.571904949</v>
       </c>
     </row>
     <row r="32">
@@ -3854,16 +3854,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>1105686.079436749</v>
+        <v>1116279.069767442</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E32" t="n">
-        <v>1052978.291553662</v>
+        <v>1069764.51782166</v>
       </c>
     </row>
   </sheetData>
@@ -3917,16 +3917,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-822836.152138976</v>
+        <v>-830719.3077339103</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>253406.8520495677</v>
+        <v>262532.8095623698</v>
       </c>
       <c r="E2" t="n">
-        <v>-569429.3000894083</v>
+        <v>-568186.4981715404</v>
       </c>
     </row>
     <row r="3">
@@ -3934,16 +3934,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-758552.0777531186</v>
+        <v>-765819.3618171986</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>253406.8520495677</v>
+        <v>262532.8095623698</v>
       </c>
       <c r="E3" t="n">
-        <v>-505145.2257035509</v>
+        <v>-503286.5522548287</v>
       </c>
     </row>
     <row r="4">
@@ -3951,16 +3951,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-694268.0033672611</v>
+        <v>-700919.4159004869</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>253406.8520495678</v>
+        <v>262532.8095623697</v>
       </c>
       <c r="E4" t="n">
-        <v>-440861.1513176934</v>
+        <v>-438386.6063381172</v>
       </c>
     </row>
     <row r="5">
@@ -3968,16 +3968,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-629983.9289814036</v>
+        <v>-636019.4699837752</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>253406.8520495678</v>
+        <v>262532.8095623698</v>
       </c>
       <c r="E5" t="n">
-        <v>-376577.0769318358</v>
+        <v>-373486.6604214054</v>
       </c>
     </row>
     <row r="6">
@@ -3985,16 +3985,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>-565699.8545955461</v>
+        <v>-571119.5240670634</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>253406.8520495677</v>
+        <v>262532.8095623698</v>
       </c>
       <c r="E6" t="n">
-        <v>-312293.0025459784</v>
+        <v>-308586.7145046936</v>
       </c>
     </row>
     <row r="7">
@@ -4002,16 +4002,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-501415.7802096886</v>
+        <v>-506219.5781503516</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>253406.8520495678</v>
+        <v>262532.8095623698</v>
       </c>
       <c r="E7" t="n">
-        <v>-248008.9281601208</v>
+        <v>-243686.7685879819</v>
       </c>
     </row>
     <row r="8">
@@ -4019,16 +4019,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-437131.7058238311</v>
+        <v>-441319.6322336399</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>253406.8520495678</v>
+        <v>262532.8095623698</v>
       </c>
       <c r="E8" t="n">
-        <v>-183724.8537742633</v>
+        <v>-178786.8226712701</v>
       </c>
     </row>
     <row r="9">
@@ -4036,16 +4036,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-372847.6314379736</v>
+        <v>-376419.6863169281</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>253406.8520495678</v>
+        <v>262532.8095623697</v>
       </c>
       <c r="E9" t="n">
-        <v>-119440.7793884058</v>
+        <v>-113886.8767545584</v>
       </c>
     </row>
     <row r="10">
@@ -4053,16 +4053,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-308563.5570521161</v>
+        <v>-311519.7404002164</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>253406.8520495678</v>
+        <v>262532.8095623697</v>
       </c>
       <c r="E10" t="n">
-        <v>-55156.70500254829</v>
+        <v>-48986.93083784665</v>
       </c>
     </row>
     <row r="11">
@@ -4070,16 +4070,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>-244279.4826662586</v>
+        <v>-246619.7944835046</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>176878.1920664041</v>
+        <v>185270.969185332</v>
       </c>
       <c r="E11" t="n">
-        <v>-67401.29059985443</v>
+        <v>-61348.82529817268</v>
       </c>
     </row>
     <row r="12">
@@ -4087,16 +4087,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>-179995.4082804011</v>
+        <v>-181719.8485667929</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>100349.5320832404</v>
+        <v>108009.1288082942</v>
       </c>
       <c r="E12" t="n">
-        <v>-79645.87619716061</v>
+        <v>-73710.71975849873</v>
       </c>
     </row>
     <row r="13">
@@ -4104,16 +4104,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>-115711.3338945436</v>
+        <v>-116819.9026500812</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>23820.87210007674</v>
+        <v>30747.28843125639</v>
       </c>
       <c r="E13" t="n">
-        <v>-91890.46179446681</v>
+        <v>-86072.61421882479</v>
       </c>
     </row>
     <row r="14">
@@ -4121,16 +4121,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>-51427.25950868605</v>
+        <v>-51919.95673336944</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E14" t="n">
-        <v>-104135.047391773</v>
+        <v>-98434.50867915084</v>
       </c>
     </row>
     <row r="15">
@@ -4138,16 +4138,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>12856.81487717146</v>
+        <v>12979.9891833423</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E15" t="n">
-        <v>-39850.9730059155</v>
+        <v>-33534.56276243909</v>
       </c>
     </row>
     <row r="16">
@@ -4155,16 +4155,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>77140.88926302896</v>
+        <v>77879.93510005403</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E16" t="n">
-        <v>24433.10137994201</v>
+        <v>31365.38315427264</v>
       </c>
     </row>
     <row r="17">
@@ -4172,16 +4172,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>141424.9636488864</v>
+        <v>142779.8810167658</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E17" t="n">
-        <v>88717.1757657995</v>
+        <v>96265.32907098439</v>
       </c>
     </row>
     <row r="18">
@@ -4189,16 +4189,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>205709.038034744</v>
+        <v>207679.8269334775</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E18" t="n">
-        <v>153001.250151657</v>
+        <v>161165.2749876961</v>
       </c>
     </row>
     <row r="19">
@@ -4206,16 +4206,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>269993.1124206015</v>
+        <v>272579.7728501892</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E19" t="n">
-        <v>217285.3245375145</v>
+        <v>226065.2209044078</v>
       </c>
     </row>
     <row r="20">
@@ -4223,16 +4223,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>334277.186806459</v>
+        <v>337479.718766901</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E20" t="n">
-        <v>281569.398923372</v>
+        <v>290965.1668211196</v>
       </c>
     </row>
     <row r="21">
@@ -4240,16 +4240,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>398561.2611923165</v>
+        <v>402379.6646836127</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E21" t="n">
-        <v>345853.4733092295</v>
+        <v>355865.1127378313</v>
       </c>
     </row>
     <row r="22">
@@ -4257,16 +4257,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>462845.3355781739</v>
+        <v>467279.6106003244</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E22" t="n">
-        <v>410137.547695087</v>
+        <v>420765.058654543</v>
       </c>
     </row>
     <row r="23">
@@ -4274,16 +4274,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>527129.4099640314</v>
+        <v>532179.5565170362</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E23" t="n">
-        <v>474421.6220809445</v>
+        <v>485665.0045712548</v>
       </c>
     </row>
     <row r="24">
@@ -4291,16 +4291,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>591413.484349889</v>
+        <v>597079.5024337479</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E24" t="n">
-        <v>538705.696466802</v>
+        <v>550564.9504879664</v>
       </c>
     </row>
     <row r="25">
@@ -4308,16 +4308,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>655697.5587357464</v>
+        <v>661979.4483504597</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E25" t="n">
-        <v>602989.7708526595</v>
+        <v>615464.8964046782</v>
       </c>
     </row>
     <row r="26">
@@ -4325,16 +4325,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>719981.633121604</v>
+        <v>726879.3942671714</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E26" t="n">
-        <v>667273.845238517</v>
+        <v>680364.8423213901</v>
       </c>
     </row>
     <row r="27">
@@ -4342,16 +4342,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>784265.7075074614</v>
+        <v>791779.3401838831</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E27" t="n">
-        <v>731557.9196243745</v>
+        <v>745264.7882381016</v>
       </c>
     </row>
     <row r="28">
@@ -4359,16 +4359,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>848549.781893319</v>
+        <v>856679.2861005949</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E28" t="n">
-        <v>795841.994010232</v>
+        <v>810164.7341548135</v>
       </c>
     </row>
     <row r="29">
@@ -4376,16 +4376,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>912833.8562791765</v>
+        <v>921579.2320173067</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E29" t="n">
-        <v>860126.0683960896</v>
+        <v>875064.6800715253</v>
       </c>
     </row>
     <row r="30">
@@ -4393,16 +4393,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>977117.930665034</v>
+        <v>986479.1779340184</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E30" t="n">
-        <v>924410.142781947</v>
+        <v>939964.6259882371</v>
       </c>
     </row>
     <row r="31">
@@ -4410,16 +4410,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>1041402.005050892</v>
+        <v>1051379.12385073</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E31" t="n">
-        <v>988694.2171678046</v>
+        <v>1004864.571904949</v>
       </c>
     </row>
     <row r="32">
@@ -4427,16 +4427,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>1105686.079436749</v>
+        <v>1116279.069767442</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E32" t="n">
-        <v>1052978.291553662</v>
+        <v>1069764.51782166</v>
       </c>
     </row>
   </sheetData>
@@ -4490,16 +4490,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-822836.152138976</v>
+        <v>-830719.3077339103</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>253406.8520495677</v>
+        <v>262532.8095623698</v>
       </c>
       <c r="E2" t="n">
-        <v>-569429.3000894083</v>
+        <v>-568186.4981715404</v>
       </c>
     </row>
     <row r="3">
@@ -4507,16 +4507,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-758552.0777531186</v>
+        <v>-765819.3618171986</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>253406.8520495677</v>
+        <v>262532.8095623698</v>
       </c>
       <c r="E3" t="n">
-        <v>-505145.2257035509</v>
+        <v>-503286.5522548287</v>
       </c>
     </row>
     <row r="4">
@@ -4524,16 +4524,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-694268.0033672611</v>
+        <v>-700919.4159004869</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>253406.8520495678</v>
+        <v>262532.8095623697</v>
       </c>
       <c r="E4" t="n">
-        <v>-440861.1513176934</v>
+        <v>-438386.6063381172</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-629983.9289814036</v>
+        <v>-636019.4699837752</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>253406.8520495678</v>
+        <v>262532.8095623698</v>
       </c>
       <c r="E5" t="n">
-        <v>-376577.0769318358</v>
+        <v>-373486.6604214054</v>
       </c>
     </row>
     <row r="6">
@@ -4558,16 +4558,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>-565699.8545955461</v>
+        <v>-571119.5240670634</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>253406.8520495677</v>
+        <v>262532.8095623698</v>
       </c>
       <c r="E6" t="n">
-        <v>-312293.0025459784</v>
+        <v>-308586.7145046936</v>
       </c>
     </row>
     <row r="7">
@@ -4575,16 +4575,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-501415.7802096886</v>
+        <v>-506219.5781503516</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>253406.8520495678</v>
+        <v>262532.8095623698</v>
       </c>
       <c r="E7" t="n">
-        <v>-248008.9281601208</v>
+        <v>-243686.7685879819</v>
       </c>
     </row>
     <row r="8">
@@ -4592,16 +4592,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-437131.7058238311</v>
+        <v>-441319.6322336399</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>253406.8520495678</v>
+        <v>262532.8095623698</v>
       </c>
       <c r="E8" t="n">
-        <v>-183724.8537742633</v>
+        <v>-178786.8226712701</v>
       </c>
     </row>
     <row r="9">
@@ -4609,16 +4609,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-372847.6314379736</v>
+        <v>-376419.6863169281</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>253406.8520495678</v>
+        <v>262532.8095623697</v>
       </c>
       <c r="E9" t="n">
-        <v>-119440.7793884058</v>
+        <v>-113886.8767545584</v>
       </c>
     </row>
     <row r="10">
@@ -4626,16 +4626,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-308563.5570521161</v>
+        <v>-311519.7404002164</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>253406.8520495678</v>
+        <v>262532.8095623697</v>
       </c>
       <c r="E10" t="n">
-        <v>-55156.70500254829</v>
+        <v>-48986.93083784665</v>
       </c>
     </row>
     <row r="11">
@@ -4643,16 +4643,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>-244279.4826662586</v>
+        <v>-246619.7944835046</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>176878.1920664041</v>
+        <v>185270.969185332</v>
       </c>
       <c r="E11" t="n">
-        <v>-67401.29059985443</v>
+        <v>-61348.82529817268</v>
       </c>
     </row>
     <row r="12">
@@ -4660,16 +4660,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>-179995.4082804011</v>
+        <v>-181719.8485667929</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>100349.5320832404</v>
+        <v>108009.1288082942</v>
       </c>
       <c r="E12" t="n">
-        <v>-79645.87619716061</v>
+        <v>-73710.71975849873</v>
       </c>
     </row>
     <row r="13">
@@ -4677,16 +4677,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>-115711.3338945436</v>
+        <v>-116819.9026500812</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>23820.87210007674</v>
+        <v>30747.28843125639</v>
       </c>
       <c r="E13" t="n">
-        <v>-91890.46179446681</v>
+        <v>-86072.61421882479</v>
       </c>
     </row>
     <row r="14">
@@ -4694,16 +4694,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>-51427.25950868605</v>
+        <v>-51919.95673336944</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E14" t="n">
-        <v>-104135.047391773</v>
+        <v>-98434.50867915084</v>
       </c>
     </row>
     <row r="15">
@@ -4711,16 +4711,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>12856.81487717146</v>
+        <v>12979.9891833423</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E15" t="n">
-        <v>-39850.9730059155</v>
+        <v>-33534.56276243909</v>
       </c>
     </row>
     <row r="16">
@@ -4728,16 +4728,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>77140.88926302896</v>
+        <v>77879.93510005403</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E16" t="n">
-        <v>24433.10137994201</v>
+        <v>31365.38315427264</v>
       </c>
     </row>
     <row r="17">
@@ -4745,16 +4745,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>141424.9636488864</v>
+        <v>142779.8810167658</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E17" t="n">
-        <v>88717.1757657995</v>
+        <v>96265.32907098439</v>
       </c>
     </row>
     <row r="18">
@@ -4762,16 +4762,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>205709.038034744</v>
+        <v>207679.8269334775</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E18" t="n">
-        <v>153001.250151657</v>
+        <v>161165.2749876961</v>
       </c>
     </row>
     <row r="19">
@@ -4779,16 +4779,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>269993.1124206015</v>
+        <v>272579.7728501892</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E19" t="n">
-        <v>217285.3245375145</v>
+        <v>226065.2209044078</v>
       </c>
     </row>
     <row r="20">
@@ -4796,16 +4796,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>334277.186806459</v>
+        <v>337479.718766901</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E20" t="n">
-        <v>281569.398923372</v>
+        <v>290965.1668211196</v>
       </c>
     </row>
     <row r="21">
@@ -4813,16 +4813,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>398561.2611923165</v>
+        <v>402379.6646836127</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E21" t="n">
-        <v>345853.4733092295</v>
+        <v>355865.1127378313</v>
       </c>
     </row>
     <row r="22">
@@ -4830,16 +4830,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>462845.3355781739</v>
+        <v>467279.6106003244</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E22" t="n">
-        <v>410137.547695087</v>
+        <v>420765.058654543</v>
       </c>
     </row>
     <row r="23">
@@ -4847,16 +4847,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>527129.4099640314</v>
+        <v>532179.5565170362</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E23" t="n">
-        <v>474421.6220809445</v>
+        <v>485665.0045712548</v>
       </c>
     </row>
     <row r="24">
@@ -4864,16 +4864,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>591413.484349889</v>
+        <v>597079.5024337479</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E24" t="n">
-        <v>538705.696466802</v>
+        <v>550564.9504879664</v>
       </c>
     </row>
     <row r="25">
@@ -4881,16 +4881,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>655697.5587357464</v>
+        <v>661979.4483504597</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E25" t="n">
-        <v>602989.7708526595</v>
+        <v>615464.8964046782</v>
       </c>
     </row>
     <row r="26">
@@ -4898,16 +4898,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>719981.633121604</v>
+        <v>726879.3942671714</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E26" t="n">
-        <v>667273.845238517</v>
+        <v>680364.8423213901</v>
       </c>
     </row>
     <row r="27">
@@ -4915,16 +4915,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>784265.7075074614</v>
+        <v>791779.3401838831</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E27" t="n">
-        <v>731557.9196243745</v>
+        <v>745264.7882381016</v>
       </c>
     </row>
     <row r="28">
@@ -4932,16 +4932,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>848549.781893319</v>
+        <v>856679.2861005949</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E28" t="n">
-        <v>795841.994010232</v>
+        <v>810164.7341548135</v>
       </c>
     </row>
     <row r="29">
@@ -4949,16 +4949,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>912833.8562791765</v>
+        <v>921579.2320173067</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E29" t="n">
-        <v>860126.0683960896</v>
+        <v>875064.6800715253</v>
       </c>
     </row>
     <row r="30">
@@ -4966,16 +4966,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>977117.930665034</v>
+        <v>986479.1779340184</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E30" t="n">
-        <v>924410.142781947</v>
+        <v>939964.6259882371</v>
       </c>
     </row>
     <row r="31">
@@ -4983,16 +4983,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>1041402.005050892</v>
+        <v>1051379.12385073</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E31" t="n">
-        <v>988694.2171678046</v>
+        <v>1004864.571904949</v>
       </c>
     </row>
     <row r="32">
@@ -5000,16 +5000,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>1105686.079436749</v>
+        <v>1116279.069767442</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-52707.78788308695</v>
+        <v>-46514.55194578139</v>
       </c>
       <c r="E32" t="n">
-        <v>1052978.291553662</v>
+        <v>1069764.51782166</v>
       </c>
     </row>
   </sheetData>

--- a/RGGI PnL Output.xlsx
+++ b/RGGI PnL Output.xlsx
@@ -479,16 +479,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-830719.3077339103</v>
+        <v>-1025882.731440521</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>261686.8399545376</v>
+        <v>337818.8581867374</v>
       </c>
       <c r="E2" t="n">
-        <v>-569032.4677793727</v>
+        <v>-688063.8732537836</v>
       </c>
     </row>
     <row r="3">
@@ -496,16 +496,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-765819.3618171986</v>
+        <v>-939017.1318265903</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>261625.678036339</v>
+        <v>334113.820859102</v>
       </c>
       <c r="E3" t="n">
-        <v>-504193.6837808596</v>
+        <v>-604903.3109674883</v>
       </c>
     </row>
     <row r="4">
@@ -513,16 +513,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-700919.4159004869</v>
+        <v>-852151.5322126596</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>261280.9393927187</v>
+        <v>325402.4147817142</v>
       </c>
       <c r="E4" t="n">
-        <v>-439638.4765077682</v>
+        <v>-526749.1174309454</v>
       </c>
     </row>
     <row r="5">
@@ -530,16 +530,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-636019.4699837752</v>
+        <v>-765285.932598729</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>259947.1335963028</v>
+        <v>309124.3417766306</v>
       </c>
       <c r="E5" t="n">
-        <v>-376072.3363874723</v>
+        <v>-456161.5908220985</v>
       </c>
     </row>
     <row r="6">
@@ -547,16 +547,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>-571119.5240670634</v>
+        <v>-678420.3329847984</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>256123.5809792298</v>
+        <v>283775.3130786944</v>
       </c>
       <c r="E6" t="n">
-        <v>-314995.9430878336</v>
+        <v>-394645.019906104</v>
       </c>
     </row>
     <row r="7">
@@ -564,16 +564,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-506219.5781503516</v>
+        <v>-591554.7333708677</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>247514.5953076935</v>
+        <v>249692.9071364171</v>
       </c>
       <c r="E7" t="n">
-        <v>-258704.9828426582</v>
+        <v>-341861.8262344506</v>
       </c>
     </row>
     <row r="8">
@@ -581,16 +581,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-441319.6322336399</v>
+        <v>-504689.1337569371</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>231606.9079603206</v>
+        <v>209057.2053564017</v>
       </c>
       <c r="E8" t="n">
-        <v>-209712.7242733192</v>
+        <v>-295631.9284005354</v>
       </c>
     </row>
     <row r="9">
@@ -598,16 +598,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-376419.6863169281</v>
+        <v>-417823.5341430064</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>206712.2951161415</v>
+        <v>165206.9639242061</v>
       </c>
       <c r="E9" t="n">
-        <v>-169707.3912007866</v>
+        <v>-252616.5702188003</v>
       </c>
     </row>
     <row r="10">
@@ -615,16 +615,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-311519.7404002164</v>
+        <v>-330957.9345290757</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>173015.0444467223</v>
+        <v>121693.0553759176</v>
       </c>
       <c r="E10" t="n">
-        <v>-138504.695953494</v>
+        <v>-209264.8791531582</v>
       </c>
     </row>
     <row r="11">
@@ -632,16 +632,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>-246619.7944835046</v>
+        <v>-244092.3349151451</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>133030.9998471866</v>
+        <v>81482.46711378793</v>
       </c>
       <c r="E11" t="n">
-        <v>-113588.794636318</v>
+        <v>-162609.8678013571</v>
       </c>
     </row>
     <row r="12">
@@ -649,16 +649,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>-181719.8485667929</v>
+        <v>-157226.7353012144</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>91071.50211057202</v>
+        <v>46527.40230091067</v>
       </c>
       <c r="E12" t="n">
-        <v>-90648.34645622088</v>
+        <v>-110699.3330003037</v>
       </c>
     </row>
     <row r="13">
@@ -666,16 +666,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>-116819.9026500812</v>
+        <v>-70361.13568728374</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>51856.1725160486</v>
+        <v>17704.19950159836</v>
       </c>
       <c r="E13" t="n">
-        <v>-64963.73013403257</v>
+        <v>-52656.93618568538</v>
       </c>
     </row>
     <row r="14">
@@ -683,16 +683,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>-51919.95673336944</v>
+        <v>16504.46392664694</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>18996.73854435059</v>
+        <v>-4996.284614053426</v>
       </c>
       <c r="E14" t="n">
-        <v>-32923.21818901884</v>
+        <v>11508.17931259351</v>
       </c>
     </row>
     <row r="15">
@@ -700,16 +700,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>12979.9891833423</v>
+        <v>103370.0635405776</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-5861.125829113435</v>
+        <v>-22172.01938797691</v>
       </c>
       <c r="E15" t="n">
-        <v>7118.863354228868</v>
+        <v>81198.04415260069</v>
       </c>
     </row>
     <row r="16">
@@ -717,16 +717,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>77879.93510005403</v>
+        <v>190235.6631545083</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-22961.86949912143</v>
+        <v>-34718.88572413799</v>
       </c>
       <c r="E16" t="n">
-        <v>54918.0656009326</v>
+        <v>155516.7774303703</v>
       </c>
     </row>
     <row r="17">
@@ -734,16 +734,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>142779.8810167658</v>
+        <v>277101.2627684389</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-33738.61483044877</v>
+        <v>-43605.67827144285</v>
       </c>
       <c r="E17" t="n">
-        <v>109041.266186317</v>
+        <v>233495.584496996</v>
       </c>
     </row>
     <row r="18">
@@ -751,16 +751,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>207679.8269334775</v>
+        <v>363966.8623823696</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-40004.2358118536</v>
+        <v>-49731.2463212224</v>
       </c>
       <c r="E18" t="n">
-        <v>167675.5911216239</v>
+        <v>314235.6160611472</v>
       </c>
     </row>
     <row r="19">
@@ -768,16 +768,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>272579.7728501892</v>
+        <v>450832.4619963002</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-43387.49045235405</v>
+        <v>-53853.49424606087</v>
       </c>
       <c r="E19" t="n">
-        <v>229192.2823978352</v>
+        <v>396978.9677502393</v>
       </c>
     </row>
     <row r="20">
@@ -785,16 +785,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>337479.718766901</v>
+        <v>537698.0616102309</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-45094.42716526178</v>
+        <v>-56569.48821683889</v>
       </c>
       <c r="E20" t="n">
-        <v>292385.2916016392</v>
+        <v>481128.573393392</v>
       </c>
     </row>
     <row r="21">
@@ -802,16 +802,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>402379.6646836127</v>
+        <v>624563.6612241615</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-45903.31752948246</v>
+        <v>-58325.80453564587</v>
       </c>
       <c r="E21" t="n">
-        <v>356476.3471541302</v>
+        <v>566237.8566885156</v>
       </c>
     </row>
     <row r="22">
@@ -819,16 +819,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>467279.6106003244</v>
+        <v>711429.2608380922</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-46264.90542674638</v>
+        <v>-59442.92795315228</v>
       </c>
       <c r="E22" t="n">
-        <v>421014.705173578</v>
+        <v>651986.3328849399</v>
       </c>
     </row>
     <row r="23">
@@ -836,16 +836,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>532179.5565170362</v>
+        <v>798294.8604520229</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-46417.84992973667</v>
+        <v>-60143.18866558684</v>
       </c>
       <c r="E23" t="n">
-        <v>485761.7065872995</v>
+        <v>738151.671786436</v>
       </c>
     </row>
     <row r="24">
@@ -853,16 +853,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>597079.5024337479</v>
+        <v>885160.4600659537</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-46479.1556133678</v>
+        <v>-60576.51923595641</v>
       </c>
       <c r="E24" t="n">
-        <v>550600.3468203801</v>
+        <v>824583.9408299973</v>
       </c>
     </row>
     <row r="25">
@@ -870,16 +870,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>661979.4483504597</v>
+        <v>972026.0596798842</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-46502.42304828514</v>
+        <v>-60841.6365051256</v>
       </c>
       <c r="E25" t="n">
-        <v>615477.0253021745</v>
+        <v>911184.4231747587</v>
       </c>
     </row>
     <row r="26">
@@ -887,16 +887,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>726879.3942671714</v>
+        <v>1058891.659293815</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-46510.74513763019</v>
+        <v>-61002.22034037028</v>
       </c>
       <c r="E26" t="n">
-        <v>680368.6491295412</v>
+        <v>997889.4389534447</v>
       </c>
     </row>
     <row r="27">
@@ -904,16 +904,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>791779.3401838831</v>
+        <v>1145757.258907746</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-46513.51666187705</v>
+        <v>-61098.63287811747</v>
       </c>
       <c r="E27" t="n">
-        <v>745265.823522006</v>
+        <v>1084658.626029628</v>
       </c>
     </row>
     <row r="28">
@@ -921,16 +921,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>856679.2861005949</v>
+        <v>1232622.858521676</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-46514.35170327536</v>
+        <v>-61156.07100524566</v>
       </c>
       <c r="E28" t="n">
-        <v>810164.9343973196</v>
+        <v>1171466.78751643</v>
       </c>
     </row>
     <row r="29">
@@ -938,16 +938,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>921579.2320173067</v>
+        <v>1319488.458135607</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-46514.56199105312</v>
+        <v>-61190.05859093236</v>
       </c>
       <c r="E29" t="n">
-        <v>875064.6700262536</v>
+        <v>1258298.399544675</v>
       </c>
     </row>
     <row r="30">
@@ -955,16 +955,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>986479.1779340184</v>
+        <v>1406354.057749538</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-46514.59299779098</v>
+        <v>-61210.05116072671</v>
       </c>
       <c r="E30" t="n">
-        <v>939964.5849362274</v>
+        <v>1345144.006588811</v>
       </c>
     </row>
     <row r="31">
@@ -972,16 +972,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>1051379.12385073</v>
+        <v>1493219.657363468</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-46514.58336569626</v>
+        <v>-61221.75105322598</v>
       </c>
       <c r="E31" t="n">
-        <v>1004864.540485034</v>
+        <v>1431997.906310242</v>
       </c>
     </row>
     <row r="32">
@@ -989,16 +989,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>1116279.069767442</v>
+        <v>1580085.256977399</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-46514.57055785255</v>
+        <v>-61228.56757438225</v>
       </c>
       <c r="E32" t="n">
-        <v>1069764.499209589</v>
+        <v>1518856.689403017</v>
       </c>
     </row>
   </sheetData>
@@ -1052,16 +1052,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-830719.3077339103</v>
+        <v>-1025882.731440521</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>262053.1760176996</v>
+        <v>340233.8867747966</v>
       </c>
       <c r="E2" t="n">
-        <v>-568666.1317162106</v>
+        <v>-685648.8446657243</v>
       </c>
     </row>
     <row r="3">
@@ -1069,16 +1069,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-765819.3618171986</v>
+        <v>-939017.1318265903</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>262052.1290307638</v>
+        <v>339966.2538623855</v>
       </c>
       <c r="E3" t="n">
-        <v>-503767.2327864348</v>
+        <v>-599050.8779642048</v>
       </c>
     </row>
     <row r="4">
@@ -1086,16 +1086,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-700919.4159004869</v>
+        <v>-852151.5322126596</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>262033.2374805394</v>
+        <v>338178.4296195019</v>
       </c>
       <c r="E4" t="n">
-        <v>-438886.1784199474</v>
+        <v>-513973.1025931577</v>
       </c>
     </row>
     <row r="5">
@@ -1103,16 +1103,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-636019.4699837752</v>
+        <v>-765285.932598729</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>261854.3471830526</v>
+        <v>331191.9111831858</v>
       </c>
       <c r="E5" t="n">
-        <v>-374165.1228007225</v>
+        <v>-434094.0214155433</v>
       </c>
     </row>
     <row r="6">
@@ -1120,16 +1120,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>-571119.5240670634</v>
+        <v>-678420.3329847984</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>260843.1266336999</v>
+        <v>313183.8741813278</v>
       </c>
       <c r="E6" t="n">
-        <v>-310276.3974333635</v>
+        <v>-365236.4588034706</v>
       </c>
     </row>
     <row r="7">
@@ -1137,16 +1137,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-506219.5781503516</v>
+        <v>-591554.7333708677</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>257070.6639807117</v>
+        <v>279533.0266228882</v>
       </c>
       <c r="E7" t="n">
-        <v>-249148.91416964</v>
+        <v>-312021.7067479794</v>
       </c>
     </row>
     <row r="8">
@@ -1154,16 +1154,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-441319.6322336399</v>
+        <v>-504689.1337569371</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>247007.5159597138</v>
+        <v>230457.5151920661</v>
       </c>
       <c r="E8" t="n">
-        <v>-194312.116273926</v>
+        <v>-274231.618564871</v>
       </c>
     </row>
     <row r="9">
@@ -1171,16 +1171,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-376419.6863169281</v>
+        <v>-417823.5341430064</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>226537.5169432924</v>
+        <v>171469.7645637202</v>
       </c>
       <c r="E9" t="n">
-        <v>-149882.1693736357</v>
+        <v>-246353.7695792862</v>
       </c>
     </row>
     <row r="10">
@@ -1188,16 +1188,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-311519.7404002164</v>
+        <v>-330957.9345290757</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>193183.4696042937</v>
+        <v>110839.5598289886</v>
       </c>
       <c r="E10" t="n">
-        <v>-118336.2707959227</v>
+        <v>-220118.3747000872</v>
       </c>
     </row>
     <row r="11">
@@ -1205,16 +1205,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>-246619.7944835046</v>
+        <v>-244092.3349151451</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>148215.4515636665</v>
+        <v>56332.50891680951</v>
       </c>
       <c r="E11" t="n">
-        <v>-98404.34291983815</v>
+        <v>-187759.8259983356</v>
       </c>
     </row>
     <row r="12">
@@ -1222,16 +1222,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>-181719.8485667929</v>
+        <v>-157226.7353012144</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>97254.70540587198</v>
+        <v>12893.63287926742</v>
       </c>
       <c r="E12" t="n">
-        <v>-84465.14316092092</v>
+        <v>-144333.102421947</v>
       </c>
     </row>
     <row r="13">
@@ -1239,16 +1239,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>-116819.9026500812</v>
+        <v>-70361.13568728374</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>48503.81527738606</v>
+        <v>-18072.45204422124</v>
       </c>
       <c r="E13" t="n">
-        <v>-68316.08737269511</v>
+        <v>-88433.58773150497</v>
       </c>
     </row>
     <row r="14">
@@ -1256,16 +1256,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>-51919.95673336944</v>
+        <v>16504.46392664694</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>9123.069623418985</v>
+        <v>-37970.36615482749</v>
       </c>
       <c r="E14" t="n">
-        <v>-42796.88710995045</v>
+        <v>-21465.90222818055</v>
       </c>
     </row>
     <row r="15">
@@ -1273,16 +1273,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>12979.9891833423</v>
+        <v>103370.0635405776</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-17791.82062481192</v>
+        <v>-49583.49484155778</v>
       </c>
       <c r="E15" t="n">
-        <v>-4811.831441469621</v>
+        <v>53786.56869901982</v>
       </c>
     </row>
     <row r="16">
@@ -1290,16 +1290,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>77879.93510005403</v>
+        <v>190235.6631545083</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-33441.20463619945</v>
+        <v>-55787.94184645047</v>
       </c>
       <c r="E16" t="n">
-        <v>44438.73046385458</v>
+        <v>134447.7213080578</v>
       </c>
     </row>
     <row r="17">
@@ -1307,16 +1307,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>142779.8810167658</v>
+        <v>277101.2627684389</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-41248.86624254913</v>
+        <v>-58846.20301431746</v>
       </c>
       <c r="E17" t="n">
-        <v>101531.0147742166</v>
+        <v>218255.0597541214</v>
       </c>
     </row>
     <row r="18">
@@ -1324,16 +1324,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>207679.8269334775</v>
+        <v>363966.8623823696</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-44626.3515538549</v>
+        <v>-60247.65880251475</v>
       </c>
       <c r="E18" t="n">
-        <v>163053.4753796226</v>
+        <v>303719.2035798548</v>
       </c>
     </row>
     <row r="19">
@@ -1341,16 +1341,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>272579.7728501892</v>
+        <v>450832.4619963002</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-45907.3855623303</v>
+        <v>-60849.0576080773</v>
       </c>
       <c r="E19" t="n">
-        <v>226672.3872878589</v>
+        <v>389983.4043882229</v>
       </c>
     </row>
     <row r="20">
@@ -1358,16 +1358,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>337479.718766901</v>
+        <v>537698.0616102309</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-46338.14115470149</v>
+        <v>-61092.3621754741</v>
       </c>
       <c r="E20" t="n">
-        <v>291141.5776121995</v>
+        <v>476605.6994347568</v>
       </c>
     </row>
     <row r="21">
@@ -1375,16 +1375,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>402379.6646836127</v>
+        <v>624563.6612241615</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-46467.90128933441</v>
+        <v>-61185.73683227707</v>
       </c>
       <c r="E21" t="n">
-        <v>355911.7633942783</v>
+        <v>563377.9243918845</v>
       </c>
     </row>
     <row r="22">
@@ -1392,16 +1392,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>467279.6106003244</v>
+        <v>711429.2608380922</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-46503.25182841415</v>
+        <v>-61219.92243662559</v>
       </c>
       <c r="E22" t="n">
-        <v>420776.3587719103</v>
+        <v>650209.3384014666</v>
       </c>
     </row>
     <row r="23">
@@ -1409,16 +1409,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>532179.5565170362</v>
+        <v>798294.8604520229</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-46512.03243658371</v>
+        <v>-61231.92307078643</v>
       </c>
       <c r="E23" t="n">
-        <v>485667.5240804525</v>
+        <v>737062.9373812365</v>
       </c>
     </row>
     <row r="24">
@@ -1426,16 +1426,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>597079.5024337479</v>
+        <v>885160.4600659537</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-46514.03366247116</v>
+        <v>-61235.98100266679</v>
       </c>
       <c r="E24" t="n">
-        <v>550565.4687712768</v>
+        <v>823924.4790632869</v>
       </c>
     </row>
     <row r="25">
@@ -1443,16 +1443,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>661979.4483504597</v>
+        <v>972026.0596798842</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-46514.45380082766</v>
+        <v>-61237.30820547065</v>
       </c>
       <c r="E25" t="n">
-        <v>615464.9945496321</v>
+        <v>910788.7514744136</v>
       </c>
     </row>
     <row r="26">
@@ -1460,16 +1460,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>726879.3942671714</v>
+        <v>1058891.659293815</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-46514.53503331613</v>
+        <v>-61237.7296224501</v>
       </c>
       <c r="E26" t="n">
-        <v>680364.8592338553</v>
+        <v>997653.929671365</v>
       </c>
     </row>
     <row r="27">
@@ -1477,16 +1477,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>791779.3401838831</v>
+        <v>1145757.258907746</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-46514.54938402827</v>
+        <v>-61237.85996164282</v>
       </c>
       <c r="E27" t="n">
-        <v>745264.7907998548</v>
+        <v>1084519.398946103</v>
       </c>
     </row>
     <row r="28">
@@ -1494,16 +1494,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>856679.2861005949</v>
+        <v>1232622.858521676</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-46514.55164169545</v>
+        <v>-61237.89934611997</v>
       </c>
       <c r="E28" t="n">
-        <v>810164.7344588995</v>
+        <v>1171384.959175556</v>
       </c>
     </row>
     <row r="29">
@@ -1511,16 +1511,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>921579.2320173067</v>
+        <v>1319488.458135607</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-46514.55193349301</v>
+        <v>-61237.91100426073</v>
       </c>
       <c r="E29" t="n">
-        <v>875064.6800838137</v>
+        <v>1258250.547131346</v>
       </c>
     </row>
     <row r="30">
@@ -1528,16 +1528,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>986479.1779340184</v>
+        <v>1406354.057749538</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-46514.55195418894</v>
+        <v>-61237.91439299194</v>
       </c>
       <c r="E30" t="n">
-        <v>939964.6259798295</v>
+        <v>1345116.143356546</v>
       </c>
     </row>
     <row r="31">
@@ -1545,16 +1545,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>1051379.12385073</v>
+        <v>1493219.657363468</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-46514.55194987044</v>
+        <v>-61237.91536236976</v>
       </c>
       <c r="E31" t="n">
-        <v>1004864.57190086</v>
+        <v>1431981.742001099</v>
       </c>
     </row>
     <row r="32">
@@ -1562,16 +1562,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>1116279.069767442</v>
+        <v>1580085.256977399</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-46514.55194713772</v>
+        <v>-61237.91563580096</v>
       </c>
       <c r="E32" t="n">
-        <v>1069764.517820304</v>
+        <v>1518847.341341598</v>
       </c>
     </row>
   </sheetData>
@@ -1625,16 +1625,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-830719.3077339103</v>
+        <v>-1025882.731440521</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>262532.8095623698</v>
+        <v>340917.638027349</v>
       </c>
       <c r="E2" t="n">
-        <v>-568186.4981715404</v>
+        <v>-684965.0934131721</v>
       </c>
     </row>
     <row r="3">
@@ -1642,16 +1642,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-765819.3618171986</v>
+        <v>-939017.1318265903</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>262532.8095623698</v>
+        <v>340917.638027349</v>
       </c>
       <c r="E3" t="n">
-        <v>-503286.5522548287</v>
+        <v>-598099.4937992413</v>
       </c>
     </row>
     <row r="4">
@@ -1659,16 +1659,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-700919.4159004869</v>
+        <v>-852151.5322126596</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>262532.8095623697</v>
+        <v>340917.638027349</v>
       </c>
       <c r="E4" t="n">
-        <v>-438386.6063381172</v>
+        <v>-511233.8941853106</v>
       </c>
     </row>
     <row r="5">
@@ -1676,16 +1676,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-636019.4699837752</v>
+        <v>-765285.932598729</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>262532.8095623698</v>
+        <v>340917.638027349</v>
       </c>
       <c r="E5" t="n">
-        <v>-373486.6604214054</v>
+        <v>-424368.29457138</v>
       </c>
     </row>
     <row r="6">
@@ -1693,16 +1693,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>-571119.5240670634</v>
+        <v>-678420.3329847984</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>262532.8095623698</v>
+        <v>340917.638027349</v>
       </c>
       <c r="E6" t="n">
-        <v>-308586.7145046936</v>
+        <v>-337502.6949574493</v>
       </c>
     </row>
     <row r="7">
@@ -1710,16 +1710,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-506219.5781503516</v>
+        <v>-591554.7333708677</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>262532.8095623698</v>
+        <v>340917.638027349</v>
       </c>
       <c r="E7" t="n">
-        <v>-243686.7685879819</v>
+        <v>-250637.0953435187</v>
       </c>
     </row>
     <row r="8">
@@ -1727,16 +1727,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-441319.6322336399</v>
+        <v>-504689.1337569371</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>262532.8095623698</v>
+        <v>260486.5272737095</v>
       </c>
       <c r="E8" t="n">
-        <v>-178786.8226712701</v>
+        <v>-244202.6064832275</v>
       </c>
     </row>
     <row r="9">
@@ -1744,16 +1744,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-376419.6863169281</v>
+        <v>-417823.5341430064</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>262532.8095623697</v>
+        <v>180055.41652007</v>
       </c>
       <c r="E9" t="n">
-        <v>-113886.8767545584</v>
+        <v>-237768.1176229363</v>
       </c>
     </row>
     <row r="10">
@@ -1761,16 +1761,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-311519.7404002164</v>
+        <v>-330957.9345290757</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>262532.8095623697</v>
+        <v>99624.30576643051</v>
       </c>
       <c r="E10" t="n">
-        <v>-48986.93083784665</v>
+        <v>-231333.6287626452</v>
       </c>
     </row>
     <row r="11">
@@ -1778,16 +1778,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>-246619.7944835046</v>
+        <v>-244092.3349151451</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>185270.969185332</v>
+        <v>19193.19501279101</v>
       </c>
       <c r="E11" t="n">
-        <v>-61348.82529817268</v>
+        <v>-224899.139902354</v>
       </c>
     </row>
     <row r="12">
@@ -1795,16 +1795,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>-181719.8485667929</v>
+        <v>-157226.7353012144</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>108009.1288082942</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E12" t="n">
-        <v>-73710.71975849873</v>
+        <v>-218464.6510420629</v>
       </c>
     </row>
     <row r="13">
@@ -1812,16 +1812,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>-116819.9026500812</v>
+        <v>-70361.13568728374</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>30747.28843125639</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E13" t="n">
-        <v>-86072.61421882479</v>
+        <v>-131599.0514281322</v>
       </c>
     </row>
     <row r="14">
@@ -1829,16 +1829,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>-51919.95673336944</v>
+        <v>16504.46392664694</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E14" t="n">
-        <v>-98434.50867915084</v>
+        <v>-44733.45181420155</v>
       </c>
     </row>
     <row r="15">
@@ -1846,16 +1846,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>12979.9891833423</v>
+        <v>103370.0635405776</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E15" t="n">
-        <v>-33534.56276243909</v>
+        <v>42132.14779972911</v>
       </c>
     </row>
     <row r="16">
@@ -1863,16 +1863,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>77879.93510005403</v>
+        <v>190235.6631545083</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E16" t="n">
-        <v>31365.38315427264</v>
+        <v>128997.7474136598</v>
       </c>
     </row>
     <row r="17">
@@ -1880,16 +1880,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>142779.8810167658</v>
+        <v>277101.2627684389</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E17" t="n">
-        <v>96265.32907098439</v>
+        <v>215863.3470275904</v>
       </c>
     </row>
     <row r="18">
@@ -1897,16 +1897,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>207679.8269334775</v>
+        <v>363966.8623823696</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E18" t="n">
-        <v>161165.2749876961</v>
+        <v>302728.9466415211</v>
       </c>
     </row>
     <row r="19">
@@ -1914,16 +1914,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>272579.7728501892</v>
+        <v>450832.4619963002</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E19" t="n">
-        <v>226065.2209044078</v>
+        <v>389594.5462554517</v>
       </c>
     </row>
     <row r="20">
@@ -1931,16 +1931,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>337479.718766901</v>
+        <v>537698.0616102309</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E20" t="n">
-        <v>290965.1668211196</v>
+        <v>476460.1458693824</v>
       </c>
     </row>
     <row r="21">
@@ -1948,16 +1948,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>402379.6646836127</v>
+        <v>624563.6612241615</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E21" t="n">
-        <v>355865.1127378313</v>
+        <v>563325.745483313</v>
       </c>
     </row>
     <row r="22">
@@ -1965,16 +1965,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>467279.6106003244</v>
+        <v>711429.2608380922</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E22" t="n">
-        <v>420765.058654543</v>
+        <v>650191.3450972437</v>
       </c>
     </row>
     <row r="23">
@@ -1982,16 +1982,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>532179.5565170362</v>
+        <v>798294.8604520229</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E23" t="n">
-        <v>485665.0045712548</v>
+        <v>737056.9447111744</v>
       </c>
     </row>
     <row r="24">
@@ -1999,16 +1999,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>597079.5024337479</v>
+        <v>885160.4600659537</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E24" t="n">
-        <v>550564.9504879664</v>
+        <v>823922.5443251051</v>
       </c>
     </row>
     <row r="25">
@@ -2016,16 +2016,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>661979.4483504597</v>
+        <v>972026.0596798842</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E25" t="n">
-        <v>615464.8964046782</v>
+        <v>910788.1439390357</v>
       </c>
     </row>
     <row r="26">
@@ -2033,16 +2033,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>726879.3942671714</v>
+        <v>1058891.659293815</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E26" t="n">
-        <v>680364.8423213901</v>
+        <v>997653.7435529665</v>
       </c>
     </row>
     <row r="27">
@@ -2050,16 +2050,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>791779.3401838831</v>
+        <v>1145757.258907746</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E27" t="n">
-        <v>745264.7882381016</v>
+        <v>1084519.343166897</v>
       </c>
     </row>
     <row r="28">
@@ -2067,16 +2067,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>856679.2861005949</v>
+        <v>1232622.858521676</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E28" t="n">
-        <v>810164.7341548135</v>
+        <v>1171384.942780828</v>
       </c>
     </row>
     <row r="29">
@@ -2084,16 +2084,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>921579.2320173067</v>
+        <v>1319488.458135607</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E29" t="n">
-        <v>875064.6800715253</v>
+        <v>1258250.542394758</v>
       </c>
     </row>
     <row r="30">
@@ -2101,16 +2101,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>986479.1779340184</v>
+        <v>1406354.057749538</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E30" t="n">
-        <v>939964.6259882371</v>
+        <v>1345116.142008689</v>
       </c>
     </row>
     <row r="31">
@@ -2118,16 +2118,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>1051379.12385073</v>
+        <v>1493219.657363468</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E31" t="n">
-        <v>1004864.571904949</v>
+        <v>1431981.74162262</v>
       </c>
     </row>
     <row r="32">
@@ -2135,16 +2135,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>1116279.069767442</v>
+        <v>1580085.256977399</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E32" t="n">
-        <v>1069764.51782166</v>
+        <v>1518847.34123655</v>
       </c>
     </row>
   </sheetData>
@@ -2198,16 +2198,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-830719.3077339103</v>
+        <v>-1025882.731440521</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>262532.8095623698</v>
+        <v>340917.638027349</v>
       </c>
       <c r="E2" t="n">
-        <v>-568186.4981715404</v>
+        <v>-684965.0934131721</v>
       </c>
     </row>
     <row r="3">
@@ -2215,16 +2215,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-765819.3618171986</v>
+        <v>-939017.1318265903</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>262532.8095623698</v>
+        <v>340917.638027349</v>
       </c>
       <c r="E3" t="n">
-        <v>-503286.5522548287</v>
+        <v>-598099.4937992413</v>
       </c>
     </row>
     <row r="4">
@@ -2232,16 +2232,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-700919.4159004869</v>
+        <v>-852151.5322126596</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>262532.8095623697</v>
+        <v>340917.638027349</v>
       </c>
       <c r="E4" t="n">
-        <v>-438386.6063381172</v>
+        <v>-511233.8941853106</v>
       </c>
     </row>
     <row r="5">
@@ -2249,16 +2249,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-636019.4699837752</v>
+        <v>-765285.932598729</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>262532.8095623698</v>
+        <v>340917.638027349</v>
       </c>
       <c r="E5" t="n">
-        <v>-373486.6604214054</v>
+        <v>-424368.29457138</v>
       </c>
     </row>
     <row r="6">
@@ -2266,16 +2266,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>-571119.5240670634</v>
+        <v>-678420.3329847984</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>262532.8095623698</v>
+        <v>340917.638027349</v>
       </c>
       <c r="E6" t="n">
-        <v>-308586.7145046936</v>
+        <v>-337502.6949574493</v>
       </c>
     </row>
     <row r="7">
@@ -2283,16 +2283,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-506219.5781503516</v>
+        <v>-591554.7333708677</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>262532.8095623698</v>
+        <v>340917.638027349</v>
       </c>
       <c r="E7" t="n">
-        <v>-243686.7685879819</v>
+        <v>-250637.0953435187</v>
       </c>
     </row>
     <row r="8">
@@ -2300,16 +2300,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-441319.6322336399</v>
+        <v>-504689.1337569371</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>262532.8095623698</v>
+        <v>260486.5272737095</v>
       </c>
       <c r="E8" t="n">
-        <v>-178786.8226712701</v>
+        <v>-244202.6064832275</v>
       </c>
     </row>
     <row r="9">
@@ -2317,16 +2317,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-376419.6863169281</v>
+        <v>-417823.5341430064</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>262532.8095623697</v>
+        <v>180055.41652007</v>
       </c>
       <c r="E9" t="n">
-        <v>-113886.8767545584</v>
+        <v>-237768.1176229363</v>
       </c>
     </row>
     <row r="10">
@@ -2334,16 +2334,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-311519.7404002164</v>
+        <v>-330957.9345290757</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>262532.8095623697</v>
+        <v>99624.30576643051</v>
       </c>
       <c r="E10" t="n">
-        <v>-48986.93083784665</v>
+        <v>-231333.6287626452</v>
       </c>
     </row>
     <row r="11">
@@ -2351,16 +2351,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>-246619.7944835046</v>
+        <v>-244092.3349151451</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>185270.969185332</v>
+        <v>19193.19501279101</v>
       </c>
       <c r="E11" t="n">
-        <v>-61348.82529817268</v>
+        <v>-224899.139902354</v>
       </c>
     </row>
     <row r="12">
@@ -2368,16 +2368,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>-181719.8485667929</v>
+        <v>-157226.7353012144</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>108009.1288082942</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E12" t="n">
-        <v>-73710.71975849873</v>
+        <v>-218464.6510420629</v>
       </c>
     </row>
     <row r="13">
@@ -2385,16 +2385,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>-116819.9026500812</v>
+        <v>-70361.13568728374</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>30747.28843125639</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E13" t="n">
-        <v>-86072.61421882479</v>
+        <v>-131599.0514281322</v>
       </c>
     </row>
     <row r="14">
@@ -2402,16 +2402,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>-51919.95673336944</v>
+        <v>16504.46392664694</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E14" t="n">
-        <v>-98434.50867915084</v>
+        <v>-44733.45181420155</v>
       </c>
     </row>
     <row r="15">
@@ -2419,16 +2419,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>12979.9891833423</v>
+        <v>103370.0635405776</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E15" t="n">
-        <v>-33534.56276243909</v>
+        <v>42132.14779972911</v>
       </c>
     </row>
     <row r="16">
@@ -2436,16 +2436,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>77879.93510005403</v>
+        <v>190235.6631545083</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E16" t="n">
-        <v>31365.38315427264</v>
+        <v>128997.7474136598</v>
       </c>
     </row>
     <row r="17">
@@ -2453,16 +2453,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>142779.8810167658</v>
+        <v>277101.2627684389</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E17" t="n">
-        <v>96265.32907098439</v>
+        <v>215863.3470275904</v>
       </c>
     </row>
     <row r="18">
@@ -2470,16 +2470,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>207679.8269334775</v>
+        <v>363966.8623823696</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E18" t="n">
-        <v>161165.2749876961</v>
+        <v>302728.9466415211</v>
       </c>
     </row>
     <row r="19">
@@ -2487,16 +2487,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>272579.7728501892</v>
+        <v>450832.4619963002</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E19" t="n">
-        <v>226065.2209044078</v>
+        <v>389594.5462554517</v>
       </c>
     </row>
     <row r="20">
@@ -2504,16 +2504,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>337479.718766901</v>
+        <v>537698.0616102309</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E20" t="n">
-        <v>290965.1668211196</v>
+        <v>476460.1458693824</v>
       </c>
     </row>
     <row r="21">
@@ -2521,16 +2521,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>402379.6646836127</v>
+        <v>624563.6612241615</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E21" t="n">
-        <v>355865.1127378313</v>
+        <v>563325.745483313</v>
       </c>
     </row>
     <row r="22">
@@ -2538,16 +2538,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>467279.6106003244</v>
+        <v>711429.2608380922</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E22" t="n">
-        <v>420765.058654543</v>
+        <v>650191.3450972437</v>
       </c>
     </row>
     <row r="23">
@@ -2555,16 +2555,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>532179.5565170362</v>
+        <v>798294.8604520229</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E23" t="n">
-        <v>485665.0045712548</v>
+        <v>737056.9447111744</v>
       </c>
     </row>
     <row r="24">
@@ -2572,16 +2572,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>597079.5024337479</v>
+        <v>885160.4600659537</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E24" t="n">
-        <v>550564.9504879664</v>
+        <v>823922.5443251051</v>
       </c>
     </row>
     <row r="25">
@@ -2589,16 +2589,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>661979.4483504597</v>
+        <v>972026.0596798842</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E25" t="n">
-        <v>615464.8964046782</v>
+        <v>910788.1439390357</v>
       </c>
     </row>
     <row r="26">
@@ -2606,16 +2606,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>726879.3942671714</v>
+        <v>1058891.659293815</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E26" t="n">
-        <v>680364.8423213901</v>
+        <v>997653.7435529665</v>
       </c>
     </row>
     <row r="27">
@@ -2623,16 +2623,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>791779.3401838831</v>
+        <v>1145757.258907746</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E27" t="n">
-        <v>745264.7882381016</v>
+        <v>1084519.343166897</v>
       </c>
     </row>
     <row r="28">
@@ -2640,16 +2640,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>856679.2861005949</v>
+        <v>1232622.858521676</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E28" t="n">
-        <v>810164.7341548135</v>
+        <v>1171384.942780828</v>
       </c>
     </row>
     <row r="29">
@@ -2657,16 +2657,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>921579.2320173067</v>
+        <v>1319488.458135607</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E29" t="n">
-        <v>875064.6800715253</v>
+        <v>1258250.542394758</v>
       </c>
     </row>
     <row r="30">
@@ -2674,16 +2674,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>986479.1779340184</v>
+        <v>1406354.057749538</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E30" t="n">
-        <v>939964.6259882371</v>
+        <v>1345116.142008689</v>
       </c>
     </row>
     <row r="31">
@@ -2691,16 +2691,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>1051379.12385073</v>
+        <v>1493219.657363468</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E31" t="n">
-        <v>1004864.571904949</v>
+        <v>1431981.74162262</v>
       </c>
     </row>
     <row r="32">
@@ -2708,16 +2708,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>1116279.069767442</v>
+        <v>1580085.256977399</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E32" t="n">
-        <v>1069764.51782166</v>
+        <v>1518847.34123655</v>
       </c>
     </row>
   </sheetData>
@@ -2771,16 +2771,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-830719.3077339103</v>
+        <v>-1025882.731440521</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>262532.8095623698</v>
+        <v>340917.638027349</v>
       </c>
       <c r="E2" t="n">
-        <v>-568186.4981715404</v>
+        <v>-684965.0934131721</v>
       </c>
     </row>
     <row r="3">
@@ -2788,16 +2788,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-765819.3618171986</v>
+        <v>-939017.1318265903</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>262532.8095623698</v>
+        <v>340917.638027349</v>
       </c>
       <c r="E3" t="n">
-        <v>-503286.5522548287</v>
+        <v>-598099.4937992413</v>
       </c>
     </row>
     <row r="4">
@@ -2805,16 +2805,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-700919.4159004869</v>
+        <v>-852151.5322126596</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>262532.8095623697</v>
+        <v>340917.638027349</v>
       </c>
       <c r="E4" t="n">
-        <v>-438386.6063381172</v>
+        <v>-511233.8941853106</v>
       </c>
     </row>
     <row r="5">
@@ -2822,16 +2822,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-636019.4699837752</v>
+        <v>-765285.932598729</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>262532.8095623698</v>
+        <v>340917.638027349</v>
       </c>
       <c r="E5" t="n">
-        <v>-373486.6604214054</v>
+        <v>-424368.29457138</v>
       </c>
     </row>
     <row r="6">
@@ -2839,16 +2839,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>-571119.5240670634</v>
+        <v>-678420.3329847984</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>262532.8095623698</v>
+        <v>340917.638027349</v>
       </c>
       <c r="E6" t="n">
-        <v>-308586.7145046936</v>
+        <v>-337502.6949574493</v>
       </c>
     </row>
     <row r="7">
@@ -2856,16 +2856,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-506219.5781503516</v>
+        <v>-591554.7333708677</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>262532.8095623698</v>
+        <v>340917.638027349</v>
       </c>
       <c r="E7" t="n">
-        <v>-243686.7685879819</v>
+        <v>-250637.0953435187</v>
       </c>
     </row>
     <row r="8">
@@ -2873,16 +2873,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-441319.6322336399</v>
+        <v>-504689.1337569371</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>262532.8095623698</v>
+        <v>260486.5272737095</v>
       </c>
       <c r="E8" t="n">
-        <v>-178786.8226712701</v>
+        <v>-244202.6064832275</v>
       </c>
     </row>
     <row r="9">
@@ -2890,16 +2890,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-376419.6863169281</v>
+        <v>-417823.5341430064</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>262532.8095623697</v>
+        <v>180055.41652007</v>
       </c>
       <c r="E9" t="n">
-        <v>-113886.8767545584</v>
+        <v>-237768.1176229363</v>
       </c>
     </row>
     <row r="10">
@@ -2907,16 +2907,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-311519.7404002164</v>
+        <v>-330957.9345290757</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>262532.8095623697</v>
+        <v>99624.30576643051</v>
       </c>
       <c r="E10" t="n">
-        <v>-48986.93083784665</v>
+        <v>-231333.6287626452</v>
       </c>
     </row>
     <row r="11">
@@ -2924,16 +2924,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>-246619.7944835046</v>
+        <v>-244092.3349151451</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>185270.969185332</v>
+        <v>19193.19501279101</v>
       </c>
       <c r="E11" t="n">
-        <v>-61348.82529817268</v>
+        <v>-224899.139902354</v>
       </c>
     </row>
     <row r="12">
@@ -2941,16 +2941,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>-181719.8485667929</v>
+        <v>-157226.7353012144</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>108009.1288082942</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E12" t="n">
-        <v>-73710.71975849873</v>
+        <v>-218464.6510420629</v>
       </c>
     </row>
     <row r="13">
@@ -2958,16 +2958,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>-116819.9026500812</v>
+        <v>-70361.13568728374</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>30747.28843125639</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E13" t="n">
-        <v>-86072.61421882479</v>
+        <v>-131599.0514281322</v>
       </c>
     </row>
     <row r="14">
@@ -2975,16 +2975,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>-51919.95673336944</v>
+        <v>16504.46392664694</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E14" t="n">
-        <v>-98434.50867915084</v>
+        <v>-44733.45181420155</v>
       </c>
     </row>
     <row r="15">
@@ -2992,16 +2992,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>12979.9891833423</v>
+        <v>103370.0635405776</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E15" t="n">
-        <v>-33534.56276243909</v>
+        <v>42132.14779972911</v>
       </c>
     </row>
     <row r="16">
@@ -3009,16 +3009,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>77879.93510005403</v>
+        <v>190235.6631545083</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E16" t="n">
-        <v>31365.38315427264</v>
+        <v>128997.7474136598</v>
       </c>
     </row>
     <row r="17">
@@ -3026,16 +3026,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>142779.8810167658</v>
+        <v>277101.2627684389</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E17" t="n">
-        <v>96265.32907098439</v>
+        <v>215863.3470275904</v>
       </c>
     </row>
     <row r="18">
@@ -3043,16 +3043,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>207679.8269334775</v>
+        <v>363966.8623823696</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E18" t="n">
-        <v>161165.2749876961</v>
+        <v>302728.9466415211</v>
       </c>
     </row>
     <row r="19">
@@ -3060,16 +3060,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>272579.7728501892</v>
+        <v>450832.4619963002</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E19" t="n">
-        <v>226065.2209044078</v>
+        <v>389594.5462554517</v>
       </c>
     </row>
     <row r="20">
@@ -3077,16 +3077,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>337479.718766901</v>
+        <v>537698.0616102309</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E20" t="n">
-        <v>290965.1668211196</v>
+        <v>476460.1458693824</v>
       </c>
     </row>
     <row r="21">
@@ -3094,16 +3094,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>402379.6646836127</v>
+        <v>624563.6612241615</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E21" t="n">
-        <v>355865.1127378313</v>
+        <v>563325.745483313</v>
       </c>
     </row>
     <row r="22">
@@ -3111,16 +3111,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>467279.6106003244</v>
+        <v>711429.2608380922</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E22" t="n">
-        <v>420765.058654543</v>
+        <v>650191.3450972437</v>
       </c>
     </row>
     <row r="23">
@@ -3128,16 +3128,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>532179.5565170362</v>
+        <v>798294.8604520229</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E23" t="n">
-        <v>485665.0045712548</v>
+        <v>737056.9447111744</v>
       </c>
     </row>
     <row r="24">
@@ -3145,16 +3145,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>597079.5024337479</v>
+        <v>885160.4600659537</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E24" t="n">
-        <v>550564.9504879664</v>
+        <v>823922.5443251051</v>
       </c>
     </row>
     <row r="25">
@@ -3162,16 +3162,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>661979.4483504597</v>
+        <v>972026.0596798842</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E25" t="n">
-        <v>615464.8964046782</v>
+        <v>910788.1439390357</v>
       </c>
     </row>
     <row r="26">
@@ -3179,16 +3179,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>726879.3942671714</v>
+        <v>1058891.659293815</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E26" t="n">
-        <v>680364.8423213901</v>
+        <v>997653.7435529665</v>
       </c>
     </row>
     <row r="27">
@@ -3196,16 +3196,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>791779.3401838831</v>
+        <v>1145757.258907746</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E27" t="n">
-        <v>745264.7882381016</v>
+        <v>1084519.343166897</v>
       </c>
     </row>
     <row r="28">
@@ -3213,16 +3213,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>856679.2861005949</v>
+        <v>1232622.858521676</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E28" t="n">
-        <v>810164.7341548135</v>
+        <v>1171384.942780828</v>
       </c>
     </row>
     <row r="29">
@@ -3230,16 +3230,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>921579.2320173067</v>
+        <v>1319488.458135607</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E29" t="n">
-        <v>875064.6800715253</v>
+        <v>1258250.542394758</v>
       </c>
     </row>
     <row r="30">
@@ -3247,16 +3247,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>986479.1779340184</v>
+        <v>1406354.057749538</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E30" t="n">
-        <v>939964.6259882371</v>
+        <v>1345116.142008689</v>
       </c>
     </row>
     <row r="31">
@@ -3264,16 +3264,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>1051379.12385073</v>
+        <v>1493219.657363468</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E31" t="n">
-        <v>1004864.571904949</v>
+        <v>1431981.74162262</v>
       </c>
     </row>
     <row r="32">
@@ -3281,16 +3281,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>1116279.069767442</v>
+        <v>1580085.256977399</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E32" t="n">
-        <v>1069764.51782166</v>
+        <v>1518847.34123655</v>
       </c>
     </row>
   </sheetData>
@@ -3344,16 +3344,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-830719.3077339103</v>
+        <v>-1025882.731440521</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>262532.8095623698</v>
+        <v>340917.638027349</v>
       </c>
       <c r="E2" t="n">
-        <v>-568186.4981715404</v>
+        <v>-684965.0934131721</v>
       </c>
     </row>
     <row r="3">
@@ -3361,16 +3361,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-765819.3618171986</v>
+        <v>-939017.1318265903</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>262532.8095623698</v>
+        <v>340917.638027349</v>
       </c>
       <c r="E3" t="n">
-        <v>-503286.5522548287</v>
+        <v>-598099.4937992413</v>
       </c>
     </row>
     <row r="4">
@@ -3378,16 +3378,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-700919.4159004869</v>
+        <v>-852151.5322126596</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>262532.8095623697</v>
+        <v>340917.638027349</v>
       </c>
       <c r="E4" t="n">
-        <v>-438386.6063381172</v>
+        <v>-511233.8941853106</v>
       </c>
     </row>
     <row r="5">
@@ -3395,16 +3395,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-636019.4699837752</v>
+        <v>-765285.932598729</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>262532.8095623698</v>
+        <v>340917.638027349</v>
       </c>
       <c r="E5" t="n">
-        <v>-373486.6604214054</v>
+        <v>-424368.29457138</v>
       </c>
     </row>
     <row r="6">
@@ -3412,16 +3412,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>-571119.5240670634</v>
+        <v>-678420.3329847984</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>262532.8095623698</v>
+        <v>340917.638027349</v>
       </c>
       <c r="E6" t="n">
-        <v>-308586.7145046936</v>
+        <v>-337502.6949574493</v>
       </c>
     </row>
     <row r="7">
@@ -3429,16 +3429,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-506219.5781503516</v>
+        <v>-591554.7333708677</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>262532.8095623698</v>
+        <v>340917.638027349</v>
       </c>
       <c r="E7" t="n">
-        <v>-243686.7685879819</v>
+        <v>-250637.0953435187</v>
       </c>
     </row>
     <row r="8">
@@ -3446,16 +3446,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-441319.6322336399</v>
+        <v>-504689.1337569371</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>262532.8095623698</v>
+        <v>260486.5272737095</v>
       </c>
       <c r="E8" t="n">
-        <v>-178786.8226712701</v>
+        <v>-244202.6064832275</v>
       </c>
     </row>
     <row r="9">
@@ -3463,16 +3463,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-376419.6863169281</v>
+        <v>-417823.5341430064</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>262532.8095623697</v>
+        <v>180055.41652007</v>
       </c>
       <c r="E9" t="n">
-        <v>-113886.8767545584</v>
+        <v>-237768.1176229363</v>
       </c>
     </row>
     <row r="10">
@@ -3480,16 +3480,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-311519.7404002164</v>
+        <v>-330957.9345290757</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>262532.8095623697</v>
+        <v>99624.30576643051</v>
       </c>
       <c r="E10" t="n">
-        <v>-48986.93083784665</v>
+        <v>-231333.6287626452</v>
       </c>
     </row>
     <row r="11">
@@ -3497,16 +3497,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>-246619.7944835046</v>
+        <v>-244092.3349151451</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>185270.969185332</v>
+        <v>19193.19501279101</v>
       </c>
       <c r="E11" t="n">
-        <v>-61348.82529817268</v>
+        <v>-224899.139902354</v>
       </c>
     </row>
     <row r="12">
@@ -3514,16 +3514,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>-181719.8485667929</v>
+        <v>-157226.7353012144</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>108009.1288082942</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E12" t="n">
-        <v>-73710.71975849873</v>
+        <v>-218464.6510420629</v>
       </c>
     </row>
     <row r="13">
@@ -3531,16 +3531,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>-116819.9026500812</v>
+        <v>-70361.13568728374</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>30747.28843125639</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E13" t="n">
-        <v>-86072.61421882479</v>
+        <v>-131599.0514281322</v>
       </c>
     </row>
     <row r="14">
@@ -3548,16 +3548,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>-51919.95673336944</v>
+        <v>16504.46392664694</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E14" t="n">
-        <v>-98434.50867915084</v>
+        <v>-44733.45181420155</v>
       </c>
     </row>
     <row r="15">
@@ -3565,16 +3565,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>12979.9891833423</v>
+        <v>103370.0635405776</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E15" t="n">
-        <v>-33534.56276243909</v>
+        <v>42132.14779972911</v>
       </c>
     </row>
     <row r="16">
@@ -3582,16 +3582,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>77879.93510005403</v>
+        <v>190235.6631545083</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E16" t="n">
-        <v>31365.38315427264</v>
+        <v>128997.7474136598</v>
       </c>
     </row>
     <row r="17">
@@ -3599,16 +3599,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>142779.8810167658</v>
+        <v>277101.2627684389</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E17" t="n">
-        <v>96265.32907098439</v>
+        <v>215863.3470275904</v>
       </c>
     </row>
     <row r="18">
@@ -3616,16 +3616,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>207679.8269334775</v>
+        <v>363966.8623823696</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E18" t="n">
-        <v>161165.2749876961</v>
+        <v>302728.9466415211</v>
       </c>
     </row>
     <row r="19">
@@ -3633,16 +3633,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>272579.7728501892</v>
+        <v>450832.4619963002</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E19" t="n">
-        <v>226065.2209044078</v>
+        <v>389594.5462554517</v>
       </c>
     </row>
     <row r="20">
@@ -3650,16 +3650,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>337479.718766901</v>
+        <v>537698.0616102309</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E20" t="n">
-        <v>290965.1668211196</v>
+        <v>476460.1458693824</v>
       </c>
     </row>
     <row r="21">
@@ -3667,16 +3667,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>402379.6646836127</v>
+        <v>624563.6612241615</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E21" t="n">
-        <v>355865.1127378313</v>
+        <v>563325.745483313</v>
       </c>
     </row>
     <row r="22">
@@ -3684,16 +3684,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>467279.6106003244</v>
+        <v>711429.2608380922</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E22" t="n">
-        <v>420765.058654543</v>
+        <v>650191.3450972437</v>
       </c>
     </row>
     <row r="23">
@@ -3701,16 +3701,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>532179.5565170362</v>
+        <v>798294.8604520229</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E23" t="n">
-        <v>485665.0045712548</v>
+        <v>737056.9447111744</v>
       </c>
     </row>
     <row r="24">
@@ -3718,16 +3718,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>597079.5024337479</v>
+        <v>885160.4600659537</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E24" t="n">
-        <v>550564.9504879664</v>
+        <v>823922.5443251051</v>
       </c>
     </row>
     <row r="25">
@@ -3735,16 +3735,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>661979.4483504597</v>
+        <v>972026.0596798842</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E25" t="n">
-        <v>615464.8964046782</v>
+        <v>910788.1439390357</v>
       </c>
     </row>
     <row r="26">
@@ -3752,16 +3752,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>726879.3942671714</v>
+        <v>1058891.659293815</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E26" t="n">
-        <v>680364.8423213901</v>
+        <v>997653.7435529665</v>
       </c>
     </row>
     <row r="27">
@@ -3769,16 +3769,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>791779.3401838831</v>
+        <v>1145757.258907746</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E27" t="n">
-        <v>745264.7882381016</v>
+        <v>1084519.343166897</v>
       </c>
     </row>
     <row r="28">
@@ -3786,16 +3786,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>856679.2861005949</v>
+        <v>1232622.858521676</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E28" t="n">
-        <v>810164.7341548135</v>
+        <v>1171384.942780828</v>
       </c>
     </row>
     <row r="29">
@@ -3803,16 +3803,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>921579.2320173067</v>
+        <v>1319488.458135607</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E29" t="n">
-        <v>875064.6800715253</v>
+        <v>1258250.542394758</v>
       </c>
     </row>
     <row r="30">
@@ -3820,16 +3820,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>986479.1779340184</v>
+        <v>1406354.057749538</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E30" t="n">
-        <v>939964.6259882371</v>
+        <v>1345116.142008689</v>
       </c>
     </row>
     <row r="31">
@@ -3837,16 +3837,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>1051379.12385073</v>
+        <v>1493219.657363468</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E31" t="n">
-        <v>1004864.571904949</v>
+        <v>1431981.74162262</v>
       </c>
     </row>
     <row r="32">
@@ -3854,16 +3854,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>1116279.069767442</v>
+        <v>1580085.256977399</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E32" t="n">
-        <v>1069764.51782166</v>
+        <v>1518847.34123655</v>
       </c>
     </row>
   </sheetData>
@@ -3917,16 +3917,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-830719.3077339103</v>
+        <v>-1025882.731440521</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>262532.8095623698</v>
+        <v>340917.638027349</v>
       </c>
       <c r="E2" t="n">
-        <v>-568186.4981715404</v>
+        <v>-684965.0934131721</v>
       </c>
     </row>
     <row r="3">
@@ -3934,16 +3934,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-765819.3618171986</v>
+        <v>-939017.1318265903</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>262532.8095623698</v>
+        <v>340917.638027349</v>
       </c>
       <c r="E3" t="n">
-        <v>-503286.5522548287</v>
+        <v>-598099.4937992413</v>
       </c>
     </row>
     <row r="4">
@@ -3951,16 +3951,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-700919.4159004869</v>
+        <v>-852151.5322126596</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>262532.8095623697</v>
+        <v>340917.638027349</v>
       </c>
       <c r="E4" t="n">
-        <v>-438386.6063381172</v>
+        <v>-511233.8941853106</v>
       </c>
     </row>
     <row r="5">
@@ -3968,16 +3968,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-636019.4699837752</v>
+        <v>-765285.932598729</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>262532.8095623698</v>
+        <v>340917.638027349</v>
       </c>
       <c r="E5" t="n">
-        <v>-373486.6604214054</v>
+        <v>-424368.29457138</v>
       </c>
     </row>
     <row r="6">
@@ -3985,16 +3985,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>-571119.5240670634</v>
+        <v>-678420.3329847984</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>262532.8095623698</v>
+        <v>340917.638027349</v>
       </c>
       <c r="E6" t="n">
-        <v>-308586.7145046936</v>
+        <v>-337502.6949574493</v>
       </c>
     </row>
     <row r="7">
@@ -4002,16 +4002,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-506219.5781503516</v>
+        <v>-591554.7333708677</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>262532.8095623698</v>
+        <v>340917.638027349</v>
       </c>
       <c r="E7" t="n">
-        <v>-243686.7685879819</v>
+        <v>-250637.0953435187</v>
       </c>
     </row>
     <row r="8">
@@ -4019,16 +4019,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-441319.6322336399</v>
+        <v>-504689.1337569371</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>262532.8095623698</v>
+        <v>260486.5272737095</v>
       </c>
       <c r="E8" t="n">
-        <v>-178786.8226712701</v>
+        <v>-244202.6064832275</v>
       </c>
     </row>
     <row r="9">
@@ -4036,16 +4036,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-376419.6863169281</v>
+        <v>-417823.5341430064</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>262532.8095623697</v>
+        <v>180055.41652007</v>
       </c>
       <c r="E9" t="n">
-        <v>-113886.8767545584</v>
+        <v>-237768.1176229363</v>
       </c>
     </row>
     <row r="10">
@@ -4053,16 +4053,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-311519.7404002164</v>
+        <v>-330957.9345290757</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>262532.8095623697</v>
+        <v>99624.30576643051</v>
       </c>
       <c r="E10" t="n">
-        <v>-48986.93083784665</v>
+        <v>-231333.6287626452</v>
       </c>
     </row>
     <row r="11">
@@ -4070,16 +4070,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>-246619.7944835046</v>
+        <v>-244092.3349151451</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>185270.969185332</v>
+        <v>19193.19501279101</v>
       </c>
       <c r="E11" t="n">
-        <v>-61348.82529817268</v>
+        <v>-224899.139902354</v>
       </c>
     </row>
     <row r="12">
@@ -4087,16 +4087,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>-181719.8485667929</v>
+        <v>-157226.7353012144</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>108009.1288082942</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E12" t="n">
-        <v>-73710.71975849873</v>
+        <v>-218464.6510420629</v>
       </c>
     </row>
     <row r="13">
@@ -4104,16 +4104,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>-116819.9026500812</v>
+        <v>-70361.13568728374</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>30747.28843125639</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E13" t="n">
-        <v>-86072.61421882479</v>
+        <v>-131599.0514281322</v>
       </c>
     </row>
     <row r="14">
@@ -4121,16 +4121,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>-51919.95673336944</v>
+        <v>16504.46392664694</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E14" t="n">
-        <v>-98434.50867915084</v>
+        <v>-44733.45181420155</v>
       </c>
     </row>
     <row r="15">
@@ -4138,16 +4138,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>12979.9891833423</v>
+        <v>103370.0635405776</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E15" t="n">
-        <v>-33534.56276243909</v>
+        <v>42132.14779972911</v>
       </c>
     </row>
     <row r="16">
@@ -4155,16 +4155,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>77879.93510005403</v>
+        <v>190235.6631545083</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E16" t="n">
-        <v>31365.38315427264</v>
+        <v>128997.7474136598</v>
       </c>
     </row>
     <row r="17">
@@ -4172,16 +4172,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>142779.8810167658</v>
+        <v>277101.2627684389</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E17" t="n">
-        <v>96265.32907098439</v>
+        <v>215863.3470275904</v>
       </c>
     </row>
     <row r="18">
@@ -4189,16 +4189,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>207679.8269334775</v>
+        <v>363966.8623823696</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E18" t="n">
-        <v>161165.2749876961</v>
+        <v>302728.9466415211</v>
       </c>
     </row>
     <row r="19">
@@ -4206,16 +4206,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>272579.7728501892</v>
+        <v>450832.4619963002</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E19" t="n">
-        <v>226065.2209044078</v>
+        <v>389594.5462554517</v>
       </c>
     </row>
     <row r="20">
@@ -4223,16 +4223,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>337479.718766901</v>
+        <v>537698.0616102309</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E20" t="n">
-        <v>290965.1668211196</v>
+        <v>476460.1458693824</v>
       </c>
     </row>
     <row r="21">
@@ -4240,16 +4240,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>402379.6646836127</v>
+        <v>624563.6612241615</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E21" t="n">
-        <v>355865.1127378313</v>
+        <v>563325.745483313</v>
       </c>
     </row>
     <row r="22">
@@ -4257,16 +4257,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>467279.6106003244</v>
+        <v>711429.2608380922</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E22" t="n">
-        <v>420765.058654543</v>
+        <v>650191.3450972437</v>
       </c>
     </row>
     <row r="23">
@@ -4274,16 +4274,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>532179.5565170362</v>
+        <v>798294.8604520229</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E23" t="n">
-        <v>485665.0045712548</v>
+        <v>737056.9447111744</v>
       </c>
     </row>
     <row r="24">
@@ -4291,16 +4291,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>597079.5024337479</v>
+        <v>885160.4600659537</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E24" t="n">
-        <v>550564.9504879664</v>
+        <v>823922.5443251051</v>
       </c>
     </row>
     <row r="25">
@@ -4308,16 +4308,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>661979.4483504597</v>
+        <v>972026.0596798842</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E25" t="n">
-        <v>615464.8964046782</v>
+        <v>910788.1439390357</v>
       </c>
     </row>
     <row r="26">
@@ -4325,16 +4325,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>726879.3942671714</v>
+        <v>1058891.659293815</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E26" t="n">
-        <v>680364.8423213901</v>
+        <v>997653.7435529665</v>
       </c>
     </row>
     <row r="27">
@@ -4342,16 +4342,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>791779.3401838831</v>
+        <v>1145757.258907746</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E27" t="n">
-        <v>745264.7882381016</v>
+        <v>1084519.343166897</v>
       </c>
     </row>
     <row r="28">
@@ -4359,16 +4359,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>856679.2861005949</v>
+        <v>1232622.858521676</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E28" t="n">
-        <v>810164.7341548135</v>
+        <v>1171384.942780828</v>
       </c>
     </row>
     <row r="29">
@@ -4376,16 +4376,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>921579.2320173067</v>
+        <v>1319488.458135607</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E29" t="n">
-        <v>875064.6800715253</v>
+        <v>1258250.542394758</v>
       </c>
     </row>
     <row r="30">
@@ -4393,16 +4393,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>986479.1779340184</v>
+        <v>1406354.057749538</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E30" t="n">
-        <v>939964.6259882371</v>
+        <v>1345116.142008689</v>
       </c>
     </row>
     <row r="31">
@@ -4410,16 +4410,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>1051379.12385073</v>
+        <v>1493219.657363468</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E31" t="n">
-        <v>1004864.571904949</v>
+        <v>1431981.74162262</v>
       </c>
     </row>
     <row r="32">
@@ -4427,16 +4427,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>1116279.069767442</v>
+        <v>1580085.256977399</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E32" t="n">
-        <v>1069764.51782166</v>
+        <v>1518847.34123655</v>
       </c>
     </row>
   </sheetData>
@@ -4490,16 +4490,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-830719.3077339103</v>
+        <v>-1025882.731440521</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>262532.8095623698</v>
+        <v>340917.638027349</v>
       </c>
       <c r="E2" t="n">
-        <v>-568186.4981715404</v>
+        <v>-684965.0934131721</v>
       </c>
     </row>
     <row r="3">
@@ -4507,16 +4507,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-765819.3618171986</v>
+        <v>-939017.1318265903</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>262532.8095623698</v>
+        <v>340917.638027349</v>
       </c>
       <c r="E3" t="n">
-        <v>-503286.5522548287</v>
+        <v>-598099.4937992413</v>
       </c>
     </row>
     <row r="4">
@@ -4524,16 +4524,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-700919.4159004869</v>
+        <v>-852151.5322126596</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>262532.8095623697</v>
+        <v>340917.638027349</v>
       </c>
       <c r="E4" t="n">
-        <v>-438386.6063381172</v>
+        <v>-511233.8941853106</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-636019.4699837752</v>
+        <v>-765285.932598729</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>262532.8095623698</v>
+        <v>340917.638027349</v>
       </c>
       <c r="E5" t="n">
-        <v>-373486.6604214054</v>
+        <v>-424368.29457138</v>
       </c>
     </row>
     <row r="6">
@@ -4558,16 +4558,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>-571119.5240670634</v>
+        <v>-678420.3329847984</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>262532.8095623698</v>
+        <v>340917.638027349</v>
       </c>
       <c r="E6" t="n">
-        <v>-308586.7145046936</v>
+        <v>-337502.6949574493</v>
       </c>
     </row>
     <row r="7">
@@ -4575,16 +4575,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-506219.5781503516</v>
+        <v>-591554.7333708677</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>262532.8095623698</v>
+        <v>340917.638027349</v>
       </c>
       <c r="E7" t="n">
-        <v>-243686.7685879819</v>
+        <v>-250637.0953435187</v>
       </c>
     </row>
     <row r="8">
@@ -4592,16 +4592,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-441319.6322336399</v>
+        <v>-504689.1337569371</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>262532.8095623698</v>
+        <v>260486.5272737095</v>
       </c>
       <c r="E8" t="n">
-        <v>-178786.8226712701</v>
+        <v>-244202.6064832275</v>
       </c>
     </row>
     <row r="9">
@@ -4609,16 +4609,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-376419.6863169281</v>
+        <v>-417823.5341430064</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>262532.8095623697</v>
+        <v>180055.41652007</v>
       </c>
       <c r="E9" t="n">
-        <v>-113886.8767545584</v>
+        <v>-237768.1176229363</v>
       </c>
     </row>
     <row r="10">
@@ -4626,16 +4626,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-311519.7404002164</v>
+        <v>-330957.9345290757</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>262532.8095623697</v>
+        <v>99624.30576643051</v>
       </c>
       <c r="E10" t="n">
-        <v>-48986.93083784665</v>
+        <v>-231333.6287626452</v>
       </c>
     </row>
     <row r="11">
@@ -4643,16 +4643,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>-246619.7944835046</v>
+        <v>-244092.3349151451</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>185270.969185332</v>
+        <v>19193.19501279101</v>
       </c>
       <c r="E11" t="n">
-        <v>-61348.82529817268</v>
+        <v>-224899.139902354</v>
       </c>
     </row>
     <row r="12">
@@ -4660,16 +4660,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>-181719.8485667929</v>
+        <v>-157226.7353012144</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>108009.1288082942</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E12" t="n">
-        <v>-73710.71975849873</v>
+        <v>-218464.6510420629</v>
       </c>
     </row>
     <row r="13">
@@ -4677,16 +4677,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>-116819.9026500812</v>
+        <v>-70361.13568728374</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>30747.28843125639</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E13" t="n">
-        <v>-86072.61421882479</v>
+        <v>-131599.0514281322</v>
       </c>
     </row>
     <row r="14">
@@ -4694,16 +4694,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>-51919.95673336944</v>
+        <v>16504.46392664694</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E14" t="n">
-        <v>-98434.50867915084</v>
+        <v>-44733.45181420155</v>
       </c>
     </row>
     <row r="15">
@@ -4711,16 +4711,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>12979.9891833423</v>
+        <v>103370.0635405776</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E15" t="n">
-        <v>-33534.56276243909</v>
+        <v>42132.14779972911</v>
       </c>
     </row>
     <row r="16">
@@ -4728,16 +4728,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>77879.93510005403</v>
+        <v>190235.6631545083</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E16" t="n">
-        <v>31365.38315427264</v>
+        <v>128997.7474136598</v>
       </c>
     </row>
     <row r="17">
@@ -4745,16 +4745,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>142779.8810167658</v>
+        <v>277101.2627684389</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E17" t="n">
-        <v>96265.32907098439</v>
+        <v>215863.3470275904</v>
       </c>
     </row>
     <row r="18">
@@ -4762,16 +4762,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>207679.8269334775</v>
+        <v>363966.8623823696</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E18" t="n">
-        <v>161165.2749876961</v>
+        <v>302728.9466415211</v>
       </c>
     </row>
     <row r="19">
@@ -4779,16 +4779,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>272579.7728501892</v>
+        <v>450832.4619963002</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E19" t="n">
-        <v>226065.2209044078</v>
+        <v>389594.5462554517</v>
       </c>
     </row>
     <row r="20">
@@ -4796,16 +4796,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>337479.718766901</v>
+        <v>537698.0616102309</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E20" t="n">
-        <v>290965.1668211196</v>
+        <v>476460.1458693824</v>
       </c>
     </row>
     <row r="21">
@@ -4813,16 +4813,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>402379.6646836127</v>
+        <v>624563.6612241615</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E21" t="n">
-        <v>355865.1127378313</v>
+        <v>563325.745483313</v>
       </c>
     </row>
     <row r="22">
@@ -4830,16 +4830,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>467279.6106003244</v>
+        <v>711429.2608380922</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E22" t="n">
-        <v>420765.058654543</v>
+        <v>650191.3450972437</v>
       </c>
     </row>
     <row r="23">
@@ -4847,16 +4847,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>532179.5565170362</v>
+        <v>798294.8604520229</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E23" t="n">
-        <v>485665.0045712548</v>
+        <v>737056.9447111744</v>
       </c>
     </row>
     <row r="24">
@@ -4864,16 +4864,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>597079.5024337479</v>
+        <v>885160.4600659537</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E24" t="n">
-        <v>550564.9504879664</v>
+        <v>823922.5443251051</v>
       </c>
     </row>
     <row r="25">
@@ -4881,16 +4881,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>661979.4483504597</v>
+        <v>972026.0596798842</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E25" t="n">
-        <v>615464.8964046782</v>
+        <v>910788.1439390357</v>
       </c>
     </row>
     <row r="26">
@@ -4898,16 +4898,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>726879.3942671714</v>
+        <v>1058891.659293815</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E26" t="n">
-        <v>680364.8423213901</v>
+        <v>997653.7435529665</v>
       </c>
     </row>
     <row r="27">
@@ -4915,16 +4915,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>791779.3401838831</v>
+        <v>1145757.258907746</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E27" t="n">
-        <v>745264.7882381016</v>
+        <v>1084519.343166897</v>
       </c>
     </row>
     <row r="28">
@@ -4932,16 +4932,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>856679.2861005949</v>
+        <v>1232622.858521676</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E28" t="n">
-        <v>810164.7341548135</v>
+        <v>1171384.942780828</v>
       </c>
     </row>
     <row r="29">
@@ -4949,16 +4949,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>921579.2320173067</v>
+        <v>1319488.458135607</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E29" t="n">
-        <v>875064.6800715253</v>
+        <v>1258250.542394758</v>
       </c>
     </row>
     <row r="30">
@@ -4966,16 +4966,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>986479.1779340184</v>
+        <v>1406354.057749538</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E30" t="n">
-        <v>939964.6259882371</v>
+        <v>1345116.142008689</v>
       </c>
     </row>
     <row r="31">
@@ -4983,16 +4983,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>1051379.12385073</v>
+        <v>1493219.657363468</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E31" t="n">
-        <v>1004864.571904949</v>
+        <v>1431981.74162262</v>
       </c>
     </row>
     <row r="32">
@@ -5000,16 +5000,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>1116279.069767442</v>
+        <v>1580085.256977399</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-46514.55194578139</v>
+        <v>-61237.91574084849</v>
       </c>
       <c r="E32" t="n">
-        <v>1069764.51782166</v>
+        <v>1518847.34123655</v>
       </c>
     </row>
   </sheetData>

--- a/RGGI PnL Output.xlsx
+++ b/RGGI PnL Output.xlsx
@@ -479,16 +479,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-1025882.731440521</v>
+        <v>-114300</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>337818.8581867374</v>
+        <v>-362229.5502555167</v>
       </c>
       <c r="E2" t="n">
-        <v>-688063.8732537836</v>
+        <v>-476529.5502555167</v>
       </c>
     </row>
     <row r="3">
@@ -496,16 +496,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-939017.1318265903</v>
+        <v>-104300</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>334113.820859102</v>
+        <v>-316386.8147894829</v>
       </c>
       <c r="E3" t="n">
-        <v>-604903.3109674883</v>
+        <v>-420686.8147894829</v>
       </c>
     </row>
     <row r="4">
@@ -513,16 +513,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-852151.5322126596</v>
+        <v>-94300</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>325402.4147817142</v>
+        <v>-273864.5940455671</v>
       </c>
       <c r="E4" t="n">
-        <v>-526749.1174309454</v>
+        <v>-368164.5940455671</v>
       </c>
     </row>
     <row r="5">
@@ -530,16 +530,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-765285.932598729</v>
+        <v>-84300</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>309124.3417766306</v>
+        <v>-235240.249646235</v>
       </c>
       <c r="E5" t="n">
-        <v>-456161.5908220985</v>
+        <v>-319540.249646235</v>
       </c>
     </row>
     <row r="6">
@@ -547,16 +547,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>-678420.3329847984</v>
+        <v>-74300</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>283775.3130786944</v>
+        <v>-200309.2890722251</v>
       </c>
       <c r="E6" t="n">
-        <v>-394645.019906104</v>
+        <v>-274609.2890722251</v>
       </c>
     </row>
     <row r="7">
@@ -564,16 +564,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-591554.7333708677</v>
+        <v>-64300</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>249692.9071364171</v>
+        <v>-168130.5583429246</v>
       </c>
       <c r="E7" t="n">
-        <v>-341861.8262344506</v>
+        <v>-232430.5583429246</v>
       </c>
     </row>
     <row r="8">
@@ -581,16 +581,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-504689.1337569371</v>
+        <v>-54300</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>209057.2053564017</v>
+        <v>-137437.0115647068</v>
       </c>
       <c r="E8" t="n">
-        <v>-295631.9284005354</v>
+        <v>-191737.0115647068</v>
       </c>
     </row>
     <row r="9">
@@ -598,16 +598,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-417823.5341430064</v>
+        <v>-44300</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>165206.9639242061</v>
+        <v>-107226.0456992088</v>
       </c>
       <c r="E9" t="n">
-        <v>-252616.5702188003</v>
+        <v>-151526.0456992087</v>
       </c>
     </row>
     <row r="10">
@@ -615,16 +615,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-330957.9345290757</v>
+        <v>-34300</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>121693.0553759176</v>
+        <v>-77273.22116595269</v>
       </c>
       <c r="E10" t="n">
-        <v>-209264.8791531582</v>
+        <v>-111573.2211659527</v>
       </c>
     </row>
     <row r="11">
@@ -632,16 +632,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>-244092.3349151451</v>
+        <v>-24300</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>81482.46711378793</v>
+        <v>-48376.0073459126</v>
       </c>
       <c r="E11" t="n">
-        <v>-162609.8678013571</v>
+        <v>-72676.0073459126</v>
       </c>
     </row>
     <row r="12">
@@ -649,16 +649,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>-157226.7353012144</v>
+        <v>-14300</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>46527.40230091067</v>
+        <v>-22269.09823005228</v>
       </c>
       <c r="E12" t="n">
-        <v>-110699.3330003037</v>
+        <v>-36569.09823005227</v>
       </c>
     </row>
     <row r="13">
@@ -666,16 +666,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>-70361.13568728374</v>
+        <v>-4299.999999999997</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>17704.19950159836</v>
+        <v>-1281.608217255403</v>
       </c>
       <c r="E13" t="n">
-        <v>-52656.93618568538</v>
+        <v>-5581.608217255401</v>
       </c>
     </row>
     <row r="14">
@@ -683,16 +683,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>16504.46392664694</v>
+        <v>5700.000000000003</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-4996.284614053426</v>
+        <v>12122.69383211937</v>
       </c>
       <c r="E14" t="n">
-        <v>11508.17931259351</v>
+        <v>17822.69383211937</v>
       </c>
     </row>
     <row r="15">
@@ -700,16 +700,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>103370.0635405776</v>
+        <v>15700</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-22172.01938797691</v>
+        <v>15778.33989290365</v>
       </c>
       <c r="E15" t="n">
-        <v>81198.04415260069</v>
+        <v>31478.33989290365</v>
       </c>
     </row>
     <row r="16">
@@ -717,16 +717,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>190235.6631545083</v>
+        <v>25700</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-34718.88572413799</v>
+        <v>8125.315202389582</v>
       </c>
       <c r="E16" t="n">
-        <v>155516.7774303703</v>
+        <v>33825.31520238958</v>
       </c>
     </row>
     <row r="17">
@@ -734,16 +734,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>277101.2627684389</v>
+        <v>35700</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-43605.67827144285</v>
+        <v>-11647.84842292179</v>
       </c>
       <c r="E17" t="n">
-        <v>233495.584496996</v>
+        <v>24052.15157707821</v>
       </c>
     </row>
     <row r="18">
@@ -751,16 +751,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>363966.8623823696</v>
+        <v>45700</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-49731.2463212224</v>
+        <v>-43611.85883748991</v>
       </c>
       <c r="E18" t="n">
-        <v>314235.6160611472</v>
+        <v>2088.141162510088</v>
       </c>
     </row>
     <row r="19">
@@ -768,16 +768,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>450832.4619963002</v>
+        <v>55700</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-53853.49424606087</v>
+        <v>-87212.08521065599</v>
       </c>
       <c r="E19" t="n">
-        <v>396978.9677502393</v>
+        <v>-31512.08521065599</v>
       </c>
     </row>
     <row r="20">
@@ -785,16 +785,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>537698.0616102309</v>
+        <v>65700</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-56569.48821683889</v>
+        <v>-141439.9160921394</v>
       </c>
       <c r="E20" t="n">
-        <v>481128.573393392</v>
+        <v>-75739.91609213944</v>
       </c>
     </row>
     <row r="21">
@@ -802,16 +802,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>624563.6612241615</v>
+        <v>75700</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-58325.80453564587</v>
+        <v>-205015.0966406</v>
       </c>
       <c r="E21" t="n">
-        <v>566237.8566885156</v>
+        <v>-129315.0966406</v>
       </c>
     </row>
     <row r="22">
@@ -819,16 +819,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>711429.2608380922</v>
+        <v>85700</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-59442.92795315228</v>
+        <v>-276548.0564466503</v>
       </c>
       <c r="E22" t="n">
-        <v>651986.3328849399</v>
+        <v>-190848.0564466503</v>
       </c>
     </row>
     <row r="23">
@@ -836,16 +836,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>798294.8604520229</v>
+        <v>95700</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-60143.18866558684</v>
+        <v>-354666.05884465</v>
       </c>
       <c r="E23" t="n">
-        <v>738151.671786436</v>
+        <v>-258966.05884465</v>
       </c>
     </row>
     <row r="24">
@@ -853,16 +853,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>885160.4600659537</v>
+        <v>105700</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-60576.51923595641</v>
+        <v>-438098.9712516114</v>
       </c>
       <c r="E24" t="n">
-        <v>824583.9408299973</v>
+        <v>-332398.9712516114</v>
       </c>
     </row>
     <row r="25">
@@ -870,16 +870,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>972026.0596798842</v>
+        <v>115700</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-60841.6365051256</v>
+        <v>-525728.2701677026</v>
       </c>
       <c r="E25" t="n">
-        <v>911184.4231747587</v>
+        <v>-410028.2701677026</v>
       </c>
     </row>
     <row r="26">
@@ -887,16 +887,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>1058891.659293815</v>
+        <v>125700</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-61002.22034037028</v>
+        <v>-616606.8168749069</v>
       </c>
       <c r="E26" t="n">
-        <v>997889.4389534447</v>
+        <v>-490906.8168749069</v>
       </c>
     </row>
     <row r="27">
@@ -904,16 +904,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>1145757.258907746</v>
+        <v>135700</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-61098.63287811747</v>
+        <v>-709957.9628759634</v>
       </c>
       <c r="E27" t="n">
-        <v>1084658.626029628</v>
+        <v>-574257.9628759634</v>
       </c>
     </row>
     <row r="28">
@@ -921,16 +921,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>1232622.858521676</v>
+        <v>145700</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-61156.07100524566</v>
+        <v>-805161.7933092059</v>
       </c>
       <c r="E28" t="n">
-        <v>1171466.78751643</v>
+        <v>-659461.7933092059</v>
       </c>
     </row>
     <row r="29">
@@ -938,16 +938,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>1319488.458135607</v>
+        <v>155700</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-61190.05859093236</v>
+        <v>-901734.7313579633</v>
       </c>
       <c r="E29" t="n">
-        <v>1258298.399544675</v>
+        <v>-746034.7313579633</v>
       </c>
     </row>
     <row r="30">
@@ -955,16 +955,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>1406354.057749538</v>
+        <v>165700</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-61210.05116072671</v>
+        <v>-999306.9524025458</v>
       </c>
       <c r="E30" t="n">
-        <v>1345144.006588811</v>
+        <v>-833606.9524025458</v>
       </c>
     </row>
     <row r="31">
@@ -972,16 +972,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>1493219.657363468</v>
+        <v>175700</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-61221.75105322598</v>
+        <v>-1097600.460763367</v>
       </c>
       <c r="E31" t="n">
-        <v>1431997.906310242</v>
+        <v>-921900.4607633674</v>
       </c>
     </row>
     <row r="32">
@@ -989,16 +989,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>1580085.256977399</v>
+        <v>185700</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-61228.56757438225</v>
+        <v>-1196409.422466083</v>
       </c>
       <c r="E32" t="n">
-        <v>1518856.689403017</v>
+        <v>-1010709.422466083</v>
       </c>
     </row>
   </sheetData>
@@ -1052,16 +1052,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-1025882.731440521</v>
+        <v>-114300</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>340233.8867747966</v>
+        <v>-362255.8157459879</v>
       </c>
       <c r="E2" t="n">
-        <v>-685648.8446657243</v>
+        <v>-476555.8157459879</v>
       </c>
     </row>
     <row r="3">
@@ -1069,16 +1069,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-939017.1318265903</v>
+        <v>-104300</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>339966.2538623855</v>
+        <v>-314019.5161553635</v>
       </c>
       <c r="E3" t="n">
-        <v>-599050.8779642048</v>
+        <v>-418319.5161553635</v>
       </c>
     </row>
     <row r="4">
@@ -1086,16 +1086,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-852151.5322126596</v>
+        <v>-94300</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>338178.4296195019</v>
+        <v>-268375.3641774958</v>
       </c>
       <c r="E4" t="n">
-        <v>-513973.1025931577</v>
+        <v>-362675.3641774958</v>
       </c>
     </row>
     <row r="5">
@@ -1103,16 +1103,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-765285.932598729</v>
+        <v>-84300</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>331191.9111831858</v>
+        <v>-226905.086325486</v>
       </c>
       <c r="E5" t="n">
-        <v>-434094.0214155433</v>
+        <v>-311205.086325486</v>
       </c>
     </row>
     <row r="6">
@@ -1120,16 +1120,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>-678420.3329847984</v>
+        <v>-74300</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>313183.8741813278</v>
+        <v>-190667.8280504309</v>
       </c>
       <c r="E6" t="n">
-        <v>-365236.4588034706</v>
+        <v>-264967.8280504309</v>
       </c>
     </row>
     <row r="7">
@@ -1137,16 +1137,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-591554.7333708677</v>
+        <v>-64300</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>279533.0266228882</v>
+        <v>-159486.7282174463</v>
       </c>
       <c r="E7" t="n">
-        <v>-312021.7067479794</v>
+        <v>-223786.7282174463</v>
       </c>
     </row>
     <row r="8">
@@ -1154,16 +1154,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-504689.1337569371</v>
+        <v>-54300</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>230457.5151920661</v>
+        <v>-131771.0583102793</v>
       </c>
       <c r="E8" t="n">
-        <v>-274231.618564871</v>
+        <v>-186071.0583102793</v>
       </c>
     </row>
     <row r="9">
@@ -1171,16 +1171,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-417823.5341430064</v>
+        <v>-44300</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>171469.7645637202</v>
+        <v>-105082.0391262707</v>
       </c>
       <c r="E9" t="n">
-        <v>-246353.7695792862</v>
+        <v>-149382.0391262707</v>
       </c>
     </row>
     <row r="10">
@@ -1188,16 +1188,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-330957.9345290757</v>
+        <v>-34300</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>110839.5598289886</v>
+        <v>-77207.46105637682</v>
       </c>
       <c r="E10" t="n">
-        <v>-220118.3747000872</v>
+        <v>-111507.4610563768</v>
       </c>
     </row>
     <row r="11">
@@ -1205,16 +1205,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>-244092.3349151451</v>
+        <v>-24300</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>56332.50891680951</v>
+        <v>-47235.63357143544</v>
       </c>
       <c r="E11" t="n">
-        <v>-187759.8259983356</v>
+        <v>-71535.63357143544</v>
       </c>
     </row>
     <row r="12">
@@ -1222,16 +1222,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>-157226.7353012144</v>
+        <v>-14300</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>12893.63287926742</v>
+        <v>-16148.7266899066</v>
       </c>
       <c r="E12" t="n">
-        <v>-144333.102421947</v>
+        <v>-30448.7266899066</v>
       </c>
     </row>
     <row r="13">
@@ -1239,16 +1239,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>-70361.13568728374</v>
+        <v>-4299.999999999997</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-18072.45204422124</v>
+        <v>13279.6784891942</v>
       </c>
       <c r="E13" t="n">
-        <v>-88433.58773150497</v>
+        <v>8979.678489194204</v>
       </c>
     </row>
     <row r="14">
@@ -1256,16 +1256,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>16504.46392664694</v>
+        <v>5700.000000000003</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-37970.36615482749</v>
+        <v>37175.78860599251</v>
       </c>
       <c r="E14" t="n">
-        <v>-21465.90222818055</v>
+        <v>42875.78860599251</v>
       </c>
     </row>
     <row r="15">
@@ -1273,16 +1273,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>103370.0635405776</v>
+        <v>15700</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-49583.49484155778</v>
+        <v>51524.68683535456</v>
       </c>
       <c r="E15" t="n">
-        <v>53786.56869901982</v>
+        <v>67224.68683535456</v>
       </c>
     </row>
     <row r="16">
@@ -1290,16 +1290,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>190235.6631545083</v>
+        <v>25700</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-55787.94184645047</v>
+        <v>53043.20584564193</v>
       </c>
       <c r="E16" t="n">
-        <v>134447.7213080578</v>
+        <v>78743.20584564193</v>
       </c>
     </row>
     <row r="17">
@@ -1307,16 +1307,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>277101.2627684389</v>
+        <v>35700</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-58846.20301431746</v>
+        <v>39726.4466025084</v>
       </c>
       <c r="E17" t="n">
-        <v>218255.0597541214</v>
+        <v>75426.4466025084</v>
       </c>
     </row>
     <row r="18">
@@ -1324,16 +1324,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>363966.8623823696</v>
+        <v>45700</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-60247.65880251475</v>
+        <v>10997.86332893622</v>
       </c>
       <c r="E18" t="n">
-        <v>303719.2035798548</v>
+        <v>56697.86332893622</v>
       </c>
     </row>
     <row r="19">
@@ -1341,16 +1341,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>450832.4619963002</v>
+        <v>55700</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-60849.0576080773</v>
+        <v>-32466.58737510949</v>
       </c>
       <c r="E19" t="n">
-        <v>389983.4043882229</v>
+        <v>23233.41262489051</v>
       </c>
     </row>
     <row r="20">
@@ -1358,16 +1358,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>537698.0616102309</v>
+        <v>65700</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-61092.3621754741</v>
+        <v>-89100.71011467336</v>
       </c>
       <c r="E20" t="n">
-        <v>476605.6994347568</v>
+        <v>-23400.71011467336</v>
       </c>
     </row>
     <row r="21">
@@ -1375,16 +1375,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>624563.6612241615</v>
+        <v>75700</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-61185.73683227707</v>
+        <v>-156856.7828819193</v>
       </c>
       <c r="E21" t="n">
-        <v>563377.9243918845</v>
+        <v>-81156.78288191929</v>
       </c>
     </row>
     <row r="22">
@@ -1392,16 +1392,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>711429.2608380922</v>
+        <v>85700</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-61219.92243662559</v>
+        <v>-233561.2209575579</v>
       </c>
       <c r="E22" t="n">
-        <v>650209.3384014666</v>
+        <v>-147861.2209575579</v>
       </c>
     </row>
     <row r="23">
@@ -1409,16 +1409,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>798294.8604520229</v>
+        <v>95700</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-61231.92307078643</v>
+        <v>-317168.8684069329</v>
       </c>
       <c r="E23" t="n">
-        <v>737062.9373812365</v>
+        <v>-221468.8684069329</v>
       </c>
     </row>
     <row r="24">
@@ -1426,16 +1426,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>885160.4600659537</v>
+        <v>105700</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-61235.98100266679</v>
+        <v>-405909.4375050354</v>
       </c>
       <c r="E24" t="n">
-        <v>823924.4790632869</v>
+        <v>-300209.4375050354</v>
       </c>
     </row>
     <row r="25">
@@ -1443,16 +1443,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>972026.0596798842</v>
+        <v>115700</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-61237.30820547065</v>
+        <v>-498344.576494629</v>
       </c>
       <c r="E25" t="n">
-        <v>910788.7514744136</v>
+        <v>-382644.576494629</v>
       </c>
     </row>
     <row r="26">
@@ -1460,16 +1460,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>1058891.659293815</v>
+        <v>125700</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-61237.7296224501</v>
+        <v>-593363.3967805482</v>
       </c>
       <c r="E26" t="n">
-        <v>997653.929671365</v>
+        <v>-467663.3967805482</v>
       </c>
     </row>
     <row r="27">
@@ -1477,16 +1477,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>1145757.258907746</v>
+        <v>135700</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-61237.85996164282</v>
+        <v>-690143.1947411706</v>
       </c>
       <c r="E27" t="n">
-        <v>1084519.398946103</v>
+        <v>-554443.1947411706</v>
       </c>
     </row>
     <row r="28">
@@ -1494,16 +1494,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>1232622.858521676</v>
+        <v>145700</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-61237.89934611997</v>
+        <v>-788095.9747245209</v>
       </c>
       <c r="E28" t="n">
-        <v>1171384.959175556</v>
+        <v>-642395.9747245209</v>
       </c>
     </row>
     <row r="29">
@@ -1511,16 +1511,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>1319488.458135607</v>
+        <v>155700</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-61237.91100426073</v>
+        <v>-886814.1500045825</v>
       </c>
       <c r="E29" t="n">
-        <v>1258250.547131346</v>
+        <v>-731114.1500045825</v>
       </c>
     </row>
     <row r="30">
@@ -1528,16 +1528,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>1406354.057749538</v>
+        <v>165700</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-61237.91439299194</v>
+        <v>-986022.6095691831</v>
       </c>
       <c r="E30" t="n">
-        <v>1345116.143356546</v>
+        <v>-820322.6095691831</v>
       </c>
     </row>
     <row r="31">
@@ -1545,16 +1545,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>1493219.657363468</v>
+        <v>175700</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-61237.91536236976</v>
+        <v>-1085539.945421518</v>
       </c>
       <c r="E31" t="n">
-        <v>1431981.742001099</v>
+        <v>-909839.9454215176</v>
       </c>
     </row>
     <row r="32">
@@ -1562,16 +1562,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>1580085.256977399</v>
+        <v>185700</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-61237.91563580096</v>
+        <v>-1185248.977442214</v>
       </c>
       <c r="E32" t="n">
-        <v>1518847.341341598</v>
+        <v>-999548.9774422136</v>
       </c>
     </row>
   </sheetData>
@@ -1625,16 +1625,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-1025882.731440521</v>
+        <v>-114300</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>340917.638027349</v>
+        <v>-365986.0925968389</v>
       </c>
       <c r="E2" t="n">
-        <v>-684965.0934131721</v>
+        <v>-480286.0925968389</v>
       </c>
     </row>
     <row r="3">
@@ -1642,16 +1642,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-939017.1318265903</v>
+        <v>-104300</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>340917.638027349</v>
+        <v>-315986.0925968389</v>
       </c>
       <c r="E3" t="n">
-        <v>-598099.4937992413</v>
+        <v>-420286.0925968389</v>
       </c>
     </row>
     <row r="4">
@@ -1659,16 +1659,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-852151.5322126596</v>
+        <v>-94300</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>340917.638027349</v>
+        <v>-265986.0925968389</v>
       </c>
       <c r="E4" t="n">
-        <v>-511233.8941853106</v>
+        <v>-360286.0925968389</v>
       </c>
     </row>
     <row r="5">
@@ -1676,16 +1676,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-765285.932598729</v>
+        <v>-84300</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>340917.638027349</v>
+        <v>-215986.0925968389</v>
       </c>
       <c r="E5" t="n">
-        <v>-424368.29457138</v>
+        <v>-300286.0925968389</v>
       </c>
     </row>
     <row r="6">
@@ -1693,16 +1693,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>-678420.3329847984</v>
+        <v>-74300</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>340917.638027349</v>
+        <v>-165986.0925968389</v>
       </c>
       <c r="E6" t="n">
-        <v>-337502.6949574493</v>
+        <v>-240286.0925968389</v>
       </c>
     </row>
     <row r="7">
@@ -1710,16 +1710,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-591554.7333708677</v>
+        <v>-64300</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>340917.638027349</v>
+        <v>-115986.0925968389</v>
       </c>
       <c r="E7" t="n">
-        <v>-250637.0953435187</v>
+        <v>-180286.0925968389</v>
       </c>
     </row>
     <row r="8">
@@ -1727,16 +1727,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-504689.1337569371</v>
+        <v>-54300</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>260486.5272737095</v>
+        <v>-65986.09259683892</v>
       </c>
       <c r="E8" t="n">
-        <v>-244202.6064832275</v>
+        <v>-120286.0925968389</v>
       </c>
     </row>
     <row r="9">
@@ -1744,16 +1744,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-417823.5341430064</v>
+        <v>-44300</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>180055.41652007</v>
+        <v>-15986.09259683892</v>
       </c>
       <c r="E9" t="n">
-        <v>-237768.1176229363</v>
+        <v>-60286.09259683892</v>
       </c>
     </row>
     <row r="10">
@@ -1761,16 +1761,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-330957.9345290757</v>
+        <v>-34300</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>99624.30576643051</v>
+        <v>-65986.09259683892</v>
       </c>
       <c r="E10" t="n">
-        <v>-231333.6287626452</v>
+        <v>-100286.0925968389</v>
       </c>
     </row>
     <row r="11">
@@ -1778,16 +1778,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>-244092.3349151451</v>
+        <v>-24300</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>19193.19501279101</v>
+        <v>-115986.0925968389</v>
       </c>
       <c r="E11" t="n">
-        <v>-224899.139902354</v>
+        <v>-140286.0925968389</v>
       </c>
     </row>
     <row r="12">
@@ -1795,16 +1795,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>-157226.7353012144</v>
+        <v>-14300</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-61237.91574084849</v>
+        <v>-165986.0925968389</v>
       </c>
       <c r="E12" t="n">
-        <v>-218464.6510420629</v>
+        <v>-180286.0925968389</v>
       </c>
     </row>
     <row r="13">
@@ -1812,16 +1812,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>-70361.13568728374</v>
+        <v>-4299.999999999997</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-61237.91574084849</v>
+        <v>-65986.09259683892</v>
       </c>
       <c r="E13" t="n">
-        <v>-131599.0514281322</v>
+        <v>-70286.09259683892</v>
       </c>
     </row>
     <row r="14">
@@ -1829,16 +1829,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>16504.46392664694</v>
+        <v>5700.000000000003</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-61237.91574084849</v>
+        <v>34013.90740316109</v>
       </c>
       <c r="E14" t="n">
-        <v>-44733.45181420155</v>
+        <v>39713.90740316109</v>
       </c>
     </row>
     <row r="15">
@@ -1846,16 +1846,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>103370.0635405776</v>
+        <v>15700</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-61237.91574084849</v>
+        <v>134013.9074031611</v>
       </c>
       <c r="E15" t="n">
-        <v>42132.14779972911</v>
+        <v>149713.9074031611</v>
       </c>
     </row>
     <row r="16">
@@ -1863,16 +1863,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>190235.6631545083</v>
+        <v>25700</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-61237.91574084849</v>
+        <v>234013.9074031611</v>
       </c>
       <c r="E16" t="n">
-        <v>128997.7474136598</v>
+        <v>259713.9074031611</v>
       </c>
     </row>
     <row r="17">
@@ -1880,16 +1880,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>277101.2627684389</v>
+        <v>35700</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-61237.91574084849</v>
+        <v>334013.9074031611</v>
       </c>
       <c r="E17" t="n">
-        <v>215863.3470275904</v>
+        <v>369713.9074031611</v>
       </c>
     </row>
     <row r="18">
@@ -1897,16 +1897,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>363966.8623823696</v>
+        <v>45700</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-61237.91574084849</v>
+        <v>234013.9074031611</v>
       </c>
       <c r="E18" t="n">
-        <v>302728.9466415211</v>
+        <v>279713.9074031611</v>
       </c>
     </row>
     <row r="19">
@@ -1914,16 +1914,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>450832.4619963002</v>
+        <v>55700</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-61237.91574084849</v>
+        <v>134013.9074031611</v>
       </c>
       <c r="E19" t="n">
-        <v>389594.5462554517</v>
+        <v>189713.9074031611</v>
       </c>
     </row>
     <row r="20">
@@ -1931,16 +1931,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>537698.0616102309</v>
+        <v>65700</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-61237.91574084849</v>
+        <v>34013.90740316111</v>
       </c>
       <c r="E20" t="n">
-        <v>476460.1458693824</v>
+        <v>99713.90740316111</v>
       </c>
     </row>
     <row r="21">
@@ -1948,16 +1948,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>624563.6612241615</v>
+        <v>75700</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-61237.91574084849</v>
+        <v>-65986.09259683883</v>
       </c>
       <c r="E21" t="n">
-        <v>563325.745483313</v>
+        <v>9713.907403161167</v>
       </c>
     </row>
     <row r="22">
@@ -1965,16 +1965,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>711429.2608380922</v>
+        <v>85700</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-61237.91574084849</v>
+        <v>-165986.0925968388</v>
       </c>
       <c r="E22" t="n">
-        <v>650191.3450972437</v>
+        <v>-80286.09259683883</v>
       </c>
     </row>
     <row r="23">
@@ -1982,16 +1982,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>798294.8604520229</v>
+        <v>95700</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-61237.91574084849</v>
+        <v>-265986.0925968388</v>
       </c>
       <c r="E23" t="n">
-        <v>737056.9447111744</v>
+        <v>-170286.0925968388</v>
       </c>
     </row>
     <row r="24">
@@ -1999,16 +1999,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>885160.4600659537</v>
+        <v>105700</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-61237.91574084849</v>
+        <v>-365986.0925968388</v>
       </c>
       <c r="E24" t="n">
-        <v>823922.5443251051</v>
+        <v>-260286.0925968388</v>
       </c>
     </row>
     <row r="25">
@@ -2016,16 +2016,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>972026.0596798842</v>
+        <v>115700</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-61237.91574084849</v>
+        <v>-465986.0925968388</v>
       </c>
       <c r="E25" t="n">
-        <v>910788.1439390357</v>
+        <v>-350286.0925968388</v>
       </c>
     </row>
     <row r="26">
@@ -2033,16 +2033,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>1058891.659293815</v>
+        <v>125700</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-61237.91574084849</v>
+        <v>-565986.0925968387</v>
       </c>
       <c r="E26" t="n">
-        <v>997653.7435529665</v>
+        <v>-440286.0925968387</v>
       </c>
     </row>
     <row r="27">
@@ -2050,16 +2050,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>1145757.258907746</v>
+        <v>135700</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-61237.91574084849</v>
+        <v>-665986.0925968387</v>
       </c>
       <c r="E27" t="n">
-        <v>1084519.343166897</v>
+        <v>-530286.0925968387</v>
       </c>
     </row>
     <row r="28">
@@ -2067,16 +2067,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>1232622.858521676</v>
+        <v>145700</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-61237.91574084849</v>
+        <v>-765986.0925968387</v>
       </c>
       <c r="E28" t="n">
-        <v>1171384.942780828</v>
+        <v>-620286.0925968387</v>
       </c>
     </row>
     <row r="29">
@@ -2084,16 +2084,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>1319488.458135607</v>
+        <v>155700</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-61237.91574084849</v>
+        <v>-865986.0925968387</v>
       </c>
       <c r="E29" t="n">
-        <v>1258250.542394758</v>
+        <v>-710286.0925968387</v>
       </c>
     </row>
     <row r="30">
@@ -2101,16 +2101,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>1406354.057749538</v>
+        <v>165700</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-61237.91574084849</v>
+        <v>-965986.0925968387</v>
       </c>
       <c r="E30" t="n">
-        <v>1345116.142008689</v>
+        <v>-800286.0925968387</v>
       </c>
     </row>
     <row r="31">
@@ -2118,16 +2118,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>1493219.657363468</v>
+        <v>175700</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-61237.91574084849</v>
+        <v>-1065986.092596839</v>
       </c>
       <c r="E31" t="n">
-        <v>1431981.74162262</v>
+        <v>-890286.0925968387</v>
       </c>
     </row>
     <row r="32">
@@ -2135,16 +2135,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>1580085.256977399</v>
+        <v>185700</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-61237.91574084849</v>
+        <v>-1165986.092596839</v>
       </c>
       <c r="E32" t="n">
-        <v>1518847.34123655</v>
+        <v>-980286.0925968387</v>
       </c>
     </row>
   </sheetData>
@@ -2198,16 +2198,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-1025882.731440521</v>
+        <v>-114300</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>340917.638027349</v>
+        <v>-365986.0925968389</v>
       </c>
       <c r="E2" t="n">
-        <v>-684965.0934131721</v>
+        <v>-480286.0925968389</v>
       </c>
     </row>
     <row r="3">
@@ -2215,16 +2215,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-939017.1318265903</v>
+        <v>-104300</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>340917.638027349</v>
+        <v>-315986.0925968389</v>
       </c>
       <c r="E3" t="n">
-        <v>-598099.4937992413</v>
+        <v>-420286.0925968389</v>
       </c>
     </row>
     <row r="4">
@@ -2232,16 +2232,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-852151.5322126596</v>
+        <v>-94300</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>340917.638027349</v>
+        <v>-265986.0925968389</v>
       </c>
       <c r="E4" t="n">
-        <v>-511233.8941853106</v>
+        <v>-360286.0925968389</v>
       </c>
     </row>
     <row r="5">
@@ -2249,16 +2249,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-765285.932598729</v>
+        <v>-84300</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>340917.638027349</v>
+        <v>-215986.0925968389</v>
       </c>
       <c r="E5" t="n">
-        <v>-424368.29457138</v>
+        <v>-300286.0925968389</v>
       </c>
     </row>
     <row r="6">
@@ -2266,16 +2266,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>-678420.3329847984</v>
+        <v>-74300</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>340917.638027349</v>
+        <v>-165986.0925968389</v>
       </c>
       <c r="E6" t="n">
-        <v>-337502.6949574493</v>
+        <v>-240286.0925968389</v>
       </c>
     </row>
     <row r="7">
@@ -2283,16 +2283,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-591554.7333708677</v>
+        <v>-64300</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>340917.638027349</v>
+        <v>-115986.0925968389</v>
       </c>
       <c r="E7" t="n">
-        <v>-250637.0953435187</v>
+        <v>-180286.0925968389</v>
       </c>
     </row>
     <row r="8">
@@ -2300,16 +2300,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-504689.1337569371</v>
+        <v>-54300</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>260486.5272737095</v>
+        <v>-65986.09259683892</v>
       </c>
       <c r="E8" t="n">
-        <v>-244202.6064832275</v>
+        <v>-120286.0925968389</v>
       </c>
     </row>
     <row r="9">
@@ -2317,16 +2317,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-417823.5341430064</v>
+        <v>-44300</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>180055.41652007</v>
+        <v>-15986.09259683892</v>
       </c>
       <c r="E9" t="n">
-        <v>-237768.1176229363</v>
+        <v>-60286.09259683892</v>
       </c>
     </row>
     <row r="10">
@@ -2334,16 +2334,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-330957.9345290757</v>
+        <v>-34300</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>99624.30576643051</v>
+        <v>-65986.09259683892</v>
       </c>
       <c r="E10" t="n">
-        <v>-231333.6287626452</v>
+        <v>-100286.0925968389</v>
       </c>
     </row>
     <row r="11">
@@ -2351,16 +2351,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>-244092.3349151451</v>
+        <v>-24300</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>19193.19501279101</v>
+        <v>-115986.0925968389</v>
       </c>
       <c r="E11" t="n">
-        <v>-224899.139902354</v>
+        <v>-140286.0925968389</v>
       </c>
     </row>
     <row r="12">
@@ -2368,16 +2368,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>-157226.7353012144</v>
+        <v>-14300</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-61237.91574084849</v>
+        <v>-165986.0925968389</v>
       </c>
       <c r="E12" t="n">
-        <v>-218464.6510420629</v>
+        <v>-180286.0925968389</v>
       </c>
     </row>
     <row r="13">
@@ -2385,16 +2385,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>-70361.13568728374</v>
+        <v>-4299.999999999997</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-61237.91574084849</v>
+        <v>-65986.09259683892</v>
       </c>
       <c r="E13" t="n">
-        <v>-131599.0514281322</v>
+        <v>-70286.09259683892</v>
       </c>
     </row>
     <row r="14">
@@ -2402,16 +2402,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>16504.46392664694</v>
+        <v>5700.000000000003</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-61237.91574084849</v>
+        <v>34013.90740316109</v>
       </c>
       <c r="E14" t="n">
-        <v>-44733.45181420155</v>
+        <v>39713.90740316109</v>
       </c>
     </row>
     <row r="15">
@@ -2419,16 +2419,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>103370.0635405776</v>
+        <v>15700</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-61237.91574084849</v>
+        <v>134013.9074031611</v>
       </c>
       <c r="E15" t="n">
-        <v>42132.14779972911</v>
+        <v>149713.9074031611</v>
       </c>
     </row>
     <row r="16">
@@ -2436,16 +2436,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>190235.6631545083</v>
+        <v>25700</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-61237.91574084849</v>
+        <v>234013.9074031611</v>
       </c>
       <c r="E16" t="n">
-        <v>128997.7474136598</v>
+        <v>259713.9074031611</v>
       </c>
     </row>
     <row r="17">
@@ -2453,16 +2453,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>277101.2627684389</v>
+        <v>35700</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-61237.91574084849</v>
+        <v>334013.9074031611</v>
       </c>
       <c r="E17" t="n">
-        <v>215863.3470275904</v>
+        <v>369713.9074031611</v>
       </c>
     </row>
     <row r="18">
@@ -2470,16 +2470,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>363966.8623823696</v>
+        <v>45700</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-61237.91574084849</v>
+        <v>234013.9074031611</v>
       </c>
       <c r="E18" t="n">
-        <v>302728.9466415211</v>
+        <v>279713.9074031611</v>
       </c>
     </row>
     <row r="19">
@@ -2487,16 +2487,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>450832.4619963002</v>
+        <v>55700</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-61237.91574084849</v>
+        <v>134013.9074031611</v>
       </c>
       <c r="E19" t="n">
-        <v>389594.5462554517</v>
+        <v>189713.9074031611</v>
       </c>
     </row>
     <row r="20">
@@ -2504,16 +2504,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>537698.0616102309</v>
+        <v>65700</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-61237.91574084849</v>
+        <v>34013.90740316111</v>
       </c>
       <c r="E20" t="n">
-        <v>476460.1458693824</v>
+        <v>99713.90740316111</v>
       </c>
     </row>
     <row r="21">
@@ -2521,16 +2521,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>624563.6612241615</v>
+        <v>75700</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-61237.91574084849</v>
+        <v>-65986.09259683883</v>
       </c>
       <c r="E21" t="n">
-        <v>563325.745483313</v>
+        <v>9713.907403161167</v>
       </c>
     </row>
     <row r="22">
@@ -2538,16 +2538,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>711429.2608380922</v>
+        <v>85700</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-61237.91574084849</v>
+        <v>-165986.0925968388</v>
       </c>
       <c r="E22" t="n">
-        <v>650191.3450972437</v>
+        <v>-80286.09259683883</v>
       </c>
     </row>
     <row r="23">
@@ -2555,16 +2555,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>798294.8604520229</v>
+        <v>95700</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-61237.91574084849</v>
+        <v>-265986.0925968388</v>
       </c>
       <c r="E23" t="n">
-        <v>737056.9447111744</v>
+        <v>-170286.0925968388</v>
       </c>
     </row>
     <row r="24">
@@ -2572,16 +2572,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>885160.4600659537</v>
+        <v>105700</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-61237.91574084849</v>
+        <v>-365986.0925968388</v>
       </c>
       <c r="E24" t="n">
-        <v>823922.5443251051</v>
+        <v>-260286.0925968388</v>
       </c>
     </row>
     <row r="25">
@@ -2589,16 +2589,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>972026.0596798842</v>
+        <v>115700</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-61237.91574084849</v>
+        <v>-465986.0925968388</v>
       </c>
       <c r="E25" t="n">
-        <v>910788.1439390357</v>
+        <v>-350286.0925968388</v>
       </c>
     </row>
     <row r="26">
@@ -2606,16 +2606,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>1058891.659293815</v>
+        <v>125700</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-61237.91574084849</v>
+        <v>-565986.0925968387</v>
       </c>
       <c r="E26" t="n">
-        <v>997653.7435529665</v>
+        <v>-440286.0925968387</v>
       </c>
     </row>
     <row r="27">
@@ -2623,16 +2623,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>1145757.258907746</v>
+        <v>135700</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-61237.91574084849</v>
+        <v>-665986.0925968387</v>
       </c>
       <c r="E27" t="n">
-        <v>1084519.343166897</v>
+        <v>-530286.0925968387</v>
       </c>
     </row>
     <row r="28">
@@ -2640,16 +2640,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>1232622.858521676</v>
+        <v>145700</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-61237.91574084849</v>
+        <v>-765986.0925968387</v>
       </c>
       <c r="E28" t="n">
-        <v>1171384.942780828</v>
+        <v>-620286.0925968387</v>
       </c>
     </row>
     <row r="29">
@@ -2657,16 +2657,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>1319488.458135607</v>
+        <v>155700</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-61237.91574084849</v>
+        <v>-865986.0925968387</v>
       </c>
       <c r="E29" t="n">
-        <v>1258250.542394758</v>
+        <v>-710286.0925968387</v>
       </c>
     </row>
     <row r="30">
@@ -2674,16 +2674,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>1406354.057749538</v>
+        <v>165700</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-61237.91574084849</v>
+        <v>-965986.0925968387</v>
       </c>
       <c r="E30" t="n">
-        <v>1345116.142008689</v>
+        <v>-800286.0925968387</v>
       </c>
     </row>
     <row r="31">
@@ -2691,16 +2691,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>1493219.657363468</v>
+        <v>175700</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-61237.91574084849</v>
+        <v>-1065986.092596839</v>
       </c>
       <c r="E31" t="n">
-        <v>1431981.74162262</v>
+        <v>-890286.0925968387</v>
       </c>
     </row>
     <row r="32">
@@ -2708,16 +2708,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>1580085.256977399</v>
+        <v>185700</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-61237.91574084849</v>
+        <v>-1165986.092596839</v>
       </c>
       <c r="E32" t="n">
-        <v>1518847.34123655</v>
+        <v>-980286.0925968387</v>
       </c>
     </row>
   </sheetData>
@@ -2771,16 +2771,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-1025882.731440521</v>
+        <v>-114300</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>340917.638027349</v>
+        <v>-365986.0925968389</v>
       </c>
       <c r="E2" t="n">
-        <v>-684965.0934131721</v>
+        <v>-480286.0925968389</v>
       </c>
     </row>
     <row r="3">
@@ -2788,16 +2788,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-939017.1318265903</v>
+        <v>-104300</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>340917.638027349</v>
+        <v>-315986.0925968389</v>
       </c>
       <c r="E3" t="n">
-        <v>-598099.4937992413</v>
+        <v>-420286.0925968389</v>
       </c>
     </row>
     <row r="4">
@@ -2805,16 +2805,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-852151.5322126596</v>
+        <v>-94300</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>340917.638027349</v>
+        <v>-265986.0925968389</v>
       </c>
       <c r="E4" t="n">
-        <v>-511233.8941853106</v>
+        <v>-360286.0925968389</v>
       </c>
     </row>
     <row r="5">
@@ -2822,16 +2822,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-765285.932598729</v>
+        <v>-84300</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>340917.638027349</v>
+        <v>-215986.0925968389</v>
       </c>
       <c r="E5" t="n">
-        <v>-424368.29457138</v>
+        <v>-300286.0925968389</v>
       </c>
     </row>
     <row r="6">
@@ -2839,16 +2839,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>-678420.3329847984</v>
+        <v>-74300</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>340917.638027349</v>
+        <v>-165986.0925968389</v>
       </c>
       <c r="E6" t="n">
-        <v>-337502.6949574493</v>
+        <v>-240286.0925968389</v>
       </c>
     </row>
     <row r="7">
@@ -2856,16 +2856,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-591554.7333708677</v>
+        <v>-64300</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>340917.638027349</v>
+        <v>-115986.0925968389</v>
       </c>
       <c r="E7" t="n">
-        <v>-250637.0953435187</v>
+        <v>-180286.0925968389</v>
       </c>
     </row>
     <row r="8">
@@ -2873,16 +2873,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-504689.1337569371</v>
+        <v>-54300</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>260486.5272737095</v>
+        <v>-65986.09259683892</v>
       </c>
       <c r="E8" t="n">
-        <v>-244202.6064832275</v>
+        <v>-120286.0925968389</v>
       </c>
     </row>
     <row r="9">
@@ -2890,16 +2890,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-417823.5341430064</v>
+        <v>-44300</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>180055.41652007</v>
+        <v>-15986.09259683892</v>
       </c>
       <c r="E9" t="n">
-        <v>-237768.1176229363</v>
+        <v>-60286.09259683892</v>
       </c>
     </row>
     <row r="10">
@@ -2907,16 +2907,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-330957.9345290757</v>
+        <v>-34300</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>99624.30576643051</v>
+        <v>-65986.09259683892</v>
       </c>
       <c r="E10" t="n">
-        <v>-231333.6287626452</v>
+        <v>-100286.0925968389</v>
       </c>
     </row>
     <row r="11">
@@ -2924,16 +2924,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>-244092.3349151451</v>
+        <v>-24300</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>19193.19501279101</v>
+        <v>-115986.0925968389</v>
       </c>
       <c r="E11" t="n">
-        <v>-224899.139902354</v>
+        <v>-140286.0925968389</v>
       </c>
     </row>
     <row r="12">
@@ -2941,16 +2941,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>-157226.7353012144</v>
+        <v>-14300</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-61237.91574084849</v>
+        <v>-165986.0925968389</v>
       </c>
       <c r="E12" t="n">
-        <v>-218464.6510420629</v>
+        <v>-180286.0925968389</v>
       </c>
     </row>
     <row r="13">
@@ -2958,16 +2958,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>-70361.13568728374</v>
+        <v>-4299.999999999997</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-61237.91574084849</v>
+        <v>-65986.09259683892</v>
       </c>
       <c r="E13" t="n">
-        <v>-131599.0514281322</v>
+        <v>-70286.09259683892</v>
       </c>
     </row>
     <row r="14">
@@ -2975,16 +2975,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>16504.46392664694</v>
+        <v>5700.000000000003</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-61237.91574084849</v>
+        <v>34013.90740316109</v>
       </c>
       <c r="E14" t="n">
-        <v>-44733.45181420155</v>
+        <v>39713.90740316109</v>
       </c>
     </row>
     <row r="15">
@@ -2992,16 +2992,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>103370.0635405776</v>
+        <v>15700</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-61237.91574084849</v>
+        <v>134013.9074031611</v>
       </c>
       <c r="E15" t="n">
-        <v>42132.14779972911</v>
+        <v>149713.9074031611</v>
       </c>
     </row>
     <row r="16">
@@ -3009,16 +3009,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>190235.6631545083</v>
+        <v>25700</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-61237.91574084849</v>
+        <v>234013.9074031611</v>
       </c>
       <c r="E16" t="n">
-        <v>128997.7474136598</v>
+        <v>259713.9074031611</v>
       </c>
     </row>
     <row r="17">
@@ -3026,16 +3026,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>277101.2627684389</v>
+        <v>35700</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-61237.91574084849</v>
+        <v>334013.9074031611</v>
       </c>
       <c r="E17" t="n">
-        <v>215863.3470275904</v>
+        <v>369713.9074031611</v>
       </c>
     </row>
     <row r="18">
@@ -3043,16 +3043,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>363966.8623823696</v>
+        <v>45700</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-61237.91574084849</v>
+        <v>234013.9074031611</v>
       </c>
       <c r="E18" t="n">
-        <v>302728.9466415211</v>
+        <v>279713.9074031611</v>
       </c>
     </row>
     <row r="19">
@@ -3060,16 +3060,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>450832.4619963002</v>
+        <v>55700</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-61237.91574084849</v>
+        <v>134013.9074031611</v>
       </c>
       <c r="E19" t="n">
-        <v>389594.5462554517</v>
+        <v>189713.9074031611</v>
       </c>
     </row>
     <row r="20">
@@ -3077,16 +3077,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>537698.0616102309</v>
+        <v>65700</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-61237.91574084849</v>
+        <v>34013.90740316111</v>
       </c>
       <c r="E20" t="n">
-        <v>476460.1458693824</v>
+        <v>99713.90740316111</v>
       </c>
     </row>
     <row r="21">
@@ -3094,16 +3094,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>624563.6612241615</v>
+        <v>75700</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-61237.91574084849</v>
+        <v>-65986.09259683883</v>
       </c>
       <c r="E21" t="n">
-        <v>563325.745483313</v>
+        <v>9713.907403161167</v>
       </c>
     </row>
     <row r="22">
@@ -3111,16 +3111,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>711429.2608380922</v>
+        <v>85700</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-61237.91574084849</v>
+        <v>-165986.0925968388</v>
       </c>
       <c r="E22" t="n">
-        <v>650191.3450972437</v>
+        <v>-80286.09259683883</v>
       </c>
     </row>
     <row r="23">
@@ -3128,16 +3128,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>798294.8604520229</v>
+        <v>95700</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-61237.91574084849</v>
+        <v>-265986.0925968388</v>
       </c>
       <c r="E23" t="n">
-        <v>737056.9447111744</v>
+        <v>-170286.0925968388</v>
       </c>
     </row>
     <row r="24">
@@ -3145,16 +3145,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>885160.4600659537</v>
+        <v>105700</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-61237.91574084849</v>
+        <v>-365986.0925968388</v>
       </c>
       <c r="E24" t="n">
-        <v>823922.5443251051</v>
+        <v>-260286.0925968388</v>
       </c>
     </row>
     <row r="25">
@@ -3162,16 +3162,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>972026.0596798842</v>
+        <v>115700</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-61237.91574084849</v>
+        <v>-465986.0925968388</v>
       </c>
       <c r="E25" t="n">
-        <v>910788.1439390357</v>
+        <v>-350286.0925968388</v>
       </c>
     </row>
     <row r="26">
@@ -3179,16 +3179,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>1058891.659293815</v>
+        <v>125700</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-61237.91574084849</v>
+        <v>-565986.0925968387</v>
       </c>
       <c r="E26" t="n">
-        <v>997653.7435529665</v>
+        <v>-440286.0925968387</v>
       </c>
     </row>
     <row r="27">
@@ -3196,16 +3196,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>1145757.258907746</v>
+        <v>135700</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-61237.91574084849</v>
+        <v>-665986.0925968387</v>
       </c>
       <c r="E27" t="n">
-        <v>1084519.343166897</v>
+        <v>-530286.0925968387</v>
       </c>
     </row>
     <row r="28">
@@ -3213,16 +3213,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>1232622.858521676</v>
+        <v>145700</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-61237.91574084849</v>
+        <v>-765986.0925968387</v>
       </c>
       <c r="E28" t="n">
-        <v>1171384.942780828</v>
+        <v>-620286.0925968387</v>
       </c>
     </row>
     <row r="29">
@@ -3230,16 +3230,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>1319488.458135607</v>
+        <v>155700</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-61237.91574084849</v>
+        <v>-865986.0925968387</v>
       </c>
       <c r="E29" t="n">
-        <v>1258250.542394758</v>
+        <v>-710286.0925968387</v>
       </c>
     </row>
     <row r="30">
@@ -3247,16 +3247,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>1406354.057749538</v>
+        <v>165700</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-61237.91574084849</v>
+        <v>-965986.0925968387</v>
       </c>
       <c r="E30" t="n">
-        <v>1345116.142008689</v>
+        <v>-800286.0925968387</v>
       </c>
     </row>
     <row r="31">
@@ -3264,16 +3264,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>1493219.657363468</v>
+        <v>175700</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-61237.91574084849</v>
+        <v>-1065986.092596839</v>
       </c>
       <c r="E31" t="n">
-        <v>1431981.74162262</v>
+        <v>-890286.0925968387</v>
       </c>
     </row>
     <row r="32">
@@ -3281,16 +3281,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>1580085.256977399</v>
+        <v>185700</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-61237.91574084849</v>
+        <v>-1165986.092596839</v>
       </c>
       <c r="E32" t="n">
-        <v>1518847.34123655</v>
+        <v>-980286.0925968387</v>
       </c>
     </row>
   </sheetData>
@@ -3344,16 +3344,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-1025882.731440521</v>
+        <v>-114300</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>340917.638027349</v>
+        <v>-365986.0925968389</v>
       </c>
       <c r="E2" t="n">
-        <v>-684965.0934131721</v>
+        <v>-480286.0925968389</v>
       </c>
     </row>
     <row r="3">
@@ -3361,16 +3361,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-939017.1318265903</v>
+        <v>-104300</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>340917.638027349</v>
+        <v>-315986.0925968389</v>
       </c>
       <c r="E3" t="n">
-        <v>-598099.4937992413</v>
+        <v>-420286.0925968389</v>
       </c>
     </row>
     <row r="4">
@@ -3378,16 +3378,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-852151.5322126596</v>
+        <v>-94300</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>340917.638027349</v>
+        <v>-265986.0925968389</v>
       </c>
       <c r="E4" t="n">
-        <v>-511233.8941853106</v>
+        <v>-360286.0925968389</v>
       </c>
     </row>
     <row r="5">
@@ -3395,16 +3395,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-765285.932598729</v>
+        <v>-84300</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>340917.638027349</v>
+        <v>-215986.0925968389</v>
       </c>
       <c r="E5" t="n">
-        <v>-424368.29457138</v>
+        <v>-300286.0925968389</v>
       </c>
     </row>
     <row r="6">
@@ -3412,16 +3412,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>-678420.3329847984</v>
+        <v>-74300</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>340917.638027349</v>
+        <v>-165986.0925968389</v>
       </c>
       <c r="E6" t="n">
-        <v>-337502.6949574493</v>
+        <v>-240286.0925968389</v>
       </c>
     </row>
     <row r="7">
@@ -3429,16 +3429,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-591554.7333708677</v>
+        <v>-64300</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>340917.638027349</v>
+        <v>-115986.0925968389</v>
       </c>
       <c r="E7" t="n">
-        <v>-250637.0953435187</v>
+        <v>-180286.0925968389</v>
       </c>
     </row>
     <row r="8">
@@ -3446,16 +3446,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-504689.1337569371</v>
+        <v>-54300</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>260486.5272737095</v>
+        <v>-65986.09259683892</v>
       </c>
       <c r="E8" t="n">
-        <v>-244202.6064832275</v>
+        <v>-120286.0925968389</v>
       </c>
     </row>
     <row r="9">
@@ -3463,16 +3463,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-417823.5341430064</v>
+        <v>-44300</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>180055.41652007</v>
+        <v>-15986.09259683892</v>
       </c>
       <c r="E9" t="n">
-        <v>-237768.1176229363</v>
+        <v>-60286.09259683892</v>
       </c>
     </row>
     <row r="10">
@@ -3480,16 +3480,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-330957.9345290757</v>
+        <v>-34300</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>99624.30576643051</v>
+        <v>-65986.09259683892</v>
       </c>
       <c r="E10" t="n">
-        <v>-231333.6287626452</v>
+        <v>-100286.0925968389</v>
       </c>
     </row>
     <row r="11">
@@ -3497,16 +3497,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>-244092.3349151451</v>
+        <v>-24300</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>19193.19501279101</v>
+        <v>-115986.0925968389</v>
       </c>
       <c r="E11" t="n">
-        <v>-224899.139902354</v>
+        <v>-140286.0925968389</v>
       </c>
     </row>
     <row r="12">
@@ -3514,16 +3514,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>-157226.7353012144</v>
+        <v>-14300</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-61237.91574084849</v>
+        <v>-165986.0925968389</v>
       </c>
       <c r="E12" t="n">
-        <v>-218464.6510420629</v>
+        <v>-180286.0925968389</v>
       </c>
     </row>
     <row r="13">
@@ -3531,16 +3531,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>-70361.13568728374</v>
+        <v>-4299.999999999997</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-61237.91574084849</v>
+        <v>-65986.09259683892</v>
       </c>
       <c r="E13" t="n">
-        <v>-131599.0514281322</v>
+        <v>-70286.09259683892</v>
       </c>
     </row>
     <row r="14">
@@ -3548,16 +3548,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>16504.46392664694</v>
+        <v>5700.000000000003</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-61237.91574084849</v>
+        <v>34013.90740316109</v>
       </c>
       <c r="E14" t="n">
-        <v>-44733.45181420155</v>
+        <v>39713.90740316109</v>
       </c>
     </row>
     <row r="15">
@@ -3565,16 +3565,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>103370.0635405776</v>
+        <v>15700</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-61237.91574084849</v>
+        <v>134013.9074031611</v>
       </c>
       <c r="E15" t="n">
-        <v>42132.14779972911</v>
+        <v>149713.9074031611</v>
       </c>
     </row>
     <row r="16">
@@ -3582,16 +3582,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>190235.6631545083</v>
+        <v>25700</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-61237.91574084849</v>
+        <v>234013.9074031611</v>
       </c>
       <c r="E16" t="n">
-        <v>128997.7474136598</v>
+        <v>259713.9074031611</v>
       </c>
     </row>
     <row r="17">
@@ -3599,16 +3599,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>277101.2627684389</v>
+        <v>35700</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-61237.91574084849</v>
+        <v>334013.9074031611</v>
       </c>
       <c r="E17" t="n">
-        <v>215863.3470275904</v>
+        <v>369713.9074031611</v>
       </c>
     </row>
     <row r="18">
@@ -3616,16 +3616,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>363966.8623823696</v>
+        <v>45700</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-61237.91574084849</v>
+        <v>234013.9074031611</v>
       </c>
       <c r="E18" t="n">
-        <v>302728.9466415211</v>
+        <v>279713.9074031611</v>
       </c>
     </row>
     <row r="19">
@@ -3633,16 +3633,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>450832.4619963002</v>
+        <v>55700</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-61237.91574084849</v>
+        <v>134013.9074031611</v>
       </c>
       <c r="E19" t="n">
-        <v>389594.5462554517</v>
+        <v>189713.9074031611</v>
       </c>
     </row>
     <row r="20">
@@ -3650,16 +3650,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>537698.0616102309</v>
+        <v>65700</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-61237.91574084849</v>
+        <v>34013.90740316111</v>
       </c>
       <c r="E20" t="n">
-        <v>476460.1458693824</v>
+        <v>99713.90740316111</v>
       </c>
     </row>
     <row r="21">
@@ -3667,16 +3667,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>624563.6612241615</v>
+        <v>75700</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-61237.91574084849</v>
+        <v>-65986.09259683883</v>
       </c>
       <c r="E21" t="n">
-        <v>563325.745483313</v>
+        <v>9713.907403161167</v>
       </c>
     </row>
     <row r="22">
@@ -3684,16 +3684,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>711429.2608380922</v>
+        <v>85700</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-61237.91574084849</v>
+        <v>-165986.0925968388</v>
       </c>
       <c r="E22" t="n">
-        <v>650191.3450972437</v>
+        <v>-80286.09259683883</v>
       </c>
     </row>
     <row r="23">
@@ -3701,16 +3701,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>798294.8604520229</v>
+        <v>95700</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-61237.91574084849</v>
+        <v>-265986.0925968388</v>
       </c>
       <c r="E23" t="n">
-        <v>737056.9447111744</v>
+        <v>-170286.0925968388</v>
       </c>
     </row>
     <row r="24">
@@ -3718,16 +3718,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>885160.4600659537</v>
+        <v>105700</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-61237.91574084849</v>
+        <v>-365986.0925968388</v>
       </c>
       <c r="E24" t="n">
-        <v>823922.5443251051</v>
+        <v>-260286.0925968388</v>
       </c>
     </row>
     <row r="25">
@@ -3735,16 +3735,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>972026.0596798842</v>
+        <v>115700</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-61237.91574084849</v>
+        <v>-465986.0925968388</v>
       </c>
       <c r="E25" t="n">
-        <v>910788.1439390357</v>
+        <v>-350286.0925968388</v>
       </c>
     </row>
     <row r="26">
@@ -3752,16 +3752,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>1058891.659293815</v>
+        <v>125700</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-61237.91574084849</v>
+        <v>-565986.0925968387</v>
       </c>
       <c r="E26" t="n">
-        <v>997653.7435529665</v>
+        <v>-440286.0925968387</v>
       </c>
     </row>
     <row r="27">
@@ -3769,16 +3769,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>1145757.258907746</v>
+        <v>135700</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-61237.91574084849</v>
+        <v>-665986.0925968387</v>
       </c>
       <c r="E27" t="n">
-        <v>1084519.343166897</v>
+        <v>-530286.0925968387</v>
       </c>
     </row>
     <row r="28">
@@ -3786,16 +3786,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>1232622.858521676</v>
+        <v>145700</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-61237.91574084849</v>
+        <v>-765986.0925968387</v>
       </c>
       <c r="E28" t="n">
-        <v>1171384.942780828</v>
+        <v>-620286.0925968387</v>
       </c>
     </row>
     <row r="29">
@@ -3803,16 +3803,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>1319488.458135607</v>
+        <v>155700</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-61237.91574084849</v>
+        <v>-865986.0925968387</v>
       </c>
       <c r="E29" t="n">
-        <v>1258250.542394758</v>
+        <v>-710286.0925968387</v>
       </c>
     </row>
     <row r="30">
@@ -3820,16 +3820,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>1406354.057749538</v>
+        <v>165700</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-61237.91574084849</v>
+        <v>-965986.0925968387</v>
       </c>
       <c r="E30" t="n">
-        <v>1345116.142008689</v>
+        <v>-800286.0925968387</v>
       </c>
     </row>
     <row r="31">
@@ -3837,16 +3837,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>1493219.657363468</v>
+        <v>175700</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-61237.91574084849</v>
+        <v>-1065986.092596839</v>
       </c>
       <c r="E31" t="n">
-        <v>1431981.74162262</v>
+        <v>-890286.0925968387</v>
       </c>
     </row>
     <row r="32">
@@ -3854,16 +3854,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>1580085.256977399</v>
+        <v>185700</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-61237.91574084849</v>
+        <v>-1165986.092596839</v>
       </c>
       <c r="E32" t="n">
-        <v>1518847.34123655</v>
+        <v>-980286.0925968387</v>
       </c>
     </row>
   </sheetData>
@@ -3917,16 +3917,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-1025882.731440521</v>
+        <v>-114300</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>340917.638027349</v>
+        <v>-365986.0925968389</v>
       </c>
       <c r="E2" t="n">
-        <v>-684965.0934131721</v>
+        <v>-480286.0925968389</v>
       </c>
     </row>
     <row r="3">
@@ -3934,16 +3934,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-939017.1318265903</v>
+        <v>-104300</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>340917.638027349</v>
+        <v>-315986.0925968389</v>
       </c>
       <c r="E3" t="n">
-        <v>-598099.4937992413</v>
+        <v>-420286.0925968389</v>
       </c>
     </row>
     <row r="4">
@@ -3951,16 +3951,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-852151.5322126596</v>
+        <v>-94300</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>340917.638027349</v>
+        <v>-265986.0925968389</v>
       </c>
       <c r="E4" t="n">
-        <v>-511233.8941853106</v>
+        <v>-360286.0925968389</v>
       </c>
     </row>
     <row r="5">
@@ -3968,16 +3968,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-765285.932598729</v>
+        <v>-84300</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>340917.638027349</v>
+        <v>-215986.0925968389</v>
       </c>
       <c r="E5" t="n">
-        <v>-424368.29457138</v>
+        <v>-300286.0925968389</v>
       </c>
     </row>
     <row r="6">
@@ -3985,16 +3985,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>-678420.3329847984</v>
+        <v>-74300</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>340917.638027349</v>
+        <v>-165986.0925968389</v>
       </c>
       <c r="E6" t="n">
-        <v>-337502.6949574493</v>
+        <v>-240286.0925968389</v>
       </c>
     </row>
     <row r="7">
@@ -4002,16 +4002,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-591554.7333708677</v>
+        <v>-64300</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>340917.638027349</v>
+        <v>-115986.0925968389</v>
       </c>
       <c r="E7" t="n">
-        <v>-250637.0953435187</v>
+        <v>-180286.0925968389</v>
       </c>
     </row>
     <row r="8">
@@ -4019,16 +4019,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-504689.1337569371</v>
+        <v>-54300</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>260486.5272737095</v>
+        <v>-65986.09259683892</v>
       </c>
       <c r="E8" t="n">
-        <v>-244202.6064832275</v>
+        <v>-120286.0925968389</v>
       </c>
     </row>
     <row r="9">
@@ -4036,16 +4036,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-417823.5341430064</v>
+        <v>-44300</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>180055.41652007</v>
+        <v>-15986.09259683892</v>
       </c>
       <c r="E9" t="n">
-        <v>-237768.1176229363</v>
+        <v>-60286.09259683892</v>
       </c>
     </row>
     <row r="10">
@@ -4053,16 +4053,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-330957.9345290757</v>
+        <v>-34300</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>99624.30576643051</v>
+        <v>-65986.09259683892</v>
       </c>
       <c r="E10" t="n">
-        <v>-231333.6287626452</v>
+        <v>-100286.0925968389</v>
       </c>
     </row>
     <row r="11">
@@ -4070,16 +4070,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>-244092.3349151451</v>
+        <v>-24300</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>19193.19501279101</v>
+        <v>-115986.0925968389</v>
       </c>
       <c r="E11" t="n">
-        <v>-224899.139902354</v>
+        <v>-140286.0925968389</v>
       </c>
     </row>
     <row r="12">
@@ -4087,16 +4087,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>-157226.7353012144</v>
+        <v>-14300</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-61237.91574084849</v>
+        <v>-165986.0925968389</v>
       </c>
       <c r="E12" t="n">
-        <v>-218464.6510420629</v>
+        <v>-180286.0925968389</v>
       </c>
     </row>
     <row r="13">
@@ -4104,16 +4104,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>-70361.13568728374</v>
+        <v>-4299.999999999997</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-61237.91574084849</v>
+        <v>-65986.09259683892</v>
       </c>
       <c r="E13" t="n">
-        <v>-131599.0514281322</v>
+        <v>-70286.09259683892</v>
       </c>
     </row>
     <row r="14">
@@ -4121,16 +4121,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>16504.46392664694</v>
+        <v>5700.000000000003</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-61237.91574084849</v>
+        <v>34013.90740316109</v>
       </c>
       <c r="E14" t="n">
-        <v>-44733.45181420155</v>
+        <v>39713.90740316109</v>
       </c>
     </row>
     <row r="15">
@@ -4138,16 +4138,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>103370.0635405776</v>
+        <v>15700</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-61237.91574084849</v>
+        <v>134013.9074031611</v>
       </c>
       <c r="E15" t="n">
-        <v>42132.14779972911</v>
+        <v>149713.9074031611</v>
       </c>
     </row>
     <row r="16">
@@ -4155,16 +4155,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>190235.6631545083</v>
+        <v>25700</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-61237.91574084849</v>
+        <v>234013.9074031611</v>
       </c>
       <c r="E16" t="n">
-        <v>128997.7474136598</v>
+        <v>259713.9074031611</v>
       </c>
     </row>
     <row r="17">
@@ -4172,16 +4172,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>277101.2627684389</v>
+        <v>35700</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-61237.91574084849</v>
+        <v>334013.9074031611</v>
       </c>
       <c r="E17" t="n">
-        <v>215863.3470275904</v>
+        <v>369713.9074031611</v>
       </c>
     </row>
     <row r="18">
@@ -4189,16 +4189,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>363966.8623823696</v>
+        <v>45700</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-61237.91574084849</v>
+        <v>234013.9074031611</v>
       </c>
       <c r="E18" t="n">
-        <v>302728.9466415211</v>
+        <v>279713.9074031611</v>
       </c>
     </row>
     <row r="19">
@@ -4206,16 +4206,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>450832.4619963002</v>
+        <v>55700</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-61237.91574084849</v>
+        <v>134013.9074031611</v>
       </c>
       <c r="E19" t="n">
-        <v>389594.5462554517</v>
+        <v>189713.9074031611</v>
       </c>
     </row>
     <row r="20">
@@ -4223,16 +4223,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>537698.0616102309</v>
+        <v>65700</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-61237.91574084849</v>
+        <v>34013.90740316111</v>
       </c>
       <c r="E20" t="n">
-        <v>476460.1458693824</v>
+        <v>99713.90740316111</v>
       </c>
     </row>
     <row r="21">
@@ -4240,16 +4240,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>624563.6612241615</v>
+        <v>75700</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-61237.91574084849</v>
+        <v>-65986.09259683883</v>
       </c>
       <c r="E21" t="n">
-        <v>563325.745483313</v>
+        <v>9713.907403161167</v>
       </c>
     </row>
     <row r="22">
@@ -4257,16 +4257,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>711429.2608380922</v>
+        <v>85700</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-61237.91574084849</v>
+        <v>-165986.0925968388</v>
       </c>
       <c r="E22" t="n">
-        <v>650191.3450972437</v>
+        <v>-80286.09259683883</v>
       </c>
     </row>
     <row r="23">
@@ -4274,16 +4274,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>798294.8604520229</v>
+        <v>95700</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-61237.91574084849</v>
+        <v>-265986.0925968388</v>
       </c>
       <c r="E23" t="n">
-        <v>737056.9447111744</v>
+        <v>-170286.0925968388</v>
       </c>
     </row>
     <row r="24">
@@ -4291,16 +4291,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>885160.4600659537</v>
+        <v>105700</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-61237.91574084849</v>
+        <v>-365986.0925968388</v>
       </c>
       <c r="E24" t="n">
-        <v>823922.5443251051</v>
+        <v>-260286.0925968388</v>
       </c>
     </row>
     <row r="25">
@@ -4308,16 +4308,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>972026.0596798842</v>
+        <v>115700</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-61237.91574084849</v>
+        <v>-465986.0925968388</v>
       </c>
       <c r="E25" t="n">
-        <v>910788.1439390357</v>
+        <v>-350286.0925968388</v>
       </c>
     </row>
     <row r="26">
@@ -4325,16 +4325,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>1058891.659293815</v>
+        <v>125700</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-61237.91574084849</v>
+        <v>-565986.0925968387</v>
       </c>
       <c r="E26" t="n">
-        <v>997653.7435529665</v>
+        <v>-440286.0925968387</v>
       </c>
     </row>
     <row r="27">
@@ -4342,16 +4342,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>1145757.258907746</v>
+        <v>135700</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-61237.91574084849</v>
+        <v>-665986.0925968387</v>
       </c>
       <c r="E27" t="n">
-        <v>1084519.343166897</v>
+        <v>-530286.0925968387</v>
       </c>
     </row>
     <row r="28">
@@ -4359,16 +4359,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>1232622.858521676</v>
+        <v>145700</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-61237.91574084849</v>
+        <v>-765986.0925968387</v>
       </c>
       <c r="E28" t="n">
-        <v>1171384.942780828</v>
+        <v>-620286.0925968387</v>
       </c>
     </row>
     <row r="29">
@@ -4376,16 +4376,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>1319488.458135607</v>
+        <v>155700</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-61237.91574084849</v>
+        <v>-865986.0925968387</v>
       </c>
       <c r="E29" t="n">
-        <v>1258250.542394758</v>
+        <v>-710286.0925968387</v>
       </c>
     </row>
     <row r="30">
@@ -4393,16 +4393,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>1406354.057749538</v>
+        <v>165700</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-61237.91574084849</v>
+        <v>-965986.0925968387</v>
       </c>
       <c r="E30" t="n">
-        <v>1345116.142008689</v>
+        <v>-800286.0925968387</v>
       </c>
     </row>
     <row r="31">
@@ -4410,16 +4410,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>1493219.657363468</v>
+        <v>175700</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-61237.91574084849</v>
+        <v>-1065986.092596839</v>
       </c>
       <c r="E31" t="n">
-        <v>1431981.74162262</v>
+        <v>-890286.0925968387</v>
       </c>
     </row>
     <row r="32">
@@ -4427,16 +4427,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>1580085.256977399</v>
+        <v>185700</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-61237.91574084849</v>
+        <v>-1165986.092596839</v>
       </c>
       <c r="E32" t="n">
-        <v>1518847.34123655</v>
+        <v>-980286.0925968387</v>
       </c>
     </row>
   </sheetData>
@@ -4490,16 +4490,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-1025882.731440521</v>
+        <v>-114300</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>340917.638027349</v>
+        <v>-365986.0925968389</v>
       </c>
       <c r="E2" t="n">
-        <v>-684965.0934131721</v>
+        <v>-480286.0925968389</v>
       </c>
     </row>
     <row r="3">
@@ -4507,16 +4507,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-939017.1318265903</v>
+        <v>-104300</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>340917.638027349</v>
+        <v>-315986.0925968389</v>
       </c>
       <c r="E3" t="n">
-        <v>-598099.4937992413</v>
+        <v>-420286.0925968389</v>
       </c>
     </row>
     <row r="4">
@@ -4524,16 +4524,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-852151.5322126596</v>
+        <v>-94300</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>340917.638027349</v>
+        <v>-265986.0925968389</v>
       </c>
       <c r="E4" t="n">
-        <v>-511233.8941853106</v>
+        <v>-360286.0925968389</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-765285.932598729</v>
+        <v>-84300</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>340917.638027349</v>
+        <v>-215986.0925968389</v>
       </c>
       <c r="E5" t="n">
-        <v>-424368.29457138</v>
+        <v>-300286.0925968389</v>
       </c>
     </row>
     <row r="6">
@@ -4558,16 +4558,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>-678420.3329847984</v>
+        <v>-74300</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>340917.638027349</v>
+        <v>-165986.0925968389</v>
       </c>
       <c r="E6" t="n">
-        <v>-337502.6949574493</v>
+        <v>-240286.0925968389</v>
       </c>
     </row>
     <row r="7">
@@ -4575,16 +4575,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-591554.7333708677</v>
+        <v>-64300</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>340917.638027349</v>
+        <v>-115986.0925968389</v>
       </c>
       <c r="E7" t="n">
-        <v>-250637.0953435187</v>
+        <v>-180286.0925968389</v>
       </c>
     </row>
     <row r="8">
@@ -4592,16 +4592,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-504689.1337569371</v>
+        <v>-54300</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>260486.5272737095</v>
+        <v>-65986.09259683892</v>
       </c>
       <c r="E8" t="n">
-        <v>-244202.6064832275</v>
+        <v>-120286.0925968389</v>
       </c>
     </row>
     <row r="9">
@@ -4609,16 +4609,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-417823.5341430064</v>
+        <v>-44300</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>180055.41652007</v>
+        <v>-15986.09259683892</v>
       </c>
       <c r="E9" t="n">
-        <v>-237768.1176229363</v>
+        <v>-60286.09259683892</v>
       </c>
     </row>
     <row r="10">
@@ -4626,16 +4626,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-330957.9345290757</v>
+        <v>-34300</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>99624.30576643051</v>
+        <v>-65986.09259683892</v>
       </c>
       <c r="E10" t="n">
-        <v>-231333.6287626452</v>
+        <v>-100286.0925968389</v>
       </c>
     </row>
     <row r="11">
@@ -4643,16 +4643,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>-244092.3349151451</v>
+        <v>-24300</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>19193.19501279101</v>
+        <v>-115986.0925968389</v>
       </c>
       <c r="E11" t="n">
-        <v>-224899.139902354</v>
+        <v>-140286.0925968389</v>
       </c>
     </row>
     <row r="12">
@@ -4660,16 +4660,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>-157226.7353012144</v>
+        <v>-14300</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-61237.91574084849</v>
+        <v>-165986.0925968389</v>
       </c>
       <c r="E12" t="n">
-        <v>-218464.6510420629</v>
+        <v>-180286.0925968389</v>
       </c>
     </row>
     <row r="13">
@@ -4677,16 +4677,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>-70361.13568728374</v>
+        <v>-4299.999999999997</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-61237.91574084849</v>
+        <v>-65986.09259683892</v>
       </c>
       <c r="E13" t="n">
-        <v>-131599.0514281322</v>
+        <v>-70286.09259683892</v>
       </c>
     </row>
     <row r="14">
@@ -4694,16 +4694,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>16504.46392664694</v>
+        <v>5700.000000000003</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-61237.91574084849</v>
+        <v>34013.90740316109</v>
       </c>
       <c r="E14" t="n">
-        <v>-44733.45181420155</v>
+        <v>39713.90740316109</v>
       </c>
     </row>
     <row r="15">
@@ -4711,16 +4711,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>103370.0635405776</v>
+        <v>15700</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-61237.91574084849</v>
+        <v>134013.9074031611</v>
       </c>
       <c r="E15" t="n">
-        <v>42132.14779972911</v>
+        <v>149713.9074031611</v>
       </c>
     </row>
     <row r="16">
@@ -4728,16 +4728,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>190235.6631545083</v>
+        <v>25700</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-61237.91574084849</v>
+        <v>234013.9074031611</v>
       </c>
       <c r="E16" t="n">
-        <v>128997.7474136598</v>
+        <v>259713.9074031611</v>
       </c>
     </row>
     <row r="17">
@@ -4745,16 +4745,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>277101.2627684389</v>
+        <v>35700</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-61237.91574084849</v>
+        <v>334013.9074031611</v>
       </c>
       <c r="E17" t="n">
-        <v>215863.3470275904</v>
+        <v>369713.9074031611</v>
       </c>
     </row>
     <row r="18">
@@ -4762,16 +4762,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>363966.8623823696</v>
+        <v>45700</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-61237.91574084849</v>
+        <v>234013.9074031611</v>
       </c>
       <c r="E18" t="n">
-        <v>302728.9466415211</v>
+        <v>279713.9074031611</v>
       </c>
     </row>
     <row r="19">
@@ -4779,16 +4779,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>450832.4619963002</v>
+        <v>55700</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-61237.91574084849</v>
+        <v>134013.9074031611</v>
       </c>
       <c r="E19" t="n">
-        <v>389594.5462554517</v>
+        <v>189713.9074031611</v>
       </c>
     </row>
     <row r="20">
@@ -4796,16 +4796,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>537698.0616102309</v>
+        <v>65700</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-61237.91574084849</v>
+        <v>34013.90740316111</v>
       </c>
       <c r="E20" t="n">
-        <v>476460.1458693824</v>
+        <v>99713.90740316111</v>
       </c>
     </row>
     <row r="21">
@@ -4813,16 +4813,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>624563.6612241615</v>
+        <v>75700</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-61237.91574084849</v>
+        <v>-65986.09259683883</v>
       </c>
       <c r="E21" t="n">
-        <v>563325.745483313</v>
+        <v>9713.907403161167</v>
       </c>
     </row>
     <row r="22">
@@ -4830,16 +4830,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>711429.2608380922</v>
+        <v>85700</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-61237.91574084849</v>
+        <v>-165986.0925968388</v>
       </c>
       <c r="E22" t="n">
-        <v>650191.3450972437</v>
+        <v>-80286.09259683883</v>
       </c>
     </row>
     <row r="23">
@@ -4847,16 +4847,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>798294.8604520229</v>
+        <v>95700</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-61237.91574084849</v>
+        <v>-265986.0925968388</v>
       </c>
       <c r="E23" t="n">
-        <v>737056.9447111744</v>
+        <v>-170286.0925968388</v>
       </c>
     </row>
     <row r="24">
@@ -4864,16 +4864,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>885160.4600659537</v>
+        <v>105700</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-61237.91574084849</v>
+        <v>-365986.0925968388</v>
       </c>
       <c r="E24" t="n">
-        <v>823922.5443251051</v>
+        <v>-260286.0925968388</v>
       </c>
     </row>
     <row r="25">
@@ -4881,16 +4881,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>972026.0596798842</v>
+        <v>115700</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-61237.91574084849</v>
+        <v>-465986.0925968388</v>
       </c>
       <c r="E25" t="n">
-        <v>910788.1439390357</v>
+        <v>-350286.0925968388</v>
       </c>
     </row>
     <row r="26">
@@ -4898,16 +4898,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>1058891.659293815</v>
+        <v>125700</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-61237.91574084849</v>
+        <v>-565986.0925968387</v>
       </c>
       <c r="E26" t="n">
-        <v>997653.7435529665</v>
+        <v>-440286.0925968387</v>
       </c>
     </row>
     <row r="27">
@@ -4915,16 +4915,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>1145757.258907746</v>
+        <v>135700</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-61237.91574084849</v>
+        <v>-665986.0925968387</v>
       </c>
       <c r="E27" t="n">
-        <v>1084519.343166897</v>
+        <v>-530286.0925968387</v>
       </c>
     </row>
     <row r="28">
@@ -4932,16 +4932,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>1232622.858521676</v>
+        <v>145700</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-61237.91574084849</v>
+        <v>-765986.0925968387</v>
       </c>
       <c r="E28" t="n">
-        <v>1171384.942780828</v>
+        <v>-620286.0925968387</v>
       </c>
     </row>
     <row r="29">
@@ -4949,16 +4949,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>1319488.458135607</v>
+        <v>155700</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-61237.91574084849</v>
+        <v>-865986.0925968387</v>
       </c>
       <c r="E29" t="n">
-        <v>1258250.542394758</v>
+        <v>-710286.0925968387</v>
       </c>
     </row>
     <row r="30">
@@ -4966,16 +4966,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>1406354.057749538</v>
+        <v>165700</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-61237.91574084849</v>
+        <v>-965986.0925968387</v>
       </c>
       <c r="E30" t="n">
-        <v>1345116.142008689</v>
+        <v>-800286.0925968387</v>
       </c>
     </row>
     <row r="31">
@@ -4983,16 +4983,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>1493219.657363468</v>
+        <v>175700</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-61237.91574084849</v>
+        <v>-1065986.092596839</v>
       </c>
       <c r="E31" t="n">
-        <v>1431981.74162262</v>
+        <v>-890286.0925968387</v>
       </c>
     </row>
     <row r="32">
@@ -5000,16 +5000,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>1580085.256977399</v>
+        <v>185700</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-61237.91574084849</v>
+        <v>-1165986.092596839</v>
       </c>
       <c r="E32" t="n">
-        <v>1518847.34123655</v>
+        <v>-980286.0925968387</v>
       </c>
     </row>
   </sheetData>

--- a/RGGI PnL Output.xlsx
+++ b/RGGI PnL Output.xlsx
@@ -479,16 +479,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-114300</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-362229.5502555167</v>
+        <v>-608015.4219922652</v>
       </c>
       <c r="E2" t="n">
-        <v>-476529.5502555167</v>
+        <v>-608015.4219922652</v>
       </c>
     </row>
     <row r="3">
@@ -496,16 +496,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-104300</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-316386.8147894829</v>
+        <v>-517084.9190198983</v>
       </c>
       <c r="E3" t="n">
-        <v>-420686.8147894829</v>
+        <v>-517084.9190198983</v>
       </c>
     </row>
     <row r="4">
@@ -513,16 +513,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-94300</v>
+        <v>-0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-273864.5940455671</v>
+        <v>-433850.8881261189</v>
       </c>
       <c r="E4" t="n">
-        <v>-368164.5940455671</v>
+        <v>-433850.8881261189</v>
       </c>
     </row>
     <row r="5">
@@ -530,16 +530,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-84300</v>
+        <v>-0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-235240.249646235</v>
+        <v>-360371.4899629905</v>
       </c>
       <c r="E5" t="n">
-        <v>-319540.249646235</v>
+        <v>-360371.4899629905</v>
       </c>
     </row>
     <row r="6">
@@ -547,16 +547,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>-74300</v>
+        <v>-0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-200309.2890722251</v>
+        <v>-297339.527727391</v>
       </c>
       <c r="E6" t="n">
-        <v>-274609.2890722251</v>
+        <v>-297339.527727391</v>
       </c>
     </row>
     <row r="7">
@@ -564,16 +564,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-64300</v>
+        <v>-0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-168130.5583429246</v>
+        <v>-243851.8482833975</v>
       </c>
       <c r="E7" t="n">
-        <v>-232430.5583429246</v>
+        <v>-243851.8482833975</v>
       </c>
     </row>
     <row r="8">
@@ -581,16 +581,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-54300</v>
+        <v>-0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-137437.0115647068</v>
+        <v>-197819.4863662811</v>
       </c>
       <c r="E8" t="n">
-        <v>-191737.0115647068</v>
+        <v>-197819.4863662811</v>
       </c>
     </row>
     <row r="9">
@@ -598,16 +598,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-44300</v>
+        <v>-0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-107226.0456992088</v>
+        <v>-156820.6600252705</v>
       </c>
       <c r="E9" t="n">
-        <v>-151526.0456992087</v>
+        <v>-156820.6600252705</v>
       </c>
     </row>
     <row r="10">
@@ -615,16 +615,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-34300</v>
+        <v>-0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-77273.22116595269</v>
+        <v>-119028.6832030883</v>
       </c>
       <c r="E10" t="n">
-        <v>-111573.2211659527</v>
+        <v>-119028.6832030883</v>
       </c>
     </row>
     <row r="11">
@@ -632,16 +632,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>-24300</v>
+        <v>-0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-48376.0073459126</v>
+        <v>-83863.9511884173</v>
       </c>
       <c r="E11" t="n">
-        <v>-72676.0073459126</v>
+        <v>-83863.9511884173</v>
       </c>
     </row>
     <row r="12">
@@ -649,16 +649,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>-14300</v>
+        <v>-0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-22269.09823005228</v>
+        <v>-52175.86916700007</v>
       </c>
       <c r="E12" t="n">
-        <v>-36569.09823005227</v>
+        <v>-52175.86916700007</v>
       </c>
     </row>
     <row r="13">
@@ -666,16 +666,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>-4299.999999999997</v>
+        <v>-0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-1281.608217255403</v>
+        <v>-25963.49722273639</v>
       </c>
       <c r="E13" t="n">
-        <v>-5581.608217255401</v>
+        <v>-25963.49722273639</v>
       </c>
     </row>
     <row r="14">
@@ -683,16 +683,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>5700.000000000003</v>
+        <v>-0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>12122.69383211937</v>
+        <v>-7801.011206403011</v>
       </c>
       <c r="E14" t="n">
-        <v>17822.69383211937</v>
+        <v>-7801.011206403011</v>
       </c>
     </row>
     <row r="15">
@@ -700,16 +700,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>15700</v>
+        <v>-0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>15778.33989290365</v>
+        <v>-194.3746579362669</v>
       </c>
       <c r="E15" t="n">
-        <v>31478.33989290365</v>
+        <v>-194.3746579362669</v>
       </c>
     </row>
     <row r="16">
@@ -717,16 +717,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>25700</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>8125.315202389582</v>
+        <v>-5061.328461508921</v>
       </c>
       <c r="E16" t="n">
-        <v>33825.31520238958</v>
+        <v>-5061.328461508921</v>
       </c>
     </row>
     <row r="17">
@@ -734,16 +734,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>35700</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-11647.84842292179</v>
+        <v>-23438.50359991641</v>
       </c>
       <c r="E17" t="n">
-        <v>24052.15157707821</v>
+        <v>-23438.50359991641</v>
       </c>
     </row>
     <row r="18">
@@ -751,16 +751,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>45700</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-43611.85883748991</v>
+        <v>-55425.98914322729</v>
       </c>
       <c r="E18" t="n">
-        <v>2088.141162510088</v>
+        <v>-55425.98914322729</v>
       </c>
     </row>
     <row r="19">
@@ -768,16 +768,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>55700</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-87212.08521065599</v>
+        <v>-100314.5082275465</v>
       </c>
       <c r="E19" t="n">
-        <v>-31512.08521065599</v>
+        <v>-100314.5082275465</v>
       </c>
     </row>
     <row r="20">
@@ -785,16 +785,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>65700</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-141439.9160921394</v>
+        <v>-156813.9109880786</v>
       </c>
       <c r="E20" t="n">
-        <v>-75739.91609213944</v>
+        <v>-156813.9109880786</v>
       </c>
     </row>
     <row r="21">
@@ -802,16 +802,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>75700</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-205015.0966406</v>
+        <v>-223306.8687323929</v>
       </c>
       <c r="E21" t="n">
-        <v>-129315.0966406</v>
+        <v>-223306.8687323929</v>
       </c>
     </row>
     <row r="22">
@@ -819,16 +819,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>85700</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-276548.0564466503</v>
+        <v>-298074.018137013</v>
       </c>
       <c r="E22" t="n">
-        <v>-190848.0564466503</v>
+        <v>-298074.018137013</v>
       </c>
     </row>
     <row r="23">
@@ -836,16 +836,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>95700</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-354666.05884465</v>
+        <v>-379462.9524502808</v>
       </c>
       <c r="E23" t="n">
-        <v>-258966.05884465</v>
+        <v>-379462.9524502808</v>
       </c>
     </row>
     <row r="24">
@@ -853,16 +853,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>105700</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-438098.9712516114</v>
+        <v>-465994.9563738405</v>
       </c>
       <c r="E24" t="n">
-        <v>-332398.9712516114</v>
+        <v>-465994.9563738405</v>
       </c>
     </row>
     <row r="25">
@@ -870,16 +870,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>115700</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-525728.2701677026</v>
+        <v>-556417.024956425</v>
       </c>
       <c r="E25" t="n">
-        <v>-410028.2701677026</v>
+        <v>-556417.024956425</v>
       </c>
     </row>
     <row r="26">
@@ -887,16 +887,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>125700</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-616606.8168749069</v>
+        <v>-649712.8970714979</v>
       </c>
       <c r="E26" t="n">
-        <v>-490906.8168749069</v>
+        <v>-649712.8970714979</v>
       </c>
     </row>
     <row r="27">
@@ -904,16 +904,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>135700</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-709957.9628759634</v>
+        <v>-745087.6603309007</v>
       </c>
       <c r="E27" t="n">
-        <v>-574257.9628759634</v>
+        <v>-745087.6603309007</v>
       </c>
     </row>
     <row r="28">
@@ -921,16 +921,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>145700</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-805161.7933092059</v>
+        <v>-841938.2999796742</v>
       </c>
       <c r="E28" t="n">
-        <v>-659461.7933092059</v>
+        <v>-841938.2999796742</v>
       </c>
     </row>
     <row r="29">
@@ -938,16 +938,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>155700</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-901734.7313579633</v>
+        <v>-939819.2437144688</v>
       </c>
       <c r="E29" t="n">
-        <v>-746034.7313579633</v>
+        <v>-939819.2437144688</v>
       </c>
     </row>
     <row r="30">
@@ -955,16 +955,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>165700</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-999306.9524025458</v>
+        <v>-1038408.679978609</v>
       </c>
       <c r="E30" t="n">
-        <v>-833606.9524025458</v>
+        <v>-1038408.679978609</v>
       </c>
     </row>
     <row r="31">
@@ -972,16 +972,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>175700</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-1097600.460763367</v>
+        <v>-1137478.773892827</v>
       </c>
       <c r="E31" t="n">
-        <v>-921900.4607633674</v>
+        <v>-1137478.773892827</v>
       </c>
     </row>
     <row r="32">
@@ -989,16 +989,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>185700</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-1196409.422466083</v>
+        <v>-1236871.030688924</v>
       </c>
       <c r="E32" t="n">
-        <v>-1010709.422466083</v>
+        <v>-1236871.030688924</v>
       </c>
     </row>
   </sheetData>
@@ -1052,16 +1052,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-114300</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-362255.8157459879</v>
+        <v>-607083.6711008861</v>
       </c>
       <c r="E2" t="n">
-        <v>-476555.8157459879</v>
+        <v>-607083.6711008861</v>
       </c>
     </row>
     <row r="3">
@@ -1069,16 +1069,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-104300</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-314019.5161553635</v>
+        <v>-513134.2711006302</v>
       </c>
       <c r="E3" t="n">
-        <v>-418319.5161553635</v>
+        <v>-513134.2711006302</v>
       </c>
     </row>
     <row r="4">
@@ -1086,16 +1086,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-94300</v>
+        <v>-0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-268375.3641774958</v>
+        <v>-425976.0834276862</v>
       </c>
       <c r="E4" t="n">
-        <v>-362675.3641774958</v>
+        <v>-425976.0834276862</v>
       </c>
     </row>
     <row r="5">
@@ -1103,16 +1103,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-84300</v>
+        <v>-0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-226905.086325486</v>
+        <v>-348611.2604175693</v>
       </c>
       <c r="E5" t="n">
-        <v>-311205.086325486</v>
+        <v>-348611.2604175693</v>
       </c>
     </row>
     <row r="6">
@@ -1120,16 +1120,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>-74300</v>
+        <v>-0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-190667.8280504309</v>
+        <v>-282895.109783117</v>
       </c>
       <c r="E6" t="n">
-        <v>-264967.8280504309</v>
+        <v>-282895.109783117</v>
       </c>
     </row>
     <row r="7">
@@ -1137,16 +1137,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-64300</v>
+        <v>-0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-159486.7282174463</v>
+        <v>-228726.0663800151</v>
       </c>
       <c r="E7" t="n">
-        <v>-223786.7282174463</v>
+        <v>-228726.0663800151</v>
       </c>
     </row>
     <row r="8">
@@ -1154,16 +1154,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-54300</v>
+        <v>-0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-131771.0583102793</v>
+        <v>-184038.9964947673</v>
       </c>
       <c r="E8" t="n">
-        <v>-186071.0583102793</v>
+        <v>-184038.9964947673</v>
       </c>
     </row>
     <row r="9">
@@ -1171,16 +1171,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-44300</v>
+        <v>-0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-105082.0391262707</v>
+        <v>-145624.876701955</v>
       </c>
       <c r="E9" t="n">
-        <v>-149382.0391262707</v>
+        <v>-145624.876701955</v>
       </c>
     </row>
     <row r="10">
@@ -1188,16 +1188,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-34300</v>
+        <v>-0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-77207.46105637682</v>
+        <v>-110397.4030100309</v>
       </c>
       <c r="E10" t="n">
-        <v>-111507.4610563768</v>
+        <v>-110397.4030100309</v>
       </c>
     </row>
     <row r="11">
@@ -1205,16 +1205,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>-24300</v>
+        <v>-0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-47235.63357143544</v>
+        <v>-76564.0796859269</v>
       </c>
       <c r="E11" t="n">
-        <v>-71535.63357143544</v>
+        <v>-76564.0796859269</v>
       </c>
     </row>
     <row r="12">
@@ -1222,16 +1222,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>-14300</v>
+        <v>-0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-16148.7266899066</v>
+        <v>-44259.8497388644</v>
       </c>
       <c r="E12" t="n">
-        <v>-30448.7266899066</v>
+        <v>-44259.8497388644</v>
       </c>
     </row>
     <row r="13">
@@ -1239,16 +1239,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>-4299.999999999997</v>
+        <v>-0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>13279.6784891942</v>
+        <v>-15471.79102937753</v>
       </c>
       <c r="E13" t="n">
-        <v>8979.678489194204</v>
+        <v>-15471.79102937753</v>
       </c>
     </row>
     <row r="14">
@@ -1256,16 +1256,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>5700.000000000003</v>
+        <v>-0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>37175.78860599251</v>
+        <v>6620.580257377544</v>
       </c>
       <c r="E14" t="n">
-        <v>42875.78860599251</v>
+        <v>6620.580257377544</v>
       </c>
     </row>
     <row r="15">
@@ -1273,16 +1273,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>15700</v>
+        <v>-0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>51524.68683535456</v>
+        <v>18573.73569487785</v>
       </c>
       <c r="E15" t="n">
-        <v>67224.68683535456</v>
+        <v>18573.73569487785</v>
       </c>
     </row>
     <row r="16">
@@ -1290,16 +1290,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>25700</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>53043.20584564193</v>
+        <v>17534.74941317584</v>
       </c>
       <c r="E16" t="n">
-        <v>78743.20584564193</v>
+        <v>17534.74941317584</v>
       </c>
     </row>
     <row r="17">
@@ -1307,16 +1307,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>35700</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>39726.4466025084</v>
+        <v>1788.208730146667</v>
       </c>
       <c r="E17" t="n">
-        <v>75426.4466025084</v>
+        <v>1788.208730146667</v>
       </c>
     </row>
     <row r="18">
@@ -1324,16 +1324,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>45700</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>10997.86332893622</v>
+        <v>-29076.39816945436</v>
       </c>
       <c r="E18" t="n">
-        <v>56697.86332893622</v>
+        <v>-29076.39816945436</v>
       </c>
     </row>
     <row r="19">
@@ -1341,16 +1341,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>55700</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-32466.58737510949</v>
+        <v>-74313.05541229132</v>
       </c>
       <c r="E19" t="n">
-        <v>23233.41262489051</v>
+        <v>-74313.05541229132</v>
       </c>
     </row>
     <row r="20">
@@ -1358,16 +1358,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>65700</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-89100.71011467336</v>
+        <v>-132351.4275373007</v>
       </c>
       <c r="E20" t="n">
-        <v>-23400.71011467336</v>
+        <v>-132351.4275373007</v>
       </c>
     </row>
     <row r="21">
@@ -1375,16 +1375,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>75700</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-156856.7828819193</v>
+        <v>-201178.655513344</v>
       </c>
       <c r="E21" t="n">
-        <v>-81156.78288191929</v>
+        <v>-201178.655513344</v>
       </c>
     </row>
     <row r="22">
@@ -1392,16 +1392,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>85700</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-233561.2209575579</v>
+        <v>-278674.2058496354</v>
       </c>
       <c r="E22" t="n">
-        <v>-147861.2209575579</v>
+        <v>-278674.2058496354</v>
       </c>
     </row>
     <row r="23">
@@ -1409,16 +1409,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>95700</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-317168.8684069329</v>
+        <v>-362850.05187899</v>
       </c>
       <c r="E23" t="n">
-        <v>-221468.8684069329</v>
+        <v>-362850.05187899</v>
       </c>
     </row>
     <row r="24">
@@ -1426,16 +1426,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>105700</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-405909.4375050354</v>
+        <v>-451988.8435148868</v>
       </c>
       <c r="E24" t="n">
-        <v>-300209.4375050354</v>
+        <v>-451988.8435148868</v>
       </c>
     </row>
     <row r="25">
@@ -1443,16 +1443,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>115700</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-498344.576494629</v>
+        <v>-544697.0677849774</v>
       </c>
       <c r="E25" t="n">
-        <v>-382644.576494629</v>
+        <v>-544697.0677849774</v>
       </c>
     </row>
     <row r="26">
@@ -1460,16 +1460,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>125700</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-593363.3967805482</v>
+        <v>-639899.5248764256</v>
       </c>
       <c r="E26" t="n">
-        <v>-467663.3967805482</v>
+        <v>-639899.5248764256</v>
       </c>
     </row>
     <row r="27">
@@ -1477,16 +1477,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>135700</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-690143.1947411706</v>
+        <v>-736800.6195874116</v>
       </c>
       <c r="E27" t="n">
-        <v>-554443.1947411706</v>
+        <v>-736800.6195874116</v>
       </c>
     </row>
     <row r="28">
@@ -1494,16 +1494,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>145700</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-788095.9747245209</v>
+        <v>-834832.1990431675</v>
       </c>
       <c r="E28" t="n">
-        <v>-642395.9747245209</v>
+        <v>-834832.1990431675</v>
       </c>
     </row>
     <row r="29">
@@ -1511,16 +1511,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>155700</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-886814.1500045825</v>
+        <v>-933600.7666792932</v>
       </c>
       <c r="E29" t="n">
-        <v>-731114.1500045825</v>
+        <v>-933600.7666792932</v>
       </c>
     </row>
     <row r="30">
@@ -1528,16 +1528,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>165700</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-986022.6095691831</v>
+        <v>-1032840.964115012</v>
       </c>
       <c r="E30" t="n">
-        <v>-820322.6095691831</v>
+        <v>-1032840.964115012</v>
       </c>
     </row>
     <row r="31">
@@ -1545,16 +1545,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>175700</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-1085539.945421518</v>
+        <v>-1132377.986627994</v>
       </c>
       <c r="E31" t="n">
-        <v>-909839.9454215176</v>
+        <v>-1132377.986627994</v>
       </c>
     </row>
     <row r="32">
@@ -1562,16 +1562,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>185700</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-1185248.977442214</v>
+        <v>-1232099.039241985</v>
       </c>
       <c r="E32" t="n">
-        <v>-999548.9774422136</v>
+        <v>-1232099.039241985</v>
       </c>
     </row>
   </sheetData>
@@ -1625,16 +1625,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-114300</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-365986.0925968389</v>
+        <v>-612852.6396494271</v>
       </c>
       <c r="E2" t="n">
-        <v>-480286.0925968389</v>
+        <v>-612852.6396494271</v>
       </c>
     </row>
     <row r="3">
@@ -1642,16 +1642,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-104300</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-315986.0925968389</v>
+        <v>-512852.6396494271</v>
       </c>
       <c r="E3" t="n">
-        <v>-420286.0925968389</v>
+        <v>-512852.6396494271</v>
       </c>
     </row>
     <row r="4">
@@ -1659,16 +1659,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-94300</v>
+        <v>-0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-265986.0925968389</v>
+        <v>-412852.6396494271</v>
       </c>
       <c r="E4" t="n">
-        <v>-360286.0925968389</v>
+        <v>-412852.6396494271</v>
       </c>
     </row>
     <row r="5">
@@ -1676,16 +1676,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-84300</v>
+        <v>-0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-215986.0925968389</v>
+        <v>-312852.6396494273</v>
       </c>
       <c r="E5" t="n">
-        <v>-300286.0925968389</v>
+        <v>-312852.6396494273</v>
       </c>
     </row>
     <row r="6">
@@ -1693,16 +1693,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>-74300</v>
+        <v>-0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-165986.0925968389</v>
+        <v>-212852.6396494273</v>
       </c>
       <c r="E6" t="n">
-        <v>-240286.0925968389</v>
+        <v>-212852.6396494273</v>
       </c>
     </row>
     <row r="7">
@@ -1710,16 +1710,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-64300</v>
+        <v>-0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-115986.0925968389</v>
+        <v>-112852.6396494273</v>
       </c>
       <c r="E7" t="n">
-        <v>-180286.0925968389</v>
+        <v>-112852.6396494273</v>
       </c>
     </row>
     <row r="8">
@@ -1727,16 +1727,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-54300</v>
+        <v>-0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-65986.09259683892</v>
+        <v>-12852.63964942723</v>
       </c>
       <c r="E8" t="n">
-        <v>-120286.0925968389</v>
+        <v>-12852.63964942723</v>
       </c>
     </row>
     <row r="9">
@@ -1744,16 +1744,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-44300</v>
+        <v>-0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-15986.09259683892</v>
+        <v>87147.36035057277</v>
       </c>
       <c r="E9" t="n">
-        <v>-60286.09259683892</v>
+        <v>87147.36035057277</v>
       </c>
     </row>
     <row r="10">
@@ -1761,16 +1761,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-34300</v>
+        <v>-0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-65986.09259683892</v>
+        <v>-12852.63964942723</v>
       </c>
       <c r="E10" t="n">
-        <v>-100286.0925968389</v>
+        <v>-12852.63964942723</v>
       </c>
     </row>
     <row r="11">
@@ -1778,16 +1778,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>-24300</v>
+        <v>-0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-115986.0925968389</v>
+        <v>-112852.6396494272</v>
       </c>
       <c r="E11" t="n">
-        <v>-140286.0925968389</v>
+        <v>-112852.6396494272</v>
       </c>
     </row>
     <row r="12">
@@ -1795,16 +1795,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>-14300</v>
+        <v>-0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-165986.0925968389</v>
+        <v>-212852.6396494272</v>
       </c>
       <c r="E12" t="n">
-        <v>-180286.0925968389</v>
+        <v>-212852.6396494272</v>
       </c>
     </row>
     <row r="13">
@@ -1812,16 +1812,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>-4299.999999999997</v>
+        <v>-0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-65986.09259683892</v>
+        <v>-112852.6396494272</v>
       </c>
       <c r="E13" t="n">
-        <v>-70286.09259683892</v>
+        <v>-112852.6396494272</v>
       </c>
     </row>
     <row r="14">
@@ -1829,16 +1829,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>5700.000000000003</v>
+        <v>-0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>34013.90740316109</v>
+        <v>-12852.6396494272</v>
       </c>
       <c r="E14" t="n">
-        <v>39713.90740316109</v>
+        <v>-12852.6396494272</v>
       </c>
     </row>
     <row r="15">
@@ -1846,16 +1846,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>15700</v>
+        <v>-0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>134013.9074031611</v>
+        <v>87147.3603505728</v>
       </c>
       <c r="E15" t="n">
-        <v>149713.9074031611</v>
+        <v>87147.3603505728</v>
       </c>
     </row>
     <row r="16">
@@ -1863,16 +1863,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>25700</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>234013.9074031611</v>
+        <v>187147.3603505728</v>
       </c>
       <c r="E16" t="n">
-        <v>259713.9074031611</v>
+        <v>187147.3603505728</v>
       </c>
     </row>
     <row r="17">
@@ -1880,16 +1880,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>35700</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>334013.9074031611</v>
+        <v>287147.3603505728</v>
       </c>
       <c r="E17" t="n">
-        <v>369713.9074031611</v>
+        <v>287147.3603505728</v>
       </c>
     </row>
     <row r="18">
@@ -1897,16 +1897,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>45700</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>234013.9074031611</v>
+        <v>187147.3603505728</v>
       </c>
       <c r="E18" t="n">
-        <v>279713.9074031611</v>
+        <v>187147.3603505728</v>
       </c>
     </row>
     <row r="19">
@@ -1914,16 +1914,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>55700</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>134013.9074031611</v>
+        <v>87147.3603505728</v>
       </c>
       <c r="E19" t="n">
-        <v>189713.9074031611</v>
+        <v>87147.3603505728</v>
       </c>
     </row>
     <row r="20">
@@ -1931,16 +1931,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>65700</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>34013.90740316111</v>
+        <v>-12852.6396494272</v>
       </c>
       <c r="E20" t="n">
-        <v>99713.90740316111</v>
+        <v>-12852.6396494272</v>
       </c>
     </row>
     <row r="21">
@@ -1948,16 +1948,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>75700</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-65986.09259683883</v>
+        <v>-112852.6396494273</v>
       </c>
       <c r="E21" t="n">
-        <v>9713.907403161167</v>
+        <v>-112852.6396494273</v>
       </c>
     </row>
     <row r="22">
@@ -1965,16 +1965,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>85700</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-165986.0925968388</v>
+        <v>-212852.6396494274</v>
       </c>
       <c r="E22" t="n">
-        <v>-80286.09259683883</v>
+        <v>-212852.6396494274</v>
       </c>
     </row>
     <row r="23">
@@ -1982,16 +1982,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>95700</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-265986.0925968388</v>
+        <v>-312852.6396494274</v>
       </c>
       <c r="E23" t="n">
-        <v>-170286.0925968388</v>
+        <v>-312852.6396494274</v>
       </c>
     </row>
     <row r="24">
@@ -1999,16 +1999,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>105700</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-365986.0925968388</v>
+        <v>-412852.6396494274</v>
       </c>
       <c r="E24" t="n">
-        <v>-260286.0925968388</v>
+        <v>-412852.6396494274</v>
       </c>
     </row>
     <row r="25">
@@ -2016,16 +2016,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>115700</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-465986.0925968388</v>
+        <v>-512852.6396494274</v>
       </c>
       <c r="E25" t="n">
-        <v>-350286.0925968388</v>
+        <v>-512852.6396494274</v>
       </c>
     </row>
     <row r="26">
@@ -2033,16 +2033,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>125700</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-565986.0925968387</v>
+        <v>-612852.6396494271</v>
       </c>
       <c r="E26" t="n">
-        <v>-440286.0925968387</v>
+        <v>-612852.6396494271</v>
       </c>
     </row>
     <row r="27">
@@ -2050,16 +2050,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>135700</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-665986.0925968387</v>
+        <v>-712852.639649427</v>
       </c>
       <c r="E27" t="n">
-        <v>-530286.0925968387</v>
+        <v>-712852.639649427</v>
       </c>
     </row>
     <row r="28">
@@ -2067,16 +2067,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>145700</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-765986.0925968387</v>
+        <v>-812852.639649427</v>
       </c>
       <c r="E28" t="n">
-        <v>-620286.0925968387</v>
+        <v>-812852.639649427</v>
       </c>
     </row>
     <row r="29">
@@ -2084,16 +2084,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>155700</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-865986.0925968387</v>
+        <v>-912852.639649427</v>
       </c>
       <c r="E29" t="n">
-        <v>-710286.0925968387</v>
+        <v>-912852.639649427</v>
       </c>
     </row>
     <row r="30">
@@ -2101,16 +2101,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>165700</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-965986.0925968387</v>
+        <v>-1012852.639649427</v>
       </c>
       <c r="E30" t="n">
-        <v>-800286.0925968387</v>
+        <v>-1012852.639649427</v>
       </c>
     </row>
     <row r="31">
@@ -2118,16 +2118,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>175700</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-1065986.092596839</v>
+        <v>-1112852.639649427</v>
       </c>
       <c r="E31" t="n">
-        <v>-890286.0925968387</v>
+        <v>-1112852.639649427</v>
       </c>
     </row>
     <row r="32">
@@ -2135,16 +2135,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>185700</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-1165986.092596839</v>
+        <v>-1212852.639649427</v>
       </c>
       <c r="E32" t="n">
-        <v>-980286.0925968387</v>
+        <v>-1212852.639649427</v>
       </c>
     </row>
   </sheetData>
@@ -2198,16 +2198,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-114300</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-365986.0925968389</v>
+        <v>-612852.6396494271</v>
       </c>
       <c r="E2" t="n">
-        <v>-480286.0925968389</v>
+        <v>-612852.6396494271</v>
       </c>
     </row>
     <row r="3">
@@ -2215,16 +2215,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-104300</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-315986.0925968389</v>
+        <v>-512852.6396494271</v>
       </c>
       <c r="E3" t="n">
-        <v>-420286.0925968389</v>
+        <v>-512852.6396494271</v>
       </c>
     </row>
     <row r="4">
@@ -2232,16 +2232,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-94300</v>
+        <v>-0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-265986.0925968389</v>
+        <v>-412852.6396494271</v>
       </c>
       <c r="E4" t="n">
-        <v>-360286.0925968389</v>
+        <v>-412852.6396494271</v>
       </c>
     </row>
     <row r="5">
@@ -2249,16 +2249,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-84300</v>
+        <v>-0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-215986.0925968389</v>
+        <v>-312852.6396494273</v>
       </c>
       <c r="E5" t="n">
-        <v>-300286.0925968389</v>
+        <v>-312852.6396494273</v>
       </c>
     </row>
     <row r="6">
@@ -2266,16 +2266,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>-74300</v>
+        <v>-0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-165986.0925968389</v>
+        <v>-212852.6396494273</v>
       </c>
       <c r="E6" t="n">
-        <v>-240286.0925968389</v>
+        <v>-212852.6396494273</v>
       </c>
     </row>
     <row r="7">
@@ -2283,16 +2283,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-64300</v>
+        <v>-0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-115986.0925968389</v>
+        <v>-112852.6396494273</v>
       </c>
       <c r="E7" t="n">
-        <v>-180286.0925968389</v>
+        <v>-112852.6396494273</v>
       </c>
     </row>
     <row r="8">
@@ -2300,16 +2300,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-54300</v>
+        <v>-0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-65986.09259683892</v>
+        <v>-12852.63964942723</v>
       </c>
       <c r="E8" t="n">
-        <v>-120286.0925968389</v>
+        <v>-12852.63964942723</v>
       </c>
     </row>
     <row r="9">
@@ -2317,16 +2317,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-44300</v>
+        <v>-0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-15986.09259683892</v>
+        <v>87147.36035057277</v>
       </c>
       <c r="E9" t="n">
-        <v>-60286.09259683892</v>
+        <v>87147.36035057277</v>
       </c>
     </row>
     <row r="10">
@@ -2334,16 +2334,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-34300</v>
+        <v>-0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-65986.09259683892</v>
+        <v>-12852.63964942723</v>
       </c>
       <c r="E10" t="n">
-        <v>-100286.0925968389</v>
+        <v>-12852.63964942723</v>
       </c>
     </row>
     <row r="11">
@@ -2351,16 +2351,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>-24300</v>
+        <v>-0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-115986.0925968389</v>
+        <v>-112852.6396494272</v>
       </c>
       <c r="E11" t="n">
-        <v>-140286.0925968389</v>
+        <v>-112852.6396494272</v>
       </c>
     </row>
     <row r="12">
@@ -2368,16 +2368,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>-14300</v>
+        <v>-0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-165986.0925968389</v>
+        <v>-212852.6396494272</v>
       </c>
       <c r="E12" t="n">
-        <v>-180286.0925968389</v>
+        <v>-212852.6396494272</v>
       </c>
     </row>
     <row r="13">
@@ -2385,16 +2385,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>-4299.999999999997</v>
+        <v>-0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-65986.09259683892</v>
+        <v>-112852.6396494272</v>
       </c>
       <c r="E13" t="n">
-        <v>-70286.09259683892</v>
+        <v>-112852.6396494272</v>
       </c>
     </row>
     <row r="14">
@@ -2402,16 +2402,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>5700.000000000003</v>
+        <v>-0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>34013.90740316109</v>
+        <v>-12852.6396494272</v>
       </c>
       <c r="E14" t="n">
-        <v>39713.90740316109</v>
+        <v>-12852.6396494272</v>
       </c>
     </row>
     <row r="15">
@@ -2419,16 +2419,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>15700</v>
+        <v>-0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>134013.9074031611</v>
+        <v>87147.3603505728</v>
       </c>
       <c r="E15" t="n">
-        <v>149713.9074031611</v>
+        <v>87147.3603505728</v>
       </c>
     </row>
     <row r="16">
@@ -2436,16 +2436,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>25700</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>234013.9074031611</v>
+        <v>187147.3603505728</v>
       </c>
       <c r="E16" t="n">
-        <v>259713.9074031611</v>
+        <v>187147.3603505728</v>
       </c>
     </row>
     <row r="17">
@@ -2453,16 +2453,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>35700</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>334013.9074031611</v>
+        <v>287147.3603505728</v>
       </c>
       <c r="E17" t="n">
-        <v>369713.9074031611</v>
+        <v>287147.3603505728</v>
       </c>
     </row>
     <row r="18">
@@ -2470,16 +2470,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>45700</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>234013.9074031611</v>
+        <v>187147.3603505728</v>
       </c>
       <c r="E18" t="n">
-        <v>279713.9074031611</v>
+        <v>187147.3603505728</v>
       </c>
     </row>
     <row r="19">
@@ -2487,16 +2487,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>55700</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>134013.9074031611</v>
+        <v>87147.3603505728</v>
       </c>
       <c r="E19" t="n">
-        <v>189713.9074031611</v>
+        <v>87147.3603505728</v>
       </c>
     </row>
     <row r="20">
@@ -2504,16 +2504,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>65700</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>34013.90740316111</v>
+        <v>-12852.6396494272</v>
       </c>
       <c r="E20" t="n">
-        <v>99713.90740316111</v>
+        <v>-12852.6396494272</v>
       </c>
     </row>
     <row r="21">
@@ -2521,16 +2521,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>75700</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-65986.09259683883</v>
+        <v>-112852.6396494273</v>
       </c>
       <c r="E21" t="n">
-        <v>9713.907403161167</v>
+        <v>-112852.6396494273</v>
       </c>
     </row>
     <row r="22">
@@ -2538,16 +2538,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>85700</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-165986.0925968388</v>
+        <v>-212852.6396494274</v>
       </c>
       <c r="E22" t="n">
-        <v>-80286.09259683883</v>
+        <v>-212852.6396494274</v>
       </c>
     </row>
     <row r="23">
@@ -2555,16 +2555,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>95700</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-265986.0925968388</v>
+        <v>-312852.6396494274</v>
       </c>
       <c r="E23" t="n">
-        <v>-170286.0925968388</v>
+        <v>-312852.6396494274</v>
       </c>
     </row>
     <row r="24">
@@ -2572,16 +2572,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>105700</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-365986.0925968388</v>
+        <v>-412852.6396494274</v>
       </c>
       <c r="E24" t="n">
-        <v>-260286.0925968388</v>
+        <v>-412852.6396494274</v>
       </c>
     </row>
     <row r="25">
@@ -2589,16 +2589,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>115700</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-465986.0925968388</v>
+        <v>-512852.6396494274</v>
       </c>
       <c r="E25" t="n">
-        <v>-350286.0925968388</v>
+        <v>-512852.6396494274</v>
       </c>
     </row>
     <row r="26">
@@ -2606,16 +2606,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>125700</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-565986.0925968387</v>
+        <v>-612852.6396494271</v>
       </c>
       <c r="E26" t="n">
-        <v>-440286.0925968387</v>
+        <v>-612852.6396494271</v>
       </c>
     </row>
     <row r="27">
@@ -2623,16 +2623,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>135700</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-665986.0925968387</v>
+        <v>-712852.639649427</v>
       </c>
       <c r="E27" t="n">
-        <v>-530286.0925968387</v>
+        <v>-712852.639649427</v>
       </c>
     </row>
     <row r="28">
@@ -2640,16 +2640,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>145700</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-765986.0925968387</v>
+        <v>-812852.639649427</v>
       </c>
       <c r="E28" t="n">
-        <v>-620286.0925968387</v>
+        <v>-812852.639649427</v>
       </c>
     </row>
     <row r="29">
@@ -2657,16 +2657,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>155700</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-865986.0925968387</v>
+        <v>-912852.639649427</v>
       </c>
       <c r="E29" t="n">
-        <v>-710286.0925968387</v>
+        <v>-912852.639649427</v>
       </c>
     </row>
     <row r="30">
@@ -2674,16 +2674,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>165700</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-965986.0925968387</v>
+        <v>-1012852.639649427</v>
       </c>
       <c r="E30" t="n">
-        <v>-800286.0925968387</v>
+        <v>-1012852.639649427</v>
       </c>
     </row>
     <row r="31">
@@ -2691,16 +2691,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>175700</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-1065986.092596839</v>
+        <v>-1112852.639649427</v>
       </c>
       <c r="E31" t="n">
-        <v>-890286.0925968387</v>
+        <v>-1112852.639649427</v>
       </c>
     </row>
     <row r="32">
@@ -2708,16 +2708,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>185700</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-1165986.092596839</v>
+        <v>-1212852.639649427</v>
       </c>
       <c r="E32" t="n">
-        <v>-980286.0925968387</v>
+        <v>-1212852.639649427</v>
       </c>
     </row>
   </sheetData>
@@ -2771,16 +2771,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-114300</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-365986.0925968389</v>
+        <v>-612852.6396494271</v>
       </c>
       <c r="E2" t="n">
-        <v>-480286.0925968389</v>
+        <v>-612852.6396494271</v>
       </c>
     </row>
     <row r="3">
@@ -2788,16 +2788,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-104300</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-315986.0925968389</v>
+        <v>-512852.6396494271</v>
       </c>
       <c r="E3" t="n">
-        <v>-420286.0925968389</v>
+        <v>-512852.6396494271</v>
       </c>
     </row>
     <row r="4">
@@ -2805,16 +2805,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-94300</v>
+        <v>-0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-265986.0925968389</v>
+        <v>-412852.6396494271</v>
       </c>
       <c r="E4" t="n">
-        <v>-360286.0925968389</v>
+        <v>-412852.6396494271</v>
       </c>
     </row>
     <row r="5">
@@ -2822,16 +2822,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-84300</v>
+        <v>-0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-215986.0925968389</v>
+        <v>-312852.6396494273</v>
       </c>
       <c r="E5" t="n">
-        <v>-300286.0925968389</v>
+        <v>-312852.6396494273</v>
       </c>
     </row>
     <row r="6">
@@ -2839,16 +2839,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>-74300</v>
+        <v>-0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-165986.0925968389</v>
+        <v>-212852.6396494273</v>
       </c>
       <c r="E6" t="n">
-        <v>-240286.0925968389</v>
+        <v>-212852.6396494273</v>
       </c>
     </row>
     <row r="7">
@@ -2856,16 +2856,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-64300</v>
+        <v>-0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-115986.0925968389</v>
+        <v>-112852.6396494273</v>
       </c>
       <c r="E7" t="n">
-        <v>-180286.0925968389</v>
+        <v>-112852.6396494273</v>
       </c>
     </row>
     <row r="8">
@@ -2873,16 +2873,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-54300</v>
+        <v>-0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-65986.09259683892</v>
+        <v>-12852.63964942723</v>
       </c>
       <c r="E8" t="n">
-        <v>-120286.0925968389</v>
+        <v>-12852.63964942723</v>
       </c>
     </row>
     <row r="9">
@@ -2890,16 +2890,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-44300</v>
+        <v>-0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-15986.09259683892</v>
+        <v>87147.36035057277</v>
       </c>
       <c r="E9" t="n">
-        <v>-60286.09259683892</v>
+        <v>87147.36035057277</v>
       </c>
     </row>
     <row r="10">
@@ -2907,16 +2907,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-34300</v>
+        <v>-0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-65986.09259683892</v>
+        <v>-12852.63964942723</v>
       </c>
       <c r="E10" t="n">
-        <v>-100286.0925968389</v>
+        <v>-12852.63964942723</v>
       </c>
     </row>
     <row r="11">
@@ -2924,16 +2924,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>-24300</v>
+        <v>-0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-115986.0925968389</v>
+        <v>-112852.6396494272</v>
       </c>
       <c r="E11" t="n">
-        <v>-140286.0925968389</v>
+        <v>-112852.6396494272</v>
       </c>
     </row>
     <row r="12">
@@ -2941,16 +2941,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>-14300</v>
+        <v>-0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-165986.0925968389</v>
+        <v>-212852.6396494272</v>
       </c>
       <c r="E12" t="n">
-        <v>-180286.0925968389</v>
+        <v>-212852.6396494272</v>
       </c>
     </row>
     <row r="13">
@@ -2958,16 +2958,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>-4299.999999999997</v>
+        <v>-0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-65986.09259683892</v>
+        <v>-112852.6396494272</v>
       </c>
       <c r="E13" t="n">
-        <v>-70286.09259683892</v>
+        <v>-112852.6396494272</v>
       </c>
     </row>
     <row r="14">
@@ -2975,16 +2975,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>5700.000000000003</v>
+        <v>-0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>34013.90740316109</v>
+        <v>-12852.6396494272</v>
       </c>
       <c r="E14" t="n">
-        <v>39713.90740316109</v>
+        <v>-12852.6396494272</v>
       </c>
     </row>
     <row r="15">
@@ -2992,16 +2992,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>15700</v>
+        <v>-0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>134013.9074031611</v>
+        <v>87147.3603505728</v>
       </c>
       <c r="E15" t="n">
-        <v>149713.9074031611</v>
+        <v>87147.3603505728</v>
       </c>
     </row>
     <row r="16">
@@ -3009,16 +3009,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>25700</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>234013.9074031611</v>
+        <v>187147.3603505728</v>
       </c>
       <c r="E16" t="n">
-        <v>259713.9074031611</v>
+        <v>187147.3603505728</v>
       </c>
     </row>
     <row r="17">
@@ -3026,16 +3026,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>35700</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>334013.9074031611</v>
+        <v>287147.3603505728</v>
       </c>
       <c r="E17" t="n">
-        <v>369713.9074031611</v>
+        <v>287147.3603505728</v>
       </c>
     </row>
     <row r="18">
@@ -3043,16 +3043,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>45700</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>234013.9074031611</v>
+        <v>187147.3603505728</v>
       </c>
       <c r="E18" t="n">
-        <v>279713.9074031611</v>
+        <v>187147.3603505728</v>
       </c>
     </row>
     <row r="19">
@@ -3060,16 +3060,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>55700</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>134013.9074031611</v>
+        <v>87147.3603505728</v>
       </c>
       <c r="E19" t="n">
-        <v>189713.9074031611</v>
+        <v>87147.3603505728</v>
       </c>
     </row>
     <row r="20">
@@ -3077,16 +3077,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>65700</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>34013.90740316111</v>
+        <v>-12852.6396494272</v>
       </c>
       <c r="E20" t="n">
-        <v>99713.90740316111</v>
+        <v>-12852.6396494272</v>
       </c>
     </row>
     <row r="21">
@@ -3094,16 +3094,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>75700</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-65986.09259683883</v>
+        <v>-112852.6396494273</v>
       </c>
       <c r="E21" t="n">
-        <v>9713.907403161167</v>
+        <v>-112852.6396494273</v>
       </c>
     </row>
     <row r="22">
@@ -3111,16 +3111,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>85700</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-165986.0925968388</v>
+        <v>-212852.6396494274</v>
       </c>
       <c r="E22" t="n">
-        <v>-80286.09259683883</v>
+        <v>-212852.6396494274</v>
       </c>
     </row>
     <row r="23">
@@ -3128,16 +3128,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>95700</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-265986.0925968388</v>
+        <v>-312852.6396494274</v>
       </c>
       <c r="E23" t="n">
-        <v>-170286.0925968388</v>
+        <v>-312852.6396494274</v>
       </c>
     </row>
     <row r="24">
@@ -3145,16 +3145,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>105700</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-365986.0925968388</v>
+        <v>-412852.6396494274</v>
       </c>
       <c r="E24" t="n">
-        <v>-260286.0925968388</v>
+        <v>-412852.6396494274</v>
       </c>
     </row>
     <row r="25">
@@ -3162,16 +3162,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>115700</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-465986.0925968388</v>
+        <v>-512852.6396494274</v>
       </c>
       <c r="E25" t="n">
-        <v>-350286.0925968388</v>
+        <v>-512852.6396494274</v>
       </c>
     </row>
     <row r="26">
@@ -3179,16 +3179,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>125700</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-565986.0925968387</v>
+        <v>-612852.6396494271</v>
       </c>
       <c r="E26" t="n">
-        <v>-440286.0925968387</v>
+        <v>-612852.6396494271</v>
       </c>
     </row>
     <row r="27">
@@ -3196,16 +3196,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>135700</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-665986.0925968387</v>
+        <v>-712852.639649427</v>
       </c>
       <c r="E27" t="n">
-        <v>-530286.0925968387</v>
+        <v>-712852.639649427</v>
       </c>
     </row>
     <row r="28">
@@ -3213,16 +3213,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>145700</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-765986.0925968387</v>
+        <v>-812852.639649427</v>
       </c>
       <c r="E28" t="n">
-        <v>-620286.0925968387</v>
+        <v>-812852.639649427</v>
       </c>
     </row>
     <row r="29">
@@ -3230,16 +3230,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>155700</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-865986.0925968387</v>
+        <v>-912852.639649427</v>
       </c>
       <c r="E29" t="n">
-        <v>-710286.0925968387</v>
+        <v>-912852.639649427</v>
       </c>
     </row>
     <row r="30">
@@ -3247,16 +3247,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>165700</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-965986.0925968387</v>
+        <v>-1012852.639649427</v>
       </c>
       <c r="E30" t="n">
-        <v>-800286.0925968387</v>
+        <v>-1012852.639649427</v>
       </c>
     </row>
     <row r="31">
@@ -3264,16 +3264,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>175700</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-1065986.092596839</v>
+        <v>-1112852.639649427</v>
       </c>
       <c r="E31" t="n">
-        <v>-890286.0925968387</v>
+        <v>-1112852.639649427</v>
       </c>
     </row>
     <row r="32">
@@ -3281,16 +3281,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>185700</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-1165986.092596839</v>
+        <v>-1212852.639649427</v>
       </c>
       <c r="E32" t="n">
-        <v>-980286.0925968387</v>
+        <v>-1212852.639649427</v>
       </c>
     </row>
   </sheetData>
@@ -3344,16 +3344,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-114300</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-365986.0925968389</v>
+        <v>-612852.6396494271</v>
       </c>
       <c r="E2" t="n">
-        <v>-480286.0925968389</v>
+        <v>-612852.6396494271</v>
       </c>
     </row>
     <row r="3">
@@ -3361,16 +3361,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-104300</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-315986.0925968389</v>
+        <v>-512852.6396494271</v>
       </c>
       <c r="E3" t="n">
-        <v>-420286.0925968389</v>
+        <v>-512852.6396494271</v>
       </c>
     </row>
     <row r="4">
@@ -3378,16 +3378,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-94300</v>
+        <v>-0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-265986.0925968389</v>
+        <v>-412852.6396494271</v>
       </c>
       <c r="E4" t="n">
-        <v>-360286.0925968389</v>
+        <v>-412852.6396494271</v>
       </c>
     </row>
     <row r="5">
@@ -3395,16 +3395,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-84300</v>
+        <v>-0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-215986.0925968389</v>
+        <v>-312852.6396494273</v>
       </c>
       <c r="E5" t="n">
-        <v>-300286.0925968389</v>
+        <v>-312852.6396494273</v>
       </c>
     </row>
     <row r="6">
@@ -3412,16 +3412,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>-74300</v>
+        <v>-0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-165986.0925968389</v>
+        <v>-212852.6396494273</v>
       </c>
       <c r="E6" t="n">
-        <v>-240286.0925968389</v>
+        <v>-212852.6396494273</v>
       </c>
     </row>
     <row r="7">
@@ -3429,16 +3429,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-64300</v>
+        <v>-0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-115986.0925968389</v>
+        <v>-112852.6396494273</v>
       </c>
       <c r="E7" t="n">
-        <v>-180286.0925968389</v>
+        <v>-112852.6396494273</v>
       </c>
     </row>
     <row r="8">
@@ -3446,16 +3446,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-54300</v>
+        <v>-0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-65986.09259683892</v>
+        <v>-12852.63964942723</v>
       </c>
       <c r="E8" t="n">
-        <v>-120286.0925968389</v>
+        <v>-12852.63964942723</v>
       </c>
     </row>
     <row r="9">
@@ -3463,16 +3463,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-44300</v>
+        <v>-0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-15986.09259683892</v>
+        <v>87147.36035057277</v>
       </c>
       <c r="E9" t="n">
-        <v>-60286.09259683892</v>
+        <v>87147.36035057277</v>
       </c>
     </row>
     <row r="10">
@@ -3480,16 +3480,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-34300</v>
+        <v>-0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-65986.09259683892</v>
+        <v>-12852.63964942723</v>
       </c>
       <c r="E10" t="n">
-        <v>-100286.0925968389</v>
+        <v>-12852.63964942723</v>
       </c>
     </row>
     <row r="11">
@@ -3497,16 +3497,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>-24300</v>
+        <v>-0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-115986.0925968389</v>
+        <v>-112852.6396494272</v>
       </c>
       <c r="E11" t="n">
-        <v>-140286.0925968389</v>
+        <v>-112852.6396494272</v>
       </c>
     </row>
     <row r="12">
@@ -3514,16 +3514,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>-14300</v>
+        <v>-0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-165986.0925968389</v>
+        <v>-212852.6396494272</v>
       </c>
       <c r="E12" t="n">
-        <v>-180286.0925968389</v>
+        <v>-212852.6396494272</v>
       </c>
     </row>
     <row r="13">
@@ -3531,16 +3531,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>-4299.999999999997</v>
+        <v>-0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-65986.09259683892</v>
+        <v>-112852.6396494272</v>
       </c>
       <c r="E13" t="n">
-        <v>-70286.09259683892</v>
+        <v>-112852.6396494272</v>
       </c>
     </row>
     <row r="14">
@@ -3548,16 +3548,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>5700.000000000003</v>
+        <v>-0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>34013.90740316109</v>
+        <v>-12852.6396494272</v>
       </c>
       <c r="E14" t="n">
-        <v>39713.90740316109</v>
+        <v>-12852.6396494272</v>
       </c>
     </row>
     <row r="15">
@@ -3565,16 +3565,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>15700</v>
+        <v>-0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>134013.9074031611</v>
+        <v>87147.3603505728</v>
       </c>
       <c r="E15" t="n">
-        <v>149713.9074031611</v>
+        <v>87147.3603505728</v>
       </c>
     </row>
     <row r="16">
@@ -3582,16 +3582,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>25700</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>234013.9074031611</v>
+        <v>187147.3603505728</v>
       </c>
       <c r="E16" t="n">
-        <v>259713.9074031611</v>
+        <v>187147.3603505728</v>
       </c>
     </row>
     <row r="17">
@@ -3599,16 +3599,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>35700</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>334013.9074031611</v>
+        <v>287147.3603505728</v>
       </c>
       <c r="E17" t="n">
-        <v>369713.9074031611</v>
+        <v>287147.3603505728</v>
       </c>
     </row>
     <row r="18">
@@ -3616,16 +3616,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>45700</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>234013.9074031611</v>
+        <v>187147.3603505728</v>
       </c>
       <c r="E18" t="n">
-        <v>279713.9074031611</v>
+        <v>187147.3603505728</v>
       </c>
     </row>
     <row r="19">
@@ -3633,16 +3633,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>55700</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>134013.9074031611</v>
+        <v>87147.3603505728</v>
       </c>
       <c r="E19" t="n">
-        <v>189713.9074031611</v>
+        <v>87147.3603505728</v>
       </c>
     </row>
     <row r="20">
@@ -3650,16 +3650,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>65700</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>34013.90740316111</v>
+        <v>-12852.6396494272</v>
       </c>
       <c r="E20" t="n">
-        <v>99713.90740316111</v>
+        <v>-12852.6396494272</v>
       </c>
     </row>
     <row r="21">
@@ -3667,16 +3667,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>75700</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-65986.09259683883</v>
+        <v>-112852.6396494273</v>
       </c>
       <c r="E21" t="n">
-        <v>9713.907403161167</v>
+        <v>-112852.6396494273</v>
       </c>
     </row>
     <row r="22">
@@ -3684,16 +3684,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>85700</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-165986.0925968388</v>
+        <v>-212852.6396494274</v>
       </c>
       <c r="E22" t="n">
-        <v>-80286.09259683883</v>
+        <v>-212852.6396494274</v>
       </c>
     </row>
     <row r="23">
@@ -3701,16 +3701,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>95700</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-265986.0925968388</v>
+        <v>-312852.6396494274</v>
       </c>
       <c r="E23" t="n">
-        <v>-170286.0925968388</v>
+        <v>-312852.6396494274</v>
       </c>
     </row>
     <row r="24">
@@ -3718,16 +3718,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>105700</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-365986.0925968388</v>
+        <v>-412852.6396494274</v>
       </c>
       <c r="E24" t="n">
-        <v>-260286.0925968388</v>
+        <v>-412852.6396494274</v>
       </c>
     </row>
     <row r="25">
@@ -3735,16 +3735,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>115700</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-465986.0925968388</v>
+        <v>-512852.6396494274</v>
       </c>
       <c r="E25" t="n">
-        <v>-350286.0925968388</v>
+        <v>-512852.6396494274</v>
       </c>
     </row>
     <row r="26">
@@ -3752,16 +3752,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>125700</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-565986.0925968387</v>
+        <v>-612852.6396494271</v>
       </c>
       <c r="E26" t="n">
-        <v>-440286.0925968387</v>
+        <v>-612852.6396494271</v>
       </c>
     </row>
     <row r="27">
@@ -3769,16 +3769,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>135700</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-665986.0925968387</v>
+        <v>-712852.639649427</v>
       </c>
       <c r="E27" t="n">
-        <v>-530286.0925968387</v>
+        <v>-712852.639649427</v>
       </c>
     </row>
     <row r="28">
@@ -3786,16 +3786,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>145700</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-765986.0925968387</v>
+        <v>-812852.639649427</v>
       </c>
       <c r="E28" t="n">
-        <v>-620286.0925968387</v>
+        <v>-812852.639649427</v>
       </c>
     </row>
     <row r="29">
@@ -3803,16 +3803,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>155700</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-865986.0925968387</v>
+        <v>-912852.639649427</v>
       </c>
       <c r="E29" t="n">
-        <v>-710286.0925968387</v>
+        <v>-912852.639649427</v>
       </c>
     </row>
     <row r="30">
@@ -3820,16 +3820,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>165700</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-965986.0925968387</v>
+        <v>-1012852.639649427</v>
       </c>
       <c r="E30" t="n">
-        <v>-800286.0925968387</v>
+        <v>-1012852.639649427</v>
       </c>
     </row>
     <row r="31">
@@ -3837,16 +3837,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>175700</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-1065986.092596839</v>
+        <v>-1112852.639649427</v>
       </c>
       <c r="E31" t="n">
-        <v>-890286.0925968387</v>
+        <v>-1112852.639649427</v>
       </c>
     </row>
     <row r="32">
@@ -3854,16 +3854,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>185700</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-1165986.092596839</v>
+        <v>-1212852.639649427</v>
       </c>
       <c r="E32" t="n">
-        <v>-980286.0925968387</v>
+        <v>-1212852.639649427</v>
       </c>
     </row>
   </sheetData>
@@ -3917,16 +3917,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-114300</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-365986.0925968389</v>
+        <v>-612852.6396494271</v>
       </c>
       <c r="E2" t="n">
-        <v>-480286.0925968389</v>
+        <v>-612852.6396494271</v>
       </c>
     </row>
     <row r="3">
@@ -3934,16 +3934,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-104300</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-315986.0925968389</v>
+        <v>-512852.6396494271</v>
       </c>
       <c r="E3" t="n">
-        <v>-420286.0925968389</v>
+        <v>-512852.6396494271</v>
       </c>
     </row>
     <row r="4">
@@ -3951,16 +3951,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-94300</v>
+        <v>-0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-265986.0925968389</v>
+        <v>-412852.6396494271</v>
       </c>
       <c r="E4" t="n">
-        <v>-360286.0925968389</v>
+        <v>-412852.6396494271</v>
       </c>
     </row>
     <row r="5">
@@ -3968,16 +3968,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-84300</v>
+        <v>-0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-215986.0925968389</v>
+        <v>-312852.6396494273</v>
       </c>
       <c r="E5" t="n">
-        <v>-300286.0925968389</v>
+        <v>-312852.6396494273</v>
       </c>
     </row>
     <row r="6">
@@ -3985,16 +3985,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>-74300</v>
+        <v>-0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-165986.0925968389</v>
+        <v>-212852.6396494273</v>
       </c>
       <c r="E6" t="n">
-        <v>-240286.0925968389</v>
+        <v>-212852.6396494273</v>
       </c>
     </row>
     <row r="7">
@@ -4002,16 +4002,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-64300</v>
+        <v>-0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-115986.0925968389</v>
+        <v>-112852.6396494273</v>
       </c>
       <c r="E7" t="n">
-        <v>-180286.0925968389</v>
+        <v>-112852.6396494273</v>
       </c>
     </row>
     <row r="8">
@@ -4019,16 +4019,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-54300</v>
+        <v>-0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-65986.09259683892</v>
+        <v>-12852.63964942723</v>
       </c>
       <c r="E8" t="n">
-        <v>-120286.0925968389</v>
+        <v>-12852.63964942723</v>
       </c>
     </row>
     <row r="9">
@@ -4036,16 +4036,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-44300</v>
+        <v>-0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-15986.09259683892</v>
+        <v>87147.36035057277</v>
       </c>
       <c r="E9" t="n">
-        <v>-60286.09259683892</v>
+        <v>87147.36035057277</v>
       </c>
     </row>
     <row r="10">
@@ -4053,16 +4053,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-34300</v>
+        <v>-0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-65986.09259683892</v>
+        <v>-12852.63964942723</v>
       </c>
       <c r="E10" t="n">
-        <v>-100286.0925968389</v>
+        <v>-12852.63964942723</v>
       </c>
     </row>
     <row r="11">
@@ -4070,16 +4070,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>-24300</v>
+        <v>-0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-115986.0925968389</v>
+        <v>-112852.6396494272</v>
       </c>
       <c r="E11" t="n">
-        <v>-140286.0925968389</v>
+        <v>-112852.6396494272</v>
       </c>
     </row>
     <row r="12">
@@ -4087,16 +4087,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>-14300</v>
+        <v>-0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-165986.0925968389</v>
+        <v>-212852.6396494272</v>
       </c>
       <c r="E12" t="n">
-        <v>-180286.0925968389</v>
+        <v>-212852.6396494272</v>
       </c>
     </row>
     <row r="13">
@@ -4104,16 +4104,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>-4299.999999999997</v>
+        <v>-0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-65986.09259683892</v>
+        <v>-112852.6396494272</v>
       </c>
       <c r="E13" t="n">
-        <v>-70286.09259683892</v>
+        <v>-112852.6396494272</v>
       </c>
     </row>
     <row r="14">
@@ -4121,16 +4121,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>5700.000000000003</v>
+        <v>-0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>34013.90740316109</v>
+        <v>-12852.6396494272</v>
       </c>
       <c r="E14" t="n">
-        <v>39713.90740316109</v>
+        <v>-12852.6396494272</v>
       </c>
     </row>
     <row r="15">
@@ -4138,16 +4138,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>15700</v>
+        <v>-0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>134013.9074031611</v>
+        <v>87147.3603505728</v>
       </c>
       <c r="E15" t="n">
-        <v>149713.9074031611</v>
+        <v>87147.3603505728</v>
       </c>
     </row>
     <row r="16">
@@ -4155,16 +4155,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>25700</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>234013.9074031611</v>
+        <v>187147.3603505728</v>
       </c>
       <c r="E16" t="n">
-        <v>259713.9074031611</v>
+        <v>187147.3603505728</v>
       </c>
     </row>
     <row r="17">
@@ -4172,16 +4172,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>35700</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>334013.9074031611</v>
+        <v>287147.3603505728</v>
       </c>
       <c r="E17" t="n">
-        <v>369713.9074031611</v>
+        <v>287147.3603505728</v>
       </c>
     </row>
     <row r="18">
@@ -4189,16 +4189,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>45700</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>234013.9074031611</v>
+        <v>187147.3603505728</v>
       </c>
       <c r="E18" t="n">
-        <v>279713.9074031611</v>
+        <v>187147.3603505728</v>
       </c>
     </row>
     <row r="19">
@@ -4206,16 +4206,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>55700</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>134013.9074031611</v>
+        <v>87147.3603505728</v>
       </c>
       <c r="E19" t="n">
-        <v>189713.9074031611</v>
+        <v>87147.3603505728</v>
       </c>
     </row>
     <row r="20">
@@ -4223,16 +4223,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>65700</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>34013.90740316111</v>
+        <v>-12852.6396494272</v>
       </c>
       <c r="E20" t="n">
-        <v>99713.90740316111</v>
+        <v>-12852.6396494272</v>
       </c>
     </row>
     <row r="21">
@@ -4240,16 +4240,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>75700</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-65986.09259683883</v>
+        <v>-112852.6396494273</v>
       </c>
       <c r="E21" t="n">
-        <v>9713.907403161167</v>
+        <v>-112852.6396494273</v>
       </c>
     </row>
     <row r="22">
@@ -4257,16 +4257,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>85700</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-165986.0925968388</v>
+        <v>-212852.6396494274</v>
       </c>
       <c r="E22" t="n">
-        <v>-80286.09259683883</v>
+        <v>-212852.6396494274</v>
       </c>
     </row>
     <row r="23">
@@ -4274,16 +4274,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>95700</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-265986.0925968388</v>
+        <v>-312852.6396494274</v>
       </c>
       <c r="E23" t="n">
-        <v>-170286.0925968388</v>
+        <v>-312852.6396494274</v>
       </c>
     </row>
     <row r="24">
@@ -4291,16 +4291,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>105700</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-365986.0925968388</v>
+        <v>-412852.6396494274</v>
       </c>
       <c r="E24" t="n">
-        <v>-260286.0925968388</v>
+        <v>-412852.6396494274</v>
       </c>
     </row>
     <row r="25">
@@ -4308,16 +4308,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>115700</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-465986.0925968388</v>
+        <v>-512852.6396494274</v>
       </c>
       <c r="E25" t="n">
-        <v>-350286.0925968388</v>
+        <v>-512852.6396494274</v>
       </c>
     </row>
     <row r="26">
@@ -4325,16 +4325,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>125700</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-565986.0925968387</v>
+        <v>-612852.6396494271</v>
       </c>
       <c r="E26" t="n">
-        <v>-440286.0925968387</v>
+        <v>-612852.6396494271</v>
       </c>
     </row>
     <row r="27">
@@ -4342,16 +4342,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>135700</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-665986.0925968387</v>
+        <v>-712852.639649427</v>
       </c>
       <c r="E27" t="n">
-        <v>-530286.0925968387</v>
+        <v>-712852.639649427</v>
       </c>
     </row>
     <row r="28">
@@ -4359,16 +4359,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>145700</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-765986.0925968387</v>
+        <v>-812852.639649427</v>
       </c>
       <c r="E28" t="n">
-        <v>-620286.0925968387</v>
+        <v>-812852.639649427</v>
       </c>
     </row>
     <row r="29">
@@ -4376,16 +4376,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>155700</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-865986.0925968387</v>
+        <v>-912852.639649427</v>
       </c>
       <c r="E29" t="n">
-        <v>-710286.0925968387</v>
+        <v>-912852.639649427</v>
       </c>
     </row>
     <row r="30">
@@ -4393,16 +4393,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>165700</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-965986.0925968387</v>
+        <v>-1012852.639649427</v>
       </c>
       <c r="E30" t="n">
-        <v>-800286.0925968387</v>
+        <v>-1012852.639649427</v>
       </c>
     </row>
     <row r="31">
@@ -4410,16 +4410,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>175700</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-1065986.092596839</v>
+        <v>-1112852.639649427</v>
       </c>
       <c r="E31" t="n">
-        <v>-890286.0925968387</v>
+        <v>-1112852.639649427</v>
       </c>
     </row>
     <row r="32">
@@ -4427,16 +4427,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>185700</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-1165986.092596839</v>
+        <v>-1212852.639649427</v>
       </c>
       <c r="E32" t="n">
-        <v>-980286.0925968387</v>
+        <v>-1212852.639649427</v>
       </c>
     </row>
   </sheetData>
@@ -4490,16 +4490,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-114300</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-365986.0925968389</v>
+        <v>-612852.6396494271</v>
       </c>
       <c r="E2" t="n">
-        <v>-480286.0925968389</v>
+        <v>-612852.6396494271</v>
       </c>
     </row>
     <row r="3">
@@ -4507,16 +4507,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-104300</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-315986.0925968389</v>
+        <v>-512852.6396494271</v>
       </c>
       <c r="E3" t="n">
-        <v>-420286.0925968389</v>
+        <v>-512852.6396494271</v>
       </c>
     </row>
     <row r="4">
@@ -4524,16 +4524,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-94300</v>
+        <v>-0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-265986.0925968389</v>
+        <v>-412852.6396494271</v>
       </c>
       <c r="E4" t="n">
-        <v>-360286.0925968389</v>
+        <v>-412852.6396494271</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-84300</v>
+        <v>-0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-215986.0925968389</v>
+        <v>-312852.6396494273</v>
       </c>
       <c r="E5" t="n">
-        <v>-300286.0925968389</v>
+        <v>-312852.6396494273</v>
       </c>
     </row>
     <row r="6">
@@ -4558,16 +4558,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>-74300</v>
+        <v>-0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-165986.0925968389</v>
+        <v>-212852.6396494273</v>
       </c>
       <c r="E6" t="n">
-        <v>-240286.0925968389</v>
+        <v>-212852.6396494273</v>
       </c>
     </row>
     <row r="7">
@@ -4575,16 +4575,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-64300</v>
+        <v>-0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-115986.0925968389</v>
+        <v>-112852.6396494273</v>
       </c>
       <c r="E7" t="n">
-        <v>-180286.0925968389</v>
+        <v>-112852.6396494273</v>
       </c>
     </row>
     <row r="8">
@@ -4592,16 +4592,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-54300</v>
+        <v>-0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-65986.09259683892</v>
+        <v>-12852.63964942723</v>
       </c>
       <c r="E8" t="n">
-        <v>-120286.0925968389</v>
+        <v>-12852.63964942723</v>
       </c>
     </row>
     <row r="9">
@@ -4609,16 +4609,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-44300</v>
+        <v>-0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-15986.09259683892</v>
+        <v>87147.36035057277</v>
       </c>
       <c r="E9" t="n">
-        <v>-60286.09259683892</v>
+        <v>87147.36035057277</v>
       </c>
     </row>
     <row r="10">
@@ -4626,16 +4626,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-34300</v>
+        <v>-0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-65986.09259683892</v>
+        <v>-12852.63964942723</v>
       </c>
       <c r="E10" t="n">
-        <v>-100286.0925968389</v>
+        <v>-12852.63964942723</v>
       </c>
     </row>
     <row r="11">
@@ -4643,16 +4643,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>-24300</v>
+        <v>-0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-115986.0925968389</v>
+        <v>-112852.6396494272</v>
       </c>
       <c r="E11" t="n">
-        <v>-140286.0925968389</v>
+        <v>-112852.6396494272</v>
       </c>
     </row>
     <row r="12">
@@ -4660,16 +4660,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>-14300</v>
+        <v>-0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-165986.0925968389</v>
+        <v>-212852.6396494272</v>
       </c>
       <c r="E12" t="n">
-        <v>-180286.0925968389</v>
+        <v>-212852.6396494272</v>
       </c>
     </row>
     <row r="13">
@@ -4677,16 +4677,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>-4299.999999999997</v>
+        <v>-0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-65986.09259683892</v>
+        <v>-112852.6396494272</v>
       </c>
       <c r="E13" t="n">
-        <v>-70286.09259683892</v>
+        <v>-112852.6396494272</v>
       </c>
     </row>
     <row r="14">
@@ -4694,16 +4694,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>5700.000000000003</v>
+        <v>-0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>34013.90740316109</v>
+        <v>-12852.6396494272</v>
       </c>
       <c r="E14" t="n">
-        <v>39713.90740316109</v>
+        <v>-12852.6396494272</v>
       </c>
     </row>
     <row r="15">
@@ -4711,16 +4711,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>15700</v>
+        <v>-0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>134013.9074031611</v>
+        <v>87147.3603505728</v>
       </c>
       <c r="E15" t="n">
-        <v>149713.9074031611</v>
+        <v>87147.3603505728</v>
       </c>
     </row>
     <row r="16">
@@ -4728,16 +4728,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>25700</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>234013.9074031611</v>
+        <v>187147.3603505728</v>
       </c>
       <c r="E16" t="n">
-        <v>259713.9074031611</v>
+        <v>187147.3603505728</v>
       </c>
     </row>
     <row r="17">
@@ -4745,16 +4745,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>35700</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>334013.9074031611</v>
+        <v>287147.3603505728</v>
       </c>
       <c r="E17" t="n">
-        <v>369713.9074031611</v>
+        <v>287147.3603505728</v>
       </c>
     </row>
     <row r="18">
@@ -4762,16 +4762,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>45700</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>234013.9074031611</v>
+        <v>187147.3603505728</v>
       </c>
       <c r="E18" t="n">
-        <v>279713.9074031611</v>
+        <v>187147.3603505728</v>
       </c>
     </row>
     <row r="19">
@@ -4779,16 +4779,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>55700</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>134013.9074031611</v>
+        <v>87147.3603505728</v>
       </c>
       <c r="E19" t="n">
-        <v>189713.9074031611</v>
+        <v>87147.3603505728</v>
       </c>
     </row>
     <row r="20">
@@ -4796,16 +4796,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>65700</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>34013.90740316111</v>
+        <v>-12852.6396494272</v>
       </c>
       <c r="E20" t="n">
-        <v>99713.90740316111</v>
+        <v>-12852.6396494272</v>
       </c>
     </row>
     <row r="21">
@@ -4813,16 +4813,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>75700</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-65986.09259683883</v>
+        <v>-112852.6396494273</v>
       </c>
       <c r="E21" t="n">
-        <v>9713.907403161167</v>
+        <v>-112852.6396494273</v>
       </c>
     </row>
     <row r="22">
@@ -4830,16 +4830,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>85700</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-165986.0925968388</v>
+        <v>-212852.6396494274</v>
       </c>
       <c r="E22" t="n">
-        <v>-80286.09259683883</v>
+        <v>-212852.6396494274</v>
       </c>
     </row>
     <row r="23">
@@ -4847,16 +4847,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>95700</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-265986.0925968388</v>
+        <v>-312852.6396494274</v>
       </c>
       <c r="E23" t="n">
-        <v>-170286.0925968388</v>
+        <v>-312852.6396494274</v>
       </c>
     </row>
     <row r="24">
@@ -4864,16 +4864,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>105700</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-365986.0925968388</v>
+        <v>-412852.6396494274</v>
       </c>
       <c r="E24" t="n">
-        <v>-260286.0925968388</v>
+        <v>-412852.6396494274</v>
       </c>
     </row>
     <row r="25">
@@ -4881,16 +4881,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>115700</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-465986.0925968388</v>
+        <v>-512852.6396494274</v>
       </c>
       <c r="E25" t="n">
-        <v>-350286.0925968388</v>
+        <v>-512852.6396494274</v>
       </c>
     </row>
     <row r="26">
@@ -4898,16 +4898,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>125700</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-565986.0925968387</v>
+        <v>-612852.6396494271</v>
       </c>
       <c r="E26" t="n">
-        <v>-440286.0925968387</v>
+        <v>-612852.6396494271</v>
       </c>
     </row>
     <row r="27">
@@ -4915,16 +4915,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>135700</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-665986.0925968387</v>
+        <v>-712852.639649427</v>
       </c>
       <c r="E27" t="n">
-        <v>-530286.0925968387</v>
+        <v>-712852.639649427</v>
       </c>
     </row>
     <row r="28">
@@ -4932,16 +4932,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>145700</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-765986.0925968387</v>
+        <v>-812852.639649427</v>
       </c>
       <c r="E28" t="n">
-        <v>-620286.0925968387</v>
+        <v>-812852.639649427</v>
       </c>
     </row>
     <row r="29">
@@ -4949,16 +4949,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>155700</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-865986.0925968387</v>
+        <v>-912852.639649427</v>
       </c>
       <c r="E29" t="n">
-        <v>-710286.0925968387</v>
+        <v>-912852.639649427</v>
       </c>
     </row>
     <row r="30">
@@ -4966,16 +4966,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>165700</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-965986.0925968387</v>
+        <v>-1012852.639649427</v>
       </c>
       <c r="E30" t="n">
-        <v>-800286.0925968387</v>
+        <v>-1012852.639649427</v>
       </c>
     </row>
     <row r="31">
@@ -4983,16 +4983,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>175700</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-1065986.092596839</v>
+        <v>-1112852.639649427</v>
       </c>
       <c r="E31" t="n">
-        <v>-890286.0925968387</v>
+        <v>-1112852.639649427</v>
       </c>
     </row>
     <row r="32">
@@ -5000,16 +5000,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>185700</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-1165986.092596839</v>
+        <v>-1212852.639649427</v>
       </c>
       <c r="E32" t="n">
-        <v>-980286.0925968387</v>
+        <v>-1212852.639649427</v>
       </c>
     </row>
   </sheetData>

--- a/RGGI PnL Output.xlsx
+++ b/RGGI PnL Output.xlsx
@@ -9,13 +9,18 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="today" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EoM" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 Months" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 Months" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4 Months" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="5 Months" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="6 Months" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dec Expiry" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="End of This Wk" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="End of Next Wk" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="End of 2 Wks" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EoM" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4 Weeks" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="6 Weeks" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 Months" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 Months" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4 Months" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="5 Months" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="6 Months" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dec Expiry" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -433,6 +438,2871 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Spot</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Fwds</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Options</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Total_Pnl</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-614593.6535945119</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-614593.6535945119</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>11</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-514593.6535945119</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-514593.6535945119</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>12</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-414593.6535945119</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-414593.6535945119</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>13</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-314593.653594512</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-314593.653594512</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>14</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-214593.653594512</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-214593.653594512</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>15</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-114593.653594512</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-114593.653594512</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>16</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-14593.65359451203</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-14593.65359451203</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>17</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>85406.34640548797</v>
+      </c>
+      <c r="E9" t="n">
+        <v>85406.34640548797</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>18</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-14593.65359451206</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-14593.65359451206</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>19</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-114593.653594512</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-114593.653594512</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>20</v>
+      </c>
+      <c r="B12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-214593.653594512</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-214593.653594512</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>21</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-114593.653594512</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-114593.653594512</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>22</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-14593.65359451203</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-14593.65359451203</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>23</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>85406.34640548797</v>
+      </c>
+      <c r="E15" t="n">
+        <v>85406.34640548797</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>24</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>185406.346405488</v>
+      </c>
+      <c r="E16" t="n">
+        <v>185406.346405488</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>25</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>285406.346405488</v>
+      </c>
+      <c r="E17" t="n">
+        <v>285406.346405488</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>26</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>185406.346405488</v>
+      </c>
+      <c r="E18" t="n">
+        <v>185406.346405488</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>27</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>85406.34640548794</v>
+      </c>
+      <c r="E19" t="n">
+        <v>85406.34640548794</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>28</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-14593.65359451203</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-14593.65359451203</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>29</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-114593.653594512</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-114593.653594512</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>30</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-214593.653594512</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-214593.653594512</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>31</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-314593.653594512</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-314593.653594512</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>32</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-414593.6535945121</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-414593.6535945121</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>33</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-514593.6535945121</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-514593.6535945121</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>34</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-614593.6535945121</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-614593.6535945121</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>35</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-714593.6535945123</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-714593.6535945123</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>36</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-814593.6535945123</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-814593.6535945123</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>37</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-914593.6535945123</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-914593.6535945123</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>38</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-1014593.653594512</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-1014593.653594512</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>39</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-1114593.653594512</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-1114593.653594512</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>40</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-1214593.653594512</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-1214593.653594512</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Spot</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Fwds</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Options</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Total_Pnl</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-614593.6535945119</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-614593.6535945119</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>11</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-514593.6535945119</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-514593.6535945119</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>12</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-414593.6535945119</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-414593.6535945119</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>13</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-314593.653594512</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-314593.653594512</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>14</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-214593.653594512</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-214593.653594512</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>15</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-114593.653594512</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-114593.653594512</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>16</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-14593.65359451203</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-14593.65359451203</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>17</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>85406.34640548797</v>
+      </c>
+      <c r="E9" t="n">
+        <v>85406.34640548797</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>18</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-14593.65359451206</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-14593.65359451206</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>19</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-114593.653594512</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-114593.653594512</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>20</v>
+      </c>
+      <c r="B12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-214593.653594512</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-214593.653594512</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>21</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-114593.653594512</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-114593.653594512</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>22</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-14593.65359451203</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-14593.65359451203</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>23</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>85406.34640548797</v>
+      </c>
+      <c r="E15" t="n">
+        <v>85406.34640548797</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>24</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>185406.346405488</v>
+      </c>
+      <c r="E16" t="n">
+        <v>185406.346405488</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>25</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>285406.346405488</v>
+      </c>
+      <c r="E17" t="n">
+        <v>285406.346405488</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>26</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>185406.346405488</v>
+      </c>
+      <c r="E18" t="n">
+        <v>185406.346405488</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>27</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>85406.34640548794</v>
+      </c>
+      <c r="E19" t="n">
+        <v>85406.34640548794</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>28</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-14593.65359451203</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-14593.65359451203</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>29</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-114593.653594512</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-114593.653594512</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>30</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-214593.653594512</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-214593.653594512</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>31</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-314593.653594512</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-314593.653594512</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>32</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-414593.6535945121</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-414593.6535945121</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>33</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-514593.6535945121</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-514593.6535945121</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>34</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-614593.6535945121</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-614593.6535945121</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>35</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-714593.6535945123</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-714593.6535945123</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>36</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-814593.6535945123</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-814593.6535945123</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>37</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-914593.6535945123</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-914593.6535945123</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>38</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-1014593.653594512</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-1014593.653594512</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>39</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-1114593.653594512</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-1114593.653594512</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>40</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-1214593.653594512</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-1214593.653594512</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Spot</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Fwds</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Options</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Total_Pnl</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-614593.6535945119</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-614593.6535945119</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>11</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-514593.6535945119</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-514593.6535945119</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>12</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-414593.6535945119</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-414593.6535945119</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>13</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-314593.653594512</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-314593.653594512</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>14</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-214593.653594512</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-214593.653594512</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>15</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-114593.653594512</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-114593.653594512</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>16</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-14593.65359451203</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-14593.65359451203</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>17</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>85406.34640548797</v>
+      </c>
+      <c r="E9" t="n">
+        <v>85406.34640548797</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>18</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-14593.65359451206</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-14593.65359451206</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>19</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-114593.653594512</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-114593.653594512</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>20</v>
+      </c>
+      <c r="B12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-214593.653594512</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-214593.653594512</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>21</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-114593.653594512</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-114593.653594512</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>22</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-14593.65359451203</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-14593.65359451203</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>23</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>85406.34640548797</v>
+      </c>
+      <c r="E15" t="n">
+        <v>85406.34640548797</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>24</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>185406.346405488</v>
+      </c>
+      <c r="E16" t="n">
+        <v>185406.346405488</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>25</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>285406.346405488</v>
+      </c>
+      <c r="E17" t="n">
+        <v>285406.346405488</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>26</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>185406.346405488</v>
+      </c>
+      <c r="E18" t="n">
+        <v>185406.346405488</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>27</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>85406.34640548794</v>
+      </c>
+      <c r="E19" t="n">
+        <v>85406.34640548794</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>28</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-14593.65359451203</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-14593.65359451203</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>29</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-114593.653594512</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-114593.653594512</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>30</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-214593.653594512</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-214593.653594512</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>31</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-314593.653594512</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-314593.653594512</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>32</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-414593.6535945121</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-414593.6535945121</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>33</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-514593.6535945121</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-514593.6535945121</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>34</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-614593.6535945121</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-614593.6535945121</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>35</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-714593.6535945123</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-714593.6535945123</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>36</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-814593.6535945123</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-814593.6535945123</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>37</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-914593.6535945123</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-914593.6535945123</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>38</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-1014593.653594512</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-1014593.653594512</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>39</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-1114593.653594512</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-1114593.653594512</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>40</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-1214593.653594512</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-1214593.653594512</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Spot</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Fwds</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Options</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Total_Pnl</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-614593.6535945119</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-614593.6535945119</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>11</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-514593.6535945119</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-514593.6535945119</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>12</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-414593.6535945119</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-414593.6535945119</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>13</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-314593.653594512</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-314593.653594512</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>14</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-214593.653594512</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-214593.653594512</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>15</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-114593.653594512</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-114593.653594512</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>16</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-14593.65359451203</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-14593.65359451203</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>17</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>85406.34640548797</v>
+      </c>
+      <c r="E9" t="n">
+        <v>85406.34640548797</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>18</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-14593.65359451206</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-14593.65359451206</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>19</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-114593.653594512</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-114593.653594512</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>20</v>
+      </c>
+      <c r="B12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-214593.653594512</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-214593.653594512</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>21</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-114593.653594512</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-114593.653594512</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>22</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-14593.65359451203</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-14593.65359451203</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>23</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>85406.34640548797</v>
+      </c>
+      <c r="E15" t="n">
+        <v>85406.34640548797</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>24</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>185406.346405488</v>
+      </c>
+      <c r="E16" t="n">
+        <v>185406.346405488</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>25</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>285406.346405488</v>
+      </c>
+      <c r="E17" t="n">
+        <v>285406.346405488</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>26</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>185406.346405488</v>
+      </c>
+      <c r="E18" t="n">
+        <v>185406.346405488</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>27</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>85406.34640548794</v>
+      </c>
+      <c r="E19" t="n">
+        <v>85406.34640548794</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>28</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-14593.65359451203</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-14593.65359451203</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>29</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-114593.653594512</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-114593.653594512</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>30</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-214593.653594512</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-214593.653594512</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>31</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-314593.653594512</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-314593.653594512</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>32</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-414593.6535945121</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-414593.6535945121</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>33</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-514593.6535945121</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-514593.6535945121</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>34</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-614593.6535945121</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-614593.6535945121</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>35</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-714593.6535945123</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-714593.6535945123</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>36</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-814593.6535945123</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-814593.6535945123</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>37</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-914593.6535945123</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-914593.6535945123</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>38</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-1014593.653594512</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-1014593.653594512</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>39</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-1114593.653594512</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-1114593.653594512</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>40</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-1214593.653594512</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-1214593.653594512</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Spot</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Fwds</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Options</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Total_Pnl</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-614593.6535945119</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-614593.6535945119</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>11</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-514593.6535945119</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-514593.6535945119</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>12</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-414593.6535945119</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-414593.6535945119</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>13</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-314593.653594512</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-314593.653594512</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>14</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-214593.653594512</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-214593.653594512</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>15</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-114593.653594512</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-114593.653594512</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>16</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-14593.65359451203</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-14593.65359451203</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>17</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>85406.34640548797</v>
+      </c>
+      <c r="E9" t="n">
+        <v>85406.34640548797</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>18</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-14593.65359451206</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-14593.65359451206</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>19</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-114593.653594512</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-114593.653594512</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>20</v>
+      </c>
+      <c r="B12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-214593.653594512</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-214593.653594512</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>21</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-114593.653594512</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-114593.653594512</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>22</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-14593.65359451203</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-14593.65359451203</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>23</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>85406.34640548797</v>
+      </c>
+      <c r="E15" t="n">
+        <v>85406.34640548797</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>24</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>185406.346405488</v>
+      </c>
+      <c r="E16" t="n">
+        <v>185406.346405488</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>25</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>285406.346405488</v>
+      </c>
+      <c r="E17" t="n">
+        <v>285406.346405488</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>26</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>185406.346405488</v>
+      </c>
+      <c r="E18" t="n">
+        <v>185406.346405488</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>27</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>85406.34640548794</v>
+      </c>
+      <c r="E19" t="n">
+        <v>85406.34640548794</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>28</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-14593.65359451203</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-14593.65359451203</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>29</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-114593.653594512</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-114593.653594512</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>30</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-214593.653594512</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-214593.653594512</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>31</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-314593.653594512</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-314593.653594512</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>32</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-414593.6535945121</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-414593.6535945121</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>33</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-514593.6535945121</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-514593.6535945121</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>34</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-614593.6535945121</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-614593.6535945121</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>35</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-714593.6535945123</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-714593.6535945123</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>36</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-814593.6535945123</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-814593.6535945123</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>37</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-914593.6535945123</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-914593.6535945123</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>38</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-1014593.653594512</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-1014593.653594512</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>39</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-1114593.653594512</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-1114593.653594512</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>40</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-1214593.653594512</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-1214593.653594512</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -485,10 +3355,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-608015.4219922652</v>
+        <v>-609624.546979496</v>
       </c>
       <c r="E2" t="n">
-        <v>-608015.4219922652</v>
+        <v>-609624.546979496</v>
       </c>
     </row>
     <row r="3">
@@ -502,10 +3372,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-517084.9190198983</v>
+        <v>-518392.8019911228</v>
       </c>
       <c r="E3" t="n">
-        <v>-517084.9190198983</v>
+        <v>-518392.8019911228</v>
       </c>
     </row>
     <row r="4">
@@ -519,10 +3389,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-433850.8881261189</v>
+        <v>-434793.5122360282</v>
       </c>
       <c r="E4" t="n">
-        <v>-433850.8881261189</v>
+        <v>-434793.5122360282</v>
       </c>
     </row>
     <row r="5">
@@ -536,10 +3406,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-360371.4899629905</v>
+        <v>-360975.8527479408</v>
       </c>
       <c r="E5" t="n">
-        <v>-360371.4899629905</v>
+        <v>-360975.8527479408</v>
       </c>
     </row>
     <row r="6">
@@ -553,10 +3423,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-297339.527727391</v>
+        <v>-297728.7451346468</v>
       </c>
       <c r="E6" t="n">
-        <v>-297339.527727391</v>
+        <v>-297728.7451346468</v>
       </c>
     </row>
     <row r="7">
@@ -570,10 +3440,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-243851.8482833975</v>
+        <v>-244202.9860471509</v>
       </c>
       <c r="E7" t="n">
-        <v>-243851.8482833975</v>
+        <v>-244202.9860471509</v>
       </c>
     </row>
     <row r="8">
@@ -587,10 +3457,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-197819.4863662811</v>
+        <v>-198294.6402266521</v>
       </c>
       <c r="E8" t="n">
-        <v>-197819.4863662811</v>
+        <v>-198294.6402266521</v>
       </c>
     </row>
     <row r="9">
@@ -604,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-156820.6600252705</v>
+        <v>-157504.2350982002</v>
       </c>
       <c r="E9" t="n">
-        <v>-156820.6600252705</v>
+        <v>-157504.2350982002</v>
       </c>
     </row>
     <row r="10">
@@ -621,10 +3491,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-119028.6832030883</v>
+        <v>-119897.8970827547</v>
       </c>
       <c r="E10" t="n">
-        <v>-119028.6832030883</v>
+        <v>-119897.8970827547</v>
       </c>
     </row>
     <row r="11">
@@ -638,10 +3508,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-83863.9511884173</v>
+        <v>-84801.85623339552</v>
       </c>
       <c r="E11" t="n">
-        <v>-83863.9511884173</v>
+        <v>-84801.85623339552</v>
       </c>
     </row>
     <row r="12">
@@ -655,10 +3525,10 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-52175.86916700007</v>
+        <v>-53017.06221615608</v>
       </c>
       <c r="E12" t="n">
-        <v>-52175.86916700007</v>
+        <v>-53017.06221615608</v>
       </c>
     </row>
     <row r="13">
@@ -672,10 +3542,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-25963.49722273639</v>
+        <v>-26551.09362331178</v>
       </c>
       <c r="E13" t="n">
-        <v>-25963.49722273639</v>
+        <v>-26551.09362331178</v>
       </c>
     </row>
     <row r="14">
@@ -689,10 +3559,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-7801.011206403011</v>
+        <v>-8033.104119881624</v>
       </c>
       <c r="E14" t="n">
-        <v>-7801.011206403011</v>
+        <v>-8033.104119881624</v>
       </c>
     </row>
     <row r="15">
@@ -700,16 +3570,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-194.3746579362669</v>
+        <v>-46.71355178544763</v>
       </c>
       <c r="E15" t="n">
-        <v>-194.3746579362669</v>
+        <v>-46.71355178544763</v>
       </c>
     </row>
     <row r="16">
@@ -723,10 +3593,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-5061.328461508921</v>
+        <v>-4584.431620380637</v>
       </c>
       <c r="E16" t="n">
-        <v>-5061.328461508921</v>
+        <v>-4584.431620380637</v>
       </c>
     </row>
     <row r="17">
@@ -740,10 +3610,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-23438.50359991641</v>
+        <v>-22736.3121081877</v>
       </c>
       <c r="E17" t="n">
-        <v>-23438.50359991641</v>
+        <v>-22736.3121081877</v>
       </c>
     </row>
     <row r="18">
@@ -757,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-55425.98914322729</v>
+        <v>-54626.82502417726</v>
       </c>
       <c r="E18" t="n">
-        <v>-55425.98914322729</v>
+        <v>-54626.82502417726</v>
       </c>
     </row>
     <row r="19">
@@ -774,10 +3644,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-100314.5082275465</v>
+        <v>-99543.97029558051</v>
       </c>
       <c r="E19" t="n">
-        <v>-100314.5082275465</v>
+        <v>-99543.97029558051</v>
       </c>
     </row>
     <row r="20">
@@ -791,10 +3661,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-156813.9109880786</v>
+        <v>-156175.592627594</v>
       </c>
       <c r="E20" t="n">
-        <v>-156813.9109880786</v>
+        <v>-156175.592627594</v>
       </c>
     </row>
     <row r="21">
@@ -808,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-223306.8687323929</v>
+        <v>-222872.6846178682</v>
       </c>
       <c r="E21" t="n">
-        <v>-223306.8687323929</v>
+        <v>-222872.6846178682</v>
       </c>
     </row>
     <row r="22">
@@ -825,10 +3695,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-298074.018137013</v>
+        <v>-297882.919831069</v>
       </c>
       <c r="E22" t="n">
-        <v>-298074.018137013</v>
+        <v>-297882.919831069</v>
       </c>
     </row>
     <row r="23">
@@ -842,10 +3712,10 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-379462.9524502808</v>
+        <v>-379525.3383256611</v>
       </c>
       <c r="E23" t="n">
-        <v>-379462.9524502808</v>
+        <v>-379525.3383256611</v>
       </c>
     </row>
     <row r="24">
@@ -859,10 +3729,10 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-465994.9563738405</v>
+        <v>-466299.8935482395</v>
       </c>
       <c r="E24" t="n">
-        <v>-465994.9563738405</v>
+        <v>-466299.8935482395</v>
       </c>
     </row>
     <row r="25">
@@ -876,10 +3746,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-556417.024956425</v>
+        <v>-556939.9781735605</v>
       </c>
       <c r="E25" t="n">
-        <v>-556417.024956425</v>
+        <v>-556939.9781735605</v>
       </c>
     </row>
     <row r="26">
@@ -893,10 +3763,10 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-649712.8970714979</v>
+        <v>-650422.5062868156</v>
       </c>
       <c r="E26" t="n">
-        <v>-649712.8970714979</v>
+        <v>-650422.5062868156</v>
       </c>
     </row>
     <row r="27">
@@ -910,10 +3780,10 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-745087.6603309007</v>
+        <v>-745950.8941038509</v>
       </c>
       <c r="E27" t="n">
-        <v>-745087.6603309007</v>
+        <v>-745950.8941038509</v>
       </c>
     </row>
     <row r="28">
@@ -927,10 +3797,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-841938.2999796742</v>
+        <v>-842923.8821459585</v>
       </c>
       <c r="E28" t="n">
-        <v>-841938.2999796742</v>
+        <v>-842923.8821459585</v>
       </c>
     </row>
     <row r="29">
@@ -944,10 +3814,10 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-939819.2437144688</v>
+        <v>-940899.5820595394</v>
       </c>
       <c r="E29" t="n">
-        <v>-939819.2437144688</v>
+        <v>-940899.5820595394</v>
       </c>
     </row>
     <row r="30">
@@ -961,10 +3831,10 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-1038408.679978609</v>
+        <v>-1039560.662535014</v>
       </c>
       <c r="E30" t="n">
-        <v>-1038408.679978609</v>
+        <v>-1039560.662535014</v>
       </c>
     </row>
     <row r="31">
@@ -978,10 +3848,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-1137478.773892827</v>
+        <v>-1138683.807491319</v>
       </c>
       <c r="E31" t="n">
-        <v>-1137478.773892827</v>
+        <v>-1138683.807491319</v>
       </c>
     </row>
     <row r="32">
@@ -995,10 +3865,10 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-1236871.030688924</v>
+        <v>-1238114.638136396</v>
       </c>
       <c r="E32" t="n">
-        <v>-1236871.030688924</v>
+        <v>-1238114.638136396</v>
       </c>
     </row>
   </sheetData>
@@ -1058,10 +3928,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-607083.6711008861</v>
+        <v>-609180.0144965888</v>
       </c>
       <c r="E2" t="n">
-        <v>-607083.6711008861</v>
+        <v>-609180.0144965888</v>
       </c>
     </row>
     <row r="3">
@@ -1075,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-513134.2711006302</v>
+        <v>-516737.4485395652</v>
       </c>
       <c r="E3" t="n">
-        <v>-513134.2711006302</v>
+        <v>-516737.4485395652</v>
       </c>
     </row>
     <row r="4">
@@ -1092,10 +3962,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-425976.0834276862</v>
+        <v>-431615.5697657056</v>
       </c>
       <c r="E4" t="n">
-        <v>-425976.0834276862</v>
+        <v>-431615.5697657056</v>
       </c>
     </row>
     <row r="5">
@@ -1109,10 +3979,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-348611.2604175693</v>
+        <v>-356338.2960696234</v>
       </c>
       <c r="E5" t="n">
-        <v>-348611.2604175693</v>
+        <v>-356338.2960696234</v>
       </c>
     </row>
     <row r="6">
@@ -1126,10 +3996,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-282895.109783117</v>
+        <v>-292122.5222678798</v>
       </c>
       <c r="E6" t="n">
-        <v>-282895.109783117</v>
+        <v>-292122.5222678798</v>
       </c>
     </row>
     <row r="7">
@@ -1143,10 +4013,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-228726.0663800151</v>
+        <v>-238387.7644795455</v>
       </c>
       <c r="E7" t="n">
-        <v>-228726.0663800151</v>
+        <v>-238387.7644795455</v>
       </c>
     </row>
     <row r="8">
@@ -1160,10 +4030,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-184038.9964947673</v>
+        <v>-193002.8009098425</v>
       </c>
       <c r="E8" t="n">
-        <v>-184038.9964947673</v>
+        <v>-193002.8009098425</v>
       </c>
     </row>
     <row r="9">
@@ -1177,10 +4047,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-145624.876701955</v>
+        <v>-153152.1858514855</v>
       </c>
       <c r="E9" t="n">
-        <v>-145624.876701955</v>
+        <v>-153152.1858514855</v>
       </c>
     </row>
     <row r="10">
@@ -1194,10 +4064,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-110397.4030100309</v>
+        <v>-116433.3648099474</v>
       </c>
       <c r="E10" t="n">
-        <v>-110397.4030100309</v>
+        <v>-116433.3648099474</v>
       </c>
     </row>
     <row r="11">
@@ -1211,10 +4081,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-76564.0796859269</v>
+        <v>-81741.05552766912</v>
       </c>
       <c r="E11" t="n">
-        <v>-76564.0796859269</v>
+        <v>-81741.05552766912</v>
       </c>
     </row>
     <row r="12">
@@ -1228,10 +4098,10 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-44259.8497388644</v>
+        <v>-49637.4139435668</v>
       </c>
       <c r="E12" t="n">
-        <v>-44259.8497388644</v>
+        <v>-49637.4139435668</v>
       </c>
     </row>
     <row r="13">
@@ -1245,10 +4115,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-15471.79102937753</v>
+        <v>-22146.26567394548</v>
       </c>
       <c r="E13" t="n">
-        <v>-15471.79102937753</v>
+        <v>-22146.26567394548</v>
       </c>
     </row>
     <row r="14">
@@ -1262,10 +4132,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>6620.580257377544</v>
+        <v>-2128.942104792593</v>
       </c>
       <c r="E14" t="n">
-        <v>6620.580257377544</v>
+        <v>-2128.942104792593</v>
       </c>
     </row>
     <row r="15">
@@ -1273,16 +4143,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>18573.73569487785</v>
+        <v>7487.829766700723</v>
       </c>
       <c r="E15" t="n">
-        <v>18573.73569487785</v>
+        <v>7487.829766700723</v>
       </c>
     </row>
     <row r="16">
@@ -1296,10 +4166,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>17534.74941317584</v>
+        <v>4375.285606803096</v>
       </c>
       <c r="E16" t="n">
-        <v>17534.74941317584</v>
+        <v>4375.285606803096</v>
       </c>
     </row>
     <row r="17">
@@ -1313,10 +4183,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1788.208730146667</v>
+        <v>-12798.85616221631</v>
       </c>
       <c r="E17" t="n">
-        <v>1788.208730146667</v>
+        <v>-12798.85616221631</v>
       </c>
     </row>
     <row r="18">
@@ -1330,10 +4200,10 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-29076.39816945436</v>
+        <v>-44269.85625416838</v>
       </c>
       <c r="E18" t="n">
-        <v>-29076.39816945436</v>
+        <v>-44269.85625416838</v>
       </c>
     </row>
     <row r="19">
@@ -1347,10 +4217,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-74313.05541229132</v>
+        <v>-89313.20430447411</v>
       </c>
       <c r="E19" t="n">
-        <v>-74313.05541229132</v>
+        <v>-89313.20430447411</v>
       </c>
     </row>
     <row r="20">
@@ -1364,10 +4234,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-132351.4275373007</v>
+        <v>-146517.0963289652</v>
       </c>
       <c r="E20" t="n">
-        <v>-132351.4275373007</v>
+        <v>-146517.0963289652</v>
       </c>
     </row>
     <row r="21">
@@ -1381,10 +4251,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-201178.655513344</v>
+        <v>-214090.3186003179</v>
       </c>
       <c r="E21" t="n">
-        <v>-201178.655513344</v>
+        <v>-214090.3186003179</v>
       </c>
     </row>
     <row r="22">
@@ -1398,10 +4268,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-278674.2058496354</v>
+        <v>-290134.3619448467</v>
       </c>
       <c r="E22" t="n">
-        <v>-278674.2058496354</v>
+        <v>-290134.3619448467</v>
       </c>
     </row>
     <row r="23">
@@ -1415,10 +4285,10 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-362850.05187899</v>
+        <v>-372843.7510025442</v>
       </c>
       <c r="E23" t="n">
-        <v>-362850.05187899</v>
+        <v>-372843.7510025442</v>
       </c>
     </row>
     <row r="24">
@@ -1432,10 +4302,10 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-451988.8435148868</v>
+        <v>-460627.620970279</v>
       </c>
       <c r="E24" t="n">
-        <v>-451988.8435148868</v>
+        <v>-460627.620970279</v>
       </c>
     </row>
     <row r="25">
@@ -1449,10 +4319,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-544697.0677849774</v>
+        <v>-552163.6276240632</v>
       </c>
       <c r="E25" t="n">
-        <v>-544697.0677849774</v>
+        <v>-552163.6276240632</v>
       </c>
     </row>
     <row r="26">
@@ -1466,10 +4336,10 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-639899.5248764256</v>
+        <v>-646402.9217673533</v>
       </c>
       <c r="E26" t="n">
-        <v>-639899.5248764256</v>
+        <v>-646402.9217673533</v>
       </c>
     </row>
     <row r="27">
@@ -1483,10 +4353,10 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-736800.6195874116</v>
+        <v>-742545.2665368021</v>
       </c>
       <c r="E27" t="n">
-        <v>-736800.6195874116</v>
+        <v>-742545.2665368021</v>
       </c>
     </row>
     <row r="28">
@@ -1500,10 +4370,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-834832.1990431675</v>
+        <v>-839999.858958863</v>
       </c>
       <c r="E28" t="n">
-        <v>-834832.1990431675</v>
+        <v>-839999.858958863</v>
       </c>
     </row>
     <row r="29">
@@ -1517,10 +4387,10 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-933600.7666792932</v>
+        <v>-938342.6773677592</v>
       </c>
       <c r="E29" t="n">
-        <v>-933600.7666792932</v>
+        <v>-938342.6773677592</v>
       </c>
     </row>
     <row r="30">
@@ -1534,10 +4404,10 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-1032840.964115012</v>
+        <v>-1037276.787255845</v>
       </c>
       <c r="E30" t="n">
-        <v>-1032840.964115012</v>
+        <v>-1037276.787255845</v>
       </c>
     </row>
     <row r="31">
@@ -1551,10 +4421,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-1132377.986627994</v>
+        <v>-1136598.68053061</v>
       </c>
       <c r="E31" t="n">
-        <v>-1132377.986627994</v>
+        <v>-1136598.68053061</v>
       </c>
     </row>
     <row r="32">
@@ -1568,10 +4438,10 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-1232099.039241985</v>
+        <v>-1236171.502403151</v>
       </c>
       <c r="E32" t="n">
-        <v>-1232099.039241985</v>
+        <v>-1236171.502403151</v>
       </c>
     </row>
   </sheetData>
@@ -1631,10 +4501,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-612852.6396494271</v>
+        <v>-608748.9683728111</v>
       </c>
       <c r="E2" t="n">
-        <v>-612852.6396494271</v>
+        <v>-608748.9683728111</v>
       </c>
     </row>
     <row r="3">
@@ -1648,10 +4518,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-512852.6396494271</v>
+        <v>-514207.1711750169</v>
       </c>
       <c r="E3" t="n">
-        <v>-512852.6396494271</v>
+        <v>-514207.1711750169</v>
       </c>
     </row>
     <row r="4">
@@ -1665,10 +4535,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-412852.6396494271</v>
+        <v>-426196.7342048883</v>
       </c>
       <c r="E4" t="n">
-        <v>-412852.6396494271</v>
+        <v>-426196.7342048883</v>
       </c>
     </row>
     <row r="5">
@@ -1682,10 +4552,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-312852.6396494273</v>
+        <v>-347907.3090635468</v>
       </c>
       <c r="E5" t="n">
-        <v>-312852.6396494273</v>
+        <v>-347907.3090635468</v>
       </c>
     </row>
     <row r="6">
@@ -1699,10 +4569,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-212852.6396494273</v>
+        <v>-281482.6879232022</v>
       </c>
       <c r="E6" t="n">
-        <v>-212852.6396494273</v>
+        <v>-281482.6879232022</v>
       </c>
     </row>
     <row r="7">
@@ -1716,10 +4586,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-112852.6396494273</v>
+        <v>-227066.7172241423</v>
       </c>
       <c r="E7" t="n">
-        <v>-112852.6396494273</v>
+        <v>-227066.7172241423</v>
       </c>
     </row>
     <row r="8">
@@ -1733,10 +4603,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-12852.63964942723</v>
+        <v>-182663.4874989796</v>
       </c>
       <c r="E8" t="n">
-        <v>-12852.63964942723</v>
+        <v>-182663.4874989796</v>
       </c>
     </row>
     <row r="9">
@@ -1750,10 +4620,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>87147.36035057277</v>
+        <v>-144913.4103690895</v>
       </c>
       <c r="E9" t="n">
-        <v>87147.36035057277</v>
+        <v>-144913.4103690895</v>
       </c>
     </row>
     <row r="10">
@@ -1767,10 +4637,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-12852.63964942723</v>
+        <v>-110423.7066188159</v>
       </c>
       <c r="E10" t="n">
-        <v>-12852.63964942723</v>
+        <v>-110423.7066188159</v>
       </c>
     </row>
     <row r="11">
@@ -1784,10 +4654,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-112852.6396494272</v>
+        <v>-77071.07561985869</v>
       </c>
       <c r="E11" t="n">
-        <v>-112852.6396494272</v>
+        <v>-77071.07561985869</v>
       </c>
     </row>
     <row r="12">
@@ -1801,10 +4671,10 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-212852.6396494272</v>
+        <v>-44767.64519309226</v>
       </c>
       <c r="E12" t="n">
-        <v>-212852.6396494272</v>
+        <v>-44767.64519309226</v>
       </c>
     </row>
     <row r="13">
@@ -1818,10 +4688,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-112852.6396494272</v>
+        <v>-15460.30551394656</v>
       </c>
       <c r="E13" t="n">
-        <v>-112852.6396494272</v>
+        <v>-15460.30551394656</v>
       </c>
     </row>
     <row r="14">
@@ -1835,10 +4705,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-12852.6396494272</v>
+        <v>7535.719254121243</v>
       </c>
       <c r="E14" t="n">
-        <v>-12852.6396494272</v>
+        <v>7535.719254121243</v>
       </c>
     </row>
     <row r="15">
@@ -1846,16 +4716,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>87147.3603505728</v>
+        <v>20536.55516541853</v>
       </c>
       <c r="E15" t="n">
-        <v>87147.3603505728</v>
+        <v>20536.55516541853</v>
       </c>
     </row>
     <row r="16">
@@ -1869,10 +4739,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>187147.3603505728</v>
+        <v>20438.46740392187</v>
       </c>
       <c r="E16" t="n">
-        <v>187147.3603505728</v>
+        <v>20438.46740392187</v>
       </c>
     </row>
     <row r="17">
@@ -1886,10 +4756,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>287147.3603505728</v>
+        <v>5340.692068865901</v>
       </c>
       <c r="E17" t="n">
-        <v>287147.3603505728</v>
+        <v>5340.692068865901</v>
       </c>
     </row>
     <row r="18">
@@ -1903,10 +4773,10 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>187147.3603505728</v>
+        <v>-25251.77037001943</v>
       </c>
       <c r="E18" t="n">
-        <v>187147.3603505728</v>
+        <v>-25251.77037001943</v>
       </c>
     </row>
     <row r="19">
@@ -1920,10 +4790,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>87147.3603505728</v>
+        <v>-70581.31713613292</v>
       </c>
       <c r="E19" t="n">
-        <v>87147.3603505728</v>
+        <v>-70581.31713613292</v>
       </c>
     </row>
     <row r="20">
@@ -1937,10 +4807,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-12852.6396494272</v>
+        <v>-129000.0385814742</v>
       </c>
       <c r="E20" t="n">
-        <v>-12852.6396494272</v>
+        <v>-129000.0385814742</v>
       </c>
     </row>
     <row r="21">
@@ -1954,10 +4824,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-112852.6396494273</v>
+        <v>-198388.7589688542</v>
       </c>
       <c r="E21" t="n">
-        <v>-112852.6396494273</v>
+        <v>-198388.7589688542</v>
       </c>
     </row>
     <row r="22">
@@ -1971,10 +4841,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-212852.6396494274</v>
+        <v>-276522.9252837981</v>
       </c>
       <c r="E22" t="n">
-        <v>-212852.6396494274</v>
+        <v>-276522.9252837981</v>
       </c>
     </row>
     <row r="23">
@@ -1988,10 +4858,10 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-312852.6396494274</v>
+        <v>-361331.6927099183</v>
       </c>
       <c r="E23" t="n">
-        <v>-312852.6396494274</v>
+        <v>-361331.6927099183</v>
       </c>
     </row>
     <row r="24">
@@ -2005,10 +4875,10 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-412852.6396494274</v>
+        <v>-451043.0381265018</v>
       </c>
       <c r="E24" t="n">
-        <v>-412852.6396494274</v>
+        <v>-451043.0381265018</v>
       </c>
     </row>
     <row r="25">
@@ -2022,10 +4892,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-512852.6396494274</v>
+        <v>-544235.3241006586</v>
       </c>
       <c r="E25" t="n">
-        <v>-512852.6396494274</v>
+        <v>-544235.3241006586</v>
       </c>
     </row>
     <row r="26">
@@ -2039,10 +4909,10 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-612852.6396494271</v>
+        <v>-639825.7451032437</v>
       </c>
       <c r="E26" t="n">
-        <v>-612852.6396494271</v>
+        <v>-639825.7451032437</v>
       </c>
     </row>
     <row r="27">
@@ -2056,10 +4926,10 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-712852.639649427</v>
+        <v>-737024.4489228528</v>
       </c>
       <c r="E27" t="n">
-        <v>-712852.639649427</v>
+        <v>-737024.4489228528</v>
       </c>
     </row>
     <row r="28">
@@ -2073,10 +4943,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-812852.639649427</v>
+        <v>-835276.0548866331</v>
       </c>
       <c r="E28" t="n">
-        <v>-812852.639649427</v>
+        <v>-835276.0548866331</v>
       </c>
     </row>
     <row r="29">
@@ -2090,10 +4960,10 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-912852.639649427</v>
+        <v>-934202.2295850643</v>
       </c>
       <c r="E29" t="n">
-        <v>-912852.639649427</v>
+        <v>-934202.2295850643</v>
       </c>
     </row>
     <row r="30">
@@ -2107,10 +4977,10 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-1012852.639649427</v>
+        <v>-1033552.270534324</v>
       </c>
       <c r="E30" t="n">
-        <v>-1012852.639649427</v>
+        <v>-1033552.270534324</v>
       </c>
     </row>
     <row r="31">
@@ -2124,10 +4994,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-1112852.639649427</v>
+        <v>-1133164.035674794</v>
       </c>
       <c r="E31" t="n">
-        <v>-1112852.639649427</v>
+        <v>-1133164.035674794</v>
       </c>
     </row>
     <row r="32">
@@ -2141,10 +5011,10 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-1212852.639649427</v>
+        <v>-1232934.886806254</v>
       </c>
       <c r="E32" t="n">
-        <v>-1212852.639649427</v>
+        <v>-1232934.886806254</v>
       </c>
     </row>
   </sheetData>
@@ -2204,10 +5074,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-612852.6396494271</v>
+        <v>-608798.2640363122</v>
       </c>
       <c r="E2" t="n">
-        <v>-612852.6396494271</v>
+        <v>-608798.2640363122</v>
       </c>
     </row>
     <row r="3">
@@ -2221,10 +5091,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-512852.6396494271</v>
+        <v>-512290.6003920102</v>
       </c>
       <c r="E3" t="n">
-        <v>-512852.6396494271</v>
+        <v>-512290.6003920102</v>
       </c>
     </row>
     <row r="4">
@@ -2238,10 +5108,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-412852.6396494271</v>
+        <v>-421170.8259058817</v>
       </c>
       <c r="E4" t="n">
-        <v>-412852.6396494271</v>
+        <v>-421170.8259058817</v>
       </c>
     </row>
     <row r="5">
@@ -2255,10 +5125,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-312852.6396494273</v>
+        <v>-339205.4679895248</v>
       </c>
       <c r="E5" t="n">
-        <v>-312852.6396494273</v>
+        <v>-339205.4679895248</v>
       </c>
     </row>
     <row r="6">
@@ -2272,10 +5142,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-212852.6396494273</v>
+        <v>-269686.2263030126</v>
       </c>
       <c r="E6" t="n">
-        <v>-212852.6396494273</v>
+        <v>-269686.2263030126</v>
       </c>
     </row>
     <row r="7">
@@ -2289,10 +5159,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-112852.6396494273</v>
+        <v>-213921.5002621808</v>
       </c>
       <c r="E7" t="n">
-        <v>-112852.6396494273</v>
+        <v>-213921.5002621808</v>
       </c>
     </row>
     <row r="8">
@@ -2306,10 +5176,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-12852.63964942723</v>
+        <v>-170445.6491387005</v>
       </c>
       <c r="E8" t="n">
-        <v>-12852.63964942723</v>
+        <v>-170445.6491387005</v>
       </c>
     </row>
     <row r="9">
@@ -2323,10 +5193,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>87147.36035057277</v>
+        <v>-135465.5188266025</v>
       </c>
       <c r="E9" t="n">
-        <v>87147.36035057277</v>
+        <v>-135465.5188266025</v>
       </c>
     </row>
     <row r="10">
@@ -2340,10 +5210,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-12852.63964942723</v>
+        <v>-104358.2026676677</v>
       </c>
       <c r="E10" t="n">
-        <v>-12852.63964942723</v>
+        <v>-104358.2026676677</v>
       </c>
     </row>
     <row r="11">
@@ -2357,10 +5227,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-112852.6396494272</v>
+        <v>-73516.59898207398</v>
       </c>
       <c r="E11" t="n">
-        <v>-112852.6396494272</v>
+        <v>-73516.59898207398</v>
       </c>
     </row>
     <row r="12">
@@ -2374,10 +5244,10 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-212852.6396494272</v>
+        <v>-41741.47362544344</v>
       </c>
       <c r="E12" t="n">
-        <v>-212852.6396494272</v>
+        <v>-41741.47362544344</v>
       </c>
     </row>
     <row r="13">
@@ -2391,10 +5261,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-112852.6396494272</v>
+        <v>-10655.12419752379</v>
       </c>
       <c r="E13" t="n">
-        <v>-112852.6396494272</v>
+        <v>-10655.12419752379</v>
       </c>
     </row>
     <row r="14">
@@ -2408,10 +5278,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-12852.6396494272</v>
+        <v>15922.01354772784</v>
       </c>
       <c r="E14" t="n">
-        <v>-12852.6396494272</v>
+        <v>15922.01354772784</v>
       </c>
     </row>
     <row r="15">
@@ -2419,16 +5289,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>87147.3603505728</v>
+        <v>33263.16933712448</v>
       </c>
       <c r="E15" t="n">
-        <v>87147.3603505728</v>
+        <v>33263.16933712448</v>
       </c>
     </row>
     <row r="16">
@@ -2442,10 +5312,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>187147.3603505728</v>
+        <v>37126.37324722771</v>
       </c>
       <c r="E16" t="n">
-        <v>187147.3603505728</v>
+        <v>37126.37324722771</v>
       </c>
     </row>
     <row r="17">
@@ -2459,10 +5329,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>287147.3603505728</v>
+        <v>24756.71489953724</v>
       </c>
       <c r="E17" t="n">
-        <v>287147.3603505728</v>
+        <v>24756.71489953724</v>
       </c>
     </row>
     <row r="18">
@@ -2476,10 +5346,10 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>187147.3603505728</v>
+        <v>-4725.104327376001</v>
       </c>
       <c r="E18" t="n">
-        <v>187147.3603505728</v>
+        <v>-4725.104327376001</v>
       </c>
     </row>
     <row r="19">
@@ -2493,10 +5363,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>87147.3603505728</v>
+        <v>-50494.73434648069</v>
       </c>
       <c r="E19" t="n">
-        <v>87147.3603505728</v>
+        <v>-50494.73434648069</v>
       </c>
     </row>
     <row r="20">
@@ -2510,10 +5380,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-12852.6396494272</v>
+        <v>-110535.8325370052</v>
       </c>
       <c r="E20" t="n">
-        <v>-12852.6396494272</v>
+        <v>-110535.8325370052</v>
       </c>
     </row>
     <row r="21">
@@ -2527,10 +5397,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-112852.6396494273</v>
+        <v>-182242.9858094269</v>
       </c>
       <c r="E21" t="n">
-        <v>-112852.6396494273</v>
+        <v>-182242.9858094269</v>
       </c>
     </row>
     <row r="22">
@@ -2544,10 +5414,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-212852.6396494274</v>
+        <v>-262935.5222315643</v>
       </c>
       <c r="E22" t="n">
-        <v>-212852.6396494274</v>
+        <v>-262935.5222315643</v>
       </c>
     </row>
     <row r="23">
@@ -2561,10 +5431,10 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-312852.6396494274</v>
+        <v>-350199.6807337283</v>
       </c>
       <c r="E23" t="n">
-        <v>-312852.6396494274</v>
+        <v>-350199.6807337283</v>
       </c>
     </row>
     <row r="24">
@@ -2578,10 +5448,10 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-412852.6396494274</v>
+        <v>-442056.4513351005</v>
       </c>
       <c r="E24" t="n">
-        <v>-412852.6396494274</v>
+        <v>-442056.4513351005</v>
       </c>
     </row>
     <row r="25">
@@ -2595,10 +5465,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-512852.6396494274</v>
+        <v>-536996.1782260395</v>
       </c>
       <c r="E25" t="n">
-        <v>-512852.6396494274</v>
+        <v>-536996.1782260395</v>
       </c>
     </row>
     <row r="26">
@@ -2612,10 +5482,10 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-612852.6396494271</v>
+        <v>-633932.6369145454</v>
       </c>
       <c r="E26" t="n">
-        <v>-612852.6396494271</v>
+        <v>-633932.6369145454</v>
       </c>
     </row>
     <row r="27">
@@ -2629,10 +5499,10 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-712852.639649427</v>
+        <v>-732121.580307428</v>
       </c>
       <c r="E27" t="n">
-        <v>-712852.639649427</v>
+        <v>-732121.580307428</v>
       </c>
     </row>
     <row r="28">
@@ -2646,10 +5516,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-812852.639649427</v>
+        <v>-831073.9474493782</v>
       </c>
       <c r="E28" t="n">
-        <v>-812852.639649427</v>
+        <v>-831073.9474493782</v>
       </c>
     </row>
     <row r="29">
@@ -2663,10 +5533,10 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-912852.639649427</v>
+        <v>-930479.8001355813</v>
       </c>
       <c r="E29" t="n">
-        <v>-912852.639649427</v>
+        <v>-930479.8001355813</v>
       </c>
     </row>
     <row r="30">
@@ -2680,10 +5550,10 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-1012852.639649427</v>
+        <v>-1030148.851307602</v>
       </c>
       <c r="E30" t="n">
-        <v>-1012852.639649427</v>
+        <v>-1030148.851307602</v>
       </c>
     </row>
     <row r="31">
@@ -2697,10 +5567,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-1112852.639649427</v>
+        <v>-1129967.498547529</v>
       </c>
       <c r="E31" t="n">
-        <v>-1112852.639649427</v>
+        <v>-1129967.498547529</v>
       </c>
     </row>
     <row r="32">
@@ -2714,10 +5584,10 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-1212852.639649427</v>
+        <v>-1229869.583948557</v>
       </c>
       <c r="E32" t="n">
-        <v>-1212852.639649427</v>
+        <v>-1229869.583948557</v>
       </c>
     </row>
   </sheetData>
@@ -2777,10 +5647,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-612852.6396494271</v>
+        <v>-608824.6850459708</v>
       </c>
       <c r="E2" t="n">
-        <v>-612852.6396494271</v>
+        <v>-608824.6850459708</v>
       </c>
     </row>
     <row r="3">
@@ -2794,10 +5664,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-512852.6396494271</v>
+        <v>-514875.2850457149</v>
       </c>
       <c r="E3" t="n">
-        <v>-512852.6396494271</v>
+        <v>-514875.2850457149</v>
       </c>
     </row>
     <row r="4">
@@ -2811,10 +5681,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-412852.6396494271</v>
+        <v>-427717.0973727709</v>
       </c>
       <c r="E4" t="n">
-        <v>-412852.6396494271</v>
+        <v>-427717.0973727709</v>
       </c>
     </row>
     <row r="5">
@@ -2828,10 +5698,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-312852.6396494273</v>
+        <v>-350352.274362654</v>
       </c>
       <c r="E5" t="n">
-        <v>-312852.6396494273</v>
+        <v>-350352.274362654</v>
       </c>
     </row>
     <row r="6">
@@ -2845,10 +5715,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-212852.6396494273</v>
+        <v>-284636.1237282017</v>
       </c>
       <c r="E6" t="n">
-        <v>-212852.6396494273</v>
+        <v>-284636.1237282017</v>
       </c>
     </row>
     <row r="7">
@@ -2862,10 +5732,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-112852.6396494273</v>
+        <v>-230467.0803250998</v>
       </c>
       <c r="E7" t="n">
-        <v>-112852.6396494273</v>
+        <v>-230467.0803250998</v>
       </c>
     </row>
     <row r="8">
@@ -2879,10 +5749,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-12852.63964942723</v>
+        <v>-185780.0104398521</v>
       </c>
       <c r="E8" t="n">
-        <v>-12852.63964942723</v>
+        <v>-185780.0104398521</v>
       </c>
     </row>
     <row r="9">
@@ -2896,10 +5766,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>87147.36035057277</v>
+        <v>-147365.8906470399</v>
       </c>
       <c r="E9" t="n">
-        <v>87147.36035057277</v>
+        <v>-147365.8906470399</v>
       </c>
     </row>
     <row r="10">
@@ -2913,10 +5783,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-12852.63964942723</v>
+        <v>-112138.4169551158</v>
       </c>
       <c r="E10" t="n">
-        <v>-12852.63964942723</v>
+        <v>-112138.4169551158</v>
       </c>
     </row>
     <row r="11">
@@ -2930,10 +5800,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-112852.6396494272</v>
+        <v>-78305.09363101172</v>
       </c>
       <c r="E11" t="n">
-        <v>-112852.6396494272</v>
+        <v>-78305.09363101172</v>
       </c>
     </row>
     <row r="12">
@@ -2947,10 +5817,10 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-212852.6396494272</v>
+        <v>-46000.86368394922</v>
       </c>
       <c r="E12" t="n">
-        <v>-212852.6396494272</v>
+        <v>-46000.86368394922</v>
       </c>
     </row>
     <row r="13">
@@ -2964,10 +5834,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-112852.6396494272</v>
+        <v>-17212.80497446237</v>
       </c>
       <c r="E13" t="n">
-        <v>-112852.6396494272</v>
+        <v>-17212.80497446237</v>
       </c>
     </row>
     <row r="14">
@@ -2981,10 +5851,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-12852.6396494272</v>
+        <v>4879.566312292722</v>
       </c>
       <c r="E14" t="n">
-        <v>-12852.6396494272</v>
+        <v>4879.566312292722</v>
       </c>
     </row>
     <row r="15">
@@ -2992,16 +5862,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>87147.3603505728</v>
+        <v>16832.72174979303</v>
       </c>
       <c r="E15" t="n">
-        <v>87147.3603505728</v>
+        <v>16832.72174979303</v>
       </c>
     </row>
     <row r="16">
@@ -3015,10 +5885,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>187147.3603505728</v>
+        <v>15793.73546809101</v>
       </c>
       <c r="E16" t="n">
-        <v>187147.3603505728</v>
+        <v>15793.73546809101</v>
       </c>
     </row>
     <row r="17">
@@ -3032,10 +5902,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>287147.3603505728</v>
+        <v>47.19478506181622</v>
       </c>
       <c r="E17" t="n">
-        <v>287147.3603505728</v>
+        <v>47.19478506181622</v>
       </c>
     </row>
     <row r="18">
@@ -3049,10 +5919,10 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>187147.3603505728</v>
+        <v>-30817.41211453918</v>
       </c>
       <c r="E18" t="n">
-        <v>187147.3603505728</v>
+        <v>-30817.41211453918</v>
       </c>
     </row>
     <row r="19">
@@ -3066,10 +5936,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>87147.3603505728</v>
+        <v>-76054.0693573762</v>
       </c>
       <c r="E19" t="n">
-        <v>87147.3603505728</v>
+        <v>-76054.0693573762</v>
       </c>
     </row>
     <row r="20">
@@ -3083,10 +5953,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-12852.6396494272</v>
+        <v>-134092.4414823856</v>
       </c>
       <c r="E20" t="n">
-        <v>-12852.6396494272</v>
+        <v>-134092.4414823856</v>
       </c>
     </row>
     <row r="21">
@@ -3100,10 +5970,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-112852.6396494273</v>
+        <v>-202919.6694584289</v>
       </c>
       <c r="E21" t="n">
-        <v>-112852.6396494273</v>
+        <v>-202919.6694584289</v>
       </c>
     </row>
     <row r="22">
@@ -3117,10 +5987,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-212852.6396494274</v>
+        <v>-280415.2197947202</v>
       </c>
       <c r="E22" t="n">
-        <v>-212852.6396494274</v>
+        <v>-280415.2197947202</v>
       </c>
     </row>
     <row r="23">
@@ -3134,10 +6004,10 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-312852.6396494274</v>
+        <v>-364591.0658240746</v>
       </c>
       <c r="E23" t="n">
-        <v>-312852.6396494274</v>
+        <v>-364591.0658240746</v>
       </c>
     </row>
     <row r="24">
@@ -3151,10 +6021,10 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-412852.6396494274</v>
+        <v>-453729.8574599716</v>
       </c>
       <c r="E24" t="n">
-        <v>-412852.6396494274</v>
+        <v>-453729.8574599716</v>
       </c>
     </row>
     <row r="25">
@@ -3168,10 +6038,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-512852.6396494274</v>
+        <v>-546438.081730062</v>
       </c>
       <c r="E25" t="n">
-        <v>-512852.6396494274</v>
+        <v>-546438.081730062</v>
       </c>
     </row>
     <row r="26">
@@ -3185,10 +6055,10 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-612852.6396494271</v>
+        <v>-641640.5388215106</v>
       </c>
       <c r="E26" t="n">
-        <v>-612852.6396494271</v>
+        <v>-641640.5388215106</v>
       </c>
     </row>
     <row r="27">
@@ -3202,10 +6072,10 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-712852.639649427</v>
+        <v>-738541.6335324966</v>
       </c>
       <c r="E27" t="n">
-        <v>-712852.639649427</v>
+        <v>-738541.6335324966</v>
       </c>
     </row>
     <row r="28">
@@ -3219,10 +6089,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-812852.639649427</v>
+        <v>-836573.2129882525</v>
       </c>
       <c r="E28" t="n">
-        <v>-812852.639649427</v>
+        <v>-836573.2129882525</v>
       </c>
     </row>
     <row r="29">
@@ -3236,10 +6106,10 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-912852.639649427</v>
+        <v>-935341.7806243778</v>
       </c>
       <c r="E29" t="n">
-        <v>-912852.639649427</v>
+        <v>-935341.7806243778</v>
       </c>
     </row>
     <row r="30">
@@ -3253,10 +6123,10 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-1012852.639649427</v>
+        <v>-1034581.978060097</v>
       </c>
       <c r="E30" t="n">
-        <v>-1012852.639649427</v>
+        <v>-1034581.978060097</v>
       </c>
     </row>
     <row r="31">
@@ -3270,10 +6140,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-1112852.639649427</v>
+        <v>-1134119.000573079</v>
       </c>
       <c r="E31" t="n">
-        <v>-1112852.639649427</v>
+        <v>-1134119.000573079</v>
       </c>
     </row>
     <row r="32">
@@ -3287,10 +6157,10 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-1212852.639649427</v>
+        <v>-1233840.05318707</v>
       </c>
       <c r="E32" t="n">
-        <v>-1212852.639649427</v>
+        <v>-1233840.05318707</v>
       </c>
     </row>
   </sheetData>
@@ -3350,10 +6220,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-612852.6396494271</v>
+        <v>-610298.4110242228</v>
       </c>
       <c r="E2" t="n">
-        <v>-612852.6396494271</v>
+        <v>-610298.4110242228</v>
       </c>
     </row>
     <row r="3">
@@ -3367,10 +6237,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-512852.6396494271</v>
+        <v>-510960.7761420307</v>
       </c>
       <c r="E3" t="n">
-        <v>-512852.6396494271</v>
+        <v>-510960.7761420307</v>
       </c>
     </row>
     <row r="4">
@@ -3384,10 +6254,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-412852.6396494271</v>
+        <v>-413813.2024698341</v>
       </c>
       <c r="E4" t="n">
-        <v>-412852.6396494271</v>
+        <v>-413813.2024698341</v>
       </c>
     </row>
     <row r="5">
@@ -3401,10 +6271,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-312852.6396494273</v>
+        <v>-322530.6339887219</v>
       </c>
       <c r="E5" t="n">
-        <v>-312852.6396494273</v>
+        <v>-322530.6339887219</v>
       </c>
     </row>
     <row r="6">
@@ -3418,10 +6288,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-212852.6396494273</v>
+        <v>-242718.7262161986</v>
       </c>
       <c r="E6" t="n">
-        <v>-212852.6396494273</v>
+        <v>-242718.7262161986</v>
       </c>
     </row>
     <row r="7">
@@ -3435,10 +6305,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-112852.6396494273</v>
+        <v>-179900.7260242698</v>
       </c>
       <c r="E7" t="n">
-        <v>-112852.6396494273</v>
+        <v>-179900.7260242698</v>
       </c>
     </row>
     <row r="8">
@@ -3452,10 +6322,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-12852.63964942723</v>
+        <v>-136372.0690307927</v>
       </c>
       <c r="E8" t="n">
-        <v>-12852.63964942723</v>
+        <v>-136372.0690307927</v>
       </c>
     </row>
     <row r="9">
@@ -3469,10 +6339,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>87147.36035057277</v>
+        <v>-109111.7359994464</v>
       </c>
       <c r="E9" t="n">
-        <v>87147.36035057277</v>
+        <v>-109111.7359994464</v>
       </c>
     </row>
     <row r="10">
@@ -3486,10 +6356,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-12852.63964942723</v>
+        <v>-90470.58417679748</v>
       </c>
       <c r="E10" t="n">
-        <v>-12852.63964942723</v>
+        <v>-90470.58417679748</v>
       </c>
     </row>
     <row r="11">
@@ -3503,10 +6373,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-112852.6396494272</v>
+        <v>-71416.86691896804</v>
       </c>
       <c r="E11" t="n">
-        <v>-112852.6396494272</v>
+        <v>-71416.86691896804</v>
       </c>
     </row>
     <row r="12">
@@ -3520,10 +6390,10 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-212852.6396494272</v>
+        <v>-45535.01818104653</v>
       </c>
       <c r="E12" t="n">
-        <v>-212852.6396494272</v>
+        <v>-45535.01818104653</v>
       </c>
     </row>
     <row r="13">
@@ -3537,10 +6407,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-112852.6396494272</v>
+        <v>-11785.94364619354</v>
       </c>
       <c r="E13" t="n">
-        <v>-112852.6396494272</v>
+        <v>-11785.94364619354</v>
       </c>
     </row>
     <row r="14">
@@ -3554,10 +6424,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-12852.6396494272</v>
+        <v>25118.88533369591</v>
       </c>
       <c r="E14" t="n">
-        <v>-12852.6396494272</v>
+        <v>25118.88533369591</v>
       </c>
     </row>
     <row r="15">
@@ -3565,16 +6435,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>87147.3603505728</v>
+        <v>56707.22675802228</v>
       </c>
       <c r="E15" t="n">
-        <v>87147.3603505728</v>
+        <v>56707.22675802228</v>
       </c>
     </row>
     <row r="16">
@@ -3588,10 +6458,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>187147.3603505728</v>
+        <v>74028.21577373829</v>
       </c>
       <c r="E16" t="n">
-        <v>187147.3603505728</v>
+        <v>74028.21577373829</v>
       </c>
     </row>
     <row r="17">
@@ -3605,10 +6475,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>287147.3603505728</v>
+        <v>70655.75526231993</v>
       </c>
       <c r="E17" t="n">
-        <v>287147.3603505728</v>
+        <v>70655.75526231993</v>
       </c>
     </row>
     <row r="18">
@@ -3622,10 +6492,10 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>187147.3603505728</v>
+        <v>44199.50132214633</v>
       </c>
       <c r="E18" t="n">
-        <v>187147.3603505728</v>
+        <v>44199.50132214633</v>
       </c>
     </row>
     <row r="19">
@@ -3639,10 +6509,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>87147.3603505728</v>
+        <v>-3930.899891121837</v>
       </c>
       <c r="E19" t="n">
-        <v>87147.3603505728</v>
+        <v>-3930.899891121837</v>
       </c>
     </row>
     <row r="20">
@@ -3656,10 +6526,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-12852.6396494272</v>
+        <v>-69893.62104543595</v>
       </c>
       <c r="E20" t="n">
-        <v>-12852.6396494272</v>
+        <v>-69893.62104543595</v>
       </c>
     </row>
     <row r="21">
@@ -3673,10 +6543,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-112852.6396494273</v>
+        <v>-149015.7735593745</v>
       </c>
       <c r="E21" t="n">
-        <v>-112852.6396494273</v>
+        <v>-149015.7735593745</v>
       </c>
     </row>
     <row r="22">
@@ -3690,10 +6560,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-212852.6396494274</v>
+        <v>-236987.3051565841</v>
       </c>
       <c r="E22" t="n">
-        <v>-212852.6396494274</v>
+        <v>-236987.3051565841</v>
       </c>
     </row>
     <row r="23">
@@ -3707,10 +6577,10 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-312852.6396494274</v>
+        <v>-330446.6436354911</v>
       </c>
       <c r="E23" t="n">
-        <v>-312852.6396494274</v>
+        <v>-330446.6436354911</v>
       </c>
     </row>
     <row r="24">
@@ -3724,10 +6594,10 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-412852.6396494274</v>
+        <v>-427074.2307533269</v>
       </c>
       <c r="E24" t="n">
-        <v>-412852.6396494274</v>
+        <v>-427074.2307533269</v>
       </c>
     </row>
     <row r="25">
@@ -3741,10 +6611,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-512852.6396494274</v>
+        <v>-525418.1450177657</v>
       </c>
       <c r="E25" t="n">
-        <v>-512852.6396494274</v>
+        <v>-525418.1450177657</v>
       </c>
     </row>
     <row r="26">
@@ -3758,10 +6628,10 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-612852.6396494271</v>
+        <v>-624640.3938148523</v>
       </c>
       <c r="E26" t="n">
-        <v>-612852.6396494271</v>
+        <v>-624640.3938148523</v>
       </c>
     </row>
     <row r="27">
@@ -3775,10 +6645,10 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-712852.639649427</v>
+        <v>-724289.7400697719</v>
       </c>
       <c r="E27" t="n">
-        <v>-712852.639649427</v>
+        <v>-724289.7400697719</v>
       </c>
     </row>
     <row r="28">
@@ -3792,10 +6662,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-812852.639649427</v>
+        <v>-824137.42878636</v>
       </c>
       <c r="E28" t="n">
-        <v>-812852.639649427</v>
+        <v>-824137.42878636</v>
       </c>
     </row>
     <row r="29">
@@ -3809,10 +6679,10 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-912852.639649427</v>
+        <v>-924073.482756739</v>
       </c>
       <c r="E29" t="n">
-        <v>-912852.639649427</v>
+        <v>-924073.482756739</v>
       </c>
     </row>
     <row r="30">
@@ -3826,10 +6696,10 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-1012852.639649427</v>
+        <v>-1024047.45611663</v>
       </c>
       <c r="E30" t="n">
-        <v>-1012852.639649427</v>
+        <v>-1024047.45611663</v>
       </c>
     </row>
     <row r="31">
@@ -3843,10 +6713,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-1112852.639649427</v>
+        <v>-1124037.158614866</v>
       </c>
       <c r="E31" t="n">
-        <v>-1112852.639649427</v>
+        <v>-1124037.158614866</v>
       </c>
     </row>
     <row r="32">
@@ -3860,10 +6730,10 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-1212852.639649427</v>
+        <v>-1224033.188151629</v>
       </c>
       <c r="E32" t="n">
-        <v>-1212852.639649427</v>
+        <v>-1224033.188151629</v>
       </c>
     </row>
   </sheetData>
@@ -3923,10 +6793,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-612852.6396494271</v>
+        <v>-612868.7039485433</v>
       </c>
       <c r="E2" t="n">
-        <v>-612852.6396494271</v>
+        <v>-612868.7039485433</v>
       </c>
     </row>
     <row r="3">
@@ -3940,10 +6810,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-512852.6396494271</v>
+        <v>-512869.9766896771</v>
       </c>
       <c r="E3" t="n">
-        <v>-512852.6396494271</v>
+        <v>-512869.9766896771</v>
       </c>
     </row>
     <row r="4">
@@ -3957,10 +6827,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-412852.6396494271</v>
+        <v>-412909.7128026945</v>
       </c>
       <c r="E4" t="n">
-        <v>-412852.6396494271</v>
+        <v>-412909.7128026945</v>
       </c>
     </row>
     <row r="5">
@@ -3974,10 +6844,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-312852.6396494273</v>
+        <v>-313449.8620701804</v>
       </c>
       <c r="E5" t="n">
-        <v>-312852.6396494273</v>
+        <v>-313449.8620701804</v>
       </c>
     </row>
     <row r="6">
@@ -3991,10 +6861,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-212852.6396494273</v>
+        <v>-217236.3633389523</v>
       </c>
       <c r="E6" t="n">
-        <v>-212852.6396494273</v>
+        <v>-217236.3633389523</v>
       </c>
     </row>
     <row r="7">
@@ -4008,10 +6878,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-112852.6396494273</v>
+        <v>-132837.4021109767</v>
       </c>
       <c r="E7" t="n">
-        <v>-112852.6396494273</v>
+        <v>-132837.4021109767</v>
       </c>
     </row>
     <row r="8">
@@ -4025,10 +6895,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-12852.63964942723</v>
+        <v>-74674.58007195283</v>
       </c>
       <c r="E8" t="n">
-        <v>-12852.63964942723</v>
+        <v>-74674.58007195283</v>
       </c>
     </row>
     <row r="9">
@@ -4042,10 +6912,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>87147.36035057277</v>
+        <v>-53542.41003588564</v>
       </c>
       <c r="E9" t="n">
-        <v>87147.36035057277</v>
+        <v>-53542.41003588564</v>
       </c>
     </row>
     <row r="10">
@@ -4059,10 +6929,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-12852.63964942723</v>
+        <v>-63822.1355840218</v>
       </c>
       <c r="E10" t="n">
-        <v>-12852.63964942723</v>
+        <v>-63822.1355840218</v>
       </c>
     </row>
     <row r="11">
@@ -4076,10 +6946,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-112852.6396494272</v>
+        <v>-82228.53214120649</v>
       </c>
       <c r="E11" t="n">
-        <v>-112852.6396494272</v>
+        <v>-82228.53214120649</v>
       </c>
     </row>
     <row r="12">
@@ -4093,10 +6963,10 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-212852.6396494272</v>
+        <v>-82140.66812276197</v>
       </c>
       <c r="E12" t="n">
-        <v>-212852.6396494272</v>
+        <v>-82140.66812276197</v>
       </c>
     </row>
     <row r="13">
@@ -4110,10 +6980,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-112852.6396494272</v>
+        <v>-50143.82258011214</v>
       </c>
       <c r="E13" t="n">
-        <v>-112852.6396494272</v>
+        <v>-50143.82258011214</v>
       </c>
     </row>
     <row r="14">
@@ -4127,10 +6997,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-12852.6396494272</v>
+        <v>8814.324316503596</v>
       </c>
       <c r="E14" t="n">
-        <v>-12852.6396494272</v>
+        <v>8814.324316503596</v>
       </c>
     </row>
     <row r="15">
@@ -4138,16 +7008,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>87147.3603505728</v>
+        <v>76217.14077094232</v>
       </c>
       <c r="E15" t="n">
-        <v>87147.3603505728</v>
+        <v>76217.14077094232</v>
       </c>
     </row>
     <row r="16">
@@ -4161,10 +7031,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>187147.3603505728</v>
+        <v>127888.9904800119</v>
       </c>
       <c r="E16" t="n">
-        <v>187147.3603505728</v>
+        <v>127888.9904800119</v>
       </c>
     </row>
     <row r="17">
@@ -4178,10 +7048,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>287147.3603505728</v>
+        <v>143948.5659776627</v>
       </c>
       <c r="E17" t="n">
-        <v>287147.3603505728</v>
+        <v>143948.5659776627</v>
       </c>
     </row>
     <row r="18">
@@ -4195,10 +7065,10 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>187147.3603505728</v>
+        <v>117759.0361736006</v>
       </c>
       <c r="E18" t="n">
-        <v>187147.3603505728</v>
+        <v>117759.0361736006</v>
       </c>
     </row>
     <row r="19">
@@ -4212,10 +7082,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>87147.3603505728</v>
+        <v>56476.03589554806</v>
       </c>
       <c r="E19" t="n">
-        <v>87147.3603505728</v>
+        <v>56476.03589554806</v>
       </c>
     </row>
     <row r="20">
@@ -4229,10 +7099,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-12852.6396494272</v>
+        <v>-26755.89806027774</v>
       </c>
       <c r="E20" t="n">
-        <v>-12852.6396494272</v>
+        <v>-26755.89806027774</v>
       </c>
     </row>
     <row r="21">
@@ -4246,10 +7116,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-112852.6396494273</v>
+        <v>-120716.961299032</v>
       </c>
       <c r="E21" t="n">
-        <v>-112852.6396494273</v>
+        <v>-120716.961299032</v>
       </c>
     </row>
     <row r="22">
@@ -4263,10 +7133,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-212852.6396494274</v>
+        <v>-218889.1763525619</v>
       </c>
       <c r="E22" t="n">
-        <v>-212852.6396494274</v>
+        <v>-218889.1763525619</v>
       </c>
     </row>
     <row r="23">
@@ -4280,10 +7150,10 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-312852.6396494274</v>
+        <v>-318418.591162944</v>
       </c>
       <c r="E23" t="n">
-        <v>-312852.6396494274</v>
+        <v>-318418.591162944</v>
       </c>
     </row>
     <row r="24">
@@ -4297,10 +7167,10 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-412852.6396494274</v>
+        <v>-418314.2322286189</v>
       </c>
       <c r="E24" t="n">
-        <v>-412852.6396494274</v>
+        <v>-418314.2322286189</v>
       </c>
     </row>
     <row r="25">
@@ -4314,10 +7184,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-512852.6396494274</v>
+        <v>-518294.0525143547</v>
       </c>
       <c r="E25" t="n">
-        <v>-512852.6396494274</v>
+        <v>-518294.0525143547</v>
       </c>
     </row>
     <row r="26">
@@ -4331,10 +7201,10 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-612852.6396494271</v>
+        <v>-618290.6102100769</v>
       </c>
       <c r="E26" t="n">
-        <v>-612852.6396494271</v>
+        <v>-618290.6102100769</v>
       </c>
     </row>
     <row r="27">
@@ -4348,10 +7218,10 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-712852.639649427</v>
+        <v>-718290.0865394962</v>
       </c>
       <c r="E27" t="n">
-        <v>-712852.639649427</v>
+        <v>-718290.0865394962</v>
       </c>
     </row>
     <row r="28">
@@ -4365,10 +7235,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-812852.639649427</v>
+        <v>-818290.0147741032</v>
       </c>
       <c r="E28" t="n">
-        <v>-812852.639649427</v>
+        <v>-818290.0147741032</v>
       </c>
     </row>
     <row r="29">
@@ -4382,10 +7252,10 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-912852.639649427</v>
+        <v>-918290.0058319522</v>
       </c>
       <c r="E29" t="n">
-        <v>-912852.639649427</v>
+        <v>-918290.0058319522</v>
       </c>
     </row>
     <row r="30">
@@ -4399,10 +7269,10 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-1012852.639649427</v>
+        <v>-1018290.00481025</v>
       </c>
       <c r="E30" t="n">
-        <v>-1012852.639649427</v>
+        <v>-1018290.00481025</v>
       </c>
     </row>
     <row r="31">
@@ -4416,10 +7286,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-1112852.639649427</v>
+        <v>-1118290.004702374</v>
       </c>
       <c r="E31" t="n">
-        <v>-1112852.639649427</v>
+        <v>-1118290.004702374</v>
       </c>
     </row>
     <row r="32">
@@ -4433,10 +7303,10 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-1212852.639649427</v>
+        <v>-1218290.004691772</v>
       </c>
       <c r="E32" t="n">
-        <v>-1212852.639649427</v>
+        <v>-1218290.004691772</v>
       </c>
     </row>
   </sheetData>
@@ -4496,10 +7366,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-612852.6396494271</v>
+        <v>-614593.6535945119</v>
       </c>
       <c r="E2" t="n">
-        <v>-612852.6396494271</v>
+        <v>-614593.6535945119</v>
       </c>
     </row>
     <row r="3">
@@ -4513,10 +7383,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-512852.6396494271</v>
+        <v>-514593.6535945119</v>
       </c>
       <c r="E3" t="n">
-        <v>-512852.6396494271</v>
+        <v>-514593.6535945119</v>
       </c>
     </row>
     <row r="4">
@@ -4530,10 +7400,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-412852.6396494271</v>
+        <v>-414593.6535945119</v>
       </c>
       <c r="E4" t="n">
-        <v>-412852.6396494271</v>
+        <v>-414593.6535945119</v>
       </c>
     </row>
     <row r="5">
@@ -4547,10 +7417,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-312852.6396494273</v>
+        <v>-314593.653594512</v>
       </c>
       <c r="E5" t="n">
-        <v>-312852.6396494273</v>
+        <v>-314593.653594512</v>
       </c>
     </row>
     <row r="6">
@@ -4564,10 +7434,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-212852.6396494273</v>
+        <v>-214593.653594512</v>
       </c>
       <c r="E6" t="n">
-        <v>-212852.6396494273</v>
+        <v>-214593.653594512</v>
       </c>
     </row>
     <row r="7">
@@ -4581,10 +7451,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-112852.6396494273</v>
+        <v>-114593.653594512</v>
       </c>
       <c r="E7" t="n">
-        <v>-112852.6396494273</v>
+        <v>-114593.653594512</v>
       </c>
     </row>
     <row r="8">
@@ -4598,10 +7468,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-12852.63964942723</v>
+        <v>-14593.65359451203</v>
       </c>
       <c r="E8" t="n">
-        <v>-12852.63964942723</v>
+        <v>-14593.65359451203</v>
       </c>
     </row>
     <row r="9">
@@ -4615,10 +7485,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>87147.36035057277</v>
+        <v>85406.34640548797</v>
       </c>
       <c r="E9" t="n">
-        <v>87147.36035057277</v>
+        <v>85406.34640548797</v>
       </c>
     </row>
     <row r="10">
@@ -4632,10 +7502,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-12852.63964942723</v>
+        <v>-14593.65359451206</v>
       </c>
       <c r="E10" t="n">
-        <v>-12852.63964942723</v>
+        <v>-14593.65359451206</v>
       </c>
     </row>
     <row r="11">
@@ -4649,10 +7519,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-112852.6396494272</v>
+        <v>-114593.653594512</v>
       </c>
       <c r="E11" t="n">
-        <v>-112852.6396494272</v>
+        <v>-114593.653594512</v>
       </c>
     </row>
     <row r="12">
@@ -4666,10 +7536,10 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-212852.6396494272</v>
+        <v>-214593.653594512</v>
       </c>
       <c r="E12" t="n">
-        <v>-212852.6396494272</v>
+        <v>-214593.653594512</v>
       </c>
     </row>
     <row r="13">
@@ -4683,10 +7553,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-112852.6396494272</v>
+        <v>-114593.653594512</v>
       </c>
       <c r="E13" t="n">
-        <v>-112852.6396494272</v>
+        <v>-114593.653594512</v>
       </c>
     </row>
     <row r="14">
@@ -4700,10 +7570,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-12852.6396494272</v>
+        <v>-14593.65359451203</v>
       </c>
       <c r="E14" t="n">
-        <v>-12852.6396494272</v>
+        <v>-14593.65359451203</v>
       </c>
     </row>
     <row r="15">
@@ -4711,16 +7581,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>87147.3603505728</v>
+        <v>85406.34640548797</v>
       </c>
       <c r="E15" t="n">
-        <v>87147.3603505728</v>
+        <v>85406.34640548797</v>
       </c>
     </row>
     <row r="16">
@@ -4734,10 +7604,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>187147.3603505728</v>
+        <v>185406.346405488</v>
       </c>
       <c r="E16" t="n">
-        <v>187147.3603505728</v>
+        <v>185406.346405488</v>
       </c>
     </row>
     <row r="17">
@@ -4751,10 +7621,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>287147.3603505728</v>
+        <v>285406.346405488</v>
       </c>
       <c r="E17" t="n">
-        <v>287147.3603505728</v>
+        <v>285406.346405488</v>
       </c>
     </row>
     <row r="18">
@@ -4768,10 +7638,10 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>187147.3603505728</v>
+        <v>185406.346405488</v>
       </c>
       <c r="E18" t="n">
-        <v>187147.3603505728</v>
+        <v>185406.346405488</v>
       </c>
     </row>
     <row r="19">
@@ -4785,10 +7655,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>87147.3603505728</v>
+        <v>85406.34640548794</v>
       </c>
       <c r="E19" t="n">
-        <v>87147.3603505728</v>
+        <v>85406.34640548794</v>
       </c>
     </row>
     <row r="20">
@@ -4802,10 +7672,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-12852.6396494272</v>
+        <v>-14593.65359451203</v>
       </c>
       <c r="E20" t="n">
-        <v>-12852.6396494272</v>
+        <v>-14593.65359451203</v>
       </c>
     </row>
     <row r="21">
@@ -4819,10 +7689,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-112852.6396494273</v>
+        <v>-114593.653594512</v>
       </c>
       <c r="E21" t="n">
-        <v>-112852.6396494273</v>
+        <v>-114593.653594512</v>
       </c>
     </row>
     <row r="22">
@@ -4836,10 +7706,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-212852.6396494274</v>
+        <v>-214593.653594512</v>
       </c>
       <c r="E22" t="n">
-        <v>-212852.6396494274</v>
+        <v>-214593.653594512</v>
       </c>
     </row>
     <row r="23">
@@ -4853,10 +7723,10 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-312852.6396494274</v>
+        <v>-314593.653594512</v>
       </c>
       <c r="E23" t="n">
-        <v>-312852.6396494274</v>
+        <v>-314593.653594512</v>
       </c>
     </row>
     <row r="24">
@@ -4870,10 +7740,10 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-412852.6396494274</v>
+        <v>-414593.6535945121</v>
       </c>
       <c r="E24" t="n">
-        <v>-412852.6396494274</v>
+        <v>-414593.6535945121</v>
       </c>
     </row>
     <row r="25">
@@ -4887,10 +7757,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-512852.6396494274</v>
+        <v>-514593.6535945121</v>
       </c>
       <c r="E25" t="n">
-        <v>-512852.6396494274</v>
+        <v>-514593.6535945121</v>
       </c>
     </row>
     <row r="26">
@@ -4904,10 +7774,10 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-612852.6396494271</v>
+        <v>-614593.6535945121</v>
       </c>
       <c r="E26" t="n">
-        <v>-612852.6396494271</v>
+        <v>-614593.6535945121</v>
       </c>
     </row>
     <row r="27">
@@ -4921,10 +7791,10 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-712852.639649427</v>
+        <v>-714593.6535945123</v>
       </c>
       <c r="E27" t="n">
-        <v>-712852.639649427</v>
+        <v>-714593.6535945123</v>
       </c>
     </row>
     <row r="28">
@@ -4938,10 +7808,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-812852.639649427</v>
+        <v>-814593.6535945123</v>
       </c>
       <c r="E28" t="n">
-        <v>-812852.639649427</v>
+        <v>-814593.6535945123</v>
       </c>
     </row>
     <row r="29">
@@ -4955,10 +7825,10 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-912852.639649427</v>
+        <v>-914593.6535945123</v>
       </c>
       <c r="E29" t="n">
-        <v>-912852.639649427</v>
+        <v>-914593.6535945123</v>
       </c>
     </row>
     <row r="30">
@@ -4972,10 +7842,10 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-1012852.639649427</v>
+        <v>-1014593.653594512</v>
       </c>
       <c r="E30" t="n">
-        <v>-1012852.639649427</v>
+        <v>-1014593.653594512</v>
       </c>
     </row>
     <row r="31">
@@ -4989,10 +7859,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-1112852.639649427</v>
+        <v>-1114593.653594512</v>
       </c>
       <c r="E31" t="n">
-        <v>-1112852.639649427</v>
+        <v>-1114593.653594512</v>
       </c>
     </row>
     <row r="32">
@@ -5006,10 +7876,10 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-1212852.639649427</v>
+        <v>-1214593.653594512</v>
       </c>
       <c r="E32" t="n">
-        <v>-1212852.639649427</v>
+        <v>-1214593.653594512</v>
       </c>
     </row>
   </sheetData>

--- a/RGGI PnL Output.xlsx
+++ b/RGGI PnL Output.xlsx
@@ -490,10 +490,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-614593.6535945119</v>
+        <v>-641003.5523072054</v>
       </c>
       <c r="E2" t="n">
-        <v>-614593.6535945119</v>
+        <v>-641003.5523072054</v>
       </c>
     </row>
     <row r="3">
@@ -507,10 +507,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-514593.6535945119</v>
+        <v>-541003.5523072054</v>
       </c>
       <c r="E3" t="n">
-        <v>-514593.6535945119</v>
+        <v>-541003.5523072054</v>
       </c>
     </row>
     <row r="4">
@@ -524,10 +524,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-414593.6535945119</v>
+        <v>-441003.5523072054</v>
       </c>
       <c r="E4" t="n">
-        <v>-414593.6535945119</v>
+        <v>-441003.5523072054</v>
       </c>
     </row>
     <row r="5">
@@ -541,10 +541,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-314593.653594512</v>
+        <v>-341003.5523072056</v>
       </c>
       <c r="E5" t="n">
-        <v>-314593.653594512</v>
+        <v>-341003.5523072056</v>
       </c>
     </row>
     <row r="6">
@@ -558,10 +558,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-214593.653594512</v>
+        <v>-241003.5523072056</v>
       </c>
       <c r="E6" t="n">
-        <v>-214593.653594512</v>
+        <v>-241003.5523072056</v>
       </c>
     </row>
     <row r="7">
@@ -575,10 +575,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-114593.653594512</v>
+        <v>-141003.5523072054</v>
       </c>
       <c r="E7" t="n">
-        <v>-114593.653594512</v>
+        <v>-141003.5523072054</v>
       </c>
     </row>
     <row r="8">
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-14593.65359451203</v>
+        <v>-41003.55230720546</v>
       </c>
       <c r="E8" t="n">
-        <v>-14593.65359451203</v>
+        <v>-41003.55230720546</v>
       </c>
     </row>
     <row r="9">
@@ -609,10 +609,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>85406.34640548797</v>
+        <v>58996.44769279454</v>
       </c>
       <c r="E9" t="n">
-        <v>85406.34640548797</v>
+        <v>58996.44769279454</v>
       </c>
     </row>
     <row r="10">
@@ -626,10 +626,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-14593.65359451206</v>
+        <v>-41003.55230720543</v>
       </c>
       <c r="E10" t="n">
-        <v>-14593.65359451206</v>
+        <v>-41003.55230720543</v>
       </c>
     </row>
     <row r="11">
@@ -643,10 +643,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-114593.653594512</v>
+        <v>-141003.5523072054</v>
       </c>
       <c r="E11" t="n">
-        <v>-114593.653594512</v>
+        <v>-141003.5523072054</v>
       </c>
     </row>
     <row r="12">
@@ -660,10 +660,10 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-214593.653594512</v>
+        <v>-241003.5523072054</v>
       </c>
       <c r="E12" t="n">
-        <v>-214593.653594512</v>
+        <v>-241003.5523072054</v>
       </c>
     </row>
     <row r="13">
@@ -677,10 +677,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-114593.653594512</v>
+        <v>-141003.5523072054</v>
       </c>
       <c r="E13" t="n">
-        <v>-114593.653594512</v>
+        <v>-141003.5523072054</v>
       </c>
     </row>
     <row r="14">
@@ -694,10 +694,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-14593.65359451203</v>
+        <v>-41003.55230720543</v>
       </c>
       <c r="E14" t="n">
-        <v>-14593.65359451203</v>
+        <v>-41003.55230720543</v>
       </c>
     </row>
     <row r="15">
@@ -711,10 +711,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>85406.34640548797</v>
+        <v>58996.44769279457</v>
       </c>
       <c r="E15" t="n">
-        <v>85406.34640548797</v>
+        <v>58996.44769279457</v>
       </c>
     </row>
     <row r="16">
@@ -728,10 +728,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>185406.346405488</v>
+        <v>158996.4476927946</v>
       </c>
       <c r="E16" t="n">
-        <v>185406.346405488</v>
+        <v>158996.4476927946</v>
       </c>
     </row>
     <row r="17">
@@ -745,10 +745,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>285406.346405488</v>
+        <v>258996.4476927946</v>
       </c>
       <c r="E17" t="n">
-        <v>285406.346405488</v>
+        <v>258996.4476927946</v>
       </c>
     </row>
     <row r="18">
@@ -762,10 +762,10 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>185406.346405488</v>
+        <v>158996.4476927946</v>
       </c>
       <c r="E18" t="n">
-        <v>185406.346405488</v>
+        <v>158996.4476927946</v>
       </c>
     </row>
     <row r="19">
@@ -779,10 +779,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>85406.34640548794</v>
+        <v>58996.44769279455</v>
       </c>
       <c r="E19" t="n">
-        <v>85406.34640548794</v>
+        <v>58996.44769279455</v>
       </c>
     </row>
     <row r="20">
@@ -796,10 +796,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-14593.65359451203</v>
+        <v>-41003.55230720539</v>
       </c>
       <c r="E20" t="n">
-        <v>-14593.65359451203</v>
+        <v>-41003.55230720539</v>
       </c>
     </row>
     <row r="21">
@@ -813,10 +813,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-114593.653594512</v>
+        <v>-141003.5523072054</v>
       </c>
       <c r="E21" t="n">
-        <v>-114593.653594512</v>
+        <v>-141003.5523072054</v>
       </c>
     </row>
     <row r="22">
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-214593.653594512</v>
+        <v>-241003.5523072054</v>
       </c>
       <c r="E22" t="n">
-        <v>-214593.653594512</v>
+        <v>-241003.5523072054</v>
       </c>
     </row>
     <row r="23">
@@ -847,10 +847,10 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-314593.653594512</v>
+        <v>-341003.5523072055</v>
       </c>
       <c r="E23" t="n">
-        <v>-314593.653594512</v>
+        <v>-341003.5523072055</v>
       </c>
     </row>
     <row r="24">
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-414593.6535945121</v>
+        <v>-441003.5523072055</v>
       </c>
       <c r="E24" t="n">
-        <v>-414593.6535945121</v>
+        <v>-441003.5523072055</v>
       </c>
     </row>
     <row r="25">
@@ -881,10 +881,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-514593.6535945121</v>
+        <v>-541003.5523072055</v>
       </c>
       <c r="E25" t="n">
-        <v>-514593.6535945121</v>
+        <v>-541003.5523072055</v>
       </c>
     </row>
     <row r="26">
@@ -898,10 +898,10 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-614593.6535945121</v>
+        <v>-641003.5523072055</v>
       </c>
       <c r="E26" t="n">
-        <v>-614593.6535945121</v>
+        <v>-641003.5523072055</v>
       </c>
     </row>
     <row r="27">
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-714593.6535945123</v>
+        <v>-741003.5523072055</v>
       </c>
       <c r="E27" t="n">
-        <v>-714593.6535945123</v>
+        <v>-741003.5523072055</v>
       </c>
     </row>
     <row r="28">
@@ -932,10 +932,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-814593.6535945123</v>
+        <v>-841003.5523072055</v>
       </c>
       <c r="E28" t="n">
-        <v>-814593.6535945123</v>
+        <v>-841003.5523072055</v>
       </c>
     </row>
     <row r="29">
@@ -949,10 +949,10 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-914593.6535945123</v>
+        <v>-941003.5523072055</v>
       </c>
       <c r="E29" t="n">
-        <v>-914593.6535945123</v>
+        <v>-941003.5523072055</v>
       </c>
     </row>
     <row r="30">
@@ -966,10 +966,10 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-1014593.653594512</v>
+        <v>-1041003.552307206</v>
       </c>
       <c r="E30" t="n">
-        <v>-1014593.653594512</v>
+        <v>-1041003.552307206</v>
       </c>
     </row>
     <row r="31">
@@ -983,10 +983,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-1114593.653594512</v>
+        <v>-1141003.552307206</v>
       </c>
       <c r="E31" t="n">
-        <v>-1114593.653594512</v>
+        <v>-1141003.552307206</v>
       </c>
     </row>
     <row r="32">
@@ -1000,10 +1000,10 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-1214593.653594512</v>
+        <v>-1241003.552307206</v>
       </c>
       <c r="E32" t="n">
-        <v>-1214593.653594512</v>
+        <v>-1241003.552307206</v>
       </c>
     </row>
   </sheetData>
@@ -1063,10 +1063,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-614593.6535945119</v>
+        <v>-641003.5523072054</v>
       </c>
       <c r="E2" t="n">
-        <v>-614593.6535945119</v>
+        <v>-641003.5523072054</v>
       </c>
     </row>
     <row r="3">
@@ -1080,10 +1080,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-514593.6535945119</v>
+        <v>-541003.5523072054</v>
       </c>
       <c r="E3" t="n">
-        <v>-514593.6535945119</v>
+        <v>-541003.5523072054</v>
       </c>
     </row>
     <row r="4">
@@ -1097,10 +1097,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-414593.6535945119</v>
+        <v>-441003.5523072054</v>
       </c>
       <c r="E4" t="n">
-        <v>-414593.6535945119</v>
+        <v>-441003.5523072054</v>
       </c>
     </row>
     <row r="5">
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-314593.653594512</v>
+        <v>-341003.5523072056</v>
       </c>
       <c r="E5" t="n">
-        <v>-314593.653594512</v>
+        <v>-341003.5523072056</v>
       </c>
     </row>
     <row r="6">
@@ -1131,10 +1131,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-214593.653594512</v>
+        <v>-241003.5523072056</v>
       </c>
       <c r="E6" t="n">
-        <v>-214593.653594512</v>
+        <v>-241003.5523072056</v>
       </c>
     </row>
     <row r="7">
@@ -1148,10 +1148,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-114593.653594512</v>
+        <v>-141003.5523072054</v>
       </c>
       <c r="E7" t="n">
-        <v>-114593.653594512</v>
+        <v>-141003.5523072054</v>
       </c>
     </row>
     <row r="8">
@@ -1165,10 +1165,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-14593.65359451203</v>
+        <v>-41003.55230720546</v>
       </c>
       <c r="E8" t="n">
-        <v>-14593.65359451203</v>
+        <v>-41003.55230720546</v>
       </c>
     </row>
     <row r="9">
@@ -1182,10 +1182,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>85406.34640548797</v>
+        <v>58996.44769279454</v>
       </c>
       <c r="E9" t="n">
-        <v>85406.34640548797</v>
+        <v>58996.44769279454</v>
       </c>
     </row>
     <row r="10">
@@ -1199,10 +1199,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-14593.65359451206</v>
+        <v>-41003.55230720543</v>
       </c>
       <c r="E10" t="n">
-        <v>-14593.65359451206</v>
+        <v>-41003.55230720543</v>
       </c>
     </row>
     <row r="11">
@@ -1216,10 +1216,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-114593.653594512</v>
+        <v>-141003.5523072054</v>
       </c>
       <c r="E11" t="n">
-        <v>-114593.653594512</v>
+        <v>-141003.5523072054</v>
       </c>
     </row>
     <row r="12">
@@ -1233,10 +1233,10 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-214593.653594512</v>
+        <v>-241003.5523072054</v>
       </c>
       <c r="E12" t="n">
-        <v>-214593.653594512</v>
+        <v>-241003.5523072054</v>
       </c>
     </row>
     <row r="13">
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-114593.653594512</v>
+        <v>-141003.5523072054</v>
       </c>
       <c r="E13" t="n">
-        <v>-114593.653594512</v>
+        <v>-141003.5523072054</v>
       </c>
     </row>
     <row r="14">
@@ -1267,10 +1267,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-14593.65359451203</v>
+        <v>-41003.55230720543</v>
       </c>
       <c r="E14" t="n">
-        <v>-14593.65359451203</v>
+        <v>-41003.55230720543</v>
       </c>
     </row>
     <row r="15">
@@ -1284,10 +1284,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>85406.34640548797</v>
+        <v>58996.44769279457</v>
       </c>
       <c r="E15" t="n">
-        <v>85406.34640548797</v>
+        <v>58996.44769279457</v>
       </c>
     </row>
     <row r="16">
@@ -1301,10 +1301,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>185406.346405488</v>
+        <v>158996.4476927946</v>
       </c>
       <c r="E16" t="n">
-        <v>185406.346405488</v>
+        <v>158996.4476927946</v>
       </c>
     </row>
     <row r="17">
@@ -1318,10 +1318,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>285406.346405488</v>
+        <v>258996.4476927946</v>
       </c>
       <c r="E17" t="n">
-        <v>285406.346405488</v>
+        <v>258996.4476927946</v>
       </c>
     </row>
     <row r="18">
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>185406.346405488</v>
+        <v>158996.4476927946</v>
       </c>
       <c r="E18" t="n">
-        <v>185406.346405488</v>
+        <v>158996.4476927946</v>
       </c>
     </row>
     <row r="19">
@@ -1352,10 +1352,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>85406.34640548794</v>
+        <v>58996.44769279455</v>
       </c>
       <c r="E19" t="n">
-        <v>85406.34640548794</v>
+        <v>58996.44769279455</v>
       </c>
     </row>
     <row r="20">
@@ -1369,10 +1369,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-14593.65359451203</v>
+        <v>-41003.55230720539</v>
       </c>
       <c r="E20" t="n">
-        <v>-14593.65359451203</v>
+        <v>-41003.55230720539</v>
       </c>
     </row>
     <row r="21">
@@ -1386,10 +1386,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-114593.653594512</v>
+        <v>-141003.5523072054</v>
       </c>
       <c r="E21" t="n">
-        <v>-114593.653594512</v>
+        <v>-141003.5523072054</v>
       </c>
     </row>
     <row r="22">
@@ -1403,10 +1403,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-214593.653594512</v>
+        <v>-241003.5523072054</v>
       </c>
       <c r="E22" t="n">
-        <v>-214593.653594512</v>
+        <v>-241003.5523072054</v>
       </c>
     </row>
     <row r="23">
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-314593.653594512</v>
+        <v>-341003.5523072055</v>
       </c>
       <c r="E23" t="n">
-        <v>-314593.653594512</v>
+        <v>-341003.5523072055</v>
       </c>
     </row>
     <row r="24">
@@ -1437,10 +1437,10 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-414593.6535945121</v>
+        <v>-441003.5523072055</v>
       </c>
       <c r="E24" t="n">
-        <v>-414593.6535945121</v>
+        <v>-441003.5523072055</v>
       </c>
     </row>
     <row r="25">
@@ -1454,10 +1454,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-514593.6535945121</v>
+        <v>-541003.5523072055</v>
       </c>
       <c r="E25" t="n">
-        <v>-514593.6535945121</v>
+        <v>-541003.5523072055</v>
       </c>
     </row>
     <row r="26">
@@ -1471,10 +1471,10 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-614593.6535945121</v>
+        <v>-641003.5523072055</v>
       </c>
       <c r="E26" t="n">
-        <v>-614593.6535945121</v>
+        <v>-641003.5523072055</v>
       </c>
     </row>
     <row r="27">
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-714593.6535945123</v>
+        <v>-741003.5523072055</v>
       </c>
       <c r="E27" t="n">
-        <v>-714593.6535945123</v>
+        <v>-741003.5523072055</v>
       </c>
     </row>
     <row r="28">
@@ -1505,10 +1505,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-814593.6535945123</v>
+        <v>-841003.5523072055</v>
       </c>
       <c r="E28" t="n">
-        <v>-814593.6535945123</v>
+        <v>-841003.5523072055</v>
       </c>
     </row>
     <row r="29">
@@ -1522,10 +1522,10 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-914593.6535945123</v>
+        <v>-941003.5523072055</v>
       </c>
       <c r="E29" t="n">
-        <v>-914593.6535945123</v>
+        <v>-941003.5523072055</v>
       </c>
     </row>
     <row r="30">
@@ -1539,10 +1539,10 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-1014593.653594512</v>
+        <v>-1041003.552307206</v>
       </c>
       <c r="E30" t="n">
-        <v>-1014593.653594512</v>
+        <v>-1041003.552307206</v>
       </c>
     </row>
     <row r="31">
@@ -1556,10 +1556,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-1114593.653594512</v>
+        <v>-1141003.552307206</v>
       </c>
       <c r="E31" t="n">
-        <v>-1114593.653594512</v>
+        <v>-1141003.552307206</v>
       </c>
     </row>
     <row r="32">
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-1214593.653594512</v>
+        <v>-1241003.552307206</v>
       </c>
       <c r="E32" t="n">
-        <v>-1214593.653594512</v>
+        <v>-1241003.552307206</v>
       </c>
     </row>
   </sheetData>
@@ -1636,10 +1636,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-614593.6535945119</v>
+        <v>-641003.5523072054</v>
       </c>
       <c r="E2" t="n">
-        <v>-614593.6535945119</v>
+        <v>-641003.5523072054</v>
       </c>
     </row>
     <row r="3">
@@ -1653,10 +1653,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-514593.6535945119</v>
+        <v>-541003.5523072054</v>
       </c>
       <c r="E3" t="n">
-        <v>-514593.6535945119</v>
+        <v>-541003.5523072054</v>
       </c>
     </row>
     <row r="4">
@@ -1670,10 +1670,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-414593.6535945119</v>
+        <v>-441003.5523072054</v>
       </c>
       <c r="E4" t="n">
-        <v>-414593.6535945119</v>
+        <v>-441003.5523072054</v>
       </c>
     </row>
     <row r="5">
@@ -1687,10 +1687,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-314593.653594512</v>
+        <v>-341003.5523072056</v>
       </c>
       <c r="E5" t="n">
-        <v>-314593.653594512</v>
+        <v>-341003.5523072056</v>
       </c>
     </row>
     <row r="6">
@@ -1704,10 +1704,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-214593.653594512</v>
+        <v>-241003.5523072056</v>
       </c>
       <c r="E6" t="n">
-        <v>-214593.653594512</v>
+        <v>-241003.5523072056</v>
       </c>
     </row>
     <row r="7">
@@ -1721,10 +1721,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-114593.653594512</v>
+        <v>-141003.5523072054</v>
       </c>
       <c r="E7" t="n">
-        <v>-114593.653594512</v>
+        <v>-141003.5523072054</v>
       </c>
     </row>
     <row r="8">
@@ -1738,10 +1738,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-14593.65359451203</v>
+        <v>-41003.55230720546</v>
       </c>
       <c r="E8" t="n">
-        <v>-14593.65359451203</v>
+        <v>-41003.55230720546</v>
       </c>
     </row>
     <row r="9">
@@ -1755,10 +1755,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>85406.34640548797</v>
+        <v>58996.44769279454</v>
       </c>
       <c r="E9" t="n">
-        <v>85406.34640548797</v>
+        <v>58996.44769279454</v>
       </c>
     </row>
     <row r="10">
@@ -1772,10 +1772,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-14593.65359451206</v>
+        <v>-41003.55230720543</v>
       </c>
       <c r="E10" t="n">
-        <v>-14593.65359451206</v>
+        <v>-41003.55230720543</v>
       </c>
     </row>
     <row r="11">
@@ -1789,10 +1789,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-114593.653594512</v>
+        <v>-141003.5523072054</v>
       </c>
       <c r="E11" t="n">
-        <v>-114593.653594512</v>
+        <v>-141003.5523072054</v>
       </c>
     </row>
     <row r="12">
@@ -1806,10 +1806,10 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-214593.653594512</v>
+        <v>-241003.5523072054</v>
       </c>
       <c r="E12" t="n">
-        <v>-214593.653594512</v>
+        <v>-241003.5523072054</v>
       </c>
     </row>
     <row r="13">
@@ -1823,10 +1823,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-114593.653594512</v>
+        <v>-141003.5523072054</v>
       </c>
       <c r="E13" t="n">
-        <v>-114593.653594512</v>
+        <v>-141003.5523072054</v>
       </c>
     </row>
     <row r="14">
@@ -1840,10 +1840,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-14593.65359451203</v>
+        <v>-41003.55230720543</v>
       </c>
       <c r="E14" t="n">
-        <v>-14593.65359451203</v>
+        <v>-41003.55230720543</v>
       </c>
     </row>
     <row r="15">
@@ -1857,10 +1857,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>85406.34640548797</v>
+        <v>58996.44769279457</v>
       </c>
       <c r="E15" t="n">
-        <v>85406.34640548797</v>
+        <v>58996.44769279457</v>
       </c>
     </row>
     <row r="16">
@@ -1874,10 +1874,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>185406.346405488</v>
+        <v>158996.4476927946</v>
       </c>
       <c r="E16" t="n">
-        <v>185406.346405488</v>
+        <v>158996.4476927946</v>
       </c>
     </row>
     <row r="17">
@@ -1891,10 +1891,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>285406.346405488</v>
+        <v>258996.4476927946</v>
       </c>
       <c r="E17" t="n">
-        <v>285406.346405488</v>
+        <v>258996.4476927946</v>
       </c>
     </row>
     <row r="18">
@@ -1908,10 +1908,10 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>185406.346405488</v>
+        <v>158996.4476927946</v>
       </c>
       <c r="E18" t="n">
-        <v>185406.346405488</v>
+        <v>158996.4476927946</v>
       </c>
     </row>
     <row r="19">
@@ -1925,10 +1925,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>85406.34640548794</v>
+        <v>58996.44769279455</v>
       </c>
       <c r="E19" t="n">
-        <v>85406.34640548794</v>
+        <v>58996.44769279455</v>
       </c>
     </row>
     <row r="20">
@@ -1942,10 +1942,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-14593.65359451203</v>
+        <v>-41003.55230720539</v>
       </c>
       <c r="E20" t="n">
-        <v>-14593.65359451203</v>
+        <v>-41003.55230720539</v>
       </c>
     </row>
     <row r="21">
@@ -1959,10 +1959,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-114593.653594512</v>
+        <v>-141003.5523072054</v>
       </c>
       <c r="E21" t="n">
-        <v>-114593.653594512</v>
+        <v>-141003.5523072054</v>
       </c>
     </row>
     <row r="22">
@@ -1976,10 +1976,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-214593.653594512</v>
+        <v>-241003.5523072054</v>
       </c>
       <c r="E22" t="n">
-        <v>-214593.653594512</v>
+        <v>-241003.5523072054</v>
       </c>
     </row>
     <row r="23">
@@ -1993,10 +1993,10 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-314593.653594512</v>
+        <v>-341003.5523072055</v>
       </c>
       <c r="E23" t="n">
-        <v>-314593.653594512</v>
+        <v>-341003.5523072055</v>
       </c>
     </row>
     <row r="24">
@@ -2010,10 +2010,10 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-414593.6535945121</v>
+        <v>-441003.5523072055</v>
       </c>
       <c r="E24" t="n">
-        <v>-414593.6535945121</v>
+        <v>-441003.5523072055</v>
       </c>
     </row>
     <row r="25">
@@ -2027,10 +2027,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-514593.6535945121</v>
+        <v>-541003.5523072055</v>
       </c>
       <c r="E25" t="n">
-        <v>-514593.6535945121</v>
+        <v>-541003.5523072055</v>
       </c>
     </row>
     <row r="26">
@@ -2044,10 +2044,10 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-614593.6535945121</v>
+        <v>-641003.5523072055</v>
       </c>
       <c r="E26" t="n">
-        <v>-614593.6535945121</v>
+        <v>-641003.5523072055</v>
       </c>
     </row>
     <row r="27">
@@ -2061,10 +2061,10 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-714593.6535945123</v>
+        <v>-741003.5523072055</v>
       </c>
       <c r="E27" t="n">
-        <v>-714593.6535945123</v>
+        <v>-741003.5523072055</v>
       </c>
     </row>
     <row r="28">
@@ -2078,10 +2078,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-814593.6535945123</v>
+        <v>-841003.5523072055</v>
       </c>
       <c r="E28" t="n">
-        <v>-814593.6535945123</v>
+        <v>-841003.5523072055</v>
       </c>
     </row>
     <row r="29">
@@ -2095,10 +2095,10 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-914593.6535945123</v>
+        <v>-941003.5523072055</v>
       </c>
       <c r="E29" t="n">
-        <v>-914593.6535945123</v>
+        <v>-941003.5523072055</v>
       </c>
     </row>
     <row r="30">
@@ -2112,10 +2112,10 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-1014593.653594512</v>
+        <v>-1041003.552307206</v>
       </c>
       <c r="E30" t="n">
-        <v>-1014593.653594512</v>
+        <v>-1041003.552307206</v>
       </c>
     </row>
     <row r="31">
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-1114593.653594512</v>
+        <v>-1141003.552307206</v>
       </c>
       <c r="E31" t="n">
-        <v>-1114593.653594512</v>
+        <v>-1141003.552307206</v>
       </c>
     </row>
     <row r="32">
@@ -2146,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-1214593.653594512</v>
+        <v>-1241003.552307206</v>
       </c>
       <c r="E32" t="n">
-        <v>-1214593.653594512</v>
+        <v>-1241003.552307206</v>
       </c>
     </row>
   </sheetData>
@@ -2209,10 +2209,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-614593.6535945119</v>
+        <v>-641003.5523072054</v>
       </c>
       <c r="E2" t="n">
-        <v>-614593.6535945119</v>
+        <v>-641003.5523072054</v>
       </c>
     </row>
     <row r="3">
@@ -2226,10 +2226,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-514593.6535945119</v>
+        <v>-541003.5523072054</v>
       </c>
       <c r="E3" t="n">
-        <v>-514593.6535945119</v>
+        <v>-541003.5523072054</v>
       </c>
     </row>
     <row r="4">
@@ -2243,10 +2243,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-414593.6535945119</v>
+        <v>-441003.5523072054</v>
       </c>
       <c r="E4" t="n">
-        <v>-414593.6535945119</v>
+        <v>-441003.5523072054</v>
       </c>
     </row>
     <row r="5">
@@ -2260,10 +2260,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-314593.653594512</v>
+        <v>-341003.5523072056</v>
       </c>
       <c r="E5" t="n">
-        <v>-314593.653594512</v>
+        <v>-341003.5523072056</v>
       </c>
     </row>
     <row r="6">
@@ -2277,10 +2277,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-214593.653594512</v>
+        <v>-241003.5523072056</v>
       </c>
       <c r="E6" t="n">
-        <v>-214593.653594512</v>
+        <v>-241003.5523072056</v>
       </c>
     </row>
     <row r="7">
@@ -2294,10 +2294,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-114593.653594512</v>
+        <v>-141003.5523072054</v>
       </c>
       <c r="E7" t="n">
-        <v>-114593.653594512</v>
+        <v>-141003.5523072054</v>
       </c>
     </row>
     <row r="8">
@@ -2311,10 +2311,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-14593.65359451203</v>
+        <v>-41003.55230720546</v>
       </c>
       <c r="E8" t="n">
-        <v>-14593.65359451203</v>
+        <v>-41003.55230720546</v>
       </c>
     </row>
     <row r="9">
@@ -2328,10 +2328,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>85406.34640548797</v>
+        <v>58996.44769279454</v>
       </c>
       <c r="E9" t="n">
-        <v>85406.34640548797</v>
+        <v>58996.44769279454</v>
       </c>
     </row>
     <row r="10">
@@ -2345,10 +2345,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-14593.65359451206</v>
+        <v>-41003.55230720543</v>
       </c>
       <c r="E10" t="n">
-        <v>-14593.65359451206</v>
+        <v>-41003.55230720543</v>
       </c>
     </row>
     <row r="11">
@@ -2362,10 +2362,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-114593.653594512</v>
+        <v>-141003.5523072054</v>
       </c>
       <c r="E11" t="n">
-        <v>-114593.653594512</v>
+        <v>-141003.5523072054</v>
       </c>
     </row>
     <row r="12">
@@ -2379,10 +2379,10 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-214593.653594512</v>
+        <v>-241003.5523072054</v>
       </c>
       <c r="E12" t="n">
-        <v>-214593.653594512</v>
+        <v>-241003.5523072054</v>
       </c>
     </row>
     <row r="13">
@@ -2396,10 +2396,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-114593.653594512</v>
+        <v>-141003.5523072054</v>
       </c>
       <c r="E13" t="n">
-        <v>-114593.653594512</v>
+        <v>-141003.5523072054</v>
       </c>
     </row>
     <row r="14">
@@ -2413,10 +2413,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-14593.65359451203</v>
+        <v>-41003.55230720543</v>
       </c>
       <c r="E14" t="n">
-        <v>-14593.65359451203</v>
+        <v>-41003.55230720543</v>
       </c>
     </row>
     <row r="15">
@@ -2430,10 +2430,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>85406.34640548797</v>
+        <v>58996.44769279457</v>
       </c>
       <c r="E15" t="n">
-        <v>85406.34640548797</v>
+        <v>58996.44769279457</v>
       </c>
     </row>
     <row r="16">
@@ -2447,10 +2447,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>185406.346405488</v>
+        <v>158996.4476927946</v>
       </c>
       <c r="E16" t="n">
-        <v>185406.346405488</v>
+        <v>158996.4476927946</v>
       </c>
     </row>
     <row r="17">
@@ -2464,10 +2464,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>285406.346405488</v>
+        <v>258996.4476927946</v>
       </c>
       <c r="E17" t="n">
-        <v>285406.346405488</v>
+        <v>258996.4476927946</v>
       </c>
     </row>
     <row r="18">
@@ -2481,10 +2481,10 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>185406.346405488</v>
+        <v>158996.4476927946</v>
       </c>
       <c r="E18" t="n">
-        <v>185406.346405488</v>
+        <v>158996.4476927946</v>
       </c>
     </row>
     <row r="19">
@@ -2498,10 +2498,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>85406.34640548794</v>
+        <v>58996.44769279455</v>
       </c>
       <c r="E19" t="n">
-        <v>85406.34640548794</v>
+        <v>58996.44769279455</v>
       </c>
     </row>
     <row r="20">
@@ -2515,10 +2515,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-14593.65359451203</v>
+        <v>-41003.55230720539</v>
       </c>
       <c r="E20" t="n">
-        <v>-14593.65359451203</v>
+        <v>-41003.55230720539</v>
       </c>
     </row>
     <row r="21">
@@ -2532,10 +2532,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-114593.653594512</v>
+        <v>-141003.5523072054</v>
       </c>
       <c r="E21" t="n">
-        <v>-114593.653594512</v>
+        <v>-141003.5523072054</v>
       </c>
     </row>
     <row r="22">
@@ -2549,10 +2549,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-214593.653594512</v>
+        <v>-241003.5523072054</v>
       </c>
       <c r="E22" t="n">
-        <v>-214593.653594512</v>
+        <v>-241003.5523072054</v>
       </c>
     </row>
     <row r="23">
@@ -2566,10 +2566,10 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-314593.653594512</v>
+        <v>-341003.5523072055</v>
       </c>
       <c r="E23" t="n">
-        <v>-314593.653594512</v>
+        <v>-341003.5523072055</v>
       </c>
     </row>
     <row r="24">
@@ -2583,10 +2583,10 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-414593.6535945121</v>
+        <v>-441003.5523072055</v>
       </c>
       <c r="E24" t="n">
-        <v>-414593.6535945121</v>
+        <v>-441003.5523072055</v>
       </c>
     </row>
     <row r="25">
@@ -2600,10 +2600,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-514593.6535945121</v>
+        <v>-541003.5523072055</v>
       </c>
       <c r="E25" t="n">
-        <v>-514593.6535945121</v>
+        <v>-541003.5523072055</v>
       </c>
     </row>
     <row r="26">
@@ -2617,10 +2617,10 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-614593.6535945121</v>
+        <v>-641003.5523072055</v>
       </c>
       <c r="E26" t="n">
-        <v>-614593.6535945121</v>
+        <v>-641003.5523072055</v>
       </c>
     </row>
     <row r="27">
@@ -2634,10 +2634,10 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-714593.6535945123</v>
+        <v>-741003.5523072055</v>
       </c>
       <c r="E27" t="n">
-        <v>-714593.6535945123</v>
+        <v>-741003.5523072055</v>
       </c>
     </row>
     <row r="28">
@@ -2651,10 +2651,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-814593.6535945123</v>
+        <v>-841003.5523072055</v>
       </c>
       <c r="E28" t="n">
-        <v>-814593.6535945123</v>
+        <v>-841003.5523072055</v>
       </c>
     </row>
     <row r="29">
@@ -2668,10 +2668,10 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-914593.6535945123</v>
+        <v>-941003.5523072055</v>
       </c>
       <c r="E29" t="n">
-        <v>-914593.6535945123</v>
+        <v>-941003.5523072055</v>
       </c>
     </row>
     <row r="30">
@@ -2685,10 +2685,10 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-1014593.653594512</v>
+        <v>-1041003.552307206</v>
       </c>
       <c r="E30" t="n">
-        <v>-1014593.653594512</v>
+        <v>-1041003.552307206</v>
       </c>
     </row>
     <row r="31">
@@ -2702,10 +2702,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-1114593.653594512</v>
+        <v>-1141003.552307206</v>
       </c>
       <c r="E31" t="n">
-        <v>-1114593.653594512</v>
+        <v>-1141003.552307206</v>
       </c>
     </row>
     <row r="32">
@@ -2719,10 +2719,10 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-1214593.653594512</v>
+        <v>-1241003.552307206</v>
       </c>
       <c r="E32" t="n">
-        <v>-1214593.653594512</v>
+        <v>-1241003.552307206</v>
       </c>
     </row>
   </sheetData>
@@ -2782,10 +2782,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-614593.6535945119</v>
+        <v>-641003.5523072054</v>
       </c>
       <c r="E2" t="n">
-        <v>-614593.6535945119</v>
+        <v>-641003.5523072054</v>
       </c>
     </row>
     <row r="3">
@@ -2799,10 +2799,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-514593.6535945119</v>
+        <v>-541003.5523072054</v>
       </c>
       <c r="E3" t="n">
-        <v>-514593.6535945119</v>
+        <v>-541003.5523072054</v>
       </c>
     </row>
     <row r="4">
@@ -2816,10 +2816,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-414593.6535945119</v>
+        <v>-441003.5523072054</v>
       </c>
       <c r="E4" t="n">
-        <v>-414593.6535945119</v>
+        <v>-441003.5523072054</v>
       </c>
     </row>
     <row r="5">
@@ -2833,10 +2833,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-314593.653594512</v>
+        <v>-341003.5523072056</v>
       </c>
       <c r="E5" t="n">
-        <v>-314593.653594512</v>
+        <v>-341003.5523072056</v>
       </c>
     </row>
     <row r="6">
@@ -2850,10 +2850,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-214593.653594512</v>
+        <v>-241003.5523072056</v>
       </c>
       <c r="E6" t="n">
-        <v>-214593.653594512</v>
+        <v>-241003.5523072056</v>
       </c>
     </row>
     <row r="7">
@@ -2867,10 +2867,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-114593.653594512</v>
+        <v>-141003.5523072054</v>
       </c>
       <c r="E7" t="n">
-        <v>-114593.653594512</v>
+        <v>-141003.5523072054</v>
       </c>
     </row>
     <row r="8">
@@ -2884,10 +2884,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-14593.65359451203</v>
+        <v>-41003.55230720546</v>
       </c>
       <c r="E8" t="n">
-        <v>-14593.65359451203</v>
+        <v>-41003.55230720546</v>
       </c>
     </row>
     <row r="9">
@@ -2901,10 +2901,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>85406.34640548797</v>
+        <v>58996.44769279454</v>
       </c>
       <c r="E9" t="n">
-        <v>85406.34640548797</v>
+        <v>58996.44769279454</v>
       </c>
     </row>
     <row r="10">
@@ -2918,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-14593.65359451206</v>
+        <v>-41003.55230720543</v>
       </c>
       <c r="E10" t="n">
-        <v>-14593.65359451206</v>
+        <v>-41003.55230720543</v>
       </c>
     </row>
     <row r="11">
@@ -2935,10 +2935,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-114593.653594512</v>
+        <v>-141003.5523072054</v>
       </c>
       <c r="E11" t="n">
-        <v>-114593.653594512</v>
+        <v>-141003.5523072054</v>
       </c>
     </row>
     <row r="12">
@@ -2952,10 +2952,10 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-214593.653594512</v>
+        <v>-241003.5523072054</v>
       </c>
       <c r="E12" t="n">
-        <v>-214593.653594512</v>
+        <v>-241003.5523072054</v>
       </c>
     </row>
     <row r="13">
@@ -2969,10 +2969,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-114593.653594512</v>
+        <v>-141003.5523072054</v>
       </c>
       <c r="E13" t="n">
-        <v>-114593.653594512</v>
+        <v>-141003.5523072054</v>
       </c>
     </row>
     <row r="14">
@@ -2986,10 +2986,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-14593.65359451203</v>
+        <v>-41003.55230720543</v>
       </c>
       <c r="E14" t="n">
-        <v>-14593.65359451203</v>
+        <v>-41003.55230720543</v>
       </c>
     </row>
     <row r="15">
@@ -3003,10 +3003,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>85406.34640548797</v>
+        <v>58996.44769279457</v>
       </c>
       <c r="E15" t="n">
-        <v>85406.34640548797</v>
+        <v>58996.44769279457</v>
       </c>
     </row>
     <row r="16">
@@ -3020,10 +3020,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>185406.346405488</v>
+        <v>158996.4476927946</v>
       </c>
       <c r="E16" t="n">
-        <v>185406.346405488</v>
+        <v>158996.4476927946</v>
       </c>
     </row>
     <row r="17">
@@ -3037,10 +3037,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>285406.346405488</v>
+        <v>258996.4476927946</v>
       </c>
       <c r="E17" t="n">
-        <v>285406.346405488</v>
+        <v>258996.4476927946</v>
       </c>
     </row>
     <row r="18">
@@ -3054,10 +3054,10 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>185406.346405488</v>
+        <v>158996.4476927946</v>
       </c>
       <c r="E18" t="n">
-        <v>185406.346405488</v>
+        <v>158996.4476927946</v>
       </c>
     </row>
     <row r="19">
@@ -3071,10 +3071,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>85406.34640548794</v>
+        <v>58996.44769279455</v>
       </c>
       <c r="E19" t="n">
-        <v>85406.34640548794</v>
+        <v>58996.44769279455</v>
       </c>
     </row>
     <row r="20">
@@ -3088,10 +3088,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-14593.65359451203</v>
+        <v>-41003.55230720539</v>
       </c>
       <c r="E20" t="n">
-        <v>-14593.65359451203</v>
+        <v>-41003.55230720539</v>
       </c>
     </row>
     <row r="21">
@@ -3105,10 +3105,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-114593.653594512</v>
+        <v>-141003.5523072054</v>
       </c>
       <c r="E21" t="n">
-        <v>-114593.653594512</v>
+        <v>-141003.5523072054</v>
       </c>
     </row>
     <row r="22">
@@ -3122,10 +3122,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-214593.653594512</v>
+        <v>-241003.5523072054</v>
       </c>
       <c r="E22" t="n">
-        <v>-214593.653594512</v>
+        <v>-241003.5523072054</v>
       </c>
     </row>
     <row r="23">
@@ -3139,10 +3139,10 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-314593.653594512</v>
+        <v>-341003.5523072055</v>
       </c>
       <c r="E23" t="n">
-        <v>-314593.653594512</v>
+        <v>-341003.5523072055</v>
       </c>
     </row>
     <row r="24">
@@ -3156,10 +3156,10 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-414593.6535945121</v>
+        <v>-441003.5523072055</v>
       </c>
       <c r="E24" t="n">
-        <v>-414593.6535945121</v>
+        <v>-441003.5523072055</v>
       </c>
     </row>
     <row r="25">
@@ -3173,10 +3173,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-514593.6535945121</v>
+        <v>-541003.5523072055</v>
       </c>
       <c r="E25" t="n">
-        <v>-514593.6535945121</v>
+        <v>-541003.5523072055</v>
       </c>
     </row>
     <row r="26">
@@ -3190,10 +3190,10 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-614593.6535945121</v>
+        <v>-641003.5523072055</v>
       </c>
       <c r="E26" t="n">
-        <v>-614593.6535945121</v>
+        <v>-641003.5523072055</v>
       </c>
     </row>
     <row r="27">
@@ -3207,10 +3207,10 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-714593.6535945123</v>
+        <v>-741003.5523072055</v>
       </c>
       <c r="E27" t="n">
-        <v>-714593.6535945123</v>
+        <v>-741003.5523072055</v>
       </c>
     </row>
     <row r="28">
@@ -3224,10 +3224,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-814593.6535945123</v>
+        <v>-841003.5523072055</v>
       </c>
       <c r="E28" t="n">
-        <v>-814593.6535945123</v>
+        <v>-841003.5523072055</v>
       </c>
     </row>
     <row r="29">
@@ -3241,10 +3241,10 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-914593.6535945123</v>
+        <v>-941003.5523072055</v>
       </c>
       <c r="E29" t="n">
-        <v>-914593.6535945123</v>
+        <v>-941003.5523072055</v>
       </c>
     </row>
     <row r="30">
@@ -3258,10 +3258,10 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-1014593.653594512</v>
+        <v>-1041003.552307206</v>
       </c>
       <c r="E30" t="n">
-        <v>-1014593.653594512</v>
+        <v>-1041003.552307206</v>
       </c>
     </row>
     <row r="31">
@@ -3275,10 +3275,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-1114593.653594512</v>
+        <v>-1141003.552307206</v>
       </c>
       <c r="E31" t="n">
-        <v>-1114593.653594512</v>
+        <v>-1141003.552307206</v>
       </c>
     </row>
     <row r="32">
@@ -3292,10 +3292,10 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-1214593.653594512</v>
+        <v>-1241003.552307206</v>
       </c>
       <c r="E32" t="n">
-        <v>-1214593.653594512</v>
+        <v>-1241003.552307206</v>
       </c>
     </row>
   </sheetData>
@@ -3355,10 +3355,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-609624.546979496</v>
+        <v>-635858.11818485</v>
       </c>
       <c r="E2" t="n">
-        <v>-609624.546979496</v>
+        <v>-635858.11818485</v>
       </c>
     </row>
     <row r="3">
@@ -3372,10 +3372,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-518392.8019911228</v>
+        <v>-536085.4695261208</v>
       </c>
       <c r="E3" t="n">
-        <v>-518392.8019911228</v>
+        <v>-536085.4695261208</v>
       </c>
     </row>
     <row r="4">
@@ -3389,10 +3389,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-434793.5122360282</v>
+        <v>-437460.2822100662</v>
       </c>
       <c r="E4" t="n">
-        <v>-434793.5122360282</v>
+        <v>-437460.2822100662</v>
       </c>
     </row>
     <row r="5">
@@ -3406,10 +3406,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-360975.8527479408</v>
+        <v>-342909.3937816491</v>
       </c>
       <c r="E5" t="n">
-        <v>-360975.8527479408</v>
+        <v>-342909.3937816491</v>
       </c>
     </row>
     <row r="6">
@@ -3423,10 +3423,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-297728.7451346468</v>
+        <v>-258319.276581502</v>
       </c>
       <c r="E6" t="n">
-        <v>-297728.7451346468</v>
+        <v>-258319.276581502</v>
       </c>
     </row>
     <row r="7">
@@ -3440,10 +3440,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-244202.9860471509</v>
+        <v>-191440.813216187</v>
       </c>
       <c r="E7" t="n">
-        <v>-244202.9860471509</v>
+        <v>-191440.813216187</v>
       </c>
     </row>
     <row r="8">
@@ -3457,10 +3457,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-198294.6402266521</v>
+        <v>-148058.6302064239</v>
       </c>
       <c r="E8" t="n">
-        <v>-198294.6402266521</v>
+        <v>-148058.6302064239</v>
       </c>
     </row>
     <row r="9">
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-157504.2350982002</v>
+        <v>-127407.6462809724</v>
       </c>
       <c r="E9" t="n">
-        <v>-157504.2350982002</v>
+        <v>-127407.6462809724</v>
       </c>
     </row>
     <row r="10">
@@ -3491,10 +3491,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-119897.8970827547</v>
+        <v>-120403.9228058986</v>
       </c>
       <c r="E10" t="n">
-        <v>-119897.8970827547</v>
+        <v>-120403.9228058986</v>
       </c>
     </row>
     <row r="11">
@@ -3508,10 +3508,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-84801.85623339552</v>
+        <v>-112991.8055438752</v>
       </c>
       <c r="E11" t="n">
-        <v>-84801.85623339552</v>
+        <v>-112991.8055438752</v>
       </c>
     </row>
     <row r="12">
@@ -3525,10 +3525,10 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-53017.06221615608</v>
+        <v>-93099.68096193844</v>
       </c>
       <c r="E12" t="n">
-        <v>-53017.06221615608</v>
+        <v>-93099.68096193844</v>
       </c>
     </row>
     <row r="13">
@@ -3542,10 +3542,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-26551.09362331178</v>
+        <v>-56731.55226481857</v>
       </c>
       <c r="E13" t="n">
-        <v>-26551.09362331178</v>
+        <v>-56731.55226481857</v>
       </c>
     </row>
     <row r="14">
@@ -3559,10 +3559,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-8033.104119881624</v>
+        <v>-9678.876415154555</v>
       </c>
       <c r="E14" t="n">
-        <v>-8033.104119881624</v>
+        <v>-9678.876415154555</v>
       </c>
     </row>
     <row r="15">
@@ -3576,10 +3576,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-46.71355178544763</v>
+        <v>35429.00008786113</v>
       </c>
       <c r="E15" t="n">
-        <v>-46.71355178544763</v>
+        <v>35429.00008786113</v>
       </c>
     </row>
     <row r="16">
@@ -3593,10 +3593,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-4584.431620380637</v>
+        <v>64675.02165589557</v>
       </c>
       <c r="E16" t="n">
-        <v>-4584.431620380637</v>
+        <v>64675.02165589557</v>
       </c>
     </row>
     <row r="17">
@@ -3610,10 +3610,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-22736.3121081877</v>
+        <v>68154.18477038981</v>
       </c>
       <c r="E17" t="n">
-        <v>-22736.3121081877</v>
+        <v>68154.18477038981</v>
       </c>
     </row>
     <row r="18">
@@ -3627,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-54626.82502417726</v>
+        <v>42652.17976253451</v>
       </c>
       <c r="E18" t="n">
-        <v>-54626.82502417726</v>
+        <v>42652.17976253451</v>
       </c>
     </row>
     <row r="19">
@@ -3644,10 +3644,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-99543.97029558051</v>
+        <v>-8978.926624474174</v>
       </c>
       <c r="E19" t="n">
-        <v>-99543.97029558051</v>
+        <v>-8978.926624474174</v>
       </c>
     </row>
     <row r="20">
@@ -3661,10 +3661,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-156175.592627594</v>
+        <v>-80526.38051407295</v>
       </c>
       <c r="E20" t="n">
-        <v>-156175.592627594</v>
+        <v>-80526.38051407295</v>
       </c>
     </row>
     <row r="21">
@@ -3678,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-222872.6846178682</v>
+        <v>-165276.6058687749</v>
       </c>
       <c r="E21" t="n">
-        <v>-222872.6846178682</v>
+        <v>-165276.6058687749</v>
       </c>
     </row>
     <row r="22">
@@ -3695,10 +3695,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-297882.919831069</v>
+        <v>-257783.1869034772</v>
       </c>
       <c r="E22" t="n">
-        <v>-297882.919831069</v>
+        <v>-257783.1869034772</v>
       </c>
     </row>
     <row r="23">
@@ -3712,10 +3712,10 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-379525.3383256611</v>
+        <v>-354385.9180959821</v>
       </c>
       <c r="E23" t="n">
-        <v>-379525.3383256611</v>
+        <v>-354385.9180959821</v>
       </c>
     </row>
     <row r="24">
@@ -3729,10 +3729,10 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-466299.8935482395</v>
+        <v>-452955.9262367352</v>
       </c>
       <c r="E24" t="n">
-        <v>-466299.8935482395</v>
+        <v>-452955.9262367352</v>
       </c>
     </row>
     <row r="25">
@@ -3746,10 +3746,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-556939.9781735605</v>
+        <v>-552393.711055098</v>
       </c>
       <c r="E25" t="n">
-        <v>-556939.9781735605</v>
+        <v>-552393.711055098</v>
       </c>
     </row>
     <row r="26">
@@ -3763,10 +3763,10 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-650422.5062868156</v>
+        <v>-652186.0770461611</v>
       </c>
       <c r="E26" t="n">
-        <v>-650422.5062868156</v>
+        <v>-652186.0770461611</v>
       </c>
     </row>
     <row r="27">
@@ -3780,10 +3780,10 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-745950.8941038509</v>
+        <v>-752113.6649343043</v>
       </c>
       <c r="E27" t="n">
-        <v>-745950.8941038509</v>
+        <v>-752113.6649343043</v>
       </c>
     </row>
     <row r="28">
@@ -3797,10 +3797,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-842923.8821459585</v>
+        <v>-852089.7014804804</v>
       </c>
       <c r="E28" t="n">
-        <v>-842923.8821459585</v>
+        <v>-852089.7014804804</v>
       </c>
     </row>
     <row r="29">
@@ -3814,10 +3814,10 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-940899.5820595394</v>
+        <v>-952082.142944529</v>
       </c>
       <c r="E29" t="n">
-        <v>-940899.5820595394</v>
+        <v>-952082.142944529</v>
       </c>
     </row>
     <row r="30">
@@ -3831,10 +3831,10 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-1039560.662535014</v>
+        <v>-1052079.861466173</v>
       </c>
       <c r="E30" t="n">
-        <v>-1039560.662535014</v>
+        <v>-1052079.861466173</v>
       </c>
     </row>
     <row r="31">
@@ -3848,10 +3848,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-1138683.807491319</v>
+        <v>-1152079.200101824</v>
       </c>
       <c r="E31" t="n">
-        <v>-1138683.807491319</v>
+        <v>-1152079.200101824</v>
       </c>
     </row>
     <row r="32">
@@ -3865,10 +3865,10 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-1238114.638136396</v>
+        <v>-1252079.015397398</v>
       </c>
       <c r="E32" t="n">
-        <v>-1238114.638136396</v>
+        <v>-1252079.015397398</v>
       </c>
     </row>
   </sheetData>
@@ -3928,10 +3928,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-609180.0144965888</v>
+        <v>-636605.8543918924</v>
       </c>
       <c r="E2" t="n">
-        <v>-609180.0144965888</v>
+        <v>-636605.8543918924</v>
       </c>
     </row>
     <row r="3">
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-516737.4485395652</v>
+        <v>-536697.8422131219</v>
       </c>
       <c r="E3" t="n">
-        <v>-516737.4485395652</v>
+        <v>-536697.8422131219</v>
       </c>
     </row>
     <row r="4">
@@ -3962,10 +3962,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-431615.5697657056</v>
+        <v>-437436.6755519865</v>
       </c>
       <c r="E4" t="n">
-        <v>-431615.5697657056</v>
+        <v>-437436.6755519865</v>
       </c>
     </row>
     <row r="5">
@@ -3979,10 +3979,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-356338.2960696234</v>
+        <v>-341065.3628215713</v>
       </c>
       <c r="E5" t="n">
-        <v>-356338.2960696234</v>
+        <v>-341065.3628215713</v>
       </c>
     </row>
     <row r="6">
@@ -3996,10 +3996,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-292122.5222678798</v>
+        <v>-253104.0811227408</v>
       </c>
       <c r="E6" t="n">
-        <v>-292122.5222678798</v>
+        <v>-253104.0811227408</v>
       </c>
     </row>
     <row r="7">
@@ -4013,10 +4013,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-238387.7644795455</v>
+        <v>-182194.7039411378</v>
       </c>
       <c r="E7" t="n">
-        <v>-238387.7644795455</v>
+        <v>-182194.7039411378</v>
       </c>
     </row>
     <row r="8">
@@ -4030,10 +4030,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-193002.8009098425</v>
+        <v>-136309.2680216668</v>
       </c>
       <c r="E8" t="n">
-        <v>-193002.8009098425</v>
+        <v>-136309.2680216668</v>
       </c>
     </row>
     <row r="9">
@@ -4047,10 +4047,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-153152.1858514855</v>
+        <v>-116773.6136035693</v>
       </c>
       <c r="E9" t="n">
-        <v>-153152.1858514855</v>
+        <v>-116773.6136035693</v>
       </c>
     </row>
     <row r="10">
@@ -4064,10 +4064,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-116433.3648099474</v>
+        <v>-114652.2000270153</v>
       </c>
       <c r="E10" t="n">
-        <v>-116433.3648099474</v>
+        <v>-114652.2000270153</v>
       </c>
     </row>
     <row r="11">
@@ -4081,10 +4081,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-81741.05552766912</v>
+        <v>-113546.6929835396</v>
       </c>
       <c r="E11" t="n">
-        <v>-81741.05552766912</v>
+        <v>-113546.6929835396</v>
       </c>
     </row>
     <row r="12">
@@ -4098,10 +4098,10 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-49637.4139435668</v>
+        <v>-98055.97334866668</v>
       </c>
       <c r="E12" t="n">
-        <v>-49637.4139435668</v>
+        <v>-98055.97334866668</v>
       </c>
     </row>
     <row r="13">
@@ -4115,10 +4115,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-22146.26567394548</v>
+        <v>-62009.21928112966</v>
       </c>
       <c r="E13" t="n">
-        <v>-22146.26567394548</v>
+        <v>-62009.21928112966</v>
       </c>
     </row>
     <row r="14">
@@ -4132,10 +4132,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-2128.942104792593</v>
+        <v>-11175.57241640024</v>
       </c>
       <c r="E14" t="n">
-        <v>-2128.942104792593</v>
+        <v>-11175.57241640024</v>
       </c>
     </row>
     <row r="15">
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>7487.829766700723</v>
+        <v>39988.44813920476</v>
       </c>
       <c r="E15" t="n">
-        <v>7487.829766700723</v>
+        <v>39988.44813920476</v>
       </c>
     </row>
     <row r="16">
@@ -4166,10 +4166,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>4375.285606803096</v>
+        <v>74915.22647426069</v>
       </c>
       <c r="E16" t="n">
-        <v>4375.285606803096</v>
+        <v>74915.22647426069</v>
       </c>
     </row>
     <row r="17">
@@ -4183,10 +4183,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-12798.85616221631</v>
+        <v>81577.79159714191</v>
       </c>
       <c r="E17" t="n">
-        <v>-12798.85616221631</v>
+        <v>81577.79159714191</v>
       </c>
     </row>
     <row r="18">
@@ -4200,10 +4200,10 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-44269.85625416838</v>
+        <v>56158.73042466212</v>
       </c>
       <c r="E18" t="n">
-        <v>-44269.85625416838</v>
+        <v>56158.73042466212</v>
       </c>
     </row>
     <row r="19">
@@ -4217,10 +4217,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-89313.20430447411</v>
+        <v>2370.585749728838</v>
       </c>
       <c r="E19" t="n">
-        <v>-89313.20430447411</v>
+        <v>2370.585749728838</v>
       </c>
     </row>
     <row r="20">
@@ -4234,10 +4234,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-146517.0963289652</v>
+        <v>-72145.22304979153</v>
       </c>
       <c r="E20" t="n">
-        <v>-146517.0963289652</v>
+        <v>-72145.22304979153</v>
       </c>
     </row>
     <row r="21">
@@ -4251,10 +4251,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-214090.3186003179</v>
+        <v>-159561.6994486696</v>
       </c>
       <c r="E21" t="n">
-        <v>-214090.3186003179</v>
+        <v>-159561.6994486696</v>
       </c>
     </row>
     <row r="22">
@@ -4268,10 +4268,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-290134.3619448467</v>
+        <v>-253959.0645861595</v>
       </c>
       <c r="E22" t="n">
-        <v>-290134.3619448467</v>
+        <v>-253959.0645861595</v>
       </c>
     </row>
     <row r="23">
@@ -4285,10 +4285,10 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-372843.7510025442</v>
+        <v>-351693.0649585446</v>
       </c>
       <c r="E23" t="n">
-        <v>-372843.7510025442</v>
+        <v>-351693.0649585446</v>
       </c>
     </row>
     <row r="24">
@@ -4302,10 +4302,10 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-460627.620970279</v>
+        <v>-450854.3262145583</v>
       </c>
       <c r="E24" t="n">
-        <v>-460627.620970279</v>
+        <v>-450854.3262145583</v>
       </c>
     </row>
     <row r="25">
@@ -4319,10 +4319,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-552163.6276240632</v>
+        <v>-550568.1651533912</v>
       </c>
       <c r="E25" t="n">
-        <v>-552163.6276240632</v>
+        <v>-550568.1651533912</v>
       </c>
     </row>
     <row r="26">
@@ -4336,10 +4336,10 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-646402.9217673533</v>
+        <v>-650477.557947485</v>
       </c>
       <c r="E26" t="n">
-        <v>-646402.9217673533</v>
+        <v>-650477.557947485</v>
       </c>
     </row>
     <row r="27">
@@ -4353,10 +4353,10 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-742545.2665368021</v>
+        <v>-750450.7640238528</v>
       </c>
       <c r="E27" t="n">
-        <v>-742545.2665368021</v>
+        <v>-750450.7640238528</v>
       </c>
     </row>
     <row r="28">
@@ -4370,10 +4370,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-839999.858958863</v>
+        <v>-850443.3206172436</v>
       </c>
       <c r="E28" t="n">
-        <v>-839999.858958863</v>
+        <v>-850443.3206172436</v>
       </c>
     </row>
     <row r="29">
@@ -4387,10 +4387,10 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-938342.6773677592</v>
+        <v>-950441.3676603024</v>
       </c>
       <c r="E29" t="n">
-        <v>-938342.6773677592</v>
+        <v>-950441.3676603024</v>
       </c>
     </row>
     <row r="30">
@@ -4404,10 +4404,10 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-1037276.787255845</v>
+        <v>-1050440.881358851</v>
       </c>
       <c r="E30" t="n">
-        <v>-1037276.787255845</v>
+        <v>-1050440.881358851</v>
       </c>
     </row>
     <row r="31">
@@ -4421,10 +4421,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-1136598.68053061</v>
+        <v>-1150440.765934159</v>
       </c>
       <c r="E31" t="n">
-        <v>-1136598.68053061</v>
+        <v>-1150440.765934159</v>
       </c>
     </row>
     <row r="32">
@@ -4438,10 +4438,10 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-1236171.502403151</v>
+        <v>-1250440.739719986</v>
       </c>
       <c r="E32" t="n">
-        <v>-1236171.502403151</v>
+        <v>-1250440.739719986</v>
       </c>
     </row>
   </sheetData>
@@ -4501,10 +4501,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-608748.9683728111</v>
+        <v>-637938.5779135887</v>
       </c>
       <c r="E2" t="n">
-        <v>-608748.9683728111</v>
+        <v>-637938.5779135887</v>
       </c>
     </row>
     <row r="3">
@@ -4518,10 +4518,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-514207.1711750169</v>
+        <v>-537945.5118182789</v>
       </c>
       <c r="E3" t="n">
-        <v>-514207.1711750169</v>
+        <v>-537945.5118182789</v>
       </c>
     </row>
     <row r="4">
@@ -4535,10 +4535,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-426196.7342048883</v>
+        <v>-438071.791098823</v>
       </c>
       <c r="E4" t="n">
-        <v>-426196.7342048883</v>
+        <v>-438071.791098823</v>
       </c>
     </row>
     <row r="5">
@@ -4552,10 +4552,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-347907.3090635468</v>
+        <v>-339218.6963595821</v>
       </c>
       <c r="E5" t="n">
-        <v>-347907.3090635468</v>
+        <v>-339218.6963595821</v>
       </c>
     </row>
     <row r="6">
@@ -4569,10 +4569,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-281482.6879232022</v>
+        <v>-245203.4250196939</v>
       </c>
       <c r="E6" t="n">
-        <v>-281482.6879232022</v>
+        <v>-245203.4250196939</v>
       </c>
     </row>
     <row r="7">
@@ -4586,10 +4586,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-227066.7172241423</v>
+        <v>-165223.3772772916</v>
       </c>
       <c r="E7" t="n">
-        <v>-227066.7172241423</v>
+        <v>-165223.3772772916</v>
       </c>
     </row>
     <row r="8">
@@ -4603,10 +4603,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-182663.4874989796</v>
+        <v>-111965.2496787227</v>
       </c>
       <c r="E8" t="n">
-        <v>-182663.4874989796</v>
+        <v>-111965.2496787227</v>
       </c>
     </row>
     <row r="9">
@@ -4620,10 +4620,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-144913.4103690895</v>
+        <v>-93032.63493134637</v>
       </c>
       <c r="E9" t="n">
-        <v>-144913.4103690895</v>
+        <v>-93032.63493134637</v>
       </c>
     </row>
     <row r="10">
@@ -4637,10 +4637,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-110423.7066188159</v>
+        <v>-101605.0228074494</v>
       </c>
       <c r="E10" t="n">
-        <v>-110423.7066188159</v>
+        <v>-101605.0228074494</v>
       </c>
     </row>
     <row r="11">
@@ -4654,10 +4654,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-77071.07561985869</v>
+        <v>-115979.9670723923</v>
       </c>
       <c r="E11" t="n">
-        <v>-77071.07561985869</v>
+        <v>-115979.9670723923</v>
       </c>
     </row>
     <row r="12">
@@ -4671,10 +4671,10 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-44767.64519309226</v>
+        <v>-111686.3275189576</v>
       </c>
       <c r="E12" t="n">
-        <v>-44767.64519309226</v>
+        <v>-111686.3275189576</v>
       </c>
     </row>
     <row r="13">
@@ -4688,10 +4688,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-15460.30551394656</v>
+        <v>-76841.02604951295</v>
       </c>
       <c r="E13" t="n">
-        <v>-15460.30551394656</v>
+        <v>-76841.02604951295</v>
       </c>
     </row>
     <row r="14">
@@ -4705,10 +4705,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>7535.719254121243</v>
+        <v>-17482.06001264447</v>
       </c>
       <c r="E14" t="n">
-        <v>7535.719254121243</v>
+        <v>-17482.06001264447</v>
       </c>
     </row>
     <row r="15">
@@ -4722,10 +4722,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>20536.55516541853</v>
+        <v>47644.2607322581</v>
       </c>
       <c r="E15" t="n">
-        <v>20536.55516541853</v>
+        <v>47644.2607322581</v>
       </c>
     </row>
     <row r="16">
@@ -4739,10 +4739,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>20438.46740392187</v>
+        <v>95772.56944608141</v>
       </c>
       <c r="E16" t="n">
-        <v>20438.46740392187</v>
+        <v>95772.56944608141</v>
       </c>
     </row>
     <row r="17">
@@ -4756,10 +4756,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>5340.692068865901</v>
+        <v>109377.1683381871</v>
       </c>
       <c r="E17" t="n">
-        <v>5340.692068865901</v>
+        <v>109377.1683381871</v>
       </c>
     </row>
     <row r="18">
@@ -4773,10 +4773,10 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-25251.77037001943</v>
+        <v>83062.39032052466</v>
       </c>
       <c r="E18" t="n">
-        <v>-25251.77037001943</v>
+        <v>83062.39032052466</v>
       </c>
     </row>
     <row r="19">
@@ -4790,10 +4790,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-70581.31713613292</v>
+        <v>23293.6669218496</v>
       </c>
       <c r="E19" t="n">
-        <v>-70581.31713613292</v>
+        <v>23293.6669218496</v>
       </c>
     </row>
     <row r="20">
@@ -4807,10 +4807,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-129000.0385814742</v>
+        <v>-58179.76407875412</v>
       </c>
       <c r="E20" t="n">
-        <v>-129000.0385814742</v>
+        <v>-58179.76407875412</v>
       </c>
     </row>
     <row r="21">
@@ -4824,10 +4824,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-198388.7589688542</v>
+        <v>-150935.3303445003</v>
       </c>
       <c r="E21" t="n">
-        <v>-198388.7589688542</v>
+        <v>-150935.3303445003</v>
       </c>
     </row>
     <row r="22">
@@ -4841,10 +4841,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-276522.9252837981</v>
+        <v>-248506.9387221962</v>
       </c>
       <c r="E22" t="n">
-        <v>-276522.9252837981</v>
+        <v>-248506.9387221962</v>
       </c>
     </row>
     <row r="23">
@@ -4858,10 +4858,10 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-361331.6927099183</v>
+        <v>-347801.5866474914</v>
       </c>
       <c r="E23" t="n">
-        <v>-361331.6927099183</v>
+        <v>-347801.5866474914</v>
       </c>
     </row>
     <row r="24">
@@ -4875,10 +4875,10 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-451043.0381265018</v>
+        <v>-447622.0866511422</v>
       </c>
       <c r="E24" t="n">
-        <v>-451043.0381265018</v>
+        <v>-447622.0866511422</v>
       </c>
     </row>
     <row r="25">
@@ -4892,10 +4892,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-544235.3241006586</v>
+        <v>-547581.6303073196</v>
       </c>
       <c r="E25" t="n">
-        <v>-544235.3241006586</v>
+        <v>-547581.6303073196</v>
       </c>
     </row>
     <row r="26">
@@ -4909,10 +4909,10 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-639825.7451032437</v>
+        <v>-647573.4713738153</v>
       </c>
       <c r="E26" t="n">
-        <v>-639825.7451032437</v>
+        <v>-647573.4713738153</v>
       </c>
     </row>
     <row r="27">
@@ -4926,10 +4926,10 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-737024.4489228528</v>
+        <v>-747571.9848425379</v>
       </c>
       <c r="E27" t="n">
-        <v>-737024.4489228528</v>
+        <v>-747571.9848425379</v>
       </c>
     </row>
     <row r="28">
@@ -4943,10 +4943,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-835276.0548866331</v>
+        <v>-847571.7379751951</v>
       </c>
       <c r="E28" t="n">
-        <v>-835276.0548866331</v>
+        <v>-847571.7379751951</v>
       </c>
     </row>
     <row r="29">
@@ -4960,10 +4960,10 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-934202.2295850643</v>
+        <v>-947571.7003013261</v>
       </c>
       <c r="E29" t="n">
-        <v>-934202.2295850643</v>
+        <v>-947571.7003013261</v>
       </c>
     </row>
     <row r="30">
@@ -4977,10 +4977,10 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-1033552.270534324</v>
+        <v>-1047571.694978639</v>
       </c>
       <c r="E30" t="n">
-        <v>-1033552.270534324</v>
+        <v>-1047571.694978639</v>
       </c>
     </row>
     <row r="31">
@@ -4994,10 +4994,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-1133164.035674794</v>
+        <v>-1147571.694277732</v>
       </c>
       <c r="E31" t="n">
-        <v>-1133164.035674794</v>
+        <v>-1147571.694277732</v>
       </c>
     </row>
     <row r="32">
@@ -5011,10 +5011,10 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-1232934.886806254</v>
+        <v>-1247571.694191184</v>
       </c>
       <c r="E32" t="n">
-        <v>-1232934.886806254</v>
+        <v>-1247571.694191184</v>
       </c>
     </row>
   </sheetData>
@@ -5074,10 +5074,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-608798.2640363122</v>
+        <v>-639278.5884827573</v>
       </c>
       <c r="E2" t="n">
-        <v>-608798.2640363122</v>
+        <v>-639278.5884827573</v>
       </c>
     </row>
     <row r="3">
@@ -5091,10 +5091,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-512290.6003920102</v>
+        <v>-539278.6018086724</v>
       </c>
       <c r="E3" t="n">
-        <v>-512290.6003920102</v>
+        <v>-539278.6018086724</v>
       </c>
     </row>
     <row r="4">
@@ -5108,10 +5108,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-421170.8259058817</v>
+        <v>-439280.4386652104</v>
       </c>
       <c r="E4" t="n">
-        <v>-421170.8259058817</v>
+        <v>-439280.4386652104</v>
       </c>
     </row>
     <row r="5">
@@ -5125,10 +5125,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-339205.4679895248</v>
+        <v>-339355.4672368598</v>
       </c>
       <c r="E5" t="n">
-        <v>-339205.4679895248</v>
+        <v>-339355.4672368598</v>
       </c>
     </row>
     <row r="6">
@@ -5142,10 +5142,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-269686.2263030126</v>
+        <v>-240522.5254078459</v>
       </c>
       <c r="E6" t="n">
-        <v>-269686.2263030126</v>
+        <v>-240522.5254078459</v>
       </c>
     </row>
     <row r="7">
@@ -5159,10 +5159,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-213921.5002621808</v>
+        <v>-148905.237835786</v>
       </c>
       <c r="E7" t="n">
-        <v>-213921.5002621808</v>
+        <v>-148905.237835786</v>
       </c>
     </row>
     <row r="8">
@@ -5176,10 +5176,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-170445.6491387005</v>
+        <v>-81358.49965789622</v>
       </c>
       <c r="E8" t="n">
-        <v>-170445.6491387005</v>
+        <v>-81358.49965789622</v>
       </c>
     </row>
     <row r="9">
@@ -5193,10 +5193,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-135465.5188266025</v>
+        <v>-58299.49715325074</v>
       </c>
       <c r="E9" t="n">
-        <v>-135465.5188266025</v>
+        <v>-58299.49715325074</v>
       </c>
     </row>
     <row r="10">
@@ -5210,10 +5210,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-104358.2026676677</v>
+        <v>-81551.08794753111</v>
       </c>
       <c r="E10" t="n">
-        <v>-104358.2026676677</v>
+        <v>-81551.08794753111</v>
       </c>
     </row>
     <row r="11">
@@ -5227,10 +5227,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-73516.59898207398</v>
+        <v>-122082.0361143624</v>
       </c>
       <c r="E11" t="n">
-        <v>-73516.59898207398</v>
+        <v>-122082.0361143624</v>
       </c>
     </row>
     <row r="12">
@@ -5244,10 +5244,10 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-41741.47362544344</v>
+        <v>-136328.980039101</v>
       </c>
       <c r="E12" t="n">
-        <v>-41741.47362544344</v>
+        <v>-136328.980039101</v>
       </c>
     </row>
     <row r="13">
@@ -5261,10 +5261,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-10655.12419752379</v>
+        <v>-101708.0309177425</v>
       </c>
       <c r="E13" t="n">
-        <v>-10655.12419752379</v>
+        <v>-101708.0309177425</v>
       </c>
     </row>
     <row r="14">
@@ -5278,10 +5278,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>15922.01354772784</v>
+        <v>-29281.65392909115</v>
       </c>
       <c r="E14" t="n">
-        <v>15922.01354772784</v>
+        <v>-29281.65392909115</v>
       </c>
     </row>
     <row r="15">
@@ -5295,10 +5295,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>33263.16933712448</v>
+        <v>55157.163568421</v>
       </c>
       <c r="E15" t="n">
-        <v>33263.16933712448</v>
+        <v>55157.163568421</v>
       </c>
     </row>
     <row r="16">
@@ -5312,10 +5312,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>37126.37324722771</v>
+        <v>122750.4544288449</v>
       </c>
       <c r="E16" t="n">
-        <v>37126.37324722771</v>
+        <v>122750.4544288449</v>
       </c>
     </row>
     <row r="17">
@@ -5329,10 +5329,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>24756.71489953724</v>
+        <v>146205.4969401413</v>
       </c>
       <c r="E17" t="n">
-        <v>24756.71489953724</v>
+        <v>146205.4969401413</v>
       </c>
     </row>
     <row r="18">
@@ -5346,10 +5346,10 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-4725.104327376001</v>
+        <v>115595.1394649898</v>
       </c>
       <c r="E18" t="n">
-        <v>-4725.104327376001</v>
+        <v>115595.1394649898</v>
       </c>
     </row>
     <row r="19">
@@ -5363,10 +5363,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-50494.73434648069</v>
+        <v>44316.58099049621</v>
       </c>
       <c r="E19" t="n">
-        <v>-50494.73434648069</v>
+        <v>44316.58099049621</v>
       </c>
     </row>
     <row r="20">
@@ -5380,10 +5380,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-110535.8325370052</v>
+        <v>-47001.25788890745</v>
       </c>
       <c r="E20" t="n">
-        <v>-110535.8325370052</v>
+        <v>-47001.25788890745</v>
       </c>
     </row>
     <row r="21">
@@ -5397,10 +5397,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-182242.9858094269</v>
+        <v>-145068.010662828</v>
       </c>
       <c r="E21" t="n">
-        <v>-182242.9858094269</v>
+        <v>-145068.010662828</v>
       </c>
     </row>
     <row r="22">
@@ -5414,10 +5414,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-262935.5222315643</v>
+        <v>-244745.4917205722</v>
       </c>
       <c r="E22" t="n">
-        <v>-262935.5222315643</v>
+        <v>-244745.4917205722</v>
       </c>
     </row>
     <row r="23">
@@ -5431,10 +5431,10 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-350199.6807337283</v>
+        <v>-344704.3500971345</v>
       </c>
       <c r="E23" t="n">
-        <v>-350199.6807337283</v>
+        <v>-344704.3500971345</v>
       </c>
     </row>
     <row r="24">
@@ -5448,10 +5448,10 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-442056.4513351005</v>
+        <v>-444700.2512180365</v>
       </c>
       <c r="E24" t="n">
-        <v>-442056.4513351005</v>
+        <v>-444700.2512180365</v>
       </c>
     </row>
     <row r="25">
@@ -5465,10 +5465,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-536996.1782260395</v>
+        <v>-544699.925612412</v>
       </c>
       <c r="E25" t="n">
-        <v>-536996.1782260395</v>
+        <v>-544699.925612412</v>
       </c>
     </row>
     <row r="26">
@@ -5482,10 +5482,10 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-633932.6369145454</v>
+        <v>-644699.9045809824</v>
       </c>
       <c r="E26" t="n">
-        <v>-633932.6369145454</v>
+        <v>-644699.9045809824</v>
       </c>
     </row>
     <row r="27">
@@ -5499,10 +5499,10 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-732121.580307428</v>
+        <v>-744699.9034560847</v>
       </c>
       <c r="E27" t="n">
-        <v>-732121.580307428</v>
+        <v>-744699.9034560847</v>
       </c>
     </row>
     <row r="28">
@@ -5516,10 +5516,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-831073.9474493782</v>
+        <v>-844699.9034054177</v>
       </c>
       <c r="E28" t="n">
-        <v>-831073.9474493782</v>
+        <v>-844699.9034054177</v>
       </c>
     </row>
     <row r="29">
@@ -5533,10 +5533,10 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-930479.8001355813</v>
+        <v>-944699.9034034656</v>
       </c>
       <c r="E29" t="n">
-        <v>-930479.8001355813</v>
+        <v>-944699.9034034656</v>
       </c>
     </row>
     <row r="30">
@@ -5550,10 +5550,10 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-1030148.851307602</v>
+        <v>-1044699.9034034</v>
       </c>
       <c r="E30" t="n">
-        <v>-1030148.851307602</v>
+        <v>-1044699.9034034</v>
       </c>
     </row>
     <row r="31">
@@ -5567,10 +5567,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-1129967.498547529</v>
+        <v>-1144699.903403399</v>
       </c>
       <c r="E31" t="n">
-        <v>-1129967.498547529</v>
+        <v>-1144699.903403399</v>
       </c>
     </row>
     <row r="32">
@@ -5584,10 +5584,10 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-1229869.583948557</v>
+        <v>-1244699.903403398</v>
       </c>
       <c r="E32" t="n">
-        <v>-1229869.583948557</v>
+        <v>-1244699.903403398</v>
       </c>
     </row>
   </sheetData>
@@ -5647,10 +5647,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-608824.6850459708</v>
+        <v>-638129.8655525512</v>
       </c>
       <c r="E2" t="n">
-        <v>-608824.6850459708</v>
+        <v>-638129.8655525512</v>
       </c>
     </row>
     <row r="3">
@@ -5664,10 +5664,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-514875.2850457149</v>
+        <v>-538133.8551309513</v>
       </c>
       <c r="E3" t="n">
-        <v>-514875.2850457149</v>
+        <v>-538133.8551309513</v>
       </c>
     </row>
     <row r="4">
@@ -5681,10 +5681,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-427717.0973727709</v>
+        <v>-438220.5356553502</v>
       </c>
       <c r="E4" t="n">
-        <v>-427717.0973727709</v>
+        <v>-438220.5356553502</v>
       </c>
     </row>
     <row r="5">
@@ -5698,10 +5698,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-350352.274362654</v>
+        <v>-339118.8680822689</v>
       </c>
       <c r="E5" t="n">
-        <v>-350352.274362654</v>
+        <v>-339118.8680822689</v>
       </c>
     </row>
     <row r="6">
@@ -5715,10 +5715,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-284636.1237282017</v>
+        <v>-244281.9299748256</v>
       </c>
       <c r="E6" t="n">
-        <v>-284636.1237282017</v>
+        <v>-244281.9299748256</v>
       </c>
     </row>
     <row r="7">
@@ -5732,10 +5732,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-230467.0803250998</v>
+        <v>-162776.900029033</v>
       </c>
       <c r="E7" t="n">
-        <v>-230467.0803250998</v>
+        <v>-162776.900029033</v>
       </c>
     </row>
     <row r="8">
@@ -5749,10 +5749,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-185780.0104398521</v>
+        <v>-108018.6924287913</v>
       </c>
       <c r="E8" t="n">
-        <v>-185780.0104398521</v>
+        <v>-108018.6924287913</v>
       </c>
     </row>
     <row r="9">
@@ -5766,10 +5766,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-147365.8906470399</v>
+        <v>-88913.54302626592</v>
       </c>
       <c r="E9" t="n">
-        <v>-147365.8906470399</v>
+        <v>-88913.54302626592</v>
       </c>
     </row>
     <row r="10">
@@ -5783,10 +5783,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-112138.4169551158</v>
+        <v>-99294.84950342349</v>
       </c>
       <c r="E10" t="n">
-        <v>-112138.4169551158</v>
+        <v>-99294.84950342349</v>
       </c>
     </row>
     <row r="11">
@@ -5800,10 +5800,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-78305.09363101172</v>
+        <v>-116547.466287741</v>
       </c>
       <c r="E11" t="n">
-        <v>-78305.09363101172</v>
+        <v>-116547.466287741</v>
       </c>
     </row>
     <row r="12">
@@ -5817,10 +5817,10 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-46000.86368394922</v>
+        <v>-114343.1896487646</v>
       </c>
       <c r="E12" t="n">
-        <v>-46000.86368394922</v>
+        <v>-114343.1896487646</v>
       </c>
     </row>
     <